--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sgq\Desktop\Projetos\Analise_Hora_Máquina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611132FC-F2A7-4B4B-856D-6068A0DFF78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7506088-391B-41AD-B41D-5BAEC0494860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="134">
   <si>
     <t>ORCAMENTO</t>
   </si>
@@ -378,6 +378,54 @@
   </si>
   <si>
     <t>ORC 203</t>
+  </si>
+  <si>
+    <t>SHAMAH</t>
+  </si>
+  <si>
+    <t>N4-0200354</t>
+  </si>
+  <si>
+    <t>N4-0200354 P002</t>
+  </si>
+  <si>
+    <t>N4-0200362</t>
+  </si>
+  <si>
+    <t>N4-0200362 P002</t>
+  </si>
+  <si>
+    <t>N4-0200342</t>
+  </si>
+  <si>
+    <t>N4-0200332</t>
+  </si>
+  <si>
+    <t>N4-0200332 P004</t>
+  </si>
+  <si>
+    <t>N4-0200332 P002</t>
+  </si>
+  <si>
+    <t>N4-0200330</t>
+  </si>
+  <si>
+    <t>N4-0200330 P002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE </t>
+  </si>
+  <si>
+    <t>HK302062-01</t>
+  </si>
+  <si>
+    <t>HKHK302062-01</t>
+  </si>
+  <si>
+    <t>HVHV311448-01</t>
+  </si>
+  <si>
+    <t>HVHV311443-03</t>
   </si>
 </sst>
 </file>
@@ -1255,38 +1303,39 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA77"/>
+  <dimension ref="A1:AA101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -1306,63 +1355,66 @@
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="M1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>21</v>
       </c>
       <c r="AA1" s="2" t="s">
@@ -1385,35 +1437,36 @@
       <c r="E2" s="2">
         <v>15474348</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
         <v>3</v>
       </c>
-      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="2">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2">
         <v>30</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="2">
         <v>5</v>
       </c>
-      <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="2">
+      <c r="T2" s="2"/>
+      <c r="U2" s="2">
         <v>15</v>
       </c>
-      <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2">
-        <f t="shared" ref="Y2:Y33" si="0">SUM(F2:X2)</f>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2">
+        <f t="shared" ref="Z2:Z33" si="0">SUM(G2:Y2)</f>
         <v>53</v>
       </c>
       <c r="AA2" s="2" t="s">
@@ -1436,34 +1489,35 @@
       <c r="E3" s="2">
         <v>15981891</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
         <v>5</v>
       </c>
-      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="2">
+      <c r="M3" s="2"/>
+      <c r="N3" s="2">
         <v>30</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <v>5</v>
       </c>
-      <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-      <c r="T3" s="2">
+      <c r="T3" s="2"/>
+      <c r="U3" s="2">
         <v>15</v>
       </c>
-      <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2">
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
@@ -1487,36 +1541,37 @@
       <c r="E4" s="2">
         <v>14577949</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="2">
+      <c r="M4" s="2"/>
+      <c r="N4" s="2">
         <v>40</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <v>5</v>
       </c>
-      <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="2">
-        <v>15</v>
-      </c>
+      <c r="S4" s="2"/>
       <c r="T4" s="2">
         <v>15</v>
       </c>
-      <c r="U4" s="2"/>
+      <c r="U4" s="2">
+        <v>15</v>
+      </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2">
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -1540,36 +1595,37 @@
       <c r="E5" s="2">
         <v>14577954</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="2">
+      <c r="M5" s="2"/>
+      <c r="N5" s="2">
         <v>40</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>5</v>
       </c>
-      <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="2">
-        <v>15</v>
-      </c>
+      <c r="S5" s="2"/>
       <c r="T5" s="2">
         <v>15</v>
       </c>
-      <c r="U5" s="2"/>
+      <c r="U5" s="2">
+        <v>15</v>
+      </c>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2">
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -1593,36 +1649,37 @@
       <c r="E6" s="2">
         <v>17865788</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
         <v>3</v>
       </c>
-      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2">
         <v>15</v>
       </c>
-      <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="2">
+      <c r="M6" s="2"/>
+      <c r="N6" s="2">
         <v>40</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <v>5</v>
       </c>
-      <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="2">
+      <c r="T6" s="2"/>
+      <c r="U6" s="2">
         <v>20</v>
       </c>
-      <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2">
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
@@ -1646,36 +1703,37 @@
       <c r="E7" s="2">
         <v>17867985</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
         <v>3</v>
       </c>
-      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2">
         <v>15</v>
       </c>
-      <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2">
+      <c r="M7" s="2"/>
+      <c r="N7" s="2">
         <v>40</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>5</v>
       </c>
-      <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
-      <c r="T7" s="2">
+      <c r="T7" s="2"/>
+      <c r="U7" s="2">
         <v>20</v>
       </c>
-      <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2">
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
@@ -1699,36 +1757,37 @@
       <c r="E8" s="2">
         <v>15545079</v>
       </c>
-      <c r="F8" s="2">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>10</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2">
+      <c r="L8" s="2"/>
+      <c r="M8" s="2">
         <v>30</v>
       </c>
-      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="2">
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2">
         <v>5</v>
       </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2">
+      <c r="S8" s="2"/>
+      <c r="T8" s="2">
         <v>20</v>
       </c>
-      <c r="T8" s="2">
-        <v>10</v>
-      </c>
-      <c r="U8" s="2"/>
+      <c r="U8" s="2">
+        <v>10</v>
+      </c>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2">
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -1752,36 +1811,37 @@
       <c r="E9" s="2">
         <v>15545082</v>
       </c>
-      <c r="F9" s="2">
-        <v>10</v>
-      </c>
-      <c r="G9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>10</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2">
+      <c r="L9" s="2"/>
+      <c r="M9" s="2">
         <v>30</v>
       </c>
-      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="2">
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2">
         <v>5</v>
       </c>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2">
+      <c r="S9" s="2"/>
+      <c r="T9" s="2">
         <v>20</v>
       </c>
-      <c r="T9" s="2">
-        <v>10</v>
-      </c>
-      <c r="U9" s="2"/>
+      <c r="U9" s="2">
+        <v>10</v>
+      </c>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2">
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -1805,36 +1865,39 @@
       <c r="E10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="2">
         <v>15</v>
       </c>
-      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2">
+      <c r="L10" s="2"/>
+      <c r="M10" s="2">
         <v>60</v>
       </c>
-      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="2">
+      <c r="O10" s="2"/>
+      <c r="P10" s="2">
         <v>15</v>
       </c>
-      <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="2">
+      <c r="S10" s="2"/>
+      <c r="T10" s="2">
         <v>60</v>
       </c>
-      <c r="T10" s="2">
+      <c r="U10" s="2">
         <v>30</v>
       </c>
-      <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2">
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
@@ -1858,36 +1921,39 @@
       <c r="E11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2">
         <v>15</v>
       </c>
-      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="2">
+      <c r="L11" s="2"/>
+      <c r="M11" s="2">
         <v>60</v>
       </c>
-      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="2">
+      <c r="O11" s="2"/>
+      <c r="P11" s="2">
         <v>15</v>
       </c>
-      <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="2">
+      <c r="S11" s="2"/>
+      <c r="T11" s="2">
         <v>60</v>
       </c>
-      <c r="T11" s="2">
+      <c r="U11" s="2">
         <v>30</v>
       </c>
-      <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2">
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
@@ -1911,34 +1977,37 @@
       <c r="E12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="2">
-        <v>10</v>
-      </c>
-      <c r="G12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="2">
+        <v>10</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2">
+      <c r="L12" s="2"/>
+      <c r="M12" s="2">
         <v>15</v>
       </c>
-      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="2">
+      <c r="S12" s="2"/>
+      <c r="T12" s="2">
         <v>15</v>
       </c>
-      <c r="T12" s="2">
-        <v>10</v>
-      </c>
-      <c r="U12" s="2"/>
+      <c r="U12" s="2">
+        <v>10</v>
+      </c>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2">
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -1962,32 +2031,35 @@
       <c r="E13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="2">
         <v>5</v>
       </c>
-      <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="2">
-        <v>10</v>
-      </c>
-      <c r="M13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2">
+        <v>10</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-      <c r="T13" s="2">
+      <c r="T13" s="2"/>
+      <c r="U13" s="2">
         <v>5</v>
       </c>
-      <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2">
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -2011,12 +2083,14 @@
       <c r="E14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="2">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2">
         <v>1</v>
       </c>
-      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -2032,7 +2106,8 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2">
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2056,34 +2131,37 @@
       <c r="E15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="2">
         <v>15</v>
       </c>
-      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="2">
+      <c r="L15" s="2"/>
+      <c r="M15" s="2">
         <v>15</v>
       </c>
-      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="2">
+      <c r="S15" s="2"/>
+      <c r="T15" s="2">
         <v>60</v>
       </c>
-      <c r="T15" s="2">
+      <c r="U15" s="2">
         <v>15</v>
       </c>
-      <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2">
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
@@ -2107,36 +2185,39 @@
       <c r="E16" s="2">
         <v>14347032</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="2">
         <v>2</v>
       </c>
-      <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2">
+      <c r="J16" s="2"/>
+      <c r="K16" s="2">
         <v>30</v>
       </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2">
-        <v>10</v>
-      </c>
-      <c r="M16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2">
+        <v>10</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="2">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2">
         <v>3</v>
       </c>
-      <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-      <c r="W16" s="2">
-        <v>10</v>
-      </c>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2">
+      <c r="W16" s="2"/>
+      <c r="X16" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
@@ -2160,18 +2241,20 @@
       <c r="E17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="2">
-        <v>10</v>
-      </c>
-      <c r="G17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="2">
+        <v>10</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="2">
+      <c r="L17" s="2"/>
+      <c r="M17" s="2">
         <v>60</v>
       </c>
-      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -2183,7 +2266,8 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2">
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -2207,34 +2291,37 @@
       <c r="E18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="2">
         <v>5</v>
       </c>
-      <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2">
+      <c r="L18" s="2"/>
+      <c r="M18" s="2">
         <v>30</v>
       </c>
-      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="2">
+      <c r="S18" s="2"/>
+      <c r="T18" s="2">
         <v>40</v>
       </c>
-      <c r="T18" s="2">
+      <c r="U18" s="2">
         <v>15</v>
       </c>
-      <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2">
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
@@ -2260,10 +2347,10 @@
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2">
         <v>5</v>
       </c>
-      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -2274,14 +2361,15 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-      <c r="T19" s="2">
-        <v>10</v>
-      </c>
-      <c r="U19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2">
+        <v>10</v>
+      </c>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2">
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -2305,36 +2393,39 @@
       <c r="E20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="2">
         <v>15</v>
       </c>
-      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="2">
+      <c r="J20" s="2"/>
+      <c r="K20" s="2">
         <v>5</v>
       </c>
-      <c r="K20" s="2">
+      <c r="L20" s="2">
         <v>30</v>
       </c>
-      <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="2">
+      <c r="S20" s="2"/>
+      <c r="T20" s="2">
         <v>20</v>
       </c>
-      <c r="T20" s="2">
+      <c r="U20" s="2">
         <v>5</v>
       </c>
-      <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2">
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -2358,7 +2449,9 @@
       <c r="E21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -2376,10 +2469,11 @@
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
-      <c r="X21" s="2">
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2">
         <v>4200</v>
       </c>
-      <c r="Y21" s="2">
+      <c r="Z21" s="2">
         <f t="shared" si="0"/>
         <v>4200</v>
       </c>
@@ -2403,7 +2497,9 @@
       <c r="E22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -2421,10 +2517,11 @@
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
-      <c r="X22" s="2">
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2">
         <v>4200</v>
       </c>
-      <c r="Y22" s="2">
+      <c r="Z22" s="2">
         <f t="shared" si="0"/>
         <v>4200</v>
       </c>
@@ -2448,7 +2545,9 @@
       <c r="E23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -2466,10 +2565,11 @@
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
-      <c r="X23" s="2">
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2">
         <v>720</v>
       </c>
-      <c r="Y23" s="2">
+      <c r="Z23" s="2">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
@@ -2493,36 +2593,39 @@
       <c r="E24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="2">
         <v>3</v>
       </c>
-      <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="2">
+      <c r="K24" s="2"/>
+      <c r="L24" s="2">
         <v>15</v>
       </c>
-      <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="2">
+      <c r="O24" s="2"/>
+      <c r="P24" s="2">
         <v>40</v>
       </c>
-      <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="2">
+      <c r="S24" s="2"/>
+      <c r="T24" s="2">
         <v>30</v>
       </c>
-      <c r="T24" s="2">
+      <c r="U24" s="2">
         <v>20</v>
       </c>
-      <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="2">
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
@@ -2546,36 +2649,39 @@
       <c r="E25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="2">
         <v>60</v>
       </c>
-      <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="2">
+      <c r="L25" s="2"/>
+      <c r="M25" s="2">
         <v>60</v>
       </c>
-      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="2">
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2">
         <v>15</v>
       </c>
-      <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="2">
+      <c r="S25" s="2"/>
+      <c r="T25" s="2">
         <v>30</v>
       </c>
-      <c r="T25" s="2">
+      <c r="U25" s="2">
         <v>15</v>
       </c>
-      <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Y25" s="2">
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
@@ -2599,11 +2705,13 @@
       <c r="E26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2">
+      <c r="F26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2">
         <v>5</v>
       </c>
-      <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -2611,22 +2719,23 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="2">
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2">
         <v>3</v>
       </c>
-      <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="2">
-        <v>10</v>
-      </c>
+      <c r="S26" s="2"/>
       <c r="T26" s="2">
         <v>10</v>
       </c>
-      <c r="U26" s="2"/>
+      <c r="U26" s="2">
+        <v>10</v>
+      </c>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
-      <c r="Y26" s="2">
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -2648,36 +2757,39 @@
         <v>69</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="2">
+      <c r="G27" s="2">
         <v>5</v>
       </c>
-      <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="2">
-        <v>10</v>
-      </c>
-      <c r="M27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2">
+        <v>10</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
-      <c r="S27" s="2">
+      <c r="S27" s="2"/>
+      <c r="T27" s="2">
         <v>15</v>
       </c>
-      <c r="T27" s="2">
+      <c r="U27" s="2">
         <v>5</v>
       </c>
-      <c r="U27" s="2"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
-      <c r="Y27" s="2">
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -2699,36 +2811,37 @@
         <v>70</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="2">
+        <v>133</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2">
         <v>50</v>
       </c>
-      <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="2">
+      <c r="L28" s="2"/>
+      <c r="M28" s="2">
         <v>120</v>
       </c>
-      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
-      <c r="S28" s="2">
+      <c r="S28" s="2"/>
+      <c r="T28" s="2">
         <v>120</v>
       </c>
-      <c r="T28" s="2">
+      <c r="U28" s="2">
         <v>50</v>
       </c>
-      <c r="U28" s="2"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
-      <c r="Y28" s="2">
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2">
         <f t="shared" si="0"/>
         <v>340</v>
       </c>
@@ -2752,34 +2865,37 @@
       <c r="E29" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="2">
         <v>30</v>
       </c>
-      <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="2">
+      <c r="M29" s="2"/>
+      <c r="N29" s="2">
         <v>25</v>
       </c>
-      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="2">
+      <c r="S29" s="2"/>
+      <c r="T29" s="2">
         <v>20</v>
       </c>
-      <c r="T29" s="2">
-        <v>10</v>
-      </c>
-      <c r="U29" s="2"/>
+      <c r="U29" s="2">
+        <v>10</v>
+      </c>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
-      <c r="Y29" s="2">
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
@@ -2803,23 +2919,25 @@
       <c r="E30" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="2">
         <v>8</v>
       </c>
-      <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="2">
+      <c r="J30" s="2"/>
+      <c r="K30" s="2">
         <v>20</v>
       </c>
-      <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="2">
+      <c r="O30" s="2"/>
+      <c r="P30" s="2">
         <v>15</v>
       </c>
-      <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
@@ -2828,7 +2946,8 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
-      <c r="Y30" s="2">
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
@@ -2852,36 +2971,39 @@
       <c r="E31" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="2">
-        <v>10</v>
-      </c>
-      <c r="G31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="2">
+        <v>10</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="2">
+      <c r="L31" s="2"/>
+      <c r="M31" s="2">
         <v>30</v>
       </c>
-      <c r="M31" s="2">
-        <v>10</v>
-      </c>
-      <c r="N31" s="2"/>
+      <c r="N31" s="2">
+        <v>10</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
-      <c r="S31" s="2">
+      <c r="S31" s="2"/>
+      <c r="T31" s="2">
         <v>40</v>
       </c>
-      <c r="T31" s="2">
-        <v>10</v>
-      </c>
-      <c r="U31" s="2"/>
+      <c r="U31" s="2">
+        <v>10</v>
+      </c>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
-      <c r="Y31" s="2">
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -2905,34 +3027,37 @@
       <c r="E32" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="2">
         <v>5</v>
       </c>
-      <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="2">
+      <c r="J32" s="2"/>
+      <c r="K32" s="2">
         <v>25</v>
       </c>
-      <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="2">
+      <c r="M32" s="2"/>
+      <c r="N32" s="2">
         <v>25</v>
       </c>
-      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
-      <c r="T32" s="2">
+      <c r="T32" s="2"/>
+      <c r="U32" s="2">
         <v>5</v>
       </c>
-      <c r="U32" s="2"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
-      <c r="Y32" s="2">
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -2956,36 +3081,36 @@
       <c r="E33" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="2">
-        <v>10</v>
-      </c>
-      <c r="G33" s="2"/>
+      <c r="G33" s="2">
+        <v>10</v>
+      </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="2">
-        <v>10</v>
-      </c>
-      <c r="N33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2">
+        <v>10</v>
+      </c>
       <c r="O33" s="2"/>
-      <c r="P33" s="2">
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2">
         <v>5</v>
       </c>
-      <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="2">
-        <v>10</v>
-      </c>
+      <c r="S33" s="2"/>
       <c r="T33" s="2">
+        <v>10</v>
+      </c>
+      <c r="U33" s="2">
         <v>5</v>
       </c>
-      <c r="U33" s="2"/>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
-      <c r="Y33" s="2">
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -3009,37 +3134,37 @@
       <c r="E34" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="2">
-        <v>10</v>
-      </c>
-      <c r="G34" s="2"/>
+      <c r="G34" s="2">
+        <v>10</v>
+      </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="2">
-        <v>10</v>
-      </c>
-      <c r="N34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2">
+        <v>10</v>
+      </c>
       <c r="O34" s="2"/>
-      <c r="P34" s="2">
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2">
         <v>5</v>
       </c>
-      <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
-      <c r="S34" s="2">
-        <v>10</v>
-      </c>
+      <c r="S34" s="2"/>
       <c r="T34" s="2">
+        <v>10</v>
+      </c>
+      <c r="U34" s="2">
         <v>5</v>
       </c>
-      <c r="U34" s="2"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
-      <c r="Y34" s="2">
-        <f t="shared" ref="Y34:Y58" si="1">SUM(F34:X34)</f>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2">
+        <f t="shared" ref="Z34:Z80" si="1">SUM(G34:Y34)</f>
         <v>40</v>
       </c>
       <c r="AA34" s="1" t="s">
@@ -3062,36 +3187,36 @@
       <c r="E35" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F35" s="2">
-        <v>10</v>
-      </c>
-      <c r="G35" s="2"/>
+      <c r="G35" s="2">
+        <v>10</v>
+      </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="2">
-        <v>10</v>
-      </c>
-      <c r="N35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2">
+        <v>10</v>
+      </c>
       <c r="O35" s="2"/>
-      <c r="P35" s="2">
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2">
         <v>5</v>
       </c>
-      <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
-      <c r="S35" s="2">
-        <v>10</v>
-      </c>
+      <c r="S35" s="2"/>
       <c r="T35" s="2">
+        <v>10</v>
+      </c>
+      <c r="U35" s="2">
         <v>5</v>
       </c>
-      <c r="U35" s="2"/>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
-      <c r="Y35" s="2">
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
@@ -3115,36 +3240,36 @@
       <c r="E36" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="2">
-        <v>10</v>
-      </c>
-      <c r="G36" s="2"/>
+      <c r="G36" s="2">
+        <v>10</v>
+      </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="2">
-        <v>10</v>
-      </c>
-      <c r="N36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2">
+        <v>10</v>
+      </c>
       <c r="O36" s="2"/>
-      <c r="P36" s="2">
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2">
         <v>5</v>
       </c>
-      <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
-      <c r="S36" s="2">
-        <v>10</v>
-      </c>
+      <c r="S36" s="2"/>
       <c r="T36" s="2">
+        <v>10</v>
+      </c>
+      <c r="U36" s="2">
         <v>5</v>
       </c>
-      <c r="U36" s="2"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
-      <c r="Y36" s="2">
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
@@ -3168,36 +3293,36 @@
       <c r="E37" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F37" s="2">
-        <v>10</v>
-      </c>
-      <c r="G37" s="2"/>
+      <c r="G37" s="2">
+        <v>10</v>
+      </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="2">
-        <v>10</v>
-      </c>
-      <c r="N37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2">
+        <v>10</v>
+      </c>
       <c r="O37" s="2"/>
-      <c r="P37" s="2">
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2">
         <v>5</v>
       </c>
-      <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
-      <c r="S37" s="2">
-        <v>10</v>
-      </c>
+      <c r="S37" s="2"/>
       <c r="T37" s="2">
+        <v>10</v>
+      </c>
+      <c r="U37" s="2">
         <v>5</v>
       </c>
-      <c r="U37" s="2"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
-      <c r="Y37" s="2">
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
@@ -3221,36 +3346,36 @@
       <c r="E38" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F38" s="2">
-        <v>10</v>
-      </c>
-      <c r="G38" s="2"/>
+      <c r="G38" s="2">
+        <v>10</v>
+      </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="2">
-        <v>10</v>
-      </c>
-      <c r="N38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2">
+        <v>10</v>
+      </c>
       <c r="O38" s="2"/>
-      <c r="P38" s="2">
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2">
         <v>5</v>
       </c>
-      <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
-      <c r="S38" s="2">
-        <v>10</v>
-      </c>
+      <c r="S38" s="2"/>
       <c r="T38" s="2">
+        <v>10</v>
+      </c>
+      <c r="U38" s="2">
         <v>5</v>
       </c>
-      <c r="U38" s="2"/>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
-      <c r="Y38" s="2">
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
@@ -3274,36 +3399,36 @@
       <c r="E39" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F39" s="2">
-        <v>10</v>
-      </c>
-      <c r="G39" s="2"/>
+      <c r="G39" s="2">
+        <v>10</v>
+      </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="2">
-        <v>10</v>
-      </c>
-      <c r="N39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2">
+        <v>10</v>
+      </c>
       <c r="O39" s="2"/>
-      <c r="P39" s="2">
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2">
         <v>5</v>
       </c>
-      <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
-      <c r="S39" s="2">
-        <v>10</v>
-      </c>
+      <c r="S39" s="2"/>
       <c r="T39" s="2">
+        <v>10</v>
+      </c>
+      <c r="U39" s="2">
         <v>5</v>
       </c>
-      <c r="U39" s="2"/>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
-      <c r="Y39" s="2">
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
@@ -3327,36 +3452,36 @@
       <c r="E40" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F40" s="2">
-        <v>10</v>
-      </c>
-      <c r="G40" s="2"/>
+      <c r="G40" s="2">
+        <v>10</v>
+      </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="2">
-        <v>10</v>
-      </c>
-      <c r="N40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2">
+        <v>10</v>
+      </c>
       <c r="O40" s="2"/>
-      <c r="P40" s="2">
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2">
         <v>5</v>
       </c>
-      <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
-      <c r="S40" s="2">
-        <v>10</v>
-      </c>
+      <c r="S40" s="2"/>
       <c r="T40" s="2">
+        <v>10</v>
+      </c>
+      <c r="U40" s="2">
         <v>5</v>
       </c>
-      <c r="U40" s="2"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
-      <c r="Y40" s="2">
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
@@ -3380,34 +3505,34 @@
       <c r="E41" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F41" s="2">
+      <c r="G41" s="2">
         <v>15</v>
       </c>
-      <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="2">
+      <c r="M41" s="2"/>
+      <c r="N41" s="2">
         <v>30</v>
       </c>
-      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="2">
+      <c r="S41" s="2"/>
+      <c r="T41" s="2">
         <v>15</v>
       </c>
-      <c r="T41" s="2">
-        <v>10</v>
-      </c>
-      <c r="U41" s="2"/>
+      <c r="U41" s="2">
+        <v>10</v>
+      </c>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
-      <c r="Y41" s="2">
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
@@ -3431,34 +3556,34 @@
       <c r="E42" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="2">
+      <c r="G42" s="2">
         <v>15</v>
       </c>
-      <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="2">
+      <c r="M42" s="2"/>
+      <c r="N42" s="2">
         <v>30</v>
       </c>
-      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
-      <c r="S42" s="2">
+      <c r="S42" s="2"/>
+      <c r="T42" s="2">
         <v>15</v>
       </c>
-      <c r="T42" s="2">
-        <v>10</v>
-      </c>
-      <c r="U42" s="2"/>
+      <c r="U42" s="2">
+        <v>10</v>
+      </c>
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
-      <c r="Y42" s="2">
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
@@ -3482,34 +3607,34 @@
       <c r="E43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F43" s="2">
+      <c r="G43" s="2">
         <v>15</v>
       </c>
-      <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="2">
+      <c r="M43" s="2"/>
+      <c r="N43" s="2">
         <v>30</v>
       </c>
-      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
-      <c r="S43" s="2">
+      <c r="S43" s="2"/>
+      <c r="T43" s="2">
         <v>15</v>
       </c>
-      <c r="T43" s="2">
-        <v>10</v>
-      </c>
-      <c r="U43" s="2"/>
+      <c r="U43" s="2">
+        <v>10</v>
+      </c>
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
-      <c r="Y43" s="2">
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
@@ -3533,34 +3658,34 @@
       <c r="E44" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F44" s="2">
+      <c r="G44" s="2">
         <v>15</v>
       </c>
-      <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
-      <c r="M44" s="2">
+      <c r="M44" s="2"/>
+      <c r="N44" s="2">
         <v>30</v>
       </c>
-      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
-      <c r="S44" s="2">
+      <c r="S44" s="2"/>
+      <c r="T44" s="2">
         <v>15</v>
       </c>
-      <c r="T44" s="2">
-        <v>10</v>
-      </c>
-      <c r="U44" s="2"/>
+      <c r="U44" s="2">
+        <v>10</v>
+      </c>
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
-      <c r="Y44" s="2">
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
@@ -3584,34 +3709,34 @@
       <c r="E45" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="2">
+      <c r="G45" s="2">
         <v>15</v>
       </c>
-      <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="2">
+      <c r="M45" s="2"/>
+      <c r="N45" s="2">
         <v>30</v>
       </c>
-      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
-      <c r="S45" s="2">
+      <c r="S45" s="2"/>
+      <c r="T45" s="2">
         <v>15</v>
       </c>
-      <c r="T45" s="2">
-        <v>10</v>
-      </c>
-      <c r="U45" s="2"/>
+      <c r="U45" s="2">
+        <v>10</v>
+      </c>
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
-      <c r="Y45" s="2">
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
@@ -3635,34 +3760,34 @@
       <c r="E46" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F46" s="2">
+      <c r="G46" s="2">
         <v>15</v>
       </c>
-      <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
-      <c r="M46" s="2">
+      <c r="M46" s="2"/>
+      <c r="N46" s="2">
         <v>30</v>
       </c>
-      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
-      <c r="S46" s="2">
+      <c r="S46" s="2"/>
+      <c r="T46" s="2">
         <v>15</v>
       </c>
-      <c r="T46" s="2">
-        <v>10</v>
-      </c>
-      <c r="U46" s="2"/>
+      <c r="U46" s="2">
+        <v>10</v>
+      </c>
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
-      <c r="Y46" s="2">
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
@@ -3686,34 +3811,34 @@
       <c r="E47" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F47" s="2">
+      <c r="G47" s="2">
         <v>15</v>
       </c>
-      <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
-      <c r="M47" s="2">
-        <v>10</v>
-      </c>
-      <c r="N47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2">
+        <v>10</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
-      <c r="S47" s="2">
+      <c r="S47" s="2"/>
+      <c r="T47" s="2">
         <v>15</v>
       </c>
-      <c r="T47" s="2">
-        <v>10</v>
-      </c>
-      <c r="U47" s="2"/>
+      <c r="U47" s="2">
+        <v>10</v>
+      </c>
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
-      <c r="Y47" s="2">
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -3737,34 +3862,34 @@
       <c r="E48" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F48" s="2">
+      <c r="G48" s="2">
         <v>15</v>
       </c>
-      <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="2">
-        <v>10</v>
-      </c>
-      <c r="N48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2">
+        <v>10</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
-      <c r="S48" s="2">
+      <c r="S48" s="2"/>
+      <c r="T48" s="2">
         <v>15</v>
       </c>
-      <c r="T48" s="2">
-        <v>10</v>
-      </c>
-      <c r="U48" s="2"/>
+      <c r="U48" s="2">
+        <v>10</v>
+      </c>
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
-      <c r="Y48" s="2">
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -3788,13 +3913,12 @@
       <c r="E49" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F49" s="2">
+      <c r="G49" s="2">
         <v>30</v>
       </c>
-      <c r="G49" s="2">
+      <c r="H49" s="2">
         <v>5</v>
       </c>
-      <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -3805,19 +3929,20 @@
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
-      <c r="S49" s="2">
+      <c r="S49" s="2"/>
+      <c r="T49" s="2">
         <v>40</v>
       </c>
-      <c r="T49" s="2">
+      <c r="U49" s="2">
         <v>25</v>
       </c>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2">
+      <c r="V49" s="2"/>
+      <c r="W49" s="2">
         <v>60</v>
       </c>
-      <c r="W49" s="2"/>
       <c r="X49" s="2"/>
-      <c r="Y49" s="2">
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
@@ -3841,34 +3966,34 @@
       <c r="E50" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F50" s="2">
-        <v>10</v>
-      </c>
-      <c r="G50" s="2"/>
+      <c r="G50" s="2">
+        <v>10</v>
+      </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
-      <c r="M50" s="2">
+      <c r="M50" s="2"/>
+      <c r="N50" s="2">
         <v>40</v>
       </c>
-      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
-      <c r="T50" s="2">
+      <c r="T50" s="2"/>
+      <c r="U50" s="2">
         <v>5</v>
       </c>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2">
-        <v>10</v>
-      </c>
-      <c r="W50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2">
+        <v>10</v>
+      </c>
       <c r="X50" s="2"/>
-      <c r="Y50" s="2">
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
@@ -3892,7 +4017,6 @@
       <c r="E51" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -3910,10 +4034,11 @@
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
-      <c r="X51" s="2">
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2">
         <v>420</v>
       </c>
-      <c r="Y51" s="2">
+      <c r="Z51" s="2">
         <f t="shared" si="1"/>
         <v>420</v>
       </c>
@@ -3937,34 +4062,34 @@
       <c r="E52" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F52" s="2">
+      <c r="G52" s="2">
         <v>1</v>
       </c>
-      <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
-      <c r="K52" s="2">
-        <v>10</v>
-      </c>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2">
-        <v>10</v>
-      </c>
-      <c r="N52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2">
+        <v>10</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2">
+        <v>10</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
-      <c r="T52" s="2">
+      <c r="T52" s="2"/>
+      <c r="U52" s="2">
         <v>2</v>
       </c>
-      <c r="U52" s="2"/>
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
-      <c r="Y52" s="2">
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
@@ -3988,32 +4113,32 @@
       <c r="E53" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F53" s="2">
+      <c r="G53" s="2">
         <v>1</v>
       </c>
-      <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
-      <c r="L53" s="2">
+      <c r="L53" s="2"/>
+      <c r="M53" s="2">
         <v>5</v>
       </c>
-      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
-      <c r="T53" s="2">
+      <c r="T53" s="2"/>
+      <c r="U53" s="2">
         <v>3</v>
       </c>
-      <c r="U53" s="2"/>
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
-      <c r="Y53" s="2">
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -4037,34 +4162,34 @@
       <c r="E54" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F54" s="2">
+      <c r="G54" s="2">
         <v>1</v>
       </c>
-      <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="2">
+      <c r="I54" s="2"/>
+      <c r="J54" s="2">
         <v>1</v>
       </c>
-      <c r="J54" s="2"/>
       <c r="K54" s="2"/>
-      <c r="L54" s="2">
-        <v>10</v>
-      </c>
-      <c r="M54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2">
+        <v>10</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
-      <c r="T54" s="2">
+      <c r="T54" s="2"/>
+      <c r="U54" s="2">
         <v>5</v>
       </c>
-      <c r="U54" s="2"/>
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
-      <c r="Y54" s="2">
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -4088,32 +4213,32 @@
       <c r="E55" s="2">
         <v>14876959</v>
       </c>
-      <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="2">
+      <c r="H55" s="2"/>
+      <c r="I55" s="2">
         <v>8</v>
       </c>
-      <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
-      <c r="P55" s="2">
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2">
         <v>4</v>
       </c>
-      <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
-      <c r="T55" s="2">
+      <c r="T55" s="2"/>
+      <c r="U55" s="2">
         <v>3</v>
       </c>
-      <c r="U55" s="2"/>
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
-      <c r="Y55" s="2">
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -4137,32 +4262,32 @@
       <c r="E56" s="2">
         <v>14624602</v>
       </c>
-      <c r="F56" s="2">
+      <c r="G56" s="2">
         <v>3</v>
       </c>
-      <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
-      <c r="M56" s="2">
+      <c r="M56" s="2"/>
+      <c r="N56" s="2">
         <v>90</v>
       </c>
-      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
-      <c r="T56" s="2">
+      <c r="T56" s="2"/>
+      <c r="U56" s="2">
         <v>30</v>
       </c>
-      <c r="U56" s="2"/>
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
-      <c r="Y56" s="2">
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
@@ -4186,36 +4311,36 @@
       <c r="E57" s="2">
         <v>14876958</v>
       </c>
-      <c r="F57" s="2">
+      <c r="G57" s="2">
         <v>5</v>
       </c>
-      <c r="G57" s="2">
+      <c r="H57" s="2">
         <v>3</v>
       </c>
-      <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
-      <c r="K57" s="2">
+      <c r="K57" s="2"/>
+      <c r="L57" s="2">
         <v>19</v>
       </c>
-      <c r="L57" s="2"/>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
-      <c r="S57" s="2">
-        <v>10</v>
-      </c>
+      <c r="S57" s="2"/>
       <c r="T57" s="2">
+        <v>10</v>
+      </c>
+      <c r="U57" s="2">
         <v>5</v>
       </c>
-      <c r="U57" s="2"/>
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
-      <c r="Y57" s="2">
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
@@ -4239,34 +4364,34 @@
       <c r="E58" s="2">
         <v>14039104</v>
       </c>
-      <c r="F58" s="2">
+      <c r="G58" s="2">
         <v>3</v>
       </c>
-      <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
-      <c r="K58" s="2">
-        <v>10</v>
-      </c>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2">
+      <c r="K58" s="2"/>
+      <c r="L58" s="2">
+        <v>10</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2">
         <v>20</v>
       </c>
-      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
-      <c r="T58" s="2">
+      <c r="T58" s="2"/>
+      <c r="U58" s="2">
         <v>5</v>
       </c>
-      <c r="U58" s="2"/>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
-      <c r="Y58" s="2">
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="2">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
@@ -4275,15 +4400,26 @@
       </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="2">
+        <v>653</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
+      <c r="I59" s="2">
+        <v>1</v>
+      </c>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
@@ -4300,18 +4436,35 @@
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
-      <c r="AA59" s="1"/>
+      <c r="Z59" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA59" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="2">
+        <v>653</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
+      <c r="I60" s="2">
+        <v>1</v>
+      </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
@@ -4328,18 +4481,35 @@
       <c r="W60" s="2"/>
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
-      <c r="AA60" s="1"/>
+      <c r="Z60" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA60" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="2">
+        <v>653</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
+      <c r="I61" s="2">
+        <v>1</v>
+      </c>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
@@ -4356,117 +4526,255 @@
       <c r="W61" s="2"/>
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
-      <c r="AA61" s="1"/>
+      <c r="Z61" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA61" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B62" s="1"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="2">
+        <v>654</v>
+      </c>
+      <c r="D62" s="2">
+        <v>10005215708</v>
+      </c>
+      <c r="E62" s="2">
+        <v>14164718</v>
+      </c>
+      <c r="G62" s="2">
+        <v>10</v>
+      </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+      <c r="N62" s="2">
+        <v>10</v>
+      </c>
       <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
+      <c r="P62" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>5</v>
+      </c>
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
-      <c r="T62" s="2"/>
-      <c r="U62" s="2"/>
+      <c r="T62" s="2">
+        <v>25</v>
+      </c>
+      <c r="U62" s="2">
+        <v>30</v>
+      </c>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
-      <c r="AA62" s="1"/>
+      <c r="Z62" s="2">
+        <f>SUM(G62:Y62)</f>
+        <v>90</v>
+      </c>
+      <c r="AA62" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B63" s="1"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="2">
+        <v>655</v>
+      </c>
+      <c r="D63" s="2">
+        <v>10011675176</v>
+      </c>
+      <c r="E63" s="2">
+        <v>17654606</v>
+      </c>
+      <c r="G63" s="2">
+        <v>5</v>
+      </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
+      <c r="L63" s="2">
+        <v>15</v>
+      </c>
       <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+      <c r="N63" s="2">
+        <v>5</v>
+      </c>
       <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
+      <c r="P63" s="2">
+        <v>15</v>
+      </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
-      <c r="T63" s="2"/>
-      <c r="U63" s="2"/>
+      <c r="T63" s="2">
+        <v>30</v>
+      </c>
+      <c r="U63" s="2">
+        <v>30</v>
+      </c>
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
-      <c r="AA63" s="1"/>
+      <c r="Z63" s="2">
+        <f>SUM(G63:Y63)</f>
+        <v>100</v>
+      </c>
+      <c r="AA63" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B64" s="1"/>
-      <c r="C64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="2">
+        <v>655</v>
+      </c>
+      <c r="D64" s="2">
+        <v>10011669766</v>
+      </c>
+      <c r="E64" s="2">
+        <v>17694303</v>
+      </c>
+      <c r="G64" s="2">
+        <v>5</v>
+      </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
+      <c r="L64" s="2">
+        <v>15</v>
+      </c>
       <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+      <c r="N64" s="2">
+        <v>5</v>
+      </c>
       <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
+      <c r="P64" s="2">
+        <v>15</v>
+      </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
-      <c r="T64" s="2"/>
-      <c r="U64" s="2"/>
+      <c r="T64" s="2">
+        <v>30</v>
+      </c>
+      <c r="U64" s="2">
+        <v>30</v>
+      </c>
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
-      <c r="AA64" s="1"/>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B65" s="1"/>
-      <c r="C65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
+      <c r="Z64" s="2">
+        <f>SUM(G64:Y64)</f>
+        <v>100</v>
+      </c>
+      <c r="AA64" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="2">
+        <v>655</v>
+      </c>
+      <c r="D65" s="2">
+        <v>10011666129</v>
+      </c>
+      <c r="E65" s="2">
+        <v>17644164</v>
+      </c>
+      <c r="G65" s="2">
+        <v>5</v>
+      </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
+      <c r="L65" s="2">
+        <v>15</v>
+      </c>
       <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+      <c r="N65" s="2">
+        <v>5</v>
+      </c>
       <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
+      <c r="P65" s="2">
+        <v>15</v>
+      </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
-      <c r="U65" s="2"/>
+      <c r="T65" s="2">
+        <v>30</v>
+      </c>
+      <c r="U65" s="2">
+        <v>30</v>
+      </c>
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
-      <c r="AA65" s="1"/>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F66" s="2"/>
+      <c r="Z65" s="2">
+        <f>SUM(G65:Y65)</f>
+        <v>100</v>
+      </c>
+      <c r="AA65" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="2">
+        <v>656</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
+      <c r="I66" s="2">
+        <v>1</v>
+      </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
@@ -4474,7 +4782,9 @@
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
+      <c r="Q66" s="2">
+        <v>3</v>
+      </c>
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
@@ -4483,12 +4793,35 @@
       <c r="W66" s="2"/>
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F67" s="2"/>
+      <c r="Z66" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AA66" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="2">
+        <v>656</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
+      <c r="I67" s="2">
+        <v>1</v>
+      </c>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
@@ -4505,12 +4838,36 @@
       <c r="W67" s="2"/>
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z67" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA67" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" s="2">
+        <v>656</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
+      <c r="I68" s="2">
+        <v>1</v>
+      </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
@@ -4518,7 +4875,9 @@
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
+      <c r="Q68" s="2">
+        <v>3</v>
+      </c>
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
@@ -4527,14 +4886,39 @@
       <c r="W68" s="2"/>
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
+      <c r="Z68" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AA68" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" s="2">
+        <v>447</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G69" s="2">
+        <v>3</v>
+      </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
+      <c r="K69" s="2">
+        <v>20</v>
+      </c>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -4543,14 +4927,30 @@
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
-      <c r="T69" s="2"/>
-      <c r="U69" s="2"/>
+      <c r="T69" s="2">
+        <v>5</v>
+      </c>
+      <c r="U69" s="2">
+        <v>5</v>
+      </c>
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z69" s="2">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="AA69" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -4571,9 +4971,18 @@
       <c r="W70" s="2"/>
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F71" s="2"/>
+      <c r="Z70" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA70" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -4593,9 +5002,18 @@
       <c r="W71" s="2"/>
       <c r="X71" s="2"/>
       <c r="Y71" s="2"/>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F72" s="2"/>
+      <c r="Z71" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA71" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -4615,9 +5033,18 @@
       <c r="W72" s="2"/>
       <c r="X72" s="2"/>
       <c r="Y72" s="2"/>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F73" s="2"/>
+      <c r="Z72" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA72" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -4637,9 +5064,18 @@
       <c r="W73" s="2"/>
       <c r="X73" s="2"/>
       <c r="Y73" s="2"/>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F74" s="2"/>
+      <c r="Z73" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA73" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
@@ -4659,9 +5095,18 @@
       <c r="W74" s="2"/>
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F75" s="2"/>
+      <c r="Z74" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA74" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
@@ -4681,9 +5126,18 @@
       <c r="W75" s="2"/>
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F76" s="2"/>
+      <c r="Z75" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA75" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -4703,9 +5157,18 @@
       <c r="W76" s="2"/>
       <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F77" s="2"/>
+      <c r="Z76" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA76" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -4725,6 +5188,154 @@
       <c r="W77" s="2"/>
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
+      <c r="Z77" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA77" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="Z78" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA78" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="Z79" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA79" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="Z80" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA80" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4736,7 +5347,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D98E53-4DEF-4580-9413-2831204858BD}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sgq\Desktop\Projetos\Analise_Hora_Máquina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7506088-391B-41AD-B41D-5BAEC0494860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D05BEE-A9B4-4FFC-9144-799BF4E2BE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCESSOS DE FABRICAÇÃO" sheetId="1" r:id="rId1"/>
     <sheet name="CÓDIGOS ORÇAMENTOS" sheetId="2" r:id="rId2"/>
+    <sheet name="AGOSTO" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'PROCESSOS DE FABRICAÇÃO'!$1:$1</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="213">
   <si>
     <t>ORCAMENTO</t>
   </si>
@@ -422,10 +423,247 @@
     <t>HKHK302062-01</t>
   </si>
   <si>
+    <t>3663              10008521996</t>
+  </si>
+  <si>
+    <t>3664              10008521996</t>
+  </si>
+  <si>
+    <t>3665              10008521996</t>
+  </si>
+  <si>
+    <t>4202              HV307164-XX</t>
+  </si>
+  <si>
+    <t>4317               1000392463</t>
+  </si>
+  <si>
+    <t>4458              HV306453-01</t>
+  </si>
+  <si>
+    <t>4455              HV400318-XX</t>
+  </si>
+  <si>
+    <t>4432              HV307164-XX</t>
+  </si>
+  <si>
+    <t>4431              HV303895-01</t>
+  </si>
+  <si>
+    <t>4535              10011984549</t>
+  </si>
+  <si>
+    <t>4569              HV311169-XX</t>
+  </si>
+  <si>
+    <t>4694           4365870010-004</t>
+  </si>
+  <si>
+    <t>4768           4544520010-006</t>
+  </si>
+  <si>
+    <t>4801                 28800202</t>
+  </si>
+  <si>
+    <t>4834              10007618049</t>
+  </si>
+  <si>
+    <t>4796              10008511425</t>
+  </si>
+  <si>
+    <t>4791              10008511425</t>
+  </si>
+  <si>
+    <t>4788              10005591672</t>
+  </si>
+  <si>
+    <t>4785              10008507813</t>
+  </si>
+  <si>
+    <t>4782              10008507813</t>
+  </si>
+  <si>
+    <t>4779              10008507813</t>
+  </si>
+  <si>
+    <t>4874             RML-W-064709</t>
+  </si>
+  <si>
+    <t>4873              HV311126-02</t>
+  </si>
+  <si>
+    <t>4870              HV307986-XX</t>
+  </si>
+  <si>
+    <t>4867              HV307164-XX</t>
+  </si>
+  <si>
+    <t>4991              10005864826</t>
+  </si>
+  <si>
+    <t>4988              10004229966</t>
+  </si>
+  <si>
+    <t>4987              10008755474</t>
+  </si>
+  <si>
+    <t>4985              10010360769</t>
+  </si>
+  <si>
+    <t>4986              10009890643</t>
+  </si>
+  <si>
+    <t>4982              10009855888</t>
+  </si>
+  <si>
+    <t>4981              10004980103</t>
+  </si>
+  <si>
+    <t>4978              10004976811</t>
+  </si>
+  <si>
+    <t>4974              10004963667</t>
+  </si>
+  <si>
+    <t>4971              10008507821</t>
+  </si>
+  <si>
+    <t>4968              10008507821</t>
+  </si>
+  <si>
+    <t>4964              10008514727</t>
+  </si>
+  <si>
+    <t>4959              10006001743</t>
+  </si>
+  <si>
+    <t>4953              10006000456</t>
+  </si>
+  <si>
+    <t>4950              10004254702</t>
+  </si>
+  <si>
+    <t>4949              10003058629</t>
+  </si>
+  <si>
+    <t>4945              10005184725</t>
+  </si>
+  <si>
+    <t>4944              10005675337</t>
+  </si>
+  <si>
+    <t>4941              10005159680</t>
+  </si>
+  <si>
+    <t>4938              10006836848</t>
+  </si>
+  <si>
+    <t>4935              10006836881</t>
+  </si>
+  <si>
+    <t>4932              10006504723</t>
+  </si>
+  <si>
+    <t>4929              10006836942</t>
+  </si>
+  <si>
+    <t>COL-001</t>
+  </si>
+  <si>
+    <t>4425       HV307986-XX</t>
+  </si>
+  <si>
+    <t>4688       HV307986-XX</t>
+  </si>
+  <si>
+    <t>4918    HVHV307987-XX</t>
+  </si>
+  <si>
+    <t>4896       HV307986-XX</t>
+  </si>
+  <si>
+    <t>4893       HV307986-XX</t>
+  </si>
+  <si>
+    <t>4887       HV307986-XX</t>
+  </si>
+  <si>
+    <t>4881       HV307986-XX</t>
+  </si>
+  <si>
+    <t>4875       HV307986-XX</t>
+  </si>
+  <si>
+    <t>HV307164-XX</t>
+  </si>
+  <si>
+    <t>M&amp;S</t>
+  </si>
+  <si>
+    <t>HV306453-01</t>
+  </si>
+  <si>
+    <t>4544520010-006</t>
+  </si>
+  <si>
+    <t>28800202</t>
+  </si>
+  <si>
+    <t>METALEIRA</t>
+  </si>
+  <si>
+    <t>HVHV307987-XX</t>
+  </si>
+  <si>
+    <t>RML-W-064709</t>
+  </si>
+  <si>
+    <t>HV400318-XX</t>
+  </si>
+  <si>
+    <t>HV303895-01</t>
+  </si>
+  <si>
+    <t>10011984549</t>
+  </si>
+  <si>
+    <t>10007618049</t>
+  </si>
+  <si>
+    <t>10008511425</t>
+  </si>
+  <si>
     <t>HVHV311448-01</t>
   </si>
   <si>
     <t>HVHV311443-03</t>
+  </si>
+  <si>
+    <t>HVHV307164-01</t>
+  </si>
+  <si>
+    <t>HVHV306453-01</t>
+  </si>
+  <si>
+    <t>HVHV311506-03</t>
+  </si>
+  <si>
+    <t>HVHV311591-05</t>
+  </si>
+  <si>
+    <t>HIHI300330-01</t>
+  </si>
+  <si>
+    <t>HVRML-W-064709_1</t>
+  </si>
+  <si>
+    <t>HVHV400318-01</t>
+  </si>
+  <si>
+    <t>HVHV303895-01</t>
+  </si>
+  <si>
+    <t>HVHV311126-02</t>
   </si>
 </sst>
 </file>
@@ -568,7 +806,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -760,8 +998,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -876,6 +1120,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -921,7 +1180,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -944,6 +1203,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -990,7 +1256,15 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1303,11 +1577,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA101"/>
+  <dimension ref="A1:AB101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,7 +1590,7 @@
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -1330,15 +1604,16 @@
     <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.28515625" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" customWidth="1"/>
+    <col min="20" max="20" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -1394,34 +1669,37 @@
         <v>14</v>
       </c>
       <c r="S1" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1458,22 +1736,23 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="2">
+      <c r="U2" s="2"/>
+      <c r="V2" s="2">
         <v>15</v>
       </c>
-      <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="2">
-        <f t="shared" ref="Z2:Z33" si="0">SUM(G2:Y2)</f>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2">
+        <f t="shared" ref="AA2:AA33" si="0">SUM(G2:Z2)</f>
         <v>53</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1510,22 +1789,23 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
-      <c r="U3" s="2">
+      <c r="U3" s="2"/>
+      <c r="V3" s="2">
         <v>15</v>
       </c>
-      <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
-      <c r="Z3" s="2">
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="AA3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1561,25 +1841,26 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-      <c r="T4" s="2">
-        <v>15</v>
-      </c>
+      <c r="T4" s="2"/>
       <c r="U4" s="2">
         <v>15</v>
       </c>
-      <c r="V4" s="2"/>
+      <c r="V4" s="2">
+        <v>15</v>
+      </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="2">
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="AA4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1615,25 +1896,26 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
-      <c r="T5" s="2">
-        <v>15</v>
-      </c>
+      <c r="T5" s="2"/>
       <c r="U5" s="2">
         <v>15</v>
       </c>
-      <c r="V5" s="2"/>
+      <c r="V5" s="2">
+        <v>15</v>
+      </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
-      <c r="Z5" s="2">
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="AA5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1672,22 +1954,23 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="2">
+      <c r="U6" s="2"/>
+      <c r="V6" s="2">
         <v>20</v>
       </c>
-      <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
-      <c r="Z6" s="2">
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="AA6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1726,22 +2009,23 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="2">
+      <c r="U7" s="2"/>
+      <c r="V7" s="2">
         <v>20</v>
       </c>
-      <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
-      <c r="Z7" s="2">
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="AA7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1777,25 +2061,26 @@
         <v>5</v>
       </c>
       <c r="S8" s="2"/>
-      <c r="T8" s="2">
+      <c r="T8" s="2"/>
+      <c r="U8" s="2">
         <v>20</v>
       </c>
-      <c r="U8" s="2">
-        <v>10</v>
-      </c>
-      <c r="V8" s="2"/>
+      <c r="V8" s="2">
+        <v>10</v>
+      </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
-      <c r="Z8" s="2">
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="AA8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1831,25 +2116,26 @@
         <v>5</v>
       </c>
       <c r="S9" s="2"/>
-      <c r="T9" s="2">
+      <c r="T9" s="2"/>
+      <c r="U9" s="2">
         <v>20</v>
       </c>
-      <c r="U9" s="2">
-        <v>10</v>
-      </c>
-      <c r="V9" s="2"/>
+      <c r="V9" s="2">
+        <v>10</v>
+      </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
-      <c r="Z9" s="2">
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="AA9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1887,25 +2173,26 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
-      <c r="T10" s="2">
+      <c r="T10" s="2"/>
+      <c r="U10" s="2">
         <v>60</v>
       </c>
-      <c r="U10" s="2">
+      <c r="V10" s="2">
         <v>30</v>
       </c>
-      <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
-      <c r="Z10" s="2">
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="AA10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1943,25 +2230,26 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="2">
+      <c r="T11" s="2"/>
+      <c r="U11" s="2">
         <v>60</v>
       </c>
-      <c r="U11" s="2">
+      <c r="V11" s="2">
         <v>30</v>
       </c>
-      <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="2">
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="AA11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1997,25 +2285,26 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
-      <c r="T12" s="2">
+      <c r="T12" s="2"/>
+      <c r="U12" s="2">
         <v>15</v>
       </c>
-      <c r="U12" s="2">
-        <v>10</v>
-      </c>
-      <c r="V12" s="2"/>
+      <c r="V12" s="2">
+        <v>10</v>
+      </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
-      <c r="Z12" s="2">
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="AA12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2052,22 +2341,23 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="2">
+      <c r="U13" s="2"/>
+      <c r="V13" s="2">
         <v>5</v>
       </c>
-      <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
-      <c r="Z13" s="2">
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="AA13" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2107,15 +2397,16 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
-      <c r="Z14" s="2">
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2151,25 +2442,26 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="2">
+      <c r="T15" s="2"/>
+      <c r="U15" s="2">
         <v>60</v>
       </c>
-      <c r="U15" s="2">
+      <c r="V15" s="2">
         <v>15</v>
       </c>
-      <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
-      <c r="Z15" s="2">
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="AA15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2213,19 +2505,20 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
-      <c r="X16" s="2">
-        <v>10</v>
-      </c>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2">
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2">
+        <v>10</v>
+      </c>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="AA16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2267,15 +2560,16 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
-      <c r="Z17" s="2">
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="AA17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2311,25 +2605,26 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
-      <c r="T18" s="2">
+      <c r="T18" s="2"/>
+      <c r="U18" s="2">
         <v>40</v>
       </c>
-      <c r="U18" s="2">
+      <c r="V18" s="2">
         <v>15</v>
       </c>
-      <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="2">
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="AA18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2362,22 +2657,23 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-      <c r="U19" s="2">
-        <v>10</v>
-      </c>
-      <c r="V19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2">
+        <v>10</v>
+      </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
-      <c r="Z19" s="2">
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="AA19" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2415,25 +2711,26 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
-      <c r="T20" s="2">
+      <c r="T20" s="2"/>
+      <c r="U20" s="2">
         <v>20</v>
       </c>
-      <c r="U20" s="2">
+      <c r="V20" s="2">
         <v>5</v>
       </c>
-      <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
-      <c r="Z20" s="2">
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="AA20" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2470,18 +2767,19 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2">
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2">
         <v>4200</v>
       </c>
-      <c r="Z21" s="2">
+      <c r="AA21" s="2">
         <f t="shared" si="0"/>
         <v>4200</v>
       </c>
-      <c r="AA21" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2518,18 +2816,19 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2">
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2">
         <v>4200</v>
       </c>
-      <c r="Z22" s="2">
+      <c r="AA22" s="2">
         <f t="shared" si="0"/>
         <v>4200</v>
       </c>
-      <c r="AA22" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2566,18 +2865,19 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="2">
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2">
         <v>720</v>
       </c>
-      <c r="Z23" s="2">
+      <c r="AA23" s="2">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="AA23" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2615,25 +2915,26 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
-      <c r="T24" s="2">
+      <c r="T24" s="2"/>
+      <c r="U24" s="2">
         <v>30</v>
       </c>
-      <c r="U24" s="2">
+      <c r="V24" s="2">
         <v>20</v>
       </c>
-      <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
-      <c r="Z24" s="2">
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="AA24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2671,25 +2972,26 @@
       </c>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
-      <c r="T25" s="2">
+      <c r="T25" s="2"/>
+      <c r="U25" s="2">
         <v>30</v>
       </c>
-      <c r="U25" s="2">
+      <c r="V25" s="2">
         <v>15</v>
       </c>
-      <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
-      <c r="Z25" s="2">
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="AA25" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2725,25 +3027,26 @@
       </c>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
-      <c r="T26" s="2">
-        <v>10</v>
-      </c>
+      <c r="T26" s="2"/>
       <c r="U26" s="2">
         <v>10</v>
       </c>
-      <c r="V26" s="2"/>
+      <c r="V26" s="2">
+        <v>10</v>
+      </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
-      <c r="Z26" s="2">
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AA26" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2757,7 +3060,7 @@
         <v>69</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>26</v>
@@ -2779,25 +3082,26 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
-      <c r="T27" s="2">
+      <c r="T27" s="2"/>
+      <c r="U27" s="2">
         <v>15</v>
       </c>
-      <c r="U27" s="2">
+      <c r="V27" s="2">
         <v>5</v>
       </c>
-      <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
-      <c r="Z27" s="2">
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="AA27" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2811,7 +3115,7 @@
         <v>70</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2">
@@ -2831,25 +3135,26 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
-      <c r="T28" s="2">
+      <c r="T28" s="2"/>
+      <c r="U28" s="2">
         <v>120</v>
       </c>
-      <c r="U28" s="2">
+      <c r="V28" s="2">
         <v>50</v>
       </c>
-      <c r="V28" s="2"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
-      <c r="Z28" s="2">
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2">
         <f t="shared" si="0"/>
         <v>340</v>
       </c>
-      <c r="AA28" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB28" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2885,25 +3190,26 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
-      <c r="T29" s="2">
+      <c r="T29" s="2"/>
+      <c r="U29" s="2">
         <v>20</v>
       </c>
-      <c r="U29" s="2">
-        <v>10</v>
-      </c>
-      <c r="V29" s="2"/>
+      <c r="V29" s="2">
+        <v>10</v>
+      </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
-      <c r="Z29" s="2">
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="AA29" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB29" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2947,15 +3253,16 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
-      <c r="Z30" s="2">
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="AA30" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB30" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2993,25 +3300,26 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
-      <c r="T31" s="2">
+      <c r="T31" s="2"/>
+      <c r="U31" s="2">
         <v>40</v>
       </c>
-      <c r="U31" s="2">
-        <v>10</v>
-      </c>
-      <c r="V31" s="2"/>
+      <c r="V31" s="2">
+        <v>10</v>
+      </c>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
-      <c r="Z31" s="2">
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="AA31" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB31" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3050,22 +3358,23 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
-      <c r="U32" s="2">
+      <c r="U32" s="2"/>
+      <c r="V32" s="2">
         <v>5</v>
       </c>
-      <c r="V32" s="2"/>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
-      <c r="Z32" s="2">
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="AA32" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB32" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3100,25 +3409,26 @@
       </c>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
-      <c r="T33" s="2">
-        <v>10</v>
-      </c>
+      <c r="T33" s="2"/>
       <c r="U33" s="2">
+        <v>10</v>
+      </c>
+      <c r="V33" s="2">
         <v>5</v>
       </c>
-      <c r="V33" s="2"/>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
-      <c r="Z33" s="2">
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="AA33" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB33" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3153,25 +3463,26 @@
       </c>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
-      <c r="T34" s="2">
-        <v>10</v>
-      </c>
+      <c r="T34" s="2"/>
       <c r="U34" s="2">
+        <v>10</v>
+      </c>
+      <c r="V34" s="2">
         <v>5</v>
       </c>
-      <c r="V34" s="2"/>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
-      <c r="Z34" s="2">
-        <f t="shared" ref="Z34:Z80" si="1">SUM(G34:Y34)</f>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2">
+        <f t="shared" ref="AA34:AA88" si="1">SUM(G34:Z34)</f>
         <v>40</v>
       </c>
-      <c r="AA34" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB34" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3206,25 +3517,26 @@
       </c>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
-      <c r="T35" s="2">
-        <v>10</v>
-      </c>
+      <c r="T35" s="2"/>
       <c r="U35" s="2">
+        <v>10</v>
+      </c>
+      <c r="V35" s="2">
         <v>5</v>
       </c>
-      <c r="V35" s="2"/>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
-      <c r="Z35" s="2">
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="AA35" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB35" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3259,25 +3571,26 @@
       </c>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
-      <c r="T36" s="2">
-        <v>10</v>
-      </c>
+      <c r="T36" s="2"/>
       <c r="U36" s="2">
+        <v>10</v>
+      </c>
+      <c r="V36" s="2">
         <v>5</v>
       </c>
-      <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
-      <c r="Z36" s="2">
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="AA36" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB36" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3312,25 +3625,26 @@
       </c>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
-      <c r="T37" s="2">
-        <v>10</v>
-      </c>
+      <c r="T37" s="2"/>
       <c r="U37" s="2">
+        <v>10</v>
+      </c>
+      <c r="V37" s="2">
         <v>5</v>
       </c>
-      <c r="V37" s="2"/>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
-      <c r="Z37" s="2">
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="AA37" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB37" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3365,25 +3679,26 @@
       </c>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
-      <c r="T38" s="2">
-        <v>10</v>
-      </c>
+      <c r="T38" s="2"/>
       <c r="U38" s="2">
+        <v>10</v>
+      </c>
+      <c r="V38" s="2">
         <v>5</v>
       </c>
-      <c r="V38" s="2"/>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
-      <c r="Z38" s="2">
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="AA38" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB38" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3418,25 +3733,26 @@
       </c>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
-      <c r="T39" s="2">
-        <v>10</v>
-      </c>
+      <c r="T39" s="2"/>
       <c r="U39" s="2">
+        <v>10</v>
+      </c>
+      <c r="V39" s="2">
         <v>5</v>
       </c>
-      <c r="V39" s="2"/>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
-      <c r="Z39" s="2">
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="AA39" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB39" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3471,25 +3787,26 @@
       </c>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
-      <c r="T40" s="2">
-        <v>10</v>
-      </c>
+      <c r="T40" s="2"/>
       <c r="U40" s="2">
+        <v>10</v>
+      </c>
+      <c r="V40" s="2">
         <v>5</v>
       </c>
-      <c r="V40" s="2"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
-      <c r="Z40" s="2">
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="AA40" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB40" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3522,25 +3839,26 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
-      <c r="T41" s="2">
+      <c r="T41" s="2"/>
+      <c r="U41" s="2">
         <v>15</v>
       </c>
-      <c r="U41" s="2">
-        <v>10</v>
-      </c>
-      <c r="V41" s="2"/>
+      <c r="V41" s="2">
+        <v>10</v>
+      </c>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
-      <c r="Z41" s="2">
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="AA41" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB41" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3573,25 +3891,26 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
-      <c r="T42" s="2">
+      <c r="T42" s="2"/>
+      <c r="U42" s="2">
         <v>15</v>
       </c>
-      <c r="U42" s="2">
-        <v>10</v>
-      </c>
-      <c r="V42" s="2"/>
+      <c r="V42" s="2">
+        <v>10</v>
+      </c>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
-      <c r="Z42" s="2">
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="AA42" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB42" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3624,25 +3943,26 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
-      <c r="T43" s="2">
+      <c r="T43" s="2"/>
+      <c r="U43" s="2">
         <v>15</v>
       </c>
-      <c r="U43" s="2">
-        <v>10</v>
-      </c>
-      <c r="V43" s="2"/>
+      <c r="V43" s="2">
+        <v>10</v>
+      </c>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
-      <c r="Z43" s="2">
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="AA43" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB43" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3675,25 +3995,26 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
-      <c r="T44" s="2">
+      <c r="T44" s="2"/>
+      <c r="U44" s="2">
         <v>15</v>
       </c>
-      <c r="U44" s="2">
-        <v>10</v>
-      </c>
-      <c r="V44" s="2"/>
+      <c r="V44" s="2">
+        <v>10</v>
+      </c>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
-      <c r="Z44" s="2">
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="AA44" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB44" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3726,25 +4047,26 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
-      <c r="T45" s="2">
+      <c r="T45" s="2"/>
+      <c r="U45" s="2">
         <v>15</v>
       </c>
-      <c r="U45" s="2">
-        <v>10</v>
-      </c>
-      <c r="V45" s="2"/>
+      <c r="V45" s="2">
+        <v>10</v>
+      </c>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
-      <c r="Z45" s="2">
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="AA45" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB45" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3777,25 +4099,26 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
-      <c r="T46" s="2">
+      <c r="T46" s="2"/>
+      <c r="U46" s="2">
         <v>15</v>
       </c>
-      <c r="U46" s="2">
-        <v>10</v>
-      </c>
-      <c r="V46" s="2"/>
+      <c r="V46" s="2">
+        <v>10</v>
+      </c>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
-      <c r="Z46" s="2">
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="AA46" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB46" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3828,25 +4151,26 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
-      <c r="T47" s="2">
+      <c r="T47" s="2"/>
+      <c r="U47" s="2">
         <v>15</v>
       </c>
-      <c r="U47" s="2">
-        <v>10</v>
-      </c>
-      <c r="V47" s="2"/>
+      <c r="V47" s="2">
+        <v>10</v>
+      </c>
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
-      <c r="Z47" s="2">
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="AA47" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB47" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3879,25 +4203,26 @@
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
-      <c r="T48" s="2">
+      <c r="T48" s="2"/>
+      <c r="U48" s="2">
         <v>15</v>
       </c>
-      <c r="U48" s="2">
-        <v>10</v>
-      </c>
-      <c r="V48" s="2"/>
+      <c r="V48" s="2">
+        <v>10</v>
+      </c>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
-      <c r="Z48" s="2">
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="AA48" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB48" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3930,27 +4255,28 @@
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
-      <c r="T49" s="2">
+      <c r="T49" s="2"/>
+      <c r="U49" s="2">
         <v>40</v>
       </c>
-      <c r="U49" s="2">
+      <c r="V49" s="2">
         <v>25</v>
       </c>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2">
+      <c r="W49" s="2"/>
+      <c r="X49" s="2">
         <v>60</v>
       </c>
-      <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
-      <c r="Z49" s="2">
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="AA49" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB49" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3984,24 +4310,25 @@
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
-      <c r="U50" s="2">
+      <c r="U50" s="2"/>
+      <c r="V50" s="2">
         <v>5</v>
       </c>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2">
-        <v>10</v>
-      </c>
-      <c r="X50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2">
+        <v>10</v>
+      </c>
       <c r="Y50" s="2"/>
-      <c r="Z50" s="2">
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="AA50" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB50" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4035,18 +4362,19 @@
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
-      <c r="Y51" s="2">
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2">
         <v>420</v>
       </c>
-      <c r="Z51" s="2">
+      <c r="AA51" s="2">
         <f t="shared" si="1"/>
         <v>420</v>
       </c>
-      <c r="AA51" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB51" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4082,22 +4410,23 @@
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
-      <c r="U52" s="2">
+      <c r="U52" s="2"/>
+      <c r="V52" s="2">
         <v>2</v>
       </c>
-      <c r="V52" s="2"/>
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
-      <c r="Z52" s="2">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="AA52" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="AB52" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4131,22 +4460,23 @@
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
-      <c r="U53" s="2">
+      <c r="U53" s="2"/>
+      <c r="V53" s="2">
         <v>3</v>
       </c>
-      <c r="V53" s="2"/>
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
-      <c r="Z53" s="2">
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="AA53" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB53" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4182,22 +4512,23 @@
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
-      <c r="U54" s="2">
+      <c r="U54" s="2"/>
+      <c r="V54" s="2">
         <v>5</v>
       </c>
-      <c r="V54" s="2"/>
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
-      <c r="Z54" s="2">
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="AA54" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB54" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4231,22 +4562,23 @@
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
-      <c r="U55" s="2">
+      <c r="U55" s="2"/>
+      <c r="V55" s="2">
         <v>3</v>
       </c>
-      <c r="V55" s="2"/>
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
-      <c r="Z55" s="2">
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="AA55" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB55" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4280,22 +4612,23 @@
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
-      <c r="U56" s="2">
+      <c r="U56" s="2"/>
+      <c r="V56" s="2">
         <v>30</v>
       </c>
-      <c r="V56" s="2"/>
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
-      <c r="Z56" s="2">
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="AA56" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB56" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4330,25 +4663,26 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
-      <c r="T57" s="2">
-        <v>10</v>
-      </c>
+      <c r="T57" s="2"/>
       <c r="U57" s="2">
+        <v>10</v>
+      </c>
+      <c r="V57" s="2">
         <v>5</v>
       </c>
-      <c r="V57" s="2"/>
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
-      <c r="Z57" s="2">
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="2">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="AA57" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB57" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4384,22 +4718,23 @@
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
-      <c r="U58" s="2">
+      <c r="U58" s="2"/>
+      <c r="V58" s="2">
         <v>5</v>
       </c>
-      <c r="V58" s="2"/>
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
-      <c r="Z58" s="2">
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="2">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="AA58" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB58" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4436,15 +4771,16 @@
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
-      <c r="Z59" s="2">
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AA59" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB59" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4481,15 +4817,16 @@
       <c r="W60" s="2"/>
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
-      <c r="Z60" s="2">
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AA60" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB60" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4526,15 +4863,16 @@
       <c r="W61" s="2"/>
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
-      <c r="Z61" s="2">
+      <c r="Z61" s="2"/>
+      <c r="AA61" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AA61" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB61" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4571,25 +4909,26 @@
       </c>
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
-      <c r="T62" s="2">
+      <c r="T62" s="2"/>
+      <c r="U62" s="2">
         <v>25</v>
       </c>
-      <c r="U62" s="2">
+      <c r="V62" s="2">
         <v>30</v>
       </c>
-      <c r="V62" s="2"/>
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
-      <c r="Z62" s="2">
-        <f>SUM(G62:Y62)</f>
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="2">
+        <f>SUM(G62:Z62)</f>
         <v>90</v>
       </c>
-      <c r="AA62" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB62" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4626,25 +4965,26 @@
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
-      <c r="T63" s="2">
-        <v>30</v>
-      </c>
+      <c r="T63" s="2"/>
       <c r="U63" s="2">
         <v>30</v>
       </c>
-      <c r="V63" s="2"/>
+      <c r="V63" s="2">
+        <v>30</v>
+      </c>
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
-      <c r="Z63" s="2">
-        <f>SUM(G63:Y63)</f>
+      <c r="Z63" s="2"/>
+      <c r="AA63" s="2">
+        <f>SUM(G63:Z63)</f>
         <v>100</v>
       </c>
-      <c r="AA63" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB63" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4681,25 +5021,26 @@
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
-      <c r="T64" s="2">
-        <v>30</v>
-      </c>
+      <c r="T64" s="2"/>
       <c r="U64" s="2">
         <v>30</v>
       </c>
-      <c r="V64" s="2"/>
+      <c r="V64" s="2">
+        <v>30</v>
+      </c>
       <c r="W64" s="2"/>
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
-      <c r="Z64" s="2">
-        <f>SUM(G64:Y64)</f>
+      <c r="Z64" s="2"/>
+      <c r="AA64" s="2">
+        <f>SUM(G64:Z64)</f>
         <v>100</v>
       </c>
-      <c r="AA64" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB64" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4736,25 +5077,26 @@
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
-      <c r="T65" s="2">
-        <v>30</v>
-      </c>
+      <c r="T65" s="2"/>
       <c r="U65" s="2">
         <v>30</v>
       </c>
-      <c r="V65" s="2"/>
+      <c r="V65" s="2">
+        <v>30</v>
+      </c>
       <c r="W65" s="2"/>
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
-      <c r="Z65" s="2">
-        <f>SUM(G65:Y65)</f>
+      <c r="Z65" s="2"/>
+      <c r="AA65" s="2">
+        <f>SUM(G65:Z65)</f>
         <v>100</v>
       </c>
-      <c r="AA65" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB65" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4793,15 +5135,16 @@
       <c r="W66" s="2"/>
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
-      <c r="Z66" s="2">
+      <c r="Z66" s="2"/>
+      <c r="AA66" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AA66" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB66" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4838,15 +5181,16 @@
       <c r="W67" s="2"/>
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
-      <c r="Z67" s="2">
+      <c r="Z67" s="2"/>
+      <c r="AA67" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AA67" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB67" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4886,15 +5230,16 @@
       <c r="W68" s="2"/>
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
-      <c r="Z68" s="2">
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AA68" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB68" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4927,70 +5272,114 @@
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
-      <c r="T69" s="2">
-        <v>5</v>
-      </c>
+      <c r="T69" s="2"/>
       <c r="U69" s="2">
         <v>5</v>
       </c>
-      <c r="V69" s="2"/>
+      <c r="V69" s="2">
+        <v>5</v>
+      </c>
       <c r="W69" s="2"/>
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
-      <c r="Z69" s="2">
+      <c r="Z69" s="2"/>
+      <c r="AA69" s="2">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="AA69" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB69" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
+      <c r="B70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
+      <c r="G70" s="2">
+        <v>3</v>
+      </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
+      <c r="J70" s="2">
+        <v>3</v>
+      </c>
+      <c r="K70" s="2">
+        <v>10</v>
+      </c>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+      <c r="N70" s="2">
+        <v>10</v>
+      </c>
       <c r="O70" s="2"/>
-      <c r="P70" s="2"/>
+      <c r="P70" s="2">
+        <v>7</v>
+      </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
-      <c r="U70" s="2"/>
-      <c r="V70" s="2"/>
+      <c r="U70" s="2">
+        <v>10</v>
+      </c>
+      <c r="V70" s="2">
+        <v>5</v>
+      </c>
       <c r="W70" s="2"/>
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
-      <c r="Z70" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA70" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z70" s="2"/>
+      <c r="AA70" s="2">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="AB70" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="G71" s="2"/>
+      <c r="B71" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G71" s="2">
+        <v>5</v>
+      </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
+      <c r="K71" s="2">
+        <v>5</v>
+      </c>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+      <c r="N71" s="2">
+        <v>5</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
@@ -4998,29 +5387,48 @@
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
-      <c r="V71" s="2"/>
+      <c r="V71" s="2">
+        <v>5</v>
+      </c>
       <c r="W71" s="2"/>
       <c r="X71" s="2"/>
       <c r="Y71" s="2"/>
-      <c r="Z71" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA71" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z71" s="2"/>
+      <c r="AA71" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="AB71" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="G72" s="2"/>
+      <c r="B72" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" s="2">
+        <v>511</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G72" s="2">
+        <v>15</v>
+      </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
+      <c r="M72" s="2">
+        <v>45</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -5028,26 +5436,45 @@
       <c r="R72" s="2"/>
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
-      <c r="U72" s="2"/>
-      <c r="V72" s="2"/>
+      <c r="U72" s="2">
+        <v>60</v>
+      </c>
+      <c r="V72" s="2">
+        <v>15</v>
+      </c>
       <c r="W72" s="2"/>
       <c r="X72" s="2"/>
       <c r="Y72" s="2"/>
-      <c r="Z72" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA72" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z72" s="2"/>
+      <c r="AA72" s="2">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="AB72" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
+      <c r="B73" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C73" s="2">
+        <v>636</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
+      <c r="I73" s="2">
+        <v>3</v>
+      </c>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
@@ -5060,25 +5487,46 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
-      <c r="V73" s="2"/>
-      <c r="W73" s="2"/>
-      <c r="X73" s="2"/>
+      <c r="V73" s="2">
+        <v>2</v>
+      </c>
+      <c r="W73" s="2">
+        <v>1</v>
+      </c>
+      <c r="X73" s="2">
+        <v>5</v>
+      </c>
       <c r="Y73" s="2"/>
-      <c r="Z73" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA73" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z73" s="2"/>
+      <c r="AA73" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="AB73" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
+      <c r="B74" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
+      <c r="I74" s="2">
+        <v>60</v>
+      </c>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
@@ -5088,61 +5536,105 @@
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
-      <c r="S74" s="2"/>
+      <c r="S74" s="2">
+        <v>120</v>
+      </c>
       <c r="T74" s="2"/>
-      <c r="U74" s="2"/>
+      <c r="U74" s="2">
+        <v>420</v>
+      </c>
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
-      <c r="X74" s="2"/>
+      <c r="X74" s="2">
+        <v>120</v>
+      </c>
       <c r="Y74" s="2"/>
-      <c r="Z74" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA74" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z74" s="2"/>
+      <c r="AA74" s="2">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+      <c r="AB74" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="G75" s="2"/>
+      <c r="B75" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C75" s="2">
+        <v>340</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G75" s="2">
+        <v>15</v>
+      </c>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+      <c r="N75" s="2">
+        <v>30</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
-      <c r="U75" s="2"/>
-      <c r="V75" s="2"/>
+      <c r="U75" s="2">
+        <v>15</v>
+      </c>
+      <c r="V75" s="2">
+        <v>10</v>
+      </c>
       <c r="W75" s="2"/>
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
-      <c r="Z75" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA75" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z75" s="2"/>
+      <c r="AA75" s="2">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="AB75" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="G76" s="2"/>
+      <c r="B76" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G76" s="2">
+        <v>3</v>
+      </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
+      <c r="K76" s="2">
+        <v>5</v>
+      </c>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -5153,30 +5645,49 @@
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
-      <c r="V76" s="2"/>
+      <c r="V76" s="2">
+        <v>2</v>
+      </c>
       <c r="W76" s="2"/>
       <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
-      <c r="Z76" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA76" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z76" s="2"/>
+      <c r="AA76" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AB76" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="G77" s="2"/>
+      <c r="B77" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" s="2">
+        <v>189</v>
+      </c>
+      <c r="D77" s="2">
+        <v>10008521996</v>
+      </c>
+      <c r="E77" s="2">
+        <v>15976664</v>
+      </c>
+      <c r="G77" s="2">
+        <v>10</v>
+      </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+      <c r="N77" s="2">
+        <v>180</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
@@ -5184,130 +5695,394 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
-      <c r="V77" s="2"/>
+      <c r="V77" s="2">
+        <v>30</v>
+      </c>
       <c r="W77" s="2"/>
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
-      <c r="Z77" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA77" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z77" s="2"/>
+      <c r="AA77" s="2">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="AB77" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="Z78" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA78" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G78" s="2">
+        <v>3</v>
+      </c>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2">
+        <v>3</v>
+      </c>
+      <c r="K78" s="2">
+        <v>10</v>
+      </c>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2">
+        <v>10</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2">
+        <v>10</v>
+      </c>
+      <c r="V78" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA78" s="2">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="AB78" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="Z79" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA79" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G79" s="2">
+        <v>1</v>
+      </c>
+      <c r="N79" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>3</v>
+      </c>
+      <c r="V79" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA79" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AB79" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="Z80" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA80" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" s="2">
+        <v>189</v>
+      </c>
+      <c r="D80" s="2">
+        <v>10008507813</v>
+      </c>
+      <c r="E80" s="2">
+        <v>15967961</v>
+      </c>
+      <c r="G80" s="2">
+        <v>5</v>
+      </c>
+      <c r="N80" s="2">
+        <v>5</v>
+      </c>
+      <c r="P80" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>5</v>
+      </c>
+      <c r="U80" s="2">
+        <v>20</v>
+      </c>
+      <c r="V80" s="2">
+        <v>10</v>
+      </c>
+      <c r="AA80" s="2">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="AB80" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G81" s="2">
+        <v>2</v>
+      </c>
+      <c r="M81" s="2">
+        <v>10</v>
+      </c>
+      <c r="R81" s="2">
+        <v>2</v>
+      </c>
+      <c r="V81" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA81" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" s="2">
+        <v>588</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E82" s="2">
+        <v>17837468</v>
+      </c>
+      <c r="G82" s="2">
+        <v>10</v>
+      </c>
+      <c r="K82" s="2">
+        <v>10</v>
+      </c>
+      <c r="P82" s="2">
+        <v>30</v>
+      </c>
+      <c r="U82" s="2">
+        <v>60</v>
+      </c>
+      <c r="V82" s="2">
+        <v>10</v>
+      </c>
+      <c r="AA82" s="2">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" s="2">
+        <v>609</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E83" s="2">
+        <v>15474134</v>
+      </c>
+      <c r="G83" s="2">
+        <v>5</v>
+      </c>
+      <c r="K83" s="2"/>
+      <c r="M83" s="2">
+        <v>20</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="U83" s="2">
+        <v>20</v>
+      </c>
+      <c r="V83" s="2">
+        <v>10</v>
+      </c>
+      <c r="AA83" s="2">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" s="2">
+        <v>192</v>
+      </c>
+      <c r="D84" t="s">
+        <v>201</v>
+      </c>
+      <c r="E84" s="2">
+        <v>15970137</v>
+      </c>
+      <c r="G84" s="2">
+        <v>10</v>
+      </c>
+      <c r="M84" s="2">
+        <v>60</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="U84" s="2">
+        <v>40</v>
+      </c>
+      <c r="V84" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y84" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA84" s="2">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C85" s="2">
+        <v>554</v>
+      </c>
+      <c r="D85" s="2">
+        <v>10003922463</v>
+      </c>
+      <c r="E85" s="2">
+        <v>11803044</v>
+      </c>
+      <c r="G85" s="2">
+        <v>20</v>
+      </c>
+      <c r="M85" s="2">
+        <v>60</v>
+      </c>
+      <c r="U85" s="2">
+        <v>60</v>
+      </c>
+      <c r="V85" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y85" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA85" s="2">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="AA86" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="AA87" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="AA88" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Y89" s="2"/>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5345,10 +6120,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D98E53-4DEF-4580-9413-2831204858BD}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5610,7 +6385,709 @@
         <v>3074</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3092</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF03CF93-A241-4DB9-ACD8-61B0F18F4B55}">
+  <dimension ref="A1:V83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="V1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10" t="str">
+        <f t="shared" ref="B2:B33" si="0">TRIM(MID(V1, SEARCH(" ", V1) + 1, LEN(V1) - SEARCH(" ", V1)))</f>
+        <v>10008521996</v>
+      </c>
+      <c r="V2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>10008521996</v>
+      </c>
+      <c r="V3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>10008521996</v>
+      </c>
+      <c r="V4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>HV307164-XX</v>
+      </c>
+      <c r="V5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10">
+        <v>10003922463</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="V6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>HV306453-01</v>
+      </c>
+      <c r="V7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>HV400318-XX</v>
+      </c>
+      <c r="V8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>HV307164-XX</v>
+      </c>
+      <c r="V9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>HV303895-01</v>
+      </c>
+      <c r="V10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>HV307986-XX</v>
+      </c>
+      <c r="V11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>10011984549</v>
+      </c>
+      <c r="V12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>HV311169-XX</v>
+      </c>
+      <c r="V13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>4365870010-004</v>
+      </c>
+      <c r="V14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>HV307986-XX</v>
+      </c>
+      <c r="V15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>4544520010-006</v>
+      </c>
+      <c r="V16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>28800202</v>
+      </c>
+      <c r="V17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>10007618049</v>
+      </c>
+      <c r="V18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>10008511425</v>
+      </c>
+      <c r="V19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>10008511425</v>
+      </c>
+      <c r="V20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>10005591672</v>
+      </c>
+      <c r="V21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>10008507813</v>
+      </c>
+      <c r="V22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>10008507813</v>
+      </c>
+      <c r="V23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>10008507813</v>
+      </c>
+      <c r="V24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>HVHV307987-XX</v>
+      </c>
+      <c r="V25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>HV307986-XX</v>
+      </c>
+      <c r="V26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>HV307986-XX</v>
+      </c>
+      <c r="V27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>HV307986-XX</v>
+      </c>
+      <c r="V28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>HV307986-XX</v>
+      </c>
+      <c r="V29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>HV307986-XX</v>
+      </c>
+      <c r="V30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>RML-W-064709</v>
+      </c>
+      <c r="V31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>HV311126-02</v>
+      </c>
+      <c r="V32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>HV307986-XX</v>
+      </c>
+      <c r="V33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10" t="str">
+        <f t="shared" ref="B34:B57" si="1">TRIM(MID(V33, SEARCH(" ", V33) + 1, LEN(V33) - SEARCH(" ", V33)))</f>
+        <v>HV307164-XX</v>
+      </c>
+      <c r="V34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>10005864826</v>
+      </c>
+      <c r="V35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>10004229966</v>
+      </c>
+      <c r="V36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>10008755474</v>
+      </c>
+      <c r="V37" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>10010360769</v>
+      </c>
+      <c r="V38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>10009890643</v>
+      </c>
+      <c r="V39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>10009855888</v>
+      </c>
+      <c r="V40" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>10004980103</v>
+      </c>
+      <c r="V41" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>10004976811</v>
+      </c>
+      <c r="V42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>10004963667</v>
+      </c>
+      <c r="V43" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>10008507821</v>
+      </c>
+      <c r="V44" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>10008507821</v>
+      </c>
+      <c r="V45" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>10008514727</v>
+      </c>
+      <c r="V46" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>10006001743</v>
+      </c>
+      <c r="V47" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>10006000456</v>
+      </c>
+      <c r="V48" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>10004254702</v>
+      </c>
+      <c r="V49" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+      <c r="B50" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>10003058629</v>
+      </c>
+      <c r="V50" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="B51" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>10005184725</v>
+      </c>
+      <c r="V51" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+      <c r="B52" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>10005675337</v>
+      </c>
+      <c r="V52" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
+      <c r="B53" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>10005159680</v>
+      </c>
+      <c r="V53" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>10006836848</v>
+      </c>
+      <c r="V54" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>10006836881</v>
+      </c>
+      <c r="V55" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+      <c r="B56" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>10006504723</v>
+      </c>
+      <c r="V56" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A57" s="9"/>
+      <c r="B57" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>10006836942</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A58" s="9"/>
+      <c r="B58" s="10">
+        <v>10011747255</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A59" s="9"/>
+      <c r="B59" s="10">
+        <v>10011747305</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B60" s="8"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B61" s="8"/>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B62" s="8"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B63" s="8"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B64" s="8"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="8"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="8"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="8"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="8"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="8"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="8"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="8"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="8"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="8"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="8"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="8"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="8"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="8"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="8"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="8"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="8"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="8"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="8"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{B287ECD6-23B5-452B-A8FE-14F2A4505328}">
+            <xm:f>COUNTIF('PROCESSOS DE FABRICAÇÃO'!$D:$D, B2) &gt; 0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B2:B1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sgq\Desktop\Projetos\Analise_Hora_Máquina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D05BEE-A9B4-4FFC-9144-799BF4E2BE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BAB93D-F618-4339-9664-7AC79A9D0672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="PROCESSOS DE FABRICAÇÃO" sheetId="1" r:id="rId1"/>
     <sheet name="CÓDIGOS ORÇAMENTOS" sheetId="2" r:id="rId2"/>
     <sheet name="AGOSTO" sheetId="3" r:id="rId3"/>
+    <sheet name="SETEMBRO" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'PROCESSOS DE FABRICAÇÃO'!$1:$1</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="223">
   <si>
     <t>ORCAMENTO</t>
   </si>
@@ -664,13 +665,43 @@
   </si>
   <si>
     <t>HVHV311126-02</t>
+  </si>
+  <si>
+    <t>4476       HV309783-31</t>
+  </si>
+  <si>
+    <t>4475       HV500828-01</t>
+  </si>
+  <si>
+    <t>4526       10011984549</t>
+  </si>
+  <si>
+    <t>4498       HV309783-31</t>
+  </si>
+  <si>
+    <t>4553       HV311169-XX</t>
+  </si>
+  <si>
+    <t>4686    4365870010-003</t>
+  </si>
+  <si>
+    <t>4749         CK-000282</t>
+  </si>
+  <si>
+    <t>4737       HV307164-XX</t>
+  </si>
+  <si>
+    <t>4892    4365870010-004</t>
+  </si>
+  <si>
+    <t>4897    4365870010-004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -804,6 +835,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Var(--colab-code-font-family)"/>
     </font>
   </fonts>
   <fills count="36">
@@ -1180,7 +1216,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1209,6 +1245,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1256,7 +1304,14 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1580,16 +1635,16 @@
   <dimension ref="A1:AB101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
@@ -1613,7 +1668,7 @@
     <col min="26" max="26" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -1623,7 +1678,7 @@
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -1699,7 +1754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1709,7 +1764,7 @@
       <c r="C2" s="2">
         <v>514</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="14">
         <v>10007618084</v>
       </c>
       <c r="E2" s="2">
@@ -1752,7 +1807,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1762,7 +1817,7 @@
       <c r="C3" s="2">
         <v>514</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="14">
         <v>10008531338</v>
       </c>
       <c r="E3" s="2">
@@ -1805,7 +1860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1815,7 +1870,7 @@
       <c r="C4" s="2">
         <v>514</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="14">
         <v>10006000456</v>
       </c>
       <c r="E4" s="2">
@@ -1860,7 +1915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1870,7 +1925,7 @@
       <c r="C5" s="2">
         <v>514</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="14">
         <v>10006001743</v>
       </c>
       <c r="E5" s="2">
@@ -1915,7 +1970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1925,7 +1980,7 @@
       <c r="C6" s="2">
         <v>514</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="14">
         <v>10012026521</v>
       </c>
       <c r="E6" s="2">
@@ -1970,7 +2025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1980,7 +2035,7 @@
       <c r="C7" s="2">
         <v>514</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="14">
         <v>10012030032</v>
       </c>
       <c r="E7" s="2">
@@ -2025,7 +2080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2035,7 +2090,7 @@
       <c r="C8" s="2">
         <v>514</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="14">
         <v>10007749091</v>
       </c>
       <c r="E8" s="2">
@@ -2080,7 +2135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2090,7 +2145,7 @@
       <c r="C9" s="2">
         <v>514</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="14">
         <v>10007749151</v>
       </c>
       <c r="E9" s="2">
@@ -2135,7 +2190,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2145,7 +2200,7 @@
       <c r="C10" s="2">
         <v>650</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="14" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -2192,7 +2247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2202,7 +2257,7 @@
       <c r="C11" s="2">
         <v>648</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -2249,7 +2304,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2259,7 +2314,7 @@
       <c r="C12" s="2">
         <v>648</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -2304,7 +2359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2314,7 +2369,7 @@
       <c r="C13" s="2">
         <v>648</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -2357,7 +2412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2367,7 +2422,7 @@
       <c r="C14" s="2">
         <v>635</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -2406,7 +2461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2416,7 +2471,7 @@
       <c r="C15" s="2">
         <v>507</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -2461,7 +2516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2471,7 +2526,7 @@
       <c r="C16" s="2">
         <v>606</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="14">
         <v>10005591672</v>
       </c>
       <c r="E16" s="2">
@@ -2518,7 +2573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2528,7 +2583,7 @@
       <c r="C17" s="2">
         <v>436</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="14" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -2569,7 +2624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2579,7 +2634,7 @@
       <c r="C18" s="2">
         <v>436</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="14" t="s">
         <v>52</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -2624,7 +2679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2634,7 +2689,7 @@
       <c r="C19" s="2">
         <v>438</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="14" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -2673,7 +2728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2683,7 +2738,7 @@
       <c r="C20" s="2">
         <v>437</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="14" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -2730,7 +2785,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2740,7 +2795,7 @@
       <c r="C21" s="2">
         <v>495</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="14" t="s">
         <v>57</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -2779,7 +2834,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2789,7 +2844,7 @@
       <c r="C22" s="2">
         <v>495</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="14" t="s">
         <v>60</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -2828,7 +2883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2838,7 +2893,7 @@
       <c r="C23" s="6">
         <v>452</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="14" t="s">
         <v>64</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -2877,7 +2932,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2887,7 +2942,7 @@
       <c r="C24" s="6">
         <v>452</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="14" t="s">
         <v>62</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -2934,7 +2989,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2944,7 +2999,7 @@
       <c r="C25" s="6">
         <v>452</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="14" t="s">
         <v>66</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -2991,7 +3046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3001,7 +3056,7 @@
       <c r="C26" s="2">
         <v>488</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -3046,7 +3101,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3056,7 +3111,7 @@
       <c r="C27" s="2">
         <v>444</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="14" t="s">
         <v>69</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -3101,7 +3156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3111,7 +3166,7 @@
       <c r="C28" s="2">
         <v>444</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="14" t="s">
         <v>70</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -3154,7 +3209,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3164,7 +3219,7 @@
       <c r="C29" s="2">
         <v>536</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -3209,7 +3264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3219,7 +3274,7 @@
       <c r="C30" s="2">
         <v>536</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="14" t="s">
         <v>73</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -3262,7 +3317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3272,7 +3327,7 @@
       <c r="C31" s="2">
         <v>536</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="14" t="s">
         <v>75</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -3319,7 +3374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3329,7 +3384,7 @@
       <c r="C32" s="2">
         <v>517</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="14" t="s">
         <v>77</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -3374,7 +3429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3384,7 +3439,7 @@
       <c r="C33" s="2">
         <v>340</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="14" t="s">
         <v>40</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -3428,7 +3483,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3438,7 +3493,7 @@
       <c r="C34" s="2">
         <v>340</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="14" t="s">
         <v>40</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -3482,7 +3537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3492,7 +3547,7 @@
       <c r="C35" s="2">
         <v>340</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="14" t="s">
         <v>40</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -3536,7 +3591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3546,7 +3601,7 @@
       <c r="C36" s="2">
         <v>340</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="14" t="s">
         <v>40</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -3590,7 +3645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3600,7 +3655,7 @@
       <c r="C37" s="2">
         <v>340</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="14" t="s">
         <v>40</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -3644,7 +3699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3654,7 +3709,7 @@
       <c r="C38" s="2">
         <v>340</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="14" t="s">
         <v>40</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -3698,7 +3753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3708,7 +3763,7 @@
       <c r="C39" s="2">
         <v>340</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="14" t="s">
         <v>40</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -3752,7 +3807,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3762,7 +3817,7 @@
       <c r="C40" s="2">
         <v>340</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="14" t="s">
         <v>40</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -3806,7 +3861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3816,7 +3871,7 @@
       <c r="C41" s="2">
         <v>340</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="14" t="s">
         <v>91</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -3858,7 +3913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3868,7 +3923,7 @@
       <c r="C42" s="2">
         <v>340</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="14" t="s">
         <v>91</v>
       </c>
       <c r="E42" s="2" t="s">
@@ -3910,7 +3965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3920,7 +3975,7 @@
       <c r="C43" s="2">
         <v>340</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="14" t="s">
         <v>91</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -3962,7 +4017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3972,7 +4027,7 @@
       <c r="C44" s="2">
         <v>340</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="14" t="s">
         <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -4014,7 +4069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4024,7 +4079,7 @@
       <c r="C45" s="2">
         <v>340</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="14" t="s">
         <v>97</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -4066,7 +4121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4076,7 +4131,7 @@
       <c r="C46" s="2">
         <v>340</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="14" t="s">
         <v>97</v>
       </c>
       <c r="E46" s="2" t="s">
@@ -4118,7 +4173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4128,7 +4183,7 @@
       <c r="C47" s="2">
         <v>340</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="14" t="s">
         <v>99</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -4170,7 +4225,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4180,7 +4235,7 @@
       <c r="C48" s="2">
         <v>340</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="14" t="s">
         <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
@@ -4222,7 +4277,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4232,7 +4287,7 @@
       <c r="C49" s="2">
         <v>340</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="14" t="s">
         <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -4276,7 +4331,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4286,7 +4341,7 @@
       <c r="C50" s="2">
         <v>340</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="14" t="s">
         <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -4328,7 +4383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4338,7 +4393,7 @@
       <c r="C51" s="2">
         <v>340</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="14" t="s">
         <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -4374,7 +4429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4384,7 +4439,7 @@
       <c r="C52" s="2">
         <v>422</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="14" t="s">
         <v>108</v>
       </c>
       <c r="E52" s="2" t="s">
@@ -4426,7 +4481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4436,7 +4491,7 @@
       <c r="C53" s="2">
         <v>445</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="14" t="s">
         <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
@@ -4476,7 +4531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4486,7 +4541,7 @@
       <c r="C54" s="2">
         <v>446</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="14">
         <v>48125655</v>
       </c>
       <c r="E54" s="2" t="s">
@@ -4528,7 +4583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4538,7 +4593,7 @@
       <c r="C55" s="2">
         <v>651</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="14">
         <v>10006555892</v>
       </c>
       <c r="E55" s="2">
@@ -4578,7 +4633,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4588,7 +4643,7 @@
       <c r="C56" s="2">
         <v>651</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="14">
         <v>10006081183</v>
       </c>
       <c r="E56" s="2">
@@ -4628,7 +4683,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4638,7 +4693,7 @@
       <c r="C57" s="2">
         <v>651</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="14">
         <v>10006555870</v>
       </c>
       <c r="E57" s="2">
@@ -4682,7 +4737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4692,7 +4747,7 @@
       <c r="C58" s="2">
         <v>651</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="14">
         <v>10004982595</v>
       </c>
       <c r="E58" s="2">
@@ -4734,7 +4789,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4744,7 +4799,7 @@
       <c r="C59" s="2">
         <v>653</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="14" t="s">
         <v>119</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -4780,7 +4835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4790,7 +4845,7 @@
       <c r="C60" s="2">
         <v>653</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="14" t="s">
         <v>121</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -4826,7 +4881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4836,7 +4891,7 @@
       <c r="C61" s="2">
         <v>653</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="14" t="s">
         <v>123</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -4872,7 +4927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4882,7 +4937,7 @@
       <c r="C62" s="2">
         <v>654</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="14">
         <v>10005215708</v>
       </c>
       <c r="E62" s="2">
@@ -4928,7 +4983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4938,7 +4993,7 @@
       <c r="C63" s="2">
         <v>655</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="14">
         <v>10011675176</v>
       </c>
       <c r="E63" s="2">
@@ -4984,7 +5039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4994,7 +5049,7 @@
       <c r="C64" s="2">
         <v>655</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="14">
         <v>10011669766</v>
       </c>
       <c r="E64" s="2">
@@ -5040,7 +5095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -5050,7 +5105,7 @@
       <c r="C65" s="2">
         <v>655</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="14">
         <v>10011666129</v>
       </c>
       <c r="E65" s="2">
@@ -5096,7 +5151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -5106,7 +5161,7 @@
       <c r="C66" s="2">
         <v>656</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="14" t="s">
         <v>124</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -5144,7 +5199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -5154,7 +5209,7 @@
       <c r="C67" s="2">
         <v>656</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="14" t="s">
         <v>127</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -5190,7 +5245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -5200,7 +5255,7 @@
       <c r="C68" s="2">
         <v>656</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="14" t="s">
         <v>124</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -5239,7 +5294,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -5249,7 +5304,7 @@
       <c r="C69" s="2">
         <v>447</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="14" t="s">
         <v>130</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -5291,7 +5346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -5301,7 +5356,7 @@
       <c r="C70" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="14" t="s">
         <v>189</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -5350,7 +5405,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -5360,7 +5415,7 @@
       <c r="C71" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="14" t="s">
         <v>191</v>
       </c>
       <c r="E71" s="2" t="s">
@@ -5402,7 +5457,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -5412,7 +5467,7 @@
       <c r="C72" s="2">
         <v>511</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E72" s="2" t="s">
@@ -5454,7 +5509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -5464,7 +5519,7 @@
       <c r="C73" s="2">
         <v>636</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="14" t="s">
         <v>192</v>
       </c>
       <c r="E73" s="2" t="s">
@@ -5506,7 +5561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -5516,7 +5571,7 @@
       <c r="C74" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="14" t="s">
         <v>193</v>
       </c>
       <c r="E74" s="2" t="s">
@@ -5558,7 +5613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -5568,7 +5623,7 @@
       <c r="C75" s="2">
         <v>340</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="14" t="s">
         <v>195</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -5610,7 +5665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -5620,7 +5675,7 @@
       <c r="C76" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="14" t="s">
         <v>196</v>
       </c>
       <c r="E76" s="2" t="s">
@@ -5660,7 +5715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -5670,7 +5725,7 @@
       <c r="C77" s="2">
         <v>189</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="14">
         <v>10008521996</v>
       </c>
       <c r="E77" s="2">
@@ -5710,7 +5765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -5720,7 +5775,7 @@
       <c r="C78" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="14" t="s">
         <v>197</v>
       </c>
       <c r="E78" s="2" t="s">
@@ -5764,7 +5819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -5774,7 +5829,7 @@
       <c r="C79" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="14" t="s">
         <v>198</v>
       </c>
       <c r="E79" s="2" t="s">
@@ -5800,7 +5855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -5810,7 +5865,7 @@
       <c r="C80" s="2">
         <v>189</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="14">
         <v>10008507813</v>
       </c>
       <c r="E80" s="2">
@@ -5842,7 +5897,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -5852,7 +5907,7 @@
       <c r="C81" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="14" t="s">
         <v>41</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -5875,7 +5930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -5885,7 +5940,7 @@
       <c r="C82" s="2">
         <v>588</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="14" t="s">
         <v>199</v>
       </c>
       <c r="E82" s="2">
@@ -5911,7 +5966,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -5921,7 +5976,7 @@
       <c r="C83" s="2">
         <v>609</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="14" t="s">
         <v>200</v>
       </c>
       <c r="E83" s="2">
@@ -5946,7 +6001,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -5956,7 +6011,7 @@
       <c r="C84" s="2">
         <v>192</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="15" t="s">
         <v>201</v>
       </c>
       <c r="E84" s="2">
@@ -5983,7 +6038,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -5993,7 +6048,7 @@
       <c r="C85" s="2">
         <v>554</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="14">
         <v>10003922463</v>
       </c>
       <c r="E85" s="2">
@@ -6019,102 +6074,125 @@
         <v>180</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27">
       <c r="A86" s="1">
         <v>85</v>
       </c>
+      <c r="B86" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C86" s="2">
+        <v>647</v>
+      </c>
+      <c r="D86" s="14">
+        <v>10011747305</v>
+      </c>
+      <c r="E86" s="2">
+        <v>17691420</v>
+      </c>
+      <c r="G86" s="2">
+        <v>3</v>
+      </c>
+      <c r="N86" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>5</v>
+      </c>
+      <c r="V86" s="2">
+        <v>5</v>
+      </c>
       <c r="AA86" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27">
       <c r="A87" s="1">
         <v>86</v>
       </c>
+      <c r="B87" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" s="2">
+        <v>647</v>
+      </c>
+      <c r="D87" s="14">
+        <v>10011747255</v>
+      </c>
+      <c r="E87" s="2">
+        <v>17691419</v>
+      </c>
+      <c r="G87" s="2">
+        <v>3</v>
+      </c>
+      <c r="N87" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>10</v>
+      </c>
+      <c r="V87" s="2">
+        <v>5</v>
+      </c>
       <c r="AA87" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>87</v>
-      </c>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27">
+      <c r="A88" s="1"/>
       <c r="AA88" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>88</v>
-      </c>
+    <row r="89" spans="1:27">
+      <c r="A89" s="1"/>
       <c r="Y89" s="2"/>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>100</v>
-      </c>
+    <row r="90" spans="1:27">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="91" spans="1:27">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" spans="1:27">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:27">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" spans="1:27">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" spans="1:27">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:27">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="1"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="21" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D82:D84 D74" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -6126,13 +6204,13 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -6143,7 +6221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
         <v>33</v>
       </c>
@@ -6154,7 +6232,7 @@
         <v>2997</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -6165,7 +6243,7 @@
         <v>3064</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -6176,7 +6254,7 @@
         <v>3065</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="7" t="s">
         <v>33</v>
       </c>
@@ -6187,7 +6265,7 @@
         <v>3062</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
@@ -6198,7 +6276,7 @@
         <v>3060</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="7" t="s">
         <v>33</v>
       </c>
@@ -6209,7 +6287,7 @@
         <v>3059</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
@@ -6220,7 +6298,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
@@ -6231,7 +6309,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
         <v>33</v>
       </c>
@@ -6242,7 +6320,7 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
@@ -6253,7 +6331,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -6264,7 +6342,7 @@
         <v>3056</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
@@ -6275,7 +6353,7 @@
         <v>3055</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
@@ -6286,7 +6364,7 @@
         <v>3053</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -6297,7 +6375,7 @@
         <v>3054</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
@@ -6308,7 +6386,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>113</v>
       </c>
@@ -6319,7 +6397,7 @@
         <v>3085</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>114</v>
       </c>
@@ -6330,7 +6408,7 @@
         <v>3083</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>114</v>
       </c>
@@ -6341,7 +6419,7 @@
         <v>3082</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>115</v>
       </c>
@@ -6352,7 +6430,7 @@
         <v>3077</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>116</v>
       </c>
@@ -6363,7 +6441,7 @@
         <v>3076</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>116</v>
       </c>
@@ -6374,7 +6452,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>117</v>
       </c>
@@ -6385,7 +6463,7 @@
         <v>3074</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="B24" t="s">
         <v>180</v>
       </c>
@@ -6402,11 +6480,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF03CF93-A241-4DB9-ACD8-61B0F18F4B55}">
   <dimension ref="A1:V83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -6414,7 +6492,7 @@
     <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" s="11" t="s">
         <v>49</v>
       </c>
@@ -6426,7 +6504,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="9"/>
       <c r="B2" s="10" t="str">
         <f t="shared" ref="B2:B33" si="0">TRIM(MID(V1, SEARCH(" ", V1) + 1, LEN(V1) - SEARCH(" ", V1)))</f>
@@ -6436,7 +6514,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="9"/>
       <c r="B3" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6446,7 +6524,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6456,7 +6534,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="9"/>
       <c r="B5" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6466,7 +6544,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="9"/>
       <c r="B6" s="10">
         <v>10003922463</v>
@@ -6476,7 +6554,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6486,7 +6564,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="9"/>
       <c r="B8" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6496,7 +6574,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="9"/>
       <c r="B9" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6506,7 +6584,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6516,7 +6594,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="9"/>
       <c r="B11" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6526,7 +6604,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="9"/>
       <c r="B12" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6536,7 +6614,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6546,7 +6624,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="9"/>
       <c r="B14" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6556,7 +6634,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="9"/>
       <c r="B15" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6566,7 +6644,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="9"/>
       <c r="B16" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6576,7 +6654,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" s="9"/>
       <c r="B17" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6586,7 +6664,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" s="9"/>
       <c r="B18" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6596,7 +6674,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" s="9"/>
       <c r="B19" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6606,7 +6684,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" s="9"/>
       <c r="B20" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6616,7 +6694,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" s="9"/>
       <c r="B21" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6626,7 +6704,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" s="9"/>
       <c r="B22" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6636,7 +6714,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" s="9"/>
       <c r="B23" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6646,7 +6724,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" s="9"/>
       <c r="B24" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6656,7 +6734,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" s="9"/>
       <c r="B25" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6666,7 +6744,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" s="9"/>
       <c r="B26" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6676,7 +6754,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" s="9"/>
       <c r="B27" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6686,7 +6764,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" s="9"/>
       <c r="B28" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6696,7 +6774,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29" s="9"/>
       <c r="B29" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6706,7 +6784,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30" s="9"/>
       <c r="B30" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6716,7 +6794,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31" s="9"/>
       <c r="B31" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6726,7 +6804,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32" s="9"/>
       <c r="B32" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6736,7 +6814,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22">
       <c r="A33" s="9"/>
       <c r="B33" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6746,7 +6824,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22">
       <c r="A34" s="9"/>
       <c r="B34" s="10" t="str">
         <f t="shared" ref="B34:B57" si="1">TRIM(MID(V33, SEARCH(" ", V33) + 1, LEN(V33) - SEARCH(" ", V33)))</f>
@@ -6756,7 +6834,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22">
       <c r="A35" s="9"/>
       <c r="B35" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6766,7 +6844,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22">
       <c r="A36" s="9"/>
       <c r="B36" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6776,7 +6854,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22">
       <c r="A37" s="9"/>
       <c r="B37" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6786,7 +6864,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22">
       <c r="A38" s="9"/>
       <c r="B38" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6796,7 +6874,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22">
       <c r="A39" s="9"/>
       <c r="B39" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6806,7 +6884,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22">
       <c r="A40" s="9"/>
       <c r="B40" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6816,7 +6894,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22">
       <c r="A41" s="9"/>
       <c r="B41" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6826,7 +6904,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22">
       <c r="A42" s="9"/>
       <c r="B42" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6836,7 +6914,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22">
       <c r="A43" s="9"/>
       <c r="B43" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6846,7 +6924,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22">
       <c r="A44" s="9"/>
       <c r="B44" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6856,7 +6934,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22">
       <c r="A45" s="9"/>
       <c r="B45" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6866,7 +6944,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22">
       <c r="A46" s="9"/>
       <c r="B46" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6876,7 +6954,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22">
       <c r="A47" s="9"/>
       <c r="B47" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6886,7 +6964,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22">
       <c r="A48" s="9"/>
       <c r="B48" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6896,7 +6974,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22">
       <c r="A49" s="9"/>
       <c r="B49" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6906,7 +6984,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22">
       <c r="A50" s="9"/>
       <c r="B50" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6916,7 +6994,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22">
       <c r="A51" s="9"/>
       <c r="B51" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6926,7 +7004,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22">
       <c r="A52" s="9"/>
       <c r="B52" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6936,7 +7014,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22">
       <c r="A53" s="9"/>
       <c r="B53" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6946,7 +7024,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22">
       <c r="A54" s="9"/>
       <c r="B54" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6956,7 +7034,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22">
       <c r="A55" s="9"/>
       <c r="B55" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6966,7 +7044,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22">
       <c r="A56" s="9"/>
       <c r="B56" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6976,95 +7054,95 @@
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22">
       <c r="A57" s="9"/>
       <c r="B57" s="10" t="str">
         <f t="shared" si="1"/>
         <v>10006836942</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22">
       <c r="A58" s="9"/>
       <c r="B58" s="10">
         <v>10011747255</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22">
       <c r="A59" s="9"/>
       <c r="B59" s="10">
         <v>10011747305</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22">
       <c r="B60" s="8"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22">
       <c r="B61" s="8"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22">
       <c r="B62" s="8"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22">
       <c r="B63" s="8"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22">
       <c r="B64" s="8"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2">
       <c r="B65" s="8"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2">
       <c r="B66" s="8"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2">
       <c r="B67" s="8"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2">
       <c r="B68" s="8"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2">
       <c r="B69" s="8"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2">
       <c r="B70" s="8"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2">
       <c r="B71" s="8"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2">
       <c r="B72" s="8"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2">
       <c r="B73" s="8"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2">
       <c r="B74" s="8"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2">
       <c r="B75" s="8"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2">
       <c r="B76" s="8"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2">
       <c r="B77" s="8"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2">
       <c r="B78" s="8"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2">
       <c r="B79" s="8"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2">
       <c r="B80" s="8"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2">
       <c r="B81" s="8"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2">
       <c r="B82" s="8"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2">
       <c r="B83" s="8"/>
     </row>
   </sheetData>
@@ -7090,4 +7168,140 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA1C6DF-1C6F-4A7E-AA08-F9BD66EE655C}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" t="str">
+        <f>TRIM(MID(J1, SEARCH(" ", J1) + 1, LEN(J1) - SEARCH(" ", J1)))</f>
+        <v>HV309783-31</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B11" si="0">TRIM(MID(J2, SEARCH(" ", J2) + 1, LEN(J2) - SEARCH(" ", J2)))</f>
+        <v>HV500828-01</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>10011984549</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>HV309783-31</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>HV311169-XX</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>4365870010-003</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>CK-000282</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>HV307164-XX</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>4365870010-004</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>4365870010-004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{B2DC3357-C7EA-4EA1-B36C-EC32600B57EA}">
+            <xm:f>COUNTIF('PROCESSOS DE FABRICAÇÃO'!$D:$D, B2) &gt; 0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sgq\Desktop\Projetos\Analise_Hora_Máquina\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BAB93D-F618-4339-9664-7AC79A9D0672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355E24DF-784E-48D5-A45C-168C39B33D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="3" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCESSOS DE FABRICAÇÃO" sheetId="1" r:id="rId1"/>
     <sheet name="CÓDIGOS ORÇAMENTOS" sheetId="2" r:id="rId2"/>
-    <sheet name="AGOSTO" sheetId="3" r:id="rId3"/>
-    <sheet name="SETEMBRO" sheetId="4" r:id="rId4"/>
+    <sheet name="JULHO" sheetId="5" r:id="rId3"/>
+    <sheet name="AGOSTO" sheetId="3" r:id="rId4"/>
+    <sheet name="SETEMBRO" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'PROCESSOS DE FABRICAÇÃO'!$1:$1</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="252">
   <si>
     <t>ORCAMENTO</t>
   </si>
@@ -695,6 +696,93 @@
   </si>
   <si>
     <t>4897    4365870010-004</t>
+  </si>
+  <si>
+    <t>HV308740-02</t>
+  </si>
+  <si>
+    <t>CK-000282</t>
+  </si>
+  <si>
+    <t>HV307986-XX VAR.09</t>
+  </si>
+  <si>
+    <t>HV401565</t>
+  </si>
+  <si>
+    <t>HV401099-31</t>
+  </si>
+  <si>
+    <t>HV307986-XX VAR.04</t>
+  </si>
+  <si>
+    <t>10002967709/10002967708</t>
+  </si>
+  <si>
+    <t>RECDET_CHANNEL_SMART5-CEM</t>
+  </si>
+  <si>
+    <t>HV500828-01</t>
+  </si>
+  <si>
+    <t>4380270010-003</t>
+  </si>
+  <si>
+    <t>HV310369-04</t>
+  </si>
+  <si>
+    <t>4365870010-005</t>
+  </si>
+  <si>
+    <t>4365870010-003</t>
+  </si>
+  <si>
+    <t>2959180020-005</t>
+  </si>
+  <si>
+    <t>TES_RECDET_HOLDER_37</t>
+  </si>
+  <si>
+    <t>FI-DG_UNIT_METALSIDE_15</t>
+  </si>
+  <si>
+    <t>HV309110-02</t>
+  </si>
+  <si>
+    <t>4544520010-004</t>
+  </si>
+  <si>
+    <t>N4.020034</t>
+  </si>
+  <si>
+    <t>N4-0200330 P.001</t>
+  </si>
+  <si>
+    <t>N4-0200337 P.001</t>
+  </si>
+  <si>
+    <t>HV400252-02</t>
+  </si>
+  <si>
+    <t>10004229966</t>
+  </si>
+  <si>
+    <t>10008755474</t>
+  </si>
+  <si>
+    <t>10010360769</t>
+  </si>
+  <si>
+    <t>10009890643</t>
+  </si>
+  <si>
+    <t>10009855888</t>
+  </si>
+  <si>
+    <t>10004980103</t>
+  </si>
+  <si>
+    <t>HV400252-01</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1304,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1250,14 +1338,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1304,7 +1386,14 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1632,11 +1721,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB101"/>
+  <dimension ref="A1:AB102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1644,7 +1733,7 @@
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
@@ -1678,7 +1767,7 @@
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -1764,7 +1853,7 @@
       <c r="C2" s="2">
         <v>514</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="2">
         <v>10007618084</v>
       </c>
       <c r="E2" s="2">
@@ -1817,7 +1906,7 @@
       <c r="C3" s="2">
         <v>514</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="2">
         <v>10008531338</v>
       </c>
       <c r="E3" s="2">
@@ -1870,7 +1959,7 @@
       <c r="C4" s="2">
         <v>514</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="2">
         <v>10006000456</v>
       </c>
       <c r="E4" s="2">
@@ -1925,7 +2014,7 @@
       <c r="C5" s="2">
         <v>514</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="2">
         <v>10006001743</v>
       </c>
       <c r="E5" s="2">
@@ -1980,7 +2069,7 @@
       <c r="C6" s="2">
         <v>514</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="2">
         <v>10012026521</v>
       </c>
       <c r="E6" s="2">
@@ -2035,7 +2124,7 @@
       <c r="C7" s="2">
         <v>514</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="2">
         <v>10012030032</v>
       </c>
       <c r="E7" s="2">
@@ -2090,7 +2179,7 @@
       <c r="C8" s="2">
         <v>514</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="2">
         <v>10007749091</v>
       </c>
       <c r="E8" s="2">
@@ -2145,7 +2234,7 @@
       <c r="C9" s="2">
         <v>514</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="2">
         <v>10007749151</v>
       </c>
       <c r="E9" s="2">
@@ -2200,7 +2289,7 @@
       <c r="C10" s="2">
         <v>650</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -2257,7 +2346,7 @@
       <c r="C11" s="2">
         <v>648</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -2314,7 +2403,7 @@
       <c r="C12" s="2">
         <v>648</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -2369,7 +2458,7 @@
       <c r="C13" s="2">
         <v>648</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -2422,7 +2511,7 @@
       <c r="C14" s="2">
         <v>635</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -2471,7 +2560,7 @@
       <c r="C15" s="2">
         <v>507</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -2526,7 +2615,7 @@
       <c r="C16" s="2">
         <v>606</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="2">
         <v>10005591672</v>
       </c>
       <c r="E16" s="2">
@@ -2583,7 +2672,7 @@
       <c r="C17" s="2">
         <v>436</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -2634,7 +2723,7 @@
       <c r="C18" s="2">
         <v>436</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -2689,7 +2778,7 @@
       <c r="C19" s="2">
         <v>438</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -2738,7 +2827,7 @@
       <c r="C20" s="2">
         <v>437</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -2795,7 +2884,7 @@
       <c r="C21" s="2">
         <v>495</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -2844,7 +2933,7 @@
       <c r="C22" s="2">
         <v>495</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -2893,7 +2982,7 @@
       <c r="C23" s="6">
         <v>452</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -2942,7 +3031,7 @@
       <c r="C24" s="6">
         <v>452</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -2999,7 +3088,7 @@
       <c r="C25" s="6">
         <v>452</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -3056,7 +3145,7 @@
       <c r="C26" s="2">
         <v>488</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -3111,7 +3200,7 @@
       <c r="C27" s="2">
         <v>444</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="2" t="s">
         <v>69</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -3166,7 +3255,7 @@
       <c r="C28" s="2">
         <v>444</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -3219,7 +3308,7 @@
       <c r="C29" s="2">
         <v>536</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -3274,7 +3363,7 @@
       <c r="C30" s="2">
         <v>536</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -3327,7 +3416,7 @@
       <c r="C31" s="2">
         <v>536</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -3384,7 +3473,7 @@
       <c r="C32" s="2">
         <v>517</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -3439,7 +3528,7 @@
       <c r="C33" s="2">
         <v>340</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -3493,7 +3582,7 @@
       <c r="C34" s="2">
         <v>340</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -3530,7 +3619,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2">
-        <f t="shared" ref="AA34:AA88" si="1">SUM(G34:Z34)</f>
+        <f t="shared" ref="AA34:AA97" si="1">SUM(G34:Z34)</f>
         <v>40</v>
       </c>
       <c r="AB34" s="1" t="s">
@@ -3547,7 +3636,7 @@
       <c r="C35" s="2">
         <v>340</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -3601,7 +3690,7 @@
       <c r="C36" s="2">
         <v>340</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -3655,7 +3744,7 @@
       <c r="C37" s="2">
         <v>340</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -3709,7 +3798,7 @@
       <c r="C38" s="2">
         <v>340</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -3763,7 +3852,7 @@
       <c r="C39" s="2">
         <v>340</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -3817,7 +3906,7 @@
       <c r="C40" s="2">
         <v>340</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -3871,7 +3960,7 @@
       <c r="C41" s="2">
         <v>340</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -3923,7 +4012,7 @@
       <c r="C42" s="2">
         <v>340</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E42" s="2" t="s">
@@ -3975,7 +4064,7 @@
       <c r="C43" s="2">
         <v>340</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -4027,7 +4116,7 @@
       <c r="C44" s="2">
         <v>340</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -4079,7 +4168,7 @@
       <c r="C45" s="2">
         <v>340</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -4131,7 +4220,7 @@
       <c r="C46" s="2">
         <v>340</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E46" s="2" t="s">
@@ -4183,7 +4272,7 @@
       <c r="C47" s="2">
         <v>340</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -4235,7 +4324,7 @@
       <c r="C48" s="2">
         <v>340</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
@@ -4287,7 +4376,7 @@
       <c r="C49" s="2">
         <v>340</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -4341,7 +4430,7 @@
       <c r="C50" s="2">
         <v>340</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -4393,7 +4482,7 @@
       <c r="C51" s="2">
         <v>340</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -4439,7 +4528,7 @@
       <c r="C52" s="2">
         <v>422</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E52" s="2" t="s">
@@ -4491,7 +4580,7 @@
       <c r="C53" s="2">
         <v>445</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
@@ -4541,7 +4630,7 @@
       <c r="C54" s="2">
         <v>446</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D54" s="2">
         <v>48125655</v>
       </c>
       <c r="E54" s="2" t="s">
@@ -4593,7 +4682,7 @@
       <c r="C55" s="2">
         <v>651</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55" s="2">
         <v>10006555892</v>
       </c>
       <c r="E55" s="2">
@@ -4643,7 +4732,7 @@
       <c r="C56" s="2">
         <v>651</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D56" s="2">
         <v>10006081183</v>
       </c>
       <c r="E56" s="2">
@@ -4693,7 +4782,7 @@
       <c r="C57" s="2">
         <v>651</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D57" s="2">
         <v>10006555870</v>
       </c>
       <c r="E57" s="2">
@@ -4747,7 +4836,7 @@
       <c r="C58" s="2">
         <v>651</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D58" s="2">
         <v>10004982595</v>
       </c>
       <c r="E58" s="2">
@@ -4799,7 +4888,7 @@
       <c r="C59" s="2">
         <v>653</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -4845,7 +4934,7 @@
       <c r="C60" s="2">
         <v>653</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -4891,7 +4980,7 @@
       <c r="C61" s="2">
         <v>653</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="2" t="s">
         <v>123</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -4937,7 +5026,7 @@
       <c r="C62" s="2">
         <v>654</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D62" s="2">
         <v>10005215708</v>
       </c>
       <c r="E62" s="2">
@@ -4993,7 +5082,7 @@
       <c r="C63" s="2">
         <v>655</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D63" s="2">
         <v>10011675176</v>
       </c>
       <c r="E63" s="2">
@@ -5049,7 +5138,7 @@
       <c r="C64" s="2">
         <v>655</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D64" s="2">
         <v>10011669766</v>
       </c>
       <c r="E64" s="2">
@@ -5105,7 +5194,7 @@
       <c r="C65" s="2">
         <v>655</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D65" s="2">
         <v>10011666129</v>
       </c>
       <c r="E65" s="2">
@@ -5161,7 +5250,7 @@
       <c r="C66" s="2">
         <v>656</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="D66" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -5209,7 +5298,7 @@
       <c r="C67" s="2">
         <v>656</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="D67" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -5255,7 +5344,7 @@
       <c r="C68" s="2">
         <v>656</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="D68" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -5304,7 +5393,7 @@
       <c r="C69" s="2">
         <v>447</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D69" s="2" t="s">
         <v>130</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -5356,7 +5445,7 @@
       <c r="C70" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="D70" s="2" t="s">
         <v>189</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -5415,7 +5504,7 @@
       <c r="C71" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E71" s="2" t="s">
@@ -5467,7 +5556,7 @@
       <c r="C72" s="2">
         <v>511</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D72" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E72" s="2" t="s">
@@ -5519,7 +5608,7 @@
       <c r="C73" s="2">
         <v>636</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D73" s="2" t="s">
         <v>192</v>
       </c>
       <c r="E73" s="2" t="s">
@@ -5571,7 +5660,7 @@
       <c r="C74" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="D74" s="2" t="s">
         <v>193</v>
       </c>
       <c r="E74" s="2" t="s">
@@ -5623,7 +5712,7 @@
       <c r="C75" s="2">
         <v>340</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="D75" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -5675,7 +5764,7 @@
       <c r="C76" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D76" s="14" t="s">
+      <c r="D76" s="2" t="s">
         <v>196</v>
       </c>
       <c r="E76" s="2" t="s">
@@ -5725,7 +5814,7 @@
       <c r="C77" s="2">
         <v>189</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D77" s="2">
         <v>10008521996</v>
       </c>
       <c r="E77" s="2">
@@ -5775,7 +5864,7 @@
       <c r="C78" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D78" s="2" t="s">
         <v>197</v>
       </c>
       <c r="E78" s="2" t="s">
@@ -5829,7 +5918,7 @@
       <c r="C79" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="D79" s="2" t="s">
         <v>198</v>
       </c>
       <c r="E79" s="2" t="s">
@@ -5865,7 +5954,7 @@
       <c r="C80" s="2">
         <v>189</v>
       </c>
-      <c r="D80" s="14">
+      <c r="D80" s="2">
         <v>10008507813</v>
       </c>
       <c r="E80" s="2">
@@ -5897,7 +5986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:27">
+    <row r="81" spans="1:28">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -5907,7 +5996,7 @@
       <c r="C81" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="D81" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -5929,8 +6018,11 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="82" spans="1:27">
+      <c r="AB81" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -5940,7 +6032,7 @@
       <c r="C82" s="2">
         <v>588</v>
       </c>
-      <c r="D82" s="14" t="s">
+      <c r="D82" s="2" t="s">
         <v>199</v>
       </c>
       <c r="E82" s="2">
@@ -5965,8 +6057,11 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="83" spans="1:27">
+      <c r="AB82" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -5976,7 +6071,7 @@
       <c r="C83" s="2">
         <v>609</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D83" s="2" t="s">
         <v>200</v>
       </c>
       <c r="E83" s="2">
@@ -6000,8 +6095,11 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="84" spans="1:27">
+      <c r="AB83" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -6011,7 +6109,7 @@
       <c r="C84" s="2">
         <v>192</v>
       </c>
-      <c r="D84" s="15" t="s">
+      <c r="D84" t="s">
         <v>201</v>
       </c>
       <c r="E84" s="2">
@@ -6037,8 +6135,11 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="85" spans="1:27">
+      <c r="AB84" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -6048,7 +6149,7 @@
       <c r="C85" s="2">
         <v>554</v>
       </c>
-      <c r="D85" s="14">
+      <c r="D85" s="2">
         <v>10003922463</v>
       </c>
       <c r="E85" s="2">
@@ -6073,8 +6174,11 @@
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="86" spans="1:27">
+      <c r="AB85" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -6084,7 +6188,7 @@
       <c r="C86" s="2">
         <v>647</v>
       </c>
-      <c r="D86" s="14">
+      <c r="D86" s="2">
         <v>10011747305</v>
       </c>
       <c r="E86" s="2">
@@ -6106,8 +6210,11 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="87" spans="1:27">
+      <c r="AB86" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -6117,7 +6224,7 @@
       <c r="C87" s="2">
         <v>647</v>
       </c>
-      <c r="D87" s="14">
+      <c r="D87" s="2">
         <v>10011747255</v>
       </c>
       <c r="E87" s="2">
@@ -6139,60 +6246,302 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="88" spans="1:27">
-      <c r="A88" s="1"/>
+      <c r="AB87" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88" s="2">
+        <v>10005864826</v>
+      </c>
+      <c r="E88" s="2">
+        <v>11510278</v>
+      </c>
+      <c r="Z88" s="2">
+        <v>30</v>
+      </c>
       <c r="AA88" s="2">
         <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="AB88" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C89" s="1">
+        <v>185</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E89" s="2">
+        <v>13588930</v>
+      </c>
+      <c r="Y89" s="2"/>
+      <c r="Z89" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA89" s="2">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="AB89" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C90" s="1">
+        <v>149</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E90" s="2">
+        <v>16110881</v>
+      </c>
+      <c r="I90" s="2">
+        <v>1</v>
+      </c>
+      <c r="O90" s="2">
+        <v>1</v>
+      </c>
+      <c r="V90" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA90" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AB90" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C91" s="1">
+        <v>72</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E91" s="2">
+        <v>16745816</v>
+      </c>
+      <c r="Z91" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA91" s="2">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="AB91" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C92" s="1">
+        <v>72</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E92" s="2">
+        <v>16746703</v>
+      </c>
+      <c r="Z92" s="2">
+        <v>60</v>
+      </c>
+      <c r="AA92" s="2">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="AB92" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C93" s="1">
+        <v>209</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E93" s="2">
+        <v>16727617</v>
+      </c>
+      <c r="Z93" s="2">
+        <v>25</v>
+      </c>
+      <c r="AA93" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="AB93" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C94" s="1">
+        <v>203</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E94" s="2">
+        <v>14036861</v>
+      </c>
+      <c r="Z94" s="2">
+        <v>30</v>
+      </c>
+      <c r="AA94" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="AB94" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="AA95" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:27">
-      <c r="A89" s="1"/>
-      <c r="Y89" s="2"/>
-    </row>
-    <row r="90" spans="1:27">
-      <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:27">
-      <c r="A91" s="1"/>
-    </row>
-    <row r="92" spans="1:27">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:27">
-      <c r="A93" s="1"/>
-    </row>
-    <row r="94" spans="1:27">
-      <c r="A94" s="1"/>
-    </row>
-    <row r="95" spans="1:27">
-      <c r="A95" s="1"/>
-    </row>
-    <row r="96" spans="1:27">
-      <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="1"/>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="1"/>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="1"/>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="1"/>
+      <c r="AB95" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="AA96" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB96" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="AA97" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB97" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="AA98" s="2">
+        <f t="shared" ref="AA98:AA102" si="2">SUM(G98:Z98)</f>
+        <v>0</v>
+      </c>
+      <c r="AB98" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="AA99" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB99" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="AA100" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB100" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="AA101" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB101" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28">
+      <c r="AA102" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB102" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="21" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="D82:D84 D74" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -6201,7 +6550,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6477,17 +6826,628 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF03CF93-A241-4DB9-ACD8-61B0F18F4B55}">
-  <dimension ref="A1:V83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFED1B6-6669-418D-935F-274B00B50F32}">
+  <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="10">
+        <v>10008531338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="10">
+        <v>10008521996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="10">
+        <v>10008532036</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="10">
+        <v>10007949972</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="10">
+        <v>10005992988</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="10">
+        <v>10005992925</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="10">
+        <v>10004229966</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="10">
+        <v>10005627126</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="10">
+        <v>10005184725</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="10">
+        <v>10009855888</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="10">
+        <v>10005864826</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="10">
+        <v>10007749091</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="10">
+        <v>10007749151</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="10">
+        <v>10011984549</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="10">
+        <v>10011984549</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="10">
+        <v>10005480580</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="10">
+        <v>10005571460</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="10">
+        <v>10005571244</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="10">
+        <v>10008514727</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="10">
+        <v>10008769643</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="10">
+        <v>10008769612</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="10">
+        <v>10005572709</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="10">
+        <v>10002782997</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="10">
+        <v>10002751604</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="10">
+        <v>10002782423</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="10">
+        <v>10002743194</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="10">
+        <v>10002739400</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="10">
+        <v>10002802981</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="10">
+        <v>10005189960</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="10">
+        <v>10005189440</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="10">
+        <v>10005675337</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="10">
+        <v>10003280804</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="10">
+        <v>10006076266</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="10">
+        <v>10002871503</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="10">
+        <v>10004912412</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="10">
+        <v>10007692173</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="10">
+        <v>10007908721</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="10">
+        <v>10007708165</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="10">
+        <v>10005396135</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="10">
+        <v>10007692188</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="10">
+        <v>10005155671</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="10">
+        <v>10006072428</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="10">
+        <v>10008511251</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="10">
+        <v>10006000456</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="10">
+        <v>10006001743</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="10">
+        <v>10008507821</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="10">
+        <v>10008511425</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="10">
+        <v>10004911690</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="10">
+        <v>10007908309</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="10">
+        <v>10008507813</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="10">
+        <v>10008511251</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="10">
+        <v>10008184638</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="10">
+        <v>10008184634</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="10">
+        <v>10002871503</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="10">
+        <v>10009855888</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="10">
+        <v>10011822420</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{B20131FC-8378-41EF-B9BD-FD8CD2CB9CDF}">
+            <xm:f>COUNTIF('PROCESSOS DE FABRICAÇÃO'!$D:$D, B2) &gt; 0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B2:B1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF03CF93-A241-4DB9-ACD8-61B0F18F4B55}">
+  <dimension ref="A1:V88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -6496,7 +7456,7 @@
       <c r="A1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
@@ -6505,7 +7465,6 @@
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="9"/>
       <c r="B2" s="10" t="str">
         <f t="shared" ref="B2:B33" si="0">TRIM(MID(V1, SEARCH(" ", V1) + 1, LEN(V1) - SEARCH(" ", V1)))</f>
         <v>10008521996</v>
@@ -6515,7 +7474,6 @@
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="9"/>
       <c r="B3" s="10" t="str">
         <f t="shared" si="0"/>
         <v>10008521996</v>
@@ -6525,7 +7483,6 @@
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="9"/>
       <c r="B4" s="10" t="str">
         <f t="shared" si="0"/>
         <v>10008521996</v>
@@ -6535,7 +7492,6 @@
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="9"/>
       <c r="B5" s="10" t="str">
         <f t="shared" si="0"/>
         <v>HV307164-XX</v>
@@ -6545,7 +7501,6 @@
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="9"/>
       <c r="B6" s="10">
         <v>10003922463</v>
       </c>
@@ -6555,7 +7510,6 @@
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="9"/>
       <c r="B7" s="10" t="str">
         <f t="shared" si="0"/>
         <v>HV306453-01</v>
@@ -6565,7 +7519,6 @@
       </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="9"/>
       <c r="B8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>HV400318-XX</v>
@@ -6575,7 +7528,6 @@
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="9"/>
       <c r="B9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>HV307164-XX</v>
@@ -6585,7 +7537,6 @@
       </c>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="9"/>
       <c r="B10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>HV303895-01</v>
@@ -6595,7 +7546,6 @@
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="9"/>
       <c r="B11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>HV307986-XX</v>
@@ -6605,7 +7555,6 @@
       </c>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="9"/>
       <c r="B12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>10011984549</v>
@@ -6615,7 +7564,6 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="9"/>
       <c r="B13" s="10" t="str">
         <f t="shared" si="0"/>
         <v>HV311169-XX</v>
@@ -6625,7 +7573,6 @@
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="9"/>
       <c r="B14" s="10" t="str">
         <f t="shared" si="0"/>
         <v>4365870010-004</v>
@@ -6635,7 +7582,6 @@
       </c>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="9"/>
       <c r="B15" s="10" t="str">
         <f t="shared" si="0"/>
         <v>HV307986-XX</v>
@@ -6645,7 +7591,6 @@
       </c>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="9"/>
       <c r="B16" s="10" t="str">
         <f t="shared" si="0"/>
         <v>4544520010-006</v>
@@ -6654,8 +7599,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="9"/>
+    <row r="17" spans="2:22">
       <c r="B17" s="10" t="str">
         <f t="shared" si="0"/>
         <v>28800202</v>
@@ -6664,8 +7608,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
-      <c r="A18" s="9"/>
+    <row r="18" spans="2:22">
       <c r="B18" s="10" t="str">
         <f t="shared" si="0"/>
         <v>10007618049</v>
@@ -6674,8 +7617,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
-      <c r="A19" s="9"/>
+    <row r="19" spans="2:22">
       <c r="B19" s="10" t="str">
         <f t="shared" si="0"/>
         <v>10008511425</v>
@@ -6684,8 +7626,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
-      <c r="A20" s="9"/>
+    <row r="20" spans="2:22">
       <c r="B20" s="10" t="str">
         <f t="shared" si="0"/>
         <v>10008511425</v>
@@ -6694,8 +7635,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
-      <c r="A21" s="9"/>
+    <row r="21" spans="2:22">
       <c r="B21" s="10" t="str">
         <f t="shared" si="0"/>
         <v>10005591672</v>
@@ -6704,8 +7644,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
-      <c r="A22" s="9"/>
+    <row r="22" spans="2:22">
       <c r="B22" s="10" t="str">
         <f t="shared" si="0"/>
         <v>10008507813</v>
@@ -6714,8 +7653,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
-      <c r="A23" s="9"/>
+    <row r="23" spans="2:22">
       <c r="B23" s="10" t="str">
         <f t="shared" si="0"/>
         <v>10008507813</v>
@@ -6724,8 +7662,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
-      <c r="A24" s="9"/>
+    <row r="24" spans="2:22">
       <c r="B24" s="10" t="str">
         <f t="shared" si="0"/>
         <v>10008507813</v>
@@ -6734,8 +7671,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
-      <c r="A25" s="9"/>
+    <row r="25" spans="2:22">
       <c r="B25" s="10" t="str">
         <f t="shared" si="0"/>
         <v>HVHV307987-XX</v>
@@ -6744,8 +7680,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
-      <c r="A26" s="9"/>
+    <row r="26" spans="2:22">
       <c r="B26" s="10" t="str">
         <f t="shared" si="0"/>
         <v>HV307986-XX</v>
@@ -6754,8 +7689,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
-      <c r="A27" s="9"/>
+    <row r="27" spans="2:22">
       <c r="B27" s="10" t="str">
         <f t="shared" si="0"/>
         <v>HV307986-XX</v>
@@ -6764,8 +7698,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
-      <c r="A28" s="9"/>
+    <row r="28" spans="2:22">
       <c r="B28" s="10" t="str">
         <f t="shared" si="0"/>
         <v>HV307986-XX</v>
@@ -6774,8 +7707,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
-      <c r="A29" s="9"/>
+    <row r="29" spans="2:22">
       <c r="B29" s="10" t="str">
         <f t="shared" si="0"/>
         <v>HV307986-XX</v>
@@ -6784,8 +7716,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
-      <c r="A30" s="9"/>
+    <row r="30" spans="2:22">
       <c r="B30" s="10" t="str">
         <f t="shared" si="0"/>
         <v>HV307986-XX</v>
@@ -6794,8 +7725,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
-      <c r="A31" s="9"/>
+    <row r="31" spans="2:22">
       <c r="B31" s="10" t="str">
         <f t="shared" si="0"/>
         <v>RML-W-064709</v>
@@ -6804,8 +7734,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
-      <c r="A32" s="9"/>
+    <row r="32" spans="2:22">
       <c r="B32" s="10" t="str">
         <f t="shared" si="0"/>
         <v>HV311126-02</v>
@@ -6814,8 +7743,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
-      <c r="A33" s="9"/>
+    <row r="33" spans="2:22">
       <c r="B33" s="10" t="str">
         <f t="shared" si="0"/>
         <v>HV307986-XX</v>
@@ -6824,8 +7752,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
-      <c r="A34" s="9"/>
+    <row r="34" spans="2:22">
       <c r="B34" s="10" t="str">
         <f t="shared" ref="B34:B57" si="1">TRIM(MID(V33, SEARCH(" ", V33) + 1, LEN(V33) - SEARCH(" ", V33)))</f>
         <v>HV307164-XX</v>
@@ -6834,8 +7761,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
-      <c r="A35" s="9"/>
+    <row r="35" spans="2:22">
       <c r="B35" s="10" t="str">
         <f t="shared" si="1"/>
         <v>10005864826</v>
@@ -6844,8 +7770,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
-      <c r="A36" s="9"/>
+    <row r="36" spans="2:22">
       <c r="B36" s="10" t="str">
         <f t="shared" si="1"/>
         <v>10004229966</v>
@@ -6854,8 +7779,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
-      <c r="A37" s="9"/>
+    <row r="37" spans="2:22">
       <c r="B37" s="10" t="str">
         <f t="shared" si="1"/>
         <v>10008755474</v>
@@ -6864,8 +7788,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
-      <c r="A38" s="9"/>
+    <row r="38" spans="2:22">
       <c r="B38" s="10" t="str">
         <f t="shared" si="1"/>
         <v>10010360769</v>
@@ -6874,8 +7797,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
-      <c r="A39" s="9"/>
+    <row r="39" spans="2:22">
       <c r="B39" s="10" t="str">
         <f t="shared" si="1"/>
         <v>10009890643</v>
@@ -6884,8 +7806,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
-      <c r="A40" s="9"/>
+    <row r="40" spans="2:22">
       <c r="B40" s="10" t="str">
         <f t="shared" si="1"/>
         <v>10009855888</v>
@@ -6894,8 +7815,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
-      <c r="A41" s="9"/>
+    <row r="41" spans="2:22">
       <c r="B41" s="10" t="str">
         <f t="shared" si="1"/>
         <v>10004980103</v>
@@ -6904,8 +7824,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
-      <c r="A42" s="9"/>
+    <row r="42" spans="2:22">
       <c r="B42" s="10" t="str">
         <f t="shared" si="1"/>
         <v>10004976811</v>
@@ -6914,8 +7833,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
-      <c r="A43" s="9"/>
+    <row r="43" spans="2:22">
       <c r="B43" s="10" t="str">
         <f t="shared" si="1"/>
         <v>10004963667</v>
@@ -6924,8 +7842,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
-      <c r="A44" s="9"/>
+    <row r="44" spans="2:22">
       <c r="B44" s="10" t="str">
         <f t="shared" si="1"/>
         <v>10008507821</v>
@@ -6934,8 +7851,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
-      <c r="A45" s="9"/>
+    <row r="45" spans="2:22">
       <c r="B45" s="10" t="str">
         <f t="shared" si="1"/>
         <v>10008507821</v>
@@ -6944,8 +7860,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
-      <c r="A46" s="9"/>
+    <row r="46" spans="2:22">
       <c r="B46" s="10" t="str">
         <f t="shared" si="1"/>
         <v>10008514727</v>
@@ -6954,8 +7869,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
-      <c r="A47" s="9"/>
+    <row r="47" spans="2:22">
       <c r="B47" s="10" t="str">
         <f t="shared" si="1"/>
         <v>10006001743</v>
@@ -6964,8 +7878,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
-      <c r="A48" s="9"/>
+    <row r="48" spans="2:22">
       <c r="B48" s="10" t="str">
         <f t="shared" si="1"/>
         <v>10006000456</v>
@@ -6974,8 +7887,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:22">
-      <c r="A49" s="9"/>
+    <row r="49" spans="2:22">
       <c r="B49" s="10" t="str">
         <f t="shared" si="1"/>
         <v>10004254702</v>
@@ -6984,8 +7896,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="1:22">
-      <c r="A50" s="9"/>
+    <row r="50" spans="2:22">
       <c r="B50" s="10" t="str">
         <f t="shared" si="1"/>
         <v>10003058629</v>
@@ -6994,8 +7905,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="51" spans="1:22">
-      <c r="A51" s="9"/>
+    <row r="51" spans="2:22">
       <c r="B51" s="10" t="str">
         <f t="shared" si="1"/>
         <v>10005184725</v>
@@ -7004,8 +7914,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:22">
-      <c r="A52" s="9"/>
+    <row r="52" spans="2:22">
       <c r="B52" s="10" t="str">
         <f t="shared" si="1"/>
         <v>10005675337</v>
@@ -7014,8 +7923,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:22">
-      <c r="A53" s="9"/>
+    <row r="53" spans="2:22">
       <c r="B53" s="10" t="str">
         <f t="shared" si="1"/>
         <v>10005159680</v>
@@ -7024,8 +7932,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="54" spans="1:22">
-      <c r="A54" s="9"/>
+    <row r="54" spans="2:22">
       <c r="B54" s="10" t="str">
         <f t="shared" si="1"/>
         <v>10006836848</v>
@@ -7034,8 +7941,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="55" spans="1:22">
-      <c r="A55" s="9"/>
+    <row r="55" spans="2:22">
       <c r="B55" s="10" t="str">
         <f t="shared" si="1"/>
         <v>10006836881</v>
@@ -7044,8 +7950,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="1:22">
-      <c r="A56" s="9"/>
+    <row r="56" spans="2:22">
       <c r="B56" s="10" t="str">
         <f t="shared" si="1"/>
         <v>10006504723</v>
@@ -7054,96 +7959,166 @@
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="1:22">
-      <c r="A57" s="9"/>
+    <row r="57" spans="2:22">
       <c r="B57" s="10" t="str">
         <f t="shared" si="1"/>
         <v>10006836942</v>
       </c>
     </row>
-    <row r="58" spans="1:22">
-      <c r="A58" s="9"/>
+    <row r="58" spans="2:22">
       <c r="B58" s="10">
         <v>10011747255</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
-      <c r="A59" s="9"/>
+    <row r="59" spans="2:22">
       <c r="B59" s="10">
         <v>10011747305</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
-      <c r="B60" s="8"/>
-    </row>
-    <row r="61" spans="1:22">
-      <c r="B61" s="8"/>
-    </row>
-    <row r="62" spans="1:22">
-      <c r="B62" s="8"/>
-    </row>
-    <row r="63" spans="1:22">
-      <c r="B63" s="8"/>
-    </row>
-    <row r="64" spans="1:22">
-      <c r="B64" s="8"/>
+    <row r="60" spans="2:22">
+      <c r="B60" s="10">
+        <v>28800202</v>
+      </c>
+    </row>
+    <row r="61" spans="2:22">
+      <c r="B61" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="2:22">
+      <c r="B62" s="10">
+        <v>10008520095</v>
+      </c>
+    </row>
+    <row r="63" spans="2:22">
+      <c r="B63" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="2:22">
+      <c r="B64" s="10" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="8"/>
+      <c r="B65" s="10">
+        <v>28760407</v>
+      </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="8"/>
+      <c r="B66" s="10">
+        <v>10008513386</v>
+      </c>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="8"/>
+      <c r="B67" s="10">
+        <v>10008515441</v>
+      </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="8"/>
+      <c r="B68" s="10">
+        <v>10008514518</v>
+      </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="8"/>
+      <c r="B69" s="10">
+        <v>10008514949</v>
+      </c>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="8"/>
+      <c r="B70" s="10">
+        <v>10008515045</v>
+      </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="8"/>
+      <c r="B71" s="10">
+        <v>10008507817</v>
+      </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="8"/>
+      <c r="B72" s="10">
+        <v>10008522268</v>
+      </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="8"/>
+      <c r="B73" s="10">
+        <v>10008521371</v>
+      </c>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="8"/>
+      <c r="B74" s="10">
+        <v>10008515614</v>
+      </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="8"/>
+      <c r="B75" s="10">
+        <v>10008515704</v>
+      </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="8"/>
+      <c r="B76" s="10">
+        <v>10008518305</v>
+      </c>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="8"/>
+      <c r="B77" s="10">
+        <v>10008520128</v>
+      </c>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="8"/>
+      <c r="B78" s="10">
+        <v>10008522066</v>
+      </c>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="8"/>
+      <c r="B79" s="10">
+        <v>10008522198</v>
+      </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="8"/>
+      <c r="B80" s="10">
+        <v>10008754959</v>
+      </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="8"/>
+      <c r="B81" s="10">
+        <v>10004976011</v>
+      </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="8"/>
+      <c r="B82" s="10">
+        <v>10004978617</v>
+      </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="8"/>
+      <c r="B83" s="10">
+        <v>10004979504</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="10">
+        <v>10004985448</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="10">
+        <v>10005948355</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="10">
+        <v>10005671835</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="10">
+        <v>10006000456</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="10">
+        <v>10006001743</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -7170,18 +8145,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA1C6DF-1C6F-4A7E-AA08-F9BD66EE655C}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -7196,7 +8171,7 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" t="str">
+      <c r="B2" s="9" t="str">
         <f>TRIM(MID(J1, SEARCH(" ", J1) + 1, LEN(J1) - SEARCH(" ", J1)))</f>
         <v>HV309783-31</v>
       </c>
@@ -7205,7 +8180,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="B3" t="str">
+      <c r="B3" s="9" t="str">
         <f t="shared" ref="B3:B11" si="0">TRIM(MID(J2, SEARCH(" ", J2) + 1, LEN(J2) - SEARCH(" ", J2)))</f>
         <v>HV500828-01</v>
       </c>
@@ -7214,7 +8189,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" t="str">
+      <c r="B4" s="9" t="str">
         <f t="shared" si="0"/>
         <v>10011984549</v>
       </c>
@@ -7223,7 +8198,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" t="str">
+      <c r="B5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>HV309783-31</v>
       </c>
@@ -7232,7 +8207,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" t="str">
+      <c r="B6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>HV311169-XX</v>
       </c>
@@ -7241,7 +8216,7 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" t="str">
+      <c r="B7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>4365870010-003</v>
       </c>
@@ -7250,7 +8225,7 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" t="str">
+      <c r="B8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>CK-000282</v>
       </c>
@@ -7259,7 +8234,7 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" t="str">
+      <c r="B9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>HV307164-XX</v>
       </c>
@@ -7268,7 +8243,7 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" t="str">
+      <c r="B10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>4365870010-004</v>
       </c>
@@ -7277,9 +8252,14 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" t="str">
+      <c r="B11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>4365870010-004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="9" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355E24DF-784E-48D5-A45C-168C39B33D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17490455-37B4-4F2E-A17C-31B3B3CE0A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="3" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="JULHO" sheetId="5" r:id="rId3"/>
     <sheet name="AGOSTO" sheetId="3" r:id="rId4"/>
     <sheet name="SETEMBRO" sheetId="4" r:id="rId5"/>
+    <sheet name="NOVEMBRO" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'PROCESSOS DE FABRICAÇÃO'!$1:$1</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="269">
   <si>
     <t>ORCAMENTO</t>
   </si>
@@ -783,6 +784,58 @@
   </si>
   <si>
     <t>HV400252-01</t>
+  </si>
+  <si>
+    <t>HV308751-01</t>
+  </si>
+  <si>
+    <t>RML-W-022577</t>
+  </si>
+  <si>
+    <t>10004963667</t>
+  </si>
+  <si>
+    <t>10008507821</t>
+  </si>
+  <si>
+    <t>10008514727</t>
+  </si>
+  <si>
+    <t>10004254702</t>
+  </si>
+  <si>
+    <t>10003058629</t>
+  </si>
+  <si>
+    <t>10005675337</t>
+  </si>
+  <si>
+    <t>10005159680</t>
+  </si>
+  <si>
+    <t>10006836848</t>
+  </si>
+  <si>
+    <t>10006504723</t>
+  </si>
+  <si>
+    <t>10006836942</t>
+  </si>
+  <si>
+    <t>HVHV308740-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14033454 
+</t>
+  </si>
+  <si>
+    <t>HVHV308751-01</t>
+  </si>
+  <si>
+    <t>HVRML-W-022577</t>
+  </si>
+  <si>
+    <t>HIHI300022-01</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1357,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1340,6 +1393,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1386,7 +1442,14 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1721,11 +1784,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB102"/>
+  <dimension ref="A1:AB177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K117" sqref="K117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6257,7 +6320,7 @@
       <c r="B88" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D88" s="2">
@@ -6284,7 +6347,7 @@
       <c r="B89" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="2">
         <v>185</v>
       </c>
       <c r="D89" s="2" t="s">
@@ -6312,7 +6375,7 @@
       <c r="B90" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="2">
         <v>149</v>
       </c>
       <c r="D90" s="2" t="s">
@@ -6345,7 +6408,7 @@
       <c r="B91" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="2">
         <v>72</v>
       </c>
       <c r="D91" s="2" t="s">
@@ -6372,7 +6435,7 @@
       <c r="B92" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="2">
         <v>72</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -6399,7 +6462,7 @@
       <c r="B93" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="2">
         <v>209</v>
       </c>
       <c r="D93" s="2" t="s">
@@ -6426,7 +6489,7 @@
       <c r="B94" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="2">
         <v>203</v>
       </c>
       <c r="D94" s="2" t="s">
@@ -6450,9 +6513,24 @@
       <c r="A95" s="1">
         <v>94</v>
       </c>
+      <c r="B95" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C95" s="2">
+        <v>205</v>
+      </c>
+      <c r="D95" s="2">
+        <v>10004976811</v>
+      </c>
+      <c r="E95" s="2">
+        <v>14034575</v>
+      </c>
+      <c r="Z95" s="2">
+        <v>75</v>
+      </c>
       <c r="AA95" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB95" s="1" t="s">
         <v>23</v>
@@ -6462,9 +6540,24 @@
       <c r="A96" s="1">
         <v>95</v>
       </c>
+      <c r="B96" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C96" s="2">
+        <v>203</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E96" s="2">
+        <v>14023910</v>
+      </c>
+      <c r="Z96" s="2">
+        <v>105</v>
+      </c>
       <c r="AA96" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AB96" s="1" t="s">
         <v>23</v>
@@ -6474,9 +6567,24 @@
       <c r="A97" s="1">
         <v>96</v>
       </c>
+      <c r="B97" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C97" s="2">
+        <v>159</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E97" s="2">
+        <v>15967965</v>
+      </c>
+      <c r="Z97" s="2">
+        <v>55</v>
+      </c>
       <c r="AA97" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB97" s="1" t="s">
         <v>23</v>
@@ -6486,9 +6594,24 @@
       <c r="A98" s="1">
         <v>97</v>
       </c>
+      <c r="B98" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C98" s="2">
+        <v>216</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E98" s="2">
+        <v>15971997</v>
+      </c>
+      <c r="Z98" s="2">
+        <v>45</v>
+      </c>
       <c r="AA98" s="2">
-        <f t="shared" ref="AA98:AA102" si="2">SUM(G98:Z98)</f>
-        <v>0</v>
+        <f t="shared" ref="AA98:AA161" si="2">SUM(G98:Z98)</f>
+        <v>45</v>
       </c>
       <c r="AB98" s="1" t="s">
         <v>23</v>
@@ -6498,9 +6621,24 @@
       <c r="A99" s="1">
         <v>98</v>
       </c>
+      <c r="B99" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C99" s="2">
+        <v>479</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E99" s="2">
+        <v>11521021</v>
+      </c>
+      <c r="Z99" s="2">
+        <v>70</v>
+      </c>
       <c r="AA99" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB99" s="1" t="s">
         <v>23</v>
@@ -6510,9 +6648,24 @@
       <c r="A100" s="1">
         <v>99</v>
       </c>
+      <c r="B100" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E100" s="2">
+        <v>11469602</v>
+      </c>
+      <c r="Z100" s="2">
+        <v>15</v>
+      </c>
       <c r="AA100" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB100" s="1" t="s">
         <v>23</v>
@@ -6522,21 +6675,1247 @@
       <c r="A101" s="1">
         <v>100</v>
       </c>
+      <c r="B101" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D101" s="2">
+        <v>10005184725</v>
+      </c>
+      <c r="E101" s="2">
+        <v>14153893</v>
+      </c>
+      <c r="Z101" s="2">
+        <v>40</v>
+      </c>
       <c r="AA101" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB101" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:28">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E102" s="2">
+        <v>14391192</v>
+      </c>
+      <c r="Z102" s="2">
+        <v>7</v>
+      </c>
       <c r="AA102" s="2">
         <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="AB102" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E103" s="2">
+        <v>14154480</v>
+      </c>
+      <c r="Z103" s="2">
+        <v>30</v>
+      </c>
+      <c r="AA103" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C104" s="2">
+        <v>133</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E104" s="2">
+        <v>11468826</v>
+      </c>
+      <c r="Z104" s="2">
+        <v>15</v>
+      </c>
+      <c r="AA104" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C105" s="2">
+        <v>133</v>
+      </c>
+      <c r="D105" s="2">
+        <v>10006836881</v>
+      </c>
+      <c r="E105" s="2">
+        <v>11468775</v>
+      </c>
+      <c r="Z105" s="2">
+        <v>15</v>
+      </c>
+      <c r="AA105" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E106" s="2">
+        <v>11468114</v>
+      </c>
+      <c r="Z106" s="2">
+        <v>15</v>
+      </c>
+      <c r="AA106" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C107" s="2">
+        <v>94</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E107" s="2">
+        <v>11467111</v>
+      </c>
+      <c r="Z107" s="2">
+        <v>30</v>
+      </c>
+      <c r="AA107" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C108" s="2">
+        <v>193</v>
+      </c>
+      <c r="D108" s="2">
+        <v>10008520095</v>
+      </c>
+      <c r="E108" s="2">
+        <v>15975244</v>
+      </c>
+      <c r="Z108" s="2">
+        <v>120</v>
+      </c>
+      <c r="AA108" s="2">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C109" s="2">
+        <v>660</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z109" s="2">
+        <v>60</v>
+      </c>
+      <c r="AA109" s="2">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D110" s="2">
+        <v>28760407</v>
+      </c>
+      <c r="E110" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z110" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA110" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C111" s="2">
+        <v>217</v>
+      </c>
+      <c r="D111" s="2">
+        <v>10008513386</v>
+      </c>
+      <c r="E111" s="2">
+        <v>15971288</v>
+      </c>
+      <c r="Z111" s="2">
+        <v>60</v>
+      </c>
+      <c r="AA111" s="2">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C112" s="2">
+        <v>217</v>
+      </c>
+      <c r="D112" s="2">
+        <v>10008515441</v>
+      </c>
+      <c r="E112" s="2">
+        <v>15972529</v>
+      </c>
+      <c r="Z112" s="2">
+        <v>30</v>
+      </c>
+      <c r="AA112" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C113" s="2">
+        <v>217</v>
+      </c>
+      <c r="D113" s="2">
+        <v>10008514518</v>
+      </c>
+      <c r="E113" s="2">
+        <v>15971930</v>
+      </c>
+      <c r="Z113" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA113" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C114" s="2">
+        <v>225</v>
+      </c>
+      <c r="D114" s="2">
+        <v>10008514949</v>
+      </c>
+      <c r="E114" s="2">
+        <v>15972104</v>
+      </c>
+      <c r="Z114" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA114" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C115" s="2">
+        <v>216</v>
+      </c>
+      <c r="D115" s="2">
+        <v>10008515045</v>
+      </c>
+      <c r="E115" s="2">
+        <v>15972293</v>
+      </c>
+      <c r="Z115" s="2">
+        <v>10</v>
+      </c>
+      <c r="AA115" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C116" s="2">
+        <v>167</v>
+      </c>
+      <c r="D116" s="2">
+        <v>10008507817</v>
+      </c>
+      <c r="E116" s="2">
+        <v>15968687</v>
+      </c>
+      <c r="Z116" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA116" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C117" s="2">
+        <v>225</v>
+      </c>
+      <c r="D117" s="2">
+        <v>10008522268</v>
+      </c>
+      <c r="E117" s="2">
+        <v>15976733</v>
+      </c>
+      <c r="Z117" s="2">
+        <v>15</v>
+      </c>
+      <c r="AA117" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C118" s="2">
+        <v>225</v>
+      </c>
+      <c r="D118" s="2">
+        <v>10008521371</v>
+      </c>
+      <c r="E118" s="2">
+        <v>15976244</v>
+      </c>
+      <c r="Z118" s="2">
+        <v>12</v>
+      </c>
+      <c r="AA118" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C119" s="2">
+        <v>217</v>
+      </c>
+      <c r="D119" s="2">
+        <v>10008515614</v>
+      </c>
+      <c r="E119" s="2">
+        <v>15972619</v>
+      </c>
+      <c r="Z119" s="2">
+        <v>60</v>
+      </c>
+      <c r="AA119" s="2">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C120" s="2">
+        <v>217</v>
+      </c>
+      <c r="D120" s="2">
+        <v>10008515704</v>
+      </c>
+      <c r="E120" s="2">
+        <v>15972626</v>
+      </c>
+      <c r="Z120" s="2">
+        <v>30</v>
+      </c>
+      <c r="AA120" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C121" s="2">
+        <v>217</v>
+      </c>
+      <c r="D121" s="2">
+        <v>10008518305</v>
+      </c>
+      <c r="E121" s="2">
+        <v>15973874</v>
+      </c>
+      <c r="Z121" s="2">
+        <v>30</v>
+      </c>
+      <c r="AA121" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C122" s="2">
+        <v>215</v>
+      </c>
+      <c r="D122" s="2">
+        <v>10008520128</v>
+      </c>
+      <c r="E122" s="2">
+        <v>15975246</v>
+      </c>
+      <c r="Z122" s="2">
+        <v>10</v>
+      </c>
+      <c r="AA122" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C123" s="2">
+        <v>217</v>
+      </c>
+      <c r="D123" s="2">
+        <v>10008522066</v>
+      </c>
+      <c r="E123" s="2">
+        <v>15976667</v>
+      </c>
+      <c r="Z123" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA123" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C124" s="2">
+        <v>215</v>
+      </c>
+      <c r="D124" s="2">
+        <v>10008522198</v>
+      </c>
+      <c r="E124" s="2">
+        <v>15976730</v>
+      </c>
+      <c r="Z124" s="2">
+        <v>9</v>
+      </c>
+      <c r="AA124" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C125" s="2">
+        <v>215</v>
+      </c>
+      <c r="D125" s="2">
+        <v>10008754959</v>
+      </c>
+      <c r="E125" s="2">
+        <v>16110422</v>
+      </c>
+      <c r="Z125" s="2">
+        <v>7</v>
+      </c>
+      <c r="AA125" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27" ht="15" customHeight="1">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C126" s="2">
+        <v>208</v>
+      </c>
+      <c r="D126" s="2">
+        <v>10004976011</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z126" s="2">
+        <v>8</v>
+      </c>
+      <c r="AA126" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C127" s="2">
+        <v>91</v>
+      </c>
+      <c r="D127" s="2">
+        <v>10004978617</v>
+      </c>
+      <c r="E127" s="2">
+        <v>14035990</v>
+      </c>
+      <c r="Z127" s="2">
+        <v>30</v>
+      </c>
+      <c r="AA127" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C128" s="2">
+        <v>210</v>
+      </c>
+      <c r="D128" s="2">
+        <v>10004979504</v>
+      </c>
+      <c r="E128" s="2">
+        <v>14036541</v>
+      </c>
+      <c r="Z128" s="2">
+        <v>60</v>
+      </c>
+      <c r="AA128" s="2">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C129" s="2">
+        <v>210</v>
+      </c>
+      <c r="D129" s="2">
+        <v>10004985448</v>
+      </c>
+      <c r="E129" s="2">
+        <v>14040973</v>
+      </c>
+      <c r="Z129" s="2">
+        <v>15</v>
+      </c>
+      <c r="AA129" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C130" s="2">
+        <v>208</v>
+      </c>
+      <c r="D130" s="2">
+        <v>10005948355</v>
+      </c>
+      <c r="E130" s="2">
+        <v>14546531</v>
+      </c>
+      <c r="Z130" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA130" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C131" s="2">
+        <v>133</v>
+      </c>
+      <c r="D131" s="2">
+        <v>10005671835</v>
+      </c>
+      <c r="E131" s="2">
+        <v>13991819</v>
+      </c>
+      <c r="Z131" s="2">
+        <v>30</v>
+      </c>
+      <c r="AA131" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z132" s="2">
+        <v>30</v>
+      </c>
+      <c r="AA132" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C133" s="2">
+        <v>660</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z133" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA133" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C134" s="2">
+        <v>177</v>
+      </c>
+      <c r="D134" s="2">
+        <v>10008511251</v>
+      </c>
+      <c r="E134" s="2">
+        <v>15970081</v>
+      </c>
+      <c r="Z134" s="2">
+        <v>800</v>
+      </c>
+      <c r="AA134" s="2">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="AA135" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB102" s="1" t="s">
-        <v>23</v>
+    </row>
+    <row r="136" spans="1:27">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="AA136" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="AA137" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="AA138" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="AA139" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="AA140" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="AA141" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="AA142" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="AA143" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="AA144" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="AA145" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="AA146" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="AA147" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="AA148" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="AA149" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="AA150" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="AA151" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:27">
+      <c r="B152" s="1"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="AA152" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:27">
+      <c r="B153" s="1"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="AA153" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:27">
+      <c r="B154" s="1"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="AA154" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:27">
+      <c r="B155" s="1"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="AA155" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:27">
+      <c r="B156" s="1"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="AA156" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:27">
+      <c r="B157" s="1"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="AA157" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:27">
+      <c r="B158" s="1"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="AA158" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27">
+      <c r="B159" s="1"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="AA159" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27">
+      <c r="B160" s="1"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="AA160" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:27">
+      <c r="B161" s="1"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="AA161" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:27">
+      <c r="B162" s="1"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="AA162" s="2">
+        <f t="shared" ref="AA162:AA177" si="3">SUM(G162:Z162)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:27">
+      <c r="B163" s="1"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="AA163" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:27">
+      <c r="AA164" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:27">
+      <c r="AA165" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:27">
+      <c r="AA166" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:27">
+      <c r="AA167" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:27">
+      <c r="AA168" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:27">
+      <c r="AA169" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="2:27">
+      <c r="AA170" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:27">
+      <c r="AA171" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:27">
+      <c r="AA172" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:27">
+      <c r="AA173" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:27">
+      <c r="AA174" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="2:27">
+      <c r="AA175" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="2:27">
+      <c r="AA176" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="27:27">
+      <c r="AA177" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6550,7 +7929,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6829,7 +8208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFED1B6-6669-418D-935F-274B00B50F32}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -7438,10 +8817,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF03CF93-A241-4DB9-ACD8-61B0F18F4B55}">
-  <dimension ref="A1:V88"/>
+  <dimension ref="A1:V104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8120,6 +9499,86 @@
         <v>10006001743</v>
       </c>
     </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="10">
+        <v>10008511251</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="10">
+        <v>10005159680</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="10">
+        <v>10009855888</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="10">
+        <v>10005593731</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="10">
+        <v>10005593923</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="10">
+        <v>10004254702</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="10">
+        <v>10005192352</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="10">
+        <v>10005192492</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="10">
+        <v>10003892555</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="10">
+        <v>10005184725</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="10">
+        <v>10002871503</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="10">
+        <v>10004907351</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="10">
+        <v>10004963667</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="10">
+        <v>10005984475</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8127,7 +9586,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{B287ECD6-23B5-452B-A8FE-14F2A4505328}">
+          <x14:cfRule type="expression" priority="2" id="{B287ECD6-23B5-452B-A8FE-14F2A4505328}">
             <xm:f>COUNTIF('PROCESSOS DE FABRICAÇÃO'!$D:$D, B2) &gt; 0</xm:f>
             <x14:dxf>
               <fill>
@@ -8150,7 +9609,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8284,4 +9743,55 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2C057B-75E7-43E4-AAB1-9BAF96F7F0C9}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{A7BF3A41-D86C-439B-86C8-50AAFDCC8A28}">
+            <xm:f>COUNTIF('PROCESSOS DE FABRICAÇÃO'!$D:$D, B2) &gt; 0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B2:B1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17490455-37B4-4F2E-A17C-31B3B3CE0A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FA06F6-0CED-4905-B973-D0AB38AE1107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="3" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCESSOS DE FABRICAÇÃO" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="273">
   <si>
     <t>ORCAMENTO</t>
   </si>
@@ -703,9 +703,6 @@
   </si>
   <si>
     <t>CK-000282</t>
-  </si>
-  <si>
-    <t>HV307986-XX VAR.09</t>
   </si>
   <si>
     <t>HV401565</t>
@@ -836,6 +833,23 @@
   </si>
   <si>
     <t>HIHI300022-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11440086 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14558705 
+</t>
+  </si>
+  <si>
+    <t>HV309783-31</t>
+  </si>
+  <si>
+    <t>HVHV309783-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HV307986-XX </t>
   </si>
 </sst>
 </file>
@@ -1357,7 +1371,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1396,6 +1410,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1786,9 +1803,9 @@
   </sheetPr>
   <dimension ref="A1:AB177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K117" sqref="K117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6351,7 +6368,7 @@
         <v>185</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E89" s="2">
         <v>13588930</v>
@@ -6379,7 +6396,7 @@
         <v>149</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E90" s="2">
         <v>16110881</v>
@@ -6412,7 +6429,7 @@
         <v>72</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E91" s="2">
         <v>16745816</v>
@@ -6439,7 +6456,7 @@
         <v>72</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E92" s="2">
         <v>16746703</v>
@@ -6466,7 +6483,7 @@
         <v>209</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E93" s="2">
         <v>16727617</v>
@@ -6493,7 +6510,7 @@
         <v>203</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E94" s="2">
         <v>14036861</v>
@@ -6547,7 +6564,7 @@
         <v>203</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E96" s="2">
         <v>14023910</v>
@@ -6574,7 +6591,7 @@
         <v>159</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E97" s="2">
         <v>15967965</v>
@@ -6601,7 +6618,7 @@
         <v>216</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E98" s="2">
         <v>15971997</v>
@@ -6628,7 +6645,7 @@
         <v>479</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E99" s="2">
         <v>11521021</v>
@@ -6655,7 +6672,7 @@
         <v>190</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E100" s="2">
         <v>11469602</v>
@@ -6709,7 +6726,7 @@
         <v>190</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E102" s="2">
         <v>14391192</v>
@@ -6736,7 +6753,7 @@
         <v>190</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E103" s="2">
         <v>14154480</v>
@@ -6760,7 +6777,7 @@
         <v>133</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E104" s="2">
         <v>11468826</v>
@@ -6808,7 +6825,7 @@
         <v>190</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E106" s="2">
         <v>11468114</v>
@@ -6832,7 +6849,7 @@
         <v>94</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E107" s="2">
         <v>11467111</v>
@@ -6883,7 +6900,7 @@
         <v>223</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Z109" s="2">
         <v>60</v>
@@ -6907,7 +6924,7 @@
         <v>28760407</v>
       </c>
       <c r="E110" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Z110" s="2">
         <v>5</v>
@@ -7291,7 +7308,7 @@
         <v>10004976011</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Z126" s="2">
         <v>8</v>
@@ -7432,10 +7449,10 @@
         <v>190</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Z132" s="2">
         <v>30</v>
@@ -7456,10 +7473,10 @@
         <v>660</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Z133" s="2">
         <v>5</v>
@@ -7497,182 +7514,360 @@
       <c r="A135" s="1">
         <v>134</v>
       </c>
-      <c r="B135" s="1"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
+      <c r="B135" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C135" s="2">
+        <v>454</v>
+      </c>
+      <c r="D135" s="2">
+        <v>10005593731</v>
+      </c>
+      <c r="E135" s="2">
+        <v>14346324</v>
+      </c>
+      <c r="Z135" s="2">
+        <v>60</v>
+      </c>
       <c r="AA135" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="136" spans="1:27">
       <c r="A136" s="1">
         <v>135</v>
       </c>
-      <c r="B136" s="1"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
+      <c r="B136" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C136" s="2">
+        <v>454</v>
+      </c>
+      <c r="D136" s="2">
+        <v>10005593923</v>
+      </c>
+      <c r="E136" s="2">
+        <v>14346414</v>
+      </c>
+      <c r="Z136" s="2">
+        <v>60</v>
+      </c>
       <c r="AA136" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137" spans="1:27">
       <c r="A137" s="1">
         <v>136</v>
       </c>
-      <c r="B137" s="1"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
+      <c r="B137" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C137" s="2">
+        <v>494</v>
+      </c>
+      <c r="D137" s="2">
+        <v>10005192352</v>
+      </c>
+      <c r="E137" s="2">
+        <v>14153817</v>
+      </c>
+      <c r="Z137" s="2">
+        <v>60</v>
+      </c>
       <c r="AA137" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="138" spans="1:27">
       <c r="A138" s="1">
         <v>137</v>
       </c>
-      <c r="B138" s="1"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
+      <c r="B138" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C138" s="2">
+        <v>494</v>
+      </c>
+      <c r="D138" s="2">
+        <v>10005192492</v>
+      </c>
+      <c r="E138" s="2">
+        <v>14153990</v>
+      </c>
+      <c r="Z138" s="2">
+        <v>60</v>
+      </c>
       <c r="AA138" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139" spans="1:27">
       <c r="A139" s="1">
         <v>138</v>
       </c>
-      <c r="B139" s="1"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
+      <c r="B139" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C139" s="2">
+        <v>151</v>
+      </c>
+      <c r="D139" s="2">
+        <v>10003892555</v>
+      </c>
+      <c r="E139" s="2">
+        <v>11839389</v>
+      </c>
+      <c r="Z139" s="2">
+        <v>300</v>
+      </c>
       <c r="AA139" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:27">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27" ht="15" customHeight="1">
       <c r="A140" s="1">
         <v>139</v>
       </c>
-      <c r="B140" s="1"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
+      <c r="B140" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C140" s="2">
+        <v>22</v>
+      </c>
+      <c r="D140" s="2">
+        <v>10002871503</v>
+      </c>
+      <c r="E140" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z140" s="2">
+        <v>10</v>
+      </c>
       <c r="AA140" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:27">
       <c r="A141" s="1">
         <v>140</v>
       </c>
-      <c r="B141" s="1"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
+      <c r="B141" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C141" s="2">
+        <v>118</v>
+      </c>
+      <c r="D141" s="2">
+        <v>10004907351</v>
+      </c>
+      <c r="E141" s="14">
+        <v>13989933</v>
+      </c>
+      <c r="Z141" s="2">
+        <v>60</v>
+      </c>
       <c r="AA141" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27" ht="15" customHeight="1">
       <c r="A142" s="1">
         <v>141</v>
       </c>
-      <c r="B142" s="1"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
+      <c r="B142" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C142" s="2">
+        <v>199</v>
+      </c>
+      <c r="D142" s="2">
+        <v>10005984475</v>
+      </c>
+      <c r="E142" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z142" s="2">
+        <v>60</v>
+      </c>
       <c r="AA142" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="143" spans="1:27">
       <c r="A143" s="1">
         <v>142</v>
       </c>
-      <c r="B143" s="1"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
+      <c r="B143" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C143" s="2">
+        <v>595</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z143" s="2">
+        <v>120</v>
+      </c>
       <c r="AA143" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="144" spans="1:27">
       <c r="A144" s="1">
         <v>143</v>
       </c>
-      <c r="B144" s="1"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
+      <c r="B144" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C144" s="2">
+        <v>536</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G144" s="2">
+        <v>8</v>
+      </c>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2">
+        <v>20</v>
+      </c>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
+      <c r="O144" s="2"/>
+      <c r="P144" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q144" s="2"/>
+      <c r="R144" s="2"/>
+      <c r="S144" s="2"/>
+      <c r="T144" s="2"/>
+      <c r="U144" s="2"/>
+      <c r="V144" s="2"/>
+      <c r="W144" s="2"/>
+      <c r="X144" s="2"/>
+      <c r="Y144" s="2"/>
+      <c r="Z144" s="2"/>
       <c r="AA144" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="145" spans="1:27">
       <c r="A145" s="1">
         <v>144</v>
       </c>
-      <c r="B145" s="1"/>
+      <c r="B145" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
+      <c r="D145" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z145" s="2">
+        <v>6</v>
+      </c>
       <c r="AA145" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:27">
       <c r="A146" s="1">
         <v>145</v>
       </c>
-      <c r="B146" s="1"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
+      <c r="B146" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C146" s="2">
+        <v>511</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z146" s="2">
+        <v>120</v>
+      </c>
       <c r="AA146" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="147" spans="1:27">
       <c r="A147" s="1">
         <v>146</v>
       </c>
-      <c r="B147" s="1"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
+      <c r="B147" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C147" s="2">
+        <v>660</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z147" s="2">
+        <v>20</v>
+      </c>
       <c r="AA147" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148" spans="1:27">
       <c r="A148" s="1">
         <v>147</v>
       </c>
-      <c r="B148" s="1"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
+      <c r="B148" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z148" s="2">
+        <v>20</v>
+      </c>
       <c r="AA148" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149" spans="1:27">
@@ -7929,7 +8124,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8208,8 +8403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFED1B6-6669-418D-935F-274B00B50F32}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8258,7 +8453,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="10" t="s">
-        <v>225</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -8313,7 +8508,7 @@
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="10" t="s">
-        <v>39</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -8338,7 +8533,7 @@
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="2:2">
@@ -8348,7 +8543,7 @@
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="2:2">
@@ -8368,7 +8563,7 @@
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="2:2">
@@ -8378,7 +8573,7 @@
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="2:2">
@@ -8418,12 +8613,12 @@
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="2:2">
@@ -8468,22 +8663,22 @@
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="2:2">
@@ -8613,22 +8808,22 @@
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="2:2">
@@ -8673,12 +8868,12 @@
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="93" spans="2:2">
@@ -8708,12 +8903,12 @@
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="100" spans="2:2">
@@ -8728,17 +8923,17 @@
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="105" spans="2:2">
@@ -8748,7 +8943,7 @@
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="107" spans="2:2">
@@ -8758,7 +8953,7 @@
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="2:2">
@@ -8768,12 +8963,12 @@
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="2:2">
@@ -8819,8 +9014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF03CF93-A241-4DB9-ACD8-61B0F18F4B55}">
   <dimension ref="A1:V104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9501,12 +9696,12 @@
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="2:2">
@@ -9586,7 +9781,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{B287ECD6-23B5-452B-A8FE-14F2A4505328}">
+          <x14:cfRule type="expression" priority="4" id="{B287ECD6-23B5-452B-A8FE-14F2A4505328}">
             <xm:f>COUNTIF('PROCESSOS DE FABRICAÇÃO'!$D:$D, B2) &gt; 0</xm:f>
             <x14:dxf>
               <fill>
@@ -9606,10 +9801,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA1C6DF-1C6F-4A7E-AA08-F9BD66EE655C}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9625,100 +9820,98 @@
       <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="B2" s="9" t="str">
-        <f>TRIM(MID(J1, SEARCH(" ", J1) + 1, LEN(J1) - SEARCH(" ", J1)))</f>
-        <v>HV309783-31</v>
-      </c>
-      <c r="J2" s="12" t="s">
+    <row r="3" spans="1:10">
+      <c r="B3" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="15">
+        <v>10011984549</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="B3" s="9" t="str">
-        <f t="shared" ref="B3:B11" si="0">TRIM(MID(J2, SEARCH(" ", J2) + 1, LEN(J2) - SEARCH(" ", J2)))</f>
-        <v>HV500828-01</v>
-      </c>
-      <c r="J3" s="12" t="s">
+    <row r="6" spans="1:10">
+      <c r="B6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>10011984549</v>
-      </c>
-      <c r="J4" s="12" t="s">
+    <row r="7" spans="1:10">
+      <c r="B7" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>HV309783-31</v>
-      </c>
-      <c r="J5" s="12" t="s">
+    <row r="8" spans="1:10">
+      <c r="B8" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>HV311169-XX</v>
-      </c>
-      <c r="J6" s="12" t="s">
+    <row r="9" spans="1:10">
+      <c r="B9" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="B7" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>4365870010-003</v>
-      </c>
-      <c r="J7" s="12" t="s">
+    <row r="10" spans="1:10">
+      <c r="B10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="12" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>CK-000282</v>
-      </c>
-      <c r="J8" s="12" t="s">
+    <row r="11" spans="1:10">
+      <c r="B11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="12" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="B9" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>HV307164-XX</v>
-      </c>
-      <c r="J9" s="12" t="s">
+    <row r="12" spans="1:10">
+      <c r="B12" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="J12" s="12" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="B10" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>4365870010-004</v>
-      </c>
-      <c r="J10" s="12" t="s">
+    <row r="13" spans="1:10">
+      <c r="J13" s="12" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>4365870010-004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="9" t="s">
-        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -9737,7 +9930,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
+          <xm:sqref>B2:B1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -9750,7 +9943,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FA06F6-0CED-4905-B973-D0AB38AE1107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A40AB0-6E6A-4DB2-BDAF-FD10A4B13B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="279">
   <si>
     <t>ORCAMENTO</t>
   </si>
@@ -709,12 +709,6 @@
   </si>
   <si>
     <t>HV401099-31</t>
-  </si>
-  <si>
-    <t>HV307986-XX VAR.04</t>
-  </si>
-  <si>
-    <t>10002967709/10002967708</t>
   </si>
   <si>
     <t>RECDET_CHANNEL_SMART5-CEM</t>
@@ -849,7 +843,32 @@
     <t>HVHV309783-31</t>
   </si>
   <si>
-    <t xml:space="preserve">HV307986-XX </t>
+    <t>HV307986-10</t>
+  </si>
+  <si>
+    <t>HV401565 - 0028</t>
+  </si>
+  <si>
+    <t>HVHV401099-31</t>
+  </si>
+  <si>
+    <t>MAGVATECH</t>
+  </si>
+  <si>
+    <t>HVHV311518-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12406693 
+</t>
+  </si>
+  <si>
+    <t>HVHV310369-04</t>
+  </si>
+  <si>
+    <t>HVHV311506-04</t>
+  </si>
+  <si>
+    <t>HVHV310367-04</t>
   </si>
 </sst>
 </file>
@@ -1801,20 +1820,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB177"/>
+  <dimension ref="A1:AB201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H157" sqref="H157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -2864,7 +2882,9 @@
       <c r="E19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2">
@@ -3341,7 +3361,9 @@
       <c r="E28" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G28" s="2">
         <v>50</v>
       </c>
@@ -3614,6 +3636,9 @@
       <c r="E33" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="F33" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G33" s="2">
         <v>10</v>
       </c>
@@ -3668,6 +3693,9 @@
       <c r="E34" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="F34" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G34" s="2">
         <v>10</v>
       </c>
@@ -3722,6 +3750,9 @@
       <c r="E35" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="F35" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G35" s="2">
         <v>10</v>
       </c>
@@ -3776,6 +3807,9 @@
       <c r="E36" s="2" t="s">
         <v>86</v>
       </c>
+      <c r="F36" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G36" s="2">
         <v>10</v>
       </c>
@@ -3830,6 +3864,9 @@
       <c r="E37" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="F37" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G37" s="2">
         <v>10</v>
       </c>
@@ -3884,6 +3921,9 @@
       <c r="E38" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="F38" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G38" s="2">
         <v>10</v>
       </c>
@@ -3938,6 +3978,9 @@
       <c r="E39" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="F39" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G39" s="2">
         <v>10</v>
       </c>
@@ -3992,6 +4035,9 @@
       <c r="E40" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="F40" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G40" s="2">
         <v>10</v>
       </c>
@@ -4046,6 +4092,9 @@
       <c r="E41" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="F41" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G41" s="2">
         <v>15</v>
       </c>
@@ -4098,6 +4147,9 @@
       <c r="E42" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="F42" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G42" s="2">
         <v>15</v>
       </c>
@@ -4150,6 +4202,9 @@
       <c r="E43" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="F43" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G43" s="2">
         <v>15</v>
       </c>
@@ -4202,6 +4257,9 @@
       <c r="E44" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="F44" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G44" s="2">
         <v>15</v>
       </c>
@@ -4254,6 +4312,9 @@
       <c r="E45" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="F45" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G45" s="2">
         <v>15</v>
       </c>
@@ -4306,6 +4367,9 @@
       <c r="E46" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="F46" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G46" s="2">
         <v>15</v>
       </c>
@@ -4358,6 +4422,9 @@
       <c r="E47" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="F47" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G47" s="2">
         <v>15</v>
       </c>
@@ -4410,6 +4477,9 @@
       <c r="E48" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="F48" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G48" s="2">
         <v>15</v>
       </c>
@@ -4461,6 +4531,9 @@
       </c>
       <c r="E49" s="2" t="s">
         <v>103</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="G49" s="2">
         <v>30</v>
@@ -4516,6 +4589,9 @@
       <c r="E50" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="F50" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G50" s="2">
         <v>10</v>
       </c>
@@ -4567,6 +4643,9 @@
       </c>
       <c r="E51" s="2" t="s">
         <v>107</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -4614,6 +4693,9 @@
       <c r="E52" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="F52" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G52" s="2">
         <v>1</v>
       </c>
@@ -4665,6 +4747,9 @@
       </c>
       <c r="E53" s="2" t="s">
         <v>111</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
@@ -4716,6 +4801,9 @@
       <c r="E54" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="F54" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G54" s="2">
         <v>1</v>
       </c>
@@ -4768,6 +4856,9 @@
       <c r="E55" s="2">
         <v>14876959</v>
       </c>
+      <c r="F55" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2">
@@ -4818,6 +4909,9 @@
       <c r="E56" s="2">
         <v>14624602</v>
       </c>
+      <c r="F56" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G56" s="2">
         <v>3</v>
       </c>
@@ -4867,6 +4961,9 @@
       </c>
       <c r="E57" s="2">
         <v>14876958</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="G57" s="2">
         <v>5</v>
@@ -4922,6 +5019,9 @@
       <c r="E58" s="2">
         <v>14039104</v>
       </c>
+      <c r="F58" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G58" s="2">
         <v>3</v>
       </c>
@@ -4973,6 +5073,9 @@
       </c>
       <c r="E59" s="2" t="s">
         <v>120</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -5020,6 +5123,9 @@
       <c r="E60" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="F60" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2">
@@ -5066,6 +5172,9 @@
       <c r="E61" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="F61" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2">
@@ -5112,6 +5221,9 @@
       <c r="E62" s="2">
         <v>14164718</v>
       </c>
+      <c r="F62" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G62" s="2">
         <v>10</v>
       </c>
@@ -5168,6 +5280,9 @@
       <c r="E63" s="2">
         <v>17654606</v>
       </c>
+      <c r="F63" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G63" s="2">
         <v>5</v>
       </c>
@@ -5224,6 +5339,9 @@
       <c r="E64" s="2">
         <v>17694303</v>
       </c>
+      <c r="F64" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G64" s="2">
         <v>5</v>
       </c>
@@ -5280,6 +5398,9 @@
       <c r="E65" s="2">
         <v>17644164</v>
       </c>
+      <c r="F65" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G65" s="2">
         <v>5</v>
       </c>
@@ -5335,6 +5456,9 @@
       </c>
       <c r="E66" s="2" t="s">
         <v>125</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -5383,6 +5507,9 @@
       </c>
       <c r="E67" s="2" t="s">
         <v>128</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -5430,7 +5557,9 @@
       <c r="E68" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F68" s="2"/>
+      <c r="F68" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2">
@@ -5479,6 +5608,9 @@
       <c r="E69" s="2" t="s">
         <v>131</v>
       </c>
+      <c r="F69" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G69" s="2">
         <v>3</v>
       </c>
@@ -5531,7 +5663,9 @@
       <c r="E70" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F70" s="2"/>
+      <c r="F70" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G70" s="2">
         <v>3</v>
       </c>
@@ -5589,6 +5723,9 @@
       </c>
       <c r="E71" s="2" t="s">
         <v>205</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="G71" s="2">
         <v>5</v>
@@ -5642,6 +5779,9 @@
       <c r="E72" s="2" t="s">
         <v>206</v>
       </c>
+      <c r="F72" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G72" s="2">
         <v>15</v>
       </c>
@@ -5693,6 +5833,9 @@
       </c>
       <c r="E73" s="2" t="s">
         <v>207</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -5746,6 +5889,9 @@
       <c r="E74" s="2" t="s">
         <v>208</v>
       </c>
+      <c r="F74" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2">
@@ -5798,6 +5944,9 @@
       <c r="E75" s="2" t="s">
         <v>195</v>
       </c>
+      <c r="F75" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G75" s="2">
         <v>15</v>
       </c>
@@ -5849,6 +5998,9 @@
       </c>
       <c r="E76" s="2" t="s">
         <v>209</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="G76" s="2">
         <v>3</v>
@@ -5900,6 +6052,9 @@
       <c r="E77" s="2">
         <v>15976664</v>
       </c>
+      <c r="F77" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G77" s="2">
         <v>10</v>
       </c>
@@ -5950,6 +6105,9 @@
       <c r="E78" s="2" t="s">
         <v>210</v>
       </c>
+      <c r="F78" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G78" s="2">
         <v>3</v>
       </c>
@@ -6004,6 +6162,9 @@
       <c r="E79" s="2" t="s">
         <v>211</v>
       </c>
+      <c r="F79" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G79" s="2">
         <v>1</v>
       </c>
@@ -6040,6 +6201,9 @@
       <c r="E80" s="2">
         <v>15967961</v>
       </c>
+      <c r="F80" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G80" s="2">
         <v>5</v>
       </c>
@@ -6082,6 +6246,9 @@
       <c r="E81" s="2" t="s">
         <v>212</v>
       </c>
+      <c r="F81" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G81" s="2">
         <v>2</v>
       </c>
@@ -6118,6 +6285,9 @@
       <c r="E82" s="2">
         <v>17837468</v>
       </c>
+      <c r="F82" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G82" s="2">
         <v>10</v>
       </c>
@@ -6157,6 +6327,9 @@
       <c r="E83" s="2">
         <v>15474134</v>
       </c>
+      <c r="F83" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G83" s="2">
         <v>5</v>
       </c>
@@ -6189,11 +6362,14 @@
       <c r="C84" s="2">
         <v>192</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="1" t="s">
         <v>201</v>
       </c>
       <c r="E84" s="2">
         <v>15970137</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="G84" s="2">
         <v>10</v>
@@ -6235,6 +6411,9 @@
       <c r="E85" s="2">
         <v>11803044</v>
       </c>
+      <c r="F85" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G85" s="2">
         <v>20</v>
       </c>
@@ -6274,6 +6453,9 @@
       <c r="E86" s="2">
         <v>17691420</v>
       </c>
+      <c r="F86" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G86" s="2">
         <v>3</v>
       </c>
@@ -6310,6 +6492,9 @@
       <c r="E87" s="2">
         <v>17691419</v>
       </c>
+      <c r="F87" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G87" s="2">
         <v>3</v>
       </c>
@@ -6346,6 +6531,9 @@
       <c r="E88" s="2">
         <v>11510278</v>
       </c>
+      <c r="F88" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z88" s="2">
         <v>30</v>
       </c>
@@ -6368,10 +6556,13 @@
         <v>185</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E89" s="2">
         <v>13588930</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Y89" s="2"/>
       <c r="Z89" s="2">
@@ -6396,10 +6587,13 @@
         <v>149</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E90" s="2">
         <v>16110881</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="I90" s="2">
         <v>1</v>
@@ -6429,10 +6623,13 @@
         <v>72</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E91" s="2">
         <v>16745816</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Z91" s="2">
         <v>45</v>
@@ -6456,10 +6653,13 @@
         <v>72</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E92" s="2">
         <v>16746703</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Z92" s="2">
         <v>60</v>
@@ -6483,10 +6683,13 @@
         <v>209</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E93" s="2">
         <v>16727617</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Z93" s="2">
         <v>25</v>
@@ -6510,10 +6713,13 @@
         <v>203</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E94" s="2">
         <v>14036861</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Z94" s="2">
         <v>30</v>
@@ -6542,6 +6748,9 @@
       <c r="E95" s="2">
         <v>14034575</v>
       </c>
+      <c r="F95" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z95" s="2">
         <v>75</v>
       </c>
@@ -6564,10 +6773,13 @@
         <v>203</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E96" s="2">
         <v>14023910</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Z96" s="2">
         <v>105</v>
@@ -6591,10 +6803,13 @@
         <v>159</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E97" s="2">
         <v>15967965</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Z97" s="2">
         <v>55</v>
@@ -6618,10 +6833,13 @@
         <v>216</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E98" s="2">
         <v>15971997</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Z98" s="2">
         <v>45</v>
@@ -6645,10 +6863,13 @@
         <v>479</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E99" s="2">
         <v>11521021</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Z99" s="2">
         <v>70</v>
@@ -6672,10 +6893,13 @@
         <v>190</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E100" s="2">
         <v>11469602</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Z100" s="2">
         <v>15</v>
@@ -6704,6 +6928,9 @@
       <c r="E101" s="2">
         <v>14153893</v>
       </c>
+      <c r="F101" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z101" s="2">
         <v>40</v>
       </c>
@@ -6726,10 +6953,13 @@
         <v>190</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E102" s="2">
         <v>14391192</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Z102" s="2">
         <v>7</v>
@@ -6753,10 +6983,13 @@
         <v>190</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E103" s="2">
         <v>14154480</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Z103" s="2">
         <v>30</v>
@@ -6777,10 +7010,13 @@
         <v>133</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E104" s="2">
         <v>11468826</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Z104" s="2">
         <v>15</v>
@@ -6806,6 +7042,9 @@
       <c r="E105" s="2">
         <v>11468775</v>
       </c>
+      <c r="F105" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z105" s="2">
         <v>15</v>
       </c>
@@ -6825,10 +7064,13 @@
         <v>190</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E106" s="2">
         <v>11468114</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Z106" s="2">
         <v>15</v>
@@ -6849,10 +7091,13 @@
         <v>94</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E107" s="2">
         <v>11467111</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Z107" s="2">
         <v>30</v>
@@ -6878,6 +7123,9 @@
       <c r="E108" s="2">
         <v>15975244</v>
       </c>
+      <c r="F108" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z108" s="2">
         <v>120</v>
       </c>
@@ -6900,7 +7148,10 @@
         <v>223</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Z109" s="2">
         <v>60</v>
@@ -6923,8 +7174,11 @@
       <c r="D110" s="2">
         <v>28760407</v>
       </c>
-      <c r="E110" t="s">
-        <v>267</v>
+      <c r="E110" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Z110" s="2">
         <v>5</v>
@@ -6950,6 +7204,9 @@
       <c r="E111" s="2">
         <v>15971288</v>
       </c>
+      <c r="F111" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z111" s="2">
         <v>60</v>
       </c>
@@ -6974,6 +7231,9 @@
       <c r="E112" s="2">
         <v>15972529</v>
       </c>
+      <c r="F112" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z112" s="2">
         <v>30</v>
       </c>
@@ -6998,6 +7258,9 @@
       <c r="E113" s="2">
         <v>15971930</v>
       </c>
+      <c r="F113" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z113" s="2">
         <v>45</v>
       </c>
@@ -7022,6 +7285,9 @@
       <c r="E114" s="2">
         <v>15972104</v>
       </c>
+      <c r="F114" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z114" s="2">
         <v>20</v>
       </c>
@@ -7046,6 +7312,9 @@
       <c r="E115" s="2">
         <v>15972293</v>
       </c>
+      <c r="F115" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z115" s="2">
         <v>10</v>
       </c>
@@ -7070,6 +7339,9 @@
       <c r="E116" s="2">
         <v>15968687</v>
       </c>
+      <c r="F116" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z116" s="2">
         <v>3</v>
       </c>
@@ -7094,6 +7366,9 @@
       <c r="E117" s="2">
         <v>15976733</v>
       </c>
+      <c r="F117" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z117" s="2">
         <v>15</v>
       </c>
@@ -7118,6 +7393,9 @@
       <c r="E118" s="2">
         <v>15976244</v>
       </c>
+      <c r="F118" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z118" s="2">
         <v>12</v>
       </c>
@@ -7142,6 +7420,9 @@
       <c r="E119" s="2">
         <v>15972619</v>
       </c>
+      <c r="F119" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z119" s="2">
         <v>60</v>
       </c>
@@ -7166,6 +7447,9 @@
       <c r="E120" s="2">
         <v>15972626</v>
       </c>
+      <c r="F120" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z120" s="2">
         <v>30</v>
       </c>
@@ -7190,6 +7474,9 @@
       <c r="E121" s="2">
         <v>15973874</v>
       </c>
+      <c r="F121" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z121" s="2">
         <v>30</v>
       </c>
@@ -7214,6 +7501,9 @@
       <c r="E122" s="2">
         <v>15975246</v>
       </c>
+      <c r="F122" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z122" s="2">
         <v>10</v>
       </c>
@@ -7238,6 +7528,9 @@
       <c r="E123" s="2">
         <v>15976667</v>
       </c>
+      <c r="F123" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z123" s="2">
         <v>20</v>
       </c>
@@ -7262,6 +7555,9 @@
       <c r="E124" s="2">
         <v>15976730</v>
       </c>
+      <c r="F124" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z124" s="2">
         <v>9</v>
       </c>
@@ -7286,6 +7582,9 @@
       <c r="E125" s="2">
         <v>16110422</v>
       </c>
+      <c r="F125" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z125" s="2">
         <v>7</v>
       </c>
@@ -7308,7 +7607,10 @@
         <v>10004976011</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Z126" s="2">
         <v>8</v>
@@ -7334,6 +7636,9 @@
       <c r="E127" s="2">
         <v>14035990</v>
       </c>
+      <c r="F127" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z127" s="2">
         <v>30</v>
       </c>
@@ -7358,6 +7663,9 @@
       <c r="E128" s="2">
         <v>14036541</v>
       </c>
+      <c r="F128" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z128" s="2">
         <v>60</v>
       </c>
@@ -7382,6 +7690,9 @@
       <c r="E129" s="2">
         <v>14040973</v>
       </c>
+      <c r="F129" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z129" s="2">
         <v>15</v>
       </c>
@@ -7406,6 +7717,9 @@
       <c r="E130" s="2">
         <v>14546531</v>
       </c>
+      <c r="F130" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z130" s="2">
         <v>40</v>
       </c>
@@ -7430,6 +7744,9 @@
       <c r="E131" s="2">
         <v>13991819</v>
       </c>
+      <c r="F131" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z131" s="2">
         <v>30</v>
       </c>
@@ -7449,10 +7766,13 @@
         <v>190</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Z132" s="2">
         <v>30</v>
@@ -7473,10 +7793,13 @@
         <v>660</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Z133" s="2">
         <v>5</v>
@@ -7502,6 +7825,9 @@
       <c r="E134" s="2">
         <v>15970081</v>
       </c>
+      <c r="F134" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z134" s="2">
         <v>800</v>
       </c>
@@ -7526,6 +7852,9 @@
       <c r="E135" s="2">
         <v>14346324</v>
       </c>
+      <c r="F135" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z135" s="2">
         <v>60</v>
       </c>
@@ -7550,6 +7879,9 @@
       <c r="E136" s="2">
         <v>14346414</v>
       </c>
+      <c r="F136" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z136" s="2">
         <v>60</v>
       </c>
@@ -7574,6 +7906,9 @@
       <c r="E137" s="2">
         <v>14153817</v>
       </c>
+      <c r="F137" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z137" s="2">
         <v>60</v>
       </c>
@@ -7598,6 +7933,9 @@
       <c r="E138" s="2">
         <v>14153990</v>
       </c>
+      <c r="F138" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z138" s="2">
         <v>60</v>
       </c>
@@ -7622,6 +7960,9 @@
       <c r="E139" s="2">
         <v>11839389</v>
       </c>
+      <c r="F139" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z139" s="2">
         <v>300</v>
       </c>
@@ -7644,7 +7985,10 @@
         <v>10002871503</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Z140" s="2">
         <v>10</v>
@@ -7670,6 +8014,9 @@
       <c r="E141" s="14">
         <v>13989933</v>
       </c>
+      <c r="F141" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z141" s="2">
         <v>60</v>
       </c>
@@ -7692,7 +8039,10 @@
         <v>10005984475</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Z142" s="2">
         <v>60</v>
@@ -7713,10 +8063,13 @@
         <v>595</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Z143" s="2">
         <v>120</v>
@@ -7776,7 +8129,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="145" spans="1:27">
+    <row r="145" spans="1:28">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -7785,10 +8138,13 @@
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Z145" s="2">
         <v>6</v>
@@ -7798,7 +8154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:27">
+    <row r="146" spans="1:28">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -7809,10 +8165,13 @@
         <v>511</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Z146" s="2">
         <v>120</v>
@@ -7822,7 +8181,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:27">
+    <row r="147" spans="1:28">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -7837,6 +8196,9 @@
       </c>
       <c r="E147" s="2" t="s">
         <v>224</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Z147" s="2">
         <v>20</v>
@@ -7846,7 +8208,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:27">
+    <row r="148" spans="1:28">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -7857,10 +8219,13 @@
         <v>190</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Z148" s="2">
         <v>20</v>
@@ -7870,248 +8235,1122 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:27">
+    <row r="149" spans="1:28">
       <c r="A149" s="1">
         <v>148</v>
       </c>
-      <c r="B149" s="1"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
+      <c r="B149" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C149" s="2">
+        <v>514</v>
+      </c>
+      <c r="D149" s="1">
+        <v>10008532036</v>
+      </c>
+      <c r="E149" s="2">
+        <v>15982393</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z149" s="2">
+        <v>90</v>
+      </c>
       <c r="AA149" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:27">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28">
       <c r="A150" s="1">
         <v>149</v>
       </c>
-      <c r="B150" s="1"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
+      <c r="B150" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C150" s="2">
+        <v>340</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G150" s="2">
+        <v>10</v>
+      </c>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2"/>
+      <c r="N150" s="2">
+        <v>10</v>
+      </c>
+      <c r="O150" s="2"/>
+      <c r="P150" s="2"/>
+      <c r="Q150" s="2">
+        <v>5</v>
+      </c>
+      <c r="R150" s="2"/>
+      <c r="S150" s="2"/>
+      <c r="T150" s="2"/>
+      <c r="U150" s="2">
+        <v>10</v>
+      </c>
+      <c r="V150" s="2">
+        <v>5</v>
+      </c>
+      <c r="W150" s="2"/>
+      <c r="X150" s="2"/>
+      <c r="Y150" s="2"/>
+      <c r="Z150" s="2"/>
       <c r="AA150" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:27">
+        <v>40</v>
+      </c>
+      <c r="AB150" s="1"/>
+    </row>
+    <row r="151" spans="1:28">
       <c r="A151" s="1">
         <v>150</v>
       </c>
-      <c r="B151" s="1"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
+      <c r="B151" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C151" s="2">
+        <v>484</v>
+      </c>
+      <c r="D151" s="2">
+        <v>10007949972</v>
+      </c>
+      <c r="E151" s="2">
+        <v>15649367</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z151" s="2">
+        <v>30</v>
+      </c>
       <c r="AA151" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:27">
-      <c r="B152" s="1"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C152" s="2">
+        <v>489</v>
+      </c>
+      <c r="D152" s="2">
+        <v>10005992988</v>
+      </c>
+      <c r="E152" s="2">
+        <v>14563966</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z152" s="2">
+        <v>60</v>
+      </c>
       <c r="AA152" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:27">
-      <c r="B153" s="1"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C153" s="2">
+        <v>489</v>
+      </c>
+      <c r="D153" s="2">
+        <v>10005992925</v>
+      </c>
+      <c r="E153" s="2">
+        <v>14563925</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z153" s="2">
+        <v>70</v>
+      </c>
       <c r="AA153" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:27">
-      <c r="B154" s="1"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C154" s="2">
+        <v>535</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z154" s="2">
+        <v>30</v>
+      </c>
       <c r="AA154" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:27">
-      <c r="B155" s="1"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155" spans="1:28">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C155" s="2">
+        <v>249</v>
+      </c>
+      <c r="D155" s="2">
+        <v>10005627126</v>
+      </c>
+      <c r="E155" s="2">
+        <v>14364964</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z155" s="2">
+        <v>30</v>
+      </c>
       <c r="AA155" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:27">
-      <c r="B156" s="1"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="1:28">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C156" s="2">
+        <v>502</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z156" s="2">
+        <v>90</v>
+      </c>
       <c r="AA156" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:27">
-      <c r="B157" s="1"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="157" spans="1:28">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C157" s="2">
+        <v>373</v>
+      </c>
+      <c r="D157" s="2">
+        <v>10002967709</v>
+      </c>
+      <c r="E157" s="2">
+        <v>12864933</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z157" s="2">
+        <v>90</v>
+      </c>
       <c r="AA157" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:27">
-      <c r="B158" s="1"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="158" spans="1:28">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C158" s="2">
+        <v>453</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z158" s="2">
+        <v>60</v>
+      </c>
       <c r="AA158" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:27">
-      <c r="B159" s="1"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="159" spans="1:28">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C159" s="2">
+        <v>479</v>
+      </c>
+      <c r="D159" s="2">
+        <v>10005480580</v>
+      </c>
+      <c r="E159" s="2">
+        <v>14287554</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z159" s="2">
+        <v>90</v>
+      </c>
       <c r="AA159" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:27">
-      <c r="B160" s="1"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="160" spans="1:28">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C160" s="2">
+        <v>249</v>
+      </c>
+      <c r="D160" s="2">
+        <v>10005571460</v>
+      </c>
+      <c r="E160" s="2">
+        <v>14362262</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z160" s="2">
+        <v>30</v>
+      </c>
       <c r="AA160" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="2:27">
-      <c r="B161" s="1"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C161" s="2">
+        <v>249</v>
+      </c>
+      <c r="D161" s="2">
+        <v>10005571244</v>
+      </c>
+      <c r="E161" s="2">
+        <v>14335010</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z161" s="2">
+        <v>40</v>
+      </c>
       <c r="AA161" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="2:27">
-      <c r="B162" s="1"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C162" s="2">
+        <v>549</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z162" s="2">
+        <v>720</v>
+      </c>
       <c r="AA162" s="2">
-        <f t="shared" ref="AA162:AA177" si="3">SUM(G162:Z162)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="2:27">
-      <c r="B163" s="1"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
+        <f t="shared" ref="AA162:AA189" si="3">SUM(G162:Z162)</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z163" s="2">
+        <v>5</v>
+      </c>
       <c r="AA163" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="2:27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C164" s="2">
+        <v>511</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z164" s="2">
+        <v>4000</v>
+      </c>
       <c r="AA164" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="2:27">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C165" s="2">
+        <v>58</v>
+      </c>
+      <c r="D165" s="2">
+        <v>10008769643</v>
+      </c>
+      <c r="E165" s="2">
+        <v>16118276</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z165" s="2">
+        <v>8</v>
+      </c>
       <c r="AA165" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="2:27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C166" s="2">
+        <v>58</v>
+      </c>
+      <c r="D166" s="2">
+        <v>10008769612</v>
+      </c>
+      <c r="E166" s="2">
+        <v>16118271</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z166" s="2">
+        <v>8</v>
+      </c>
       <c r="AA166" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="2:27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C167" s="2">
+        <v>249</v>
+      </c>
+      <c r="D167" s="2">
+        <v>10005572709</v>
+      </c>
+      <c r="E167" s="2">
+        <v>14361046</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z167" s="2">
+        <v>25</v>
+      </c>
       <c r="AA167" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="2:27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C168" s="2">
+        <v>227</v>
+      </c>
+      <c r="D168" s="2">
+        <v>10002782997</v>
+      </c>
+      <c r="E168" s="2">
+        <v>12411492</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z168" s="2">
+        <v>20</v>
+      </c>
       <c r="AA168" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="2:27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27" ht="15" customHeight="1">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C169" s="2">
+        <v>227</v>
+      </c>
+      <c r="D169" s="2">
+        <v>10002751604</v>
+      </c>
+      <c r="E169" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z169" s="2">
+        <v>50</v>
+      </c>
       <c r="AA169" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="2:27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C170" s="2">
+        <v>227</v>
+      </c>
+      <c r="D170" s="2">
+        <v>10002782423</v>
+      </c>
+      <c r="E170" s="2">
+        <v>12406391</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z170" s="2">
+        <v>40</v>
+      </c>
       <c r="AA170" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="2:27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C171" s="2">
+        <v>227</v>
+      </c>
+      <c r="D171" s="2">
+        <v>10002743194</v>
+      </c>
+      <c r="E171" s="2">
+        <v>12420856</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z171" s="2">
+        <v>40</v>
+      </c>
       <c r="AA171" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="2:27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="172" spans="1:27">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C172" s="2">
+        <v>227</v>
+      </c>
+      <c r="D172" s="2">
+        <v>10002739400</v>
+      </c>
+      <c r="E172" s="2">
+        <v>12420855</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z172" s="2">
+        <v>30</v>
+      </c>
       <c r="AA172" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="2:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C173" s="2">
+        <v>60</v>
+      </c>
+      <c r="D173" s="2">
+        <v>10002802981</v>
+      </c>
+      <c r="E173" s="2">
+        <v>12421834</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z173" s="2">
+        <v>30</v>
+      </c>
       <c r="AA173" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="2:27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174" spans="1:27">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C174" s="2">
+        <v>494</v>
+      </c>
+      <c r="D174" s="2">
+        <v>10005189960</v>
+      </c>
+      <c r="E174" s="2">
+        <v>14153907</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z174" s="2">
+        <v>60</v>
+      </c>
       <c r="AA174" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="2:27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="175" spans="1:27">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C175" s="2">
+        <v>494</v>
+      </c>
+      <c r="D175" s="2">
+        <v>10005189440</v>
+      </c>
+      <c r="E175" s="2">
+        <v>14153905</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z175" s="2">
+        <v>60</v>
+      </c>
       <c r="AA175" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="2:27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="176" spans="1:27">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C176" s="2">
+        <v>244</v>
+      </c>
+      <c r="D176" s="2">
+        <v>10003280804</v>
+      </c>
+      <c r="E176" s="2">
+        <v>13081951</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z176" s="2">
+        <v>60</v>
+      </c>
       <c r="AA176" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="27:27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C177" s="2">
+        <v>259</v>
+      </c>
+      <c r="D177" s="2">
+        <v>10006076266</v>
+      </c>
+      <c r="E177" s="2">
+        <v>14610054</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z177" s="2">
+        <v>100</v>
+      </c>
       <c r="AA177" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="178" spans="1:27">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C178" s="2">
+        <v>255</v>
+      </c>
+      <c r="D178" s="2">
+        <v>10004912412</v>
+      </c>
+      <c r="E178" s="2">
+        <v>13993039</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z178" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA178" s="2">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="179" spans="1:27">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C179" s="2">
+        <v>337</v>
+      </c>
+      <c r="D179" s="2">
+        <v>10007692173</v>
+      </c>
+      <c r="E179" s="2">
+        <v>15511442</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z179" s="2">
+        <v>25</v>
+      </c>
+      <c r="AA179" s="2">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:27">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C180" s="2">
+        <v>99</v>
+      </c>
+      <c r="D180" s="2">
+        <v>10007908721</v>
+      </c>
+      <c r="E180" s="2">
+        <v>15626473</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z180" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA180" s="2">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="181" spans="1:27">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C181" s="2">
+        <v>227</v>
+      </c>
+      <c r="D181" s="2">
+        <v>10007708165</v>
+      </c>
+      <c r="E181" s="2">
+        <v>15519848</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z181" s="2">
+        <v>60</v>
+      </c>
+      <c r="AA181" s="2">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="182" spans="1:27">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C182" s="2">
+        <v>243</v>
+      </c>
+      <c r="D182" s="2">
+        <v>10005396135</v>
+      </c>
+      <c r="E182" s="1">
+        <v>14274548</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z182" s="2">
+        <v>30</v>
+      </c>
+      <c r="AA182" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183" spans="1:27">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C183" s="2">
+        <v>228</v>
+      </c>
+      <c r="D183" s="2">
+        <v>10007692188</v>
+      </c>
+      <c r="E183" s="1">
+        <v>15511447</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z183" s="2">
+        <v>8</v>
+      </c>
+      <c r="AA183" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:27">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C184" s="2">
+        <v>70</v>
+      </c>
+      <c r="D184" s="2">
+        <v>10005155671</v>
+      </c>
+      <c r="E184" s="1">
+        <v>14140591</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z184" s="2">
+        <v>60</v>
+      </c>
+      <c r="AA184" s="2">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="185" spans="1:27">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C185" s="2">
+        <v>103</v>
+      </c>
+      <c r="D185" s="2">
+        <v>10006072428</v>
+      </c>
+      <c r="E185" s="1">
+        <v>14609589</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z185" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA185" s="2">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="186" spans="1:27">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C186" s="2">
+        <v>601</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z186" s="2">
+        <v>1200</v>
+      </c>
+      <c r="AA186" s="2">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="187" spans="1:27">
+      <c r="A187" s="1"/>
+      <c r="F187" s="2"/>
+      <c r="AA187" s="2"/>
+    </row>
+    <row r="188" spans="1:27">
+      <c r="A188" s="1"/>
+      <c r="F188" s="2"/>
+      <c r="AA188" s="2"/>
+    </row>
+    <row r="189" spans="1:27">
+      <c r="A189" s="1"/>
+      <c r="F189" s="2"/>
+      <c r="AA189" s="2"/>
+    </row>
+    <row r="190" spans="1:27">
+      <c r="A190" s="1"/>
+      <c r="F190" s="2"/>
+    </row>
+    <row r="191" spans="1:27">
+      <c r="A191" s="1"/>
+      <c r="F191" s="2"/>
+    </row>
+    <row r="192" spans="1:27">
+      <c r="A192" s="1"/>
+      <c r="F192" s="2"/>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="1"/>
+      <c r="F193" s="2"/>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="1"/>
+      <c r="F194" s="2"/>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="1"/>
+      <c r="F195" s="2"/>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="1"/>
+      <c r="F196" s="2"/>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="1"/>
+      <c r="F197" s="2"/>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="1"/>
+      <c r="F198" s="2"/>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="1"/>
+      <c r="F199" s="2"/>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="1"/>
+      <c r="F200" s="2"/>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="1"/>
+      <c r="F201" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8403,14 +9642,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFED1B6-6669-418D-935F-274B00B50F32}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8508,7 +9748,7 @@
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -8568,12 +9808,12 @@
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="10" t="s">
-        <v>227</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="2:2">
@@ -8583,22 +9823,22 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="10" t="s">
-        <v>46</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="2:2">
@@ -8612,13 +9852,13 @@
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="10" t="s">
-        <v>228</v>
+      <c r="B40" s="10">
+        <v>10002967709</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="2:2">
@@ -8663,22 +9903,22 @@
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="2:2">
@@ -8808,12 +10048,12 @@
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="10" t="s">
-        <v>227</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="2:2">
@@ -8823,7 +10063,7 @@
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="2:2">
@@ -8868,12 +10108,12 @@
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="2:2">
@@ -8903,12 +10143,12 @@
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="2:2">
@@ -8923,17 +10163,17 @@
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="105" spans="2:2">
@@ -8943,7 +10183,7 @@
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="107" spans="2:2">
@@ -9014,8 +10254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF03CF93-A241-4DB9-ACD8-61B0F18F4B55}">
   <dimension ref="A1:V104"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9696,12 +10936,12 @@
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="91" spans="2:2">
@@ -9803,7 +11043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA1C6DF-1C6F-4A7E-AA08-F9BD66EE655C}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -9823,7 +11063,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="B2" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>213</v>
@@ -9831,7 +11071,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="B3" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>213</v>
@@ -9847,7 +11087,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>214</v>
@@ -9863,7 +11103,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>216</v>
@@ -9903,7 +11143,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>221</v>

--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A40AB0-6E6A-4DB2-BDAF-FD10A4B13B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8B0ED8-5E17-4B49-9194-50C948718CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="281">
   <si>
     <t>ORCAMENTO</t>
   </si>
@@ -869,6 +869,12 @@
   </si>
   <si>
     <t>HVHV310367-04</t>
+  </si>
+  <si>
+    <t>10002967709 / 10002967708</t>
+  </si>
+  <si>
+    <t>HV400257-01</t>
   </si>
 </sst>
 </file>
@@ -1823,8 +1829,8 @@
   <dimension ref="A1:AB201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H157" sqref="H157"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8637,7 +8643,7 @@
         <v>720</v>
       </c>
       <c r="AA162" s="2">
-        <f t="shared" ref="AA162:AA189" si="3">SUM(G162:Z162)</f>
+        <f t="shared" ref="AA162:AA186" si="3">SUM(G162:Z162)</f>
         <v>720</v>
       </c>
     </row>
@@ -9643,7 +9649,7 @@
   <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10252,16 +10258,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF03CF93-A241-4DB9-ACD8-61B0F18F4B55}">
-  <dimension ref="A1:V104"/>
+  <dimension ref="A1:V106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+      <selection activeCell="F112" sqref="F112:F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -11012,6 +11018,16 @@
     <row r="104" spans="2:2">
       <c r="B104" s="10">
         <v>10005984475</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="10">
+        <v>10006080840</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="10" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -11031,7 +11047,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B2:B1048576</xm:sqref>
+          <xm:sqref>B2:B106 B108:B1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -11044,13 +11060,13 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -11150,6 +11166,9 @@
       </c>
     </row>
     <row r="13" spans="1:10">
+      <c r="B13" s="10" t="s">
+        <v>279</v>
+      </c>
       <c r="J13" s="12" t="s">
         <v>222</v>
       </c>
@@ -11160,7 +11179,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{B2DC3357-C7EA-4EA1-B36C-EC32600B57EA}">
+          <x14:cfRule type="expression" priority="1" id="{7C50AE84-9BB1-4746-96AB-0E24F0357213}">
             <xm:f>COUNTIF('PROCESSOS DE FABRICAÇÃO'!$D:$D, B2) &gt; 0</xm:f>
             <x14:dxf>
               <fill>

--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sgq\Desktop\Projetos\Analise_Hora_Máquina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8B0ED8-5E17-4B49-9194-50C948718CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B2D7AE-E3CC-4D30-8519-A47B28A38B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <sheet name="NOVEMBRO" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PROCESSOS DE FABRICAÇÃO'!$A$1:$AA$301</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'PROCESSOS DE FABRICAÇÃO'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="294">
   <si>
     <t>ORCAMENTO</t>
   </si>
@@ -875,6 +876,45 @@
   </si>
   <si>
     <t>HV400257-01</t>
+  </si>
+  <si>
+    <t>4537770010-003</t>
+  </si>
+  <si>
+    <t>HVHV311611-01</t>
+  </si>
+  <si>
+    <t>4369070010-002</t>
+  </si>
+  <si>
+    <t>HVHV311608-01</t>
+  </si>
+  <si>
+    <t>4536560010-002</t>
+  </si>
+  <si>
+    <t>HVHV311609-01</t>
+  </si>
+  <si>
+    <t>4537770010-002</t>
+  </si>
+  <si>
+    <t>HVHV311610-01</t>
+  </si>
+  <si>
+    <t>HVHV311169-25</t>
+  </si>
+  <si>
+    <t>4504050010-002</t>
+  </si>
+  <si>
+    <t>HVHV311599-01</t>
+  </si>
+  <si>
+    <t>4504050020-002</t>
+  </si>
+  <si>
+    <t>HVHV311600-01</t>
   </si>
 </sst>
 </file>
@@ -1826,11 +1866,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB201"/>
+  <dimension ref="A1:AB301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="E186" sqref="E186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1842,7 +1882,7 @@
     <col min="6" max="6" width="7.85546875" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -1947,7 +1987,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" ht="15" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1963,7 +2003,9 @@
       <c r="E2" s="2">
         <v>15474348</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G2" s="2">
         <v>3</v>
       </c>
@@ -2016,7 +2058,9 @@
       <c r="E3" s="2">
         <v>15981891</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G3" s="2">
         <v>5</v>
       </c>
@@ -2069,7 +2113,9 @@
       <c r="E4" s="2">
         <v>14577949</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G4" s="2">
         <v>5</v>
       </c>
@@ -2124,7 +2170,9 @@
       <c r="E5" s="2">
         <v>14577954</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G5" s="2">
         <v>5</v>
       </c>
@@ -2179,7 +2227,9 @@
       <c r="E6" s="2">
         <v>17865788</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G6" s="2">
         <v>3</v>
       </c>
@@ -2234,7 +2284,9 @@
       <c r="E7" s="2">
         <v>17867985</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G7" s="2">
         <v>3</v>
       </c>
@@ -2289,7 +2341,9 @@
       <c r="E8" s="2">
         <v>15545079</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G8" s="2">
         <v>10</v>
       </c>
@@ -2344,7 +2398,9 @@
       <c r="E9" s="2">
         <v>15545082</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G9" s="2">
         <v>10</v>
       </c>
@@ -3296,7 +3352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" ht="15" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3514,7 +3570,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" ht="15" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3733,7 +3789,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2">
-        <f t="shared" ref="AA34:AA97" si="1">SUM(G34:Z34)</f>
+        <f t="shared" ref="AA34:AA65" si="1">SUM(G34:Z34)</f>
         <v>40</v>
       </c>
       <c r="AB34" s="1" t="s">
@@ -4683,7 +4739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" spans="1:28" ht="15" customHeight="1">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -5263,7 +5319,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
       <c r="AA62" s="2">
-        <f>SUM(G62:Z62)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="AB62" s="1" t="s">
@@ -5322,7 +5378,7 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
       <c r="AA63" s="2">
-        <f>SUM(G63:Z63)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AB63" s="1" t="s">
@@ -5381,7 +5437,7 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
       <c r="AA64" s="2">
-        <f>SUM(G64:Z64)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AB64" s="1" t="s">
@@ -5440,7 +5496,7 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
       <c r="AA65" s="2">
-        <f>SUM(G65:Z65)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AB65" s="1" t="s">
@@ -5491,7 +5547,7 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
       <c r="AA66" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AA66:AA97" si="2">SUM(G66:Z66)</f>
         <v>4</v>
       </c>
       <c r="AB66" s="1" t="s">
@@ -5540,7 +5596,7 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
       <c r="AA67" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB67" s="1" t="s">
@@ -5591,7 +5647,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
       <c r="AA68" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB68" s="1" t="s">
@@ -5646,7 +5702,7 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
       <c r="AA69" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="AB69" s="1" t="s">
@@ -5707,7 +5763,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
       <c r="AA70" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="AB70" s="1" t="s">
@@ -5762,7 +5818,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
       <c r="AA71" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AB71" s="1" t="s">
@@ -5817,7 +5873,7 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
       <c r="AA72" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="AB72" s="1" t="s">
@@ -5872,7 +5928,7 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
       <c r="AA73" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="AB73" s="1" t="s">
@@ -5927,7 +5983,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
       <c r="AA74" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>720</v>
       </c>
       <c r="AB74" s="1" t="s">
@@ -5982,7 +6038,7 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
       <c r="AA75" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="AB75" s="1" t="s">
@@ -6035,7 +6091,7 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
       <c r="AA76" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB76" s="1" t="s">
@@ -6088,7 +6144,7 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
       <c r="AA77" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="AB77" s="1" t="s">
@@ -6145,7 +6201,7 @@
         <v>5</v>
       </c>
       <c r="AA78" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="AB78" s="1" t="s">
@@ -6184,7 +6240,7 @@
         <v>1</v>
       </c>
       <c r="AA79" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AB79" s="1" t="s">
@@ -6229,7 +6285,7 @@
         <v>10</v>
       </c>
       <c r="AA80" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="AB80" s="1" t="s">
@@ -6268,7 +6324,7 @@
         <v>5</v>
       </c>
       <c r="AA81" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="AB81" s="1" t="s">
@@ -6310,7 +6366,7 @@
         <v>10</v>
       </c>
       <c r="AA82" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="AB82" s="1" t="s">
@@ -6351,7 +6407,7 @@
         <v>10</v>
       </c>
       <c r="AA83" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="AB83" s="1" t="s">
@@ -6394,7 +6450,7 @@
         <v>20</v>
       </c>
       <c r="AA84" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="AB84" s="1" t="s">
@@ -6436,7 +6492,7 @@
         <v>20</v>
       </c>
       <c r="AA85" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="AB85" s="1" t="s">
@@ -6475,7 +6531,7 @@
         <v>5</v>
       </c>
       <c r="AA86" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="AB86" s="1" t="s">
@@ -6514,7 +6570,7 @@
         <v>5</v>
       </c>
       <c r="AA87" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="AB87" s="1" t="s">
@@ -6544,7 +6600,7 @@
         <v>30</v>
       </c>
       <c r="AA88" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="AB88" s="1" t="s">
@@ -6575,7 +6631,7 @@
         <v>37</v>
       </c>
       <c r="AA89" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="AB89" s="1" t="s">
@@ -6611,7 +6667,7 @@
         <v>1</v>
       </c>
       <c r="AA90" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB90" s="1" t="s">
@@ -6641,7 +6697,7 @@
         <v>45</v>
       </c>
       <c r="AA91" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="AB91" s="1" t="s">
@@ -6671,7 +6727,7 @@
         <v>60</v>
       </c>
       <c r="AA92" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="AB92" s="1" t="s">
@@ -6701,7 +6757,7 @@
         <v>25</v>
       </c>
       <c r="AA93" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="AB93" s="1" t="s">
@@ -6731,7 +6787,7 @@
         <v>30</v>
       </c>
       <c r="AA94" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="AB94" s="1" t="s">
@@ -6761,7 +6817,7 @@
         <v>75</v>
       </c>
       <c r="AA95" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="AB95" s="1" t="s">
@@ -6791,7 +6847,7 @@
         <v>105</v>
       </c>
       <c r="AA96" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
       <c r="AB96" s="1" t="s">
@@ -6821,7 +6877,7 @@
         <v>55</v>
       </c>
       <c r="AA97" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="AB97" s="1" t="s">
@@ -6851,7 +6907,7 @@
         <v>45</v>
       </c>
       <c r="AA98" s="2">
-        <f t="shared" ref="AA98:AA161" si="2">SUM(G98:Z98)</f>
+        <f t="shared" ref="AA98:AA129" si="3">SUM(G98:Z98)</f>
         <v>45</v>
       </c>
       <c r="AB98" s="1" t="s">
@@ -6881,7 +6937,7 @@
         <v>70</v>
       </c>
       <c r="AA99" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="AB99" s="1" t="s">
@@ -6911,7 +6967,7 @@
         <v>15</v>
       </c>
       <c r="AA100" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AB100" s="1" t="s">
@@ -6941,7 +6997,7 @@
         <v>40</v>
       </c>
       <c r="AA101" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="AB101" s="1" t="s">
@@ -6971,7 +7027,7 @@
         <v>7</v>
       </c>
       <c r="AA102" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="AB102" s="1" t="s">
@@ -7001,8 +7057,11 @@
         <v>30</v>
       </c>
       <c r="AA103" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
+      </c>
+      <c r="AB103" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -7028,8 +7087,11 @@
         <v>15</v>
       </c>
       <c r="AA104" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
+      </c>
+      <c r="AB104" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -7055,8 +7117,11 @@
         <v>15</v>
       </c>
       <c r="AA105" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
+      </c>
+      <c r="AB105" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -7082,8 +7147,11 @@
         <v>15</v>
       </c>
       <c r="AA106" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
+      </c>
+      <c r="AB106" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:28">
@@ -7109,8 +7177,11 @@
         <v>30</v>
       </c>
       <c r="AA107" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
+      </c>
+      <c r="AB107" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -7136,8 +7207,11 @@
         <v>120</v>
       </c>
       <c r="AA108" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
+      </c>
+      <c r="AB108" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -7163,8 +7237,11 @@
         <v>60</v>
       </c>
       <c r="AA109" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
+      </c>
+      <c r="AB109" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="110" spans="1:28">
@@ -7190,8 +7267,11 @@
         <v>5</v>
       </c>
       <c r="AA110" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
+      </c>
+      <c r="AB110" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:28">
@@ -7217,8 +7297,11 @@
         <v>60</v>
       </c>
       <c r="AA111" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
+      </c>
+      <c r="AB111" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -7244,11 +7327,14 @@
         <v>30</v>
       </c>
       <c r="AA112" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="113" spans="1:27">
+      <c r="AB112" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -7271,11 +7357,14 @@
         <v>45</v>
       </c>
       <c r="AA113" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="114" spans="1:27">
+      <c r="AB113" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -7298,11 +7387,14 @@
         <v>20</v>
       </c>
       <c r="AA114" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="115" spans="1:27">
+      <c r="AB114" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -7325,11 +7417,14 @@
         <v>10</v>
       </c>
       <c r="AA115" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="116" spans="1:27">
+      <c r="AB115" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -7352,11 +7447,14 @@
         <v>3</v>
       </c>
       <c r="AA116" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="117" spans="1:27">
+      <c r="AB116" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -7379,11 +7477,14 @@
         <v>15</v>
       </c>
       <c r="AA117" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="118" spans="1:27" ht="15.75" customHeight="1">
+      <c r="AB117" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28" ht="15.75" customHeight="1">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -7406,11 +7507,14 @@
         <v>12</v>
       </c>
       <c r="AA118" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="119" spans="1:27">
+      <c r="AB118" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -7433,11 +7537,14 @@
         <v>60</v>
       </c>
       <c r="AA119" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="120" spans="1:27">
+      <c r="AB119" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -7460,11 +7567,14 @@
         <v>30</v>
       </c>
       <c r="AA120" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="121" spans="1:27">
+      <c r="AB120" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -7487,11 +7597,14 @@
         <v>30</v>
       </c>
       <c r="AA121" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="122" spans="1:27">
+      <c r="AB121" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -7514,11 +7627,14 @@
         <v>10</v>
       </c>
       <c r="AA122" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="123" spans="1:27">
+      <c r="AB122" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -7541,11 +7657,14 @@
         <v>20</v>
       </c>
       <c r="AA123" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="124" spans="1:27">
+      <c r="AB123" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -7568,11 +7687,14 @@
         <v>9</v>
       </c>
       <c r="AA124" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="125" spans="1:27">
+      <c r="AB124" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -7595,11 +7717,14 @@
         <v>7</v>
       </c>
       <c r="AA125" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="126" spans="1:27" ht="15" customHeight="1">
+      <c r="AB125" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28" ht="15" customHeight="1">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -7622,11 +7747,14 @@
         <v>8</v>
       </c>
       <c r="AA126" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="127" spans="1:27">
+      <c r="AB126" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -7649,11 +7777,14 @@
         <v>30</v>
       </c>
       <c r="AA127" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="128" spans="1:27">
+      <c r="AB127" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -7676,11 +7807,14 @@
         <v>60</v>
       </c>
       <c r="AA128" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="129" spans="1:27">
+      <c r="AB128" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -7703,11 +7837,14 @@
         <v>15</v>
       </c>
       <c r="AA129" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="130" spans="1:27">
+      <c r="AB129" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -7730,11 +7867,14 @@
         <v>40</v>
       </c>
       <c r="AA130" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AA130:AA161" si="4">SUM(G130:Z130)</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="131" spans="1:27">
+      <c r="AB130" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -7757,11 +7897,14 @@
         <v>30</v>
       </c>
       <c r="AA131" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="132" spans="1:27">
+      <c r="AB131" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -7784,11 +7927,14 @@
         <v>30</v>
       </c>
       <c r="AA132" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="133" spans="1:27">
+      <c r="AB132" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:28">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -7811,11 +7957,14 @@
         <v>5</v>
       </c>
       <c r="AA133" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="134" spans="1:27">
+      <c r="AB133" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:28">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -7838,11 +7987,14 @@
         <v>800</v>
       </c>
       <c r="AA134" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>800</v>
       </c>
-    </row>
-    <row r="135" spans="1:27">
+      <c r="AB134" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:28">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -7865,11 +8017,14 @@
         <v>60</v>
       </c>
       <c r="AA135" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="136" spans="1:27">
+      <c r="AB135" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="136" spans="1:28">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -7892,11 +8047,14 @@
         <v>60</v>
       </c>
       <c r="AA136" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="137" spans="1:27">
+      <c r="AB136" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -7919,11 +8077,14 @@
         <v>60</v>
       </c>
       <c r="AA137" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="138" spans="1:27">
+      <c r="AB137" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:28">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -7946,11 +8107,14 @@
         <v>60</v>
       </c>
       <c r="AA138" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="139" spans="1:27">
+      <c r="AB138" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139" spans="1:28">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -7973,11 +8137,14 @@
         <v>300</v>
       </c>
       <c r="AA139" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="140" spans="1:27" ht="15" customHeight="1">
+      <c r="AB139" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" spans="1:28" ht="15" customHeight="1">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -8000,11 +8167,14 @@
         <v>10</v>
       </c>
       <c r="AA140" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="141" spans="1:27">
+      <c r="AB140" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" spans="1:28">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -8027,11 +8197,14 @@
         <v>60</v>
       </c>
       <c r="AA141" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="142" spans="1:27" ht="15" customHeight="1">
+      <c r="AB141" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="142" spans="1:28" ht="15" customHeight="1">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -8054,11 +8227,14 @@
         <v>60</v>
       </c>
       <c r="AA142" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="143" spans="1:27">
+      <c r="AB142" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="1:28">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -8081,11 +8257,14 @@
         <v>120</v>
       </c>
       <c r="AA143" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="144" spans="1:27">
+      <c r="AB143" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="1:28">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -8113,7 +8292,6 @@
       <c r="K144" s="2">
         <v>20</v>
       </c>
-      <c r="L144" s="2"/>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -8131,8 +8309,11 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
       <c r="AA144" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>43</v>
+      </c>
+      <c r="AB144" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -8156,8 +8337,11 @@
         <v>6</v>
       </c>
       <c r="AA145" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
+      </c>
+      <c r="AB145" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="146" spans="1:28">
@@ -8183,8 +8367,11 @@
         <v>120</v>
       </c>
       <c r="AA146" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>120</v>
+      </c>
+      <c r="AB146" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="147" spans="1:28">
@@ -8210,8 +8397,11 @@
         <v>20</v>
       </c>
       <c r="AA147" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20</v>
+      </c>
+      <c r="AB147" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="148" spans="1:28">
@@ -8237,8 +8427,11 @@
         <v>20</v>
       </c>
       <c r="AA148" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20</v>
+      </c>
+      <c r="AB148" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:28">
@@ -8264,8 +8457,11 @@
         <v>90</v>
       </c>
       <c r="AA149" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>90</v>
+      </c>
+      <c r="AB149" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="150" spans="1:28">
@@ -8294,7 +8490,6 @@
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
-      <c r="L150" s="2"/>
       <c r="M150" s="2"/>
       <c r="N150" s="2">
         <v>10</v>
@@ -8318,10 +8513,12 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
       <c r="AA150" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="AB150" s="1"/>
+      <c r="AB150" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="151" spans="1:28">
       <c r="A151" s="1">
@@ -8346,8 +8543,11 @@
         <v>30</v>
       </c>
       <c r="AA151" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30</v>
+      </c>
+      <c r="AB151" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="152" spans="1:28">
@@ -8373,8 +8573,11 @@
         <v>60</v>
       </c>
       <c r="AA152" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60</v>
+      </c>
+      <c r="AB152" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="153" spans="1:28">
@@ -8400,8 +8603,11 @@
         <v>70</v>
       </c>
       <c r="AA153" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>70</v>
+      </c>
+      <c r="AB153" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="154" spans="1:28">
@@ -8427,8 +8633,11 @@
         <v>30</v>
       </c>
       <c r="AA154" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30</v>
+      </c>
+      <c r="AB154" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="155" spans="1:28">
@@ -8454,8 +8663,11 @@
         <v>30</v>
       </c>
       <c r="AA155" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30</v>
+      </c>
+      <c r="AB155" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="156" spans="1:28">
@@ -8481,8 +8693,11 @@
         <v>90</v>
       </c>
       <c r="AA156" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>90</v>
+      </c>
+      <c r="AB156" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="157" spans="1:28">
@@ -8508,8 +8723,11 @@
         <v>90</v>
       </c>
       <c r="AA157" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>90</v>
+      </c>
+      <c r="AB157" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="158" spans="1:28">
@@ -8535,8 +8753,11 @@
         <v>60</v>
       </c>
       <c r="AA158" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60</v>
+      </c>
+      <c r="AB158" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="159" spans="1:28">
@@ -8562,8 +8783,11 @@
         <v>90</v>
       </c>
       <c r="AA159" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>90</v>
+      </c>
+      <c r="AB159" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="160" spans="1:28">
@@ -8589,11 +8813,14 @@
         <v>30</v>
       </c>
       <c r="AA160" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="161" spans="1:27">
+      <c r="AB160" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:28">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -8616,11 +8843,14 @@
         <v>40</v>
       </c>
       <c r="AA161" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="162" spans="1:27">
+      <c r="AB161" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:28">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -8643,11 +8873,14 @@
         <v>720</v>
       </c>
       <c r="AA162" s="2">
-        <f t="shared" ref="AA162:AA186" si="3">SUM(G162:Z162)</f>
+        <f t="shared" ref="AA162:AA193" si="5">SUM(G162:Z162)</f>
         <v>720</v>
       </c>
-    </row>
-    <row r="163" spans="1:27">
+      <c r="AB162" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="163" spans="1:28">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -8670,11 +8903,14 @@
         <v>5</v>
       </c>
       <c r="AA163" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="164" spans="1:27">
+      <c r="AB163" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164" spans="1:28">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -8697,11 +8933,14 @@
         <v>4000</v>
       </c>
       <c r="AA164" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="165" spans="1:27">
+      <c r="AB164" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165" spans="1:28">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -8724,11 +8963,14 @@
         <v>8</v>
       </c>
       <c r="AA165" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="166" spans="1:27">
+      <c r="AB165" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="166" spans="1:28">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -8751,11 +8993,14 @@
         <v>8</v>
       </c>
       <c r="AA166" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="167" spans="1:27">
+      <c r="AB166" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167" spans="1:28">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -8778,11 +9023,14 @@
         <v>25</v>
       </c>
       <c r="AA167" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="168" spans="1:27">
+      <c r="AB167" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="168" spans="1:28">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -8805,11 +9053,14 @@
         <v>20</v>
       </c>
       <c r="AA168" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="169" spans="1:27" ht="15" customHeight="1">
+      <c r="AB168" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="169" spans="1:28" ht="15" customHeight="1">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -8832,11 +9083,14 @@
         <v>50</v>
       </c>
       <c r="AA169" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="170" spans="1:27">
+      <c r="AB169" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="170" spans="1:28">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -8859,11 +9113,14 @@
         <v>40</v>
       </c>
       <c r="AA170" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="171" spans="1:27">
+      <c r="AB170" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:28">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -8886,11 +9143,14 @@
         <v>40</v>
       </c>
       <c r="AA171" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="172" spans="1:27">
+      <c r="AB171" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="172" spans="1:28">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -8913,11 +9173,14 @@
         <v>30</v>
       </c>
       <c r="AA172" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="173" spans="1:27">
+      <c r="AB172" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173" spans="1:28">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -8940,11 +9203,14 @@
         <v>30</v>
       </c>
       <c r="AA173" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="174" spans="1:27">
+      <c r="AB173" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:28">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -8967,11 +9233,14 @@
         <v>60</v>
       </c>
       <c r="AA174" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="175" spans="1:27">
+      <c r="AB174" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:28">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -8994,11 +9263,14 @@
         <v>60</v>
       </c>
       <c r="AA175" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="176" spans="1:27">
+      <c r="AB175" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="176" spans="1:28">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -9021,11 +9293,14 @@
         <v>60</v>
       </c>
       <c r="AA176" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="177" spans="1:27">
+      <c r="AB176" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="177" spans="1:28">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -9048,11 +9323,14 @@
         <v>100</v>
       </c>
       <c r="AA177" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="178" spans="1:27">
+      <c r="AB177" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="178" spans="1:28">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -9075,11 +9353,14 @@
         <v>40</v>
       </c>
       <c r="AA178" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="179" spans="1:27">
+      <c r="AB178" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="179" spans="1:28">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -9102,11 +9383,14 @@
         <v>25</v>
       </c>
       <c r="AA179" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="180" spans="1:27">
+      <c r="AB179" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="180" spans="1:28">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -9129,11 +9413,14 @@
         <v>70</v>
       </c>
       <c r="AA180" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="181" spans="1:27">
+      <c r="AB180" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181" spans="1:28">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -9156,11 +9443,14 @@
         <v>60</v>
       </c>
       <c r="AA181" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="182" spans="1:27">
+      <c r="AB181" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="182" spans="1:28">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -9183,11 +9473,14 @@
         <v>30</v>
       </c>
       <c r="AA182" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="183" spans="1:27">
+      <c r="AB182" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="183" spans="1:28">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -9210,11 +9503,14 @@
         <v>8</v>
       </c>
       <c r="AA183" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="184" spans="1:27">
+      <c r="AB183" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="184" spans="1:28">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -9237,11 +9533,14 @@
         <v>60</v>
       </c>
       <c r="AA184" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="185" spans="1:27">
+      <c r="AB184" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="185" spans="1:28">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -9264,11 +9563,14 @@
         <v>40</v>
       </c>
       <c r="AA185" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="186" spans="1:27">
+      <c r="AB185" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="186" spans="1:28">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -9291,74 +9593,832 @@
         <v>1200</v>
       </c>
       <c r="AA186" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1200</v>
       </c>
-    </row>
-    <row r="187" spans="1:27">
-      <c r="A187" s="1"/>
-      <c r="F187" s="2"/>
-      <c r="AA187" s="2"/>
-    </row>
-    <row r="188" spans="1:27">
-      <c r="A188" s="1"/>
-      <c r="F188" s="2"/>
-      <c r="AA188" s="2"/>
-    </row>
-    <row r="189" spans="1:27">
-      <c r="A189" s="1"/>
-      <c r="F189" s="2"/>
-      <c r="AA189" s="2"/>
-    </row>
-    <row r="190" spans="1:27">
-      <c r="A190" s="1"/>
-      <c r="F190" s="2"/>
-    </row>
-    <row r="191" spans="1:27">
-      <c r="A191" s="1"/>
-      <c r="F191" s="2"/>
-    </row>
-    <row r="192" spans="1:27">
-      <c r="A192" s="1"/>
-      <c r="F192" s="2"/>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193" s="1"/>
-      <c r="F193" s="2"/>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194" s="1"/>
-      <c r="F194" s="2"/>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195" s="1"/>
-      <c r="F195" s="2"/>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196" s="1"/>
-      <c r="F196" s="2"/>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="A197" s="1"/>
-      <c r="F197" s="2"/>
-    </row>
-    <row r="198" spans="1:6">
+      <c r="AB186" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="187" spans="1:28">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C187" s="2">
+        <v>652</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G187" s="1">
+        <v>20</v>
+      </c>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1">
+        <v>30</v>
+      </c>
+      <c r="N187" s="1"/>
+      <c r="O187" s="1"/>
+      <c r="P187" s="1"/>
+      <c r="Q187" s="1"/>
+      <c r="R187" s="1"/>
+      <c r="S187" s="1"/>
+      <c r="T187" s="1"/>
+      <c r="U187" s="1">
+        <v>90</v>
+      </c>
+      <c r="V187" s="1">
+        <v>15</v>
+      </c>
+      <c r="W187" s="1"/>
+      <c r="X187" s="1">
+        <v>120</v>
+      </c>
+      <c r="AA187" s="2">
+        <f t="shared" si="5"/>
+        <v>275</v>
+      </c>
+      <c r="AB187" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="188" spans="1:28">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C188" s="2">
+        <v>652</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G188" s="1">
+        <v>15</v>
+      </c>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+      <c r="J188" s="1"/>
+      <c r="K188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="M188" s="1">
+        <v>80</v>
+      </c>
+      <c r="N188" s="1"/>
+      <c r="O188" s="1"/>
+      <c r="P188" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q188" s="1"/>
+      <c r="R188" s="1"/>
+      <c r="S188" s="1"/>
+      <c r="T188" s="1"/>
+      <c r="U188" s="1"/>
+      <c r="V188" s="1">
+        <v>30</v>
+      </c>
+      <c r="W188" s="1"/>
+      <c r="X188" s="1"/>
+      <c r="AA188" s="2">
+        <f t="shared" si="5"/>
+        <v>155</v>
+      </c>
+      <c r="AB188" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="189" spans="1:28">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C189" s="2">
+        <v>652</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G189" s="1">
+        <v>20</v>
+      </c>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1"/>
+      <c r="K189" s="1"/>
+      <c r="L189" s="1"/>
+      <c r="M189" s="1">
+        <v>120</v>
+      </c>
+      <c r="N189" s="1"/>
+      <c r="O189" s="1"/>
+      <c r="P189" s="1"/>
+      <c r="Q189" s="1"/>
+      <c r="R189" s="1"/>
+      <c r="S189" s="1"/>
+      <c r="T189" s="1"/>
+      <c r="U189" s="1">
+        <v>60</v>
+      </c>
+      <c r="V189" s="1">
+        <v>30</v>
+      </c>
+      <c r="W189" s="1"/>
+      <c r="X189" s="1"/>
+      <c r="AA189" s="2">
+        <f t="shared" si="5"/>
+        <v>230</v>
+      </c>
+      <c r="AB189" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190" spans="1:28">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C190" s="2">
+        <v>652</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G190" s="1">
+        <v>15</v>
+      </c>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+      <c r="J190" s="1"/>
+      <c r="K190" s="1"/>
+      <c r="L190" s="1"/>
+      <c r="M190" s="1">
+        <v>70</v>
+      </c>
+      <c r="N190" s="1"/>
+      <c r="O190" s="1"/>
+      <c r="P190" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q190" s="1"/>
+      <c r="R190" s="1"/>
+      <c r="S190" s="1"/>
+      <c r="T190" s="1"/>
+      <c r="U190" s="1">
+        <v>60</v>
+      </c>
+      <c r="V190" s="1">
+        <v>30</v>
+      </c>
+      <c r="W190" s="1"/>
+      <c r="X190" s="1"/>
+      <c r="AA190" s="2">
+        <f t="shared" si="5"/>
+        <v>205</v>
+      </c>
+      <c r="AB190" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="191" spans="1:28">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C191" s="2">
+        <v>650</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G191" s="1">
+        <v>15</v>
+      </c>
+      <c r="M191" s="1">
+        <v>60</v>
+      </c>
+      <c r="P191" s="1">
+        <v>15</v>
+      </c>
+      <c r="U191" s="1">
+        <v>60</v>
+      </c>
+      <c r="V191" s="1">
+        <v>30</v>
+      </c>
+      <c r="AA191" s="2">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="AB191" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192" spans="1:28">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C192" s="2">
+        <v>648</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G192" s="1">
+        <v>15</v>
+      </c>
+      <c r="M192" s="1">
+        <v>60</v>
+      </c>
+      <c r="U192" s="1">
+        <v>60</v>
+      </c>
+      <c r="V192" s="1">
+        <v>30</v>
+      </c>
+      <c r="AA192" s="2">
+        <f t="shared" si="5"/>
+        <v>165</v>
+      </c>
+      <c r="AB192" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="193" spans="1:28">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C193" s="2">
+        <v>648</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G193" s="1">
+        <v>10</v>
+      </c>
+      <c r="M193" s="1">
+        <v>15</v>
+      </c>
+      <c r="U193" s="1">
+        <v>15</v>
+      </c>
+      <c r="V193" s="1">
+        <v>10</v>
+      </c>
+      <c r="AA193" s="2">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="AB193" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="194" spans="1:28">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C194" s="2">
+        <v>648</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G194" s="1">
+        <v>5</v>
+      </c>
+      <c r="M194" s="1">
+        <v>10</v>
+      </c>
+      <c r="P194" s="1"/>
+      <c r="V194" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA194" s="2">
+        <f t="shared" ref="AA194:AA199" si="6">SUM(G194:Z194)</f>
+        <v>20</v>
+      </c>
+      <c r="AB194" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="195" spans="1:28">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C195" s="2">
+        <v>643</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G195" s="1">
+        <v>9</v>
+      </c>
+      <c r="K195" s="1">
+        <v>20</v>
+      </c>
+      <c r="P195" s="1">
+        <v>15</v>
+      </c>
+      <c r="V195" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y195" s="1">
+        <v>10</v>
+      </c>
+      <c r="AA195" s="2">
+        <f t="shared" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="AB195" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="196" spans="1:28">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C196" s="2">
+        <v>643</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G196" s="1">
+        <v>15</v>
+      </c>
+      <c r="M196" s="1">
+        <v>60</v>
+      </c>
+      <c r="U196" s="1">
+        <v>60</v>
+      </c>
+      <c r="V196" s="1">
+        <v>20</v>
+      </c>
+      <c r="AA196" s="2">
+        <f t="shared" si="6"/>
+        <v>155</v>
+      </c>
+      <c r="AB196" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="197" spans="1:28">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C197" s="2">
+        <v>643</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G197" s="1">
+        <v>15</v>
+      </c>
+      <c r="M197" s="1">
+        <v>60</v>
+      </c>
+      <c r="U197" s="1">
+        <v>60</v>
+      </c>
+      <c r="V197" s="1">
+        <v>30</v>
+      </c>
+      <c r="AA197" s="2">
+        <f t="shared" si="6"/>
+        <v>165</v>
+      </c>
+      <c r="AB197" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="198" spans="1:28">
       <c r="A198" s="1"/>
       <c r="F198" s="2"/>
-    </row>
-    <row r="199" spans="1:6">
+      <c r="AA198" s="2"/>
+      <c r="AB198" s="1"/>
+    </row>
+    <row r="199" spans="1:28">
       <c r="A199" s="1"/>
       <c r="F199" s="2"/>
-    </row>
-    <row r="200" spans="1:6">
+      <c r="AA199" s="2"/>
+      <c r="AB199" s="1"/>
+    </row>
+    <row r="200" spans="1:28">
       <c r="A200" s="1"/>
       <c r="F200" s="2"/>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:28">
       <c r="A201" s="1"/>
       <c r="F201" s="2"/>
     </row>
+    <row r="202" spans="1:28">
+      <c r="A202" s="1"/>
+    </row>
+    <row r="203" spans="1:28">
+      <c r="A203" s="1"/>
+    </row>
+    <row r="204" spans="1:28">
+      <c r="A204" s="1"/>
+    </row>
+    <row r="205" spans="1:28">
+      <c r="A205" s="1"/>
+    </row>
+    <row r="206" spans="1:28">
+      <c r="A206" s="1"/>
+    </row>
+    <row r="207" spans="1:28">
+      <c r="A207" s="1"/>
+    </row>
+    <row r="208" spans="1:28">
+      <c r="A208" s="1"/>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="1"/>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="1"/>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="1"/>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="1"/>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="1"/>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="1"/>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="1"/>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="1"/>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="1"/>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="1"/>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="1"/>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="1"/>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="1"/>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="1"/>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="1"/>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="1"/>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="1"/>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="1"/>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="1"/>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="1"/>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="1"/>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="1"/>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="1"/>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="1"/>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="1"/>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="1"/>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="1"/>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="1"/>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="1"/>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="1"/>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="1"/>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="1"/>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="1"/>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="1"/>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="1"/>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="1"/>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="1"/>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="1"/>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="1"/>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="1"/>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="1"/>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="1"/>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="1"/>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="1"/>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="1"/>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="1"/>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="1"/>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="1"/>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="1"/>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="1"/>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="1"/>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="1"/>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="1"/>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="1"/>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="1"/>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="1"/>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="1"/>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="1"/>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="1"/>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="1"/>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="1"/>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="1"/>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="1"/>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="1"/>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="1"/>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="1"/>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="1"/>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="1"/>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="1"/>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="1"/>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="1"/>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="1"/>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="1"/>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="1"/>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="1"/>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="1"/>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="1"/>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="1"/>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="1"/>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="1"/>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="1"/>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="1"/>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="1"/>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="1"/>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="1"/>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="1"/>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="1"/>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="1"/>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" s="1"/>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="1"/>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="1"/>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="1"/>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" s="1"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:AA301" xr:uid="{7366A242-D771-4522-A7C9-6FAA9267A094}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA301">
+      <sortCondition ref="A1:A301"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="21" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -10260,7 +11320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF03CF93-A241-4DB9-ACD8-61B0F18F4B55}">
   <dimension ref="A1:V106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="F112" sqref="F112:F114"/>
     </sheetView>
   </sheetViews>

--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sgq\Desktop\Projetos\Analise_Hora_Máquina\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B2D7AE-E3CC-4D30-8519-A47B28A38B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A98665-C06B-4C10-983A-D403A46489FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="3" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCESSOS DE FABRICAÇÃO" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="295">
   <si>
     <t>ORCAMENTO</t>
   </si>
@@ -915,6 +915,9 @@
   </si>
   <si>
     <t>HVHV311600-01</t>
+  </si>
+  <si>
+    <t>HV310705-06</t>
   </si>
 </sst>
 </file>
@@ -1868,9 +1871,9 @@
   </sheetPr>
   <dimension ref="A1:AB301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E186" sqref="E186"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10094,324 +10097,542 @@
       </c>
     </row>
     <row r="198" spans="1:28">
-      <c r="A198" s="1"/>
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
       <c r="F198" s="2"/>
-      <c r="AA198" s="2"/>
-      <c r="AB198" s="1"/>
+      <c r="AA198" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB198" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="199" spans="1:28">
-      <c r="A199" s="1"/>
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
       <c r="F199" s="2"/>
-      <c r="AA199" s="2"/>
-      <c r="AB199" s="1"/>
+      <c r="AA199" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB199" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="200" spans="1:28">
-      <c r="A200" s="1"/>
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:28">
-      <c r="A201" s="1"/>
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
       <c r="F201" s="2"/>
     </row>
     <row r="202" spans="1:28">
-      <c r="A202" s="1"/>
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
     </row>
     <row r="203" spans="1:28">
-      <c r="A203" s="1"/>
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
     </row>
     <row r="204" spans="1:28">
-      <c r="A204" s="1"/>
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
     </row>
     <row r="205" spans="1:28">
-      <c r="A205" s="1"/>
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
     </row>
     <row r="206" spans="1:28">
-      <c r="A206" s="1"/>
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
     </row>
     <row r="207" spans="1:28">
-      <c r="A207" s="1"/>
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
     </row>
     <row r="208" spans="1:28">
-      <c r="A208" s="1"/>
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="1"/>
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="1"/>
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="1"/>
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
     </row>
     <row r="212" spans="1:1">
-      <c r="A212" s="1"/>
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" s="1"/>
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
     </row>
     <row r="214" spans="1:1">
-      <c r="A214" s="1"/>
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
     </row>
     <row r="215" spans="1:1">
-      <c r="A215" s="1"/>
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="1"/>
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217" s="1"/>
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
     </row>
     <row r="218" spans="1:1">
-      <c r="A218" s="1"/>
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
     </row>
     <row r="219" spans="1:1">
-      <c r="A219" s="1"/>
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" s="1"/>
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
     </row>
     <row r="221" spans="1:1">
-      <c r="A221" s="1"/>
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
     </row>
     <row r="222" spans="1:1">
-      <c r="A222" s="1"/>
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
     </row>
     <row r="223" spans="1:1">
-      <c r="A223" s="1"/>
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
     </row>
     <row r="224" spans="1:1">
-      <c r="A224" s="1"/>
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="1"/>
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
     </row>
     <row r="226" spans="1:1">
-      <c r="A226" s="1"/>
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
     </row>
     <row r="227" spans="1:1">
-      <c r="A227" s="1"/>
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
     </row>
     <row r="228" spans="1:1">
-      <c r="A228" s="1"/>
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" s="1"/>
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" s="1"/>
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231" s="1"/>
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" s="1"/>
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" s="1"/>
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
     </row>
     <row r="234" spans="1:1">
-      <c r="A234" s="1"/>
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235" s="1"/>
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
     </row>
     <row r="236" spans="1:1">
-      <c r="A236" s="1"/>
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
     </row>
     <row r="237" spans="1:1">
-      <c r="A237" s="1"/>
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
     </row>
     <row r="238" spans="1:1">
-      <c r="A238" s="1"/>
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
     </row>
     <row r="239" spans="1:1">
-      <c r="A239" s="1"/>
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
     </row>
     <row r="240" spans="1:1">
-      <c r="A240" s="1"/>
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241" s="1"/>
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
     </row>
     <row r="242" spans="1:1">
-      <c r="A242" s="1"/>
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
     </row>
     <row r="243" spans="1:1">
-      <c r="A243" s="1"/>
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244" s="1"/>
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
     </row>
     <row r="245" spans="1:1">
-      <c r="A245" s="1"/>
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
     </row>
     <row r="246" spans="1:1">
-      <c r="A246" s="1"/>
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
     </row>
     <row r="247" spans="1:1">
-      <c r="A247" s="1"/>
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
     </row>
     <row r="248" spans="1:1">
-      <c r="A248" s="1"/>
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
     </row>
     <row r="249" spans="1:1">
-      <c r="A249" s="1"/>
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
     </row>
     <row r="250" spans="1:1">
-      <c r="A250" s="1"/>
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
     </row>
     <row r="251" spans="1:1">
-      <c r="A251" s="1"/>
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
     </row>
     <row r="252" spans="1:1">
-      <c r="A252" s="1"/>
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
     </row>
     <row r="253" spans="1:1">
-      <c r="A253" s="1"/>
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
     </row>
     <row r="255" spans="1:1">
-      <c r="A255" s="1"/>
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="256" spans="1:1">
-      <c r="A256" s="1"/>
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
     </row>
     <row r="257" spans="1:1">
-      <c r="A257" s="1"/>
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
     </row>
     <row r="258" spans="1:1">
-      <c r="A258" s="1"/>
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
     </row>
     <row r="259" spans="1:1">
-      <c r="A259" s="1"/>
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
     </row>
     <row r="260" spans="1:1">
-      <c r="A260" s="1"/>
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
     </row>
     <row r="261" spans="1:1">
-      <c r="A261" s="1"/>
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
     </row>
     <row r="262" spans="1:1">
-      <c r="A262" s="1"/>
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
     </row>
     <row r="263" spans="1:1">
-      <c r="A263" s="1"/>
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
     </row>
     <row r="264" spans="1:1">
-      <c r="A264" s="1"/>
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
     </row>
     <row r="265" spans="1:1">
-      <c r="A265" s="1"/>
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
     </row>
     <row r="266" spans="1:1">
-      <c r="A266" s="1"/>
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
     </row>
     <row r="267" spans="1:1">
-      <c r="A267" s="1"/>
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
     </row>
     <row r="268" spans="1:1">
-      <c r="A268" s="1"/>
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
     </row>
     <row r="269" spans="1:1">
-      <c r="A269" s="1"/>
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
     </row>
     <row r="270" spans="1:1">
-      <c r="A270" s="1"/>
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
     </row>
     <row r="271" spans="1:1">
-      <c r="A271" s="1"/>
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
     </row>
     <row r="272" spans="1:1">
-      <c r="A272" s="1"/>
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
     </row>
     <row r="273" spans="1:1">
-      <c r="A273" s="1"/>
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
     </row>
     <row r="274" spans="1:1">
-      <c r="A274" s="1"/>
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
     </row>
     <row r="275" spans="1:1">
-      <c r="A275" s="1"/>
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" s="1"/>
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
     </row>
     <row r="277" spans="1:1">
-      <c r="A277" s="1"/>
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
     </row>
     <row r="278" spans="1:1">
-      <c r="A278" s="1"/>
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
     </row>
     <row r="279" spans="1:1">
-      <c r="A279" s="1"/>
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
     </row>
     <row r="280" spans="1:1">
-      <c r="A280" s="1"/>
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
     </row>
     <row r="281" spans="1:1">
-      <c r="A281" s="1"/>
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
     </row>
     <row r="282" spans="1:1">
-      <c r="A282" s="1"/>
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
     </row>
     <row r="283" spans="1:1">
-      <c r="A283" s="1"/>
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="1"/>
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
     </row>
     <row r="285" spans="1:1">
-      <c r="A285" s="1"/>
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
     </row>
     <row r="286" spans="1:1">
-      <c r="A286" s="1"/>
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
     </row>
     <row r="287" spans="1:1">
-      <c r="A287" s="1"/>
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
     </row>
     <row r="288" spans="1:1">
-      <c r="A288" s="1"/>
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
     </row>
     <row r="289" spans="1:1">
-      <c r="A289" s="1"/>
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
     </row>
     <row r="290" spans="1:1">
-      <c r="A290" s="1"/>
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
     </row>
     <row r="291" spans="1:1">
-      <c r="A291" s="1"/>
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
     </row>
     <row r="292" spans="1:1">
-      <c r="A292" s="1"/>
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
     </row>
     <row r="293" spans="1:1">
-      <c r="A293" s="1"/>
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
     </row>
     <row r="294" spans="1:1">
-      <c r="A294" s="1"/>
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
     </row>
     <row r="295" spans="1:1">
-      <c r="A295" s="1"/>
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
     </row>
     <row r="296" spans="1:1">
-      <c r="A296" s="1"/>
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
     </row>
     <row r="297" spans="1:1">
-      <c r="A297" s="1"/>
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
     </row>
     <row r="298" spans="1:1">
-      <c r="A298" s="1"/>
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
     </row>
     <row r="299" spans="1:1">
-      <c r="A299" s="1"/>
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="1"/>
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
     </row>
     <row r="301" spans="1:1">
-      <c r="A301" s="1"/>
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AA301" xr:uid="{7366A242-D771-4522-A7C9-6FAA9267A094}">
@@ -11318,10 +11539,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF03CF93-A241-4DB9-ACD8-61B0F18F4B55}">
-  <dimension ref="A1:V106"/>
+  <dimension ref="A1:V131"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112:F114"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12088,6 +12309,131 @@
     <row r="106" spans="2:2">
       <c r="B106" s="10" t="s">
         <v>280</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="10">
+        <v>10003700217</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="10">
+        <v>10007633099</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="10">
+        <v>10006076266</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="10">
+        <v>10007941396</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="10">
+        <v>10007618084</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="10">
+        <v>10006076266</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="10">
+        <v>10009855888</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="10">
+        <v>10005363802</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="10">
+        <v>10007949926</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="10">
+        <v>10007949856</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="10">
+        <v>10006504723</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="10">
+        <v>10003280804</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="10">
+        <v>10003901190</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="10">
+        <v>10002390890</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="10">
+        <v>10008755474</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="10">
+        <v>10009855888</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="10">
+        <v>10005984475</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="10">
+        <v>10008532036</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="10">
+        <v>10012030032</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="10">
+        <v>10004907351</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="10">
+        <v>10005864826</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="10">
+        <v>10002310098</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="10">
+        <v>10006188075</v>
       </c>
     </row>
   </sheetData>

--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sgq\Desktop\Projetos\Analise_Hora_Máquina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A98665-C06B-4C10-983A-D403A46489FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECBD4A4-35F4-48EF-9FE8-99C145B2683A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="3" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCESSOS DE FABRICAÇÃO" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="302">
   <si>
     <t>ORCAMENTO</t>
   </si>
@@ -872,9 +872,6 @@
     <t>HVHV310367-04</t>
   </si>
   <si>
-    <t>10002967709 / 10002967708</t>
-  </si>
-  <si>
     <t>HV400257-01</t>
   </si>
   <si>
@@ -918,6 +915,31 @@
   </si>
   <si>
     <t>HV310705-06</t>
+  </si>
+  <si>
+    <t>HVHV400257-01</t>
+  </si>
+  <si>
+    <t>HVHV310705-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11460670 
+</t>
+  </si>
+  <si>
+    <t>B137X811111</t>
+  </si>
+  <si>
+    <t>TAVRIDA</t>
+  </si>
+  <si>
+    <t>B133XK11111</t>
+  </si>
+  <si>
+    <t>HVHV309110-02</t>
+  </si>
+  <si>
+    <t>HVHV400252-02</t>
   </si>
 </sst>
 </file>
@@ -1871,9 +1893,9 @@
   </sheetPr>
   <dimension ref="A1:AB301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A222" sqref="A222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9614,10 +9636,10 @@
         <v>652</v>
       </c>
       <c r="D187" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E187" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>26</v>
@@ -9669,10 +9691,10 @@
         <v>652</v>
       </c>
       <c r="D188" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>26</v>
@@ -9722,10 +9744,10 @@
         <v>652</v>
       </c>
       <c r="D189" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E189" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>26</v>
@@ -9775,10 +9797,10 @@
         <v>652</v>
       </c>
       <c r="D190" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E190" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>26</v>
@@ -9969,7 +9991,7 @@
         <v>5</v>
       </c>
       <c r="AA194" s="2">
-        <f t="shared" ref="AA194:AA199" si="6">SUM(G194:Z194)</f>
+        <f t="shared" ref="AA194:AA232" si="6">SUM(G194:Z194)</f>
         <v>20</v>
       </c>
       <c r="AB194" s="1" t="s">
@@ -9990,7 +10012,7 @@
         <v>73</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>26</v>
@@ -10029,10 +10051,10 @@
         <v>643</v>
       </c>
       <c r="D196" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E196" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>26</v>
@@ -10068,10 +10090,10 @@
         <v>643</v>
       </c>
       <c r="D197" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E197" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>26</v>
@@ -10100,10 +10122,34 @@
       <c r="A198" s="1">
         <v>197</v>
       </c>
-      <c r="F198" s="2"/>
+      <c r="B198" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C198" s="2">
+        <v>141</v>
+      </c>
+      <c r="D198" s="2">
+        <v>10006080840</v>
+      </c>
+      <c r="E198" s="1">
+        <v>14613011</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I198" s="1">
+        <v>10</v>
+      </c>
+      <c r="P198" s="1"/>
+      <c r="U198" s="1">
+        <v>30</v>
+      </c>
+      <c r="V198" s="1">
+        <v>5</v>
+      </c>
       <c r="AA198" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AB198" s="1" t="s">
         <v>23</v>
@@ -10113,10 +10159,35 @@
       <c r="A199" s="1">
         <v>198</v>
       </c>
-      <c r="F199" s="2"/>
+      <c r="B199" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G199" s="1">
+        <v>2</v>
+      </c>
+      <c r="N199" s="1">
+        <v>7</v>
+      </c>
+      <c r="P199" s="1"/>
+      <c r="U199" s="1"/>
+      <c r="V199" s="1">
+        <v>2</v>
+      </c>
       <c r="AA199" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AB199" s="1" t="s">
         <v>23</v>
@@ -10126,513 +10197,1224 @@
       <c r="A200" s="1">
         <v>199</v>
       </c>
-      <c r="F200" s="2"/>
+      <c r="B200" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C200" s="2">
+        <v>341</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G200" s="1">
+        <v>2</v>
+      </c>
+      <c r="M200" s="1">
+        <v>15</v>
+      </c>
+      <c r="P200" s="1"/>
+      <c r="U200" s="1"/>
+      <c r="V200" s="1">
+        <v>5</v>
+      </c>
+      <c r="W200" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA200" s="2">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="AB200" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="201" spans="1:28">
       <c r="A201" s="1">
         <v>200</v>
       </c>
-      <c r="F201" s="2"/>
+      <c r="B201" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C201" s="2">
+        <v>115</v>
+      </c>
+      <c r="D201" s="2">
+        <v>10003700217</v>
+      </c>
+      <c r="E201" s="2">
+        <v>13319535</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G201" s="1">
+        <v>2</v>
+      </c>
+      <c r="L201" s="1">
+        <v>10</v>
+      </c>
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+      <c r="O201" s="1"/>
+      <c r="P201" s="1"/>
+      <c r="Q201" s="1">
+        <v>10</v>
+      </c>
+      <c r="U201" s="1"/>
+      <c r="V201" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA201" s="2">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="AB201" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="202" spans="1:28">
       <c r="A202" s="1">
         <v>201</v>
       </c>
+      <c r="B202" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C202" s="2">
+        <v>109</v>
+      </c>
+      <c r="D202" s="2">
+        <v>10007633099</v>
+      </c>
+      <c r="E202" s="2">
+        <v>15481651</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G202" s="1">
+        <v>2</v>
+      </c>
+      <c r="L202" s="1">
+        <v>10</v>
+      </c>
+      <c r="P202" s="1"/>
+      <c r="U202" s="1"/>
+      <c r="V202" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA202" s="2">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="AB202" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="203" spans="1:28">
       <c r="A203" s="1">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:28">
+      <c r="B203" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C203" s="2">
+        <v>106</v>
+      </c>
+      <c r="D203" s="2">
+        <v>10007941396</v>
+      </c>
+      <c r="E203" s="2">
+        <v>11460314</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I203" s="1">
+        <v>5</v>
+      </c>
+      <c r="P203" s="1"/>
+      <c r="U203" s="1">
+        <v>15</v>
+      </c>
+      <c r="V203" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA203" s="2">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="AB203" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="204" spans="1:28" ht="15" customHeight="1">
       <c r="A204" s="1">
         <v>203</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C204" s="2">
+        <v>106</v>
+      </c>
+      <c r="D204" s="2">
+        <v>10005363802</v>
+      </c>
+      <c r="E204" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I204" s="1">
+        <v>5</v>
+      </c>
+      <c r="P204" s="1"/>
+      <c r="Q204" s="1">
+        <v>10</v>
+      </c>
+      <c r="U204" s="1"/>
+      <c r="V204" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA204" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="AB204" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="205" spans="1:28">
       <c r="A205" s="1">
         <v>204</v>
       </c>
+      <c r="B205" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C205" s="2">
+        <v>106</v>
+      </c>
+      <c r="D205" s="2">
+        <v>10007949926</v>
+      </c>
+      <c r="E205" s="2">
+        <v>11463274</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I205" s="1">
+        <v>5</v>
+      </c>
+      <c r="P205" s="1"/>
+      <c r="U205" s="1"/>
+      <c r="V205" s="1">
+        <v>10</v>
+      </c>
+      <c r="AA205" s="2">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="AB205" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="206" spans="1:28">
       <c r="A206" s="1">
         <v>205</v>
       </c>
+      <c r="B206" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C206" s="2">
+        <v>106</v>
+      </c>
+      <c r="D206" s="2">
+        <v>10007949856</v>
+      </c>
+      <c r="E206" s="2">
+        <v>11463275</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I206" s="1">
+        <v>5</v>
+      </c>
+      <c r="P206" s="1"/>
+      <c r="U206" s="1"/>
+      <c r="V206" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA206" s="2">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="AB206" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="207" spans="1:28">
       <c r="A207" s="1">
         <v>206</v>
       </c>
+      <c r="B207" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C207" s="2">
+        <v>484</v>
+      </c>
+      <c r="D207" s="2">
+        <v>10003901190</v>
+      </c>
+      <c r="E207" s="2">
+        <v>11893661</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G207" s="2">
+        <v>10</v>
+      </c>
+      <c r="P207" s="1">
+        <v>10</v>
+      </c>
+      <c r="U207" s="1">
+        <v>10</v>
+      </c>
+      <c r="V207" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA207" s="2">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="AB207" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="208" spans="1:28">
       <c r="A208" s="1">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1">
+      <c r="B208" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C208" s="2">
+        <v>142</v>
+      </c>
+      <c r="D208" s="2">
+        <v>10002390890</v>
+      </c>
+      <c r="E208" s="2">
+        <v>11822755</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G208" s="2">
+        <v>5</v>
+      </c>
+      <c r="K208" s="1">
+        <v>5</v>
+      </c>
+      <c r="L208" s="1"/>
+      <c r="M208" s="1"/>
+      <c r="N208" s="1">
+        <v>5</v>
+      </c>
+      <c r="P208" s="1"/>
+      <c r="U208" s="1">
+        <v>5</v>
+      </c>
+      <c r="V208" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA208" s="2">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="AB208" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="209" spans="1:28">
       <c r="A209" s="1">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1">
+      <c r="B209" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C209" s="2">
+        <v>157</v>
+      </c>
+      <c r="D209" s="2">
+        <v>10002310098</v>
+      </c>
+      <c r="E209" s="2">
+        <v>12470954</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G209" s="2">
+        <v>1</v>
+      </c>
+      <c r="N209" s="1">
+        <v>2</v>
+      </c>
+      <c r="O209" s="1">
+        <v>2</v>
+      </c>
+      <c r="P209" s="1"/>
+      <c r="V209" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA209" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="AB209" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="210" spans="1:28">
       <c r="A210" s="1">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1">
+      <c r="B210" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C210" s="2">
+        <v>100</v>
+      </c>
+      <c r="D210" s="2">
+        <v>10006188075</v>
+      </c>
+      <c r="E210" s="2">
+        <v>15752569</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G210" s="2">
+        <v>5</v>
+      </c>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1">
+        <v>15</v>
+      </c>
+      <c r="P210" s="1"/>
+      <c r="V210" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA210" s="2">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="AB210" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="211" spans="1:28">
       <c r="A211" s="1">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1">
+      <c r="B211" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C211" s="2">
+        <v>288</v>
+      </c>
+      <c r="D211" s="2">
+        <v>10004911690</v>
+      </c>
+      <c r="E211" s="2">
+        <v>13993021</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G211" s="2">
+        <v>5</v>
+      </c>
+      <c r="K211" s="1">
+        <v>10</v>
+      </c>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1">
+        <v>30</v>
+      </c>
+      <c r="U211" s="1">
+        <v>25</v>
+      </c>
+      <c r="V211" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y211" s="2">
+        <v>15</v>
+      </c>
+      <c r="AA211" s="2">
+        <f t="shared" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="AB211" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="212" spans="1:28">
       <c r="A212" s="1">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1">
+      <c r="B212" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C212" s="2">
+        <v>227</v>
+      </c>
+      <c r="D212" s="2">
+        <v>10007908309</v>
+      </c>
+      <c r="E212" s="2">
+        <v>15626292</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I212" s="2">
+        <v>5</v>
+      </c>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="Q212" s="1">
+        <v>10</v>
+      </c>
+      <c r="U212" s="1">
+        <v>20</v>
+      </c>
+      <c r="V212" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA212" s="2">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="AB212" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="213" spans="1:28">
       <c r="A213" s="1">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1">
+      <c r="B213" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C213" s="2">
+        <v>634</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I213" s="2">
+        <v>2</v>
+      </c>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="Q213" s="1">
+        <v>10</v>
+      </c>
+      <c r="V213" s="1"/>
+      <c r="W213" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA213" s="2">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="AB213" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="214" spans="1:28">
       <c r="A214" s="1">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1">
+      <c r="B214" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C214" s="2">
+        <v>634</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I214" s="2">
+        <v>2</v>
+      </c>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="O214" s="1">
+        <v>10</v>
+      </c>
+      <c r="V214" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA214" s="2">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="AB214" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="215" spans="1:28">
       <c r="A215" s="1">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1">
+      <c r="B215" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C215" s="2">
+        <v>604</v>
+      </c>
+      <c r="D215" s="2">
+        <v>10008184638</v>
+      </c>
+      <c r="E215" s="2">
+        <v>15781033</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G215" s="2">
+        <v>3</v>
+      </c>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="N215" s="1">
+        <v>10</v>
+      </c>
+      <c r="V215" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA215" s="2">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="AB215" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="216" spans="1:28">
       <c r="A216" s="1">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1">
+      <c r="B216" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C216" s="2">
+        <v>604</v>
+      </c>
+      <c r="D216" s="2">
+        <v>10008184634</v>
+      </c>
+      <c r="E216" s="2">
+        <v>15781031</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G216" s="2">
+        <v>3</v>
+      </c>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="N216" s="1">
+        <v>10</v>
+      </c>
+      <c r="V216" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA216" s="2">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="AB216" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="217" spans="1:28">
       <c r="A217" s="1">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1">
+      <c r="B217" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G217" s="2">
+        <v>3</v>
+      </c>
+      <c r="I217" s="2"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1">
+        <v>15</v>
+      </c>
+      <c r="V217" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA217" s="2">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="AB217" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="218" spans="1:28">
       <c r="A218" s="1">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1">
+      <c r="B218" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C218" s="2">
+        <v>636</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G218" s="2">
+        <v>3</v>
+      </c>
+      <c r="I218" s="2"/>
+      <c r="K218" s="1"/>
+      <c r="L218" s="1"/>
+      <c r="N218" s="1">
+        <v>15</v>
+      </c>
+      <c r="V218" s="1">
+        <v>5</v>
+      </c>
+      <c r="X218" s="1">
+        <v>20</v>
+      </c>
+      <c r="AA218" s="2">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="AB218" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="219" spans="1:28">
       <c r="A219" s="1">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1">
+      <c r="B219" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C219" s="2">
+        <v>665</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I219" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA219" s="2">
+        <f>SUM(H219:Z219)</f>
+        <v>1</v>
+      </c>
+      <c r="AB219" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="220" spans="1:28">
       <c r="A220" s="1">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1">
+      <c r="B220" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C220" s="2">
+        <v>665</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I220" s="2">
+        <v>1</v>
+      </c>
+      <c r="L220" s="1"/>
+      <c r="AA220" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB220" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="221" spans="1:28">
       <c r="A221" s="1">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1">
+      <c r="B221" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C221" s="2">
+        <v>665</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I221" s="2">
+        <v>1</v>
+      </c>
+      <c r="L221" s="1"/>
+      <c r="AA221" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB221" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="222" spans="1:28">
       <c r="A222" s="1">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1">
+      <c r="B222" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C222" s="2">
+        <v>523</v>
+      </c>
+      <c r="D222" s="2">
+        <v>10011822420</v>
+      </c>
+      <c r="E222" s="2">
+        <v>17741498</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G222" s="2">
+        <v>5</v>
+      </c>
+      <c r="I222" s="2"/>
+      <c r="L222" s="1">
+        <v>10</v>
+      </c>
+      <c r="N222">
+        <v>5</v>
+      </c>
+      <c r="P222">
+        <v>15</v>
+      </c>
+      <c r="U222" s="1">
+        <v>30</v>
+      </c>
+      <c r="V222" s="1">
+        <v>10</v>
+      </c>
+      <c r="W222" s="1"/>
+      <c r="AA222" s="2">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="AB222" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="223" spans="1:28">
       <c r="A223" s="1">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1">
+      <c r="B223" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C223" s="2">
+        <v>247</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G223" s="2">
+        <v>5</v>
+      </c>
+      <c r="L223" s="1">
+        <v>15</v>
+      </c>
+      <c r="V223" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA223" s="2">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="AB223" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="224" spans="1:28">
       <c r="A224" s="1">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1">
+      <c r="B224" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G224" s="2">
+        <v>3</v>
+      </c>
+      <c r="L224" s="1"/>
+      <c r="AA224" s="2">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AB224" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="225" spans="1:28">
       <c r="A225" s="1">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" s="1">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
-      <c r="A227" s="1">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
-      <c r="A228" s="1">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229" s="1">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
-      <c r="A230" s="1">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231" s="1">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
-      <c r="A232" s="1">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" s="1">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
-      <c r="A234" s="1">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" s="1">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236" s="1">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237" s="1">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
-      <c r="A238" s="1">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
-      <c r="A239" s="1">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
-      <c r="A240" s="1">
-        <v>239</v>
-      </c>
+      <c r="B225" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C225" s="2">
+        <v>663</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I225" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA225" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB225" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="226" spans="1:28">
+      <c r="A226" s="1"/>
+      <c r="AA226" s="2"/>
+      <c r="AB226" s="1"/>
+    </row>
+    <row r="227" spans="1:28">
+      <c r="A227" s="1"/>
+      <c r="AA227" s="2"/>
+      <c r="AB227" s="1"/>
+    </row>
+    <row r="228" spans="1:28">
+      <c r="A228" s="1"/>
+      <c r="AA228" s="2"/>
+      <c r="AB228" s="1"/>
+    </row>
+    <row r="229" spans="1:28">
+      <c r="A229" s="1"/>
+      <c r="AA229" s="2"/>
+      <c r="AB229" s="1"/>
+    </row>
+    <row r="230" spans="1:28">
+      <c r="A230" s="1"/>
+      <c r="AA230" s="2"/>
+      <c r="AB230" s="1"/>
+    </row>
+    <row r="231" spans="1:28">
+      <c r="A231" s="1"/>
+      <c r="AA231" s="2"/>
+      <c r="AB231" s="1"/>
+    </row>
+    <row r="232" spans="1:28">
+      <c r="A232" s="1"/>
+      <c r="AA232" s="2"/>
+      <c r="AB232" s="1"/>
+    </row>
+    <row r="233" spans="1:28">
+      <c r="A233" s="1"/>
+    </row>
+    <row r="234" spans="1:28">
+      <c r="A234" s="1"/>
+    </row>
+    <row r="235" spans="1:28">
+      <c r="A235" s="1"/>
+    </row>
+    <row r="236" spans="1:28">
+      <c r="A236" s="1"/>
+    </row>
+    <row r="237" spans="1:28">
+      <c r="A237" s="1"/>
+    </row>
+    <row r="238" spans="1:28">
+      <c r="A238" s="1"/>
+    </row>
+    <row r="239" spans="1:28">
+      <c r="A239" s="1"/>
+    </row>
+    <row r="240" spans="1:28">
+      <c r="A240" s="1"/>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241" s="1">
-        <v>240</v>
-      </c>
+      <c r="A241" s="1"/>
     </row>
     <row r="242" spans="1:1">
-      <c r="A242" s="1">
-        <v>241</v>
-      </c>
+      <c r="A242" s="1"/>
     </row>
     <row r="243" spans="1:1">
-      <c r="A243" s="1">
-        <v>242</v>
-      </c>
+      <c r="A243" s="1"/>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244" s="1">
-        <v>243</v>
-      </c>
+      <c r="A244" s="1"/>
     </row>
     <row r="245" spans="1:1">
-      <c r="A245" s="1">
-        <v>244</v>
-      </c>
+      <c r="A245" s="1"/>
     </row>
     <row r="246" spans="1:1">
-      <c r="A246" s="1">
-        <v>245</v>
-      </c>
+      <c r="A246" s="1"/>
     </row>
     <row r="247" spans="1:1">
-      <c r="A247" s="1">
-        <v>246</v>
-      </c>
+      <c r="A247" s="1"/>
     </row>
     <row r="248" spans="1:1">
-      <c r="A248" s="1">
-        <v>247</v>
-      </c>
+      <c r="A248" s="1"/>
     </row>
     <row r="249" spans="1:1">
-      <c r="A249" s="1">
-        <v>248</v>
-      </c>
+      <c r="A249" s="1"/>
     </row>
     <row r="250" spans="1:1">
-      <c r="A250" s="1">
-        <v>249</v>
-      </c>
+      <c r="A250" s="1"/>
     </row>
     <row r="251" spans="1:1">
-      <c r="A251" s="1">
-        <v>250</v>
-      </c>
+      <c r="A251" s="1"/>
     </row>
     <row r="252" spans="1:1">
-      <c r="A252" s="1">
-        <v>251</v>
-      </c>
+      <c r="A252" s="1"/>
     </row>
     <row r="253" spans="1:1">
-      <c r="A253" s="1">
-        <v>252</v>
-      </c>
+      <c r="A253" s="1"/>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="1">
-        <v>253</v>
-      </c>
+      <c r="A254" s="1"/>
     </row>
     <row r="255" spans="1:1">
-      <c r="A255" s="1">
-        <v>254</v>
-      </c>
+      <c r="A255" s="1"/>
     </row>
     <row r="256" spans="1:1">
-      <c r="A256" s="1">
-        <v>255</v>
-      </c>
+      <c r="A256" s="1"/>
     </row>
     <row r="257" spans="1:1">
-      <c r="A257" s="1">
-        <v>256</v>
-      </c>
+      <c r="A257" s="1"/>
     </row>
     <row r="258" spans="1:1">
-      <c r="A258" s="1">
-        <v>257</v>
-      </c>
+      <c r="A258" s="1"/>
     </row>
     <row r="259" spans="1:1">
-      <c r="A259" s="1">
-        <v>258</v>
-      </c>
+      <c r="A259" s="1"/>
     </row>
     <row r="260" spans="1:1">
-      <c r="A260" s="1">
-        <v>259</v>
-      </c>
+      <c r="A260" s="1"/>
     </row>
     <row r="261" spans="1:1">
-      <c r="A261" s="1">
-        <v>260</v>
-      </c>
+      <c r="A261" s="1"/>
     </row>
     <row r="262" spans="1:1">
-      <c r="A262" s="1">
-        <v>261</v>
-      </c>
+      <c r="A262" s="1"/>
     </row>
     <row r="263" spans="1:1">
-      <c r="A263" s="1">
-        <v>262</v>
-      </c>
+      <c r="A263" s="1"/>
     </row>
     <row r="264" spans="1:1">
-      <c r="A264" s="1">
-        <v>263</v>
-      </c>
+      <c r="A264" s="1"/>
     </row>
     <row r="265" spans="1:1">
-      <c r="A265" s="1">
-        <v>264</v>
-      </c>
+      <c r="A265" s="1"/>
     </row>
     <row r="266" spans="1:1">
-      <c r="A266" s="1">
-        <v>265</v>
-      </c>
+      <c r="A266" s="1"/>
     </row>
     <row r="267" spans="1:1">
-      <c r="A267" s="1">
-        <v>266</v>
-      </c>
+      <c r="A267" s="1"/>
     </row>
     <row r="268" spans="1:1">
-      <c r="A268" s="1">
-        <v>267</v>
-      </c>
+      <c r="A268" s="1"/>
     </row>
     <row r="269" spans="1:1">
-      <c r="A269" s="1">
-        <v>268</v>
-      </c>
+      <c r="A269" s="1"/>
     </row>
     <row r="270" spans="1:1">
-      <c r="A270" s="1">
-        <v>269</v>
-      </c>
+      <c r="A270" s="1"/>
     </row>
     <row r="271" spans="1:1">
-      <c r="A271" s="1">
-        <v>270</v>
-      </c>
+      <c r="A271" s="1"/>
     </row>
     <row r="272" spans="1:1">
-      <c r="A272" s="1">
-        <v>271</v>
-      </c>
+      <c r="A272" s="1"/>
     </row>
     <row r="273" spans="1:1">
-      <c r="A273" s="1">
-        <v>272</v>
-      </c>
+      <c r="A273" s="1"/>
     </row>
     <row r="274" spans="1:1">
-      <c r="A274" s="1">
-        <v>273</v>
-      </c>
+      <c r="A274" s="1"/>
     </row>
     <row r="275" spans="1:1">
-      <c r="A275" s="1">
-        <v>274</v>
-      </c>
+      <c r="A275" s="1"/>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" s="1">
-        <v>275</v>
-      </c>
+      <c r="A276" s="1"/>
     </row>
     <row r="277" spans="1:1">
-      <c r="A277" s="1">
-        <v>276</v>
-      </c>
+      <c r="A277" s="1"/>
     </row>
     <row r="278" spans="1:1">
-      <c r="A278" s="1">
-        <v>277</v>
-      </c>
+      <c r="A278" s="1"/>
     </row>
     <row r="279" spans="1:1">
-      <c r="A279" s="1">
-        <v>278</v>
-      </c>
+      <c r="A279" s="1"/>
     </row>
     <row r="280" spans="1:1">
-      <c r="A280" s="1">
-        <v>279</v>
-      </c>
+      <c r="A280" s="1"/>
     </row>
     <row r="281" spans="1:1">
-      <c r="A281" s="1">
-        <v>280</v>
-      </c>
+      <c r="A281" s="1"/>
     </row>
     <row r="282" spans="1:1">
-      <c r="A282" s="1">
-        <v>281</v>
-      </c>
+      <c r="A282" s="1"/>
     </row>
     <row r="283" spans="1:1">
-      <c r="A283" s="1">
-        <v>282</v>
-      </c>
+      <c r="A283" s="1"/>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="1">
-        <v>283</v>
-      </c>
+      <c r="A284" s="1"/>
     </row>
     <row r="285" spans="1:1">
-      <c r="A285" s="1">
-        <v>284</v>
-      </c>
+      <c r="A285" s="1"/>
     </row>
     <row r="286" spans="1:1">
-      <c r="A286" s="1">
-        <v>285</v>
-      </c>
+      <c r="A286" s="1"/>
     </row>
     <row r="287" spans="1:1">
-      <c r="A287" s="1">
-        <v>286</v>
-      </c>
+      <c r="A287" s="1"/>
     </row>
     <row r="288" spans="1:1">
-      <c r="A288" s="1">
-        <v>287</v>
-      </c>
+      <c r="A288" s="1"/>
     </row>
     <row r="289" spans="1:1">
-      <c r="A289" s="1">
-        <v>288</v>
-      </c>
+      <c r="A289" s="1"/>
     </row>
     <row r="290" spans="1:1">
-      <c r="A290" s="1">
-        <v>289</v>
-      </c>
+      <c r="A290" s="1"/>
     </row>
     <row r="291" spans="1:1">
-      <c r="A291" s="1">
-        <v>290</v>
-      </c>
+      <c r="A291" s="1"/>
     </row>
     <row r="292" spans="1:1">
-      <c r="A292" s="1">
-        <v>291</v>
-      </c>
+      <c r="A292" s="1"/>
     </row>
     <row r="293" spans="1:1">
-      <c r="A293" s="1">
-        <v>292</v>
-      </c>
+      <c r="A293" s="1"/>
     </row>
     <row r="294" spans="1:1">
-      <c r="A294" s="1">
-        <v>293</v>
-      </c>
+      <c r="A294" s="1"/>
     </row>
     <row r="295" spans="1:1">
-      <c r="A295" s="1">
-        <v>294</v>
-      </c>
+      <c r="A295" s="1"/>
     </row>
     <row r="296" spans="1:1">
-      <c r="A296" s="1">
-        <v>295</v>
-      </c>
+      <c r="A296" s="1"/>
     </row>
     <row r="297" spans="1:1">
-      <c r="A297" s="1">
-        <v>296</v>
-      </c>
+      <c r="A297" s="1"/>
     </row>
     <row r="298" spans="1:1">
-      <c r="A298" s="1">
-        <v>297</v>
-      </c>
+      <c r="A298" s="1"/>
     </row>
     <row r="299" spans="1:1">
-      <c r="A299" s="1">
-        <v>298</v>
-      </c>
+      <c r="A299" s="1"/>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="1">
-        <v>299</v>
-      </c>
+      <c r="A300" s="1"/>
     </row>
     <row r="301" spans="1:1">
-      <c r="A301" s="1">
-        <v>300</v>
-      </c>
+      <c r="A301" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AA301" xr:uid="{7366A242-D771-4522-A7C9-6FAA9267A094}">
@@ -10650,7 +11432,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10927,10 +11709,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFED1B6-6669-418D-935F-274B00B50F32}">
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11511,6 +12293,11 @@
     <row r="114" spans="2:2">
       <c r="B114" s="10" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="10" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -11539,10 +12326,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF03CF93-A241-4DB9-ACD8-61B0F18F4B55}">
-  <dimension ref="A1:V131"/>
+  <dimension ref="A1:V149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="G134" sqref="G134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12308,17 +13095,17 @@
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="109" spans="2:2">
@@ -12434,6 +13221,96 @@
     <row r="131" spans="2:2">
       <c r="B131" s="10">
         <v>10006188075</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="10">
+        <v>10002871503</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="10">
+        <v>10005159680</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="10">
+        <v>10008514727</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="10">
+        <v>10002837595</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="10">
+        <v>10002833114</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="10">
+        <v>10006081042</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="10">
+        <v>10004910044</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="10">
+        <v>10004910106</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="10">
+        <v>10004909925</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="10">
+        <v>10005675337</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="10">
+        <v>10006836942</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="10">
+        <v>10006504723</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="10">
+        <v>10006836881</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="10">
+        <v>10006836848</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="10">
+        <v>10003058629</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="10">
+        <v>10008514727</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="10">
+        <v>10008511251</v>
       </c>
     </row>
   </sheetData>
@@ -12453,7 +13330,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B2:B106 B108:B1048576</xm:sqref>
+          <xm:sqref>B2:B1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -12465,8 +13342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA1C6DF-1C6F-4A7E-AA08-F9BD66EE655C}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12572,8 +13449,8 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="B13" s="10" t="s">
-        <v>279</v>
+      <c r="B13" s="15">
+        <v>10002967709</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>222</v>

--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sgq\Desktop\Projetos\Analise_Hora_Máquina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECBD4A4-35F4-48EF-9FE8-99C145B2683A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BEE18C-FA8B-4A35-8A17-17D0499EE296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCESSOS DE FABRICAÇÃO" sheetId="1" r:id="rId1"/>
@@ -1893,9 +1893,9 @@
   </sheetPr>
   <dimension ref="A1:AB301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A222" sqref="A222"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H179" sqref="H179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11711,8 +11711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFED1B6-6669-418D-935F-274B00B50F32}">
   <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sgq\Desktop\Projetos\Analise_Hora_Máquina\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BEE18C-FA8B-4A35-8A17-17D0499EE296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC57D126-05C6-455C-8505-692D1A7227F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCESSOS DE FABRICAÇÃO" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="303">
   <si>
     <t>ORCAMENTO</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>CENTRO DE USINAGEM</t>
-  </si>
-  <si>
-    <t>FRESADORA</t>
   </si>
   <si>
     <t>PRENSA (AMASSAMENTO)</t>
@@ -940,6 +937,12 @@
   </si>
   <si>
     <t>HVHV400252-02</t>
+  </si>
+  <si>
+    <t>N4-0200270</t>
+  </si>
+  <si>
+    <t>FRESADORAS</t>
   </si>
 </sst>
 </file>
@@ -1893,9 +1896,9 @@
   </sheetPr>
   <dimension ref="A1:AB301"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H179" sqref="H179"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C175" sqref="C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1928,10 +1931,10 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -1967,49 +1970,49 @@
         <v>10</v>
       </c>
       <c r="N1" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1">
@@ -2017,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2">
         <v>514</v>
@@ -2029,7 +2032,7 @@
         <v>15474348</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2">
         <v>3</v>
@@ -2064,7 +2067,7 @@
         <v>53</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -2072,7 +2075,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2">
         <v>514</v>
@@ -2084,7 +2087,7 @@
         <v>15981891</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2">
         <v>5</v>
@@ -2119,7 +2122,7 @@
         <v>55</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -2127,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2">
         <v>514</v>
@@ -2139,7 +2142,7 @@
         <v>14577949</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2">
         <v>5</v>
@@ -2176,7 +2179,7 @@
         <v>80</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -2184,7 +2187,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2">
         <v>514</v>
@@ -2196,7 +2199,7 @@
         <v>14577954</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2">
         <v>5</v>
@@ -2233,7 +2236,7 @@
         <v>80</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -2241,7 +2244,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2">
         <v>514</v>
@@ -2253,7 +2256,7 @@
         <v>17865788</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2">
         <v>3</v>
@@ -2290,7 +2293,7 @@
         <v>83</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -2298,7 +2301,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2">
         <v>514</v>
@@ -2310,7 +2313,7 @@
         <v>17867985</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="2">
         <v>3</v>
@@ -2347,7 +2350,7 @@
         <v>83</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -2355,7 +2358,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2">
         <v>514</v>
@@ -2367,7 +2370,7 @@
         <v>15545079</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="2">
         <v>10</v>
@@ -2404,7 +2407,7 @@
         <v>75</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -2412,7 +2415,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2">
         <v>514</v>
@@ -2424,7 +2427,7 @@
         <v>15545082</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="2">
         <v>10</v>
@@ -2461,7 +2464,7 @@
         <v>75</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -2469,19 +2472,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2">
         <v>650</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="2">
         <v>15</v>
@@ -2518,7 +2521,7 @@
         <v>180</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -2526,19 +2529,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2">
         <v>648</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="2">
         <v>15</v>
@@ -2575,7 +2578,7 @@
         <v>180</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -2583,19 +2586,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2">
         <v>648</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" s="2">
         <v>10</v>
@@ -2630,7 +2633,7 @@
         <v>50</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -2638,19 +2641,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="2">
         <v>648</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" s="2">
         <v>5</v>
@@ -2683,7 +2686,7 @@
         <v>20</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -2691,19 +2694,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="2">
         <v>635</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -2732,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -2740,19 +2743,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2">
         <v>507</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G15" s="2">
         <v>15</v>
@@ -2787,7 +2790,7 @@
         <v>105</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -2795,7 +2798,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2">
         <v>606</v>
@@ -2807,7 +2810,7 @@
         <v>14347032</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G16" s="2">
         <v>2</v>
@@ -2844,7 +2847,7 @@
         <v>55</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -2852,19 +2855,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="2">
         <v>436</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G17" s="2">
         <v>10</v>
@@ -2895,7 +2898,7 @@
         <v>70</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -2903,19 +2906,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="2">
         <v>436</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" s="2">
         <v>5</v>
@@ -2950,7 +2953,7 @@
         <v>90</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2958,19 +2961,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2">
         <v>438</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -3001,7 +3004,7 @@
         <v>15</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -3009,19 +3012,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="2">
         <v>437</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" s="2">
         <v>15</v>
@@ -3058,7 +3061,7 @@
         <v>75</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -3066,19 +3069,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="2">
         <v>495</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -3107,7 +3110,7 @@
         <v>4200</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -3115,19 +3118,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="2">
         <v>495</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -3156,7 +3159,7 @@
         <v>4200</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -3164,19 +3167,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="6">
         <v>452</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -3205,7 +3208,7 @@
         <v>720</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -3213,19 +3216,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="6">
         <v>452</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G24" s="2">
         <v>3</v>
@@ -3262,7 +3265,7 @@
         <v>108</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -3270,19 +3273,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" s="6">
         <v>452</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G25" s="2">
         <v>60</v>
@@ -3319,7 +3322,7 @@
         <v>180</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -3327,19 +3330,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="2">
         <v>488</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2">
@@ -3374,7 +3377,7 @@
         <v>28</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="15" customHeight="1">
@@ -3382,19 +3385,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="2">
         <v>444</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G27" s="2">
         <v>5</v>
@@ -3429,7 +3432,7 @@
         <v>35</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -3437,19 +3440,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" s="2">
         <v>444</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G28" s="2">
         <v>50</v>
@@ -3484,7 +3487,7 @@
         <v>340</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -3492,19 +3495,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="2">
         <v>536</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G29" s="2">
         <v>30</v>
@@ -3539,7 +3542,7 @@
         <v>85</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3547,19 +3550,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" s="2">
         <v>536</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G30" s="2">
         <v>8</v>
@@ -3592,7 +3595,7 @@
         <v>43</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="15" customHeight="1">
@@ -3600,19 +3603,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" s="2">
         <v>536</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G31" s="2">
         <v>10</v>
@@ -3649,7 +3652,7 @@
         <v>100</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3657,19 +3660,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="2">
         <v>517</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G32" s="2">
         <v>5</v>
@@ -3704,7 +3707,7 @@
         <v>60</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3712,19 +3715,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" s="2">
         <v>340</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G33" s="2">
         <v>10</v>
@@ -3761,7 +3764,7 @@
         <v>40</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -3769,19 +3772,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2">
         <v>340</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G34" s="2">
         <v>10</v>
@@ -3818,7 +3821,7 @@
         <v>40</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -3826,19 +3829,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" s="2">
         <v>340</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G35" s="2">
         <v>10</v>
@@ -3875,7 +3878,7 @@
         <v>40</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -3883,19 +3886,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2">
         <v>340</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G36" s="2">
         <v>10</v>
@@ -3932,7 +3935,7 @@
         <v>40</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3940,19 +3943,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" s="2">
         <v>340</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G37" s="2">
         <v>10</v>
@@ -3989,7 +3992,7 @@
         <v>40</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3997,19 +4000,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2">
         <v>340</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G38" s="2">
         <v>10</v>
@@ -4046,7 +4049,7 @@
         <v>40</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -4054,19 +4057,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2">
         <v>340</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G39" s="2">
         <v>10</v>
@@ -4103,7 +4106,7 @@
         <v>40</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -4111,19 +4114,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2">
         <v>340</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G40" s="2">
         <v>10</v>
@@ -4160,7 +4163,7 @@
         <v>40</v>
       </c>
       <c r="AB40" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -4168,19 +4171,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" s="2">
         <v>340</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F41" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G41" s="2">
         <v>15</v>
@@ -4215,7 +4218,7 @@
         <v>70</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4223,19 +4226,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C42" s="2">
         <v>340</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G42" s="2">
         <v>15</v>
@@ -4270,7 +4273,7 @@
         <v>70</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -4278,19 +4281,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" s="2">
         <v>340</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G43" s="2">
         <v>15</v>
@@ -4325,7 +4328,7 @@
         <v>70</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -4333,19 +4336,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" s="2">
         <v>340</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G44" s="2">
         <v>15</v>
@@ -4380,7 +4383,7 @@
         <v>70</v>
       </c>
       <c r="AB44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -4388,19 +4391,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="2">
         <v>340</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G45" s="2">
         <v>15</v>
@@ -4435,7 +4438,7 @@
         <v>70</v>
       </c>
       <c r="AB45" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:28">
@@ -4443,19 +4446,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" s="2">
         <v>340</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G46" s="2">
         <v>15</v>
@@ -4490,7 +4493,7 @@
         <v>70</v>
       </c>
       <c r="AB46" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:28">
@@ -4498,19 +4501,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="2">
         <v>340</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G47" s="2">
         <v>15</v>
@@ -4545,7 +4548,7 @@
         <v>50</v>
       </c>
       <c r="AB47" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -4553,19 +4556,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" s="2">
         <v>340</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G48" s="2">
         <v>15</v>
@@ -4600,7 +4603,7 @@
         <v>50</v>
       </c>
       <c r="AB48" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -4608,19 +4611,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" s="2">
         <v>340</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G49" s="2">
         <v>30</v>
@@ -4657,7 +4660,7 @@
         <v>160</v>
       </c>
       <c r="AB49" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -4665,19 +4668,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C50" s="2">
         <v>340</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G50" s="2">
         <v>10</v>
@@ -4712,7 +4715,7 @@
         <v>65</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -4720,19 +4723,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" s="2">
         <v>340</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -4761,7 +4764,7 @@
         <v>420</v>
       </c>
       <c r="AB51" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:28" ht="15" customHeight="1">
@@ -4769,19 +4772,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C52" s="2">
         <v>422</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -4816,7 +4819,7 @@
         <v>23</v>
       </c>
       <c r="AB52" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -4824,19 +4827,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53" s="2">
         <v>445</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
@@ -4869,7 +4872,7 @@
         <v>9</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:28">
@@ -4877,7 +4880,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" s="2">
         <v>446</v>
@@ -4886,10 +4889,10 @@
         <v>48125655</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -4924,7 +4927,7 @@
         <v>17</v>
       </c>
       <c r="AB54" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -4932,7 +4935,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C55" s="2">
         <v>651</v>
@@ -4944,7 +4947,7 @@
         <v>14876959</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -4977,7 +4980,7 @@
         <v>15</v>
       </c>
       <c r="AB55" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -4985,7 +4988,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" s="2">
         <v>651</v>
@@ -4997,7 +5000,7 @@
         <v>14624602</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G56" s="2">
         <v>3</v>
@@ -5030,7 +5033,7 @@
         <v>123</v>
       </c>
       <c r="AB56" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -5038,7 +5041,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C57" s="2">
         <v>651</v>
@@ -5050,7 +5053,7 @@
         <v>14876958</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G57" s="2">
         <v>5</v>
@@ -5087,7 +5090,7 @@
         <v>42</v>
       </c>
       <c r="AB57" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -5095,7 +5098,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C58" s="2">
         <v>651</v>
@@ -5107,7 +5110,7 @@
         <v>14039104</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G58" s="2">
         <v>3</v>
@@ -5142,7 +5145,7 @@
         <v>38</v>
       </c>
       <c r="AB58" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -5150,19 +5153,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C59" s="2">
         <v>653</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -5191,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="AB59" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5199,19 +5202,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C60" s="2">
         <v>653</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -5240,7 +5243,7 @@
         <v>1</v>
       </c>
       <c r="AB60" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -5248,19 +5251,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C61" s="2">
         <v>653</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -5289,7 +5292,7 @@
         <v>1</v>
       </c>
       <c r="AB61" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:28">
@@ -5297,7 +5300,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2">
         <v>654</v>
@@ -5309,7 +5312,7 @@
         <v>14164718</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G62" s="2">
         <v>10</v>
@@ -5348,7 +5351,7 @@
         <v>90</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:28">
@@ -5356,7 +5359,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2">
         <v>655</v>
@@ -5368,7 +5371,7 @@
         <v>17654606</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G63" s="2">
         <v>5</v>
@@ -5407,7 +5410,7 @@
         <v>100</v>
       </c>
       <c r="AB63" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -5415,7 +5418,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2">
         <v>655</v>
@@ -5427,7 +5430,7 @@
         <v>17694303</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G64" s="2">
         <v>5</v>
@@ -5466,7 +5469,7 @@
         <v>100</v>
       </c>
       <c r="AB64" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -5474,7 +5477,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2">
         <v>655</v>
@@ -5486,7 +5489,7 @@
         <v>17644164</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G65" s="2">
         <v>5</v>
@@ -5525,7 +5528,7 @@
         <v>100</v>
       </c>
       <c r="AB65" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -5533,19 +5536,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C66" s="2">
         <v>656</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -5576,7 +5579,7 @@
         <v>4</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:28">
@@ -5584,19 +5587,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C67" s="2">
         <v>656</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -5625,7 +5628,7 @@
         <v>1</v>
       </c>
       <c r="AB67" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:28">
@@ -5633,19 +5636,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C68" s="2">
         <v>656</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -5676,7 +5679,7 @@
         <v>4</v>
       </c>
       <c r="AB68" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -5684,19 +5687,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C69" s="2">
         <v>447</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F69" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G69" s="2">
         <v>3</v>
@@ -5731,7 +5734,7 @@
         <v>33</v>
       </c>
       <c r="AB69" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -5739,19 +5742,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G70" s="2">
         <v>3</v>
@@ -5792,7 +5795,7 @@
         <v>48</v>
       </c>
       <c r="AB70" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -5800,19 +5803,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C71" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G71" s="2">
         <v>5</v>
@@ -5847,7 +5850,7 @@
         <v>20</v>
       </c>
       <c r="AB71" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -5855,19 +5858,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C72" s="2">
         <v>511</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G72" s="2">
         <v>15</v>
@@ -5902,7 +5905,7 @@
         <v>135</v>
       </c>
       <c r="AB72" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:28">
@@ -5910,19 +5913,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C73" s="2">
         <v>636</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -5957,7 +5960,7 @@
         <v>11</v>
       </c>
       <c r="AB73" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -5965,19 +5968,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -6012,7 +6015,7 @@
         <v>720</v>
       </c>
       <c r="AB74" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -6020,19 +6023,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C75" s="2">
         <v>340</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G75" s="2">
         <v>15</v>
@@ -6067,7 +6070,7 @@
         <v>70</v>
       </c>
       <c r="AB75" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -6075,19 +6078,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G76" s="2">
         <v>3</v>
@@ -6120,7 +6123,7 @@
         <v>10</v>
       </c>
       <c r="AB76" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -6128,7 +6131,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C77" s="2">
         <v>189</v>
@@ -6140,7 +6143,7 @@
         <v>15976664</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G77" s="2">
         <v>10</v>
@@ -6173,7 +6176,7 @@
         <v>220</v>
       </c>
       <c r="AB77" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -6181,19 +6184,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G78" s="2">
         <v>3</v>
@@ -6230,7 +6233,7 @@
         <v>48</v>
       </c>
       <c r="AB78" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -6238,19 +6241,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G79" s="2">
         <v>1</v>
@@ -6269,7 +6272,7 @@
         <v>8</v>
       </c>
       <c r="AB79" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -6277,7 +6280,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C80" s="2">
         <v>189</v>
@@ -6289,7 +6292,7 @@
         <v>15967961</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G80" s="2">
         <v>5</v>
@@ -6314,7 +6317,7 @@
         <v>55</v>
       </c>
       <c r="AB80" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:28">
@@ -6322,19 +6325,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G81" s="2">
         <v>2</v>
@@ -6353,7 +6356,7 @@
         <v>19</v>
       </c>
       <c r="AB81" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:28">
@@ -6361,19 +6364,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C82" s="2">
         <v>588</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E82" s="2">
         <v>17837468</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G82" s="2">
         <v>10</v>
@@ -6395,7 +6398,7 @@
         <v>120</v>
       </c>
       <c r="AB82" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:28">
@@ -6403,19 +6406,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C83" s="2">
         <v>609</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E83" s="2">
         <v>15474134</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G83" s="2">
         <v>5</v>
@@ -6436,7 +6439,7 @@
         <v>55</v>
       </c>
       <c r="AB83" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -6444,19 +6447,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C84" s="2">
         <v>192</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E84" s="2">
         <v>15970137</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G84" s="2">
         <v>10</v>
@@ -6479,7 +6482,7 @@
         <v>150</v>
       </c>
       <c r="AB84" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -6487,7 +6490,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C85" s="2">
         <v>554</v>
@@ -6499,7 +6502,7 @@
         <v>11803044</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G85" s="2">
         <v>20</v>
@@ -6521,7 +6524,7 @@
         <v>180</v>
       </c>
       <c r="AB85" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -6529,7 +6532,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C86" s="2">
         <v>647</v>
@@ -6541,7 +6544,7 @@
         <v>17691420</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G86" s="2">
         <v>3</v>
@@ -6560,7 +6563,7 @@
         <v>18</v>
       </c>
       <c r="AB86" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -6568,7 +6571,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C87" s="2">
         <v>647</v>
@@ -6580,7 +6583,7 @@
         <v>17691419</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G87" s="2">
         <v>3</v>
@@ -6599,7 +6602,7 @@
         <v>23</v>
       </c>
       <c r="AB87" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -6607,10 +6610,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D88" s="2">
         <v>10005864826</v>
@@ -6619,7 +6622,7 @@
         <v>11510278</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z88" s="2">
         <v>30</v>
@@ -6629,7 +6632,7 @@
         <v>30</v>
       </c>
       <c r="AB88" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -6637,19 +6640,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C89" s="2">
         <v>185</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E89" s="2">
         <v>13588930</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y89" s="2"/>
       <c r="Z89" s="2">
@@ -6660,7 +6663,7 @@
         <v>37</v>
       </c>
       <c r="AB89" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -6668,19 +6671,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C90" s="2">
         <v>149</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E90" s="2">
         <v>16110881</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I90" s="2">
         <v>1</v>
@@ -6696,7 +6699,7 @@
         <v>3</v>
       </c>
       <c r="AB90" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -6704,19 +6707,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C91" s="2">
         <v>72</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E91" s="2">
         <v>16745816</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z91" s="2">
         <v>45</v>
@@ -6726,7 +6729,7 @@
         <v>45</v>
       </c>
       <c r="AB91" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -6734,19 +6737,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C92" s="2">
         <v>72</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E92" s="2">
         <v>16746703</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z92" s="2">
         <v>60</v>
@@ -6756,7 +6759,7 @@
         <v>60</v>
       </c>
       <c r="AB92" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -6764,19 +6767,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C93" s="2">
         <v>209</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E93" s="2">
         <v>16727617</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z93" s="2">
         <v>25</v>
@@ -6786,7 +6789,7 @@
         <v>25</v>
       </c>
       <c r="AB93" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -6794,19 +6797,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C94" s="2">
         <v>203</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E94" s="2">
         <v>14036861</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z94" s="2">
         <v>30</v>
@@ -6816,7 +6819,7 @@
         <v>30</v>
       </c>
       <c r="AB94" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -6824,7 +6827,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C95" s="2">
         <v>205</v>
@@ -6836,7 +6839,7 @@
         <v>14034575</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z95" s="2">
         <v>75</v>
@@ -6846,7 +6849,7 @@
         <v>75</v>
       </c>
       <c r="AB95" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -6854,19 +6857,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C96" s="2">
         <v>203</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E96" s="2">
         <v>14023910</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z96" s="2">
         <v>105</v>
@@ -6876,7 +6879,7 @@
         <v>105</v>
       </c>
       <c r="AB96" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -6884,19 +6887,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C97" s="2">
         <v>159</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E97" s="2">
         <v>15967965</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z97" s="2">
         <v>55</v>
@@ -6906,7 +6909,7 @@
         <v>55</v>
       </c>
       <c r="AB97" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:28">
@@ -6914,19 +6917,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C98" s="2">
         <v>216</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E98" s="2">
         <v>15971997</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z98" s="2">
         <v>45</v>
@@ -6936,7 +6939,7 @@
         <v>45</v>
       </c>
       <c r="AB98" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -6944,19 +6947,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C99" s="2">
         <v>479</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E99" s="2">
         <v>11521021</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z99" s="2">
         <v>70</v>
@@ -6966,7 +6969,7 @@
         <v>70</v>
       </c>
       <c r="AB99" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -6974,19 +6977,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E100" s="2">
         <v>11469602</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z100" s="2">
         <v>15</v>
@@ -6996,7 +6999,7 @@
         <v>15</v>
       </c>
       <c r="AB100" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -7004,10 +7007,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D101" s="2">
         <v>10005184725</v>
@@ -7016,7 +7019,7 @@
         <v>14153893</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z101" s="2">
         <v>40</v>
@@ -7026,7 +7029,7 @@
         <v>40</v>
       </c>
       <c r="AB101" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -7034,19 +7037,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E102" s="2">
         <v>14391192</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z102" s="2">
         <v>7</v>
@@ -7056,7 +7059,7 @@
         <v>7</v>
       </c>
       <c r="AB102" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -7064,19 +7067,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E103" s="2">
         <v>14154480</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z103" s="2">
         <v>30</v>
@@ -7086,7 +7089,7 @@
         <v>30</v>
       </c>
       <c r="AB103" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -7094,19 +7097,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C104" s="2">
         <v>133</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E104" s="2">
         <v>11468826</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z104" s="2">
         <v>15</v>
@@ -7116,7 +7119,7 @@
         <v>15</v>
       </c>
       <c r="AB104" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -7124,7 +7127,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C105" s="2">
         <v>133</v>
@@ -7136,7 +7139,7 @@
         <v>11468775</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z105" s="2">
         <v>15</v>
@@ -7146,7 +7149,7 @@
         <v>15</v>
       </c>
       <c r="AB105" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -7154,19 +7157,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E106" s="2">
         <v>11468114</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z106" s="2">
         <v>15</v>
@@ -7176,7 +7179,7 @@
         <v>15</v>
       </c>
       <c r="AB106" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" spans="1:28">
@@ -7184,19 +7187,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C107" s="2">
         <v>94</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E107" s="2">
         <v>11467111</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z107" s="2">
         <v>30</v>
@@ -7206,7 +7209,7 @@
         <v>30</v>
       </c>
       <c r="AB107" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -7214,7 +7217,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C108" s="2">
         <v>193</v>
@@ -7226,7 +7229,7 @@
         <v>15975244</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z108" s="2">
         <v>120</v>
@@ -7236,7 +7239,7 @@
         <v>120</v>
       </c>
       <c r="AB108" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -7244,19 +7247,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C109" s="2">
         <v>660</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z109" s="2">
         <v>60</v>
@@ -7266,7 +7269,7 @@
         <v>60</v>
       </c>
       <c r="AB109" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:28">
@@ -7274,19 +7277,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D110" s="2">
         <v>28760407</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z110" s="2">
         <v>5</v>
@@ -7296,7 +7299,7 @@
         <v>5</v>
       </c>
       <c r="AB110" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:28">
@@ -7304,7 +7307,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C111" s="2">
         <v>217</v>
@@ -7316,7 +7319,7 @@
         <v>15971288</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z111" s="2">
         <v>60</v>
@@ -7326,7 +7329,7 @@
         <v>60</v>
       </c>
       <c r="AB111" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -7334,7 +7337,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C112" s="2">
         <v>217</v>
@@ -7346,7 +7349,7 @@
         <v>15972529</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z112" s="2">
         <v>30</v>
@@ -7356,7 +7359,7 @@
         <v>30</v>
       </c>
       <c r="AB112" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -7364,7 +7367,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C113" s="2">
         <v>217</v>
@@ -7376,7 +7379,7 @@
         <v>15971930</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z113" s="2">
         <v>45</v>
@@ -7386,7 +7389,7 @@
         <v>45</v>
       </c>
       <c r="AB113" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:28">
@@ -7394,7 +7397,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C114" s="2">
         <v>225</v>
@@ -7406,7 +7409,7 @@
         <v>15972104</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z114" s="2">
         <v>20</v>
@@ -7416,7 +7419,7 @@
         <v>20</v>
       </c>
       <c r="AB114" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -7424,7 +7427,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C115" s="2">
         <v>216</v>
@@ -7436,7 +7439,7 @@
         <v>15972293</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z115" s="2">
         <v>10</v>
@@ -7446,7 +7449,7 @@
         <v>10</v>
       </c>
       <c r="AB115" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -7454,7 +7457,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C116" s="2">
         <v>167</v>
@@ -7466,7 +7469,7 @@
         <v>15968687</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z116" s="2">
         <v>3</v>
@@ -7476,7 +7479,7 @@
         <v>3</v>
       </c>
       <c r="AB116" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" spans="1:28">
@@ -7484,7 +7487,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C117" s="2">
         <v>225</v>
@@ -7496,7 +7499,7 @@
         <v>15976733</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z117" s="2">
         <v>15</v>
@@ -7506,7 +7509,7 @@
         <v>15</v>
       </c>
       <c r="AB117" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="15.75" customHeight="1">
@@ -7514,7 +7517,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C118" s="2">
         <v>225</v>
@@ -7526,7 +7529,7 @@
         <v>15976244</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z118" s="2">
         <v>12</v>
@@ -7536,7 +7539,7 @@
         <v>12</v>
       </c>
       <c r="AB118" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -7544,7 +7547,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C119" s="2">
         <v>217</v>
@@ -7556,7 +7559,7 @@
         <v>15972619</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z119" s="2">
         <v>60</v>
@@ -7566,7 +7569,7 @@
         <v>60</v>
       </c>
       <c r="AB119" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" spans="1:28">
@@ -7574,7 +7577,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C120" s="2">
         <v>217</v>
@@ -7586,7 +7589,7 @@
         <v>15972626</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z120" s="2">
         <v>30</v>
@@ -7596,7 +7599,7 @@
         <v>30</v>
       </c>
       <c r="AB120" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -7604,7 +7607,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C121" s="2">
         <v>217</v>
@@ -7616,7 +7619,7 @@
         <v>15973874</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z121" s="2">
         <v>30</v>
@@ -7626,7 +7629,7 @@
         <v>30</v>
       </c>
       <c r="AB121" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122" spans="1:28">
@@ -7634,7 +7637,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C122" s="2">
         <v>215</v>
@@ -7646,7 +7649,7 @@
         <v>15975246</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z122" s="2">
         <v>10</v>
@@ -7656,7 +7659,7 @@
         <v>10</v>
       </c>
       <c r="AB122" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -7664,7 +7667,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C123" s="2">
         <v>217</v>
@@ -7676,7 +7679,7 @@
         <v>15976667</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z123" s="2">
         <v>20</v>
@@ -7686,7 +7689,7 @@
         <v>20</v>
       </c>
       <c r="AB123" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" spans="1:28">
@@ -7694,7 +7697,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C124" s="2">
         <v>215</v>
@@ -7706,7 +7709,7 @@
         <v>15976730</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z124" s="2">
         <v>9</v>
@@ -7716,7 +7719,7 @@
         <v>9</v>
       </c>
       <c r="AB124" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" spans="1:28">
@@ -7724,7 +7727,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C125" s="2">
         <v>215</v>
@@ -7736,7 +7739,7 @@
         <v>16110422</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z125" s="2">
         <v>7</v>
@@ -7746,7 +7749,7 @@
         <v>7</v>
       </c>
       <c r="AB125" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:28" ht="15" customHeight="1">
@@ -7754,7 +7757,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C126" s="2">
         <v>208</v>
@@ -7763,10 +7766,10 @@
         <v>10004976011</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z126" s="2">
         <v>8</v>
@@ -7776,7 +7779,7 @@
         <v>8</v>
       </c>
       <c r="AB126" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127" spans="1:28">
@@ -7784,7 +7787,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C127" s="2">
         <v>91</v>
@@ -7796,7 +7799,7 @@
         <v>14035990</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z127" s="2">
         <v>30</v>
@@ -7806,7 +7809,7 @@
         <v>30</v>
       </c>
       <c r="AB127" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" spans="1:28">
@@ -7814,7 +7817,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C128" s="2">
         <v>210</v>
@@ -7826,7 +7829,7 @@
         <v>14036541</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z128" s="2">
         <v>60</v>
@@ -7836,7 +7839,7 @@
         <v>60</v>
       </c>
       <c r="AB128" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129" spans="1:28">
@@ -7844,7 +7847,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C129" s="2">
         <v>210</v>
@@ -7856,7 +7859,7 @@
         <v>14040973</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z129" s="2">
         <v>15</v>
@@ -7866,7 +7869,7 @@
         <v>15</v>
       </c>
       <c r="AB129" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130" spans="1:28">
@@ -7874,7 +7877,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C130" s="2">
         <v>208</v>
@@ -7886,7 +7889,7 @@
         <v>14546531</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z130" s="2">
         <v>40</v>
@@ -7896,7 +7899,7 @@
         <v>40</v>
       </c>
       <c r="AB130" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131" spans="1:28">
@@ -7904,7 +7907,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C131" s="2">
         <v>133</v>
@@ -7916,7 +7919,7 @@
         <v>13991819</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z131" s="2">
         <v>30</v>
@@ -7926,7 +7929,7 @@
         <v>30</v>
       </c>
       <c r="AB131" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132" spans="1:28">
@@ -7934,19 +7937,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z132" s="2">
         <v>30</v>
@@ -7956,7 +7959,7 @@
         <v>30</v>
       </c>
       <c r="AB132" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" spans="1:28">
@@ -7964,19 +7967,19 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C133" s="2">
         <v>660</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z133" s="2">
         <v>5</v>
@@ -7986,7 +7989,7 @@
         <v>5</v>
       </c>
       <c r="AB133" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:28">
@@ -7994,7 +7997,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C134" s="2">
         <v>177</v>
@@ -8006,7 +8009,7 @@
         <v>15970081</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z134" s="2">
         <v>800</v>
@@ -8016,7 +8019,7 @@
         <v>800</v>
       </c>
       <c r="AB134" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135" spans="1:28">
@@ -8024,7 +8027,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C135" s="2">
         <v>454</v>
@@ -8036,7 +8039,7 @@
         <v>14346324</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z135" s="2">
         <v>60</v>
@@ -8046,7 +8049,7 @@
         <v>60</v>
       </c>
       <c r="AB135" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="136" spans="1:28">
@@ -8054,7 +8057,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C136" s="2">
         <v>454</v>
@@ -8066,7 +8069,7 @@
         <v>14346414</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z136" s="2">
         <v>60</v>
@@ -8076,7 +8079,7 @@
         <v>60</v>
       </c>
       <c r="AB136" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -8084,7 +8087,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C137" s="2">
         <v>494</v>
@@ -8096,7 +8099,7 @@
         <v>14153817</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z137" s="2">
         <v>60</v>
@@ -8106,7 +8109,7 @@
         <v>60</v>
       </c>
       <c r="AB137" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="138" spans="1:28">
@@ -8114,7 +8117,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C138" s="2">
         <v>494</v>
@@ -8126,7 +8129,7 @@
         <v>14153990</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z138" s="2">
         <v>60</v>
@@ -8136,7 +8139,7 @@
         <v>60</v>
       </c>
       <c r="AB138" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="139" spans="1:28">
@@ -8144,7 +8147,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C139" s="2">
         <v>151</v>
@@ -8156,7 +8159,7 @@
         <v>11839389</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z139" s="2">
         <v>300</v>
@@ -8166,7 +8169,7 @@
         <v>300</v>
       </c>
       <c r="AB139" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="140" spans="1:28" ht="15" customHeight="1">
@@ -8174,7 +8177,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C140" s="2">
         <v>22</v>
@@ -8183,10 +8186,10 @@
         <v>10002871503</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z140" s="2">
         <v>10</v>
@@ -8196,7 +8199,7 @@
         <v>10</v>
       </c>
       <c r="AB140" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="141" spans="1:28">
@@ -8204,7 +8207,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C141" s="2">
         <v>118</v>
@@ -8216,7 +8219,7 @@
         <v>13989933</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z141" s="2">
         <v>60</v>
@@ -8226,7 +8229,7 @@
         <v>60</v>
       </c>
       <c r="AB141" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142" spans="1:28" ht="15" customHeight="1">
@@ -8234,7 +8237,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C142" s="2">
         <v>199</v>
@@ -8243,10 +8246,10 @@
         <v>10005984475</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z142" s="2">
         <v>60</v>
@@ -8256,7 +8259,7 @@
         <v>60</v>
       </c>
       <c r="AB142" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -8264,19 +8267,19 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C143" s="2">
         <v>595</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="F143" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z143" s="2">
         <v>120</v>
@@ -8286,7 +8289,7 @@
         <v>120</v>
       </c>
       <c r="AB143" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -8294,19 +8297,19 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C144" s="2">
         <v>536</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G144" s="2">
         <v>8</v>
@@ -8338,7 +8341,7 @@
         <v>43</v>
       </c>
       <c r="AB144" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -8346,17 +8349,17 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z145" s="2">
         <v>6</v>
@@ -8366,7 +8369,7 @@
         <v>6</v>
       </c>
       <c r="AB145" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="146" spans="1:28">
@@ -8374,19 +8377,19 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C146" s="2">
         <v>511</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z146" s="2">
         <v>120</v>
@@ -8396,7 +8399,7 @@
         <v>120</v>
       </c>
       <c r="AB146" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="147" spans="1:28">
@@ -8404,19 +8407,19 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C147" s="2">
         <v>660</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z147" s="2">
         <v>20</v>
@@ -8426,7 +8429,7 @@
         <v>20</v>
       </c>
       <c r="AB147" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="148" spans="1:28">
@@ -8434,19 +8437,19 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z148" s="2">
         <v>20</v>
@@ -8456,7 +8459,7 @@
         <v>20</v>
       </c>
       <c r="AB148" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149" spans="1:28">
@@ -8464,7 +8467,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C149" s="2">
         <v>514</v>
@@ -8476,7 +8479,7 @@
         <v>15982393</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z149" s="2">
         <v>90</v>
@@ -8486,7 +8489,7 @@
         <v>90</v>
       </c>
       <c r="AB149" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150" spans="1:28">
@@ -8494,19 +8497,19 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C150" s="2">
         <v>340</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G150" s="2">
         <v>10</v>
@@ -8542,7 +8545,7 @@
         <v>40</v>
       </c>
       <c r="AB150" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="151" spans="1:28">
@@ -8550,7 +8553,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C151" s="2">
         <v>484</v>
@@ -8562,7 +8565,7 @@
         <v>15649367</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z151" s="2">
         <v>30</v>
@@ -8572,7 +8575,7 @@
         <v>30</v>
       </c>
       <c r="AB151" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="152" spans="1:28">
@@ -8580,7 +8583,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C152" s="2">
         <v>489</v>
@@ -8592,7 +8595,7 @@
         <v>14563966</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z152" s="2">
         <v>60</v>
@@ -8602,7 +8605,7 @@
         <v>60</v>
       </c>
       <c r="AB152" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="153" spans="1:28">
@@ -8610,7 +8613,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C153" s="2">
         <v>489</v>
@@ -8622,7 +8625,7 @@
         <v>14563925</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z153" s="2">
         <v>70</v>
@@ -8632,7 +8635,7 @@
         <v>70</v>
       </c>
       <c r="AB153" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="154" spans="1:28">
@@ -8640,19 +8643,19 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C154" s="2">
         <v>535</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z154" s="2">
         <v>30</v>
@@ -8662,7 +8665,7 @@
         <v>30</v>
       </c>
       <c r="AB154" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="155" spans="1:28">
@@ -8670,7 +8673,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C155" s="2">
         <v>249</v>
@@ -8682,7 +8685,7 @@
         <v>14364964</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z155" s="2">
         <v>30</v>
@@ -8692,7 +8695,7 @@
         <v>30</v>
       </c>
       <c r="AB155" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="156" spans="1:28">
@@ -8700,19 +8703,19 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C156" s="2">
         <v>502</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z156" s="2">
         <v>90</v>
@@ -8722,7 +8725,7 @@
         <v>90</v>
       </c>
       <c r="AB156" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="157" spans="1:28">
@@ -8730,7 +8733,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C157" s="2">
         <v>373</v>
@@ -8742,7 +8745,7 @@
         <v>12864933</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z157" s="2">
         <v>90</v>
@@ -8752,7 +8755,7 @@
         <v>90</v>
       </c>
       <c r="AB157" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="158" spans="1:28">
@@ -8760,19 +8763,19 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C158" s="2">
         <v>453</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z158" s="2">
         <v>60</v>
@@ -8782,7 +8785,7 @@
         <v>60</v>
       </c>
       <c r="AB158" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="159" spans="1:28">
@@ -8790,7 +8793,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C159" s="2">
         <v>479</v>
@@ -8802,7 +8805,7 @@
         <v>14287554</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z159" s="2">
         <v>90</v>
@@ -8812,7 +8815,7 @@
         <v>90</v>
       </c>
       <c r="AB159" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="160" spans="1:28">
@@ -8820,7 +8823,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C160" s="2">
         <v>249</v>
@@ -8832,7 +8835,7 @@
         <v>14362262</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z160" s="2">
         <v>30</v>
@@ -8842,7 +8845,7 @@
         <v>30</v>
       </c>
       <c r="AB160" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="161" spans="1:28">
@@ -8850,7 +8853,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C161" s="2">
         <v>249</v>
@@ -8862,7 +8865,7 @@
         <v>14335010</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z161" s="2">
         <v>40</v>
@@ -8872,7 +8875,7 @@
         <v>40</v>
       </c>
       <c r="AB161" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="162" spans="1:28">
@@ -8880,19 +8883,19 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C162" s="2">
         <v>549</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z162" s="2">
         <v>720</v>
@@ -8902,7 +8905,7 @@
         <v>720</v>
       </c>
       <c r="AB162" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="163" spans="1:28">
@@ -8910,19 +8913,19 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z163" s="2">
         <v>5</v>
@@ -8932,7 +8935,7 @@
         <v>5</v>
       </c>
       <c r="AB163" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="164" spans="1:28">
@@ -8940,19 +8943,19 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C164" s="2">
         <v>511</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z164" s="2">
         <v>4000</v>
@@ -8962,7 +8965,7 @@
         <v>4000</v>
       </c>
       <c r="AB164" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="165" spans="1:28">
@@ -8970,7 +8973,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C165" s="2">
         <v>58</v>
@@ -8982,7 +8985,7 @@
         <v>16118276</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z165" s="2">
         <v>8</v>
@@ -8992,7 +8995,7 @@
         <v>8</v>
       </c>
       <c r="AB165" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="166" spans="1:28">
@@ -9000,7 +9003,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C166" s="2">
         <v>58</v>
@@ -9012,7 +9015,7 @@
         <v>16118271</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z166" s="2">
         <v>8</v>
@@ -9022,7 +9025,7 @@
         <v>8</v>
       </c>
       <c r="AB166" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="167" spans="1:28">
@@ -9030,7 +9033,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C167" s="2">
         <v>249</v>
@@ -9042,7 +9045,7 @@
         <v>14361046</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z167" s="2">
         <v>25</v>
@@ -9052,7 +9055,7 @@
         <v>25</v>
       </c>
       <c r="AB167" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="168" spans="1:28">
@@ -9060,7 +9063,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C168" s="2">
         <v>227</v>
@@ -9072,7 +9075,7 @@
         <v>12411492</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z168" s="2">
         <v>20</v>
@@ -9082,7 +9085,7 @@
         <v>20</v>
       </c>
       <c r="AB168" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="169" spans="1:28" ht="15" customHeight="1">
@@ -9090,7 +9093,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C169" s="2">
         <v>227</v>
@@ -9099,10 +9102,10 @@
         <v>10002751604</v>
       </c>
       <c r="E169" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z169" s="2">
         <v>50</v>
@@ -9112,7 +9115,7 @@
         <v>50</v>
       </c>
       <c r="AB169" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="170" spans="1:28">
@@ -9120,7 +9123,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C170" s="2">
         <v>227</v>
@@ -9132,7 +9135,7 @@
         <v>12406391</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z170" s="2">
         <v>40</v>
@@ -9142,7 +9145,7 @@
         <v>40</v>
       </c>
       <c r="AB170" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="171" spans="1:28">
@@ -9150,7 +9153,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C171" s="2">
         <v>227</v>
@@ -9162,7 +9165,7 @@
         <v>12420856</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z171" s="2">
         <v>40</v>
@@ -9172,7 +9175,7 @@
         <v>40</v>
       </c>
       <c r="AB171" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="172" spans="1:28">
@@ -9180,7 +9183,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C172" s="2">
         <v>227</v>
@@ -9192,7 +9195,7 @@
         <v>12420855</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z172" s="2">
         <v>30</v>
@@ -9202,7 +9205,7 @@
         <v>30</v>
       </c>
       <c r="AB172" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="173" spans="1:28">
@@ -9210,7 +9213,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C173" s="2">
         <v>60</v>
@@ -9222,7 +9225,7 @@
         <v>12421834</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z173" s="2">
         <v>30</v>
@@ -9232,7 +9235,7 @@
         <v>30</v>
       </c>
       <c r="AB173" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="174" spans="1:28">
@@ -9240,7 +9243,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C174" s="2">
         <v>494</v>
@@ -9252,7 +9255,7 @@
         <v>14153907</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z174" s="2">
         <v>60</v>
@@ -9262,7 +9265,7 @@
         <v>60</v>
       </c>
       <c r="AB174" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="175" spans="1:28">
@@ -9270,7 +9273,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C175" s="2">
         <v>494</v>
@@ -9282,7 +9285,7 @@
         <v>14153905</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z175" s="2">
         <v>60</v>
@@ -9292,7 +9295,7 @@
         <v>60</v>
       </c>
       <c r="AB175" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="176" spans="1:28">
@@ -9300,7 +9303,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C176" s="2">
         <v>244</v>
@@ -9312,7 +9315,7 @@
         <v>13081951</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z176" s="2">
         <v>60</v>
@@ -9322,7 +9325,7 @@
         <v>60</v>
       </c>
       <c r="AB176" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="177" spans="1:28">
@@ -9330,7 +9333,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C177" s="2">
         <v>259</v>
@@ -9342,7 +9345,7 @@
         <v>14610054</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z177" s="2">
         <v>100</v>
@@ -9352,7 +9355,7 @@
         <v>100</v>
       </c>
       <c r="AB177" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="178" spans="1:28">
@@ -9360,7 +9363,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C178" s="2">
         <v>255</v>
@@ -9372,7 +9375,7 @@
         <v>13993039</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z178" s="2">
         <v>40</v>
@@ -9382,7 +9385,7 @@
         <v>40</v>
       </c>
       <c r="AB178" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="179" spans="1:28">
@@ -9390,7 +9393,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C179" s="2">
         <v>337</v>
@@ -9402,7 +9405,7 @@
         <v>15511442</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z179" s="2">
         <v>25</v>
@@ -9412,7 +9415,7 @@
         <v>25</v>
       </c>
       <c r="AB179" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="180" spans="1:28">
@@ -9420,7 +9423,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C180" s="2">
         <v>99</v>
@@ -9432,7 +9435,7 @@
         <v>15626473</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z180" s="2">
         <v>70</v>
@@ -9442,7 +9445,7 @@
         <v>70</v>
       </c>
       <c r="AB180" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="181" spans="1:28">
@@ -9450,7 +9453,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C181" s="2">
         <v>227</v>
@@ -9462,7 +9465,7 @@
         <v>15519848</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z181" s="2">
         <v>60</v>
@@ -9472,7 +9475,7 @@
         <v>60</v>
       </c>
       <c r="AB181" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="182" spans="1:28">
@@ -9480,7 +9483,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C182" s="2">
         <v>243</v>
@@ -9492,7 +9495,7 @@
         <v>14274548</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z182" s="2">
         <v>30</v>
@@ -9502,7 +9505,7 @@
         <v>30</v>
       </c>
       <c r="AB182" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="183" spans="1:28">
@@ -9510,7 +9513,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C183" s="2">
         <v>228</v>
@@ -9522,7 +9525,7 @@
         <v>15511447</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z183" s="2">
         <v>8</v>
@@ -9532,7 +9535,7 @@
         <v>8</v>
       </c>
       <c r="AB183" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="184" spans="1:28">
@@ -9540,7 +9543,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C184" s="2">
         <v>70</v>
@@ -9552,7 +9555,7 @@
         <v>14140591</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z184" s="2">
         <v>60</v>
@@ -9562,7 +9565,7 @@
         <v>60</v>
       </c>
       <c r="AB184" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="185" spans="1:28">
@@ -9570,7 +9573,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C185" s="2">
         <v>103</v>
@@ -9582,7 +9585,7 @@
         <v>14609589</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z185" s="2">
         <v>40</v>
@@ -9592,7 +9595,7 @@
         <v>40</v>
       </c>
       <c r="AB185" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="186" spans="1:28">
@@ -9600,19 +9603,19 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C186" s="2">
         <v>601</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z186" s="2">
         <v>1200</v>
@@ -9622,7 +9625,7 @@
         <v>1200</v>
       </c>
       <c r="AB186" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="187" spans="1:28">
@@ -9630,19 +9633,19 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C187" s="2">
         <v>652</v>
       </c>
       <c r="D187" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E187" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E187" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="F187" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G187" s="1">
         <v>20</v>
@@ -9677,7 +9680,7 @@
         <v>275</v>
       </c>
       <c r="AB187" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="188" spans="1:28">
@@ -9685,19 +9688,19 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C188" s="2">
         <v>652</v>
       </c>
       <c r="D188" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E188" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="F188" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G188" s="1">
         <v>15</v>
@@ -9730,7 +9733,7 @@
         <v>155</v>
       </c>
       <c r="AB188" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="189" spans="1:28">
@@ -9738,19 +9741,19 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C189" s="2">
         <v>652</v>
       </c>
       <c r="D189" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E189" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E189" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="F189" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G189" s="1">
         <v>20</v>
@@ -9783,7 +9786,7 @@
         <v>230</v>
       </c>
       <c r="AB189" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="190" spans="1:28">
@@ -9791,19 +9794,19 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C190" s="2">
         <v>652</v>
       </c>
       <c r="D190" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E190" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E190" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="F190" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G190" s="1">
         <v>15</v>
@@ -9838,7 +9841,7 @@
         <v>205</v>
       </c>
       <c r="AB190" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="191" spans="1:28">
@@ -9846,19 +9849,19 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C191" s="2">
         <v>650</v>
       </c>
       <c r="D191" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E191" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E191" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F191" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G191" s="1">
         <v>15</v>
@@ -9880,7 +9883,7 @@
         <v>180</v>
       </c>
       <c r="AB191" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="192" spans="1:28">
@@ -9888,19 +9891,19 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C192" s="2">
         <v>648</v>
       </c>
       <c r="D192" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E192" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E192" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="F192" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G192" s="1">
         <v>15</v>
@@ -9919,7 +9922,7 @@
         <v>165</v>
       </c>
       <c r="AB192" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="193" spans="1:28">
@@ -9927,19 +9930,19 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C193" s="2">
         <v>648</v>
       </c>
       <c r="D193" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E193" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E193" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F193" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G193" s="1">
         <v>10</v>
@@ -9958,7 +9961,7 @@
         <v>50</v>
       </c>
       <c r="AB193" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="194" spans="1:28">
@@ -9966,19 +9969,19 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C194" s="2">
         <v>648</v>
       </c>
       <c r="D194" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E194" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E194" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F194" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G194" s="1">
         <v>5</v>
@@ -9995,7 +9998,7 @@
         <v>20</v>
       </c>
       <c r="AB194" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="195" spans="1:28">
@@ -10003,19 +10006,19 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C195" s="2">
         <v>643</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G195" s="1">
         <v>9</v>
@@ -10037,7 +10040,7 @@
         <v>69</v>
       </c>
       <c r="AB195" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="196" spans="1:28">
@@ -10045,19 +10048,19 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C196" s="2">
         <v>643</v>
       </c>
       <c r="D196" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E196" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E196" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="F196" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G196" s="1">
         <v>15</v>
@@ -10076,7 +10079,7 @@
         <v>155</v>
       </c>
       <c r="AB196" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="197" spans="1:28">
@@ -10084,19 +10087,19 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C197" s="2">
         <v>643</v>
       </c>
       <c r="D197" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E197" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E197" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="F197" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G197" s="1">
         <v>15</v>
@@ -10115,7 +10118,7 @@
         <v>165</v>
       </c>
       <c r="AB197" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="198" spans="1:28">
@@ -10123,7 +10126,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C198" s="2">
         <v>141</v>
@@ -10135,7 +10138,7 @@
         <v>14613011</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I198" s="1">
         <v>10</v>
@@ -10152,7 +10155,7 @@
         <v>45</v>
       </c>
       <c r="AB198" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="199" spans="1:28">
@@ -10160,19 +10163,19 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G199" s="1">
         <v>2</v>
@@ -10190,7 +10193,7 @@
         <v>11</v>
       </c>
       <c r="AB199" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="200" spans="1:28">
@@ -10198,19 +10201,19 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C200" s="2">
         <v>341</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G200" s="1">
         <v>2</v>
@@ -10231,7 +10234,7 @@
         <v>27</v>
       </c>
       <c r="AB200" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="201" spans="1:28">
@@ -10239,7 +10242,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C201" s="2">
         <v>115</v>
@@ -10251,7 +10254,7 @@
         <v>13319535</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G201" s="1">
         <v>2</v>
@@ -10275,7 +10278,7 @@
         <v>27</v>
       </c>
       <c r="AB201" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="202" spans="1:28">
@@ -10283,7 +10286,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C202" s="2">
         <v>109</v>
@@ -10295,7 +10298,7 @@
         <v>15481651</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G202" s="1">
         <v>2</v>
@@ -10313,7 +10316,7 @@
         <v>15</v>
       </c>
       <c r="AB202" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="203" spans="1:28">
@@ -10321,7 +10324,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C203" s="2">
         <v>106</v>
@@ -10333,7 +10336,7 @@
         <v>11460314</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I203" s="1">
         <v>5</v>
@@ -10350,7 +10353,7 @@
         <v>25</v>
       </c>
       <c r="AB203" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="204" spans="1:28" ht="15" customHeight="1">
@@ -10358,7 +10361,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C204" s="2">
         <v>106</v>
@@ -10367,10 +10370,10 @@
         <v>10005363802</v>
       </c>
       <c r="E204" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I204" s="1">
         <v>5</v>
@@ -10388,7 +10391,7 @@
         <v>20</v>
       </c>
       <c r="AB204" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="205" spans="1:28">
@@ -10396,7 +10399,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C205" s="2">
         <v>106</v>
@@ -10408,7 +10411,7 @@
         <v>11463274</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I205" s="1">
         <v>5</v>
@@ -10423,7 +10426,7 @@
         <v>15</v>
       </c>
       <c r="AB205" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="206" spans="1:28">
@@ -10431,7 +10434,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C206" s="2">
         <v>106</v>
@@ -10443,7 +10446,7 @@
         <v>11463275</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I206" s="1">
         <v>5</v>
@@ -10458,7 +10461,7 @@
         <v>10</v>
       </c>
       <c r="AB206" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="207" spans="1:28">
@@ -10466,7 +10469,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C207" s="2">
         <v>484</v>
@@ -10478,7 +10481,7 @@
         <v>11893661</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G207" s="2">
         <v>10</v>
@@ -10497,7 +10500,7 @@
         <v>35</v>
       </c>
       <c r="AB207" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="208" spans="1:28">
@@ -10505,7 +10508,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C208" s="2">
         <v>142</v>
@@ -10517,7 +10520,7 @@
         <v>11822755</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G208" s="2">
         <v>5</v>
@@ -10542,7 +10545,7 @@
         <v>25</v>
       </c>
       <c r="AB208" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="209" spans="1:28">
@@ -10550,7 +10553,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C209" s="2">
         <v>157</v>
@@ -10562,7 +10565,7 @@
         <v>12470954</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G209" s="2">
         <v>1</v>
@@ -10582,7 +10585,7 @@
         <v>7</v>
       </c>
       <c r="AB209" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="210" spans="1:28">
@@ -10590,7 +10593,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C210" s="2">
         <v>100</v>
@@ -10602,7 +10605,7 @@
         <v>15752569</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G210" s="2">
         <v>5</v>
@@ -10621,7 +10624,7 @@
         <v>25</v>
       </c>
       <c r="AB210" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="211" spans="1:28">
@@ -10629,7 +10632,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C211" s="2">
         <v>288</v>
@@ -10641,7 +10644,7 @@
         <v>13993021</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G211" s="2">
         <v>5</v>
@@ -10667,7 +10670,7 @@
         <v>95</v>
       </c>
       <c r="AB211" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="212" spans="1:28">
@@ -10675,7 +10678,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C212" s="2">
         <v>227</v>
@@ -10687,7 +10690,7 @@
         <v>15626292</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I212" s="2">
         <v>5</v>
@@ -10708,7 +10711,7 @@
         <v>40</v>
       </c>
       <c r="AB212" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="213" spans="1:28">
@@ -10716,19 +10719,19 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C213" s="2">
         <v>634</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I213" s="2">
         <v>2</v>
@@ -10747,7 +10750,7 @@
         <v>17</v>
       </c>
       <c r="AB213" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="214" spans="1:28">
@@ -10755,19 +10758,19 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C214" s="2">
         <v>634</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I214" s="2">
         <v>2</v>
@@ -10785,7 +10788,7 @@
         <v>14</v>
       </c>
       <c r="AB214" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="215" spans="1:28">
@@ -10793,7 +10796,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C215" s="2">
         <v>604</v>
@@ -10805,7 +10808,7 @@
         <v>15781033</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G215" s="2">
         <v>3</v>
@@ -10823,7 +10826,7 @@
         <v>18</v>
       </c>
       <c r="AB215" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="216" spans="1:28">
@@ -10831,7 +10834,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C216" s="2">
         <v>604</v>
@@ -10843,7 +10846,7 @@
         <v>15781031</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G216" s="2">
         <v>3</v>
@@ -10861,7 +10864,7 @@
         <v>18</v>
       </c>
       <c r="AB216" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="217" spans="1:28">
@@ -10869,19 +10872,19 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G217" s="2">
         <v>3</v>
@@ -10899,7 +10902,7 @@
         <v>23</v>
       </c>
       <c r="AB217" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="218" spans="1:28">
@@ -10907,16 +10910,16 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C218" s="2">
         <v>636</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G218" s="2">
         <v>3</v>
@@ -10938,7 +10941,7 @@
         <v>43</v>
       </c>
       <c r="AB218" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="219" spans="1:28">
@@ -10946,19 +10949,19 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C219" s="2">
         <v>665</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I219" s="2">
         <v>1</v>
@@ -10968,7 +10971,7 @@
         <v>1</v>
       </c>
       <c r="AB219" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="220" spans="1:28">
@@ -10976,19 +10979,19 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C220" s="2">
         <v>665</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I220" s="2">
         <v>1</v>
@@ -10999,7 +11002,7 @@
         <v>1</v>
       </c>
       <c r="AB220" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="221" spans="1:28">
@@ -11007,19 +11010,19 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C221" s="2">
         <v>665</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I221" s="2">
         <v>1</v>
@@ -11030,7 +11033,7 @@
         <v>1</v>
       </c>
       <c r="AB221" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="222" spans="1:28">
@@ -11038,7 +11041,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C222" s="2">
         <v>523</v>
@@ -11050,7 +11053,7 @@
         <v>17741498</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G222" s="2">
         <v>5</v>
@@ -11077,7 +11080,7 @@
         <v>75</v>
       </c>
       <c r="AB222" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="223" spans="1:28">
@@ -11085,19 +11088,19 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C223" s="2">
         <v>247</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G223" s="2">
         <v>5</v>
@@ -11113,7 +11116,7 @@
         <v>25</v>
       </c>
       <c r="AB223" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="224" spans="1:28">
@@ -11121,16 +11124,16 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G224" s="2">
         <v>3</v>
@@ -11141,7 +11144,7 @@
         <v>3</v>
       </c>
       <c r="AB224" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="225" spans="1:28">
@@ -11149,19 +11152,19 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C225" s="2">
         <v>663</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I225" s="2">
         <v>1</v>
@@ -11171,250 +11174,437 @@
         <v>1</v>
       </c>
       <c r="AB225" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="226" spans="1:28">
-      <c r="A226" s="1"/>
-      <c r="AA226" s="2"/>
-      <c r="AB226" s="1"/>
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="AA226" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB226" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="227" spans="1:28">
-      <c r="A227" s="1"/>
-      <c r="AA227" s="2"/>
-      <c r="AB227" s="1"/>
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="AA227" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB227" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="228" spans="1:28">
-      <c r="A228" s="1"/>
-      <c r="AA228" s="2"/>
-      <c r="AB228" s="1"/>
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="AA228" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB228" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="229" spans="1:28">
-      <c r="A229" s="1"/>
-      <c r="AA229" s="2"/>
-      <c r="AB229" s="1"/>
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="AA229" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB229" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="230" spans="1:28">
-      <c r="A230" s="1"/>
-      <c r="AA230" s="2"/>
-      <c r="AB230" s="1"/>
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="AA230" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB230" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="231" spans="1:28">
-      <c r="A231" s="1"/>
-      <c r="AA231" s="2"/>
-      <c r="AB231" s="1"/>
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="AA231" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB231" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="232" spans="1:28">
-      <c r="A232" s="1"/>
-      <c r="AA232" s="2"/>
-      <c r="AB232" s="1"/>
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="AA232" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB232" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="233" spans="1:28">
-      <c r="A233" s="1"/>
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
     </row>
     <row r="234" spans="1:28">
-      <c r="A234" s="1"/>
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
     </row>
     <row r="235" spans="1:28">
-      <c r="A235" s="1"/>
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
     </row>
     <row r="236" spans="1:28">
-      <c r="A236" s="1"/>
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
     </row>
     <row r="237" spans="1:28">
-      <c r="A237" s="1"/>
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
     </row>
     <row r="238" spans="1:28">
-      <c r="A238" s="1"/>
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
     </row>
     <row r="239" spans="1:28">
-      <c r="A239" s="1"/>
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
     </row>
     <row r="240" spans="1:28">
-      <c r="A240" s="1"/>
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241" s="1"/>
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
     </row>
     <row r="242" spans="1:1">
-      <c r="A242" s="1"/>
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
     </row>
     <row r="243" spans="1:1">
-      <c r="A243" s="1"/>
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244" s="1"/>
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
     </row>
     <row r="245" spans="1:1">
-      <c r="A245" s="1"/>
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
     </row>
     <row r="246" spans="1:1">
-      <c r="A246" s="1"/>
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
     </row>
     <row r="247" spans="1:1">
-      <c r="A247" s="1"/>
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
     </row>
     <row r="248" spans="1:1">
-      <c r="A248" s="1"/>
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
     </row>
     <row r="249" spans="1:1">
-      <c r="A249" s="1"/>
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
     </row>
     <row r="250" spans="1:1">
-      <c r="A250" s="1"/>
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
     </row>
     <row r="251" spans="1:1">
-      <c r="A251" s="1"/>
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
     </row>
     <row r="252" spans="1:1">
-      <c r="A252" s="1"/>
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
     </row>
     <row r="253" spans="1:1">
-      <c r="A253" s="1"/>
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
     </row>
     <row r="255" spans="1:1">
-      <c r="A255" s="1"/>
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
     </row>
     <row r="256" spans="1:1">
-      <c r="A256" s="1"/>
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
     </row>
     <row r="257" spans="1:1">
-      <c r="A257" s="1"/>
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
     </row>
     <row r="258" spans="1:1">
-      <c r="A258" s="1"/>
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
     </row>
     <row r="259" spans="1:1">
-      <c r="A259" s="1"/>
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
     </row>
     <row r="260" spans="1:1">
-      <c r="A260" s="1"/>
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
     </row>
     <row r="261" spans="1:1">
-      <c r="A261" s="1"/>
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
     </row>
     <row r="262" spans="1:1">
-      <c r="A262" s="1"/>
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
     </row>
     <row r="263" spans="1:1">
-      <c r="A263" s="1"/>
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
     </row>
     <row r="264" spans="1:1">
-      <c r="A264" s="1"/>
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
     </row>
     <row r="265" spans="1:1">
-      <c r="A265" s="1"/>
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
     </row>
     <row r="266" spans="1:1">
-      <c r="A266" s="1"/>
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
     </row>
     <row r="267" spans="1:1">
-      <c r="A267" s="1"/>
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
     </row>
     <row r="268" spans="1:1">
-      <c r="A268" s="1"/>
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
     </row>
     <row r="269" spans="1:1">
-      <c r="A269" s="1"/>
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
     </row>
     <row r="270" spans="1:1">
-      <c r="A270" s="1"/>
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
     </row>
     <row r="271" spans="1:1">
-      <c r="A271" s="1"/>
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
     </row>
     <row r="272" spans="1:1">
-      <c r="A272" s="1"/>
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
     </row>
     <row r="273" spans="1:1">
-      <c r="A273" s="1"/>
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
     </row>
     <row r="274" spans="1:1">
-      <c r="A274" s="1"/>
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
     </row>
     <row r="275" spans="1:1">
-      <c r="A275" s="1"/>
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" s="1"/>
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
     </row>
     <row r="277" spans="1:1">
-      <c r="A277" s="1"/>
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
     </row>
     <row r="278" spans="1:1">
-      <c r="A278" s="1"/>
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
     </row>
     <row r="279" spans="1:1">
-      <c r="A279" s="1"/>
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
     </row>
     <row r="280" spans="1:1">
-      <c r="A280" s="1"/>
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
     </row>
     <row r="281" spans="1:1">
-      <c r="A281" s="1"/>
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
     </row>
     <row r="282" spans="1:1">
-      <c r="A282" s="1"/>
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
     </row>
     <row r="283" spans="1:1">
-      <c r="A283" s="1"/>
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="1"/>
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
     </row>
     <row r="285" spans="1:1">
-      <c r="A285" s="1"/>
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
     </row>
     <row r="286" spans="1:1">
-      <c r="A286" s="1"/>
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
     </row>
     <row r="287" spans="1:1">
-      <c r="A287" s="1"/>
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
     </row>
     <row r="288" spans="1:1">
-      <c r="A288" s="1"/>
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
     </row>
     <row r="289" spans="1:1">
-      <c r="A289" s="1"/>
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
     </row>
     <row r="290" spans="1:1">
-      <c r="A290" s="1"/>
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
     </row>
     <row r="291" spans="1:1">
-      <c r="A291" s="1"/>
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
     </row>
     <row r="292" spans="1:1">
-      <c r="A292" s="1"/>
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
     </row>
     <row r="293" spans="1:1">
-      <c r="A293" s="1"/>
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
     </row>
     <row r="294" spans="1:1">
-      <c r="A294" s="1"/>
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
     </row>
     <row r="295" spans="1:1">
-      <c r="A295" s="1"/>
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
     </row>
     <row r="296" spans="1:1">
-      <c r="A296" s="1"/>
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
     </row>
     <row r="297" spans="1:1">
-      <c r="A297" s="1"/>
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
     </row>
     <row r="298" spans="1:1">
-      <c r="A298" s="1"/>
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
     </row>
     <row r="299" spans="1:1">
-      <c r="A299" s="1"/>
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="1"/>
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
     </row>
     <row r="301" spans="1:1">
-      <c r="A301" s="1"/>
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AA301" xr:uid="{7366A242-D771-4522-A7C9-6FAA9267A094}">
@@ -11431,8 +11621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D98E53-4DEF-4580-9413-2831204858BD}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F28" sqref="F27:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11443,7 +11633,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -11454,10 +11644,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>2997</v>
@@ -11465,10 +11655,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2">
         <v>3064</v>
@@ -11476,10 +11666,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2">
         <v>3065</v>
@@ -11487,10 +11677,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2">
         <v>3062</v>
@@ -11498,10 +11688,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2">
         <v>3060</v>
@@ -11509,10 +11699,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2">
         <v>3059</v>
@@ -11520,10 +11710,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2">
         <v>3011</v>
@@ -11531,10 +11721,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2">
         <v>3000</v>
@@ -11542,10 +11732,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2">
         <v>2999</v>
@@ -11553,10 +11743,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2">
         <v>2998</v>
@@ -11564,10 +11754,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2">
         <v>3056</v>
@@ -11575,10 +11765,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2">
         <v>3055</v>
@@ -11586,10 +11776,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2">
         <v>3053</v>
@@ -11597,10 +11787,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2">
         <v>3054</v>
@@ -11608,10 +11798,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2">
         <v>3050</v>
@@ -11619,7 +11809,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" s="8">
         <v>10006836942</v>
@@ -11630,7 +11820,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" s="8">
         <v>10006836881</v>
@@ -11641,7 +11831,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B19" s="8">
         <v>10006836848</v>
@@ -11652,7 +11842,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B20" s="8">
         <v>10004254702</v>
@@ -11663,7 +11853,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B21" s="8">
         <v>10006000456</v>
@@ -11674,7 +11864,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B22" s="8">
         <v>10006001743</v>
@@ -11685,7 +11875,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B23" s="8">
         <v>10004963667</v>
@@ -11696,7 +11886,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="B24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C24" s="2">
         <v>3092</v>
@@ -11709,10 +11899,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFED1B6-6669-418D-935F-274B00B50F32}">
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11724,7 +11914,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
@@ -11732,17 +11922,17 @@
     </row>
     <row r="2" spans="1:2">
       <c r="B2" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -11752,42 +11942,42 @@
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -11802,22 +11992,22 @@
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -11842,17 +12032,17 @@
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="2:2">
@@ -11872,47 +12062,47 @@
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="2:2">
@@ -11927,7 +12117,7 @@
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="2:2">
@@ -11972,22 +12162,22 @@
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="2:2">
@@ -12107,7 +12297,7 @@
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="2:2">
@@ -12117,22 +12307,22 @@
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="2:2">
@@ -12177,27 +12367,27 @@
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="96" spans="2:2">
@@ -12212,12 +12402,12 @@
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="100" spans="2:2">
@@ -12232,17 +12422,17 @@
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="105" spans="2:2">
@@ -12252,52 +12442,57 @@
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -12326,10 +12521,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF03CF93-A241-4DB9-ACD8-61B0F18F4B55}">
-  <dimension ref="A1:V149"/>
+  <dimension ref="A1:V152"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="G134" sqref="G134"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12342,14 +12537,14 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="V1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -12358,7 +12553,7 @@
         <v>10008521996</v>
       </c>
       <c r="V2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -12367,7 +12562,7 @@
         <v>10008521996</v>
       </c>
       <c r="V3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -12376,7 +12571,7 @@
         <v>10008521996</v>
       </c>
       <c r="V4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -12385,7 +12580,7 @@
         <v>HV307164-XX</v>
       </c>
       <c r="V5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -12394,7 +12589,7 @@
       </c>
       <c r="F6" s="2"/>
       <c r="V6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -12403,7 +12598,7 @@
         <v>HV306453-01</v>
       </c>
       <c r="V7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -12412,7 +12607,7 @@
         <v>HV400318-XX</v>
       </c>
       <c r="V8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -12421,7 +12616,7 @@
         <v>HV307164-XX</v>
       </c>
       <c r="V9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -12430,7 +12625,7 @@
         <v>HV303895-01</v>
       </c>
       <c r="V10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -12439,7 +12634,7 @@
         <v>HV307986-XX</v>
       </c>
       <c r="V11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -12448,7 +12643,7 @@
         <v>10011984549</v>
       </c>
       <c r="V12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -12457,7 +12652,7 @@
         <v>HV311169-XX</v>
       </c>
       <c r="V13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -12466,7 +12661,7 @@
         <v>4365870010-004</v>
       </c>
       <c r="V14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -12475,7 +12670,7 @@
         <v>HV307986-XX</v>
       </c>
       <c r="V15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -12484,7 +12679,7 @@
         <v>4544520010-006</v>
       </c>
       <c r="V16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="2:22">
@@ -12493,7 +12688,7 @@
         <v>28800202</v>
       </c>
       <c r="V17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="2:22">
@@ -12502,7 +12697,7 @@
         <v>10007618049</v>
       </c>
       <c r="V18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="2:22">
@@ -12511,7 +12706,7 @@
         <v>10008511425</v>
       </c>
       <c r="V19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="2:22">
@@ -12520,7 +12715,7 @@
         <v>10008511425</v>
       </c>
       <c r="V20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="2:22">
@@ -12529,7 +12724,7 @@
         <v>10005591672</v>
       </c>
       <c r="V21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="2:22">
@@ -12538,7 +12733,7 @@
         <v>10008507813</v>
       </c>
       <c r="V22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="2:22">
@@ -12547,7 +12742,7 @@
         <v>10008507813</v>
       </c>
       <c r="V23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="2:22">
@@ -12556,7 +12751,7 @@
         <v>10008507813</v>
       </c>
       <c r="V24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="2:22">
@@ -12565,7 +12760,7 @@
         <v>HVHV307987-XX</v>
       </c>
       <c r="V25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="2:22">
@@ -12574,7 +12769,7 @@
         <v>HV307986-XX</v>
       </c>
       <c r="V26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="2:22">
@@ -12583,7 +12778,7 @@
         <v>HV307986-XX</v>
       </c>
       <c r="V27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="2:22">
@@ -12592,7 +12787,7 @@
         <v>HV307986-XX</v>
       </c>
       <c r="V28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="2:22">
@@ -12601,7 +12796,7 @@
         <v>HV307986-XX</v>
       </c>
       <c r="V29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="2:22">
@@ -12610,7 +12805,7 @@
         <v>HV307986-XX</v>
       </c>
       <c r="V30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="2:22">
@@ -12619,7 +12814,7 @@
         <v>RML-W-064709</v>
       </c>
       <c r="V31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="2:22">
@@ -12628,7 +12823,7 @@
         <v>HV311126-02</v>
       </c>
       <c r="V32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="2:22">
@@ -12637,7 +12832,7 @@
         <v>HV307986-XX</v>
       </c>
       <c r="V33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="2:22">
@@ -12646,7 +12841,7 @@
         <v>HV307164-XX</v>
       </c>
       <c r="V34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="2:22">
@@ -12655,7 +12850,7 @@
         <v>10005864826</v>
       </c>
       <c r="V35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="2:22">
@@ -12664,7 +12859,7 @@
         <v>10004229966</v>
       </c>
       <c r="V36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="2:22">
@@ -12673,7 +12868,7 @@
         <v>10008755474</v>
       </c>
       <c r="V37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="2:22">
@@ -12682,7 +12877,7 @@
         <v>10010360769</v>
       </c>
       <c r="V38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="2:22">
@@ -12691,7 +12886,7 @@
         <v>10009890643</v>
       </c>
       <c r="V39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="2:22">
@@ -12700,7 +12895,7 @@
         <v>10009855888</v>
       </c>
       <c r="V40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="2:22">
@@ -12709,7 +12904,7 @@
         <v>10004980103</v>
       </c>
       <c r="V41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="2:22">
@@ -12718,7 +12913,7 @@
         <v>10004976811</v>
       </c>
       <c r="V42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="2:22">
@@ -12727,7 +12922,7 @@
         <v>10004963667</v>
       </c>
       <c r="V43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="2:22">
@@ -12736,7 +12931,7 @@
         <v>10008507821</v>
       </c>
       <c r="V44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="2:22">
@@ -12745,7 +12940,7 @@
         <v>10008507821</v>
       </c>
       <c r="V45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="2:22">
@@ -12754,7 +12949,7 @@
         <v>10008514727</v>
       </c>
       <c r="V46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="2:22">
@@ -12763,7 +12958,7 @@
         <v>10006001743</v>
       </c>
       <c r="V47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="2:22">
@@ -12772,7 +12967,7 @@
         <v>10006000456</v>
       </c>
       <c r="V48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="2:22">
@@ -12781,7 +12976,7 @@
         <v>10004254702</v>
       </c>
       <c r="V49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="2:22">
@@ -12790,7 +12985,7 @@
         <v>10003058629</v>
       </c>
       <c r="V50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="2:22">
@@ -12799,7 +12994,7 @@
         <v>10005184725</v>
       </c>
       <c r="V51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="2:22">
@@ -12808,7 +13003,7 @@
         <v>10005675337</v>
       </c>
       <c r="V52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="2:22">
@@ -12817,7 +13012,7 @@
         <v>10005159680</v>
       </c>
       <c r="V53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="2:22">
@@ -12826,7 +13021,7 @@
         <v>10006836848</v>
       </c>
       <c r="V54" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="2:22">
@@ -12835,7 +13030,7 @@
         <v>10006836881</v>
       </c>
       <c r="V55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="2:22">
@@ -12844,7 +13039,7 @@
         <v>10006504723</v>
       </c>
       <c r="V56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="2:22">
@@ -12870,7 +13065,7 @@
     </row>
     <row r="61" spans="2:22">
       <c r="B61" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="2:22">
@@ -12880,12 +13075,12 @@
     </row>
     <row r="63" spans="2:22">
       <c r="B63" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="2:22">
       <c r="B64" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="2:2">
@@ -13010,12 +13205,12 @@
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" spans="2:2">
@@ -13095,17 +13290,17 @@
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="109" spans="2:2">
@@ -13305,12 +13500,27 @@
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="10">
         <v>10008511251</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -13354,7 +13564,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
@@ -13362,18 +13572,18 @@
     </row>
     <row r="2" spans="1:10">
       <c r="B2" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13381,71 +13591,71 @@
         <v>10011984549</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -13453,7 +13663,7 @@
         <v>10002967709</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -13496,7 +13706,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
@@ -13504,7 +13714,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC57D126-05C6-455C-8505-692D1A7227F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ED9FA0-5C8F-4E29-8A3E-0F9CC790C72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCESSOS DE FABRICAÇÃO" sheetId="1" r:id="rId1"/>
     <sheet name="CÓDIGOS ORÇAMENTOS" sheetId="2" r:id="rId2"/>
-    <sheet name="JULHO" sheetId="5" r:id="rId3"/>
-    <sheet name="AGOSTO" sheetId="3" r:id="rId4"/>
-    <sheet name="SETEMBRO" sheetId="4" r:id="rId5"/>
+    <sheet name="JUNHO" sheetId="7" r:id="rId3"/>
+    <sheet name="JULHO" sheetId="5" r:id="rId4"/>
+    <sheet name="AGOSTO" sheetId="3" r:id="rId5"/>
     <sheet name="NOVEMBRO" sheetId="6" r:id="rId6"/>
+    <sheet name="SETEMBRO" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PROCESSOS DE FABRICAÇÃO'!$A$1:$AA$301</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="370">
   <si>
     <t>ORCAMENTO</t>
   </si>
@@ -764,9 +765,6 @@
   </si>
   <si>
     <t>10009890643</t>
-  </si>
-  <si>
-    <t>10009855888</t>
   </si>
   <si>
     <t>10004980103</t>
@@ -943,6 +941,210 @@
   </si>
   <si>
     <t>FRESADORAS</t>
+  </si>
+  <si>
+    <t>4412570060-003</t>
+  </si>
+  <si>
+    <t>N2-0200021</t>
+  </si>
+  <si>
+    <t>N2-0200023</t>
+  </si>
+  <si>
+    <t>C-67850</t>
+  </si>
+  <si>
+    <t>HV307986-XX VAR.04</t>
+  </si>
+  <si>
+    <t>10002967709 / 10002967708</t>
+  </si>
+  <si>
+    <t>D-67371</t>
+  </si>
+  <si>
+    <t>HV309108-02</t>
+  </si>
+  <si>
+    <t>HV310107-05</t>
+  </si>
+  <si>
+    <t>HV309210-XX VAR.02</t>
+  </si>
+  <si>
+    <t>HV307986-XX VAR.05</t>
+  </si>
+  <si>
+    <t>HV309210-XX VAR.01</t>
+  </si>
+  <si>
+    <t>4412570060-004</t>
+  </si>
+  <si>
+    <t>4412350010-002</t>
+  </si>
+  <si>
+    <t>4380270010-005</t>
+  </si>
+  <si>
+    <t>4380270010-004</t>
+  </si>
+  <si>
+    <t>4353920010-002</t>
+  </si>
+  <si>
+    <t>C-65475</t>
+  </si>
+  <si>
+    <t>TES_RECUNIT_HOLDER_7 (10_</t>
+  </si>
+  <si>
+    <t>TES_RECUNIT_HOLDER_7(10_R</t>
+  </si>
+  <si>
+    <t>TES_RECDET_HOLDER_39</t>
+  </si>
+  <si>
+    <t>TES_RECDET_HOLDER_29(L)</t>
+  </si>
+  <si>
+    <t>TES_RECDET_HOLDER_29(R)</t>
+  </si>
+  <si>
+    <t>TES_RECDET_PLATE_11</t>
+  </si>
+  <si>
+    <t>TES_RECDET_PLATE_12</t>
+  </si>
+  <si>
+    <t>TES_RECDET_HOLDER_28(10)</t>
+  </si>
+  <si>
+    <t>3068840030-006</t>
+  </si>
+  <si>
+    <t>HV304482-02</t>
+  </si>
+  <si>
+    <t>TES_RECDET_CHANNEL_7</t>
+  </si>
+  <si>
+    <t>TES_RECDET_HOLDER_42</t>
+  </si>
+  <si>
+    <t>TES_RECDET_HOLDER_44 (*67</t>
+  </si>
+  <si>
+    <t>TES_RECDERT_HOLDER_44 (91</t>
+  </si>
+  <si>
+    <t>TES_RECDER_HOLDER_45</t>
+  </si>
+  <si>
+    <t>TES_RECDET_HOLDER_46</t>
+  </si>
+  <si>
+    <t>TES_RECDET_HOLDER_47</t>
+  </si>
+  <si>
+    <t>4439010010-002</t>
+  </si>
+  <si>
+    <t>HV305432-08</t>
+  </si>
+  <si>
+    <t>HV311115-05</t>
+  </si>
+  <si>
+    <t>TES_RECDET_HOLDER_54</t>
+  </si>
+  <si>
+    <t>TES_RECDET_HOLDER_69</t>
+  </si>
+  <si>
+    <t>TES_RECDET_PLATE_SM5-1</t>
+  </si>
+  <si>
+    <t>TES_RECDET_PLATE_OCM35</t>
+  </si>
+  <si>
+    <t>4397290010-002</t>
+  </si>
+  <si>
+    <t>N2-0200022-I</t>
+  </si>
+  <si>
+    <t>N2-0200019-B</t>
+  </si>
+  <si>
+    <t>PM-PRT2691.1</t>
+  </si>
+  <si>
+    <t>PM-PRT2768.1</t>
+  </si>
+  <si>
+    <t>PM-PRT2769.1</t>
+  </si>
+  <si>
+    <t>PM-PRT2885.1</t>
+  </si>
+  <si>
+    <t>PM-PRT2886.1</t>
+  </si>
+  <si>
+    <t>FI-DG_PACK_HOLDER_3(60)</t>
+  </si>
+  <si>
+    <t>FI-DG_PACK_METALCOVER_1(1</t>
+  </si>
+  <si>
+    <t>FI-DG_PACK_METALSIDE_1(16</t>
+  </si>
+  <si>
+    <t>FI-DG_PACK_METALSIDE_2(10</t>
+  </si>
+  <si>
+    <t>FI-DG_PACK_HOLDER_2(198-1</t>
+  </si>
+  <si>
+    <t>FI-DG_PACK_METALSIDE_2(16</t>
+  </si>
+  <si>
+    <t>FI-DG_PACK_PLATE_2(8_1</t>
+  </si>
+  <si>
+    <t>4412350020-004</t>
+  </si>
+  <si>
+    <t>HV311551-01</t>
+  </si>
+  <si>
+    <t>4412350030-003</t>
+  </si>
+  <si>
+    <t>N4-2830035 POS.3</t>
+  </si>
+  <si>
+    <t>PIS003</t>
+  </si>
+  <si>
+    <t>3884020010-106</t>
+  </si>
+  <si>
+    <t>N4-0200341</t>
+  </si>
+  <si>
+    <t>N2-0200020</t>
+  </si>
+  <si>
+    <t>N2-0200025</t>
+  </si>
+  <si>
+    <t>N2-0200018</t>
+  </si>
+  <si>
+    <t>3329360020-002</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1292,7 @@
       <name val="Var(--colab-code-font-family)"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1288,6 +1490,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -1464,7 +1672,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1506,6 +1714,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1552,7 +1763,28 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1896,9 +2128,9 @@
   </sheetPr>
   <dimension ref="A1:AB301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C175" sqref="C175"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z88" sqref="Z88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1970,7 +2202,7 @@
         <v>10</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>11</v>
@@ -6261,6 +6493,7 @@
       <c r="N79" s="2">
         <v>3</v>
       </c>
+      <c r="O79" s="2"/>
       <c r="Q79" s="2">
         <v>3</v>
       </c>
@@ -6300,6 +6533,7 @@
       <c r="N80" s="2">
         <v>5</v>
       </c>
+      <c r="O80" s="2"/>
       <c r="P80" s="2">
         <v>10</v>
       </c>
@@ -6345,6 +6579,8 @@
       <c r="M81" s="2">
         <v>10</v>
       </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
       <c r="R81" s="2">
         <v>2</v>
       </c>
@@ -6384,6 +6620,8 @@
       <c r="K82" s="2">
         <v>10</v>
       </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
       <c r="P82" s="2">
         <v>30</v>
       </c>
@@ -6427,6 +6665,8 @@
       <c r="M83" s="2">
         <v>20</v>
       </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
       <c r="P83" s="2"/>
       <c r="U83" s="2">
         <v>20</v>
@@ -6468,6 +6708,7 @@
         <v>60</v>
       </c>
       <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
       <c r="U84" s="2">
         <v>40</v>
       </c>
@@ -6510,6 +6751,8 @@
       <c r="M85" s="2">
         <v>60</v>
       </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
       <c r="U85" s="2">
         <v>60</v>
       </c>
@@ -6552,6 +6795,7 @@
       <c r="N86" s="2">
         <v>5</v>
       </c>
+      <c r="O86" s="2"/>
       <c r="Q86" s="2">
         <v>5</v>
       </c>
@@ -6591,6 +6835,7 @@
       <c r="N87" s="2">
         <v>5</v>
       </c>
+      <c r="O87" s="2"/>
       <c r="Q87" s="2">
         <v>10</v>
       </c>
@@ -6624,10 +6869,27 @@
       <c r="F88" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z88" s="2">
-        <v>30</v>
-      </c>
-      <c r="AA88" s="2">
+      <c r="G88" s="2">
+        <v>3</v>
+      </c>
+      <c r="I88" s="2">
+        <v>2</v>
+      </c>
+      <c r="N88" s="2">
+        <v>5</v>
+      </c>
+      <c r="O88" s="2"/>
+      <c r="Q88" s="2">
+        <v>10</v>
+      </c>
+      <c r="U88" s="2">
+        <v>5</v>
+      </c>
+      <c r="V88" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z88" s="2"/>
+      <c r="AA88" s="16">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
@@ -6654,13 +6916,29 @@
       <c r="F89" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="G89" s="2">
+        <v>2</v>
+      </c>
+      <c r="I89" s="1">
+        <v>3</v>
+      </c>
+      <c r="L89" s="1">
+        <v>10</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="U89" s="2">
+        <v>10</v>
+      </c>
+      <c r="V89" s="2">
+        <v>5</v>
+      </c>
       <c r="Y89" s="2"/>
-      <c r="Z89" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA89" s="2">
+      <c r="Z89" s="2"/>
+      <c r="AA89" s="16">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AB89" s="1" t="s">
         <v>22</v>
@@ -6688,15 +6966,17 @@
       <c r="I90" s="2">
         <v>1</v>
       </c>
+      <c r="N90" s="2"/>
       <c r="O90" s="2">
         <v>1</v>
       </c>
+      <c r="Q90" s="2"/>
       <c r="V90" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA90" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA90" s="16">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB90" s="1" t="s">
         <v>22</v>
@@ -6721,12 +7001,22 @@
       <c r="F91" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z91" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA91" s="2">
+      <c r="G91" s="2">
+        <v>5</v>
+      </c>
+      <c r="M91">
+        <v>25</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="V91" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z91" s="2"/>
+      <c r="AA91" s="16">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AB91" s="1" t="s">
         <v>22</v>
@@ -6751,12 +7041,22 @@
       <c r="F92" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z92" s="2">
-        <v>60</v>
-      </c>
-      <c r="AA92" s="2">
+      <c r="G92" s="2">
+        <v>5</v>
+      </c>
+      <c r="M92" s="2">
+        <v>45</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="Q92" s="2"/>
+      <c r="V92" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z92" s="2"/>
+      <c r="AA92" s="16">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB92" s="1" t="s">
         <v>22</v>
@@ -6772,8 +7072,8 @@
       <c r="C93" s="2">
         <v>209</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>245</v>
+      <c r="D93" s="2">
+        <v>10009855888</v>
       </c>
       <c r="E93" s="2">
         <v>16727617</v>
@@ -6781,12 +7081,27 @@
       <c r="F93" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z93" s="2">
-        <v>25</v>
-      </c>
-      <c r="AA93" s="2">
+      <c r="G93" s="2">
+        <v>3</v>
+      </c>
+      <c r="I93" s="2">
+        <v>2</v>
+      </c>
+      <c r="L93" s="2">
+        <v>5</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="Q93" s="2">
+        <v>5</v>
+      </c>
+      <c r="V93" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z93" s="2"/>
+      <c r="AA93" s="16">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AB93" s="1" t="s">
         <v>22</v>
@@ -6803,7 +7118,7 @@
         <v>203</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E94" s="2">
         <v>14036861</v>
@@ -6811,10 +7126,22 @@
       <c r="F94" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z94" s="2">
-        <v>30</v>
-      </c>
-      <c r="AA94" s="2">
+      <c r="G94" s="2">
+        <v>5</v>
+      </c>
+      <c r="M94" s="2">
+        <v>15</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="Q94" s="2">
+        <v>5</v>
+      </c>
+      <c r="V94" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z94" s="2"/>
+      <c r="AA94" s="16">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
@@ -6841,12 +7168,27 @@
       <c r="F95" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z95" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA95" s="2">
+      <c r="G95" s="2">
+        <v>5</v>
+      </c>
+      <c r="K95" s="2">
+        <v>10</v>
+      </c>
+      <c r="M95" s="2">
+        <v>30</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="U95" s="2">
+        <v>15</v>
+      </c>
+      <c r="V95" s="2">
+        <v>10</v>
+      </c>
+      <c r="Z95" s="2"/>
+      <c r="AA95" s="16">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB95" s="1" t="s">
         <v>22</v>
@@ -6863,7 +7205,7 @@
         <v>203</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E96" s="2">
         <v>14023910</v>
@@ -6871,12 +7213,27 @@
       <c r="F96" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z96" s="2">
-        <v>105</v>
-      </c>
-      <c r="AA96" s="2">
+      <c r="G96" s="2">
+        <v>10</v>
+      </c>
+      <c r="M96" s="2">
+        <v>30</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="U96" s="2">
+        <v>30</v>
+      </c>
+      <c r="V96" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y96" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z96" s="2"/>
+      <c r="AA96" s="16">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="AB96" s="1" t="s">
         <v>22</v>
@@ -6893,7 +7250,7 @@
         <v>159</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E97" s="2">
         <v>15967965</v>
@@ -6901,10 +7258,27 @@
       <c r="F97" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z97" s="2">
-        <v>55</v>
-      </c>
-      <c r="AA97" s="2">
+      <c r="G97" s="2">
+        <v>5</v>
+      </c>
+      <c r="N97" s="2">
+        <v>5</v>
+      </c>
+      <c r="O97" s="2"/>
+      <c r="P97" s="1">
+        <v>15</v>
+      </c>
+      <c r="U97" s="1">
+        <v>15</v>
+      </c>
+      <c r="V97" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y97" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z97" s="2"/>
+      <c r="AA97" s="16">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
@@ -6923,7 +7297,7 @@
         <v>216</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E98" s="2">
         <v>15971997</v>
@@ -6931,10 +7305,27 @@
       <c r="F98" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z98" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA98" s="2">
+      <c r="G98" s="2">
+        <v>5</v>
+      </c>
+      <c r="K98" s="2">
+        <v>5</v>
+      </c>
+      <c r="M98" s="2">
+        <v>10</v>
+      </c>
+      <c r="N98" s="2">
+        <v>5</v>
+      </c>
+      <c r="O98" s="2"/>
+      <c r="U98" s="1">
+        <v>15</v>
+      </c>
+      <c r="V98" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="16">
         <f t="shared" ref="AA98:AA129" si="3">SUM(G98:Z98)</f>
         <v>45</v>
       </c>
@@ -6953,7 +7344,7 @@
         <v>479</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E99" s="2">
         <v>11521021</v>
@@ -6961,12 +7352,25 @@
       <c r="F99" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z99" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA99" s="2">
+      <c r="G99" s="2">
+        <v>5</v>
+      </c>
+      <c r="N99" s="2">
+        <v>20</v>
+      </c>
+      <c r="O99" s="2">
+        <v>15</v>
+      </c>
+      <c r="U99" s="1">
+        <v>15</v>
+      </c>
+      <c r="V99" s="2">
+        <v>10</v>
+      </c>
+      <c r="Z99" s="2"/>
+      <c r="AA99" s="16">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB99" s="1" t="s">
         <v>22</v>
@@ -6983,7 +7387,7 @@
         <v>189</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E100" s="2">
         <v>11469602</v>
@@ -6991,10 +7395,19 @@
       <c r="F100" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z100" s="2">
-        <v>15</v>
-      </c>
-      <c r="AA100" s="2">
+      <c r="G100" s="2">
+        <v>2</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2">
+        <v>10</v>
+      </c>
+      <c r="O100" s="2"/>
+      <c r="V100" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z100" s="2"/>
+      <c r="AA100" s="16">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
@@ -7021,10 +7434,25 @@
       <c r="F101" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z101" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA101" s="2">
+      <c r="G101" s="2">
+        <v>5</v>
+      </c>
+      <c r="M101" s="2">
+        <v>15</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="U101" s="1">
+        <v>10</v>
+      </c>
+      <c r="V101" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y101" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z101" s="2"/>
+      <c r="AA101" s="16">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
@@ -7043,7 +7471,7 @@
         <v>189</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E102" s="2">
         <v>14391192</v>
@@ -7051,12 +7479,21 @@
       <c r="F102" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z102" s="2">
-        <v>7</v>
-      </c>
-      <c r="AA102" s="2">
+      <c r="I102" s="2">
+        <v>1</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="Q102" s="2">
+        <v>2</v>
+      </c>
+      <c r="V102" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z102" s="2"/>
+      <c r="AA102" s="16">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB102" s="1" t="s">
         <v>22</v>
@@ -7073,7 +7510,7 @@
         <v>189</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E103" s="2">
         <v>14154480</v>
@@ -7081,10 +7518,24 @@
       <c r="F103" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z103" s="2">
-        <v>30</v>
-      </c>
-      <c r="AA103" s="2">
+      <c r="G103" s="2">
+        <v>5</v>
+      </c>
+      <c r="M103" s="2">
+        <v>10</v>
+      </c>
+      <c r="N103" s="2">
+        <v>5</v>
+      </c>
+      <c r="O103" s="2"/>
+      <c r="U103" s="1">
+        <v>5</v>
+      </c>
+      <c r="V103" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z103" s="2"/>
+      <c r="AA103" s="16">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -7103,7 +7554,7 @@
         <v>133</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E104" s="2">
         <v>11468826</v>
@@ -7111,10 +7562,22 @@
       <c r="F104" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z104" s="2">
-        <v>15</v>
-      </c>
-      <c r="AA104" s="2">
+      <c r="G104" s="2">
+        <v>3</v>
+      </c>
+      <c r="I104" s="2">
+        <v>5</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="U104" s="1">
+        <v>5</v>
+      </c>
+      <c r="V104" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z104" s="2"/>
+      <c r="AA104" s="16">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
@@ -7141,10 +7604,22 @@
       <c r="F105" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z105" s="2">
-        <v>15</v>
-      </c>
-      <c r="AA105" s="2">
+      <c r="G105" s="2">
+        <v>3</v>
+      </c>
+      <c r="I105" s="2">
+        <v>5</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="U105" s="1">
+        <v>5</v>
+      </c>
+      <c r="V105" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z105" s="2"/>
+      <c r="AA105" s="16">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
@@ -7163,7 +7638,7 @@
         <v>189</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E106" s="2">
         <v>11468114</v>
@@ -7171,10 +7646,24 @@
       <c r="F106" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z106" s="2">
-        <v>15</v>
-      </c>
-      <c r="AA106" s="2">
+      <c r="G106" s="2">
+        <v>2</v>
+      </c>
+      <c r="H106" s="2">
+        <v>3</v>
+      </c>
+      <c r="N106" s="2">
+        <v>3</v>
+      </c>
+      <c r="O106" s="2"/>
+      <c r="U106" s="1">
+        <v>5</v>
+      </c>
+      <c r="V106" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z106" s="2"/>
+      <c r="AA106" s="16">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
@@ -7193,7 +7682,7 @@
         <v>94</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E107" s="2">
         <v>11467111</v>
@@ -7201,12 +7690,26 @@
       <c r="F107" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z107" s="2">
-        <v>30</v>
-      </c>
-      <c r="AA107" s="2">
+      <c r="G107" s="2">
+        <v>3</v>
+      </c>
+      <c r="L107" s="2">
+        <v>5</v>
+      </c>
+      <c r="N107" s="2">
+        <v>5</v>
+      </c>
+      <c r="O107" s="2"/>
+      <c r="U107" s="1">
+        <v>10</v>
+      </c>
+      <c r="V107" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z107" s="2"/>
+      <c r="AA107" s="16">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB107" s="1" t="s">
         <v>22</v>
@@ -7231,12 +7734,21 @@
       <c r="F108" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z108" s="2">
-        <v>120</v>
-      </c>
-      <c r="AA108" s="2">
+      <c r="G108" s="2">
+        <v>5</v>
+      </c>
+      <c r="M108" s="2">
+        <v>30</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="V108" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z108" s="2"/>
+      <c r="AA108" s="16">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="AB108" s="1" t="s">
         <v>22</v>
@@ -7256,17 +7768,32 @@
         <v>222</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z109" s="2">
-        <v>60</v>
-      </c>
-      <c r="AA109" s="2">
+      <c r="H109" s="2">
+        <v>5</v>
+      </c>
+      <c r="K109" s="2">
+        <v>20</v>
+      </c>
+      <c r="M109" s="2">
+        <v>20</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="V109" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y109" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z109" s="2"/>
+      <c r="AA109" s="16">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB109" s="1" t="s">
         <v>22</v>
@@ -7286,15 +7813,25 @@
         <v>28760407</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z110" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA110" s="2">
+      <c r="G110" s="2">
+        <v>1</v>
+      </c>
+      <c r="N110" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q110" s="1">
+        <v>1</v>
+      </c>
+      <c r="V110" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z110" s="2"/>
+      <c r="AA110" s="16">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
@@ -7321,12 +7858,28 @@
       <c r="F111" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z111" s="2">
-        <v>60</v>
-      </c>
-      <c r="AA111" s="2">
+      <c r="G111" s="2">
+        <v>5</v>
+      </c>
+      <c r="I111" s="2">
+        <v>5</v>
+      </c>
+      <c r="K111" s="2">
+        <v>10</v>
+      </c>
+      <c r="U111" s="1">
+        <v>20</v>
+      </c>
+      <c r="V111" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y111" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z111" s="2"/>
+      <c r="AA111" s="16">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB111" s="1" t="s">
         <v>22</v>
@@ -7351,12 +7904,31 @@
       <c r="F112" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z112" s="2">
-        <v>30</v>
-      </c>
-      <c r="AA112" s="2">
+      <c r="G112" s="2">
+        <v>5</v>
+      </c>
+      <c r="H112" s="2">
+        <v>3</v>
+      </c>
+      <c r="K112" s="2">
+        <v>5</v>
+      </c>
+      <c r="N112" s="1">
+        <v>5</v>
+      </c>
+      <c r="O112" s="1">
+        <v>3</v>
+      </c>
+      <c r="U112" s="1">
+        <v>10</v>
+      </c>
+      <c r="V112" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z112" s="2"/>
+      <c r="AA112" s="16">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AB112" s="1" t="s">
         <v>22</v>
@@ -7381,12 +7953,28 @@
       <c r="F113" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z113" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA113" s="2">
+      <c r="G113" s="2">
+        <v>5</v>
+      </c>
+      <c r="I113" s="2">
+        <v>5</v>
+      </c>
+      <c r="K113" s="2">
+        <v>10</v>
+      </c>
+      <c r="U113" s="1">
+        <v>10</v>
+      </c>
+      <c r="V113" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y113" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z113" s="2"/>
+      <c r="AA113" s="16">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AB113" s="1" t="s">
         <v>22</v>
@@ -7411,10 +7999,23 @@
       <c r="F114" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z114" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA114" s="2">
+      <c r="G114" s="2">
+        <v>3</v>
+      </c>
+      <c r="K114" s="2">
+        <v>3</v>
+      </c>
+      <c r="N114" s="1">
+        <v>4</v>
+      </c>
+      <c r="U114" s="1">
+        <v>5</v>
+      </c>
+      <c r="V114" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z114" s="2"/>
+      <c r="AA114" s="16">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -7441,10 +8042,20 @@
       <c r="F115" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z115" s="2">
-        <v>10</v>
-      </c>
-      <c r="AA115" s="2">
+      <c r="I115" s="2">
+        <v>2</v>
+      </c>
+      <c r="K115" s="2">
+        <v>3</v>
+      </c>
+      <c r="N115" s="1">
+        <v>3</v>
+      </c>
+      <c r="V115" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z115" s="2"/>
+      <c r="AA115" s="16">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -7471,12 +8082,20 @@
       <c r="F116" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z116" s="2">
+      <c r="G116" s="2">
+        <v>1</v>
+      </c>
+      <c r="M116" s="1">
         <v>3</v>
       </c>
-      <c r="AA116" s="2">
+      <c r="U116" s="1"/>
+      <c r="V116" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z116" s="2"/>
+      <c r="AA116" s="16">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB116" s="1" t="s">
         <v>22</v>
@@ -7501,12 +8120,23 @@
       <c r="F117" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z117" s="2">
-        <v>15</v>
-      </c>
-      <c r="AA117" s="2">
+      <c r="I117" s="1">
+        <v>3</v>
+      </c>
+      <c r="N117" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q117" s="1">
+        <v>3</v>
+      </c>
+      <c r="U117" s="1"/>
+      <c r="V117" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z117" s="2"/>
+      <c r="AA117" s="16">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB117" s="1" t="s">
         <v>22</v>
@@ -7531,12 +8161,23 @@
       <c r="F118" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z118" s="2">
-        <v>12</v>
-      </c>
-      <c r="AA118" s="2">
+      <c r="G118" s="2">
+        <v>2</v>
+      </c>
+      <c r="K118" s="2">
+        <v>3</v>
+      </c>
+      <c r="O118" s="1">
+        <v>3</v>
+      </c>
+      <c r="U118" s="1"/>
+      <c r="V118" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z118" s="2"/>
+      <c r="AA118" s="16">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB118" s="1" t="s">
         <v>22</v>
@@ -7561,12 +8202,28 @@
       <c r="F119" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z119" s="2">
-        <v>60</v>
-      </c>
-      <c r="AA119" s="2">
+      <c r="G119" s="2">
+        <v>3</v>
+      </c>
+      <c r="H119" s="2">
+        <v>3</v>
+      </c>
+      <c r="K119" s="2">
+        <v>20</v>
+      </c>
+      <c r="U119" s="1">
+        <v>15</v>
+      </c>
+      <c r="V119" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y119" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z119" s="2"/>
+      <c r="AA119" s="16">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AB119" s="1" t="s">
         <v>22</v>
@@ -7591,12 +8248,28 @@
       <c r="F120" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z120" s="2">
-        <v>30</v>
-      </c>
-      <c r="AA120" s="2">
+      <c r="G120" s="2">
+        <v>3</v>
+      </c>
+      <c r="H120" s="2">
+        <v>2</v>
+      </c>
+      <c r="O120" s="1">
+        <v>3</v>
+      </c>
+      <c r="U120" s="1">
+        <v>10</v>
+      </c>
+      <c r="V120" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y120" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z120" s="2"/>
+      <c r="AA120" s="16">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AB120" s="1" t="s">
         <v>22</v>
@@ -7621,12 +8294,19 @@
       <c r="F121" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z121" s="2">
-        <v>30</v>
-      </c>
-      <c r="AA121" s="2">
+      <c r="I121" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q121" s="1">
+        <v>10</v>
+      </c>
+      <c r="V121" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z121" s="2"/>
+      <c r="AA121" s="16">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AB121" s="1" t="s">
         <v>22</v>
@@ -7651,10 +8331,20 @@
       <c r="F122" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z122" s="2">
-        <v>10</v>
-      </c>
-      <c r="AA122" s="2">
+      <c r="G122" s="2">
+        <v>2</v>
+      </c>
+      <c r="N122" s="1">
+        <v>3</v>
+      </c>
+      <c r="U122" s="1">
+        <v>3</v>
+      </c>
+      <c r="V122" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z122" s="2"/>
+      <c r="AA122" s="16">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -7681,10 +8371,23 @@
       <c r="F123" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z123" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA123" s="2">
+      <c r="G123" s="2">
+        <v>3</v>
+      </c>
+      <c r="K123" s="2">
+        <v>5</v>
+      </c>
+      <c r="N123" s="1">
+        <v>5</v>
+      </c>
+      <c r="U123" s="1">
+        <v>5</v>
+      </c>
+      <c r="V123" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z123" s="2"/>
+      <c r="AA123" s="16">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -7711,12 +8414,22 @@
       <c r="F124" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z124" s="2">
-        <v>9</v>
-      </c>
-      <c r="AA124" s="2">
+      <c r="G124" s="2">
+        <v>2</v>
+      </c>
+      <c r="M124" s="1">
+        <v>5</v>
+      </c>
+      <c r="R124" s="1">
+        <v>2</v>
+      </c>
+      <c r="V124" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z124" s="2"/>
+      <c r="AA124" s="16">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB124" s="1" t="s">
         <v>22</v>
@@ -7741,10 +8454,20 @@
       <c r="F125" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z125" s="2">
-        <v>7</v>
-      </c>
-      <c r="AA125" s="2">
+      <c r="G125" s="2">
+        <v>1</v>
+      </c>
+      <c r="N125" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q125" s="1">
+        <v>1</v>
+      </c>
+      <c r="V125" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z125" s="2"/>
+      <c r="AA125" s="16">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -7766,16 +8489,26 @@
         <v>10004976011</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z126" s="2">
-        <v>8</v>
-      </c>
-      <c r="AA126" s="2">
-        <f t="shared" si="3"/>
+      <c r="G126" s="2">
+        <v>2</v>
+      </c>
+      <c r="K126" s="1">
+        <v>2</v>
+      </c>
+      <c r="N126" s="1">
+        <v>2</v>
+      </c>
+      <c r="V126" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z126" s="2"/>
+      <c r="AA126" s="16">
+        <f>SUM(G126:Z126)</f>
         <v>8</v>
       </c>
       <c r="AB126" s="1" t="s">
@@ -7801,10 +8534,27 @@
       <c r="F127" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z127" s="2">
-        <v>30</v>
-      </c>
-      <c r="AA127" s="2">
+      <c r="H127" s="2">
+        <v>5</v>
+      </c>
+      <c r="N127" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q127" s="1">
+        <v>5</v>
+      </c>
+      <c r="R127" s="1"/>
+      <c r="U127" s="1">
+        <v>10</v>
+      </c>
+      <c r="V127" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y127" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z127" s="2"/>
+      <c r="AA127" s="16">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -7831,12 +8581,26 @@
       <c r="F128" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z128" s="2">
-        <v>60</v>
-      </c>
-      <c r="AA128" s="2">
+      <c r="H128" s="2"/>
+      <c r="I128" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q128" s="1">
+        <v>10</v>
+      </c>
+      <c r="R128" s="1"/>
+      <c r="S128" s="1"/>
+      <c r="T128" s="1"/>
+      <c r="U128" s="1">
+        <v>10</v>
+      </c>
+      <c r="V128" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z128" s="2"/>
+      <c r="AA128" s="16">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="AB128" s="1" t="s">
         <v>22</v>
@@ -7861,10 +8625,26 @@
       <c r="F129" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z129" s="2">
-        <v>15</v>
-      </c>
-      <c r="AA129" s="2">
+      <c r="G129" s="2">
+        <v>2</v>
+      </c>
+      <c r="H129" s="2">
+        <v>3</v>
+      </c>
+      <c r="K129" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q129" s="1">
+        <v>2</v>
+      </c>
+      <c r="U129" s="1">
+        <v>3</v>
+      </c>
+      <c r="V129" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z129" s="2"/>
+      <c r="AA129" s="16">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
@@ -7891,10 +8671,26 @@
       <c r="F130" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z130" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA130" s="2">
+      <c r="G130" s="2">
+        <v>2</v>
+      </c>
+      <c r="K130" s="1">
+        <v>3</v>
+      </c>
+      <c r="M130" s="1">
+        <v>15</v>
+      </c>
+      <c r="U130" s="1">
+        <v>10</v>
+      </c>
+      <c r="V130" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y130" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z130" s="2"/>
+      <c r="AA130" s="16">
         <f t="shared" ref="AA130:AA161" si="4">SUM(G130:Z130)</f>
         <v>40</v>
       </c>
@@ -7921,10 +8717,27 @@
       <c r="F131" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z131" s="2">
-        <v>30</v>
-      </c>
-      <c r="AA131" s="2">
+      <c r="G131" s="2">
+        <v>2</v>
+      </c>
+      <c r="H131" s="2">
+        <v>3</v>
+      </c>
+      <c r="K131" s="1">
+        <v>5</v>
+      </c>
+      <c r="N131" s="1">
+        <v>5</v>
+      </c>
+      <c r="R131" s="1"/>
+      <c r="U131" s="1">
+        <v>10</v>
+      </c>
+      <c r="V131" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z131" s="2"/>
+      <c r="AA131" s="16">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
@@ -7943,18 +8756,34 @@
         <v>189</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z132" s="2">
-        <v>30</v>
-      </c>
-      <c r="AA132" s="2">
+      <c r="G132" s="2">
+        <v>2</v>
+      </c>
+      <c r="K132" s="1">
+        <v>5</v>
+      </c>
+      <c r="M132" s="1">
+        <v>10</v>
+      </c>
+      <c r="N132" s="1">
+        <v>5</v>
+      </c>
+      <c r="U132" s="1">
+        <v>5</v>
+      </c>
+      <c r="V132" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z132" s="2"/>
+      <c r="AA132" s="16">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
@@ -7973,18 +8802,25 @@
         <v>660</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z133" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA133" s="2">
+      <c r="G133" s="2">
+        <v>1</v>
+      </c>
+      <c r="N133" s="1">
+        <v>3</v>
+      </c>
+      <c r="V133" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z133" s="2"/>
+      <c r="AA133" s="16">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -8041,12 +8877,28 @@
       <c r="F135" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z135" s="2">
-        <v>60</v>
-      </c>
-      <c r="AA135" s="2">
+      <c r="G135" s="2">
+        <v>5</v>
+      </c>
+      <c r="M135" s="1">
+        <v>10</v>
+      </c>
+      <c r="N135" s="1">
+        <v>10</v>
+      </c>
+      <c r="O135" s="1">
+        <v>5</v>
+      </c>
+      <c r="U135" s="1">
+        <v>15</v>
+      </c>
+      <c r="V135" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z135" s="2"/>
+      <c r="AA135" s="16">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB135" s="1" t="s">
         <v>22</v>
@@ -8071,12 +8923,28 @@
       <c r="F136" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z136" s="2">
-        <v>60</v>
-      </c>
-      <c r="AA136" s="2">
+      <c r="G136" s="2">
+        <v>5</v>
+      </c>
+      <c r="M136" s="1">
+        <v>10</v>
+      </c>
+      <c r="N136" s="1">
+        <v>10</v>
+      </c>
+      <c r="O136" s="1">
+        <v>5</v>
+      </c>
+      <c r="U136" s="1">
+        <v>15</v>
+      </c>
+      <c r="V136" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z136" s="2"/>
+      <c r="AA136" s="16">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB136" s="1" t="s">
         <v>22</v>
@@ -8101,12 +8969,28 @@
       <c r="F137" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z137" s="2">
-        <v>60</v>
-      </c>
-      <c r="AA137" s="2">
+      <c r="G137" s="2">
+        <v>5</v>
+      </c>
+      <c r="M137" s="1">
+        <v>10</v>
+      </c>
+      <c r="N137" s="1">
+        <v>10</v>
+      </c>
+      <c r="O137" s="1">
+        <v>5</v>
+      </c>
+      <c r="U137" s="1">
+        <v>15</v>
+      </c>
+      <c r="V137" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z137" s="2"/>
+      <c r="AA137" s="16">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB137" s="1" t="s">
         <v>22</v>
@@ -8131,12 +9015,28 @@
       <c r="F138" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z138" s="2">
-        <v>60</v>
-      </c>
-      <c r="AA138" s="2">
+      <c r="G138" s="2">
+        <v>5</v>
+      </c>
+      <c r="M138" s="1">
+        <v>10</v>
+      </c>
+      <c r="N138" s="1">
+        <v>10</v>
+      </c>
+      <c r="O138" s="1">
+        <v>5</v>
+      </c>
+      <c r="U138" s="1">
+        <v>15</v>
+      </c>
+      <c r="V138" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z138" s="2"/>
+      <c r="AA138" s="16">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB138" s="1" t="s">
         <v>22</v>
@@ -8161,12 +9061,31 @@
       <c r="F139" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z139" s="2">
-        <v>300</v>
-      </c>
-      <c r="AA139" s="2">
+      <c r="G139" s="2">
+        <v>10</v>
+      </c>
+      <c r="K139" s="1">
+        <v>30</v>
+      </c>
+      <c r="M139" s="1">
+        <v>60</v>
+      </c>
+      <c r="N139" s="1">
+        <v>30</v>
+      </c>
+      <c r="U139" s="1">
+        <v>60</v>
+      </c>
+      <c r="V139" s="2">
+        <v>30</v>
+      </c>
+      <c r="Y139" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z139" s="2"/>
+      <c r="AA139" s="16">
         <f t="shared" si="4"/>
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AB139" s="1" t="s">
         <v>22</v>
@@ -8186,17 +9105,24 @@
         <v>10002871503</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z140" s="2">
-        <v>10</v>
-      </c>
-      <c r="AA140" s="2">
+      <c r="G140" s="2">
+        <v>2</v>
+      </c>
+      <c r="N140" s="1">
+        <v>5</v>
+      </c>
+      <c r="V140" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z140" s="2"/>
+      <c r="AA140" s="16">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB140" s="1" t="s">
         <v>22</v>
@@ -8221,12 +9147,22 @@
       <c r="F141" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z141" s="2">
-        <v>60</v>
-      </c>
-      <c r="AA141" s="2">
+      <c r="G141" s="2">
+        <v>5</v>
+      </c>
+      <c r="M141" s="1">
+        <v>30</v>
+      </c>
+      <c r="R141" s="1">
+        <v>5</v>
+      </c>
+      <c r="V141" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z141" s="2"/>
+      <c r="AA141" s="16">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AB141" s="1" t="s">
         <v>22</v>
@@ -8246,15 +9182,31 @@
         <v>10005984475</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z142" s="2">
-        <v>60</v>
-      </c>
-      <c r="AA142" s="2">
+      <c r="G142" s="2">
+        <v>5</v>
+      </c>
+      <c r="K142" s="1">
+        <v>5</v>
+      </c>
+      <c r="M142" s="1">
+        <v>25</v>
+      </c>
+      <c r="U142" s="1">
+        <v>15</v>
+      </c>
+      <c r="V142" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y142" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z142" s="2"/>
+      <c r="AA142" s="16">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
@@ -8273,20 +9225,36 @@
         <v>595</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="F143" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z143" s="2">
-        <v>120</v>
-      </c>
-      <c r="AA143" s="2">
+      <c r="G143" s="2">
+        <v>15</v>
+      </c>
+      <c r="M143" s="1">
+        <v>30</v>
+      </c>
+      <c r="N143" s="1">
+        <v>15</v>
+      </c>
+      <c r="U143" s="1">
+        <v>25</v>
+      </c>
+      <c r="V143" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y143" s="1">
+        <v>15</v>
+      </c>
+      <c r="Z143" s="2"/>
+      <c r="AA143" s="16">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="AB143" s="1" t="s">
         <v>22</v>
@@ -8361,12 +9329,22 @@
       <c r="F145" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z145" s="2">
-        <v>6</v>
-      </c>
-      <c r="AA145" s="2">
+      <c r="G145" s="2">
+        <v>1</v>
+      </c>
+      <c r="P145" s="1">
+        <v>2</v>
+      </c>
+      <c r="U145" s="1">
+        <v>5</v>
+      </c>
+      <c r="V145" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z145" s="2"/>
+      <c r="AA145" s="16">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AB145" s="1" t="s">
         <v>22</v>
@@ -8391,12 +9369,28 @@
       <c r="F146" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z146" s="2">
-        <v>120</v>
-      </c>
-      <c r="AA146" s="2">
+      <c r="G146" s="2">
+        <v>10</v>
+      </c>
+      <c r="M146" s="1">
+        <v>15</v>
+      </c>
+      <c r="N146" s="1">
+        <v>5</v>
+      </c>
+      <c r="U146" s="1">
+        <v>30</v>
+      </c>
+      <c r="V146" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y146" s="1">
+        <v>15</v>
+      </c>
+      <c r="Z146" s="2"/>
+      <c r="AA146" s="16">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AB146" s="1" t="s">
         <v>22</v>
@@ -8421,10 +9415,17 @@
       <c r="F147" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z147" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA147" s="2">
+      <c r="G147" s="2">
+        <v>3</v>
+      </c>
+      <c r="N147" s="1">
+        <v>15</v>
+      </c>
+      <c r="V147" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z147" s="2"/>
+      <c r="AA147" s="16">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
@@ -8443,10 +9444,10 @@
         <v>189</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>25</v>
@@ -8503,7 +9504,7 @@
         <v>340</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>89</v>
@@ -8652,7 +9653,7 @@
         <v>224</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>25</v>
@@ -8712,7 +9713,7 @@
         <v>225</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>25</v>
@@ -8763,7 +9764,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C158" s="2">
         <v>453</v>
@@ -8892,7 +9893,7 @@
         <v>228</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>25</v>
@@ -8922,7 +9923,7 @@
         <v>229</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>25</v>
@@ -8952,7 +9953,7 @@
         <v>230</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>25</v>
@@ -9102,7 +10103,7 @@
         <v>10002751604</v>
       </c>
       <c r="E169" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>25</v>
@@ -9612,7 +10613,7 @@
         <v>232</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>25</v>
@@ -9639,10 +10640,10 @@
         <v>652</v>
       </c>
       <c r="D187" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E187" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>25</v>
@@ -9694,10 +10695,10 @@
         <v>652</v>
       </c>
       <c r="D188" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>25</v>
@@ -9747,10 +10748,10 @@
         <v>652</v>
       </c>
       <c r="D189" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E189" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>25</v>
@@ -9800,10 +10801,10 @@
         <v>652</v>
       </c>
       <c r="D190" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E190" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>25</v>
@@ -10015,7 +11016,7 @@
         <v>72</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>25</v>
@@ -10054,10 +11055,10 @@
         <v>643</v>
       </c>
       <c r="D196" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E196" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>25</v>
@@ -10093,10 +11094,10 @@
         <v>643</v>
       </c>
       <c r="D197" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E197" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>25</v>
@@ -10169,10 +11170,10 @@
         <v>189</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>25</v>
@@ -10207,10 +11208,10 @@
         <v>341</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>25</v>
@@ -10370,7 +11371,7 @@
         <v>10005363802</v>
       </c>
       <c r="E204" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>25</v>
@@ -10719,7 +11720,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C213" s="2">
         <v>634</v>
@@ -10728,7 +11729,7 @@
         <v>233</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>25</v>
@@ -10758,7 +11759,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C214" s="2">
         <v>634</v>
@@ -10767,7 +11768,7 @@
         <v>234</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>25</v>
@@ -10881,7 +11882,7 @@
         <v>235</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>25</v>
@@ -11097,7 +12098,7 @@
         <v>240</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>25</v>
@@ -11898,11 +12899,1443 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9D6A0A-58D8-491B-8520-AA2E6E8E4A66}">
+  <dimension ref="A1:B278"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="1">
+        <v>10004122409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="1">
+        <v>10004624237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="1">
+        <v>10006743125</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="1">
+        <v>10003280804</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="1">
+        <v>10007637264</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="1">
+        <v>10008521996</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="1">
+        <v>10008521996</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="1">
+        <v>10008531338</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="1">
+        <v>10008507821</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="1">
+        <v>10008520095</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="1">
+        <v>10008511425</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="1">
+        <v>10008514727</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="1">
+        <v>10005155671</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="1">
+        <v>10005184725</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="1">
+        <v>10008507813</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="1">
+        <v>10004631699</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="1">
+        <v>10011079417</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="1">
+        <v>10008769643</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="1">
+        <v>10008769612</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="1">
+        <v>10002782997</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="1">
+        <v>10002751604</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="1">
+        <v>10002751619</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="1">
+        <v>10002782423</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="1">
+        <v>10002743194</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="1">
+        <v>10002739400</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="1">
+        <v>10011079417</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="1">
+        <v>10007618066</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="1">
+        <v>10006072428</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="1">
+        <v>10007949856</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="1">
+        <v>10007949926</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="1">
+        <v>10005363802</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="1">
+        <v>10007941396</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="1">
+        <v>10007633099</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="1">
+        <v>10003700217</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="1">
+        <v>10002802981</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="1">
+        <v>10003327000</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="1">
+        <v>10003332656</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="1">
+        <v>10008755474</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="1">
+        <v>10008754959</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="1">
+        <v>10008522198</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="1">
+        <v>10008522066</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="1">
+        <v>10008520128</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="1">
+        <v>10008518305</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="1">
+        <v>10008515704</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="1">
+        <v>10008515614</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="1">
+        <v>10008515441</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="1">
+        <v>10008515045</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="1">
+        <v>10008514949</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="1">
+        <v>10008514518</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="1">
+        <v>10008513386</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="1">
+        <v>10008522268</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="1">
+        <v>10008521371</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="1">
+        <v>10008507817</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="1">
+        <v>10008532036</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="1">
+        <v>10011959737</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="1">
+        <v>10003706232</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="1">
+        <v>10003265360</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="1">
+        <v>10005075970</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="1">
+        <v>10005074842</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="1">
+        <v>10005052038</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="1">
+        <v>10005055882</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="1">
+        <v>10005005765</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="1">
+        <v>10006076266</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="1">
+        <v>10004653934</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="1">
+        <v>28760407</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="1">
+        <v>10004626094</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="1">
+        <v>10006551493</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="1">
+        <v>10008511251</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="1">
+        <v>10009855888</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="1">
+        <v>10004121372</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="1">
+        <v>10007949856</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="1">
+        <v>10004121370</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="1">
+        <v>10007949926</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="1">
+        <v>10005363802</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="1">
+        <v>10007941396</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="1">
+        <v>10006104919</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="1">
+        <v>10005123678</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="1">
+        <v>10005076936</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="1">
+        <v>10005070159</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="1">
+        <v>10004978617</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="1">
+        <v>10005671835</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="1">
+        <v>10004626094</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="1">
+        <v>20006847127</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="1">
+        <v>10004112775</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="1">
+        <v>10007678853</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="1">
+        <v>10004122409</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="1">
+        <v>10004907351</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="1">
+        <v>10006188075</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="1">
+        <v>10003892555</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="1">
+        <v>10008511425</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="1">
+        <v>10008507821</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="1">
+        <v>10008520095</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="1">
+        <v>10004980103</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="1">
+        <v>10004976811</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="1">
+        <v>10004963667</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="1">
+        <v>10004963157</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="1">
+        <v>10002871503</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="1">
+        <v>10006591682</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" s="1">
+        <v>10009855888</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="1">
+        <v>10005159680</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="1">
+        <v>10005208484</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="1">
+        <v>10005202973</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="1">
+        <v>10005708831</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="1">
+        <v>10005202955</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" s="1">
+        <v>10004912412</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="1">
+        <v>10003058629</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" s="1">
+        <v>10006836848</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" s="1">
+        <v>10006836881</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" s="1">
+        <v>10006504723</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" s="1">
+        <v>10006836942</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" s="1">
+        <v>10005864826</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" s="1">
+        <v>10006847095</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" s="1">
+        <v>10007664936</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" s="1">
+        <v>10009263276</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" s="1">
+        <v>10007658666</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" s="1">
+        <v>10005984475</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" s="1">
+        <v>10008511251</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" s="1">
+        <v>10003780671</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" s="1">
+        <v>10008507813</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" s="1">
+        <v>10008514727</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" s="1">
+        <v>10004112775</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" s="1">
+        <v>10004254702</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" s="1">
+        <v>10004930716</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" s="1">
+        <v>10003901190</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" s="1">
+        <v>10008755474</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" s="1">
+        <v>10008754959</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" s="1">
+        <v>10008522198</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" s="1">
+        <v>10008522066</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" s="1">
+        <v>10008520128</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" s="1">
+        <v>10008518305</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" s="1">
+        <v>10008515614</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" s="1">
+        <v>10008515441</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" s="1">
+        <v>10008515045</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" s="1">
+        <v>10008514949</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" s="1">
+        <v>10008514518</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" s="1">
+        <v>10008521371</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" s="1">
+        <v>10008522268</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" s="1">
+        <v>10008507817</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" s="1">
+        <v>10008513386</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" s="1">
+        <v>10009362329</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" s="1">
+        <v>10009362302</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" s="1">
+        <v>10009362286</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" s="1">
+        <v>10003922463</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" s="1">
+        <v>10004976011</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230" s="1">
+        <v>10005948355</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" s="1">
+        <v>10004985448</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" s="1">
+        <v>10004979504</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" s="1">
+        <v>10004978617</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2">
+      <c r="B234" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242" s="1">
+        <v>10009855888</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2">
+      <c r="B243" s="1">
+        <v>10005159680</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2">
+      <c r="B244" s="1">
+        <v>10005671835</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2">
+      <c r="B245" s="1">
+        <v>10004909925</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246" s="1">
+        <v>10004910106</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247" s="1">
+        <v>10004910044</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2">
+      <c r="B248" s="1">
+        <v>10002390890</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2">
+      <c r="B249" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2">
+      <c r="B250" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2">
+      <c r="B251" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2">
+      <c r="B252" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2">
+      <c r="B253" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2">
+      <c r="B254" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2">
+      <c r="B255" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2">
+      <c r="B256" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2">
+      <c r="B257" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2">
+      <c r="B258" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2">
+      <c r="B259" s="1">
+        <v>10010360769</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2">
+      <c r="B260" s="1">
+        <v>10009890643</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2">
+      <c r="B262" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2">
+      <c r="B264" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2">
+      <c r="B265" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2">
+      <c r="B266" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2">
+      <c r="B267" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2">
+      <c r="B268" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2">
+      <c r="B269" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2">
+      <c r="B270" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2">
+      <c r="B271" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2">
+      <c r="B272" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2">
+      <c r="B273" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2">
+      <c r="B275" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2">
+      <c r="B276" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2">
+      <c r="B277" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2">
+      <c r="B278" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{E6692E22-119F-467D-B63B-65D3170B4DB8}">
+            <xm:f>COUNTIF('PROCESSOS DE FABRICAÇÃO'!$D:$D, B2) &gt; 0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B283:B1048576 B2:B278</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFED1B6-6669-418D-935F-274B00B50F32}">
   <dimension ref="A1:B116"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12007,7 +14440,7 @@
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -12492,7 +14925,7 @@
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -12519,11 +14952,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF03CF93-A241-4DB9-ACD8-61B0F18F4B55}">
   <dimension ref="A1:V152"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
@@ -13205,12 +15638,12 @@
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" spans="2:2">
@@ -13290,17 +15723,17 @@
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="109" spans="2:2">
@@ -13531,148 +15964,6 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="4" id="{B287ECD6-23B5-452B-A8FE-14F2A4505328}">
-            <xm:f>COUNTIF('PROCESSOS DE FABRICAÇÃO'!$D:$D, B2) &gt; 0</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B2:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA1C6DF-1C6F-4A7E-AA08-F9BD66EE655C}">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="9" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="B2" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="B3" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="15">
-        <v>10011984549</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="B10" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="15">
-        <v>10002967709</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{7C50AE84-9BB1-4746-96AB-0E24F0357213}">
             <xm:f>COUNTIF('PROCESSOS DE FABRICAÇÃO'!$D:$D, B2) &gt; 0</xm:f>
             <x14:dxf>
               <fill>
@@ -13739,4 +16030,146 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA1C6DF-1C6F-4A7E-AA08-F9BD66EE655C}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="15">
+        <v>10011984549</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="15">
+        <v>10002967709</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{7C50AE84-9BB1-4746-96AB-0E24F0357213}">
+            <xm:f>COUNTIF('PROCESSOS DE FABRICAÇÃO'!$D:$D, B2) &gt; 0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B2:B1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ED9FA0-5C8F-4E29-8A3E-0F9CC790C72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68806B7C-9AD5-41D0-BF59-E711BE9125BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCESSOS DE FABRICAÇÃO" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="JUNHO" sheetId="7" r:id="rId3"/>
     <sheet name="JULHO" sheetId="5" r:id="rId4"/>
     <sheet name="AGOSTO" sheetId="3" r:id="rId5"/>
-    <sheet name="NOVEMBRO" sheetId="6" r:id="rId6"/>
-    <sheet name="SETEMBRO" sheetId="4" r:id="rId7"/>
+    <sheet name="SETEMBRO" sheetId="4" r:id="rId6"/>
+    <sheet name="NOVEMBRO" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PROCESSOS DE FABRICAÇÃO'!$A$1:$AA$301</definedName>
@@ -1292,7 +1292,7 @@
       <name val="Var(--colab-code-font-family)"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1496,6 +1496,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -1672,7 +1690,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1716,6 +1734,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1763,21 +1790,7 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -2128,9 +2141,9 @@
   </sheetPr>
   <dimension ref="A1:AB301"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z88" sqref="Z88"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y50" sqref="Y50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3315,8 +3328,12 @@
       <c r="F21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="G21" s="2">
+        <v>600</v>
+      </c>
+      <c r="H21" s="2">
+        <v>600</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -3329,15 +3346,21 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
+      <c r="U21" s="2">
+        <v>1800</v>
+      </c>
+      <c r="V21" s="2">
+        <v>100</v>
+      </c>
       <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2">
-        <v>4200</v>
-      </c>
-      <c r="AA21" s="2">
+      <c r="X21" s="2">
+        <v>500</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>600</v>
+      </c>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="19">
         <f t="shared" si="0"/>
         <v>4200</v>
       </c>
@@ -3364,8 +3387,12 @@
       <c r="F22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="G22" s="2">
+        <v>600</v>
+      </c>
+      <c r="H22" s="2">
+        <v>600</v>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -3378,15 +3405,21 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
+      <c r="U22" s="2">
+        <v>1800</v>
+      </c>
+      <c r="V22" s="2">
+        <v>100</v>
+      </c>
       <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2">
-        <v>4200</v>
-      </c>
-      <c r="AA22" s="2">
+      <c r="X22" s="2">
+        <v>500</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>600</v>
+      </c>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="19">
         <f t="shared" si="0"/>
         <v>4200</v>
       </c>
@@ -3413,13 +3446,19 @@
       <c r="F23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="G23" s="2">
+        <v>60</v>
+      </c>
+      <c r="H23" s="2">
+        <v>120</v>
+      </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
+      <c r="M23" s="2">
+        <v>120</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -3427,15 +3466,17 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
+      <c r="U23" s="2">
+        <v>400</v>
+      </c>
+      <c r="V23" s="2">
+        <v>20</v>
+      </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
-      <c r="Z23" s="2">
-        <v>720</v>
-      </c>
-      <c r="AA23" s="2">
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="19">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
@@ -4969,31 +5010,41 @@
       <c r="F51" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G51" s="2"/>
+      <c r="G51" s="2">
+        <v>15</v>
+      </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+      <c r="M51" s="2">
+        <v>90</v>
+      </c>
+      <c r="N51" s="2">
+        <v>30</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
+      <c r="U51" s="2">
+        <v>120</v>
+      </c>
+      <c r="V51" s="2">
+        <v>45</v>
+      </c>
       <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
+      <c r="X51" s="2">
+        <v>90</v>
+      </c>
       <c r="Y51" s="2"/>
-      <c r="Z51" s="2">
-        <v>420</v>
-      </c>
-      <c r="AA51" s="2">
+      <c r="Z51" s="18"/>
+      <c r="AA51" s="19">
         <f t="shared" si="1"/>
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="AB51" s="1" t="s">
         <v>22</v>
@@ -8847,7 +8898,7 @@
       <c r="F134" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z134" s="2">
+      <c r="Z134" s="17">
         <v>800</v>
       </c>
       <c r="AA134" s="2">
@@ -9421,7 +9472,7 @@
       <c r="N147" s="1">
         <v>15</v>
       </c>
-      <c r="V147" s="2">
+      <c r="V147" s="1">
         <v>2</v>
       </c>
       <c r="Z147" s="2"/>
@@ -9452,12 +9503,22 @@
       <c r="F148" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z148" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA148" s="2">
-        <f t="shared" si="4"/>
-        <v>20</v>
+      <c r="G148" s="2">
+        <v>3</v>
+      </c>
+      <c r="K148" s="2">
+        <v>10</v>
+      </c>
+      <c r="V148" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y148" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z148" s="2"/>
+      <c r="AA148" s="16">
+        <f>SUM(G148:Z148)</f>
+        <v>18</v>
       </c>
       <c r="AB148" s="1" t="s">
         <v>22</v>
@@ -9482,12 +9543,25 @@
       <c r="F149" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z149" s="2">
-        <v>90</v>
-      </c>
-      <c r="AA149" s="2">
+      <c r="G149" s="2">
+        <v>10</v>
+      </c>
+      <c r="M149" s="1">
+        <v>30</v>
+      </c>
+      <c r="U149" s="1">
+        <v>30</v>
+      </c>
+      <c r="V149" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y149" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z149" s="2"/>
+      <c r="AA149" s="16">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB149" s="1" t="s">
         <v>22</v>
@@ -9541,7 +9615,7 @@
       <c r="X150" s="2"/>
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
-      <c r="AA150" s="2">
+      <c r="AA150" s="16">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
@@ -9568,10 +9642,23 @@
       <c r="F151" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z151" s="2">
-        <v>30</v>
-      </c>
-      <c r="AA151" s="2">
+      <c r="G151" s="2">
+        <v>3</v>
+      </c>
+      <c r="P151" s="1">
+        <v>5</v>
+      </c>
+      <c r="U151" s="1">
+        <v>15</v>
+      </c>
+      <c r="V151" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y151" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z151" s="2"/>
+      <c r="AA151" s="16">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
@@ -9598,12 +9685,28 @@
       <c r="F152" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z152" s="2">
-        <v>60</v>
-      </c>
-      <c r="AA152" s="2">
+      <c r="G152" s="2">
+        <v>5</v>
+      </c>
+      <c r="M152" s="1">
+        <v>15</v>
+      </c>
+      <c r="O152" s="1">
+        <v>10</v>
+      </c>
+      <c r="U152" s="1">
+        <v>10</v>
+      </c>
+      <c r="V152" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y152" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z152" s="2"/>
+      <c r="AA152" s="16">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB152" s="1" t="s">
         <v>22</v>
@@ -9628,12 +9731,28 @@
       <c r="F153" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z153" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA153" s="2">
+      <c r="G153" s="2">
+        <v>5</v>
+      </c>
+      <c r="M153" s="1">
+        <v>15</v>
+      </c>
+      <c r="O153" s="1">
+        <v>10</v>
+      </c>
+      <c r="U153" s="1">
+        <v>10</v>
+      </c>
+      <c r="V153" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y153" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z153" s="2"/>
+      <c r="AA153" s="16">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AB153" s="1" t="s">
         <v>22</v>
@@ -9658,12 +9777,37 @@
       <c r="F154" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z154" s="2">
-        <v>30</v>
-      </c>
-      <c r="AA154" s="2">
+      <c r="G154" s="2">
+        <v>15</v>
+      </c>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
+      <c r="L154" s="2"/>
+      <c r="M154" s="2"/>
+      <c r="N154" s="2">
+        <v>10</v>
+      </c>
+      <c r="O154" s="2"/>
+      <c r="P154" s="2"/>
+      <c r="Q154" s="2"/>
+      <c r="R154" s="2"/>
+      <c r="S154" s="2"/>
+      <c r="T154" s="2"/>
+      <c r="U154" s="2">
+        <v>15</v>
+      </c>
+      <c r="V154" s="2">
+        <v>10</v>
+      </c>
+      <c r="W154" s="2"/>
+      <c r="X154" s="2"/>
+      <c r="Y154" s="2"/>
+      <c r="Z154" s="2"/>
+      <c r="AA154" s="16">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AB154" s="1" t="s">
         <v>22</v>
@@ -9688,12 +9832,19 @@
       <c r="F155" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z155" s="2">
-        <v>30</v>
-      </c>
-      <c r="AA155" s="2">
+      <c r="G155" s="2">
+        <v>5</v>
+      </c>
+      <c r="H155" s="2">
+        <v>10</v>
+      </c>
+      <c r="V155" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z155" s="2"/>
+      <c r="AA155" s="16">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AB155" s="1" t="s">
         <v>22</v>
@@ -9718,12 +9869,25 @@
       <c r="F156" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z156" s="2">
-        <v>90</v>
-      </c>
-      <c r="AA156" s="2">
+      <c r="G156" s="2">
+        <v>5</v>
+      </c>
+      <c r="N156" s="1">
+        <v>10</v>
+      </c>
+      <c r="P156" s="1">
+        <v>5</v>
+      </c>
+      <c r="U156" s="1">
+        <v>20</v>
+      </c>
+      <c r="V156" s="2">
+        <v>10</v>
+      </c>
+      <c r="Z156" s="2"/>
+      <c r="AA156" s="16">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AB156" s="1" t="s">
         <v>22</v>
@@ -9748,12 +9912,25 @@
       <c r="F157" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z157" s="2">
-        <v>90</v>
-      </c>
-      <c r="AA157" s="2">
+      <c r="G157" s="2">
+        <v>5</v>
+      </c>
+      <c r="P157" s="1">
+        <v>10</v>
+      </c>
+      <c r="U157" s="1">
+        <v>30</v>
+      </c>
+      <c r="V157" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y157" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z157" s="2"/>
+      <c r="AA157" s="16">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AB157" s="1" t="s">
         <v>22</v>
@@ -9778,12 +9955,19 @@
       <c r="F158" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z158" s="2">
-        <v>60</v>
-      </c>
-      <c r="AA158" s="2">
+      <c r="I158" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q158" s="1">
+        <v>5</v>
+      </c>
+      <c r="V158" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z158" s="18"/>
+      <c r="AA158" s="16">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="AB158" s="1" t="s">
         <v>22</v>
@@ -9808,12 +9992,25 @@
       <c r="F159" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z159" s="2">
-        <v>90</v>
-      </c>
-      <c r="AA159" s="2">
+      <c r="G159" s="2">
+        <v>5</v>
+      </c>
+      <c r="M159" s="1">
+        <v>20</v>
+      </c>
+      <c r="U159" s="1">
+        <v>20</v>
+      </c>
+      <c r="V159" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y159" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z159" s="18"/>
+      <c r="AA159" s="16">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AB159" s="1" t="s">
         <v>22</v>
@@ -9838,12 +10035,19 @@
       <c r="F160" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z160" s="2">
-        <v>30</v>
-      </c>
-      <c r="AA160" s="2">
+      <c r="G160" s="2">
+        <v>5</v>
+      </c>
+      <c r="K160" s="1">
+        <v>15</v>
+      </c>
+      <c r="V160" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z160" s="18"/>
+      <c r="AA160" s="16">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AB160" s="1" t="s">
         <v>22</v>
@@ -9868,12 +10072,22 @@
       <c r="F161" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z161" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA161" s="2">
+      <c r="G161" s="2">
+        <v>5</v>
+      </c>
+      <c r="K161" s="1">
+        <v>15</v>
+      </c>
+      <c r="N161" s="1">
+        <v>5</v>
+      </c>
+      <c r="V161" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z161" s="18"/>
+      <c r="AA161" s="16">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AB161" s="1" t="s">
         <v>22</v>
@@ -9898,7 +10112,7 @@
       <c r="F162" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z162" s="2">
+      <c r="Z162" s="17">
         <v>720</v>
       </c>
       <c r="AA162" s="2">
@@ -9928,10 +10142,20 @@
       <c r="F163" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z163" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA163" s="2">
+      <c r="G163" s="2">
+        <v>1</v>
+      </c>
+      <c r="N163" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q163" s="1">
+        <v>1</v>
+      </c>
+      <c r="V163" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z163" s="18"/>
+      <c r="AA163" s="16">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
@@ -9958,7 +10182,7 @@
       <c r="F164" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z164" s="2">
+      <c r="Z164" s="17">
         <v>4000</v>
       </c>
       <c r="AA164" s="2">
@@ -9988,12 +10212,22 @@
       <c r="F165" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z165" s="2">
-        <v>8</v>
-      </c>
-      <c r="AA165" s="2">
+      <c r="G165" s="2">
+        <v>1</v>
+      </c>
+      <c r="K165" s="1">
+        <v>2</v>
+      </c>
+      <c r="N165" s="1">
+        <v>2</v>
+      </c>
+      <c r="V165" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z165" s="18"/>
+      <c r="AA165" s="16">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AB165" s="1" t="s">
         <v>22</v>
@@ -10018,12 +10252,22 @@
       <c r="F166" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z166" s="2">
-        <v>8</v>
-      </c>
-      <c r="AA166" s="2">
+      <c r="G166" s="2">
+        <v>1</v>
+      </c>
+      <c r="K166" s="1">
+        <v>2</v>
+      </c>
+      <c r="N166" s="1">
+        <v>2</v>
+      </c>
+      <c r="V166" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z166" s="18"/>
+      <c r="AA166" s="16">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AB166" s="1" t="s">
         <v>22</v>
@@ -10048,12 +10292,25 @@
       <c r="F167" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z167" s="2">
-        <v>25</v>
-      </c>
-      <c r="AA167" s="2">
+      <c r="G167" s="2">
+        <v>3</v>
+      </c>
+      <c r="K167" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q167" s="1">
+        <v>3</v>
+      </c>
+      <c r="U167" s="1">
+        <v>10</v>
+      </c>
+      <c r="V167" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z167" s="18"/>
+      <c r="AA167" s="16">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB167" s="1" t="s">
         <v>22</v>
@@ -10078,12 +10335,22 @@
       <c r="F168" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z168" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA168" s="2">
+      <c r="H168" s="2">
+        <v>2</v>
+      </c>
+      <c r="N168" s="1">
+        <v>5</v>
+      </c>
+      <c r="R168" s="1">
+        <v>2</v>
+      </c>
+      <c r="V168" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z168" s="18"/>
+      <c r="AA168" s="16">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AB168" s="1" t="s">
         <v>22</v>
@@ -10108,12 +10375,31 @@
       <c r="F169" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z169" s="2">
-        <v>50</v>
-      </c>
-      <c r="AA169" s="2">
+      <c r="G169" s="2">
+        <v>3</v>
+      </c>
+      <c r="H169" s="2">
+        <v>2</v>
+      </c>
+      <c r="K169" s="1">
+        <v>5</v>
+      </c>
+      <c r="N169" s="1">
+        <v>5</v>
+      </c>
+      <c r="U169" s="1">
+        <v>10</v>
+      </c>
+      <c r="V169" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y169" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z169" s="18"/>
+      <c r="AA169" s="16">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="AB169" s="1" t="s">
         <v>22</v>
@@ -10138,12 +10424,25 @@
       <c r="F170" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z170" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA170" s="2">
+      <c r="H170" s="2">
+        <v>5</v>
+      </c>
+      <c r="N170" s="1">
+        <v>5</v>
+      </c>
+      <c r="U170" s="1">
+        <v>10</v>
+      </c>
+      <c r="V170" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y170" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z170" s="18"/>
+      <c r="AA170" s="16">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AB170" s="1" t="s">
         <v>22</v>
@@ -10168,12 +10467,31 @@
       <c r="F171" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z171" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA171" s="2">
+      <c r="G171" s="2">
+        <v>2</v>
+      </c>
+      <c r="I171" s="2">
+        <v>5</v>
+      </c>
+      <c r="M171" s="1">
+        <v>5</v>
+      </c>
+      <c r="N171" s="1">
+        <v>5</v>
+      </c>
+      <c r="U171" s="1">
+        <v>10</v>
+      </c>
+      <c r="V171" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y171" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z171" s="18"/>
+      <c r="AA171" s="16">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AB171" s="1" t="s">
         <v>22</v>
@@ -10198,12 +10516,23 @@
       <c r="F172" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z172" s="2">
-        <v>30</v>
-      </c>
-      <c r="AA172" s="2">
+      <c r="G172" s="2">
+        <v>2</v>
+      </c>
+      <c r="I172" s="2">
+        <v>5</v>
+      </c>
+      <c r="M172" s="1">
+        <v>8</v>
+      </c>
+      <c r="U172" s="1"/>
+      <c r="V172" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z172" s="18"/>
+      <c r="AA172" s="16">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AB172" s="1" t="s">
         <v>22</v>
@@ -10228,12 +10557,25 @@
       <c r="F173" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z173" s="2">
-        <v>30</v>
-      </c>
-      <c r="AA173" s="2">
+      <c r="G173" s="2">
+        <v>3</v>
+      </c>
+      <c r="K173" s="1">
+        <v>5</v>
+      </c>
+      <c r="N173" s="1">
+        <v>5</v>
+      </c>
+      <c r="U173" s="1">
+        <v>10</v>
+      </c>
+      <c r="V173" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z173" s="18"/>
+      <c r="AA173" s="16">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB173" s="1" t="s">
         <v>22</v>
@@ -10258,12 +10600,28 @@
       <c r="F174" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z174" s="2">
-        <v>60</v>
-      </c>
-      <c r="AA174" s="2">
+      <c r="G174" s="2">
+        <v>5</v>
+      </c>
+      <c r="M174" s="1">
+        <v>10</v>
+      </c>
+      <c r="O174" s="1">
+        <v>5</v>
+      </c>
+      <c r="U174" s="1">
+        <v>10</v>
+      </c>
+      <c r="V174" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y174" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z174" s="18"/>
+      <c r="AA174" s="16">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AB174" s="1" t="s">
         <v>22</v>
@@ -10288,12 +10646,28 @@
       <c r="F175" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z175" s="2">
-        <v>60</v>
-      </c>
-      <c r="AA175" s="2">
+      <c r="G175" s="2">
+        <v>5</v>
+      </c>
+      <c r="N175" s="1">
+        <v>5</v>
+      </c>
+      <c r="O175" s="1">
+        <v>5</v>
+      </c>
+      <c r="U175" s="1">
+        <v>10</v>
+      </c>
+      <c r="V175" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y175" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z175" s="18"/>
+      <c r="AA175" s="16">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="AB175" s="1" t="s">
         <v>22</v>
@@ -10318,12 +10692,19 @@
       <c r="F176" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z176" s="2">
-        <v>60</v>
-      </c>
-      <c r="AA176" s="2">
+      <c r="H176" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q176" s="1">
+        <v>10</v>
+      </c>
+      <c r="V176" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z176" s="18"/>
+      <c r="AA176" s="16">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="AB176" s="1" t="s">
         <v>22</v>
@@ -10348,12 +10729,16 @@
       <c r="F177" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z177" s="2">
-        <v>100</v>
-      </c>
-      <c r="AA177" s="2">
+      <c r="H177" s="2">
+        <v>30</v>
+      </c>
+      <c r="V177" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z177" s="18"/>
+      <c r="AA177" s="16">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AB177" s="1" t="s">
         <v>22</v>
@@ -10378,12 +10763,28 @@
       <c r="F178" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z178" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA178" s="2">
+      <c r="G178" s="2">
+        <v>3</v>
+      </c>
+      <c r="H178" s="2">
+        <v>2</v>
+      </c>
+      <c r="K178" s="1">
+        <v>3</v>
+      </c>
+      <c r="N178" s="1">
+        <v>10</v>
+      </c>
+      <c r="U178" s="1">
+        <v>8</v>
+      </c>
+      <c r="V178" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z178" s="18"/>
+      <c r="AA178" s="16">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AB178" s="1" t="s">
         <v>22</v>
@@ -10408,12 +10809,19 @@
       <c r="F179" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z179" s="2">
-        <v>25</v>
-      </c>
-      <c r="AA179" s="2">
+      <c r="G179" s="2">
+        <v>2</v>
+      </c>
+      <c r="M179" s="1">
+        <v>15</v>
+      </c>
+      <c r="V179" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z179" s="18"/>
+      <c r="AA179" s="16">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AB179" s="1" t="s">
         <v>22</v>
@@ -10438,12 +10846,28 @@
       <c r="F180" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z180" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA180" s="2">
+      <c r="G180" s="2">
+        <v>2</v>
+      </c>
+      <c r="H180" s="2">
+        <v>3</v>
+      </c>
+      <c r="K180" s="1">
+        <v>10</v>
+      </c>
+      <c r="N180" s="1">
+        <v>10</v>
+      </c>
+      <c r="U180" s="1">
+        <v>15</v>
+      </c>
+      <c r="V180" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z180" s="18"/>
+      <c r="AA180" s="16">
         <f t="shared" si="5"/>
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="AB180" s="1" t="s">
         <v>22</v>
@@ -10468,12 +10892,19 @@
       <c r="F181" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z181" s="2">
-        <v>60</v>
-      </c>
-      <c r="AA181" s="2">
+      <c r="G181" s="2">
+        <v>5</v>
+      </c>
+      <c r="N181" s="1">
+        <v>30</v>
+      </c>
+      <c r="V181" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z181" s="18"/>
+      <c r="AA181" s="16">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AB181" s="1" t="s">
         <v>22</v>
@@ -10498,12 +10929,20 @@
       <c r="F182" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z182" s="2">
-        <v>30</v>
-      </c>
-      <c r="AA182" s="2">
+      <c r="I182" s="1">
+        <v>5</v>
+      </c>
+      <c r="U182" s="1">
+        <v>10</v>
+      </c>
+      <c r="V182" s="1">
+        <v>5</v>
+      </c>
+      <c r="X182" s="18"/>
+      <c r="Z182" s="18"/>
+      <c r="AA182" s="16">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AB182" s="1" t="s">
         <v>22</v>
@@ -10528,12 +10967,22 @@
       <c r="F183" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z183" s="2">
-        <v>8</v>
-      </c>
-      <c r="AA183" s="2">
+      <c r="G183" s="2">
+        <v>1</v>
+      </c>
+      <c r="N183" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q183" s="1">
+        <v>2</v>
+      </c>
+      <c r="V183" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z183" s="18"/>
+      <c r="AA183" s="16">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB183" s="1" t="s">
         <v>22</v>
@@ -10558,12 +11007,19 @@
       <c r="F184" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z184" s="2">
-        <v>60</v>
-      </c>
-      <c r="AA184" s="2">
+      <c r="G184" s="2">
+        <v>5</v>
+      </c>
+      <c r="M184" s="1">
+        <v>25</v>
+      </c>
+      <c r="V184" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z184" s="18"/>
+      <c r="AA184" s="16">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="AB184" s="1" t="s">
         <v>22</v>
@@ -10588,12 +11044,19 @@
       <c r="F185" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z185" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA185" s="2">
+      <c r="I185" s="1">
+        <v>5</v>
+      </c>
+      <c r="U185" s="1">
+        <v>10</v>
+      </c>
+      <c r="V185" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z185" s="18"/>
+      <c r="AA185" s="16">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AB185" s="1" t="s">
         <v>22</v>
@@ -10618,7 +11081,7 @@
       <c r="F186" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z186" s="2">
+      <c r="Z186" s="17">
         <v>1200</v>
       </c>
       <c r="AA186" s="2">
@@ -12902,7 +13365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9D6A0A-58D8-491B-8520-AA2E6E8E4A66}">
   <dimension ref="A1:B278"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -14322,7 +14785,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B283:B1048576 B2:B278</xm:sqref>
+          <xm:sqref>B2:B278 B283:B1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -14334,7 +14797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFED1B6-6669-418D-935F-274B00B50F32}">
   <dimension ref="A1:B116"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -14956,7 +15419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF03CF93-A241-4DB9-ACD8-61B0F18F4B55}">
   <dimension ref="A1:V152"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A139" workbookViewId="0">
       <selection activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
@@ -15982,6 +16445,148 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA1C6DF-1C6F-4A7E-AA08-F9BD66EE655C}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="15">
+        <v>10011984549</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="15">
+        <v>10002967709</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{7C50AE84-9BB1-4746-96AB-0E24F0357213}">
+            <xm:f>COUNTIF('PROCESSOS DE FABRICAÇÃO'!$D:$D, B2) &gt; 0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B2:B1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2C057B-75E7-43E4-AAB1-9BAF96F7F0C9}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -16030,146 +16635,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA1C6DF-1C6F-4A7E-AA08-F9BD66EE655C}">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="9" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="B2" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="B3" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="15">
-        <v>10011984549</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="B10" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="15">
-        <v>10002967709</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{7C50AE84-9BB1-4746-96AB-0E24F0357213}">
-            <xm:f>COUNTIF('PROCESSOS DE FABRICAÇÃO'!$D:$D, B2) &gt; 0</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B2:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68806B7C-9AD5-41D0-BF59-E711BE9125BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74FF081-9C35-4EAE-A1C9-02562A8E01A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCESSOS DE FABRICAÇÃO" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="JULHO" sheetId="5" r:id="rId4"/>
     <sheet name="AGOSTO" sheetId="3" r:id="rId5"/>
     <sheet name="SETEMBRO" sheetId="4" r:id="rId6"/>
-    <sheet name="NOVEMBRO" sheetId="6" r:id="rId7"/>
+    <sheet name="OUTUBRO" sheetId="8" r:id="rId7"/>
+    <sheet name="NOVEMBRO" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PROCESSOS DE FABRICAÇÃO'!$A$1:$AA$301</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="370">
   <si>
     <t>ORCAMENTO</t>
   </si>
@@ -1498,12 +1499,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1511,6 +1506,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1790,7 +1791,14 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2141,9 +2149,9 @@
   </sheetPr>
   <dimension ref="A1:AB301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y50" sqref="Y50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3359,8 +3367,8 @@
       <c r="Y21" s="2">
         <v>600</v>
       </c>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="19">
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="18">
         <f t="shared" si="0"/>
         <v>4200</v>
       </c>
@@ -3418,8 +3426,8 @@
       <c r="Y22" s="2">
         <v>600</v>
       </c>
-      <c r="Z22" s="18"/>
-      <c r="AA22" s="19">
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="18">
         <f t="shared" si="0"/>
         <v>4200</v>
       </c>
@@ -3475,8 +3483,8 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="19">
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="18">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
@@ -5041,8 +5049,8 @@
         <v>90</v>
       </c>
       <c r="Y51" s="2"/>
-      <c r="Z51" s="18"/>
-      <c r="AA51" s="19">
+      <c r="Z51" s="17"/>
+      <c r="AA51" s="18">
         <f t="shared" si="1"/>
         <v>390</v>
       </c>
@@ -8898,10 +8906,38 @@
       <c r="F134" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z134" s="17">
-        <v>800</v>
-      </c>
-      <c r="AA134" s="2">
+      <c r="G134" s="2">
+        <v>60</v>
+      </c>
+      <c r="H134" s="2">
+        <v>60</v>
+      </c>
+      <c r="K134" s="1">
+        <v>60</v>
+      </c>
+      <c r="L134" s="1">
+        <v>30</v>
+      </c>
+      <c r="N134" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q134">
+        <v>120</v>
+      </c>
+      <c r="U134" s="1">
+        <v>150</v>
+      </c>
+      <c r="V134" s="2">
+        <v>50</v>
+      </c>
+      <c r="W134" s="1">
+        <v>180</v>
+      </c>
+      <c r="Y134" s="1">
+        <v>60</v>
+      </c>
+      <c r="Z134" s="2"/>
+      <c r="AA134" s="18">
         <f t="shared" si="4"/>
         <v>800</v>
       </c>
@@ -9964,7 +10000,7 @@
       <c r="V158" s="2">
         <v>5</v>
       </c>
-      <c r="Z158" s="18"/>
+      <c r="Z158" s="17"/>
       <c r="AA158" s="16">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -10007,7 +10043,7 @@
       <c r="Y159" s="1">
         <v>5</v>
       </c>
-      <c r="Z159" s="18"/>
+      <c r="Z159" s="17"/>
       <c r="AA159" s="16">
         <f t="shared" si="4"/>
         <v>60</v>
@@ -10044,7 +10080,7 @@
       <c r="V160" s="2">
         <v>5</v>
       </c>
-      <c r="Z160" s="18"/>
+      <c r="Z160" s="17"/>
       <c r="AA160" s="16">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -10084,7 +10120,7 @@
       <c r="V161" s="2">
         <v>5</v>
       </c>
-      <c r="Z161" s="18"/>
+      <c r="Z161" s="17"/>
       <c r="AA161" s="16">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -10112,10 +10148,26 @@
       <c r="F162" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z162" s="17">
-        <v>720</v>
-      </c>
-      <c r="AA162" s="2">
+      <c r="G162" s="2">
+        <v>60</v>
+      </c>
+      <c r="M162" s="1">
+        <v>120</v>
+      </c>
+      <c r="N162" s="1">
+        <v>240</v>
+      </c>
+      <c r="U162" s="1">
+        <v>150</v>
+      </c>
+      <c r="V162" s="2">
+        <v>60</v>
+      </c>
+      <c r="Y162" s="1">
+        <v>90</v>
+      </c>
+      <c r="Z162" s="19"/>
+      <c r="AA162" s="18">
         <f t="shared" ref="AA162:AA193" si="5">SUM(G162:Z162)</f>
         <v>720</v>
       </c>
@@ -10154,7 +10206,7 @@
       <c r="V163" s="2">
         <v>1</v>
       </c>
-      <c r="Z163" s="18"/>
+      <c r="Z163" s="17"/>
       <c r="AA163" s="16">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -10182,10 +10234,29 @@
       <c r="F164" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z164" s="17">
-        <v>4000</v>
-      </c>
-      <c r="AA164" s="2">
+      <c r="G164" s="2">
+        <v>600</v>
+      </c>
+      <c r="H164" s="1">
+        <v>600</v>
+      </c>
+      <c r="N164" s="1">
+        <v>240</v>
+      </c>
+      <c r="U164" s="1">
+        <v>860</v>
+      </c>
+      <c r="V164" s="2">
+        <v>500</v>
+      </c>
+      <c r="X164" s="1">
+        <v>600</v>
+      </c>
+      <c r="Y164" s="1">
+        <v>600</v>
+      </c>
+      <c r="Z164" s="19"/>
+      <c r="AA164" s="18">
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
@@ -10224,7 +10295,7 @@
       <c r="V165" s="2">
         <v>1</v>
       </c>
-      <c r="Z165" s="18"/>
+      <c r="Z165" s="17"/>
       <c r="AA165" s="16">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -10264,7 +10335,7 @@
       <c r="V166" s="1">
         <v>1</v>
       </c>
-      <c r="Z166" s="18"/>
+      <c r="Z166" s="17"/>
       <c r="AA166" s="16">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -10307,7 +10378,7 @@
       <c r="V167" s="1">
         <v>3</v>
       </c>
-      <c r="Z167" s="18"/>
+      <c r="Z167" s="17"/>
       <c r="AA167" s="16">
         <f t="shared" si="5"/>
         <v>24</v>
@@ -10347,7 +10418,7 @@
       <c r="V168" s="1">
         <v>3</v>
       </c>
-      <c r="Z168" s="18"/>
+      <c r="Z168" s="17"/>
       <c r="AA168" s="16">
         <f t="shared" si="5"/>
         <v>12</v>
@@ -10396,7 +10467,7 @@
       <c r="Y169" s="1">
         <v>5</v>
       </c>
-      <c r="Z169" s="18"/>
+      <c r="Z169" s="17"/>
       <c r="AA169" s="16">
         <f t="shared" si="5"/>
         <v>35</v>
@@ -10439,7 +10510,7 @@
       <c r="Y170" s="1">
         <v>5</v>
       </c>
-      <c r="Z170" s="18"/>
+      <c r="Z170" s="17"/>
       <c r="AA170" s="16">
         <f t="shared" si="5"/>
         <v>30</v>
@@ -10488,7 +10559,7 @@
       <c r="Y171" s="1">
         <v>3</v>
       </c>
-      <c r="Z171" s="18"/>
+      <c r="Z171" s="17"/>
       <c r="AA171" s="16">
         <f t="shared" si="5"/>
         <v>35</v>
@@ -10529,7 +10600,7 @@
       <c r="V172" s="1">
         <v>5</v>
       </c>
-      <c r="Z172" s="18"/>
+      <c r="Z172" s="17"/>
       <c r="AA172" s="16">
         <f t="shared" si="5"/>
         <v>20</v>
@@ -10572,7 +10643,7 @@
       <c r="V173" s="1">
         <v>5</v>
       </c>
-      <c r="Z173" s="18"/>
+      <c r="Z173" s="17"/>
       <c r="AA173" s="16">
         <f t="shared" si="5"/>
         <v>28</v>
@@ -10618,7 +10689,7 @@
       <c r="Y174" s="1">
         <v>5</v>
       </c>
-      <c r="Z174" s="18"/>
+      <c r="Z174" s="17"/>
       <c r="AA174" s="16">
         <f t="shared" si="5"/>
         <v>40</v>
@@ -10664,7 +10735,7 @@
       <c r="Y175" s="1">
         <v>5</v>
       </c>
-      <c r="Z175" s="18"/>
+      <c r="Z175" s="17"/>
       <c r="AA175" s="16">
         <f t="shared" si="5"/>
         <v>35</v>
@@ -10701,7 +10772,7 @@
       <c r="V176" s="1">
         <v>5</v>
       </c>
-      <c r="Z176" s="18"/>
+      <c r="Z176" s="17"/>
       <c r="AA176" s="16">
         <f t="shared" si="5"/>
         <v>25</v>
@@ -10735,7 +10806,7 @@
       <c r="V177" s="1">
         <v>10</v>
       </c>
-      <c r="Z177" s="18"/>
+      <c r="Z177" s="17"/>
       <c r="AA177" s="16">
         <f t="shared" si="5"/>
         <v>40</v>
@@ -10781,7 +10852,7 @@
       <c r="V178" s="1">
         <v>4</v>
       </c>
-      <c r="Z178" s="18"/>
+      <c r="Z178" s="17"/>
       <c r="AA178" s="16">
         <f t="shared" si="5"/>
         <v>30</v>
@@ -10818,7 +10889,7 @@
       <c r="V179" s="1">
         <v>3</v>
       </c>
-      <c r="Z179" s="18"/>
+      <c r="Z179" s="17"/>
       <c r="AA179" s="16">
         <f t="shared" si="5"/>
         <v>20</v>
@@ -10864,7 +10935,7 @@
       <c r="V180" s="1">
         <v>5</v>
       </c>
-      <c r="Z180" s="18"/>
+      <c r="Z180" s="17"/>
       <c r="AA180" s="16">
         <f t="shared" si="5"/>
         <v>45</v>
@@ -10901,7 +10972,7 @@
       <c r="V181" s="1">
         <v>5</v>
       </c>
-      <c r="Z181" s="18"/>
+      <c r="Z181" s="17"/>
       <c r="AA181" s="16">
         <f t="shared" si="5"/>
         <v>40</v>
@@ -10938,8 +11009,8 @@
       <c r="V182" s="1">
         <v>5</v>
       </c>
-      <c r="X182" s="18"/>
-      <c r="Z182" s="18"/>
+      <c r="X182" s="17"/>
+      <c r="Z182" s="17"/>
       <c r="AA182" s="16">
         <f t="shared" si="5"/>
         <v>20</v>
@@ -10979,7 +11050,7 @@
       <c r="V183" s="1">
         <v>1</v>
       </c>
-      <c r="Z183" s="18"/>
+      <c r="Z183" s="17"/>
       <c r="AA183" s="16">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -11016,7 +11087,7 @@
       <c r="V184" s="1">
         <v>5</v>
       </c>
-      <c r="Z184" s="18"/>
+      <c r="Z184" s="17"/>
       <c r="AA184" s="16">
         <f t="shared" si="5"/>
         <v>35</v>
@@ -11053,7 +11124,7 @@
       <c r="V185" s="1">
         <v>5</v>
       </c>
-      <c r="Z185" s="18"/>
+      <c r="Z185" s="17"/>
       <c r="AA185" s="16">
         <f t="shared" si="5"/>
         <v>20</v>
@@ -11081,10 +11152,26 @@
       <c r="F186" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z186" s="17">
-        <v>1200</v>
-      </c>
-      <c r="AA186" s="2">
+      <c r="G186" s="2">
+        <v>120</v>
+      </c>
+      <c r="H186" s="1">
+        <v>240</v>
+      </c>
+      <c r="U186" s="1">
+        <v>270</v>
+      </c>
+      <c r="V186" s="1">
+        <v>120</v>
+      </c>
+      <c r="X186" s="1">
+        <v>300</v>
+      </c>
+      <c r="Y186" s="1">
+        <v>150</v>
+      </c>
+      <c r="Z186" s="19"/>
+      <c r="AA186" s="18">
         <f t="shared" si="5"/>
         <v>1200</v>
       </c>
@@ -12526,10 +12613,10 @@
       <c r="L222" s="1">
         <v>10</v>
       </c>
-      <c r="N222">
-        <v>5</v>
-      </c>
-      <c r="P222">
+      <c r="N222" s="1">
+        <v>5</v>
+      </c>
+      <c r="P222" s="1">
         <v>15</v>
       </c>
       <c r="U222" s="1">
@@ -12645,9 +12732,27 @@
       <c r="A226" s="1">
         <v>225</v>
       </c>
+      <c r="B226" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C226" s="2">
+        <v>682</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I226" s="1">
+        <v>1</v>
+      </c>
       <c r="AA226" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB226" s="1" t="s">
         <v>22</v>
@@ -12657,9 +12762,42 @@
       <c r="A227" s="1">
         <v>226</v>
       </c>
+      <c r="B227" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C227" s="2">
+        <v>476</v>
+      </c>
+      <c r="D227" s="1">
+        <v>10002837595</v>
+      </c>
+      <c r="E227" s="1">
+        <v>12787708</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G227" s="2">
+        <v>10</v>
+      </c>
+      <c r="K227" s="1">
+        <v>15</v>
+      </c>
+      <c r="M227" s="1">
+        <v>60</v>
+      </c>
+      <c r="U227" s="1">
+        <v>60</v>
+      </c>
+      <c r="V227" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y227" s="1">
+        <v>15</v>
+      </c>
       <c r="AA227" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AB227" s="1" t="s">
         <v>22</v>
@@ -12669,9 +12807,39 @@
       <c r="A228" s="1">
         <v>227</v>
       </c>
+      <c r="B228" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C228" s="2">
+        <v>479</v>
+      </c>
+      <c r="D228" s="1">
+        <v>10002833114</v>
+      </c>
+      <c r="E228" s="1">
+        <v>12788015</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G228" s="2">
+        <v>10</v>
+      </c>
+      <c r="M228" s="1">
+        <v>30</v>
+      </c>
+      <c r="U228" s="1">
+        <v>30</v>
+      </c>
+      <c r="V228" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y228" s="1">
+        <v>15</v>
+      </c>
       <c r="AA228" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB228" s="1" t="s">
         <v>22</v>
@@ -12681,9 +12849,48 @@
       <c r="A229" s="1">
         <v>228</v>
       </c>
+      <c r="B229" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C229" s="2">
+        <v>131</v>
+      </c>
+      <c r="D229" s="1">
+        <v>10006081042</v>
+      </c>
+      <c r="E229" s="1">
+        <v>14624464</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G229" s="2">
+        <v>3</v>
+      </c>
+      <c r="H229" s="2">
+        <v>2</v>
+      </c>
+      <c r="K229" s="1">
+        <v>10</v>
+      </c>
+      <c r="N229" s="1">
+        <v>10</v>
+      </c>
+      <c r="O229" s="1">
+        <v>3</v>
+      </c>
+      <c r="U229" s="1">
+        <v>15</v>
+      </c>
+      <c r="V229" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y229" s="1">
+        <v>5</v>
+      </c>
       <c r="AA229" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB229" s="1" t="s">
         <v>22</v>
@@ -12693,9 +12900,41 @@
       <c r="A230" s="1">
         <v>229</v>
       </c>
+      <c r="B230" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D230" s="1">
+        <v>10004910044</v>
+      </c>
+      <c r="E230" s="1">
+        <v>13991663</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G230" s="2"/>
+      <c r="H230" s="1"/>
+      <c r="I230" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q230" s="1">
+        <v>5</v>
+      </c>
+      <c r="U230" s="1">
+        <v>10</v>
+      </c>
+      <c r="V230" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y230" s="1">
+        <v>5</v>
+      </c>
       <c r="AA230" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB230" s="1" t="s">
         <v>22</v>
@@ -12705,9 +12944,45 @@
       <c r="A231" s="1">
         <v>230</v>
       </c>
+      <c r="B231" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D231" s="1">
+        <v>10004910106</v>
+      </c>
+      <c r="E231" s="1">
+        <v>13991818</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G231" s="2">
+        <v>3</v>
+      </c>
+      <c r="H231" s="1">
+        <v>2</v>
+      </c>
+      <c r="K231" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q231" s="1">
+        <v>2</v>
+      </c>
+      <c r="U231" s="1">
+        <v>10</v>
+      </c>
+      <c r="V231" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y231" s="1">
+        <v>5</v>
+      </c>
       <c r="AA231" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>SUM(G231:Z231)</f>
+        <v>30</v>
       </c>
       <c r="AB231" s="1" t="s">
         <v>22</v>
@@ -12717,358 +12992,280 @@
       <c r="A232" s="1">
         <v>231</v>
       </c>
+      <c r="B232" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D232" s="1">
+        <v>10004909925</v>
+      </c>
+      <c r="E232" s="1">
+        <v>13991909</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I232" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q232" s="1">
+        <v>5</v>
+      </c>
+      <c r="V232" s="1">
+        <v>5</v>
+      </c>
       <c r="AA232" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB232" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="233" spans="1:28">
-      <c r="A233" s="1">
-        <v>232</v>
-      </c>
+      <c r="A233" s="1"/>
+      <c r="AA233" s="2"/>
+      <c r="AB233" s="1"/>
     </row>
     <row r="234" spans="1:28">
-      <c r="A234" s="1">
-        <v>233</v>
-      </c>
+      <c r="A234" s="1"/>
+      <c r="AA234" s="2"/>
+      <c r="AB234" s="1"/>
     </row>
     <row r="235" spans="1:28">
-      <c r="A235" s="1">
-        <v>234</v>
-      </c>
+      <c r="A235" s="1"/>
+      <c r="AA235" s="2"/>
+      <c r="AB235" s="1"/>
     </row>
     <row r="236" spans="1:28">
-      <c r="A236" s="1">
-        <v>235</v>
-      </c>
+      <c r="A236" s="1"/>
+      <c r="AA236" s="2"/>
+      <c r="AB236" s="1"/>
     </row>
     <row r="237" spans="1:28">
-      <c r="A237" s="1">
-        <v>236</v>
-      </c>
+      <c r="A237" s="1"/>
+      <c r="AA237" s="2"/>
+      <c r="AB237" s="1"/>
     </row>
     <row r="238" spans="1:28">
-      <c r="A238" s="1">
-        <v>237</v>
-      </c>
+      <c r="A238" s="1"/>
+      <c r="AA238" s="2"/>
+      <c r="AB238" s="1"/>
     </row>
     <row r="239" spans="1:28">
-      <c r="A239" s="1">
-        <v>238</v>
-      </c>
+      <c r="A239" s="1"/>
+      <c r="AA239" s="2"/>
+      <c r="AB239" s="1"/>
     </row>
     <row r="240" spans="1:28">
-      <c r="A240" s="1">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" s="1">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" s="1">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243" s="1">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" s="1">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" s="1">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246" s="1">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" s="1">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248" s="1">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249" s="1">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
-      <c r="A250" s="1">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" s="1">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
-      <c r="A252" s="1">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" s="1">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" s="1">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" s="1">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" s="1">
-        <v>255</v>
-      </c>
+      <c r="A240" s="1"/>
+      <c r="AA240" s="2"/>
+      <c r="AB240" s="1"/>
+    </row>
+    <row r="241" spans="1:28">
+      <c r="A241" s="1"/>
+      <c r="AA241" s="2"/>
+      <c r="AB241" s="1"/>
+    </row>
+    <row r="242" spans="1:28">
+      <c r="A242" s="1"/>
+      <c r="AA242" s="2"/>
+      <c r="AB242" s="1"/>
+    </row>
+    <row r="243" spans="1:28">
+      <c r="A243" s="1"/>
+      <c r="AA243" s="2"/>
+      <c r="AB243" s="1"/>
+    </row>
+    <row r="244" spans="1:28">
+      <c r="A244" s="1"/>
+      <c r="AA244" s="2"/>
+      <c r="AB244" s="1"/>
+    </row>
+    <row r="245" spans="1:28">
+      <c r="A245" s="1"/>
+      <c r="AA245" s="2"/>
+      <c r="AB245" s="1"/>
+    </row>
+    <row r="246" spans="1:28">
+      <c r="A246" s="1"/>
+      <c r="AA246" s="2"/>
+      <c r="AB246" s="1"/>
+    </row>
+    <row r="247" spans="1:28">
+      <c r="A247" s="1"/>
+      <c r="AA247" s="2"/>
+      <c r="AB247" s="1"/>
+    </row>
+    <row r="248" spans="1:28">
+      <c r="A248" s="1"/>
+      <c r="AA248" s="2"/>
+      <c r="AB248" s="1"/>
+    </row>
+    <row r="249" spans="1:28">
+      <c r="A249" s="1"/>
+      <c r="AA249" s="2"/>
+      <c r="AB249" s="1"/>
+    </row>
+    <row r="250" spans="1:28">
+      <c r="A250" s="1"/>
+      <c r="AA250" s="2"/>
+      <c r="AB250" s="1"/>
+    </row>
+    <row r="251" spans="1:28">
+      <c r="A251" s="1"/>
+    </row>
+    <row r="252" spans="1:28">
+      <c r="A252" s="1"/>
+    </row>
+    <row r="253" spans="1:28">
+      <c r="A253" s="1"/>
+    </row>
+    <row r="254" spans="1:28">
+      <c r="A254" s="1"/>
+    </row>
+    <row r="255" spans="1:28">
+      <c r="A255" s="1"/>
+    </row>
+    <row r="256" spans="1:28">
+      <c r="A256" s="1"/>
     </row>
     <row r="257" spans="1:1">
-      <c r="A257" s="1">
-        <v>256</v>
-      </c>
+      <c r="A257" s="1"/>
     </row>
     <row r="258" spans="1:1">
-      <c r="A258" s="1">
-        <v>257</v>
-      </c>
+      <c r="A258" s="1"/>
     </row>
     <row r="259" spans="1:1">
-      <c r="A259" s="1">
-        <v>258</v>
-      </c>
+      <c r="A259" s="1"/>
     </row>
     <row r="260" spans="1:1">
-      <c r="A260" s="1">
-        <v>259</v>
-      </c>
+      <c r="A260" s="1"/>
     </row>
     <row r="261" spans="1:1">
-      <c r="A261" s="1">
-        <v>260</v>
-      </c>
+      <c r="A261" s="1"/>
     </row>
     <row r="262" spans="1:1">
-      <c r="A262" s="1">
-        <v>261</v>
-      </c>
+      <c r="A262" s="1"/>
     </row>
     <row r="263" spans="1:1">
-      <c r="A263" s="1">
-        <v>262</v>
-      </c>
+      <c r="A263" s="1"/>
     </row>
     <row r="264" spans="1:1">
-      <c r="A264" s="1">
-        <v>263</v>
-      </c>
+      <c r="A264" s="1"/>
     </row>
     <row r="265" spans="1:1">
-      <c r="A265" s="1">
-        <v>264</v>
-      </c>
+      <c r="A265" s="1"/>
     </row>
     <row r="266" spans="1:1">
-      <c r="A266" s="1">
-        <v>265</v>
-      </c>
+      <c r="A266" s="1"/>
     </row>
     <row r="267" spans="1:1">
-      <c r="A267" s="1">
-        <v>266</v>
-      </c>
+      <c r="A267" s="1"/>
     </row>
     <row r="268" spans="1:1">
-      <c r="A268" s="1">
-        <v>267</v>
-      </c>
+      <c r="A268" s="1"/>
     </row>
     <row r="269" spans="1:1">
-      <c r="A269" s="1">
-        <v>268</v>
-      </c>
+      <c r="A269" s="1"/>
     </row>
     <row r="270" spans="1:1">
-      <c r="A270" s="1">
-        <v>269</v>
-      </c>
+      <c r="A270" s="1"/>
     </row>
     <row r="271" spans="1:1">
-      <c r="A271" s="1">
-        <v>270</v>
-      </c>
+      <c r="A271" s="1"/>
     </row>
     <row r="272" spans="1:1">
-      <c r="A272" s="1">
-        <v>271</v>
-      </c>
+      <c r="A272" s="1"/>
     </row>
     <row r="273" spans="1:1">
-      <c r="A273" s="1">
-        <v>272</v>
-      </c>
+      <c r="A273" s="1"/>
     </row>
     <row r="274" spans="1:1">
-      <c r="A274" s="1">
-        <v>273</v>
-      </c>
+      <c r="A274" s="1"/>
     </row>
     <row r="275" spans="1:1">
-      <c r="A275" s="1">
-        <v>274</v>
-      </c>
+      <c r="A275" s="1"/>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" s="1">
-        <v>275</v>
-      </c>
+      <c r="A276" s="1"/>
     </row>
     <row r="277" spans="1:1">
-      <c r="A277" s="1">
-        <v>276</v>
-      </c>
+      <c r="A277" s="1"/>
     </row>
     <row r="278" spans="1:1">
-      <c r="A278" s="1">
-        <v>277</v>
-      </c>
+      <c r="A278" s="1"/>
     </row>
     <row r="279" spans="1:1">
-      <c r="A279" s="1">
-        <v>278</v>
-      </c>
+      <c r="A279" s="1"/>
     </row>
     <row r="280" spans="1:1">
-      <c r="A280" s="1">
-        <v>279</v>
-      </c>
+      <c r="A280" s="1"/>
     </row>
     <row r="281" spans="1:1">
-      <c r="A281" s="1">
-        <v>280</v>
-      </c>
+      <c r="A281" s="1"/>
     </row>
     <row r="282" spans="1:1">
-      <c r="A282" s="1">
-        <v>281</v>
-      </c>
+      <c r="A282" s="1"/>
     </row>
     <row r="283" spans="1:1">
-      <c r="A283" s="1">
-        <v>282</v>
-      </c>
+      <c r="A283" s="1"/>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="1">
-        <v>283</v>
-      </c>
+      <c r="A284" s="1"/>
     </row>
     <row r="285" spans="1:1">
-      <c r="A285" s="1">
-        <v>284</v>
-      </c>
+      <c r="A285" s="1"/>
     </row>
     <row r="286" spans="1:1">
-      <c r="A286" s="1">
-        <v>285</v>
-      </c>
+      <c r="A286" s="1"/>
     </row>
     <row r="287" spans="1:1">
-      <c r="A287" s="1">
-        <v>286</v>
-      </c>
+      <c r="A287" s="1"/>
     </row>
     <row r="288" spans="1:1">
-      <c r="A288" s="1">
-        <v>287</v>
-      </c>
+      <c r="A288" s="1"/>
     </row>
     <row r="289" spans="1:1">
-      <c r="A289" s="1">
-        <v>288</v>
-      </c>
+      <c r="A289" s="1"/>
     </row>
     <row r="290" spans="1:1">
-      <c r="A290" s="1">
-        <v>289</v>
-      </c>
+      <c r="A290" s="1"/>
     </row>
     <row r="291" spans="1:1">
-      <c r="A291" s="1">
-        <v>290</v>
-      </c>
+      <c r="A291" s="1"/>
     </row>
     <row r="292" spans="1:1">
-      <c r="A292" s="1">
-        <v>291</v>
-      </c>
+      <c r="A292" s="1"/>
     </row>
     <row r="293" spans="1:1">
-      <c r="A293" s="1">
-        <v>292</v>
-      </c>
+      <c r="A293" s="1"/>
     </row>
     <row r="294" spans="1:1">
-      <c r="A294" s="1">
-        <v>293</v>
-      </c>
+      <c r="A294" s="1"/>
     </row>
     <row r="295" spans="1:1">
-      <c r="A295" s="1">
-        <v>294</v>
-      </c>
+      <c r="A295" s="1"/>
     </row>
     <row r="296" spans="1:1">
-      <c r="A296" s="1">
-        <v>295</v>
-      </c>
+      <c r="A296" s="1"/>
     </row>
     <row r="297" spans="1:1">
-      <c r="A297" s="1">
-        <v>296</v>
-      </c>
+      <c r="A297" s="1"/>
     </row>
     <row r="298" spans="1:1">
-      <c r="A298" s="1">
-        <v>297</v>
-      </c>
+      <c r="A298" s="1"/>
     </row>
     <row r="299" spans="1:1">
-      <c r="A299" s="1">
-        <v>298</v>
-      </c>
+      <c r="A299" s="1"/>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="1">
-        <v>299</v>
-      </c>
+      <c r="A300" s="1"/>
     </row>
     <row r="301" spans="1:1">
-      <c r="A301" s="1">
-        <v>300</v>
-      </c>
+      <c r="A301" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AA301" xr:uid="{7366A242-D771-4522-A7C9-6FAA9267A094}">
@@ -13085,7 +13282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D98E53-4DEF-4580-9413-2831204858BD}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F27:F28"/>
     </sheetView>
   </sheetViews>
@@ -13366,7 +13563,7 @@
   <dimension ref="A1:B278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14795,10 +14992,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFED1B6-6669-418D-935F-274B00B50F32}">
-  <dimension ref="A1:B116"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15391,6 +15588,7 @@
         <v>300</v>
       </c>
     </row>
+    <row r="121" spans="2:2" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <extLst>
@@ -15419,8 +15617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF03CF93-A241-4DB9-ACD8-61B0F18F4B55}">
   <dimension ref="A1:V152"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="F146" sqref="F146"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16449,7 +16647,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16587,6 +16785,66 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC684379-4DA6-4542-878A-CB7C3F3346DA}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{AEE29E84-6A23-46A8-B165-F8699F87E16E}">
+            <xm:f>COUNTIF('PROCESSOS DE FABRICAÇÃO'!$D:$D, B2) &gt; 0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B2:B1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2C057B-75E7-43E4-AAB1-9BAF96F7F0C9}">
   <dimension ref="A1:B2"/>
   <sheetViews>

--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E66FEDA-B0ED-4E7A-A5C4-FF3EFDE4CF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D5A575-DD65-48F7-9582-CCA89D0B5639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="4" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCESSOS DE FABRICAÇÃO" sheetId="1" r:id="rId1"/>
@@ -2101,7 +2101,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2165,9 +2165,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2582,8 +2579,8 @@
   </sheetPr>
   <dimension ref="A1:AV541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
@@ -3989,7 +3986,7 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="26"/>
+      <c r="Z18" s="25"/>
       <c r="AA18" s="2">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -4057,7 +4054,7 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
-      <c r="Z19" s="25"/>
+      <c r="Z19" s="24"/>
       <c r="AA19" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4142,7 +4139,7 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
-      <c r="Z20" s="26"/>
+      <c r="Z20" s="25"/>
       <c r="AA20" s="2">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -4218,7 +4215,7 @@
       <c r="Y21" s="2">
         <v>600</v>
       </c>
-      <c r="Z21" s="27"/>
+      <c r="Z21" s="26"/>
       <c r="AA21" s="18">
         <f t="shared" si="0"/>
         <v>4200</v>
@@ -4305,7 +4302,7 @@
       <c r="Y22" s="2">
         <v>600</v>
       </c>
-      <c r="Z22" s="27"/>
+      <c r="Z22" s="26"/>
       <c r="AA22" s="18">
         <f t="shared" si="0"/>
         <v>4200</v>
@@ -4367,7 +4364,7 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
-      <c r="Z23" s="27"/>
+      <c r="Z23" s="26"/>
       <c r="AA23" s="18">
         <f t="shared" si="0"/>
         <v>720</v>
@@ -4448,7 +4445,7 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
-      <c r="Z24" s="25"/>
+      <c r="Z24" s="24"/>
       <c r="AA24" s="2">
         <f t="shared" si="0"/>
         <v>108</v>
@@ -4508,7 +4505,7 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
-      <c r="Z25" s="24"/>
+      <c r="Z25" s="2"/>
       <c r="AA25" s="2">
         <f t="shared" si="0"/>
         <v>180</v>
@@ -4577,7 +4574,7 @@
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
-      <c r="Z26" s="24"/>
+      <c r="Z26" s="2"/>
       <c r="AA26" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4635,7 +4632,7 @@
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
-      <c r="Z27" s="24"/>
+      <c r="Z27" s="2"/>
       <c r="AA27" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -27537,10 +27534,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF03CF93-A241-4DB9-ACD8-61B0F18F4B55}">
-  <dimension ref="A1:V153"/>
+  <dimension ref="A1:V158"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B154" sqref="B154"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28542,6 +28539,31 @@
     <row r="153" spans="2:2">
       <c r="B153" s="10" t="s">
         <v>229</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="10">
+        <v>10011060422</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="10">
+        <v>10011212346</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="10">
+        <v>10011060505</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="10">
+        <v>10011060601</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="10">
+        <v>10003892555</v>
       </c>
     </row>
   </sheetData>

--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D5A575-DD65-48F7-9582-CCA89D0B5639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C07D371-11D6-4DD3-8716-61970552F02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="4" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCESSOS DE FABRICAÇÃO" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="497">
   <si>
     <t>ORCAMENTO</t>
   </si>
@@ -2579,9 +2579,9 @@
   </sheetPr>
   <dimension ref="A1:AV541"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C319" sqref="C319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18785,8 +18785,8 @@
         <v>691</v>
       </c>
       <c r="AA319" s="2">
-        <f>SUM(G320:Z320)</f>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="AB319" s="1" t="s">
         <v>22</v>
@@ -18832,9 +18832,9 @@
         <v>3</v>
       </c>
       <c r="Y320" s="1"/>
-      <c r="AA320" s="2" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="AA320" s="2">
+        <f>SUM(G320:Z320)</f>
+        <v>5</v>
       </c>
       <c r="AB320" s="1" t="s">
         <v>22</v>
@@ -27534,10 +27534,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF03CF93-A241-4DB9-ACD8-61B0F18F4B55}">
-  <dimension ref="A1:V158"/>
+  <dimension ref="A1:V175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+    <sheetView topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28564,6 +28564,91 @@
     <row r="158" spans="2:2">
       <c r="B158" s="10">
         <v>10003892555</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="10">
+        <v>10008507817</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="10">
+        <v>10008522268</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="10">
+        <v>10008521371</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="10">
+        <v>10008514949</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="10">
+        <v>10008515045</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="10">
+        <v>10008515441</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="10">
+        <v>10008515614</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="10">
+        <v>10008515704</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="10">
+        <v>10008518305</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="10">
+        <v>10008520128</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="10">
+        <v>10008522066</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="10">
+        <v>10008522198</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="10">
+        <v>10008754959</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="10">
+        <v>10002871503</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C07D371-11D6-4DD3-8716-61970552F02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E3B0B5-D494-43A9-ADE9-3BF7AB7FA652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="4" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCESSOS DE FABRICAÇÃO" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="498">
   <si>
     <t>ORCAMENTO</t>
   </si>
@@ -1527,6 +1527,9 @@
   </si>
   <si>
     <t>SHAMAH1COLUNA</t>
+  </si>
+  <si>
+    <t>4557260010-002</t>
   </si>
 </sst>
 </file>
@@ -2579,9 +2582,9 @@
   </sheetPr>
   <dimension ref="A1:AV541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C319" sqref="C319"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G324" sqref="G324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27534,10 +27537,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF03CF93-A241-4DB9-ACD8-61B0F18F4B55}">
-  <dimension ref="A1:V175"/>
+  <dimension ref="A1:V190"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A176" sqref="A176"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B191" sqref="B191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28649,6 +28652,81 @@
     <row r="175" spans="2:2">
       <c r="B175" s="10" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="10">
+        <v>10004910044</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="10">
+        <v>10004910106</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="10">
+        <v>10005671835</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" s="10">
+        <v>10004909925</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="10">
+        <v>10006836942</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" s="10">
+        <v>10006504723</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" s="10">
+        <v>10006836881</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" s="10">
+        <v>10006836848</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" s="10">
+        <v>10003058629</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" s="10">
+        <v>10008513386</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" s="10">
+        <v>10008514518</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" s="10">
+        <v>10007922092</v>
       </c>
     </row>
   </sheetData>

--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E3B0B5-D494-43A9-ADE9-3BF7AB7FA652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E23296-E923-44EF-973A-4015B7B40EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="4" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCESSOS DE FABRICAÇÃO" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="499">
   <si>
     <t>ORCAMENTO</t>
   </si>
@@ -1530,6 +1530,9 @@
   </si>
   <si>
     <t>4557260010-002</t>
+  </si>
+  <si>
+    <t>HVHV311623-01</t>
   </si>
 </sst>
 </file>
@@ -2582,9 +2585,9 @@
   </sheetPr>
   <dimension ref="A1:AV541"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G324" sqref="G324"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E329" sqref="E329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2766,14 +2769,14 @@
       </c>
       <c r="AL2" s="1">
         <f>SUM(G2:G501)</f>
-        <v>5857</v>
+        <v>5890</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN2" s="21">
         <f>AL2/AL23</f>
-        <v>0.12400491192411923</v>
+        <v>0.12373429687828243</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -2842,21 +2845,21 @@
       </c>
       <c r="AN3" s="21">
         <f>AL3/AL23</f>
-        <v>8.5789295392953935E-2</v>
+        <v>8.5122473845636731E-2</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>481</v>
       </c>
       <c r="AQ3" s="1">
         <f>SUM(AL2:AL5)</f>
-        <v>10142</v>
+        <v>10206</v>
       </c>
       <c r="AR3" t="s">
         <v>22</v>
       </c>
       <c r="AS3" s="21">
         <f>AQ3/AL23</f>
-        <v>0.21472730352303523</v>
+        <v>0.21440275618671484</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -2920,14 +2923,14 @@
       </c>
       <c r="AL4" s="1">
         <f>SUM(I2:I500)</f>
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="AM4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN4" s="21">
         <f>AL4/AL23</f>
-        <v>4.7848915989159892E-3</v>
+        <v>5.3989328179488254E-3</v>
       </c>
       <c r="AP4" s="1"/>
       <c r="AS4" s="1"/>
@@ -3000,21 +3003,21 @@
       </c>
       <c r="AN5" s="21">
         <f>AL5/AL23</f>
-        <v>1.4820460704607045E-4</v>
+        <v>1.4705264484685517E-4</v>
       </c>
       <c r="AP5" s="1" t="s">
         <v>482</v>
       </c>
       <c r="AQ5" s="1">
         <f>SUM(AL6:AL7)</f>
-        <v>3046</v>
+        <v>3051</v>
       </c>
       <c r="AR5" t="s">
         <v>22</v>
       </c>
       <c r="AS5" s="21">
         <f>AQ5/AL23</f>
-        <v>6.4490176151761516E-2</v>
+        <v>6.4093945632536453E-2</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -3078,14 +3081,14 @@
       </c>
       <c r="AL6" s="1">
         <f>SUM(K2:K502)</f>
-        <v>2807</v>
+        <v>2812</v>
       </c>
       <c r="AM6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN6" s="21">
         <f>AL6/AL23</f>
-        <v>5.9430047425474253E-2</v>
+        <v>5.9073148187050964E-2</v>
       </c>
       <c r="AS6" s="1"/>
     </row>
@@ -3157,21 +3160,21 @@
       </c>
       <c r="AN7" s="21">
         <f>AL7/AL23</f>
-        <v>5.0601287262872626E-3</v>
+        <v>5.020797445485484E-3</v>
       </c>
       <c r="AP7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AQ7" s="1">
         <f>AL8</f>
-        <v>6103</v>
+        <v>6163</v>
       </c>
       <c r="AR7" t="s">
         <v>22</v>
       </c>
       <c r="AS7" s="22">
         <f>AN8</f>
-        <v>0.12921324525745256</v>
+        <v>0.12946935002730978</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -3235,14 +3238,14 @@
       </c>
       <c r="AL8" s="1">
         <f>SUM(M2:M500)</f>
-        <v>6103</v>
+        <v>6163</v>
       </c>
       <c r="AM8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN8" s="21">
         <f>AL8/AL23</f>
-        <v>0.12921324525745256</v>
+        <v>0.12946935002730978</v>
       </c>
       <c r="AS8" s="1"/>
     </row>
@@ -3307,28 +3310,28 @@
       </c>
       <c r="AL9" s="1">
         <f>SUM(N2:N502)</f>
-        <v>2331</v>
+        <v>2361</v>
       </c>
       <c r="AM9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN9" s="21">
         <f>AL9/AL23</f>
-        <v>4.9352134146341466E-2</v>
+        <v>4.9598756354775009E-2</v>
       </c>
       <c r="AP9" s="1" t="s">
         <v>480</v>
       </c>
       <c r="AQ9" s="1">
         <f>AL9</f>
-        <v>2331</v>
+        <v>2361</v>
       </c>
       <c r="AR9" t="s">
         <v>22</v>
       </c>
       <c r="AS9" s="22">
         <f>AN9</f>
-        <v>4.9352134146341466E-2</v>
+        <v>4.9598756354775009E-2</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -3399,7 +3402,7 @@
       </c>
       <c r="AN10" s="21">
         <f>AL10/AL23</f>
-        <v>2.6041666666666665E-3</v>
+        <v>2.5839250451661694E-3</v>
       </c>
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
@@ -3473,21 +3476,21 @@
       </c>
       <c r="AN11" s="21">
         <f>AL11/AL23</f>
-        <v>1.3952405149051491E-2</v>
+        <v>1.3843956136296794E-2</v>
       </c>
       <c r="AP11" s="1" t="s">
         <v>483</v>
       </c>
       <c r="AQ11" s="1">
         <f>SUM(AL10:AL12)</f>
-        <v>1230</v>
+        <v>1245</v>
       </c>
       <c r="AR11" t="s">
         <v>22</v>
       </c>
       <c r="AS11" s="22">
         <f>AQ11/AL23</f>
-        <v>2.6041666666666668E-2</v>
+        <v>2.6154363262047814E-2</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -3549,14 +3552,14 @@
       </c>
       <c r="AL12" s="1">
         <f>SUM(Q2:Q501)</f>
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="AM12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN12" s="21">
         <f>AL12/AL23</f>
-        <v>9.485094850948509E-3</v>
+        <v>9.7264820805848494E-3</v>
       </c>
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
@@ -3626,7 +3629,7 @@
       </c>
       <c r="AN13" s="21">
         <f>AL13/AL23</f>
-        <v>1.7996273712737128E-3</v>
+        <v>1.78563925885467E-3</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>13</v>
@@ -3640,7 +3643,7 @@
       </c>
       <c r="AS13" s="22">
         <f>AQ13/AL23</f>
-        <v>1.7996273712737128E-3</v>
+        <v>1.78563925885467E-3</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -3703,7 +3706,7 @@
       </c>
       <c r="AN14" s="21">
         <f>AL14/AL23</f>
-        <v>2.540650406504065E-3</v>
+        <v>2.5209024830889458E-3</v>
       </c>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
@@ -3789,7 +3792,7 @@
       </c>
       <c r="AS15" s="22">
         <f>AN14</f>
-        <v>2.540650406504065E-3</v>
+        <v>2.5209024830889458E-3</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -3853,14 +3856,14 @@
       </c>
       <c r="AL16" s="1">
         <f>SUM(U4:U500)</f>
-        <v>13444</v>
+        <v>13539</v>
       </c>
       <c r="AM16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN16" s="21">
         <f>AL16/AL23</f>
-        <v>0.28463753387533874</v>
+        <v>0.2844208226545103</v>
       </c>
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1"/>
@@ -3921,14 +3924,14 @@
       </c>
       <c r="AL17" s="1">
         <f>SUM(V11:V500)</f>
-        <v>4467</v>
+        <v>4548</v>
       </c>
       <c r="AM17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN17" s="21">
         <f>AL17/AL23</f>
-        <v>9.457571138211382E-2</v>
+        <v>9.5542204109071049E-2</v>
       </c>
       <c r="AP17" s="1" t="s">
         <v>14</v>
@@ -4009,7 +4012,7 @@
       </c>
       <c r="AN18" s="21">
         <f>AL18/AL23</f>
-        <v>1.3719512195121951E-2</v>
+        <v>1.3612873408680308E-2</v>
       </c>
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
@@ -4077,21 +4080,21 @@
       </c>
       <c r="AN19" s="21">
         <f>AL19/AL23</f>
-        <v>6.6543868563685632E-2</v>
+        <v>6.602663753623797E-2</v>
       </c>
       <c r="AP19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AQ19" s="1">
         <f>AL16</f>
-        <v>13444</v>
+        <v>13539</v>
       </c>
       <c r="AR19" t="s">
         <v>22</v>
       </c>
       <c r="AS19" s="22">
         <f>AN16</f>
-        <v>0.28463753387533874</v>
+        <v>0.2844208226545103</v>
       </c>
     </row>
     <row r="20" spans="1:46">
@@ -4155,14 +4158,14 @@
       </c>
       <c r="AL20" s="1">
         <f>SUM(Y5:Y500)</f>
-        <v>2473</v>
+        <v>2493</v>
       </c>
       <c r="AM20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN20" s="21">
         <f>AL20/AL23</f>
-        <v>5.2358570460704607E-2</v>
+        <v>5.2371749086172849E-2</v>
       </c>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
@@ -4245,14 +4248,14 @@
       </c>
       <c r="AQ21" s="1">
         <f>AL17</f>
-        <v>4467</v>
+        <v>4548</v>
       </c>
       <c r="AR21" t="s">
         <v>22</v>
       </c>
       <c r="AS21" s="22">
         <f>AN17</f>
-        <v>9.457571138211382E-2</v>
+        <v>9.5542204109071049E-2</v>
       </c>
     </row>
     <row r="22" spans="1:46">
@@ -4380,7 +4383,7 @@
       </c>
       <c r="AL23" s="1">
         <f>SUM(AL2:AL21)</f>
-        <v>47232</v>
+        <v>47602</v>
       </c>
       <c r="AM23" s="1" t="s">
         <v>22</v>
@@ -4397,7 +4400,7 @@
       </c>
       <c r="AS23" s="22">
         <f>AN18</f>
-        <v>1.3719512195121951E-2</v>
+        <v>1.3612873408680308E-2</v>
       </c>
     </row>
     <row r="24" spans="1:46">
@@ -4528,7 +4531,7 @@
       </c>
       <c r="AS25" s="22">
         <f>AN19</f>
-        <v>6.6543868563685632E-2</v>
+        <v>6.602663753623797E-2</v>
       </c>
     </row>
     <row r="26" spans="1:46">
@@ -4648,14 +4651,14 @@
       </c>
       <c r="AQ27" s="1">
         <f>AL20</f>
-        <v>2473</v>
+        <v>2493</v>
       </c>
       <c r="AR27" t="s">
         <v>22</v>
       </c>
       <c r="AS27" s="22">
         <f>AN20</f>
-        <v>5.2358570460704607E-2</v>
+        <v>5.2371749086172849E-2</v>
       </c>
     </row>
     <row r="28" spans="1:46">
@@ -4902,14 +4905,14 @@
       </c>
       <c r="AQ31" s="1">
         <f>SUM(AQ3:AQ29)</f>
-        <v>47232</v>
+        <v>47602</v>
       </c>
       <c r="AR31" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AS31" s="23">
         <f>SUM(AS3:AS29)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AT31" s="20"/>
     </row>
@@ -18847,14 +18850,26 @@
       <c r="A321" s="1">
         <v>320</v>
       </c>
-      <c r="B321" s="1"/>
-      <c r="C321" s="1"/>
-      <c r="D321" s="1"/>
-      <c r="E321" s="1"/>
-      <c r="F321" s="1"/>
+      <c r="B321" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C321" s="1">
+        <v>693</v>
+      </c>
+      <c r="D321" s="1">
+        <v>10011060422</v>
+      </c>
+      <c r="E321" s="1">
+        <v>17329821</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
-      <c r="I321" s="1"/>
+      <c r="I321" s="1">
+        <v>20</v>
+      </c>
       <c r="J321" s="1"/>
       <c r="K321" s="1"/>
       <c r="L321" s="1"/>
@@ -18862,14 +18877,22 @@
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
       <c r="P321" s="1"/>
-      <c r="Q321" s="1"/>
+      <c r="Q321" s="1">
+        <v>5</v>
+      </c>
       <c r="R321" s="1"/>
-      <c r="U321" s="1"/>
-      <c r="V321" s="1"/>
-      <c r="Y321" s="1"/>
+      <c r="U321" s="1">
+        <v>20</v>
+      </c>
+      <c r="V321" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y321" s="1">
+        <v>15</v>
+      </c>
       <c r="AA321" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB321" s="1" t="s">
         <v>22</v>
@@ -18879,29 +18902,55 @@
       <c r="A322" s="1">
         <v>321</v>
       </c>
-      <c r="B322" s="1"/>
-      <c r="C322" s="1"/>
-      <c r="D322" s="1"/>
-      <c r="E322" s="1"/>
-      <c r="F322" s="1"/>
-      <c r="G322" s="1"/>
+      <c r="B322" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C322" s="1">
+        <v>693</v>
+      </c>
+      <c r="D322" s="1">
+        <v>10011212346</v>
+      </c>
+      <c r="E322" s="1">
+        <v>17410108</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G322" s="1">
+        <v>3</v>
+      </c>
       <c r="H322" s="1"/>
-      <c r="I322" s="1"/>
+      <c r="I322" s="1">
+        <v>9</v>
+      </c>
       <c r="J322" s="1"/>
-      <c r="K322" s="1"/>
+      <c r="K322" s="1">
+        <v>5</v>
+      </c>
       <c r="L322" s="1"/>
       <c r="M322" s="1"/>
-      <c r="N322" s="1"/>
+      <c r="N322" s="1">
+        <v>5</v>
+      </c>
       <c r="O322" s="1"/>
       <c r="P322" s="1"/>
-      <c r="Q322" s="1"/>
+      <c r="Q322" s="1">
+        <v>5</v>
+      </c>
       <c r="R322" s="1"/>
-      <c r="U322" s="1"/>
-      <c r="V322" s="1"/>
-      <c r="Y322" s="1"/>
+      <c r="U322" s="1">
+        <v>10</v>
+      </c>
+      <c r="V322" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y322" s="1">
+        <v>5</v>
+      </c>
       <c r="AA322" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="AB322" s="1" t="s">
         <v>22</v>
@@ -18911,29 +18960,45 @@
       <c r="A323" s="1">
         <v>322</v>
       </c>
-      <c r="B323" s="1"/>
-      <c r="C323" s="1"/>
-      <c r="D323" s="1"/>
-      <c r="E323" s="1"/>
-      <c r="F323" s="1"/>
-      <c r="G323" s="1"/>
+      <c r="B323" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C323" s="1">
+        <v>693</v>
+      </c>
+      <c r="D323" s="1">
+        <v>10011060505</v>
+      </c>
+      <c r="E323" s="1">
+        <v>17329824</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G323" s="1">
+        <v>5</v>
+      </c>
       <c r="H323" s="1"/>
       <c r="I323" s="1"/>
       <c r="J323" s="1"/>
       <c r="K323" s="1"/>
       <c r="L323" s="1"/>
       <c r="M323" s="1"/>
-      <c r="N323" s="1"/>
+      <c r="N323" s="1">
+        <v>10</v>
+      </c>
       <c r="O323" s="1"/>
       <c r="P323" s="1"/>
       <c r="Q323" s="1"/>
       <c r="R323" s="1"/>
       <c r="U323" s="1"/>
-      <c r="V323" s="1"/>
+      <c r="V323" s="1">
+        <v>7</v>
+      </c>
       <c r="Y323" s="1"/>
       <c r="AA323" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AB323" s="1" t="s">
         <v>22</v>
@@ -18943,14 +19008,26 @@
       <c r="A324" s="1">
         <v>323</v>
       </c>
-      <c r="B324" s="1"/>
-      <c r="C324" s="1"/>
-      <c r="D324" s="1"/>
-      <c r="E324" s="1"/>
-      <c r="F324" s="1"/>
+      <c r="B324" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C324" s="1">
+        <v>693</v>
+      </c>
+      <c r="D324" s="1">
+        <v>10011060601</v>
+      </c>
+      <c r="E324" s="1">
+        <v>17329831</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
-      <c r="I324" s="1"/>
+      <c r="I324" s="1">
+        <v>2</v>
+      </c>
       <c r="J324" s="1"/>
       <c r="K324" s="1"/>
       <c r="L324" s="1"/>
@@ -18958,14 +19035,18 @@
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
       <c r="P324" s="1"/>
-      <c r="Q324" s="1"/>
+      <c r="Q324" s="1">
+        <v>5</v>
+      </c>
       <c r="R324" s="1"/>
       <c r="U324" s="1"/>
-      <c r="V324" s="1"/>
+      <c r="V324" s="1">
+        <v>4</v>
+      </c>
       <c r="Y324" s="1"/>
       <c r="AA324" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AB324" s="1" t="s">
         <v>22</v>
@@ -18975,29 +19056,49 @@
       <c r="A325" s="1">
         <v>324</v>
       </c>
-      <c r="B325" s="1"/>
-      <c r="C325" s="1"/>
-      <c r="D325" s="1"/>
-      <c r="E325" s="1"/>
-      <c r="F325" s="1"/>
-      <c r="G325" s="1"/>
+      <c r="B325" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C325" s="1">
+        <v>679</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G325" s="1">
+        <v>15</v>
+      </c>
       <c r="H325" s="1"/>
       <c r="I325" s="1"/>
       <c r="J325" s="1"/>
       <c r="K325" s="1"/>
       <c r="L325" s="1"/>
-      <c r="M325" s="1"/>
-      <c r="N325" s="1"/>
+      <c r="M325" s="1">
+        <v>30</v>
+      </c>
+      <c r="N325" s="1">
+        <v>15</v>
+      </c>
       <c r="O325" s="1"/>
       <c r="P325" s="1"/>
       <c r="Q325" s="1"/>
       <c r="R325" s="1"/>
-      <c r="U325" s="1"/>
-      <c r="V325" s="1"/>
+      <c r="U325" s="1">
+        <v>45</v>
+      </c>
+      <c r="V325" s="1">
+        <v>30</v>
+      </c>
       <c r="Y325" s="1"/>
       <c r="AA325" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="AB325" s="1" t="s">
         <v>22</v>
@@ -19007,29 +19108,47 @@
       <c r="A326" s="1">
         <v>325</v>
       </c>
-      <c r="B326" s="1"/>
-      <c r="C326" s="1"/>
-      <c r="D326" s="1"/>
-      <c r="E326" s="1"/>
-      <c r="F326" s="1"/>
-      <c r="G326" s="1"/>
+      <c r="B326" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C326" s="1">
+        <v>696</v>
+      </c>
+      <c r="D326" s="1">
+        <v>10007922092</v>
+      </c>
+      <c r="E326" s="1">
+        <v>11475437</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G326" s="1">
+        <v>10</v>
+      </c>
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
       <c r="J326" s="1"/>
       <c r="K326" s="1"/>
       <c r="L326" s="1"/>
-      <c r="M326" s="1"/>
+      <c r="M326" s="1">
+        <v>30</v>
+      </c>
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
       <c r="P326" s="1"/>
       <c r="Q326" s="1"/>
       <c r="R326" s="1"/>
-      <c r="U326" s="1"/>
-      <c r="V326" s="1"/>
+      <c r="U326" s="1">
+        <v>20</v>
+      </c>
+      <c r="V326" s="1">
+        <v>15</v>
+      </c>
       <c r="Y326" s="1"/>
       <c r="AA326" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB326" s="1" t="s">
         <v>22</v>
@@ -27539,8 +27658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF03CF93-A241-4DB9-ACD8-61B0F18F4B55}">
   <dimension ref="A1:V190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B191" sqref="B191"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B190" sqref="B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28758,8 +28877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2C057B-75E7-43E4-AAB1-9BAF96F7F0C9}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29:K29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28951,8 +29070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC684379-4DA6-4542-878A-CB7C3F3346DA}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E23296-E923-44EF-973A-4015B7B40EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D810638-6DF8-4FCA-8AE1-95DF5CF94AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCESSOS DE FABRICAÇÃO" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="JUNHO" sheetId="7" r:id="rId3"/>
     <sheet name="JULHO" sheetId="5" r:id="rId4"/>
     <sheet name="AGOSTO" sheetId="3" r:id="rId5"/>
-    <sheet name="NOVEMBRO" sheetId="6" r:id="rId6"/>
-    <sheet name="SETEMBRO" sheetId="4" r:id="rId7"/>
-    <sheet name="OUTUBRO" sheetId="8" r:id="rId8"/>
+    <sheet name="SETEMBRO" sheetId="4" r:id="rId6"/>
+    <sheet name="OUTUBRO" sheetId="8" r:id="rId7"/>
+    <sheet name="NOVEMBRO" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PROCESSOS DE FABRICAÇÃO'!$A$1:$AA$301</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="501">
   <si>
     <t>ORCAMENTO</t>
   </si>
@@ -1533,6 +1533,12 @@
   </si>
   <si>
     <t>HVHV311623-01</t>
+  </si>
+  <si>
+    <t>HVHV305342-32</t>
+  </si>
+  <si>
+    <t>HVHV305342-07</t>
   </si>
 </sst>
 </file>
@@ -2583,11 +2589,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AV541"/>
+  <dimension ref="A1:AV540"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E329" sqref="E329"/>
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T337" sqref="T337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2768,15 +2774,15 @@
         <v>4</v>
       </c>
       <c r="AL2" s="1">
-        <f>SUM(G2:G501)</f>
-        <v>5890</v>
+        <f>SUM(G2:G500)</f>
+        <v>5925</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN2" s="21">
         <f>AL2/AL23</f>
-        <v>0.12373429687828243</v>
+        <v>0.12282847547576599</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -2837,29 +2843,29 @@
         <v>477</v>
       </c>
       <c r="AL3" s="1">
-        <f>SUM(H2:H501)</f>
-        <v>4052</v>
+        <f>SUM(H2:H500)</f>
+        <v>4137</v>
       </c>
       <c r="AM3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN3" s="21">
         <f>AL3/AL23</f>
-        <v>8.5122473845636731E-2</v>
+        <v>8.5762262117003191E-2</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>481</v>
       </c>
       <c r="AQ3" s="1">
         <f>SUM(AL2:AL5)</f>
-        <v>10206</v>
+        <v>10331</v>
       </c>
       <c r="AR3" t="s">
         <v>22</v>
       </c>
       <c r="AS3" s="21">
         <f>AQ3/AL23</f>
-        <v>0.21440275618671484</v>
+        <v>0.21416725403209089</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -2922,15 +2928,15 @@
         <v>478</v>
       </c>
       <c r="AL4" s="1">
-        <f>SUM(I2:I500)</f>
-        <v>257</v>
+        <f>SUM(I2:I499)</f>
+        <v>262</v>
       </c>
       <c r="AM4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN4" s="21">
         <f>AL4/AL23</f>
-        <v>5.3989328179488254E-3</v>
+        <v>5.4314026286330277E-3</v>
       </c>
       <c r="AP4" s="1"/>
       <c r="AS4" s="1"/>
@@ -2995,7 +3001,7 @@
         <v>479</v>
       </c>
       <c r="AL5" s="1">
-        <f>SUM(J2:J501)</f>
+        <f>SUM(J2:J500)</f>
         <v>7</v>
       </c>
       <c r="AM5" s="1" t="s">
@@ -3003,21 +3009,21 @@
       </c>
       <c r="AN5" s="21">
         <f>AL5/AL23</f>
-        <v>1.4705264484685517E-4</v>
+        <v>1.4511381068866869E-4</v>
       </c>
       <c r="AP5" s="1" t="s">
         <v>482</v>
       </c>
       <c r="AQ5" s="1">
         <f>SUM(AL6:AL7)</f>
-        <v>3051</v>
+        <v>3079</v>
       </c>
       <c r="AR5" t="s">
         <v>22</v>
       </c>
       <c r="AS5" s="21">
         <f>AQ5/AL23</f>
-        <v>6.4093945632536453E-2</v>
+        <v>6.3829346158630132E-2</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -3080,15 +3086,15 @@
         <v>8</v>
       </c>
       <c r="AL6" s="1">
-        <f>SUM(K2:K502)</f>
-        <v>2812</v>
+        <f>SUM(K2:K501)</f>
+        <v>2840</v>
       </c>
       <c r="AM6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN6" s="21">
         <f>AL6/AL23</f>
-        <v>5.9073148187050964E-2</v>
+        <v>5.8874746050831296E-2</v>
       </c>
       <c r="AS6" s="1"/>
     </row>
@@ -3152,7 +3158,7 @@
         <v>9</v>
       </c>
       <c r="AL7" s="1">
-        <f>SUM(L2:L502)</f>
+        <f>SUM(L2:L501)</f>
         <v>239</v>
       </c>
       <c r="AM7" s="1" t="s">
@@ -3160,21 +3166,21 @@
       </c>
       <c r="AN7" s="21">
         <f>AL7/AL23</f>
-        <v>5.020797445485484E-3</v>
+        <v>4.9546001077988306E-3</v>
       </c>
       <c r="AP7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AQ7" s="1">
         <f>AL8</f>
-        <v>6163</v>
+        <v>6253</v>
       </c>
       <c r="AR7" t="s">
         <v>22</v>
       </c>
       <c r="AS7" s="22">
         <f>AN8</f>
-        <v>0.12946935002730978</v>
+        <v>0.12962809403374934</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -3237,15 +3243,15 @@
         <v>10</v>
       </c>
       <c r="AL8" s="1">
-        <f>SUM(M2:M500)</f>
-        <v>6163</v>
+        <f>SUM(M2:M499)</f>
+        <v>6253</v>
       </c>
       <c r="AM8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN8" s="21">
         <f>AL8/AL23</f>
-        <v>0.12946935002730978</v>
+        <v>0.12962809403374934</v>
       </c>
       <c r="AS8" s="1"/>
     </row>
@@ -3309,29 +3315,29 @@
         <v>480</v>
       </c>
       <c r="AL9" s="1">
-        <f>SUM(N2:N502)</f>
-        <v>2361</v>
+        <f>SUM(N2:N501)</f>
+        <v>2381</v>
       </c>
       <c r="AM9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN9" s="21">
         <f>AL9/AL23</f>
-        <v>4.9598756354775009E-2</v>
+        <v>4.9359426178531451E-2</v>
       </c>
       <c r="AP9" s="1" t="s">
         <v>480</v>
       </c>
       <c r="AQ9" s="1">
         <f>AL9</f>
-        <v>2361</v>
+        <v>2381</v>
       </c>
       <c r="AR9" t="s">
         <v>22</v>
       </c>
       <c r="AS9" s="22">
         <f>AN9</f>
-        <v>4.9598756354775009E-2</v>
+        <v>4.9359426178531451E-2</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -3394,15 +3400,15 @@
         <v>11</v>
       </c>
       <c r="AL10" s="1">
-        <f>SUM(O2:O501)</f>
-        <v>123</v>
+        <f>SUM(O2:O500)</f>
+        <v>138</v>
       </c>
       <c r="AM10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN10" s="21">
         <f>AL10/AL23</f>
-        <v>2.5839250451661694E-3</v>
+        <v>2.8608151250051825E-3</v>
       </c>
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
@@ -3468,29 +3474,29 @@
         <v>12</v>
       </c>
       <c r="AL11" s="1">
-        <f>SUM(P2:P501)</f>
-        <v>659</v>
+        <f>SUM(P2:P500)</f>
+        <v>689</v>
       </c>
       <c r="AM11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN11" s="21">
         <f>AL11/AL23</f>
-        <v>1.3843956136296794E-2</v>
+        <v>1.4283345080641817E-2</v>
       </c>
       <c r="AP11" s="1" t="s">
         <v>483</v>
       </c>
       <c r="AQ11" s="1">
         <f>SUM(AL10:AL12)</f>
-        <v>1245</v>
+        <v>1305</v>
       </c>
       <c r="AR11" t="s">
         <v>22</v>
       </c>
       <c r="AS11" s="22">
         <f>AQ11/AL23</f>
-        <v>2.6154363262047814E-2</v>
+        <v>2.7053360421244663E-2</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -3551,15 +3557,15 @@
         <v>78</v>
       </c>
       <c r="AL12" s="1">
-        <f>SUM(Q2:Q501)</f>
-        <v>463</v>
+        <f>SUM(Q2:Q500)</f>
+        <v>478</v>
       </c>
       <c r="AM12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN12" s="21">
         <f>AL12/AL23</f>
-        <v>9.7264820805848494E-3</v>
+        <v>9.9092002155976612E-3</v>
       </c>
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
@@ -3621,7 +3627,7 @@
         <v>13</v>
       </c>
       <c r="AL13" s="1">
-        <f>SUM(R2:R501)</f>
+        <f>SUM(R2:R500)</f>
         <v>85</v>
       </c>
       <c r="AM13" s="1" t="s">
@@ -3629,7 +3635,7 @@
       </c>
       <c r="AN13" s="21">
         <f>AL13/AL23</f>
-        <v>1.78563925885467E-3</v>
+        <v>1.7620962726481197E-3</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>13</v>
@@ -3643,7 +3649,7 @@
       </c>
       <c r="AS13" s="22">
         <f>AQ13/AL23</f>
-        <v>1.78563925885467E-3</v>
+        <v>1.7620962726481197E-3</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -3698,7 +3704,7 @@
         <v>193</v>
       </c>
       <c r="AL14" s="1">
-        <f>SUM(S5:S502)</f>
+        <f>SUM(S5:S501)</f>
         <v>120</v>
       </c>
       <c r="AM14" s="1" t="s">
@@ -3706,7 +3712,7 @@
       </c>
       <c r="AN14" s="21">
         <f>AL14/AL23</f>
-        <v>2.5209024830889458E-3</v>
+        <v>2.4876653260914633E-3</v>
       </c>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
@@ -3770,7 +3776,7 @@
         <v>14</v>
       </c>
       <c r="AL15" s="1">
-        <f>SUM(T6:T501)</f>
+        <f>SUM(T6:T500)</f>
         <v>0</v>
       </c>
       <c r="AM15" s="1" t="s">
@@ -3792,7 +3798,7 @@
       </c>
       <c r="AS15" s="22">
         <f>AN14</f>
-        <v>2.5209024830889458E-3</v>
+        <v>2.4876653260914633E-3</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -3855,15 +3861,15 @@
         <v>15</v>
       </c>
       <c r="AL16" s="1">
-        <f>SUM(U4:U500)</f>
-        <v>13539</v>
+        <f>SUM(U4:U499)</f>
+        <v>13684</v>
       </c>
       <c r="AM16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN16" s="21">
         <f>AL16/AL23</f>
-        <v>0.2844208226545103</v>
+        <v>0.28367676935196318</v>
       </c>
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1"/>
@@ -3923,15 +3929,15 @@
         <v>16</v>
       </c>
       <c r="AL17" s="1">
-        <f>SUM(V11:V500)</f>
-        <v>4548</v>
+        <f>SUM(V11:V499)</f>
+        <v>4656</v>
       </c>
       <c r="AM17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN17" s="21">
         <f>AL17/AL23</f>
-        <v>9.5542204109071049E-2</v>
+        <v>9.6521414652348772E-2</v>
       </c>
       <c r="AP17" s="1" t="s">
         <v>14</v>
@@ -4004,7 +4010,7 @@
         <v>17</v>
       </c>
       <c r="AL18" s="1">
-        <f>SUM(W6:W499)</f>
+        <f>SUM(W6:W498)</f>
         <v>648</v>
       </c>
       <c r="AM18" s="1" t="s">
@@ -4012,7 +4018,7 @@
       </c>
       <c r="AN18" s="21">
         <f>AL18/AL23</f>
-        <v>1.3612873408680308E-2</v>
+        <v>1.3433392760893901E-2</v>
       </c>
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
@@ -4072,7 +4078,7 @@
         <v>18</v>
       </c>
       <c r="AL19" s="1">
-        <f>SUM(X10:X501)</f>
+        <f>SUM(X10:X500)</f>
         <v>3143</v>
       </c>
       <c r="AM19" s="1" t="s">
@@ -4080,21 +4086,21 @@
       </c>
       <c r="AN19" s="21">
         <f>AL19/AL23</f>
-        <v>6.602663753623797E-2</v>
+        <v>6.5156100999212235E-2</v>
       </c>
       <c r="AP19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AQ19" s="1">
         <f>AL16</f>
-        <v>13539</v>
+        <v>13684</v>
       </c>
       <c r="AR19" t="s">
         <v>22</v>
       </c>
       <c r="AS19" s="22">
         <f>AN16</f>
-        <v>0.2844208226545103</v>
+        <v>0.28367676935196318</v>
       </c>
     </row>
     <row r="20" spans="1:46">
@@ -4157,7 +4163,7 @@
         <v>19</v>
       </c>
       <c r="AL20" s="1">
-        <f>SUM(Y5:Y500)</f>
+        <f>SUM(Y5:Y499)</f>
         <v>2493</v>
       </c>
       <c r="AM20" s="1" t="s">
@@ -4165,7 +4171,7 @@
       </c>
       <c r="AN20" s="21">
         <f>AL20/AL23</f>
-        <v>5.2371749086172849E-2</v>
+        <v>5.168124714955015E-2</v>
       </c>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
@@ -4233,29 +4239,29 @@
         <v>58</v>
       </c>
       <c r="AL21" s="1">
-        <f>SUM(Z12:Z500)</f>
-        <v>0</v>
+        <f>SUM(Z12:Z499)</f>
+        <v>60</v>
       </c>
       <c r="AM21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN21" s="21">
         <f>AL21/AL23</f>
-        <v>0</v>
+        <v>1.2438326630457317E-3</v>
       </c>
       <c r="AP21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AQ21" s="1">
         <f>AL17</f>
-        <v>4548</v>
+        <v>4656</v>
       </c>
       <c r="AR21" t="s">
         <v>22</v>
       </c>
       <c r="AS21" s="22">
         <f>AN17</f>
-        <v>9.5542204109071049E-2</v>
+        <v>9.6521414652348772E-2</v>
       </c>
     </row>
     <row r="22" spans="1:46">
@@ -4383,7 +4389,7 @@
       </c>
       <c r="AL23" s="1">
         <f>SUM(AL2:AL21)</f>
-        <v>47602</v>
+        <v>48238</v>
       </c>
       <c r="AM23" s="1" t="s">
         <v>22</v>
@@ -4400,7 +4406,7 @@
       </c>
       <c r="AS23" s="22">
         <f>AN18</f>
-        <v>1.3612873408680308E-2</v>
+        <v>1.3433392760893901E-2</v>
       </c>
     </row>
     <row r="24" spans="1:46">
@@ -4451,7 +4457,7 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
-      <c r="Z24" s="24"/>
+      <c r="Z24" s="2"/>
       <c r="AA24" s="2">
         <f t="shared" si="0"/>
         <v>108</v>
@@ -4531,7 +4537,7 @@
       </c>
       <c r="AS25" s="22">
         <f>AN19</f>
-        <v>6.602663753623797E-2</v>
+        <v>6.5156100999212235E-2</v>
       </c>
     </row>
     <row r="26" spans="1:46">
@@ -4658,7 +4664,7 @@
       </c>
       <c r="AS27" s="22">
         <f>AN20</f>
-        <v>5.2371749086172849E-2</v>
+        <v>5.168124714955015E-2</v>
       </c>
     </row>
     <row r="28" spans="1:46">
@@ -4778,14 +4784,14 @@
       </c>
       <c r="AQ29" s="1">
         <f>AL21</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AR29" t="s">
         <v>22</v>
       </c>
       <c r="AS29" s="22">
         <f>AN21</f>
-        <v>0</v>
+        <v>1.2438326630457317E-3</v>
       </c>
     </row>
     <row r="30" spans="1:46">
@@ -4905,14 +4911,14 @@
       </c>
       <c r="AQ31" s="1">
         <f>SUM(AQ3:AQ29)</f>
-        <v>47602</v>
+        <v>48238</v>
       </c>
       <c r="AR31" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AS31" s="23">
         <f>SUM(AS3:AS29)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="AT31" s="20"/>
     </row>
@@ -13784,9 +13790,7 @@
       <c r="F224" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G224" s="2">
-        <v>3</v>
-      </c>
+      <c r="G224" s="2"/>
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
@@ -13798,9 +13802,12 @@
       <c r="P224" s="1"/>
       <c r="Q224" s="1"/>
       <c r="R224" s="1"/>
+      <c r="Z224" s="1">
+        <v>60</v>
+      </c>
       <c r="AA224" s="2">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="AB224" s="1" t="s">
         <v>22</v>
@@ -17005,7 +17012,7 @@
       <c r="Y284" s="1"/>
       <c r="Z284" s="1"/>
       <c r="AA284" s="2">
-        <f t="shared" ref="AA284:AA347" si="5">SUM(G284:Z284)</f>
+        <f t="shared" ref="AA284:AA346" si="5">SUM(G284:Z284)</f>
         <v>25</v>
       </c>
       <c r="AB284" s="1" t="s">
@@ -18782,17 +18789,47 @@
     </row>
     <row r="319" spans="1:28">
       <c r="A319" s="1">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>128</v>
+        <v>495</v>
       </c>
       <c r="C319" s="1">
-        <v>691</v>
-      </c>
+        <v>690</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G319" s="1"/>
+      <c r="H319" s="1"/>
+      <c r="I319" s="1"/>
+      <c r="J319" s="1"/>
+      <c r="K319" s="1"/>
+      <c r="L319" s="1"/>
+      <c r="M319" s="1"/>
+      <c r="N319" s="1"/>
+      <c r="O319" s="1"/>
+      <c r="P319" s="1"/>
+      <c r="Q319" s="1"/>
+      <c r="R319" s="1"/>
+      <c r="U319" s="1"/>
+      <c r="V319" s="1"/>
+      <c r="W319" s="1">
+        <v>2</v>
+      </c>
+      <c r="X319" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y319" s="1"/>
       <c r="AA319" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB319" s="1" t="s">
         <v>22</v>
@@ -18800,26 +18837,28 @@
     </row>
     <row r="320" spans="1:28">
       <c r="A320" s="1">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>495</v>
+        <v>80</v>
       </c>
       <c r="C320" s="1">
-        <v>690</v>
-      </c>
-      <c r="D320" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E320" s="1" t="s">
-        <v>25</v>
+        <v>693</v>
+      </c>
+      <c r="D320" s="1">
+        <v>10011060422</v>
+      </c>
+      <c r="E320" s="1">
+        <v>17329821</v>
       </c>
       <c r="F320" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
-      <c r="I320" s="1"/>
+      <c r="I320" s="1">
+        <v>20</v>
+      </c>
       <c r="J320" s="1"/>
       <c r="K320" s="1"/>
       <c r="L320" s="1"/>
@@ -18827,20 +18866,22 @@
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
       <c r="P320" s="1"/>
-      <c r="Q320" s="1"/>
+      <c r="Q320" s="1">
+        <v>5</v>
+      </c>
       <c r="R320" s="1"/>
-      <c r="U320" s="1"/>
-      <c r="V320" s="1"/>
-      <c r="W320" s="1">
-        <v>2</v>
-      </c>
-      <c r="X320" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y320" s="1"/>
+      <c r="U320" s="1">
+        <v>20</v>
+      </c>
+      <c r="V320" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y320" s="1">
+        <v>15</v>
+      </c>
       <c r="AA320" s="2">
-        <f>SUM(G320:Z320)</f>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>75</v>
       </c>
       <c r="AB320" s="1" t="s">
         <v>22</v>
@@ -18848,7 +18889,7 @@
     </row>
     <row r="321" spans="1:28">
       <c r="A321" s="1">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>80</v>
@@ -18857,24 +18898,30 @@
         <v>693</v>
       </c>
       <c r="D321" s="1">
-        <v>10011060422</v>
+        <v>10011212346</v>
       </c>
       <c r="E321" s="1">
-        <v>17329821</v>
+        <v>17410108</v>
       </c>
       <c r="F321" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G321" s="1"/>
+      <c r="G321" s="1">
+        <v>3</v>
+      </c>
       <c r="H321" s="1"/>
       <c r="I321" s="1">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J321" s="1"/>
-      <c r="K321" s="1"/>
+      <c r="K321" s="1">
+        <v>5</v>
+      </c>
       <c r="L321" s="1"/>
       <c r="M321" s="1"/>
-      <c r="N321" s="1"/>
+      <c r="N321" s="1">
+        <v>5</v>
+      </c>
       <c r="O321" s="1"/>
       <c r="P321" s="1"/>
       <c r="Q321" s="1">
@@ -18882,17 +18929,17 @@
       </c>
       <c r="R321" s="1"/>
       <c r="U321" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V321" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y321" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AA321" s="2">
         <f t="shared" si="5"/>
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="AB321" s="1" t="s">
         <v>22</v>
@@ -18900,7 +18947,7 @@
     </row>
     <row r="322" spans="1:28">
       <c r="A322" s="1">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>80</v>
@@ -18909,48 +18956,38 @@
         <v>693</v>
       </c>
       <c r="D322" s="1">
-        <v>10011212346</v>
+        <v>10011060505</v>
       </c>
       <c r="E322" s="1">
-        <v>17410108</v>
+        <v>17329824</v>
       </c>
       <c r="F322" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G322" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H322" s="1"/>
-      <c r="I322" s="1">
-        <v>9</v>
-      </c>
+      <c r="I322" s="1"/>
       <c r="J322" s="1"/>
-      <c r="K322" s="1">
-        <v>5</v>
-      </c>
+      <c r="K322" s="1"/>
       <c r="L322" s="1"/>
       <c r="M322" s="1"/>
       <c r="N322" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O322" s="1"/>
       <c r="P322" s="1"/>
-      <c r="Q322" s="1">
-        <v>5</v>
-      </c>
+      <c r="Q322" s="1"/>
       <c r="R322" s="1"/>
-      <c r="U322" s="1">
-        <v>10</v>
-      </c>
+      <c r="U322" s="1"/>
       <c r="V322" s="1">
-        <v>10</v>
-      </c>
-      <c r="Y322" s="1">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="Y322" s="1"/>
       <c r="AA322" s="2">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="AB322" s="1" t="s">
         <v>22</v>
@@ -18958,7 +18995,7 @@
     </row>
     <row r="323" spans="1:28">
       <c r="A323" s="1">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>80</v>
@@ -18967,38 +19004,38 @@
         <v>693</v>
       </c>
       <c r="D323" s="1">
-        <v>10011060505</v>
+        <v>10011060601</v>
       </c>
       <c r="E323" s="1">
-        <v>17329824</v>
+        <v>17329831</v>
       </c>
       <c r="F323" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G323" s="1">
-        <v>5</v>
-      </c>
+      <c r="G323" s="1"/>
       <c r="H323" s="1"/>
-      <c r="I323" s="1"/>
+      <c r="I323" s="1">
+        <v>2</v>
+      </c>
       <c r="J323" s="1"/>
       <c r="K323" s="1"/>
       <c r="L323" s="1"/>
       <c r="M323" s="1"/>
-      <c r="N323" s="1">
-        <v>10</v>
-      </c>
+      <c r="N323" s="1"/>
       <c r="O323" s="1"/>
       <c r="P323" s="1"/>
-      <c r="Q323" s="1"/>
+      <c r="Q323" s="1">
+        <v>5</v>
+      </c>
       <c r="R323" s="1"/>
       <c r="U323" s="1"/>
       <c r="V323" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Y323" s="1"/>
       <c r="AA323" s="2">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AB323" s="1" t="s">
         <v>22</v>
@@ -19006,47 +19043,51 @@
     </row>
     <row r="324" spans="1:28">
       <c r="A324" s="1">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="C324" s="1">
-        <v>693</v>
-      </c>
-      <c r="D324" s="1">
-        <v>10011060601</v>
-      </c>
-      <c r="E324" s="1">
-        <v>17329831</v>
+        <v>679</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>498</v>
       </c>
       <c r="F324" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G324" s="1"/>
+      <c r="G324" s="1">
+        <v>15</v>
+      </c>
       <c r="H324" s="1"/>
-      <c r="I324" s="1">
-        <v>2</v>
-      </c>
+      <c r="I324" s="1"/>
       <c r="J324" s="1"/>
       <c r="K324" s="1"/>
       <c r="L324" s="1"/>
-      <c r="M324" s="1"/>
-      <c r="N324" s="1"/>
+      <c r="M324" s="1">
+        <v>30</v>
+      </c>
+      <c r="N324" s="1">
+        <v>15</v>
+      </c>
       <c r="O324" s="1"/>
       <c r="P324" s="1"/>
-      <c r="Q324" s="1">
-        <v>5</v>
-      </c>
+      <c r="Q324" s="1"/>
       <c r="R324" s="1"/>
-      <c r="U324" s="1"/>
+      <c r="U324" s="1">
+        <v>45</v>
+      </c>
       <c r="V324" s="1">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="Y324" s="1"/>
       <c r="AA324" s="2">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="AB324" s="1" t="s">
         <v>22</v>
@@ -19054,25 +19095,25 @@
     </row>
     <row r="325" spans="1:28">
       <c r="A325" s="1">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="C325" s="1">
-        <v>679</v>
-      </c>
-      <c r="D325" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="E325" s="1" t="s">
-        <v>498</v>
+        <v>696</v>
+      </c>
+      <c r="D325" s="1">
+        <v>10007922092</v>
+      </c>
+      <c r="E325" s="1">
+        <v>11475437</v>
       </c>
       <c r="F325" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G325" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H325" s="1"/>
       <c r="I325" s="1"/>
@@ -19082,23 +19123,21 @@
       <c r="M325" s="1">
         <v>30</v>
       </c>
-      <c r="N325" s="1">
-        <v>15</v>
-      </c>
+      <c r="N325" s="1"/>
       <c r="O325" s="1"/>
       <c r="P325" s="1"/>
       <c r="Q325" s="1"/>
       <c r="R325" s="1"/>
       <c r="U325" s="1">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="V325" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Y325" s="1"/>
       <c r="AA325" s="2">
         <f t="shared" si="5"/>
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AB325" s="1" t="s">
         <v>22</v>
@@ -19106,49 +19145,43 @@
     </row>
     <row r="326" spans="1:28">
       <c r="A326" s="1">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C326" s="1">
-        <v>696</v>
+        <v>532</v>
       </c>
       <c r="D326" s="1">
-        <v>10007922092</v>
+        <v>10011934368</v>
       </c>
       <c r="E326" s="1">
-        <v>11475437</v>
+        <v>17811352</v>
       </c>
       <c r="F326" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G326" s="1">
+      <c r="G326" s="2">
         <v>10</v>
       </c>
-      <c r="H326" s="1"/>
-      <c r="I326" s="1"/>
-      <c r="J326" s="1"/>
-      <c r="K326" s="1"/>
-      <c r="L326" s="1"/>
-      <c r="M326" s="1">
+      <c r="K326" s="2">
+        <v>10</v>
+      </c>
+      <c r="N326" s="2"/>
+      <c r="O326" s="2"/>
+      <c r="P326" s="2">
         <v>30</v>
       </c>
-      <c r="N326" s="1"/>
-      <c r="O326" s="1"/>
-      <c r="P326" s="1"/>
-      <c r="Q326" s="1"/>
-      <c r="R326" s="1"/>
-      <c r="U326" s="1">
-        <v>20</v>
-      </c>
-      <c r="V326" s="1">
-        <v>15</v>
-      </c>
-      <c r="Y326" s="1"/>
+      <c r="U326" s="2">
+        <v>60</v>
+      </c>
+      <c r="V326" s="2">
+        <v>10</v>
+      </c>
       <c r="AA326" s="2">
         <f t="shared" si="5"/>
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AB326" s="1" t="s">
         <v>22</v>
@@ -19156,18 +19189,32 @@
     </row>
     <row r="327" spans="1:28">
       <c r="A327" s="1">
-        <v>326</v>
-      </c>
-      <c r="B327" s="1"/>
-      <c r="C327" s="1"/>
-      <c r="D327" s="1"/>
-      <c r="E327" s="1"/>
-      <c r="F327" s="1"/>
-      <c r="G327" s="1"/>
+        <v>327</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C327" s="1">
+        <v>673</v>
+      </c>
+      <c r="D327" s="1">
+        <v>10006793078</v>
+      </c>
+      <c r="E327" s="1">
+        <v>11469824</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G327" s="1">
+        <v>3</v>
+      </c>
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
       <c r="J327" s="1"/>
-      <c r="K327" s="1"/>
+      <c r="K327" s="1">
+        <v>3</v>
+      </c>
       <c r="L327" s="1"/>
       <c r="M327" s="1"/>
       <c r="N327" s="1"/>
@@ -19176,11 +19223,13 @@
       <c r="Q327" s="1"/>
       <c r="R327" s="1"/>
       <c r="U327" s="1"/>
-      <c r="V327" s="1"/>
+      <c r="V327" s="1">
+        <v>3</v>
+      </c>
       <c r="Y327" s="1"/>
       <c r="AA327" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AB327" s="1" t="s">
         <v>22</v>
@@ -19188,15 +19237,29 @@
     </row>
     <row r="328" spans="1:28">
       <c r="A328" s="1">
-        <v>327</v>
-      </c>
-      <c r="B328" s="1"/>
-      <c r="C328" s="1"/>
-      <c r="D328" s="1"/>
-      <c r="E328" s="1"/>
-      <c r="F328" s="1"/>
-      <c r="G328" s="1"/>
-      <c r="H328" s="1"/>
+        <v>328</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C328" s="1">
+        <v>168</v>
+      </c>
+      <c r="D328" s="1">
+        <v>10002815975</v>
+      </c>
+      <c r="E328" s="1">
+        <v>12774933</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G328" s="1">
+        <v>10</v>
+      </c>
+      <c r="H328" s="1">
+        <v>60</v>
+      </c>
       <c r="I328" s="1"/>
       <c r="J328" s="1"/>
       <c r="K328" s="1"/>
@@ -19208,11 +19271,13 @@
       <c r="Q328" s="1"/>
       <c r="R328" s="1"/>
       <c r="U328" s="1"/>
-      <c r="V328" s="1"/>
+      <c r="V328" s="1">
+        <v>30</v>
+      </c>
       <c r="Y328" s="1"/>
       <c r="AA328" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB328" s="1" t="s">
         <v>22</v>
@@ -19220,31 +19285,51 @@
     </row>
     <row r="329" spans="1:28">
       <c r="A329" s="1">
-        <v>328</v>
-      </c>
-      <c r="B329" s="1"/>
-      <c r="C329" s="1"/>
-      <c r="D329" s="1"/>
-      <c r="E329" s="1"/>
-      <c r="F329" s="1"/>
-      <c r="G329" s="1"/>
+        <v>329</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C329" s="1">
+        <v>489</v>
+      </c>
+      <c r="D329" s="1">
+        <v>10004483603</v>
+      </c>
+      <c r="E329" s="1">
+        <v>13741831</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G329" s="1">
+        <v>5</v>
+      </c>
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
       <c r="L329" s="1"/>
       <c r="M329" s="1"/>
-      <c r="N329" s="1"/>
-      <c r="O329" s="1"/>
+      <c r="N329" s="1">
+        <v>20</v>
+      </c>
+      <c r="O329" s="1">
+        <v>15</v>
+      </c>
       <c r="P329" s="1"/>
       <c r="Q329" s="1"/>
       <c r="R329" s="1"/>
-      <c r="U329" s="1"/>
-      <c r="V329" s="1"/>
+      <c r="U329" s="1">
+        <v>30</v>
+      </c>
+      <c r="V329" s="1">
+        <v>30</v>
+      </c>
       <c r="Y329" s="1"/>
       <c r="AA329" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB329" s="1" t="s">
         <v>22</v>
@@ -19252,16 +19337,28 @@
     </row>
     <row r="330" spans="1:28">
       <c r="A330" s="1">
-        <v>329</v>
-      </c>
-      <c r="B330" s="1"/>
-      <c r="C330" s="1"/>
-      <c r="D330" s="1"/>
-      <c r="E330" s="1"/>
-      <c r="F330" s="1"/>
+        <v>330</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C330" s="1">
+        <v>282</v>
+      </c>
+      <c r="D330" s="1">
+        <v>10004930716</v>
+      </c>
+      <c r="E330" s="1">
+        <v>16324098</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
-      <c r="I330" s="1"/>
+      <c r="I330" s="1">
+        <v>5</v>
+      </c>
       <c r="J330" s="1"/>
       <c r="K330" s="1"/>
       <c r="L330" s="1"/>
@@ -19269,14 +19366,18 @@
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
       <c r="P330" s="1"/>
-      <c r="Q330" s="1"/>
+      <c r="Q330" s="1">
+        <v>5</v>
+      </c>
       <c r="R330" s="1"/>
       <c r="U330" s="1"/>
-      <c r="V330" s="1"/>
+      <c r="V330" s="1">
+        <v>5</v>
+      </c>
       <c r="Y330" s="1"/>
       <c r="AA330" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB330" s="1" t="s">
         <v>22</v>
@@ -19284,15 +19385,27 @@
     </row>
     <row r="331" spans="1:28">
       <c r="A331" s="1">
-        <v>330</v>
-      </c>
-      <c r="B331" s="1"/>
-      <c r="C331" s="1"/>
-      <c r="D331" s="1"/>
-      <c r="E331" s="1"/>
-      <c r="F331" s="1"/>
+        <v>331</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C331" s="1">
+        <v>228</v>
+      </c>
+      <c r="D331" s="1">
+        <v>10004653934</v>
+      </c>
+      <c r="E331" s="1">
+        <v>13846728</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G331" s="1"/>
-      <c r="H331" s="1"/>
+      <c r="H331" s="1">
+        <v>10</v>
+      </c>
       <c r="I331" s="1"/>
       <c r="J331" s="1"/>
       <c r="K331" s="1"/>
@@ -19301,14 +19414,18 @@
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
       <c r="P331" s="1"/>
-      <c r="Q331" s="1"/>
+      <c r="Q331" s="1">
+        <v>10</v>
+      </c>
       <c r="R331" s="1"/>
       <c r="U331" s="1"/>
-      <c r="V331" s="1"/>
+      <c r="V331" s="1">
+        <v>5</v>
+      </c>
       <c r="Y331" s="1"/>
       <c r="AA331" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB331" s="1" t="s">
         <v>22</v>
@@ -19316,31 +19433,51 @@
     </row>
     <row r="332" spans="1:28">
       <c r="A332" s="1">
-        <v>331</v>
-      </c>
-      <c r="B332" s="1"/>
-      <c r="C332" s="1"/>
-      <c r="D332" s="1"/>
-      <c r="E332" s="1"/>
-      <c r="F332" s="1"/>
+        <v>332</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C332" s="1">
+        <v>509</v>
+      </c>
+      <c r="D332" s="1">
+        <v>10004624237</v>
+      </c>
+      <c r="E332" s="1">
+        <v>13828817</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G332" s="1"/>
-      <c r="H332" s="1"/>
+      <c r="H332" s="1">
+        <v>15</v>
+      </c>
       <c r="I332" s="1"/>
       <c r="J332" s="1"/>
-      <c r="K332" s="1"/>
+      <c r="K332" s="1">
+        <v>15</v>
+      </c>
       <c r="L332" s="1"/>
-      <c r="M332" s="1"/>
+      <c r="M332" s="1">
+        <v>60</v>
+      </c>
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
       <c r="P332" s="1"/>
       <c r="Q332" s="1"/>
       <c r="R332" s="1"/>
-      <c r="U332" s="1"/>
-      <c r="V332" s="1"/>
+      <c r="U332" s="1">
+        <v>45</v>
+      </c>
+      <c r="V332" s="1">
+        <v>15</v>
+      </c>
       <c r="Y332" s="1"/>
       <c r="AA332" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB332" s="1" t="s">
         <v>22</v>
@@ -19348,31 +19485,49 @@
     </row>
     <row r="333" spans="1:28">
       <c r="A333" s="1">
-        <v>332</v>
-      </c>
-      <c r="B333" s="1"/>
-      <c r="C333" s="1"/>
-      <c r="D333" s="1"/>
-      <c r="E333" s="1"/>
-      <c r="F333" s="1"/>
-      <c r="G333" s="1"/>
+        <v>333</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C333" s="1">
+        <v>621</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G333" s="1">
+        <v>5</v>
+      </c>
       <c r="H333" s="1"/>
       <c r="I333" s="1"/>
       <c r="J333" s="1"/>
       <c r="K333" s="1"/>
       <c r="L333" s="1"/>
-      <c r="M333" s="1"/>
+      <c r="M333" s="1">
+        <v>15</v>
+      </c>
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
       <c r="P333" s="1"/>
       <c r="Q333" s="1"/>
       <c r="R333" s="1"/>
-      <c r="U333" s="1"/>
-      <c r="V333" s="1"/>
+      <c r="U333" s="1">
+        <v>5</v>
+      </c>
+      <c r="V333" s="1">
+        <v>5</v>
+      </c>
       <c r="Y333" s="1"/>
       <c r="AA333" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB333" s="1" t="s">
         <v>22</v>
@@ -19380,31 +19535,49 @@
     </row>
     <row r="334" spans="1:28">
       <c r="A334" s="1">
-        <v>333</v>
-      </c>
-      <c r="B334" s="1"/>
-      <c r="C334" s="1"/>
-      <c r="D334" s="1"/>
-      <c r="E334" s="1"/>
-      <c r="F334" s="1"/>
-      <c r="G334" s="1"/>
+        <v>334</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C334" s="1">
+        <v>621</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G334" s="1">
+        <v>5</v>
+      </c>
       <c r="H334" s="1"/>
       <c r="I334" s="1"/>
       <c r="J334" s="1"/>
       <c r="K334" s="1"/>
       <c r="L334" s="1"/>
-      <c r="M334" s="1"/>
+      <c r="M334" s="1">
+        <v>15</v>
+      </c>
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
       <c r="P334" s="1"/>
       <c r="Q334" s="1"/>
       <c r="R334" s="1"/>
-      <c r="U334" s="1"/>
-      <c r="V334" s="1"/>
+      <c r="U334" s="1">
+        <v>5</v>
+      </c>
+      <c r="V334" s="1">
+        <v>5</v>
+      </c>
       <c r="Y334" s="1"/>
       <c r="AA334" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB334" s="1" t="s">
         <v>22</v>
@@ -19412,7 +19585,7 @@
     </row>
     <row r="335" spans="1:28">
       <c r="A335" s="1">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -19444,7 +19617,7 @@
     </row>
     <row r="336" spans="1:28">
       <c r="A336" s="1">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -19476,7 +19649,7 @@
     </row>
     <row r="337" spans="1:28">
       <c r="A337" s="1">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -19508,7 +19681,7 @@
     </row>
     <row r="338" spans="1:28">
       <c r="A338" s="1">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -19540,7 +19713,7 @@
     </row>
     <row r="339" spans="1:28">
       <c r="A339" s="1">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -19572,7 +19745,7 @@
     </row>
     <row r="340" spans="1:28">
       <c r="A340" s="1">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -19604,7 +19777,7 @@
     </row>
     <row r="341" spans="1:28">
       <c r="A341" s="1">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -19636,7 +19809,7 @@
     </row>
     <row r="342" spans="1:28">
       <c r="A342" s="1">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -19668,7 +19841,7 @@
     </row>
     <row r="343" spans="1:28">
       <c r="A343" s="1">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -19700,7 +19873,7 @@
     </row>
     <row r="344" spans="1:28">
       <c r="A344" s="1">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -19732,7 +19905,7 @@
     </row>
     <row r="345" spans="1:28">
       <c r="A345" s="1">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -19764,7 +19937,7 @@
     </row>
     <row r="346" spans="1:28">
       <c r="A346" s="1">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -19796,7 +19969,7 @@
     </row>
     <row r="347" spans="1:28">
       <c r="A347" s="1">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -19819,7 +19992,7 @@
       <c r="V347" s="1"/>
       <c r="Y347" s="1"/>
       <c r="AA347" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AA347:AA410" si="6">SUM(G347:Z347)</f>
         <v>0</v>
       </c>
       <c r="AB347" s="1" t="s">
@@ -19828,7 +20001,7 @@
     </row>
     <row r="348" spans="1:28">
       <c r="A348" s="1">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -19851,7 +20024,7 @@
       <c r="V348" s="1"/>
       <c r="Y348" s="1"/>
       <c r="AA348" s="2">
-        <f t="shared" ref="AA348:AA411" si="6">SUM(G348:Z348)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB348" s="1" t="s">
@@ -19860,7 +20033,7 @@
     </row>
     <row r="349" spans="1:28">
       <c r="A349" s="1">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -19892,7 +20065,7 @@
     </row>
     <row r="350" spans="1:28">
       <c r="A350" s="1">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -19924,7 +20097,7 @@
     </row>
     <row r="351" spans="1:28">
       <c r="A351" s="1">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -19956,7 +20129,7 @@
     </row>
     <row r="352" spans="1:28">
       <c r="A352" s="1">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -19988,7 +20161,7 @@
     </row>
     <row r="353" spans="1:28">
       <c r="A353" s="1">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -20020,7 +20193,7 @@
     </row>
     <row r="354" spans="1:28">
       <c r="A354" s="1">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -20052,7 +20225,7 @@
     </row>
     <row r="355" spans="1:28">
       <c r="A355" s="1">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -20084,7 +20257,7 @@
     </row>
     <row r="356" spans="1:28">
       <c r="A356" s="1">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -20116,7 +20289,7 @@
     </row>
     <row r="357" spans="1:28">
       <c r="A357" s="1">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -20148,7 +20321,7 @@
     </row>
     <row r="358" spans="1:28">
       <c r="A358" s="1">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -20180,7 +20353,7 @@
     </row>
     <row r="359" spans="1:28">
       <c r="A359" s="1">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -20212,7 +20385,7 @@
     </row>
     <row r="360" spans="1:28">
       <c r="A360" s="1">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -20244,7 +20417,7 @@
     </row>
     <row r="361" spans="1:28">
       <c r="A361" s="1">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -20276,7 +20449,7 @@
     </row>
     <row r="362" spans="1:28">
       <c r="A362" s="1">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -20308,7 +20481,7 @@
     </row>
     <row r="363" spans="1:28">
       <c r="A363" s="1">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -20340,7 +20513,7 @@
     </row>
     <row r="364" spans="1:28">
       <c r="A364" s="1">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -20372,7 +20545,7 @@
     </row>
     <row r="365" spans="1:28">
       <c r="A365" s="1">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -20404,7 +20577,7 @@
     </row>
     <row r="366" spans="1:28">
       <c r="A366" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -20436,7 +20609,7 @@
     </row>
     <row r="367" spans="1:28">
       <c r="A367" s="1">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -20468,7 +20641,7 @@
     </row>
     <row r="368" spans="1:28">
       <c r="A368" s="1">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -20500,7 +20673,7 @@
     </row>
     <row r="369" spans="1:28">
       <c r="A369" s="1">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -20532,7 +20705,7 @@
     </row>
     <row r="370" spans="1:28">
       <c r="A370" s="1">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -20564,7 +20737,7 @@
     </row>
     <row r="371" spans="1:28">
       <c r="A371" s="1">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -20596,7 +20769,7 @@
     </row>
     <row r="372" spans="1:28">
       <c r="A372" s="1">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -20628,7 +20801,7 @@
     </row>
     <row r="373" spans="1:28">
       <c r="A373" s="1">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -20660,7 +20833,7 @@
     </row>
     <row r="374" spans="1:28">
       <c r="A374" s="1">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -20692,7 +20865,7 @@
     </row>
     <row r="375" spans="1:28">
       <c r="A375" s="1">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -20724,7 +20897,7 @@
     </row>
     <row r="376" spans="1:28">
       <c r="A376" s="1">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -20756,7 +20929,7 @@
     </row>
     <row r="377" spans="1:28">
       <c r="A377" s="1">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -20788,7 +20961,7 @@
     </row>
     <row r="378" spans="1:28">
       <c r="A378" s="1">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -20820,7 +20993,7 @@
     </row>
     <row r="379" spans="1:28">
       <c r="A379" s="1">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -20852,7 +21025,7 @@
     </row>
     <row r="380" spans="1:28">
       <c r="A380" s="1">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -20884,7 +21057,7 @@
     </row>
     <row r="381" spans="1:28">
       <c r="A381" s="1">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -20916,7 +21089,7 @@
     </row>
     <row r="382" spans="1:28">
       <c r="A382" s="1">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -20948,7 +21121,7 @@
     </row>
     <row r="383" spans="1:28">
       <c r="A383" s="1">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -20980,7 +21153,7 @@
     </row>
     <row r="384" spans="1:28">
       <c r="A384" s="1">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -21012,7 +21185,7 @@
     </row>
     <row r="385" spans="1:28">
       <c r="A385" s="1">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -21044,7 +21217,7 @@
     </row>
     <row r="386" spans="1:28">
       <c r="A386" s="1">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -21076,7 +21249,7 @@
     </row>
     <row r="387" spans="1:28">
       <c r="A387" s="1">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -21108,7 +21281,7 @@
     </row>
     <row r="388" spans="1:28">
       <c r="A388" s="1">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -21140,7 +21313,7 @@
     </row>
     <row r="389" spans="1:28">
       <c r="A389" s="1">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -21172,7 +21345,7 @@
     </row>
     <row r="390" spans="1:28">
       <c r="A390" s="1">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -21204,7 +21377,7 @@
     </row>
     <row r="391" spans="1:28">
       <c r="A391" s="1">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -21236,7 +21409,7 @@
     </row>
     <row r="392" spans="1:28">
       <c r="A392" s="1">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -21268,7 +21441,7 @@
     </row>
     <row r="393" spans="1:28">
       <c r="A393" s="1">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -21300,7 +21473,7 @@
     </row>
     <row r="394" spans="1:28">
       <c r="A394" s="1">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -21332,7 +21505,7 @@
     </row>
     <row r="395" spans="1:28">
       <c r="A395" s="1">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -21364,7 +21537,7 @@
     </row>
     <row r="396" spans="1:28">
       <c r="A396" s="1">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -21396,7 +21569,7 @@
     </row>
     <row r="397" spans="1:28">
       <c r="A397" s="1">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -21428,7 +21601,7 @@
     </row>
     <row r="398" spans="1:28">
       <c r="A398" s="1">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -21460,7 +21633,7 @@
     </row>
     <row r="399" spans="1:28">
       <c r="A399" s="1">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -21492,7 +21665,7 @@
     </row>
     <row r="400" spans="1:28">
       <c r="A400" s="1">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -21524,7 +21697,7 @@
     </row>
     <row r="401" spans="1:28">
       <c r="A401" s="1">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -21556,7 +21729,7 @@
     </row>
     <row r="402" spans="1:28">
       <c r="A402" s="1">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -21588,7 +21761,7 @@
     </row>
     <row r="403" spans="1:28">
       <c r="A403" s="1">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -21620,7 +21793,7 @@
     </row>
     <row r="404" spans="1:28">
       <c r="A404" s="1">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -21652,7 +21825,7 @@
     </row>
     <row r="405" spans="1:28">
       <c r="A405" s="1">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -21684,7 +21857,7 @@
     </row>
     <row r="406" spans="1:28">
       <c r="A406" s="1">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -21716,7 +21889,7 @@
     </row>
     <row r="407" spans="1:28">
       <c r="A407" s="1">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -21748,7 +21921,7 @@
     </row>
     <row r="408" spans="1:28">
       <c r="A408" s="1">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -21780,7 +21953,7 @@
     </row>
     <row r="409" spans="1:28">
       <c r="A409" s="1">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -21812,7 +21985,7 @@
     </row>
     <row r="410" spans="1:28">
       <c r="A410" s="1">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -21844,7 +22017,7 @@
     </row>
     <row r="411" spans="1:28">
       <c r="A411" s="1">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -21867,7 +22040,7 @@
       <c r="V411" s="1"/>
       <c r="Y411" s="1"/>
       <c r="AA411" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AA411:AA474" si="7">SUM(G411:Z411)</f>
         <v>0</v>
       </c>
       <c r="AB411" s="1" t="s">
@@ -21876,7 +22049,7 @@
     </row>
     <row r="412" spans="1:28">
       <c r="A412" s="1">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -21899,7 +22072,7 @@
       <c r="V412" s="1"/>
       <c r="Y412" s="1"/>
       <c r="AA412" s="2">
-        <f t="shared" ref="AA412:AA475" si="7">SUM(G412:Z412)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB412" s="1" t="s">
@@ -21908,7 +22081,7 @@
     </row>
     <row r="413" spans="1:28">
       <c r="A413" s="1">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -21940,7 +22113,7 @@
     </row>
     <row r="414" spans="1:28">
       <c r="A414" s="1">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -21972,7 +22145,7 @@
     </row>
     <row r="415" spans="1:28">
       <c r="A415" s="1">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -22004,7 +22177,7 @@
     </row>
     <row r="416" spans="1:28">
       <c r="A416" s="1">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -22036,7 +22209,7 @@
     </row>
     <row r="417" spans="1:28">
       <c r="A417" s="1">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -22068,7 +22241,7 @@
     </row>
     <row r="418" spans="1:28">
       <c r="A418" s="1">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -22100,7 +22273,7 @@
     </row>
     <row r="419" spans="1:28">
       <c r="A419" s="1">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -22132,7 +22305,7 @@
     </row>
     <row r="420" spans="1:28">
       <c r="A420" s="1">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -22164,7 +22337,7 @@
     </row>
     <row r="421" spans="1:28">
       <c r="A421" s="1">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -22196,7 +22369,7 @@
     </row>
     <row r="422" spans="1:28">
       <c r="A422" s="1">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -22228,7 +22401,7 @@
     </row>
     <row r="423" spans="1:28">
       <c r="A423" s="1">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -22260,7 +22433,7 @@
     </row>
     <row r="424" spans="1:28">
       <c r="A424" s="1">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -22292,7 +22465,7 @@
     </row>
     <row r="425" spans="1:28">
       <c r="A425" s="1">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -22324,7 +22497,7 @@
     </row>
     <row r="426" spans="1:28">
       <c r="A426" s="1">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -22356,7 +22529,7 @@
     </row>
     <row r="427" spans="1:28">
       <c r="A427" s="1">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -22388,7 +22561,7 @@
     </row>
     <row r="428" spans="1:28">
       <c r="A428" s="1">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -22420,7 +22593,7 @@
     </row>
     <row r="429" spans="1:28">
       <c r="A429" s="1">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -22452,7 +22625,7 @@
     </row>
     <row r="430" spans="1:28">
       <c r="A430" s="1">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -22484,7 +22657,7 @@
     </row>
     <row r="431" spans="1:28">
       <c r="A431" s="1">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -22516,7 +22689,7 @@
     </row>
     <row r="432" spans="1:28">
       <c r="A432" s="1">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -22548,7 +22721,7 @@
     </row>
     <row r="433" spans="1:28">
       <c r="A433" s="1">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -22580,7 +22753,7 @@
     </row>
     <row r="434" spans="1:28">
       <c r="A434" s="1">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -22612,7 +22785,7 @@
     </row>
     <row r="435" spans="1:28">
       <c r="A435" s="1">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -22644,7 +22817,7 @@
     </row>
     <row r="436" spans="1:28">
       <c r="A436" s="1">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -22676,7 +22849,7 @@
     </row>
     <row r="437" spans="1:28">
       <c r="A437" s="1">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -22708,7 +22881,7 @@
     </row>
     <row r="438" spans="1:28">
       <c r="A438" s="1">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -22740,7 +22913,7 @@
     </row>
     <row r="439" spans="1:28">
       <c r="A439" s="1">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -22772,7 +22945,7 @@
     </row>
     <row r="440" spans="1:28">
       <c r="A440" s="1">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -22804,7 +22977,7 @@
     </row>
     <row r="441" spans="1:28">
       <c r="A441" s="1">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -22836,7 +23009,7 @@
     </row>
     <row r="442" spans="1:28">
       <c r="A442" s="1">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -22868,7 +23041,7 @@
     </row>
     <row r="443" spans="1:28">
       <c r="A443" s="1">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -22900,7 +23073,7 @@
     </row>
     <row r="444" spans="1:28">
       <c r="A444" s="1">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -22932,7 +23105,7 @@
     </row>
     <row r="445" spans="1:28">
       <c r="A445" s="1">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -22964,7 +23137,7 @@
     </row>
     <row r="446" spans="1:28">
       <c r="A446" s="1">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -22996,7 +23169,7 @@
     </row>
     <row r="447" spans="1:28">
       <c r="A447" s="1">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -23028,7 +23201,7 @@
     </row>
     <row r="448" spans="1:28">
       <c r="A448" s="1">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -23060,7 +23233,7 @@
     </row>
     <row r="449" spans="1:28">
       <c r="A449" s="1">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -23092,7 +23265,7 @@
     </row>
     <row r="450" spans="1:28">
       <c r="A450" s="1">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -23124,7 +23297,7 @@
     </row>
     <row r="451" spans="1:28">
       <c r="A451" s="1">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -23156,7 +23329,7 @@
     </row>
     <row r="452" spans="1:28">
       <c r="A452" s="1">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -23188,7 +23361,7 @@
     </row>
     <row r="453" spans="1:28">
       <c r="A453" s="1">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -23220,7 +23393,7 @@
     </row>
     <row r="454" spans="1:28">
       <c r="A454" s="1">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -23252,7 +23425,7 @@
     </row>
     <row r="455" spans="1:28">
       <c r="A455" s="1">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -23284,7 +23457,7 @@
     </row>
     <row r="456" spans="1:28">
       <c r="A456" s="1">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -23316,7 +23489,7 @@
     </row>
     <row r="457" spans="1:28">
       <c r="A457" s="1">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -23348,7 +23521,7 @@
     </row>
     <row r="458" spans="1:28">
       <c r="A458" s="1">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -23380,7 +23553,7 @@
     </row>
     <row r="459" spans="1:28">
       <c r="A459" s="1">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -23412,7 +23585,7 @@
     </row>
     <row r="460" spans="1:28">
       <c r="A460" s="1">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -23444,7 +23617,7 @@
     </row>
     <row r="461" spans="1:28">
       <c r="A461" s="1">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -23476,7 +23649,7 @@
     </row>
     <row r="462" spans="1:28">
       <c r="A462" s="1">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -23508,7 +23681,7 @@
     </row>
     <row r="463" spans="1:28">
       <c r="A463" s="1">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -23540,7 +23713,7 @@
     </row>
     <row r="464" spans="1:28">
       <c r="A464" s="1">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -23572,7 +23745,7 @@
     </row>
     <row r="465" spans="1:28">
       <c r="A465" s="1">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -23604,7 +23777,7 @@
     </row>
     <row r="466" spans="1:28">
       <c r="A466" s="1">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -23636,7 +23809,7 @@
     </row>
     <row r="467" spans="1:28">
       <c r="A467" s="1">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -23668,7 +23841,7 @@
     </row>
     <row r="468" spans="1:28">
       <c r="A468" s="1">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -23700,7 +23873,7 @@
     </row>
     <row r="469" spans="1:28">
       <c r="A469" s="1">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -23732,7 +23905,7 @@
     </row>
     <row r="470" spans="1:28">
       <c r="A470" s="1">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -23764,7 +23937,7 @@
     </row>
     <row r="471" spans="1:28">
       <c r="A471" s="1">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -23796,7 +23969,7 @@
     </row>
     <row r="472" spans="1:28">
       <c r="A472" s="1">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -23828,7 +24001,7 @@
     </row>
     <row r="473" spans="1:28">
       <c r="A473" s="1">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -23860,7 +24033,7 @@
     </row>
     <row r="474" spans="1:28">
       <c r="A474" s="1">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -23892,7 +24065,7 @@
     </row>
     <row r="475" spans="1:28">
       <c r="A475" s="1">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -23915,7 +24088,7 @@
       <c r="V475" s="1"/>
       <c r="Y475" s="1"/>
       <c r="AA475" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AA475:AA499" si="8">SUM(G475:Z475)</f>
         <v>0</v>
       </c>
       <c r="AB475" s="1" t="s">
@@ -23924,7 +24097,7 @@
     </row>
     <row r="476" spans="1:28">
       <c r="A476" s="1">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -23947,7 +24120,7 @@
       <c r="V476" s="1"/>
       <c r="Y476" s="1"/>
       <c r="AA476" s="2">
-        <f t="shared" ref="AA476:AA500" si="8">SUM(G476:Z476)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB476" s="1" t="s">
@@ -23956,7 +24129,7 @@
     </row>
     <row r="477" spans="1:28">
       <c r="A477" s="1">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -23988,7 +24161,7 @@
     </row>
     <row r="478" spans="1:28">
       <c r="A478" s="1">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -24020,7 +24193,7 @@
     </row>
     <row r="479" spans="1:28">
       <c r="A479" s="1">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -24052,7 +24225,7 @@
     </row>
     <row r="480" spans="1:28">
       <c r="A480" s="1">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -24084,7 +24257,7 @@
     </row>
     <row r="481" spans="1:28">
       <c r="A481" s="1">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -24116,7 +24289,7 @@
     </row>
     <row r="482" spans="1:28">
       <c r="A482" s="1">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -24148,7 +24321,7 @@
     </row>
     <row r="483" spans="1:28">
       <c r="A483" s="1">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -24180,7 +24353,7 @@
     </row>
     <row r="484" spans="1:28">
       <c r="A484" s="1">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -24212,7 +24385,7 @@
     </row>
     <row r="485" spans="1:28">
       <c r="A485" s="1">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -24244,7 +24417,7 @@
     </row>
     <row r="486" spans="1:28">
       <c r="A486" s="1">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -24276,7 +24449,7 @@
     </row>
     <row r="487" spans="1:28">
       <c r="A487" s="1">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -24308,7 +24481,7 @@
     </row>
     <row r="488" spans="1:28">
       <c r="A488" s="1">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -24340,7 +24513,7 @@
     </row>
     <row r="489" spans="1:28">
       <c r="A489" s="1">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -24372,7 +24545,7 @@
     </row>
     <row r="490" spans="1:28">
       <c r="A490" s="1">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -24404,7 +24577,7 @@
     </row>
     <row r="491" spans="1:28">
       <c r="A491" s="1">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -24436,7 +24609,7 @@
     </row>
     <row r="492" spans="1:28">
       <c r="A492" s="1">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -24468,7 +24641,7 @@
     </row>
     <row r="493" spans="1:28">
       <c r="A493" s="1">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -24500,7 +24673,7 @@
     </row>
     <row r="494" spans="1:28">
       <c r="A494" s="1">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -24532,7 +24705,7 @@
     </row>
     <row r="495" spans="1:28">
       <c r="A495" s="1">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -24564,7 +24737,7 @@
     </row>
     <row r="496" spans="1:28">
       <c r="A496" s="1">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -24596,7 +24769,7 @@
     </row>
     <row r="497" spans="1:28">
       <c r="A497" s="1">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -24628,7 +24801,7 @@
     </row>
     <row r="498" spans="1:28">
       <c r="A498" s="1">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -24660,7 +24833,7 @@
     </row>
     <row r="499" spans="1:28">
       <c r="A499" s="1">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -24692,7 +24865,7 @@
     </row>
     <row r="500" spans="1:28">
       <c r="A500" s="1">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -24714,39 +24887,21 @@
       <c r="U500" s="1"/>
       <c r="V500" s="1"/>
       <c r="Y500" s="1"/>
-      <c r="AA500" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB500" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="AA500" s="2"/>
     </row>
     <row r="501" spans="1:28">
-      <c r="A501" s="1">
-        <v>500</v>
-      </c>
-      <c r="B501" s="1"/>
-      <c r="C501" s="1"/>
-      <c r="D501" s="1"/>
-      <c r="E501" s="1"/>
-      <c r="F501" s="1"/>
-      <c r="G501" s="1"/>
-      <c r="H501" s="1"/>
-      <c r="I501" s="1"/>
-      <c r="J501" s="1"/>
-      <c r="K501" s="1"/>
-      <c r="L501" s="1"/>
-      <c r="M501" s="1"/>
-      <c r="N501" s="1"/>
-      <c r="O501" s="1"/>
       <c r="P501" s="1"/>
       <c r="Q501" s="1"/>
       <c r="R501" s="1"/>
+      <c r="S501" s="1"/>
+      <c r="T501" s="1"/>
       <c r="U501" s="1"/>
       <c r="V501" s="1"/>
+      <c r="W501" s="1"/>
+      <c r="X501" s="1"/>
       <c r="Y501" s="1"/>
-      <c r="AA501" s="2"/>
+      <c r="Z501" s="1"/>
+      <c r="AA501" s="1"/>
     </row>
     <row r="502" spans="1:28">
       <c r="P502" s="1"/>
@@ -25293,20 +25448,6 @@
       <c r="Y540" s="1"/>
       <c r="Z540" s="1"/>
       <c r="AA540" s="1"/>
-    </row>
-    <row r="541" spans="16:27">
-      <c r="P541" s="1"/>
-      <c r="Q541" s="1"/>
-      <c r="R541" s="1"/>
-      <c r="S541" s="1"/>
-      <c r="T541" s="1"/>
-      <c r="U541" s="1"/>
-      <c r="V541" s="1"/>
-      <c r="W541" s="1"/>
-      <c r="X541" s="1"/>
-      <c r="Y541" s="1"/>
-      <c r="Z541" s="1"/>
-      <c r="AA541" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AA301" xr:uid="{7366A242-D771-4522-A7C9-6FAA9267A094}">
@@ -25603,8 +25744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9D6A0A-58D8-491B-8520-AA2E6E8E4A66}">
   <dimension ref="A1:B278"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A268" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27035,8 +27176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFED1B6-6669-418D-935F-274B00B50F32}">
   <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28:H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27656,10 +27797,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF03CF93-A241-4DB9-ACD8-61B0F18F4B55}">
-  <dimension ref="A1:V190"/>
+  <dimension ref="A1:V205"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B190" sqref="B190"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28846,6 +28987,81 @@
     <row r="190" spans="2:2">
       <c r="B190" s="10">
         <v>10007922092</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" s="10">
+        <v>10011934368</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" s="10">
+        <v>10006793078</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" s="10">
+        <v>10002815975</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" s="10">
+        <v>10004483603</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" s="10">
+        <v>10004930716</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" s="10">
+        <v>10007234956</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" s="10">
+        <v>10004653934</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" s="10">
+        <v>10004624237</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" s="10">
+        <v>10006076266</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" s="10">
+        <v>28760407</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" s="10" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -28874,57 +29090,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2C057B-75E7-43E4-AAB1-9BAF96F7F0C9}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="B2" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{A7BF3A41-D86C-439B-86C8-50AAFDCC8A28}">
-            <xm:f>COUNTIF('PROCESSOS DE FABRICAÇÃO'!$D:$D, B2) &gt; 0</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B2:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA1C6DF-1C6F-4A7E-AA08-F9BD66EE655C}">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -29066,12 +29231,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC684379-4DA6-4542-878A-CB7C3F3346DA}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29124,4 +29289,55 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2C057B-75E7-43E4-AAB1-9BAF96F7F0C9}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{A7BF3A41-D86C-439B-86C8-50AAFDCC8A28}">
+            <xm:f>COUNTIF('PROCESSOS DE FABRICAÇÃO'!$D:$D, B2) &gt; 0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B2:B1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D810638-6DF8-4FCA-8AE1-95DF5CF94AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4783998-8C7F-4AE5-A31F-16E2F0228134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCESSOS DE FABRICAÇÃO" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="503">
   <si>
     <t>ORCAMENTO</t>
   </si>
@@ -1539,6 +1539,12 @@
   </si>
   <si>
     <t>HVHV305342-07</t>
+  </si>
+  <si>
+    <t>HV304445-03</t>
+  </si>
+  <si>
+    <t>HVHV304445-03</t>
   </si>
 </sst>
 </file>
@@ -2591,9 +2597,9 @@
   </sheetPr>
   <dimension ref="A1:AV540"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T337" sqref="T337"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D343" sqref="D343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2775,14 +2781,14 @@
       </c>
       <c r="AL2" s="1">
         <f>SUM(G2:G500)</f>
-        <v>5925</v>
+        <v>5948</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN2" s="21">
         <f>AL2/AL23</f>
-        <v>0.12282847547576599</v>
+        <v>0.12263664666707903</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -2851,21 +2857,21 @@
       </c>
       <c r="AN3" s="21">
         <f>AL3/AL23</f>
-        <v>8.5762262117003191E-2</v>
+        <v>8.5297210366796564E-2</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>481</v>
       </c>
       <c r="AQ3" s="1">
         <f>SUM(AL2:AL5)</f>
-        <v>10331</v>
+        <v>10359</v>
       </c>
       <c r="AR3" t="s">
         <v>22</v>
       </c>
       <c r="AS3" s="21">
         <f>AQ3/AL23</f>
-        <v>0.21416725403209089</v>
+        <v>0.21358322508814251</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -2929,14 +2935,14 @@
       </c>
       <c r="AL4" s="1">
         <f>SUM(I2:I499)</f>
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="AM4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN4" s="21">
         <f>AL4/AL23</f>
-        <v>5.4314026286330277E-3</v>
+        <v>5.5050411331725117E-3</v>
       </c>
       <c r="AP4" s="1"/>
       <c r="AS4" s="1"/>
@@ -3009,21 +3015,21 @@
       </c>
       <c r="AN5" s="21">
         <f>AL5/AL23</f>
-        <v>1.4511381068866869E-4</v>
+        <v>1.4432692109441042E-4</v>
       </c>
       <c r="AP5" s="1" t="s">
         <v>482</v>
       </c>
       <c r="AQ5" s="1">
         <f>SUM(AL6:AL7)</f>
-        <v>3079</v>
+        <v>3082</v>
       </c>
       <c r="AR5" t="s">
         <v>22</v>
       </c>
       <c r="AS5" s="21">
         <f>AQ5/AL23</f>
-        <v>6.3829346158630132E-2</v>
+        <v>6.3545081544710419E-2</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -3087,14 +3093,14 @@
       </c>
       <c r="AL6" s="1">
         <f>SUM(K2:K501)</f>
-        <v>2840</v>
+        <v>2843</v>
       </c>
       <c r="AM6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN6" s="21">
         <f>AL6/AL23</f>
-        <v>5.8874746050831296E-2</v>
+        <v>5.8617348095915546E-2</v>
       </c>
       <c r="AS6" s="1"/>
     </row>
@@ -3166,21 +3172,21 @@
       </c>
       <c r="AN7" s="21">
         <f>AL7/AL23</f>
-        <v>4.9546001077988306E-3</v>
+        <v>4.9277334487948703E-3</v>
       </c>
       <c r="AP7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AQ7" s="1">
         <f>AL8</f>
-        <v>6253</v>
+        <v>6313</v>
       </c>
       <c r="AR7" t="s">
         <v>22</v>
       </c>
       <c r="AS7" s="22">
         <f>AN8</f>
-        <v>0.12962809403374934</v>
+        <v>0.13016226469557329</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -3244,14 +3250,14 @@
       </c>
       <c r="AL8" s="1">
         <f>SUM(M2:M499)</f>
-        <v>6253</v>
+        <v>6313</v>
       </c>
       <c r="AM8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN8" s="21">
         <f>AL8/AL23</f>
-        <v>0.12962809403374934</v>
+        <v>0.13016226469557329</v>
       </c>
       <c r="AS8" s="1"/>
     </row>
@@ -3316,28 +3322,28 @@
       </c>
       <c r="AL9" s="1">
         <f>SUM(N2:N501)</f>
-        <v>2381</v>
+        <v>2396</v>
       </c>
       <c r="AM9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN9" s="21">
         <f>AL9/AL23</f>
-        <v>4.9359426178531451E-2</v>
+        <v>4.9401043277458194E-2</v>
       </c>
       <c r="AP9" s="1" t="s">
         <v>480</v>
       </c>
       <c r="AQ9" s="1">
         <f>AL9</f>
-        <v>2381</v>
+        <v>2396</v>
       </c>
       <c r="AR9" t="s">
         <v>22</v>
       </c>
       <c r="AS9" s="22">
         <f>AN9</f>
-        <v>4.9359426178531451E-2</v>
+        <v>4.9401043277458194E-2</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -3401,14 +3407,14 @@
       </c>
       <c r="AL10" s="1">
         <f>SUM(O2:O500)</f>
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="AM10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN10" s="21">
         <f>AL10/AL23</f>
-        <v>2.8608151250051825E-3</v>
+        <v>3.0514834745675348E-3</v>
       </c>
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
@@ -3482,21 +3488,21 @@
       </c>
       <c r="AN11" s="21">
         <f>AL11/AL23</f>
-        <v>1.4283345080641817E-2</v>
+        <v>1.420589266200697E-2</v>
       </c>
       <c r="AP11" s="1" t="s">
         <v>483</v>
       </c>
       <c r="AQ11" s="1">
         <f>SUM(AL10:AL12)</f>
-        <v>1305</v>
+        <v>1318</v>
       </c>
       <c r="AR11" t="s">
         <v>22</v>
       </c>
       <c r="AS11" s="22">
         <f>AQ11/AL23</f>
-        <v>2.7053360421244663E-2</v>
+        <v>2.7174697428918992E-2</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -3558,14 +3564,14 @@
       </c>
       <c r="AL12" s="1">
         <f>SUM(Q2:Q500)</f>
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="AM12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN12" s="21">
         <f>AL12/AL23</f>
-        <v>9.9092002155976612E-3</v>
+        <v>9.9173212923444869E-3</v>
       </c>
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
@@ -3635,7 +3641,7 @@
       </c>
       <c r="AN13" s="21">
         <f>AL13/AL23</f>
-        <v>1.7620962726481197E-3</v>
+        <v>1.7525411847178409E-3</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>13</v>
@@ -3649,7 +3655,7 @@
       </c>
       <c r="AS13" s="22">
         <f>AQ13/AL23</f>
-        <v>1.7620962726481197E-3</v>
+        <v>1.7525411847178409E-3</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -3712,7 +3718,7 @@
       </c>
       <c r="AN14" s="21">
         <f>AL14/AL23</f>
-        <v>2.4876653260914633E-3</v>
+        <v>2.474175790189893E-3</v>
       </c>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
@@ -3798,7 +3804,7 @@
       </c>
       <c r="AS15" s="22">
         <f>AN14</f>
-        <v>2.4876653260914633E-3</v>
+        <v>2.474175790189893E-3</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -3862,14 +3868,14 @@
       </c>
       <c r="AL16" s="1">
         <f>SUM(U4:U499)</f>
-        <v>13684</v>
+        <v>13784</v>
       </c>
       <c r="AM16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN16" s="21">
         <f>AL16/AL23</f>
-        <v>0.28367676935196318</v>
+        <v>0.28420032576647902</v>
       </c>
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1"/>
@@ -3930,14 +3936,14 @@
       </c>
       <c r="AL17" s="1">
         <f>SUM(V11:V499)</f>
-        <v>4656</v>
+        <v>4695</v>
       </c>
       <c r="AM17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN17" s="21">
         <f>AL17/AL23</f>
-        <v>9.6521414652348772E-2</v>
+        <v>9.6802127791179568E-2</v>
       </c>
       <c r="AP17" s="1" t="s">
         <v>14</v>
@@ -4018,7 +4024,7 @@
       </c>
       <c r="AN18" s="21">
         <f>AL18/AL23</f>
-        <v>1.3433392760893901E-2</v>
+        <v>1.3360549267025422E-2</v>
       </c>
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
@@ -4086,21 +4092,21 @@
       </c>
       <c r="AN19" s="21">
         <f>AL19/AL23</f>
-        <v>6.5156100999212235E-2</v>
+        <v>6.4802787571390283E-2</v>
       </c>
       <c r="AP19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AQ19" s="1">
         <f>AL16</f>
-        <v>13684</v>
+        <v>13784</v>
       </c>
       <c r="AR19" t="s">
         <v>22</v>
       </c>
       <c r="AS19" s="22">
         <f>AN16</f>
-        <v>0.28367676935196318</v>
+        <v>0.28420032576647902</v>
       </c>
     </row>
     <row r="20" spans="1:46">
@@ -4164,14 +4170,14 @@
       </c>
       <c r="AL20" s="1">
         <f>SUM(Y5:Y499)</f>
-        <v>2493</v>
+        <v>2498</v>
       </c>
       <c r="AM20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN20" s="21">
         <f>AL20/AL23</f>
-        <v>5.168124714955015E-2</v>
+        <v>5.1504092699119604E-2</v>
       </c>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
@@ -4247,21 +4253,21 @@
       </c>
       <c r="AN21" s="21">
         <f>AL21/AL23</f>
-        <v>1.2438326630457317E-3</v>
+        <v>1.2370878950949465E-3</v>
       </c>
       <c r="AP21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AQ21" s="1">
         <f>AL17</f>
-        <v>4656</v>
+        <v>4695</v>
       </c>
       <c r="AR21" t="s">
         <v>22</v>
       </c>
       <c r="AS21" s="22">
         <f>AN17</f>
-        <v>9.6521414652348772E-2</v>
+        <v>9.6802127791179568E-2</v>
       </c>
     </row>
     <row r="22" spans="1:46">
@@ -4389,7 +4395,7 @@
       </c>
       <c r="AL23" s="1">
         <f>SUM(AL2:AL21)</f>
-        <v>48238</v>
+        <v>48501</v>
       </c>
       <c r="AM23" s="1" t="s">
         <v>22</v>
@@ -4406,7 +4412,7 @@
       </c>
       <c r="AS23" s="22">
         <f>AN18</f>
-        <v>1.3433392760893901E-2</v>
+        <v>1.3360549267025422E-2</v>
       </c>
     </row>
     <row r="24" spans="1:46">
@@ -4537,7 +4543,7 @@
       </c>
       <c r="AS25" s="22">
         <f>AN19</f>
-        <v>6.5156100999212235E-2</v>
+        <v>6.4802787571390283E-2</v>
       </c>
     </row>
     <row r="26" spans="1:46">
@@ -4657,14 +4663,14 @@
       </c>
       <c r="AQ27" s="1">
         <f>AL20</f>
-        <v>2493</v>
+        <v>2498</v>
       </c>
       <c r="AR27" t="s">
         <v>22</v>
       </c>
       <c r="AS27" s="22">
         <f>AN20</f>
-        <v>5.168124714955015E-2</v>
+        <v>5.1504092699119604E-2</v>
       </c>
     </row>
     <row r="28" spans="1:46">
@@ -4791,7 +4797,7 @@
       </c>
       <c r="AS29" s="22">
         <f>AN21</f>
-        <v>1.2438326630457317E-3</v>
+        <v>1.2370878950949465E-3</v>
       </c>
     </row>
     <row r="30" spans="1:46">
@@ -4911,14 +4917,14 @@
       </c>
       <c r="AQ31" s="1">
         <f>SUM(AQ3:AQ29)</f>
-        <v>48238</v>
+        <v>48501</v>
       </c>
       <c r="AR31" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AS31" s="23">
         <f>SUM(AS3:AS29)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AT31" s="20"/>
     </row>
@@ -19587,29 +19593,45 @@
       <c r="A335" s="1">
         <v>335</v>
       </c>
-      <c r="B335" s="1"/>
-      <c r="C335" s="1"/>
-      <c r="D335" s="1"/>
-      <c r="E335" s="1"/>
-      <c r="F335" s="1"/>
-      <c r="G335" s="1"/>
+      <c r="B335" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C335" s="1">
+        <v>44</v>
+      </c>
+      <c r="D335" s="1">
+        <v>10002751619</v>
+      </c>
+      <c r="E335" s="1">
+        <v>12406511</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G335" s="1">
+        <v>2</v>
+      </c>
       <c r="H335" s="1"/>
       <c r="I335" s="1"/>
       <c r="J335" s="1"/>
       <c r="K335" s="1"/>
       <c r="L335" s="1"/>
-      <c r="M335" s="1"/>
+      <c r="M335" s="1">
+        <v>10</v>
+      </c>
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
       <c r="P335" s="1"/>
       <c r="Q335" s="1"/>
       <c r="R335" s="1"/>
       <c r="U335" s="1"/>
-      <c r="V335" s="1"/>
+      <c r="V335" s="1">
+        <v>3</v>
+      </c>
       <c r="Y335" s="1"/>
       <c r="AA335" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB335" s="1" t="s">
         <v>22</v>
@@ -19619,14 +19641,26 @@
       <c r="A336" s="1">
         <v>336</v>
       </c>
-      <c r="B336" s="1"/>
-      <c r="C336" s="1"/>
-      <c r="D336" s="1"/>
-      <c r="E336" s="1"/>
-      <c r="F336" s="1"/>
+      <c r="B336" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C336" s="1">
+        <v>250</v>
+      </c>
+      <c r="D336" s="1">
+        <v>10011079417</v>
+      </c>
+      <c r="E336" s="1">
+        <v>17340012</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
-      <c r="I336" s="1"/>
+      <c r="I336" s="1">
+        <v>3</v>
+      </c>
       <c r="J336" s="1"/>
       <c r="K336" s="1"/>
       <c r="L336" s="1"/>
@@ -19634,14 +19668,18 @@
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
       <c r="P336" s="1"/>
-      <c r="Q336" s="1"/>
+      <c r="Q336" s="1">
+        <v>3</v>
+      </c>
       <c r="R336" s="1"/>
       <c r="U336" s="1"/>
-      <c r="V336" s="1"/>
+      <c r="V336" s="1">
+        <v>3</v>
+      </c>
       <c r="Y336" s="1"/>
       <c r="AA336" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AB336" s="1" t="s">
         <v>22</v>
@@ -19651,29 +19689,53 @@
       <c r="A337" s="1">
         <v>337</v>
       </c>
-      <c r="B337" s="1"/>
-      <c r="C337" s="1"/>
-      <c r="D337" s="1"/>
-      <c r="E337" s="1"/>
-      <c r="F337" s="1"/>
-      <c r="G337" s="1"/>
+      <c r="B337" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C337" s="1">
+        <v>98</v>
+      </c>
+      <c r="D337" s="1">
+        <v>10003048628</v>
+      </c>
+      <c r="E337" s="1">
+        <v>12470634</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G337" s="1">
+        <v>3</v>
+      </c>
       <c r="H337" s="1"/>
-      <c r="I337" s="1"/>
+      <c r="I337" s="1">
+        <v>2</v>
+      </c>
       <c r="J337" s="1"/>
-      <c r="K337" s="1"/>
+      <c r="K337" s="1">
+        <v>3</v>
+      </c>
       <c r="L337" s="1"/>
       <c r="M337" s="1"/>
-      <c r="N337" s="1"/>
+      <c r="N337" s="1">
+        <v>5</v>
+      </c>
       <c r="O337" s="1"/>
       <c r="P337" s="1"/>
       <c r="Q337" s="1"/>
       <c r="R337" s="1"/>
-      <c r="U337" s="1"/>
-      <c r="V337" s="1"/>
-      <c r="Y337" s="1"/>
+      <c r="U337" s="1">
+        <v>10</v>
+      </c>
+      <c r="V337" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y337" s="1">
+        <v>5</v>
+      </c>
       <c r="AA337" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AB337" s="1" t="s">
         <v>22</v>
@@ -19683,29 +19745,49 @@
       <c r="A338" s="1">
         <v>338</v>
       </c>
-      <c r="B338" s="1"/>
-      <c r="C338" s="1"/>
-      <c r="D338" s="1"/>
-      <c r="E338" s="1"/>
-      <c r="F338" s="1"/>
-      <c r="G338" s="1"/>
+      <c r="B338" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C338" s="1">
+        <v>696</v>
+      </c>
+      <c r="D338" s="1">
+        <v>10002862704</v>
+      </c>
+      <c r="E338" s="1">
+        <v>115169280</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G338" s="1">
+        <v>10</v>
+      </c>
       <c r="H338" s="1"/>
       <c r="I338" s="1"/>
       <c r="J338" s="1"/>
       <c r="K338" s="1"/>
       <c r="L338" s="1"/>
       <c r="M338" s="1"/>
-      <c r="N338" s="1"/>
-      <c r="O338" s="1"/>
+      <c r="N338" s="1">
+        <v>10</v>
+      </c>
+      <c r="O338" s="1">
+        <v>10</v>
+      </c>
       <c r="P338" s="1"/>
       <c r="Q338" s="1"/>
       <c r="R338" s="1"/>
-      <c r="U338" s="1"/>
-      <c r="V338" s="1"/>
+      <c r="U338" s="1">
+        <v>20</v>
+      </c>
+      <c r="V338" s="1">
+        <v>10</v>
+      </c>
       <c r="Y338" s="1"/>
       <c r="AA338" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB338" s="1" t="s">
         <v>22</v>
@@ -19715,29 +19797,45 @@
       <c r="A339" s="1">
         <v>339</v>
       </c>
-      <c r="B339" s="1"/>
-      <c r="C339" s="1"/>
-      <c r="D339" s="1"/>
-      <c r="E339" s="1"/>
+      <c r="B339" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C339" s="1">
+        <v>399</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>502</v>
+      </c>
       <c r="F339" s="1"/>
-      <c r="G339" s="1"/>
+      <c r="G339" s="1">
+        <v>3</v>
+      </c>
       <c r="H339" s="1"/>
       <c r="I339" s="1"/>
       <c r="J339" s="1"/>
       <c r="K339" s="1"/>
       <c r="L339" s="1"/>
-      <c r="M339" s="1"/>
+      <c r="M339" s="1">
+        <v>5</v>
+      </c>
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
       <c r="P339" s="1"/>
       <c r="Q339" s="1"/>
       <c r="R339" s="1"/>
-      <c r="U339" s="1"/>
-      <c r="V339" s="1"/>
+      <c r="U339" s="1">
+        <v>10</v>
+      </c>
+      <c r="V339" s="1">
+        <v>3</v>
+      </c>
       <c r="Y339" s="1"/>
       <c r="AA339" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AB339" s="1" t="s">
         <v>22</v>
@@ -19747,29 +19845,43 @@
       <c r="A340" s="1">
         <v>340</v>
       </c>
-      <c r="B340" s="1"/>
-      <c r="C340" s="1"/>
-      <c r="D340" s="1"/>
+      <c r="B340" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C340" s="1">
+        <v>514</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
-      <c r="G340" s="1"/>
+      <c r="G340" s="1">
+        <v>5</v>
+      </c>
       <c r="H340" s="1"/>
       <c r="I340" s="1"/>
       <c r="J340" s="1"/>
       <c r="K340" s="1"/>
       <c r="L340" s="1"/>
-      <c r="M340" s="1"/>
+      <c r="M340" s="1">
+        <v>45</v>
+      </c>
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
       <c r="P340" s="1"/>
       <c r="Q340" s="1"/>
       <c r="R340" s="1"/>
-      <c r="U340" s="1"/>
-      <c r="V340" s="1"/>
+      <c r="U340" s="1">
+        <v>60</v>
+      </c>
+      <c r="V340" s="1">
+        <v>15</v>
+      </c>
       <c r="Y340" s="1"/>
       <c r="AA340" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="AB340" s="1" t="s">
         <v>22</v>
@@ -25465,7 +25577,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F27:F28"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27797,10 +27909,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF03CF93-A241-4DB9-ACD8-61B0F18F4B55}">
-  <dimension ref="A1:V205"/>
+  <dimension ref="A1:V219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView topLeftCell="A192" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F223" sqref="F223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29062,6 +29174,76 @@
     <row r="205" spans="2:2">
       <c r="B205" s="10" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" s="10">
+        <v>10002802981</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" s="10">
+        <v>10002739400</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" s="10">
+        <v>10002743194</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" s="10">
+        <v>10002782423</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" s="10">
+        <v>10002751619</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" s="10">
+        <v>10002751604</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" s="10">
+        <v>10002782997</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" s="10">
+        <v>10008769612</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" s="10">
+        <v>10008769643</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" s="10">
+        <v>10011079417</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" s="10">
+        <v>10003048628</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" s="10">
+        <v>10008755474</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" s="10">
+        <v>10008531338</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" s="10">
+        <v>10002862704</v>
       </c>
     </row>
   </sheetData>
@@ -29091,10 +29273,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA1C6DF-1C6F-4A7E-AA08-F9BD66EE655C}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29205,6 +29387,41 @@
       </c>
       <c r="J13" s="12" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="15">
+        <v>10008507813</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="15">
+        <v>10009855888</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="9" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4783998-8C7F-4AE5-A31F-16E2F0228134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A46556-9F81-41C3-8813-9D852AF144FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCESSOS DE FABRICAÇÃO" sheetId="1" r:id="rId1"/>
@@ -2599,7 +2599,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D343" sqref="D343"/>
+      <selection pane="bottomLeft" activeCell="A340" sqref="A340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19854,7 +19854,9 @@
       <c r="D340" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E340" s="1"/>
+      <c r="E340" s="1">
+        <v>11497637</v>
+      </c>
       <c r="F340" s="1"/>
       <c r="G340" s="1">
         <v>5</v>

--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A46556-9F81-41C3-8813-9D852AF144FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB77B85-D1E8-42D5-A1BB-6B26DD19F093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="5" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCESSOS DE FABRICAÇÃO" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="494">
   <si>
     <t>ORCAMENTO</t>
   </si>
@@ -667,36 +667,6 @@
   </si>
   <si>
     <t>HVHV311126-02</t>
-  </si>
-  <si>
-    <t>4476       HV309783-31</t>
-  </si>
-  <si>
-    <t>4475       HV500828-01</t>
-  </si>
-  <si>
-    <t>4526       10011984549</t>
-  </si>
-  <si>
-    <t>4498       HV309783-31</t>
-  </si>
-  <si>
-    <t>4553       HV311169-XX</t>
-  </si>
-  <si>
-    <t>4686    4365870010-003</t>
-  </si>
-  <si>
-    <t>4749         CK-000282</t>
-  </si>
-  <si>
-    <t>4737       HV307164-XX</t>
-  </si>
-  <si>
-    <t>4892    4365870010-004</t>
-  </si>
-  <si>
-    <t>4897    4365870010-004</t>
   </si>
   <si>
     <t>HV308740-02</t>
@@ -1545,6 +1515,9 @@
   </si>
   <si>
     <t>HVHV304445-03</t>
+  </si>
+  <si>
+    <t>N4-0200344</t>
   </si>
 </sst>
 </file>
@@ -2597,9 +2570,9 @@
   </sheetPr>
   <dimension ref="A1:AV540"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A340" sqref="A340"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E208" sqref="E208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2677,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>11</v>
@@ -2846,7 +2819,7 @@
         <v>22</v>
       </c>
       <c r="AK3" s="8" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="AL3" s="1">
         <f>SUM(H2:H500)</f>
@@ -2860,7 +2833,7 @@
         <v>8.5297210366796564E-2</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="AQ3" s="1">
         <f>SUM(AL2:AL5)</f>
@@ -2931,7 +2904,7 @@
         <v>22</v>
       </c>
       <c r="AK4" s="8" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="AL4" s="1">
         <f>SUM(I2:I499)</f>
@@ -3004,7 +2977,7 @@
         <v>22</v>
       </c>
       <c r="AK5" s="8" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="AL5" s="1">
         <f>SUM(J2:J500)</f>
@@ -3018,7 +2991,7 @@
         <v>1.4432692109441042E-4</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="AQ5" s="1">
         <f>SUM(AL6:AL7)</f>
@@ -3318,7 +3291,7 @@
         <v>22</v>
       </c>
       <c r="AK9" s="8" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="AL9" s="1">
         <f>SUM(N2:N501)</f>
@@ -3332,7 +3305,7 @@
         <v>4.9401043277458194E-2</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="AQ9" s="1">
         <f>AL9</f>
@@ -3491,7 +3464,7 @@
         <v>1.420589266200697E-2</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="AQ11" s="1">
         <f>SUM(AL10:AL12)</f>
@@ -7968,7 +7941,7 @@
         <v>185</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E89" s="2">
         <v>13588930</v>
@@ -8015,7 +7988,7 @@
         <v>149</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E90" s="2">
         <v>16110881</v>
@@ -8053,7 +8026,7 @@
         <v>72</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E91" s="2">
         <v>16745816</v>
@@ -8093,7 +8066,7 @@
         <v>72</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E92" s="2">
         <v>16746703</v>
@@ -8178,7 +8151,7 @@
         <v>203</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E94" s="2">
         <v>14036861</v>
@@ -8265,7 +8238,7 @@
         <v>203</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="E96" s="2">
         <v>14023910</v>
@@ -8310,7 +8283,7 @@
         <v>159</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E97" s="2">
         <v>15967965</v>
@@ -8357,7 +8330,7 @@
         <v>216</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="E98" s="2">
         <v>15971997</v>
@@ -8404,7 +8377,7 @@
         <v>479</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="E99" s="2">
         <v>11521021</v>
@@ -8447,7 +8420,7 @@
         <v>189</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E100" s="2">
         <v>11469602</v>
@@ -8531,7 +8504,7 @@
         <v>189</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E102" s="2">
         <v>14391192</v>
@@ -8570,7 +8543,7 @@
         <v>189</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E103" s="2">
         <v>14154480</v>
@@ -8614,7 +8587,7 @@
         <v>133</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="E104" s="2">
         <v>11468826</v>
@@ -8698,7 +8671,7 @@
         <v>189</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="E106" s="2">
         <v>11468114</v>
@@ -8742,7 +8715,7 @@
         <v>94</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E107" s="2">
         <v>11467111</v>
@@ -8825,10 +8798,10 @@
         <v>660</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>25</v>
@@ -8873,7 +8846,7 @@
         <v>28760407</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>25</v>
@@ -9549,7 +9522,7 @@
         <v>10004976011</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>25</v>
@@ -9816,10 +9789,10 @@
         <v>189</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>25</v>
@@ -9862,10 +9835,10 @@
         <v>660</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>25</v>
@@ -10193,7 +10166,7 @@
         <v>10002871503</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>25</v>
@@ -10270,7 +10243,7 @@
         <v>10005984475</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>25</v>
@@ -10313,10 +10286,10 @@
         <v>595</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>25</v>
@@ -10411,10 +10384,10 @@
         <v>689</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>25</v>
@@ -10451,10 +10424,10 @@
         <v>511</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>25</v>
@@ -10497,10 +10470,10 @@
         <v>660</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>25</v>
@@ -10534,10 +10507,10 @@
         <v>189</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>25</v>
@@ -10618,7 +10591,7 @@
         <v>340</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>89</v>
@@ -10809,10 +10782,10 @@
         <v>535</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>25</v>
@@ -10901,10 +10874,10 @@
         <v>502</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>25</v>
@@ -10981,16 +10954,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C158" s="2">
         <v>453</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>25</v>
@@ -11144,10 +11117,10 @@
         <v>549</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>25</v>
@@ -11190,10 +11163,10 @@
         <v>189</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>25</v>
@@ -11232,10 +11205,10 @@
         <v>511</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>25</v>
@@ -11447,7 +11420,7 @@
         <v>10002751604</v>
       </c>
       <c r="E169" s="14" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>25</v>
@@ -12150,10 +12123,10 @@
         <v>601</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>25</v>
@@ -12196,10 +12169,10 @@
         <v>652</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>25</v>
@@ -12251,10 +12224,10 @@
         <v>652</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>25</v>
@@ -12304,10 +12277,10 @@
         <v>652</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>25</v>
@@ -12357,10 +12330,10 @@
         <v>652</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>25</v>
@@ -12572,7 +12545,7 @@
         <v>72</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>25</v>
@@ -12611,10 +12584,10 @@
         <v>643</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>25</v>
@@ -12650,10 +12623,10 @@
         <v>643</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>25</v>
@@ -12726,10 +12699,10 @@
         <v>189</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>25</v>
@@ -12765,10 +12738,10 @@
         <v>341</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>25</v>
@@ -12928,7 +12901,7 @@
         <v>10005363802</v>
       </c>
       <c r="E204" s="14" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>25</v>
@@ -13277,16 +13250,16 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C213" s="2">
         <v>634</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>25</v>
@@ -13324,16 +13297,16 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C214" s="2">
         <v>634</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>25</v>
@@ -13468,10 +13441,10 @@
         <v>189</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>25</v>
@@ -13516,10 +13489,10 @@
         <v>636</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>25</v>
@@ -13565,10 +13538,10 @@
         <v>665</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>25</v>
@@ -13606,10 +13579,10 @@
         <v>665</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>25</v>
@@ -13647,10 +13620,10 @@
         <v>665</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>25</v>
@@ -13742,10 +13715,10 @@
         <v>247</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>25</v>
@@ -13791,7 +13764,7 @@
         <v>179</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>25</v>
@@ -13871,10 +13844,10 @@
         <v>682</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>25</v>
@@ -14232,7 +14205,7 @@
         <v>685</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>25</v>
@@ -14278,16 +14251,16 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C234" s="1">
         <v>688</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>25</v>
@@ -14330,10 +14303,10 @@
         <v>682</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>25</v>
@@ -14371,10 +14344,10 @@
         <v>687</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>25</v>
@@ -14425,10 +14398,10 @@
         <v>687</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>25</v>
@@ -14474,7 +14447,7 @@
         <v>72</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>25</v>
@@ -14522,10 +14495,10 @@
         <v>687</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>25</v>
@@ -14573,10 +14546,10 @@
         <v>687</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>25</v>
@@ -14624,10 +14597,10 @@
         <v>687</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>25</v>
@@ -14675,10 +14648,10 @@
         <v>687</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>25</v>
@@ -14724,10 +14697,10 @@
         <v>684</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>25</v>
@@ -14781,10 +14754,10 @@
         <v>684</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>25</v>
@@ -15229,10 +15202,10 @@
         <v>678</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>25</v>
@@ -15282,10 +15255,10 @@
         <v>678</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>25</v>
@@ -15335,10 +15308,10 @@
         <v>678</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>25</v>
@@ -15388,10 +15361,10 @@
         <v>678</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>25</v>
@@ -15441,10 +15414,10 @@
         <v>678</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>25</v>
@@ -15498,10 +15471,10 @@
         <v>678</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>25</v>
@@ -15551,10 +15524,10 @@
         <v>678</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>25</v>
@@ -15608,10 +15581,10 @@
         <v>678</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>25</v>
@@ -15663,10 +15636,10 @@
         <v>678</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>25</v>
@@ -15720,10 +15693,10 @@
         <v>678</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>25</v>
@@ -15777,10 +15750,10 @@
         <v>678</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>25</v>
@@ -15834,10 +15807,10 @@
         <v>678</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>25</v>
@@ -15889,10 +15862,10 @@
         <v>678</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>25</v>
@@ -15944,10 +15917,10 @@
         <v>678</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>25</v>
@@ -15999,10 +15972,10 @@
         <v>678</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>25</v>
@@ -16054,10 +16027,10 @@
         <v>678</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>25</v>
@@ -16109,10 +16082,10 @@
         <v>678</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>25</v>
@@ -16162,10 +16135,10 @@
         <v>678</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>25</v>
@@ -16215,10 +16188,10 @@
         <v>678</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>25</v>
@@ -16270,10 +16243,10 @@
         <v>678</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>25</v>
@@ -16325,10 +16298,10 @@
         <v>678</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>25</v>
@@ -16378,10 +16351,10 @@
         <v>678</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>25</v>
@@ -16433,10 +16406,10 @@
         <v>678</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>25</v>
@@ -16488,10 +16461,10 @@
         <v>678</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>25</v>
@@ -16543,10 +16516,10 @@
         <v>678</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>25</v>
@@ -16596,10 +16569,10 @@
         <v>678</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>25</v>
@@ -16651,10 +16624,10 @@
         <v>678</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>25</v>
@@ -16704,10 +16677,10 @@
         <v>678</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>25</v>
@@ -16759,10 +16732,10 @@
         <v>678</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>25</v>
@@ -16816,10 +16789,10 @@
         <v>678</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>25</v>
@@ -16871,10 +16844,10 @@
         <v>678</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>25</v>
@@ -16926,10 +16899,10 @@
         <v>678</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>25</v>
@@ -16981,10 +16954,10 @@
         <v>678</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>25</v>
@@ -17036,10 +17009,10 @@
         <v>678</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>25</v>
@@ -17093,10 +17066,10 @@
         <v>678</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>25</v>
@@ -17146,10 +17119,10 @@
         <v>678</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>25</v>
@@ -17197,10 +17170,10 @@
         <v>669</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>25</v>
@@ -17254,10 +17227,10 @@
         <v>669</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>25</v>
@@ -17311,10 +17284,10 @@
         <v>669</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>25</v>
@@ -17530,10 +17503,10 @@
         <v>652</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="F294" s="1" t="s">
         <v>25</v>
@@ -17583,10 +17556,10 @@
         <v>652</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>25</v>
@@ -17635,10 +17608,10 @@
         <v>652</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>25</v>
@@ -17685,10 +17658,10 @@
         <v>652</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>25</v>
@@ -17888,7 +17861,7 @@
         <v>72</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>25</v>
@@ -17937,10 +17910,10 @@
         <v>643</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>25</v>
@@ -17987,10 +17960,10 @@
         <v>643</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>25</v>
@@ -18037,10 +18010,10 @@
         <v>663</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>25</v>
@@ -18088,10 +18061,10 @@
         <v>663</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>25</v>
@@ -18137,10 +18110,10 @@
         <v>664</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>25</v>
@@ -18187,10 +18160,10 @@
         <v>664</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="F307" s="1" t="s">
         <v>25</v>
@@ -18237,10 +18210,10 @@
         <v>664</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>25</v>
@@ -18287,10 +18260,10 @@
         <v>664</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="F309" s="1" t="s">
         <v>25</v>
@@ -18556,10 +18529,10 @@
         <v>691</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="F314" s="1" t="s">
         <v>25</v>
@@ -18604,10 +18577,10 @@
         <v>691</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="F315" s="1" t="s">
         <v>25</v>
@@ -18656,10 +18629,10 @@
         <v>691</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>25</v>
@@ -18706,10 +18679,10 @@
         <v>691</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="F317" s="1" t="s">
         <v>25</v>
@@ -18754,10 +18727,10 @@
         <v>691</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>25</v>
@@ -18798,7 +18771,7 @@
         <v>319</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="C319" s="1">
         <v>690</v>
@@ -19058,10 +19031,10 @@
         <v>679</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="F324" s="1" t="s">
         <v>25</v>
@@ -19503,7 +19476,7 @@
         <v>43</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="F333" s="1" t="s">
         <v>25</v>
@@ -19553,7 +19526,7 @@
         <v>42</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="F334" s="1" t="s">
         <v>25</v>
@@ -19804,12 +19777,14 @@
         <v>399</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="F339" s="1"/>
+        <v>492</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G339" s="1">
         <v>3</v>
       </c>
@@ -19852,12 +19827,14 @@
         <v>514</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="E340" s="1">
         <v>11497637</v>
       </c>
-      <c r="F340" s="1"/>
+      <c r="F340" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G340" s="1">
         <v>5</v>
       </c>
@@ -25878,7 +25855,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="B2" s="15" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -25888,12 +25865,12 @@
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="15" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="15" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -25903,7 +25880,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="15" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -25913,7 +25890,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="15" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -25928,17 +25905,17 @@
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="15" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="15" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="15" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -25963,7 +25940,7 @@
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="15" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -25983,7 +25960,7 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="15" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="2:2">
@@ -26038,7 +26015,7 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="15" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="2:2">
@@ -26063,7 +26040,7 @@
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="15" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" spans="2:2">
@@ -26073,7 +26050,7 @@
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="15" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="2:2">
@@ -26188,7 +26165,7 @@
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="15" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="2:2">
@@ -26333,22 +26310,22 @@
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="15" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="15" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="15" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="15" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="97" spans="2:2">
@@ -26358,22 +26335,22 @@
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="15" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="15" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="15" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="15" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="102" spans="2:2">
@@ -26383,22 +26360,22 @@
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="15" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="15" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" s="15" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="15" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="107" spans="2:2">
@@ -26413,22 +26390,22 @@
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="15" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="15" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="15" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="113" spans="2:2">
@@ -26453,7 +26430,7 @@
     </row>
     <row r="117" spans="2:2">
       <c r="B117" s="15" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="118" spans="2:2">
@@ -26493,7 +26470,7 @@
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="15" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="126" spans="2:2">
@@ -26543,112 +26520,112 @@
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="15" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="15" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="15" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="15" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="15" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="15" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="15" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="15" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="15" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" s="15" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="15" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="15" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="15" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="15" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="15" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" s="15" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="15" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" s="15" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="15" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" s="15" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="157" spans="2:2">
@@ -26693,22 +26670,22 @@
     </row>
     <row r="165" spans="2:2">
       <c r="B165" s="15" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" s="15" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" s="15" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="15" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="169" spans="2:2">
@@ -26833,27 +26810,27 @@
     </row>
     <row r="193" spans="2:2">
       <c r="B193" s="15" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" s="15" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" s="15" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" s="15" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" s="15" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="198" spans="2:2">
@@ -26993,7 +26970,7 @@
     </row>
     <row r="225" spans="2:2">
       <c r="B225" s="15" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="226" spans="2:2">
@@ -27003,12 +26980,12 @@
     </row>
     <row r="227" spans="2:2">
       <c r="B227" s="15" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="228" spans="2:2">
       <c r="B228" s="15" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="229" spans="2:2">
@@ -27043,37 +27020,37 @@
     </row>
     <row r="235" spans="2:2">
       <c r="B235" s="15" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="236" spans="2:2">
       <c r="B236" s="15" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="237" spans="2:2">
       <c r="B237" s="15" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="238" spans="2:2">
       <c r="B238" s="15" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" s="15" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="240" spans="2:2">
       <c r="B240" s="15" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="241" spans="2:2">
       <c r="B241" s="15" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="242" spans="2:2">
@@ -27113,42 +27090,42 @@
     </row>
     <row r="249" spans="2:2">
       <c r="B249" s="15" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="250" spans="2:2">
       <c r="B250" s="15" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="251" spans="2:2">
       <c r="B251" s="15" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="252" spans="2:2">
       <c r="B252" s="15" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="253" spans="2:2">
       <c r="B253" s="15" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="254" spans="2:2">
       <c r="B254" s="15" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="255" spans="2:2">
       <c r="B255" s="15" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="256" spans="2:2">
       <c r="B256" s="15" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="257" spans="2:2">
@@ -27158,7 +27135,7 @@
     </row>
     <row r="258" spans="2:2">
       <c r="B258" s="15" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="259" spans="2:2">
@@ -27173,37 +27150,37 @@
     </row>
     <row r="261" spans="2:2">
       <c r="B261" s="15" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="262" spans="2:2">
       <c r="B262" s="15" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="263" spans="2:2">
       <c r="B263" s="15" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="264" spans="2:2">
       <c r="B264" s="15" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="265" spans="2:2">
       <c r="B265" s="15" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="266" spans="2:2">
       <c r="B266" s="15" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="267" spans="2:2">
       <c r="B267" s="15" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="268" spans="2:2">
@@ -27213,52 +27190,52 @@
     </row>
     <row r="269" spans="2:2">
       <c r="B269" s="15" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="270" spans="2:2">
       <c r="B270" s="15" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="271" spans="2:2">
       <c r="B271" s="15" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="272" spans="2:2">
       <c r="B272" s="15" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="273" spans="2:2">
       <c r="B273" s="15" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="274" spans="2:2">
       <c r="B274" s="15" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="275" spans="2:2">
       <c r="B275" s="15" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="276" spans="2:2">
       <c r="B276" s="15" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="277" spans="2:2">
       <c r="B277" s="15" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="278" spans="2:2">
       <c r="B278" s="15" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -27290,8 +27267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFED1B6-6669-418D-935F-274B00B50F32}">
   <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27310,578 +27287,578 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="15">
+        <v>10008531338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="15">
+        <v>10008521996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="15">
+        <v>10008532036</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="15">
+        <v>10007949972</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="15">
+        <v>10005992988</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="15">
+        <v>10005992925</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="15">
+        <v>10004229966</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="15">
+        <v>10005627126</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="15">
+        <v>10005184725</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="15">
+        <v>10009855888</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="15">
+        <v>10005864826</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="15">
+        <v>10002967709</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="15">
+        <v>10007749091</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="15">
+        <v>10007749151</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="15">
+        <v>10011984549</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="15">
+        <v>10011984549</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="15">
+        <v>10005480580</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="15">
+        <v>10005571460</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="15">
+        <v>10005571244</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="15">
+        <v>10008514727</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="15">
+        <v>10008769643</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="15">
+        <v>10008769612</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="15">
+        <v>10005572709</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="15">
+        <v>10002782997</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="15">
+        <v>10002751604</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="15">
+        <v>10002782423</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="15">
+        <v>10002743194</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="15">
+        <v>10002739400</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="15">
+        <v>10002802981</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="15">
+        <v>10005189960</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="15">
+        <v>10005189440</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="15">
+        <v>10005675337</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="15">
+        <v>10003280804</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="15">
+        <v>10006076266</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="15">
+        <v>10002871503</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="15">
+        <v>10004912412</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="15">
+        <v>10007692173</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="15">
+        <v>10007908721</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="15">
+        <v>10007708165</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="15">
+        <v>10005396135</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="15">
+        <v>10007692188</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="15">
+        <v>10005155671</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="15">
+        <v>10006072428</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="15">
+        <v>10008511251</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="15">
+        <v>10006000456</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="15">
+        <v>10006001743</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="15">
+        <v>10008507821</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="15">
+        <v>10008511425</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="15">
+        <v>10004911690</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="15">
+        <v>10007908309</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="15">
+        <v>10008507813</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="15">
+        <v>10008511251</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="B3" s="10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="10">
-        <v>10008531338</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="10" t="s">
+    <row r="92" spans="2:2">
+      <c r="B92" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="B9" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" s="10">
-        <v>10008521996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" s="10">
-        <v>10008532036</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="10">
-        <v>10007949972</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="10">
-        <v>10005992988</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="10">
-        <v>10005992925</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="10">
-        <v>10004229966</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="10" t="s">
+    <row r="94" spans="2:2">
+      <c r="B94" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="10">
-        <v>10005627126</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="10">
-        <v>10005184725</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="10">
+    <row r="95" spans="2:2">
+      <c r="B95" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="15">
+        <v>10008184638</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="15">
+        <v>10008184634</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="15">
+        <v>10002871503</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="15">
         <v>10009855888</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="10" t="s">
+    <row r="102" spans="2:2">
+      <c r="B102" s="15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="15">
+        <v>10011822420</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="10" t="s">
+    <row r="108" spans="2:2">
+      <c r="B108" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="10" t="s">
+    <row r="109" spans="2:2">
+      <c r="B109" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="10" t="s">
+    <row r="110" spans="2:2">
+      <c r="B110" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="10" t="s">
+    <row r="111" spans="2:2">
+      <c r="B111" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="10">
-        <v>10005864826</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="10">
-        <v>10002967709</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="10">
-        <v>10007749091</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="10">
-        <v>10007749151</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="10">
-        <v>10011984549</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="10">
-        <v>10011984549</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="10">
-        <v>10005480580</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="10">
-        <v>10005571460</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="10">
-        <v>10005571244</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="10">
-        <v>10008514727</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="10" t="s">
+    <row r="112" spans="2:2">
+      <c r="B112" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="15" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="10">
-        <v>10008769643</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="10">
-        <v>10008769612</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="10">
-        <v>10005572709</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="10">
-        <v>10002782997</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="10">
-        <v>10002751604</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="10">
-        <v>10002782423</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="10">
-        <v>10002743194</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="10">
-        <v>10002739400</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="10">
-        <v>10002802981</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="10">
-        <v>10005189960</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="10">
-        <v>10005189440</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="10">
-        <v>10005675337</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="10">
-        <v>10003280804</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="10">
-        <v>10006076266</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="10">
-        <v>10002871503</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="10">
-        <v>10004912412</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="10">
-        <v>10007692173</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="10">
-        <v>10007908721</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="10">
-        <v>10007708165</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="10">
-        <v>10005396135</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="10">
-        <v>10007692188</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="10">
-        <v>10005155671</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="10">
-        <v>10006072428</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="10">
-        <v>10008511251</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="10" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="10">
-        <v>10006000456</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="10">
-        <v>10006001743</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="10">
-        <v>10008507821</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86" s="10">
-        <v>10008511425</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="10">
-        <v>10004911690</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="10">
-        <v>10007908309</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="10">
-        <v>10008507813</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="10">
-        <v>10008511251</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" s="10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2">
-      <c r="B93" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2">
-      <c r="B94" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2">
-      <c r="B95" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2">
-      <c r="B96" s="10">
-        <v>10008184638</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="10">
-        <v>10008184634</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="10">
-        <v>10002871503</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="10">
-        <v>10009855888</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104" s="10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105" s="10">
-        <v>10011822420</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2">
-      <c r="B107" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2">
-      <c r="B108" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2">
-      <c r="B110" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2">
-      <c r="B111" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2">
-      <c r="B112" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
     <row r="116" spans="2:2">
-      <c r="B116" s="10" t="s">
-        <v>300</v>
+      <c r="B116" s="15" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="121" spans="2:2" ht="14.25" customHeight="1"/>
@@ -27911,10 +27888,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF03CF93-A241-4DB9-ACD8-61B0F18F4B55}">
-  <dimension ref="A1:V219"/>
+  <dimension ref="A1:V220"/>
   <sheetViews>
-    <sheetView topLeftCell="A192" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F223" sqref="F223"/>
+    <sheetView topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I220" sqref="I220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27938,7 +27915,7 @@
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="B2" s="10" t="str">
+      <c r="B2" s="15" t="str">
         <f t="shared" ref="B2:B33" si="0">TRIM(MID(V1, SEARCH(" ", V1) + 1, LEN(V1) - SEARCH(" ", V1)))</f>
         <v>10008521996</v>
       </c>
@@ -27947,7 +27924,7 @@
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="B3" s="10" t="str">
+      <c r="B3" s="15" t="str">
         <f t="shared" si="0"/>
         <v>10008521996</v>
       </c>
@@ -27956,7 +27933,7 @@
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="B4" s="10" t="str">
+      <c r="B4" s="15" t="str">
         <f t="shared" si="0"/>
         <v>10008521996</v>
       </c>
@@ -27965,7 +27942,7 @@
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="B5" s="10" t="str">
+      <c r="B5" s="15" t="str">
         <f t="shared" si="0"/>
         <v>HV307164-XX</v>
       </c>
@@ -27974,7 +27951,7 @@
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="B6" s="10">
+      <c r="B6" s="15">
         <v>10003922463</v>
       </c>
       <c r="F6" s="2"/>
@@ -27983,7 +27960,7 @@
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="B7" s="10" t="str">
+      <c r="B7" s="15" t="str">
         <f t="shared" si="0"/>
         <v>HV306453-01</v>
       </c>
@@ -27992,7 +27969,7 @@
       </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="B8" s="10" t="str">
+      <c r="B8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>HV400318-XX</v>
       </c>
@@ -28001,7 +27978,7 @@
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="B9" s="10" t="str">
+      <c r="B9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>HV307164-XX</v>
       </c>
@@ -28010,7 +27987,7 @@
       </c>
     </row>
     <row r="10" spans="1:22">
-      <c r="B10" s="10" t="str">
+      <c r="B10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>HV303895-01</v>
       </c>
@@ -28019,7 +27996,7 @@
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="B11" s="10" t="str">
+      <c r="B11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>HV307986-XX</v>
       </c>
@@ -28028,7 +28005,7 @@
       </c>
     </row>
     <row r="12" spans="1:22">
-      <c r="B12" s="10" t="str">
+      <c r="B12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>10011984549</v>
       </c>
@@ -28037,7 +28014,7 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="B13" s="10" t="str">
+      <c r="B13" s="15" t="str">
         <f t="shared" si="0"/>
         <v>HV311169-XX</v>
       </c>
@@ -28046,7 +28023,7 @@
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="B14" s="10" t="str">
+      <c r="B14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>4365870010-004</v>
       </c>
@@ -28055,7 +28032,7 @@
       </c>
     </row>
     <row r="15" spans="1:22">
-      <c r="B15" s="10" t="str">
+      <c r="B15" s="15" t="str">
         <f t="shared" si="0"/>
         <v>HV307986-XX</v>
       </c>
@@ -28064,7 +28041,7 @@
       </c>
     </row>
     <row r="16" spans="1:22">
-      <c r="B16" s="10" t="str">
+      <c r="B16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>4544520010-006</v>
       </c>
@@ -28073,7 +28050,7 @@
       </c>
     </row>
     <row r="17" spans="2:22">
-      <c r="B17" s="10" t="str">
+      <c r="B17" s="15" t="str">
         <f t="shared" si="0"/>
         <v>28800202</v>
       </c>
@@ -28082,7 +28059,7 @@
       </c>
     </row>
     <row r="18" spans="2:22">
-      <c r="B18" s="10" t="str">
+      <c r="B18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>10007618049</v>
       </c>
@@ -28091,7 +28068,7 @@
       </c>
     </row>
     <row r="19" spans="2:22">
-      <c r="B19" s="10" t="str">
+      <c r="B19" s="15" t="str">
         <f t="shared" si="0"/>
         <v>10008511425</v>
       </c>
@@ -28100,7 +28077,7 @@
       </c>
     </row>
     <row r="20" spans="2:22">
-      <c r="B20" s="10" t="str">
+      <c r="B20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>10008511425</v>
       </c>
@@ -28109,7 +28086,7 @@
       </c>
     </row>
     <row r="21" spans="2:22">
-      <c r="B21" s="10" t="str">
+      <c r="B21" s="15" t="str">
         <f t="shared" si="0"/>
         <v>10005591672</v>
       </c>
@@ -28118,7 +28095,7 @@
       </c>
     </row>
     <row r="22" spans="2:22">
-      <c r="B22" s="10" t="str">
+      <c r="B22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>10008507813</v>
       </c>
@@ -28127,7 +28104,7 @@
       </c>
     </row>
     <row r="23" spans="2:22">
-      <c r="B23" s="10" t="str">
+      <c r="B23" s="15" t="str">
         <f t="shared" si="0"/>
         <v>10008507813</v>
       </c>
@@ -28136,7 +28113,7 @@
       </c>
     </row>
     <row r="24" spans="2:22">
-      <c r="B24" s="10" t="str">
+      <c r="B24" s="15" t="str">
         <f t="shared" si="0"/>
         <v>10008507813</v>
       </c>
@@ -28145,7 +28122,7 @@
       </c>
     </row>
     <row r="25" spans="2:22">
-      <c r="B25" s="10" t="str">
+      <c r="B25" s="15" t="str">
         <f t="shared" si="0"/>
         <v>HVHV307987-XX</v>
       </c>
@@ -28154,7 +28131,7 @@
       </c>
     </row>
     <row r="26" spans="2:22">
-      <c r="B26" s="10" t="str">
+      <c r="B26" s="15" t="str">
         <f t="shared" si="0"/>
         <v>HV307986-XX</v>
       </c>
@@ -28163,7 +28140,7 @@
       </c>
     </row>
     <row r="27" spans="2:22">
-      <c r="B27" s="10" t="str">
+      <c r="B27" s="15" t="str">
         <f t="shared" si="0"/>
         <v>HV307986-XX</v>
       </c>
@@ -28172,7 +28149,7 @@
       </c>
     </row>
     <row r="28" spans="2:22">
-      <c r="B28" s="10" t="str">
+      <c r="B28" s="15" t="str">
         <f t="shared" si="0"/>
         <v>HV307986-XX</v>
       </c>
@@ -28181,7 +28158,7 @@
       </c>
     </row>
     <row r="29" spans="2:22">
-      <c r="B29" s="10" t="str">
+      <c r="B29" s="15" t="str">
         <f t="shared" si="0"/>
         <v>HV307986-XX</v>
       </c>
@@ -28190,7 +28167,7 @@
       </c>
     </row>
     <row r="30" spans="2:22">
-      <c r="B30" s="10" t="str">
+      <c r="B30" s="15" t="str">
         <f t="shared" si="0"/>
         <v>HV307986-XX</v>
       </c>
@@ -28199,7 +28176,7 @@
       </c>
     </row>
     <row r="31" spans="2:22">
-      <c r="B31" s="10" t="str">
+      <c r="B31" s="15" t="str">
         <f t="shared" si="0"/>
         <v>RML-W-064709</v>
       </c>
@@ -28208,7 +28185,7 @@
       </c>
     </row>
     <row r="32" spans="2:22">
-      <c r="B32" s="10" t="str">
+      <c r="B32" s="15" t="str">
         <f t="shared" si="0"/>
         <v>HV311126-02</v>
       </c>
@@ -28217,7 +28194,7 @@
       </c>
     </row>
     <row r="33" spans="2:22">
-      <c r="B33" s="10" t="str">
+      <c r="B33" s="15" t="str">
         <f t="shared" si="0"/>
         <v>HV307986-XX</v>
       </c>
@@ -28226,7 +28203,7 @@
       </c>
     </row>
     <row r="34" spans="2:22">
-      <c r="B34" s="10" t="str">
+      <c r="B34" s="15" t="str">
         <f t="shared" ref="B34:B57" si="1">TRIM(MID(V33, SEARCH(" ", V33) + 1, LEN(V33) - SEARCH(" ", V33)))</f>
         <v>HV307164-XX</v>
       </c>
@@ -28235,7 +28212,7 @@
       </c>
     </row>
     <row r="35" spans="2:22">
-      <c r="B35" s="10" t="str">
+      <c r="B35" s="15" t="str">
         <f t="shared" si="1"/>
         <v>10005864826</v>
       </c>
@@ -28244,7 +28221,7 @@
       </c>
     </row>
     <row r="36" spans="2:22">
-      <c r="B36" s="10" t="str">
+      <c r="B36" s="15" t="str">
         <f t="shared" si="1"/>
         <v>10004229966</v>
       </c>
@@ -28253,7 +28230,7 @@
       </c>
     </row>
     <row r="37" spans="2:22">
-      <c r="B37" s="10" t="str">
+      <c r="B37" s="15" t="str">
         <f t="shared" si="1"/>
         <v>10008755474</v>
       </c>
@@ -28262,7 +28239,7 @@
       </c>
     </row>
     <row r="38" spans="2:22">
-      <c r="B38" s="10" t="str">
+      <c r="B38" s="15" t="str">
         <f t="shared" si="1"/>
         <v>10010360769</v>
       </c>
@@ -28271,7 +28248,7 @@
       </c>
     </row>
     <row r="39" spans="2:22">
-      <c r="B39" s="10" t="str">
+      <c r="B39" s="15" t="str">
         <f t="shared" si="1"/>
         <v>10009890643</v>
       </c>
@@ -28280,7 +28257,7 @@
       </c>
     </row>
     <row r="40" spans="2:22">
-      <c r="B40" s="10" t="str">
+      <c r="B40" s="15" t="str">
         <f t="shared" si="1"/>
         <v>10009855888</v>
       </c>
@@ -28289,7 +28266,7 @@
       </c>
     </row>
     <row r="41" spans="2:22">
-      <c r="B41" s="10" t="str">
+      <c r="B41" s="15" t="str">
         <f t="shared" si="1"/>
         <v>10004980103</v>
       </c>
@@ -28298,7 +28275,7 @@
       </c>
     </row>
     <row r="42" spans="2:22">
-      <c r="B42" s="10" t="str">
+      <c r="B42" s="15" t="str">
         <f t="shared" si="1"/>
         <v>10004976811</v>
       </c>
@@ -28307,7 +28284,7 @@
       </c>
     </row>
     <row r="43" spans="2:22">
-      <c r="B43" s="10" t="str">
+      <c r="B43" s="15" t="str">
         <f t="shared" si="1"/>
         <v>10004963667</v>
       </c>
@@ -28316,7 +28293,7 @@
       </c>
     </row>
     <row r="44" spans="2:22">
-      <c r="B44" s="10" t="str">
+      <c r="B44" s="15" t="str">
         <f t="shared" si="1"/>
         <v>10008507821</v>
       </c>
@@ -28325,7 +28302,7 @@
       </c>
     </row>
     <row r="45" spans="2:22">
-      <c r="B45" s="10" t="str">
+      <c r="B45" s="15" t="str">
         <f t="shared" si="1"/>
         <v>10008507821</v>
       </c>
@@ -28334,7 +28311,7 @@
       </c>
     </row>
     <row r="46" spans="2:22">
-      <c r="B46" s="10" t="str">
+      <c r="B46" s="15" t="str">
         <f t="shared" si="1"/>
         <v>10008514727</v>
       </c>
@@ -28343,7 +28320,7 @@
       </c>
     </row>
     <row r="47" spans="2:22">
-      <c r="B47" s="10" t="str">
+      <c r="B47" s="15" t="str">
         <f t="shared" si="1"/>
         <v>10006001743</v>
       </c>
@@ -28352,7 +28329,7 @@
       </c>
     </row>
     <row r="48" spans="2:22">
-      <c r="B48" s="10" t="str">
+      <c r="B48" s="15" t="str">
         <f t="shared" si="1"/>
         <v>10006000456</v>
       </c>
@@ -28361,7 +28338,7 @@
       </c>
     </row>
     <row r="49" spans="2:22">
-      <c r="B49" s="10" t="str">
+      <c r="B49" s="15" t="str">
         <f t="shared" si="1"/>
         <v>10004254702</v>
       </c>
@@ -28370,7 +28347,7 @@
       </c>
     </row>
     <row r="50" spans="2:22">
-      <c r="B50" s="10" t="str">
+      <c r="B50" s="15" t="str">
         <f t="shared" si="1"/>
         <v>10003058629</v>
       </c>
@@ -28379,7 +28356,7 @@
       </c>
     </row>
     <row r="51" spans="2:22">
-      <c r="B51" s="10" t="str">
+      <c r="B51" s="15" t="str">
         <f t="shared" si="1"/>
         <v>10005184725</v>
       </c>
@@ -28388,7 +28365,7 @@
       </c>
     </row>
     <row r="52" spans="2:22">
-      <c r="B52" s="10" t="str">
+      <c r="B52" s="15" t="str">
         <f t="shared" si="1"/>
         <v>10005675337</v>
       </c>
@@ -28397,7 +28374,7 @@
       </c>
     </row>
     <row r="53" spans="2:22">
-      <c r="B53" s="10" t="str">
+      <c r="B53" s="15" t="str">
         <f t="shared" si="1"/>
         <v>10005159680</v>
       </c>
@@ -28406,7 +28383,7 @@
       </c>
     </row>
     <row r="54" spans="2:22">
-      <c r="B54" s="10" t="str">
+      <c r="B54" s="15" t="str">
         <f t="shared" si="1"/>
         <v>10006836848</v>
       </c>
@@ -28415,7 +28392,7 @@
       </c>
     </row>
     <row r="55" spans="2:22">
-      <c r="B55" s="10" t="str">
+      <c r="B55" s="15" t="str">
         <f t="shared" si="1"/>
         <v>10006836881</v>
       </c>
@@ -28424,7 +28401,7 @@
       </c>
     </row>
     <row r="56" spans="2:22">
-      <c r="B56" s="10" t="str">
+      <c r="B56" s="15" t="str">
         <f t="shared" si="1"/>
         <v>10006504723</v>
       </c>
@@ -28433,819 +28410,824 @@
       </c>
     </row>
     <row r="57" spans="2:22">
-      <c r="B57" s="10" t="str">
+      <c r="B57" s="15" t="str">
         <f t="shared" si="1"/>
         <v>10006836942</v>
       </c>
     </row>
     <row r="58" spans="2:22">
-      <c r="B58" s="10">
+      <c r="B58" s="15">
         <v>10011747255</v>
       </c>
     </row>
     <row r="59" spans="2:22">
-      <c r="B59" s="10">
+      <c r="B59" s="15">
         <v>10011747305</v>
       </c>
     </row>
     <row r="60" spans="2:22">
-      <c r="B60" s="10">
+      <c r="B60" s="15">
         <v>28800202</v>
       </c>
     </row>
     <row r="61" spans="2:22">
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="62" spans="2:22">
-      <c r="B62" s="10">
+      <c r="B62" s="15">
         <v>10008520095</v>
       </c>
     </row>
     <row r="63" spans="2:22">
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="64" spans="2:22">
-      <c r="B64" s="10" t="s">
-        <v>222</v>
+      <c r="B64" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="10">
+      <c r="B65" s="15">
         <v>28760407</v>
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="10">
+      <c r="B66" s="15">
         <v>10008513386</v>
       </c>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="10">
+      <c r="B67" s="15">
         <v>10008515441</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="10">
+      <c r="B68" s="15">
         <v>10008514518</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="10">
+      <c r="B69" s="15">
         <v>10008514949</v>
       </c>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="10">
+      <c r="B70" s="15">
         <v>10008515045</v>
       </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="10">
+      <c r="B71" s="15">
         <v>10008507817</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="10">
+      <c r="B72" s="15">
         <v>10008522268</v>
       </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="10">
+      <c r="B73" s="15">
         <v>10008521371</v>
       </c>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="10">
+      <c r="B74" s="15">
         <v>10008515614</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="10">
+      <c r="B75" s="15">
         <v>10008515704</v>
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="10">
+      <c r="B76" s="15">
         <v>10008518305</v>
       </c>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="10">
+      <c r="B77" s="15">
         <v>10008520128</v>
       </c>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="10">
+      <c r="B78" s="15">
         <v>10008522066</v>
       </c>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="10">
+      <c r="B79" s="15">
         <v>10008522198</v>
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="10">
+      <c r="B80" s="15">
         <v>10008754959</v>
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="10">
+      <c r="B81" s="15">
         <v>10004976011</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="10">
+      <c r="B82" s="15">
         <v>10004978617</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="10">
+      <c r="B83" s="15">
         <v>10004979504</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="10">
+      <c r="B84" s="15">
         <v>10004985448</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="10">
+      <c r="B85" s="15">
         <v>10005948355</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="10">
+      <c r="B86" s="15">
         <v>10005671835</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="10">
+      <c r="B87" s="15">
         <v>10006000456</v>
       </c>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="10">
+      <c r="B88" s="15">
         <v>10006001743</v>
       </c>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="10" t="s">
-        <v>247</v>
+      <c r="B89" s="15" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="10" t="s">
-        <v>248</v>
+      <c r="B90" s="15" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="10">
+      <c r="B91" s="15">
         <v>10008511251</v>
       </c>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="10">
+      <c r="B92" s="15">
         <v>10005159680</v>
       </c>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="10">
+      <c r="B93" s="15">
         <v>10009855888</v>
       </c>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="10">
+      <c r="B94" s="15">
         <v>10005593731</v>
       </c>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="10">
+      <c r="B95" s="15">
         <v>10005593923</v>
       </c>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="10">
+      <c r="B96" s="15">
         <v>10004254702</v>
       </c>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="10">
+      <c r="B97" s="15">
         <v>10005192352</v>
       </c>
     </row>
     <row r="98" spans="2:2">
-      <c r="B98" s="10">
+      <c r="B98" s="15">
         <v>10005192492</v>
       </c>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="10">
+      <c r="B99" s="15">
         <v>10003892555</v>
       </c>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="10">
+      <c r="B100" s="15">
         <v>10005184725</v>
       </c>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101" s="10">
+      <c r="B101" s="15">
         <v>10002871503</v>
       </c>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" s="10">
+      <c r="B102" s="15">
         <v>10004907351</v>
       </c>
     </row>
     <row r="103" spans="2:2">
-      <c r="B103" s="10">
+      <c r="B103" s="15">
         <v>10004963667</v>
       </c>
     </row>
     <row r="104" spans="2:2">
-      <c r="B104" s="10">
+      <c r="B104" s="15">
         <v>10005984475</v>
       </c>
     </row>
     <row r="105" spans="2:2">
-      <c r="B105" s="10">
+      <c r="B105" s="15">
         <v>10006080840</v>
       </c>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="10" t="s">
-        <v>277</v>
+      <c r="B106" s="15" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="107" spans="2:2">
-      <c r="B107" s="10" t="s">
-        <v>291</v>
+      <c r="B107" s="15" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="10" t="s">
-        <v>291</v>
+      <c r="B108" s="15" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="109" spans="2:2">
-      <c r="B109" s="10">
+      <c r="B109" s="15">
         <v>10003700217</v>
       </c>
     </row>
     <row r="110" spans="2:2">
-      <c r="B110" s="10">
+      <c r="B110" s="15">
         <v>10007633099</v>
       </c>
     </row>
     <row r="111" spans="2:2">
-      <c r="B111" s="10">
+      <c r="B111" s="15">
         <v>10006076266</v>
       </c>
     </row>
     <row r="112" spans="2:2">
-      <c r="B112" s="10">
+      <c r="B112" s="15">
         <v>10007941396</v>
       </c>
     </row>
     <row r="113" spans="2:2">
-      <c r="B113" s="10">
+      <c r="B113" s="15">
         <v>10007618084</v>
       </c>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="10">
+      <c r="B114" s="15">
         <v>10006076266</v>
       </c>
     </row>
     <row r="115" spans="2:2">
-      <c r="B115" s="10">
+      <c r="B115" s="15">
         <v>10009855888</v>
       </c>
     </row>
     <row r="116" spans="2:2">
-      <c r="B116" s="10">
+      <c r="B116" s="15">
         <v>10005363802</v>
       </c>
     </row>
     <row r="117" spans="2:2">
-      <c r="B117" s="10">
+      <c r="B117" s="15">
         <v>10007949926</v>
       </c>
     </row>
     <row r="118" spans="2:2">
-      <c r="B118" s="10">
+      <c r="B118" s="15">
         <v>10007949856</v>
       </c>
     </row>
     <row r="119" spans="2:2">
-      <c r="B119" s="10">
+      <c r="B119" s="15">
         <v>10006504723</v>
       </c>
     </row>
     <row r="120" spans="2:2">
-      <c r="B120" s="10">
+      <c r="B120" s="15">
         <v>10003280804</v>
       </c>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="10">
+      <c r="B121" s="15">
         <v>10003901190</v>
       </c>
     </row>
     <row r="122" spans="2:2">
-      <c r="B122" s="10">
+      <c r="B122" s="15">
         <v>10002390890</v>
       </c>
     </row>
     <row r="123" spans="2:2">
-      <c r="B123" s="10">
+      <c r="B123" s="15">
         <v>10008755474</v>
       </c>
     </row>
     <row r="124" spans="2:2">
-      <c r="B124" s="10">
+      <c r="B124" s="15">
         <v>10009855888</v>
       </c>
     </row>
     <row r="125" spans="2:2">
-      <c r="B125" s="10">
+      <c r="B125" s="15">
         <v>10005984475</v>
       </c>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="10">
+      <c r="B126" s="15">
         <v>10008532036</v>
       </c>
     </row>
     <row r="127" spans="2:2">
-      <c r="B127" s="10">
+      <c r="B127" s="15">
         <v>10012030032</v>
       </c>
     </row>
     <row r="128" spans="2:2">
-      <c r="B128" s="10">
+      <c r="B128" s="15">
         <v>10004907351</v>
       </c>
     </row>
     <row r="129" spans="2:2">
-      <c r="B129" s="10">
+      <c r="B129" s="15">
         <v>10005864826</v>
       </c>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="10">
+      <c r="B130" s="15">
         <v>10002310098</v>
       </c>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="10">
+      <c r="B131" s="15">
         <v>10006188075</v>
       </c>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="10">
+      <c r="B132" s="15">
         <v>10002871503</v>
       </c>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" s="10">
+      <c r="B133" s="15">
         <v>10005159680</v>
       </c>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="10">
+      <c r="B134" s="15">
         <v>10008514727</v>
       </c>
     </row>
     <row r="135" spans="2:2">
-      <c r="B135" s="10">
+      <c r="B135" s="15">
         <v>10002837595</v>
       </c>
     </row>
     <row r="136" spans="2:2">
-      <c r="B136" s="10">
+      <c r="B136" s="15">
         <v>10002833114</v>
       </c>
     </row>
     <row r="137" spans="2:2">
-      <c r="B137" s="10">
+      <c r="B137" s="15">
         <v>10006081042</v>
       </c>
     </row>
     <row r="138" spans="2:2">
-      <c r="B138" s="10">
+      <c r="B138" s="15">
         <v>10004910044</v>
       </c>
     </row>
     <row r="139" spans="2:2">
-      <c r="B139" s="10">
+      <c r="B139" s="15">
         <v>10004910106</v>
       </c>
     </row>
     <row r="140" spans="2:2">
-      <c r="B140" s="10">
+      <c r="B140" s="15">
         <v>10004909925</v>
       </c>
     </row>
     <row r="141" spans="2:2">
-      <c r="B141" s="10">
+      <c r="B141" s="15">
         <v>10005675337</v>
       </c>
     </row>
     <row r="142" spans="2:2">
-      <c r="B142" s="10">
+      <c r="B142" s="15">
         <v>10006836942</v>
       </c>
     </row>
     <row r="143" spans="2:2">
-      <c r="B143" s="10">
+      <c r="B143" s="15">
         <v>10006504723</v>
       </c>
     </row>
     <row r="144" spans="2:2">
-      <c r="B144" s="10">
+      <c r="B144" s="15">
         <v>10006836881</v>
       </c>
     </row>
     <row r="145" spans="2:2">
-      <c r="B145" s="10">
+      <c r="B145" s="15">
         <v>10006836848</v>
       </c>
     </row>
     <row r="146" spans="2:2">
-      <c r="B146" s="10">
+      <c r="B146" s="15">
         <v>10003058629</v>
       </c>
     </row>
     <row r="147" spans="2:2">
-      <c r="B147" s="10">
+      <c r="B147" s="15">
         <v>10008514727</v>
       </c>
     </row>
     <row r="148" spans="2:2">
-      <c r="B148" s="10" t="s">
+      <c r="B148" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="149" spans="2:2">
-      <c r="B149" s="10">
+      <c r="B149" s="15">
         <v>10008511251</v>
       </c>
     </row>
     <row r="150" spans="2:2">
-      <c r="B150" s="10" t="s">
+      <c r="B150" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="151" spans="2:2">
-      <c r="B151" s="10" t="s">
-        <v>235</v>
+      <c r="B151" s="15" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="152" spans="2:2">
-      <c r="B152" s="10" t="s">
+      <c r="B152" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="153" spans="2:2">
-      <c r="B153" s="10" t="s">
-        <v>229</v>
+      <c r="B153" s="15" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="154" spans="2:2">
-      <c r="B154" s="10">
+      <c r="B154" s="15">
         <v>10011060422</v>
       </c>
     </row>
     <row r="155" spans="2:2">
-      <c r="B155" s="10">
+      <c r="B155" s="15">
         <v>10011212346</v>
       </c>
     </row>
     <row r="156" spans="2:2">
-      <c r="B156" s="10">
+      <c r="B156" s="15">
         <v>10011060505</v>
       </c>
     </row>
     <row r="157" spans="2:2">
-      <c r="B157" s="10">
+      <c r="B157" s="15">
         <v>10011060601</v>
       </c>
     </row>
     <row r="158" spans="2:2">
-      <c r="B158" s="10">
+      <c r="B158" s="15">
         <v>10003892555</v>
       </c>
     </row>
     <row r="159" spans="2:2">
-      <c r="B159" s="10">
+      <c r="B159" s="15">
         <v>10008507817</v>
       </c>
     </row>
     <row r="160" spans="2:2">
-      <c r="B160" s="10">
+      <c r="B160" s="15">
         <v>10008522268</v>
       </c>
     </row>
     <row r="161" spans="2:2">
-      <c r="B161" s="10">
+      <c r="B161" s="15">
         <v>10008521371</v>
       </c>
     </row>
     <row r="162" spans="2:2">
-      <c r="B162" s="10">
+      <c r="B162" s="15">
         <v>10008514949</v>
       </c>
     </row>
     <row r="163" spans="2:2">
-      <c r="B163" s="10">
+      <c r="B163" s="15">
         <v>10008515045</v>
       </c>
     </row>
     <row r="164" spans="2:2">
-      <c r="B164" s="10">
+      <c r="B164" s="15">
         <v>10008515441</v>
       </c>
     </row>
     <row r="165" spans="2:2">
-      <c r="B165" s="10">
+      <c r="B165" s="15">
         <v>10008515614</v>
       </c>
     </row>
     <row r="166" spans="2:2">
-      <c r="B166" s="10">
+      <c r="B166" s="15">
         <v>10008515704</v>
       </c>
     </row>
     <row r="167" spans="2:2">
-      <c r="B167" s="10">
+      <c r="B167" s="15">
         <v>10008518305</v>
       </c>
     </row>
     <row r="168" spans="2:2">
-      <c r="B168" s="10">
+      <c r="B168" s="15">
         <v>10008520128</v>
       </c>
     </row>
     <row r="169" spans="2:2">
-      <c r="B169" s="10">
+      <c r="B169" s="15">
         <v>10008522066</v>
       </c>
     </row>
     <row r="170" spans="2:2">
-      <c r="B170" s="10">
+      <c r="B170" s="15">
         <v>10008522198</v>
       </c>
     </row>
     <row r="171" spans="2:2">
-      <c r="B171" s="10">
+      <c r="B171" s="15">
         <v>10008754959</v>
       </c>
     </row>
     <row r="172" spans="2:2">
-      <c r="B172" s="10">
+      <c r="B172" s="15">
         <v>10002871503</v>
       </c>
     </row>
     <row r="173" spans="2:2">
-      <c r="B173" s="10" t="s">
+      <c r="B173" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="174" spans="2:2">
-      <c r="B174" s="10" t="s">
+      <c r="B174" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="175" spans="2:2">
-      <c r="B175" s="10" t="s">
+      <c r="B175" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="176" spans="2:2">
-      <c r="B176" s="10" t="s">
-        <v>227</v>
+      <c r="B176" s="15" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="177" spans="2:2">
-      <c r="B177" s="10" t="s">
-        <v>497</v>
+      <c r="B177" s="15" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="178" spans="2:2">
-      <c r="B178" s="10">
+      <c r="B178" s="15">
         <v>10004910044</v>
       </c>
     </row>
     <row r="179" spans="2:2">
-      <c r="B179" s="10">
+      <c r="B179" s="15">
         <v>10004910106</v>
       </c>
     </row>
     <row r="180" spans="2:2">
-      <c r="B180" s="10">
+      <c r="B180" s="15">
         <v>10005671835</v>
       </c>
     </row>
     <row r="181" spans="2:2">
-      <c r="B181" s="10">
+      <c r="B181" s="15">
         <v>10004909925</v>
       </c>
     </row>
     <row r="182" spans="2:2">
-      <c r="B182" s="10">
+      <c r="B182" s="15">
         <v>10006836942</v>
       </c>
     </row>
     <row r="183" spans="2:2">
-      <c r="B183" s="10">
+      <c r="B183" s="15">
         <v>10006504723</v>
       </c>
     </row>
     <row r="184" spans="2:2">
-      <c r="B184" s="10">
+      <c r="B184" s="15">
         <v>10006836881</v>
       </c>
     </row>
     <row r="185" spans="2:2">
-      <c r="B185" s="10">
+      <c r="B185" s="15">
         <v>10006836848</v>
       </c>
     </row>
     <row r="186" spans="2:2">
-      <c r="B186" s="10">
+      <c r="B186" s="15">
         <v>10003058629</v>
       </c>
     </row>
     <row r="187" spans="2:2">
-      <c r="B187" s="10">
+      <c r="B187" s="15">
         <v>10008513386</v>
       </c>
     </row>
     <row r="188" spans="2:2">
-      <c r="B188" s="10">
+      <c r="B188" s="15">
         <v>10008514518</v>
       </c>
     </row>
     <row r="189" spans="2:2">
-      <c r="B189" s="10" t="s">
+      <c r="B189" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="190" spans="2:2">
-      <c r="B190" s="10">
+      <c r="B190" s="15">
         <v>10007922092</v>
       </c>
     </row>
     <row r="191" spans="2:2">
-      <c r="B191" s="10">
+      <c r="B191" s="15">
         <v>10011934368</v>
       </c>
     </row>
     <row r="192" spans="2:2">
-      <c r="B192" s="10">
+      <c r="B192" s="15">
         <v>10006793078</v>
       </c>
     </row>
     <row r="193" spans="2:2">
-      <c r="B193" s="10">
+      <c r="B193" s="15">
         <v>10002815975</v>
       </c>
     </row>
     <row r="194" spans="2:2">
-      <c r="B194" s="10">
+      <c r="B194" s="15">
         <v>10004483603</v>
       </c>
     </row>
     <row r="195" spans="2:2">
-      <c r="B195" s="10">
+      <c r="B195" s="15">
         <v>10004930716</v>
       </c>
     </row>
     <row r="196" spans="2:2">
-      <c r="B196" s="10">
+      <c r="B196" s="15">
         <v>10007234956</v>
       </c>
     </row>
     <row r="197" spans="2:2">
-      <c r="B197" s="10">
+      <c r="B197" s="15">
         <v>10004653934</v>
       </c>
     </row>
     <row r="198" spans="2:2">
-      <c r="B198" s="10">
+      <c r="B198" s="15">
         <v>10004624237</v>
       </c>
     </row>
     <row r="199" spans="2:2">
-      <c r="B199" s="10">
+      <c r="B199" s="15">
         <v>10006076266</v>
       </c>
     </row>
     <row r="200" spans="2:2">
-      <c r="B200" s="10" t="s">
+      <c r="B200" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="201" spans="2:2">
-      <c r="B201" s="10" t="s">
+      <c r="B201" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="202" spans="2:2">
-      <c r="B202" s="10" t="s">
-        <v>235</v>
+      <c r="B202" s="15" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="203" spans="2:2">
-      <c r="B203" s="10" t="s">
+      <c r="B203" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="204" spans="2:2">
-      <c r="B204" s="10">
+      <c r="B204" s="15">
         <v>28760407</v>
       </c>
     </row>
     <row r="205" spans="2:2">
-      <c r="B205" s="10" t="s">
-        <v>224</v>
+      <c r="B205" s="15" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="206" spans="2:2">
-      <c r="B206" s="10">
+      <c r="B206" s="15">
         <v>10002802981</v>
       </c>
     </row>
     <row r="207" spans="2:2">
-      <c r="B207" s="10">
+      <c r="B207" s="15">
         <v>10002739400</v>
       </c>
     </row>
     <row r="208" spans="2:2">
-      <c r="B208" s="10">
+      <c r="B208" s="15">
         <v>10002743194</v>
       </c>
     </row>
     <row r="209" spans="2:2">
-      <c r="B209" s="10">
+      <c r="B209" s="15">
         <v>10002782423</v>
       </c>
     </row>
     <row r="210" spans="2:2">
-      <c r="B210" s="10">
+      <c r="B210" s="15">
         <v>10002751619</v>
       </c>
     </row>
     <row r="211" spans="2:2">
-      <c r="B211" s="10">
+      <c r="B211" s="15">
         <v>10002751604</v>
       </c>
     </row>
     <row r="212" spans="2:2">
-      <c r="B212" s="10">
+      <c r="B212" s="15">
         <v>10002782997</v>
       </c>
     </row>
     <row r="213" spans="2:2">
-      <c r="B213" s="10">
+      <c r="B213" s="15">
         <v>10008769612</v>
       </c>
     </row>
     <row r="214" spans="2:2">
-      <c r="B214" s="10">
+      <c r="B214" s="15">
         <v>10008769643</v>
       </c>
     </row>
     <row r="215" spans="2:2">
-      <c r="B215" s="10">
+      <c r="B215" s="15">
         <v>10011079417</v>
       </c>
     </row>
     <row r="216" spans="2:2">
-      <c r="B216" s="10">
+      <c r="B216" s="15">
         <v>10003048628</v>
       </c>
     </row>
     <row r="217" spans="2:2">
-      <c r="B217" s="10">
+      <c r="B217" s="15">
         <v>10008755474</v>
       </c>
     </row>
     <row r="218" spans="2:2">
-      <c r="B218" s="10">
+      <c r="B218" s="15">
         <v>10008531338</v>
       </c>
     </row>
     <row r="219" spans="2:2">
-      <c r="B219" s="10">
+      <c r="B219" s="15">
         <v>10002862704</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" s="10" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -29275,16 +29257,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA1C6DF-1C6F-4A7E-AA08-F9BD66EE655C}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -29297,117 +29279,93 @@
     </row>
     <row r="2" spans="1:10">
       <c r="B2" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>212</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>212</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="15">
         <v>10011984549</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>212</v>
-      </c>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>213</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>214</v>
-      </c>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>215</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>216</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>217</v>
-      </c>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>218</v>
-      </c>
+      <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="12" t="s">
-        <v>219</v>
-      </c>
+      <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>220</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="15">
         <v>10002967709</v>
       </c>
-      <c r="J13" s="12" t="s">
-        <v>221</v>
-      </c>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="B15" s="9" t="s">
-        <v>501</v>
+      <c r="B15" s="15" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="B16" s="9" t="s">
-        <v>501</v>
+      <c r="B16" s="15" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="15" t="s">
         <v>39</v>
       </c>
     </row>
@@ -29422,8 +29380,153 @@
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="9" t="s">
-        <v>305</v>
+      <c r="B20" s="15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="15">
+        <v>10007692173</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="15">
+        <v>10007783274</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="15">
+        <v>10006440601</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="15">
+        <v>10005864826</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="15">
+        <v>10004222941</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="15">
+        <v>10004626094</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="15">
+        <v>10006440285</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="15">
+        <v>10006440285</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="15">
+        <v>10010360769</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="15">
+        <v>10010360769</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="15">
+        <v>10009890643</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="15">
+        <v>10009890643</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="15">
+        <v>10004626228</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="15">
+        <v>10004631699</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="15" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -29452,10 +29555,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC684379-4DA6-4542-878A-CB7C3F3346DA}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29472,18 +29575,23 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="15" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="9" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -29515,7 +29623,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29533,7 +29641,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>44</v>
       </c>
     </row>

--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB77B85-D1E8-42D5-A1BB-6B26DD19F093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B933E7D-184E-4F55-8A05-F5C898BC542B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="5" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="1" activeTab="4" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCESSOS DE FABRICAÇÃO" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="499">
   <si>
     <t>ORCAMENTO</t>
   </si>
@@ -1518,6 +1518,21 @@
   </si>
   <si>
     <t>N4-0200344</t>
+  </si>
+  <si>
+    <t>HV400308-02</t>
+  </si>
+  <si>
+    <t>PM-PRT3690.1</t>
+  </si>
+  <si>
+    <t>HVHV307987-XX ITEM 01</t>
+  </si>
+  <si>
+    <t>HV310705-08</t>
+  </si>
+  <si>
+    <t>HV309125-02</t>
   </si>
 </sst>
 </file>
@@ -2571,8 +2586,8 @@
   <dimension ref="A1:AV540"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E208" sqref="E208"/>
+      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U344" sqref="U344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2754,14 +2769,14 @@
       </c>
       <c r="AL2" s="1">
         <f>SUM(G2:G500)</f>
-        <v>5948</v>
+        <v>5958</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN2" s="21">
         <f>AL2/AL23</f>
-        <v>0.12263664666707903</v>
+        <v>0.12253888727779799</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -2823,28 +2838,28 @@
       </c>
       <c r="AL3" s="1">
         <f>SUM(H2:H500)</f>
-        <v>4137</v>
+        <v>4182</v>
       </c>
       <c r="AM3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN3" s="21">
         <f>AL3/AL23</f>
-        <v>8.5297210366796564E-2</v>
+        <v>8.6011686236279153E-2</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>471</v>
       </c>
       <c r="AQ3" s="1">
         <f>SUM(AL2:AL5)</f>
-        <v>10359</v>
+        <v>10422.299999999999</v>
       </c>
       <c r="AR3" t="s">
         <v>22</v>
       </c>
       <c r="AS3" s="21">
         <f>AQ3/AL23</f>
-        <v>0.21358322508814251</v>
+        <v>0.21435667084179152</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -2908,14 +2923,14 @@
       </c>
       <c r="AL4" s="1">
         <f>SUM(I2:I499)</f>
-        <v>267</v>
+        <v>275.3</v>
       </c>
       <c r="AM4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN4" s="21">
         <f>AL4/AL23</f>
-        <v>5.5050411331725117E-3</v>
+        <v>5.6621275037894913E-3</v>
       </c>
       <c r="AP4" s="1"/>
       <c r="AS4" s="1"/>
@@ -2988,7 +3003,7 @@
       </c>
       <c r="AN5" s="21">
         <f>AL5/AL23</f>
-        <v>1.4432692109441042E-4</v>
+        <v>1.4396982392490533E-4</v>
       </c>
       <c r="AP5" s="1" t="s">
         <v>472</v>
@@ -3002,7 +3017,7 @@
       </c>
       <c r="AS5" s="21">
         <f>AQ5/AL23</f>
-        <v>6.3545081544710419E-2</v>
+        <v>6.3387856762365455E-2</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -3073,7 +3088,7 @@
       </c>
       <c r="AN6" s="21">
         <f>AL6/AL23</f>
-        <v>5.8617348095915546E-2</v>
+        <v>5.8472315631215126E-2</v>
       </c>
       <c r="AS6" s="1"/>
     </row>
@@ -3145,7 +3160,7 @@
       </c>
       <c r="AN7" s="21">
         <f>AL7/AL23</f>
-        <v>4.9277334487948703E-3</v>
+        <v>4.9155411311503396E-3</v>
       </c>
       <c r="AP7" s="1" t="s">
         <v>10</v>
@@ -3159,7 +3174,7 @@
       </c>
       <c r="AS7" s="22">
         <f>AN8</f>
-        <v>0.13016226469557329</v>
+        <v>0.12984021406256105</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -3230,7 +3245,7 @@
       </c>
       <c r="AN8" s="21">
         <f>AL8/AL23</f>
-        <v>0.13016226469557329</v>
+        <v>0.12984021406256105</v>
       </c>
       <c r="AS8" s="1"/>
     </row>
@@ -3302,7 +3317,7 @@
       </c>
       <c r="AN9" s="21">
         <f>AL9/AL23</f>
-        <v>4.9401043277458194E-2</v>
+        <v>4.9278814017724742E-2</v>
       </c>
       <c r="AP9" s="1" t="s">
         <v>470</v>
@@ -3316,7 +3331,7 @@
       </c>
       <c r="AS9" s="22">
         <f>AN9</f>
-        <v>4.9401043277458194E-2</v>
+        <v>4.9278814017724742E-2</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -3387,7 +3402,7 @@
       </c>
       <c r="AN10" s="21">
         <f>AL10/AL23</f>
-        <v>3.0514834745675348E-3</v>
+        <v>3.0439334201265698E-3</v>
       </c>
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
@@ -3461,7 +3476,7 @@
       </c>
       <c r="AN11" s="21">
         <f>AL11/AL23</f>
-        <v>1.420589266200697E-2</v>
+        <v>1.4170744097751396E-2</v>
       </c>
       <c r="AP11" s="1" t="s">
         <v>473</v>
@@ -3475,7 +3490,7 @@
       </c>
       <c r="AS11" s="22">
         <f>AQ11/AL23</f>
-        <v>2.7174697428918992E-2</v>
+        <v>2.7107461133289316E-2</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -3544,7 +3559,7 @@
       </c>
       <c r="AN12" s="21">
         <f>AL12/AL23</f>
-        <v>9.9173212923444869E-3</v>
+        <v>9.8927836154113526E-3</v>
       </c>
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
@@ -3614,7 +3629,7 @@
       </c>
       <c r="AN13" s="21">
         <f>AL13/AL23</f>
-        <v>1.7525411847178409E-3</v>
+        <v>1.748205004802422E-3</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>13</v>
@@ -3628,7 +3643,7 @@
       </c>
       <c r="AS13" s="22">
         <f>AQ13/AL23</f>
-        <v>1.7525411847178409E-3</v>
+        <v>1.748205004802422E-3</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -3691,7 +3706,7 @@
       </c>
       <c r="AN14" s="21">
         <f>AL14/AL23</f>
-        <v>2.474175790189893E-3</v>
+        <v>2.4680541244269487E-3</v>
       </c>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
@@ -3777,7 +3792,7 @@
       </c>
       <c r="AS15" s="22">
         <f>AN14</f>
-        <v>2.474175790189893E-3</v>
+        <v>2.4680541244269487E-3</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -3848,7 +3863,7 @@
       </c>
       <c r="AN16" s="21">
         <f>AL16/AL23</f>
-        <v>0.28420032576647902</v>
+        <v>0.28349715042584217</v>
       </c>
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1"/>
@@ -3909,14 +3924,14 @@
       </c>
       <c r="AL17" s="1">
         <f>SUM(V11:V499)</f>
-        <v>4695</v>
+        <v>4732</v>
       </c>
       <c r="AM17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN17" s="21">
         <f>AL17/AL23</f>
-        <v>9.6802127791179568E-2</v>
+        <v>9.7323600973236002E-2</v>
       </c>
       <c r="AP17" s="1" t="s">
         <v>14</v>
@@ -3990,14 +4005,14 @@
       </c>
       <c r="AL18" s="1">
         <f>SUM(W6:W498)</f>
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="AM18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN18" s="21">
         <f>AL18/AL23</f>
-        <v>1.3360549267025422E-2</v>
+        <v>1.373883462597668E-2</v>
       </c>
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
@@ -4065,7 +4080,7 @@
       </c>
       <c r="AN19" s="21">
         <f>AL19/AL23</f>
-        <v>6.4802787571390283E-2</v>
+        <v>6.4642450942282492E-2</v>
       </c>
       <c r="AP19" s="1" t="s">
         <v>15</v>
@@ -4079,7 +4094,7 @@
       </c>
       <c r="AS19" s="22">
         <f>AN16</f>
-        <v>0.28420032576647902</v>
+        <v>0.28349715042584217</v>
       </c>
     </row>
     <row r="20" spans="1:46">
@@ -4150,7 +4165,7 @@
       </c>
       <c r="AN20" s="21">
         <f>AL20/AL23</f>
-        <v>5.1504092699119604E-2</v>
+        <v>5.1376660023487647E-2</v>
       </c>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
@@ -4226,21 +4241,21 @@
       </c>
       <c r="AN21" s="21">
         <f>AL21/AL23</f>
-        <v>1.2370878950949465E-3</v>
+        <v>1.2340270622134743E-3</v>
       </c>
       <c r="AP21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AQ21" s="1">
         <f>AL17</f>
-        <v>4695</v>
+        <v>4732</v>
       </c>
       <c r="AR21" t="s">
         <v>22</v>
       </c>
       <c r="AS21" s="22">
         <f>AN17</f>
-        <v>9.6802127791179568E-2</v>
+        <v>9.7323600973236002E-2</v>
       </c>
     </row>
     <row r="22" spans="1:46">
@@ -4368,7 +4383,7 @@
       </c>
       <c r="AL23" s="1">
         <f>SUM(AL2:AL21)</f>
-        <v>48501</v>
+        <v>48621.3</v>
       </c>
       <c r="AM23" s="1" t="s">
         <v>22</v>
@@ -4378,14 +4393,14 @@
       </c>
       <c r="AQ23" s="1">
         <f>AL18</f>
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="AR23" t="s">
         <v>22</v>
       </c>
       <c r="AS23" s="22">
         <f>AN18</f>
-        <v>1.3360549267025422E-2</v>
+        <v>1.373883462597668E-2</v>
       </c>
     </row>
     <row r="24" spans="1:46">
@@ -4516,7 +4531,7 @@
       </c>
       <c r="AS25" s="22">
         <f>AN19</f>
-        <v>6.4802787571390283E-2</v>
+        <v>6.4642450942282492E-2</v>
       </c>
     </row>
     <row r="26" spans="1:46">
@@ -4643,7 +4658,7 @@
       </c>
       <c r="AS27" s="22">
         <f>AN20</f>
-        <v>5.1504092699119604E-2</v>
+        <v>5.1376660023487647E-2</v>
       </c>
     </row>
     <row r="28" spans="1:46">
@@ -4770,7 +4785,7 @@
       </c>
       <c r="AS29" s="22">
         <f>AN21</f>
-        <v>1.2370878950949465E-3</v>
+        <v>1.2340270622134743E-3</v>
       </c>
     </row>
     <row r="30" spans="1:46">
@@ -4890,14 +4905,14 @@
       </c>
       <c r="AQ31" s="1">
         <f>SUM(AQ3:AQ29)</f>
-        <v>48501</v>
+        <v>48621.3</v>
       </c>
       <c r="AR31" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AS31" s="23">
         <f>SUM(AS3:AS29)</f>
-        <v>0.99999999999999989</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="AT31" s="20"/>
     </row>
@@ -19870,14 +19885,26 @@
       <c r="A341" s="1">
         <v>341</v>
       </c>
-      <c r="B341" s="1"/>
-      <c r="C341" s="1"/>
-      <c r="D341" s="1"/>
-      <c r="E341" s="1"/>
-      <c r="F341" s="1"/>
+      <c r="B341" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C341" s="1">
+        <v>714</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
-      <c r="I341" s="1"/>
+      <c r="I341" s="1">
+        <v>0.3</v>
+      </c>
       <c r="J341" s="1"/>
       <c r="K341" s="1"/>
       <c r="L341" s="1"/>
@@ -19892,7 +19919,7 @@
       <c r="Y341" s="1"/>
       <c r="AA341" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AB341" s="1" t="s">
         <v>22</v>
@@ -19902,13 +19929,27 @@
       <c r="A342" s="1">
         <v>342</v>
       </c>
-      <c r="B342" s="1"/>
-      <c r="C342" s="1"/>
-      <c r="D342" s="1"/>
-      <c r="E342" s="1"/>
-      <c r="F342" s="1"/>
-      <c r="G342" s="1"/>
-      <c r="H342" s="1"/>
+      <c r="B342" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C342" s="1">
+        <v>707</v>
+      </c>
+      <c r="D342" s="1">
+        <v>10007783274</v>
+      </c>
+      <c r="E342" s="1">
+        <v>15562748</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G342" s="1">
+        <v>10</v>
+      </c>
+      <c r="H342" s="1">
+        <v>45</v>
+      </c>
       <c r="I342" s="1"/>
       <c r="J342" s="1"/>
       <c r="K342" s="1"/>
@@ -19920,11 +19961,16 @@
       <c r="Q342" s="1"/>
       <c r="R342" s="1"/>
       <c r="U342" s="1"/>
-      <c r="V342" s="1"/>
+      <c r="V342" s="1">
+        <v>30</v>
+      </c>
+      <c r="W342" s="1">
+        <v>20</v>
+      </c>
       <c r="Y342" s="1"/>
       <c r="AA342" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AB342" s="1" t="s">
         <v>22</v>
@@ -19934,14 +19980,26 @@
       <c r="A343" s="1">
         <v>343</v>
       </c>
-      <c r="B343" s="1"/>
-      <c r="C343" s="1"/>
-      <c r="D343" s="1"/>
-      <c r="E343" s="1"/>
-      <c r="F343" s="1"/>
+      <c r="B343" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C343" s="1">
+        <v>707</v>
+      </c>
+      <c r="D343" s="1">
+        <v>10006440601</v>
+      </c>
+      <c r="E343" s="1">
+        <v>14812525</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
-      <c r="I343" s="1"/>
+      <c r="I343" s="1">
+        <v>3</v>
+      </c>
       <c r="J343" s="1"/>
       <c r="K343" s="1"/>
       <c r="L343" s="1"/>
@@ -19952,11 +20010,13 @@
       <c r="Q343" s="1"/>
       <c r="R343" s="1"/>
       <c r="U343" s="1"/>
-      <c r="V343" s="1"/>
+      <c r="V343" s="1">
+        <v>2</v>
+      </c>
       <c r="Y343" s="1"/>
       <c r="AA343" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB343" s="1" t="s">
         <v>22</v>
@@ -19966,14 +20026,26 @@
       <c r="A344" s="1">
         <v>344</v>
       </c>
-      <c r="B344" s="1"/>
-      <c r="C344" s="1"/>
-      <c r="D344" s="1"/>
-      <c r="E344" s="1"/>
-      <c r="F344" s="1"/>
+      <c r="B344" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C344" s="1">
+        <v>534</v>
+      </c>
+      <c r="D344" s="1">
+        <v>10004222941</v>
+      </c>
+      <c r="E344" s="1">
+        <v>13592346</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
-      <c r="I344" s="1"/>
+      <c r="I344" s="1">
+        <v>5</v>
+      </c>
       <c r="J344" s="1"/>
       <c r="K344" s="1"/>
       <c r="L344" s="1"/>
@@ -19984,11 +20056,13 @@
       <c r="Q344" s="1"/>
       <c r="R344" s="1"/>
       <c r="U344" s="1"/>
-      <c r="V344" s="1"/>
+      <c r="V344" s="1">
+        <v>5</v>
+      </c>
       <c r="Y344" s="1"/>
       <c r="AA344" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB344" s="1" t="s">
         <v>22</v>
@@ -25556,7 +25630,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25835,7 +25909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9D6A0A-58D8-491B-8520-AA2E6E8E4A66}">
   <dimension ref="A1:B278"/>
   <sheetViews>
-    <sheetView topLeftCell="A268" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -27267,7 +27341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFED1B6-6669-418D-935F-274B00B50F32}">
   <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -27888,16 +27962,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF03CF93-A241-4DB9-ACD8-61B0F18F4B55}">
-  <dimension ref="A1:V220"/>
+  <dimension ref="A1:V221"/>
   <sheetViews>
-    <sheetView topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I220" sqref="I220"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F220" sqref="F220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="15" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -27906,7 +27980,7 @@
       <c r="A1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
@@ -29226,8 +29300,13 @@
       </c>
     </row>
     <row r="220" spans="2:2">
-      <c r="B220" s="10" t="s">
+      <c r="B220" s="15" t="s">
         <v>493</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" s="15" t="s">
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -29257,16 +29336,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA1C6DF-1C6F-4A7E-AA08-F9BD66EE655C}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -29527,6 +29606,131 @@
     <row r="49" spans="2:2">
       <c r="B49" s="15" t="s">
         <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="15">
+        <v>28760407</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="15" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="15" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="15">
+        <v>10004112775</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="15" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="15">
+        <v>10007234956</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="15">
+        <v>10006188231</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="15">
+        <v>10006188202</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="15" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="15" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -29555,15 +29759,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC684379-4DA6-4542-878A-CB7C3F3346DA}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -29592,6 +29797,26 @@
     <row r="5" spans="1:2">
       <c r="B5" s="9" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="9" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -29623,7 +29848,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B933E7D-184E-4F55-8A05-F5C898BC542B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8179994B-E224-47BF-BACD-01C6EEF0332E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="1" activeTab="4" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="1" activeTab="5" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCESSOS DE FABRICAÇÃO" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="506">
   <si>
     <t>ORCAMENTO</t>
   </si>
@@ -268,9 +268,6 @@
   </si>
   <si>
     <t>DOBRADEIRA</t>
-  </si>
-  <si>
-    <t>CLIENTE</t>
   </si>
   <si>
     <t>WEG</t>
@@ -1533,6 +1530,30 @@
   </si>
   <si>
     <t>HV309125-02</t>
+  </si>
+  <si>
+    <t>HVHV309125-02</t>
+  </si>
+  <si>
+    <t>HVHV400308-02</t>
+  </si>
+  <si>
+    <t>HVEX</t>
+  </si>
+  <si>
+    <t>HVHV310705-08</t>
+  </si>
+  <si>
+    <t>4574520010-002</t>
+  </si>
+  <si>
+    <t>HV305342-08</t>
+  </si>
+  <si>
+    <t>HV311668-01</t>
+  </si>
+  <si>
+    <t>HV309125-03</t>
   </si>
 </sst>
 </file>
@@ -2586,8 +2607,8 @@
   <dimension ref="A1:AV540"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U344" sqref="U344"/>
+      <pane ySplit="1" topLeftCell="A332" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D359" sqref="D359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2596,7 +2617,7 @@
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -2628,8 +2649,8 @@
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>79</v>
+      <c r="B1" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -2665,7 +2686,7 @@
         <v>10</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>11</v>
@@ -2680,7 +2701,7 @@
         <v>13</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>14</v>
@@ -2715,7 +2736,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2">
         <v>514</v>
@@ -2769,14 +2790,14 @@
       </c>
       <c r="AL2" s="1">
         <f>SUM(G2:G500)</f>
-        <v>5958</v>
+        <v>6018</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN2" s="21">
         <f>AL2/AL23</f>
-        <v>0.12253888727779799</v>
+        <v>0.12205831945692362</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -2784,7 +2805,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2">
         <v>514</v>
@@ -2834,7 +2855,7 @@
         <v>22</v>
       </c>
       <c r="AK3" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AL3" s="1">
         <f>SUM(H2:H500)</f>
@@ -2845,21 +2866,21 @@
       </c>
       <c r="AN3" s="21">
         <f>AL3/AL23</f>
-        <v>8.6011686236279153E-2</v>
+        <v>8.482018809718421E-2</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AQ3" s="1">
         <f>SUM(AL2:AL5)</f>
-        <v>10422.299999999999</v>
+        <v>10502.3</v>
       </c>
       <c r="AR3" t="s">
         <v>22</v>
       </c>
       <c r="AS3" s="21">
         <f>AQ3/AL23</f>
-        <v>0.21435667084179152</v>
+        <v>0.21300981861622614</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -2867,7 +2888,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2">
         <v>514</v>
@@ -2919,18 +2940,18 @@
         <v>22</v>
       </c>
       <c r="AK4" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AL4" s="1">
         <f>SUM(I2:I499)</f>
-        <v>275.3</v>
+        <v>295.3</v>
       </c>
       <c r="AM4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN4" s="21">
         <f>AL4/AL23</f>
-        <v>5.6621275037894913E-3</v>
+        <v>5.9893356157576516E-3</v>
       </c>
       <c r="AP4" s="1"/>
       <c r="AS4" s="1"/>
@@ -2940,7 +2961,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2">
         <v>514</v>
@@ -2992,7 +3013,7 @@
         <v>22</v>
       </c>
       <c r="AK5" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AL5" s="1">
         <f>SUM(J2:J500)</f>
@@ -3003,21 +3024,21 @@
       </c>
       <c r="AN5" s="21">
         <f>AL5/AL23</f>
-        <v>1.4396982392490533E-4</v>
+        <v>1.4197544636066224E-4</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AQ5" s="1">
         <f>SUM(AL6:AL7)</f>
-        <v>3082</v>
+        <v>3107</v>
       </c>
       <c r="AR5" t="s">
         <v>22</v>
       </c>
       <c r="AS5" s="21">
         <f>AQ5/AL23</f>
-        <v>6.3387856762365455E-2</v>
+        <v>6.301681597751109E-2</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -3025,7 +3046,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2">
         <v>514</v>
@@ -3081,14 +3102,14 @@
       </c>
       <c r="AL6" s="1">
         <f>SUM(K2:K501)</f>
-        <v>2843</v>
+        <v>2853</v>
       </c>
       <c r="AM6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN6" s="21">
         <f>AL6/AL23</f>
-        <v>5.8472315631215126E-2</v>
+        <v>5.7865135495281342E-2</v>
       </c>
       <c r="AS6" s="1"/>
     </row>
@@ -3097,7 +3118,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2">
         <v>514</v>
@@ -3153,28 +3174,28 @@
       </c>
       <c r="AL7" s="1">
         <f>SUM(L2:L501)</f>
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="AM7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN7" s="21">
         <f>AL7/AL23</f>
-        <v>4.9155411311503396E-3</v>
+        <v>5.1516804822297445E-3</v>
       </c>
       <c r="AP7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AQ7" s="1">
         <f>AL8</f>
-        <v>6313</v>
+        <v>6473</v>
       </c>
       <c r="AR7" t="s">
         <v>22</v>
       </c>
       <c r="AS7" s="22">
         <f>AN8</f>
-        <v>0.12984021406256105</v>
+        <v>0.13128672347036668</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -3182,7 +3203,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2">
         <v>514</v>
@@ -3238,14 +3259,14 @@
       </c>
       <c r="AL8" s="1">
         <f>SUM(M2:M499)</f>
-        <v>6313</v>
+        <v>6473</v>
       </c>
       <c r="AM8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN8" s="21">
         <f>AL8/AL23</f>
-        <v>0.12984021406256105</v>
+        <v>0.13128672347036668</v>
       </c>
       <c r="AS8" s="1"/>
     </row>
@@ -3254,7 +3275,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2">
         <v>514</v>
@@ -3306,32 +3327,32 @@
         <v>22</v>
       </c>
       <c r="AK9" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AL9" s="1">
         <f>SUM(N2:N501)</f>
-        <v>2396</v>
+        <v>2446</v>
       </c>
       <c r="AM9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN9" s="21">
         <f>AL9/AL23</f>
-        <v>4.9278814017724742E-2</v>
+        <v>4.9610277399739978E-2</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AQ9" s="1">
         <f>AL9</f>
-        <v>2396</v>
+        <v>2446</v>
       </c>
       <c r="AR9" t="s">
         <v>22</v>
       </c>
       <c r="AS9" s="22">
         <f>AN9</f>
-        <v>4.9278814017724742E-2</v>
+        <v>4.9610277399739978E-2</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -3339,7 +3360,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2">
         <v>650</v>
@@ -3402,7 +3423,7 @@
       </c>
       <c r="AN10" s="21">
         <f>AL10/AL23</f>
-        <v>3.0439334201265698E-3</v>
+        <v>3.0017665801968588E-3</v>
       </c>
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
@@ -3413,7 +3434,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2">
         <v>648</v>
@@ -3469,28 +3490,28 @@
       </c>
       <c r="AL11" s="1">
         <f>SUM(P2:P500)</f>
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="AM11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN11" s="21">
         <f>AL11/AL23</f>
-        <v>1.4170744097751396E-2</v>
+        <v>1.4177262429443272E-2</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AQ11" s="1">
         <f>SUM(AL10:AL12)</f>
-        <v>1318</v>
+        <v>1333</v>
       </c>
       <c r="AR11" t="s">
         <v>22</v>
       </c>
       <c r="AS11" s="22">
         <f>AQ11/AL23</f>
-        <v>2.7107461133289316E-2</v>
+        <v>2.7036181428394684E-2</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -3498,7 +3519,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2">
         <v>648</v>
@@ -3552,14 +3573,14 @@
       </c>
       <c r="AL12" s="1">
         <f>SUM(Q2:Q500)</f>
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="AM12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN12" s="21">
         <f>AL12/AL23</f>
-        <v>9.8927836154113526E-3</v>
+        <v>9.8571524187545511E-3</v>
       </c>
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
@@ -3570,7 +3591,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2">
         <v>648</v>
@@ -3622,28 +3643,28 @@
       </c>
       <c r="AL13" s="1">
         <f>SUM(R2:R500)</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN13" s="21">
         <f>AL13/AL23</f>
-        <v>1.748205004802422E-3</v>
+        <v>1.8253985960656575E-3</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AQ13" s="1">
         <f>AL13</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AR13" t="s">
         <v>22</v>
       </c>
       <c r="AS13" s="22">
         <f>AQ13/AL23</f>
-        <v>1.748205004802422E-3</v>
+        <v>1.8253985960656575E-3</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -3651,7 +3672,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2">
         <v>635</v>
@@ -3695,7 +3716,7 @@
         <v>22</v>
       </c>
       <c r="AK14" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AL14" s="1">
         <f>SUM(S5:S501)</f>
@@ -3706,7 +3727,7 @@
       </c>
       <c r="AN14" s="21">
         <f>AL14/AL23</f>
-        <v>2.4680541244269487E-3</v>
+        <v>2.4338647947542099E-3</v>
       </c>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
@@ -3717,7 +3738,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2">
         <v>507</v>
@@ -3781,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AQ15" s="1">
         <f>AL14</f>
@@ -3792,7 +3813,7 @@
       </c>
       <c r="AS15" s="22">
         <f>AN14</f>
-        <v>2.4680541244269487E-3</v>
+        <v>2.4338647947542099E-3</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -3800,7 +3821,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="2">
         <v>606</v>
@@ -3856,14 +3877,14 @@
       </c>
       <c r="AL16" s="1">
         <f>SUM(U4:U499)</f>
-        <v>13784</v>
+        <v>13919</v>
       </c>
       <c r="AM16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN16" s="21">
         <f>AL16/AL23</f>
-        <v>0.28349715042584217</v>
+        <v>0.28230803398486543</v>
       </c>
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1"/>
@@ -3874,7 +3895,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="2">
         <v>436</v>
@@ -3924,14 +3945,14 @@
       </c>
       <c r="AL17" s="1">
         <f>SUM(V11:V499)</f>
-        <v>4732</v>
+        <v>4870</v>
       </c>
       <c r="AM17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN17" s="21">
         <f>AL17/AL23</f>
-        <v>9.7323600973236002E-2</v>
+        <v>9.8774346253775014E-2</v>
       </c>
       <c r="AP17" s="1" t="s">
         <v>14</v>
@@ -3951,7 +3972,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="2">
         <v>436</v>
@@ -4012,7 +4033,7 @@
       </c>
       <c r="AN18" s="21">
         <f>AL18/AL23</f>
-        <v>1.373883462597668E-2</v>
+        <v>1.3548514024131769E-2</v>
       </c>
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
@@ -4023,7 +4044,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2">
         <v>438</v>
@@ -4080,21 +4101,21 @@
       </c>
       <c r="AN19" s="21">
         <f>AL19/AL23</f>
-        <v>6.4642450942282492E-2</v>
+        <v>6.3746975415937351E-2</v>
       </c>
       <c r="AP19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AQ19" s="1">
         <f>AL16</f>
-        <v>13784</v>
+        <v>13919</v>
       </c>
       <c r="AR19" t="s">
         <v>22</v>
       </c>
       <c r="AS19" s="22">
         <f>AN16</f>
-        <v>0.28349715042584217</v>
+        <v>0.28230803398486543</v>
       </c>
     </row>
     <row r="20" spans="1:46">
@@ -4102,7 +4123,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="2">
         <v>437</v>
@@ -4158,14 +4179,14 @@
       </c>
       <c r="AL20" s="1">
         <f>SUM(Y5:Y499)</f>
-        <v>2498</v>
+        <v>2573</v>
       </c>
       <c r="AM20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN20" s="21">
         <f>AL20/AL23</f>
-        <v>5.1376660023487647E-2</v>
+        <v>5.2186117640854852E-2</v>
       </c>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
@@ -4176,7 +4197,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="2">
         <v>495</v>
@@ -4241,21 +4262,21 @@
       </c>
       <c r="AN21" s="21">
         <f>AL21/AL23</f>
-        <v>1.2340270622134743E-3</v>
+        <v>1.216932397377105E-3</v>
       </c>
       <c r="AP21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AQ21" s="1">
         <f>AL17</f>
-        <v>4732</v>
+        <v>4870</v>
       </c>
       <c r="AR21" t="s">
         <v>22</v>
       </c>
       <c r="AS21" s="22">
         <f>AN17</f>
-        <v>9.7323600973236002E-2</v>
+        <v>9.8774346253775014E-2</v>
       </c>
     </row>
     <row r="22" spans="1:46">
@@ -4263,7 +4284,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="2">
         <v>495</v>
@@ -4327,7 +4348,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="6">
         <v>452</v>
@@ -4383,7 +4404,7 @@
       </c>
       <c r="AL23" s="1">
         <f>SUM(AL2:AL21)</f>
-        <v>48621.3</v>
+        <v>49304.3</v>
       </c>
       <c r="AM23" s="1" t="s">
         <v>22</v>
@@ -4400,7 +4421,7 @@
       </c>
       <c r="AS23" s="22">
         <f>AN18</f>
-        <v>1.373883462597668E-2</v>
+        <v>1.3548514024131769E-2</v>
       </c>
     </row>
     <row r="24" spans="1:46">
@@ -4408,7 +4429,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="6">
         <v>452</v>
@@ -4468,7 +4489,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="6">
         <v>452</v>
@@ -4531,7 +4552,7 @@
       </c>
       <c r="AS25" s="22">
         <f>AN19</f>
-        <v>6.4642450942282492E-2</v>
+        <v>6.3746975415937351E-2</v>
       </c>
     </row>
     <row r="26" spans="1:46">
@@ -4539,7 +4560,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="2">
         <v>488</v>
@@ -4597,7 +4618,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="2">
         <v>444</v>
@@ -4606,7 +4627,7 @@
         <v>68</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>25</v>
@@ -4651,14 +4672,14 @@
       </c>
       <c r="AQ27" s="1">
         <f>AL20</f>
-        <v>2498</v>
+        <v>2573</v>
       </c>
       <c r="AR27" t="s">
         <v>22</v>
       </c>
       <c r="AS27" s="22">
         <f>AN20</f>
-        <v>5.1376660023487647E-2</v>
+        <v>5.2186117640854852E-2</v>
       </c>
     </row>
     <row r="28" spans="1:46">
@@ -4666,7 +4687,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="2">
         <v>444</v>
@@ -4675,7 +4696,7 @@
         <v>69</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>25</v>
@@ -4724,7 +4745,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="2">
         <v>536</v>
@@ -4785,7 +4806,7 @@
       </c>
       <c r="AS29" s="22">
         <f>AN21</f>
-        <v>1.2340270622134743E-3</v>
+        <v>1.216932397377105E-3</v>
       </c>
     </row>
     <row r="30" spans="1:46">
@@ -4793,7 +4814,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" s="2">
         <v>536</v>
@@ -4849,7 +4870,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" s="2">
         <v>536</v>
@@ -4905,14 +4926,14 @@
       </c>
       <c r="AQ31" s="1">
         <f>SUM(AQ3:AQ29)</f>
-        <v>48621.3</v>
+        <v>49304.3</v>
       </c>
       <c r="AR31" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AS31" s="23">
         <f>SUM(AS3:AS29)</f>
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="AT31" s="20"/>
     </row>
@@ -4921,7 +4942,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="2">
         <v>517</v>
@@ -4976,7 +4997,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="2">
         <v>340</v>
@@ -4985,7 +5006,7 @@
         <v>39</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>25</v>
@@ -5036,7 +5057,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2">
         <v>340</v>
@@ -5045,7 +5066,7 @@
         <v>39</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>25</v>
@@ -5093,7 +5114,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2">
         <v>340</v>
@@ -5102,7 +5123,7 @@
         <v>39</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>25</v>
@@ -5150,7 +5171,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" s="2">
         <v>340</v>
@@ -5159,7 +5180,7 @@
         <v>39</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>25</v>
@@ -5210,7 +5231,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2">
         <v>340</v>
@@ -5219,7 +5240,7 @@
         <v>39</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>25</v>
@@ -5270,7 +5291,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2">
         <v>340</v>
@@ -5279,7 +5300,7 @@
         <v>39</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>25</v>
@@ -5327,7 +5348,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2">
         <v>340</v>
@@ -5336,7 +5357,7 @@
         <v>39</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>25</v>
@@ -5384,7 +5405,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2">
         <v>340</v>
@@ -5393,7 +5414,7 @@
         <v>39</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>25</v>
@@ -5441,16 +5462,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" s="2">
         <v>340</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>25</v>
@@ -5496,16 +5517,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" s="2">
         <v>340</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>25</v>
@@ -5551,16 +5572,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" s="2">
         <v>340</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>25</v>
@@ -5606,16 +5627,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" s="2">
         <v>340</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>25</v>
@@ -5661,16 +5682,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="2">
         <v>340</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>25</v>
@@ -5716,16 +5737,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" s="2">
         <v>340</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>25</v>
@@ -5771,16 +5792,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" s="2">
         <v>340</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>25</v>
@@ -5826,16 +5847,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C48" s="2">
         <v>340</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>25</v>
@@ -5881,16 +5902,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49" s="2">
         <v>340</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>25</v>
@@ -5938,16 +5959,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50" s="2">
         <v>340</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>25</v>
@@ -5993,16 +6014,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C51" s="2">
         <v>340</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>25</v>
@@ -6052,16 +6073,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52" s="2">
         <v>422</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>25</v>
@@ -6107,16 +6128,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C53" s="2">
         <v>445</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>25</v>
@@ -6160,7 +6181,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C54" s="2">
         <v>446</v>
@@ -6169,7 +6190,7 @@
         <v>48125655</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>25</v>
@@ -6215,7 +6236,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C55" s="2">
         <v>651</v>
@@ -6268,7 +6289,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56" s="2">
         <v>651</v>
@@ -6321,7 +6342,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C57" s="2">
         <v>651</v>
@@ -6378,7 +6399,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C58" s="2">
         <v>651</v>
@@ -6433,16 +6454,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C59" s="2">
         <v>653</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>25</v>
@@ -6482,16 +6503,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C60" s="2">
         <v>653</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>25</v>
@@ -6531,16 +6552,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C61" s="2">
         <v>653</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>25</v>
@@ -6580,7 +6601,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2">
         <v>654</v>
@@ -6639,7 +6660,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2">
         <v>655</v>
@@ -6698,7 +6719,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2">
         <v>655</v>
@@ -6757,7 +6778,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2">
         <v>655</v>
@@ -6816,16 +6837,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C66" s="2">
         <v>656</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>25</v>
@@ -6867,16 +6888,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C67" s="2">
         <v>656</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>25</v>
@@ -6916,16 +6937,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C68" s="2">
         <v>656</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>25</v>
@@ -6967,16 +6988,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C69" s="2">
         <v>447</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>25</v>
@@ -7022,16 +7043,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>25</v>
@@ -7083,16 +7104,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C71" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>25</v>
@@ -7138,7 +7159,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="2">
         <v>511</v>
@@ -7147,7 +7168,7 @@
         <v>44</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>25</v>
@@ -7193,16 +7214,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C73" s="2">
         <v>636</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>25</v>
@@ -7248,16 +7269,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>25</v>
@@ -7303,16 +7324,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C75" s="2">
         <v>340</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>25</v>
@@ -7358,16 +7379,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>25</v>
@@ -7411,7 +7432,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C77" s="2">
         <v>189</v>
@@ -7464,16 +7485,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>25</v>
@@ -7521,16 +7542,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>25</v>
@@ -7561,7 +7582,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C80" s="2">
         <v>189</v>
@@ -7607,16 +7628,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>25</v>
@@ -7648,13 +7669,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C82" s="2">
         <v>588</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E82" s="2">
         <v>17837468</v>
@@ -7692,13 +7713,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C83" s="2">
         <v>609</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E83" s="2">
         <v>15474134</v>
@@ -7735,13 +7756,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C84" s="2">
         <v>192</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E84" s="2">
         <v>15970137</v>
@@ -7779,7 +7800,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C85" s="2">
         <v>554</v>
@@ -7823,7 +7844,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C86" s="2">
         <v>647</v>
@@ -7863,7 +7884,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C87" s="2">
         <v>647</v>
@@ -7903,7 +7924,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
@@ -7950,13 +7971,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C89" s="2">
         <v>185</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E89" s="2">
         <v>13588930</v>
@@ -7997,13 +8018,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C90" s="2">
         <v>149</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E90" s="2">
         <v>16110881</v>
@@ -8035,13 +8056,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C91" s="2">
         <v>72</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E91" s="2">
         <v>16745816</v>
@@ -8075,13 +8096,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C92" s="2">
         <v>72</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E92" s="2">
         <v>16746703</v>
@@ -8115,7 +8136,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C93" s="2">
         <v>209</v>
@@ -8160,13 +8181,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C94" s="2">
         <v>203</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E94" s="2">
         <v>14036861</v>
@@ -8202,7 +8223,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C95" s="2">
         <v>205</v>
@@ -8247,13 +8268,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C96" s="2">
         <v>203</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E96" s="2">
         <v>14023910</v>
@@ -8292,13 +8313,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C97" s="2">
         <v>159</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E97" s="2">
         <v>15967965</v>
@@ -8339,13 +8360,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C98" s="2">
         <v>216</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E98" s="2">
         <v>15971997</v>
@@ -8386,13 +8407,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C99" s="2">
         <v>479</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E99" s="2">
         <v>11521021</v>
@@ -8429,13 +8450,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E100" s="2">
         <v>11469602</v>
@@ -8468,10 +8489,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D101" s="2">
         <v>10005184725</v>
@@ -8513,13 +8534,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E102" s="2">
         <v>14391192</v>
@@ -8552,13 +8573,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E103" s="2">
         <v>14154480</v>
@@ -8596,13 +8617,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C104" s="2">
         <v>133</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E104" s="2">
         <v>11468826</v>
@@ -8638,7 +8659,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C105" s="2">
         <v>133</v>
@@ -8680,13 +8701,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E106" s="2">
         <v>11468114</v>
@@ -8724,13 +8745,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C107" s="2">
         <v>94</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E107" s="2">
         <v>11467111</v>
@@ -8768,7 +8789,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C108" s="2">
         <v>193</v>
@@ -8807,16 +8828,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C109" s="2">
         <v>660</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>25</v>
@@ -8852,16 +8873,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D110" s="2">
         <v>28760407</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>25</v>
@@ -8892,7 +8913,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C111" s="2">
         <v>217</v>
@@ -8938,7 +8959,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C112" s="2">
         <v>217</v>
@@ -8987,7 +9008,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C113" s="2">
         <v>217</v>
@@ -9033,7 +9054,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C114" s="2">
         <v>225</v>
@@ -9076,7 +9097,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C115" s="2">
         <v>216</v>
@@ -9116,7 +9137,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C116" s="2">
         <v>167</v>
@@ -9154,7 +9175,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C117" s="2">
         <v>225</v>
@@ -9195,7 +9216,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C118" s="2">
         <v>225</v>
@@ -9236,7 +9257,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C119" s="2">
         <v>217</v>
@@ -9282,7 +9303,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C120" s="2">
         <v>217</v>
@@ -9328,7 +9349,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C121" s="2">
         <v>217</v>
@@ -9365,7 +9386,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C122" s="2">
         <v>215</v>
@@ -9405,7 +9426,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C123" s="2">
         <v>217</v>
@@ -9448,7 +9469,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C124" s="2">
         <v>215</v>
@@ -9488,7 +9509,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C125" s="2">
         <v>215</v>
@@ -9528,7 +9549,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C126" s="2">
         <v>208</v>
@@ -9537,7 +9558,7 @@
         <v>10004976011</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>25</v>
@@ -9568,7 +9589,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C127" s="2">
         <v>91</v>
@@ -9615,7 +9636,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C128" s="2">
         <v>210</v>
@@ -9659,7 +9680,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C129" s="2">
         <v>210</v>
@@ -9705,7 +9726,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C130" s="2">
         <v>208</v>
@@ -9751,7 +9772,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C131" s="2">
         <v>133</v>
@@ -9798,16 +9819,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>25</v>
@@ -9844,16 +9865,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C133" s="2">
         <v>660</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>25</v>
@@ -9881,7 +9902,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C134" s="2">
         <v>177</v>
@@ -9939,7 +9960,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C135" s="2">
         <v>454</v>
@@ -9985,7 +10006,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C136" s="2">
         <v>454</v>
@@ -10031,7 +10052,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C137" s="2">
         <v>494</v>
@@ -10077,7 +10098,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C138" s="2">
         <v>494</v>
@@ -10123,7 +10144,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C139" s="2">
         <v>151</v>
@@ -10172,7 +10193,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C140" s="2">
         <v>22</v>
@@ -10181,7 +10202,7 @@
         <v>10002871503</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>25</v>
@@ -10209,7 +10230,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C141" s="2">
         <v>118</v>
@@ -10249,7 +10270,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C142" s="2">
         <v>199</v>
@@ -10258,7 +10279,7 @@
         <v>10005984475</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>25</v>
@@ -10295,16 +10316,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C143" s="2">
         <v>595</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>25</v>
@@ -10341,7 +10362,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C144" s="2">
         <v>536</v>
@@ -10393,16 +10414,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C145" s="2">
         <v>689</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>25</v>
@@ -10433,16 +10454,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C146" s="2">
         <v>511</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>25</v>
@@ -10479,16 +10500,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C147" s="2">
         <v>660</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>25</v>
@@ -10516,16 +10537,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>25</v>
@@ -10557,7 +10578,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C149" s="2">
         <v>514</v>
@@ -10600,16 +10621,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C150" s="2">
         <v>340</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>25</v>
@@ -10656,7 +10677,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C151" s="2">
         <v>484</v>
@@ -10699,7 +10720,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C152" s="2">
         <v>489</v>
@@ -10745,7 +10766,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C153" s="2">
         <v>489</v>
@@ -10791,16 +10812,16 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C154" s="2">
         <v>535</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>25</v>
@@ -10846,7 +10867,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C155" s="2">
         <v>249</v>
@@ -10883,16 +10904,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C156" s="2">
         <v>502</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>25</v>
@@ -10926,7 +10947,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C157" s="2">
         <v>373</v>
@@ -10969,16 +10990,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C158" s="2">
         <v>453</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>25</v>
@@ -11006,7 +11027,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C159" s="2">
         <v>479</v>
@@ -11049,7 +11070,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C160" s="2">
         <v>249</v>
@@ -11086,7 +11107,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C161" s="2">
         <v>249</v>
@@ -11126,16 +11147,16 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C162" s="2">
         <v>549</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>25</v>
@@ -11172,16 +11193,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>25</v>
@@ -11214,16 +11235,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C164" s="2">
         <v>511</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>25</v>
@@ -11263,7 +11284,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C165" s="2">
         <v>58</v>
@@ -11303,7 +11324,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C166" s="2">
         <v>58</v>
@@ -11343,7 +11364,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C167" s="2">
         <v>249</v>
@@ -11386,7 +11407,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C168" s="2">
         <v>227</v>
@@ -11426,7 +11447,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C169" s="2">
         <v>227</v>
@@ -11435,7 +11456,7 @@
         <v>10002751604</v>
       </c>
       <c r="E169" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>25</v>
@@ -11475,7 +11496,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C170" s="2">
         <v>227</v>
@@ -11518,7 +11539,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C171" s="2">
         <v>227</v>
@@ -11567,7 +11588,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C172" s="2">
         <v>227</v>
@@ -11608,7 +11629,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C173" s="2">
         <v>60</v>
@@ -11651,7 +11672,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C174" s="2">
         <v>494</v>
@@ -11697,7 +11718,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C175" s="2">
         <v>494</v>
@@ -11743,7 +11764,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C176" s="2">
         <v>244</v>
@@ -11780,7 +11801,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C177" s="2">
         <v>259</v>
@@ -11814,7 +11835,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C178" s="2">
         <v>255</v>
@@ -11860,7 +11881,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C179" s="2">
         <v>337</v>
@@ -11897,7 +11918,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C180" s="2">
         <v>99</v>
@@ -11943,7 +11964,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C181" s="2">
         <v>227</v>
@@ -11980,7 +12001,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C182" s="2">
         <v>243</v>
@@ -12018,7 +12039,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C183" s="2">
         <v>228</v>
@@ -12058,7 +12079,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C184" s="2">
         <v>70</v>
@@ -12095,7 +12116,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C185" s="2">
         <v>103</v>
@@ -12132,16 +12153,16 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C186" s="2">
         <v>601</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>25</v>
@@ -12178,16 +12199,16 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C187" s="2">
         <v>652</v>
       </c>
       <c r="D187" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E187" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>25</v>
@@ -12233,16 +12254,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C188" s="2">
         <v>652</v>
       </c>
       <c r="D188" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>25</v>
@@ -12286,16 +12307,16 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C189" s="2">
         <v>652</v>
       </c>
       <c r="D189" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E189" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>25</v>
@@ -12339,16 +12360,16 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C190" s="2">
         <v>652</v>
       </c>
       <c r="D190" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E190" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>25</v>
@@ -12394,7 +12415,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C191" s="2">
         <v>650</v>
@@ -12436,7 +12457,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C192" s="2">
         <v>648</v>
@@ -12475,7 +12496,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C193" s="2">
         <v>648</v>
@@ -12514,7 +12535,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C194" s="2">
         <v>648</v>
@@ -12551,7 +12572,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C195" s="2">
         <v>643</v>
@@ -12560,7 +12581,7 @@
         <v>72</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>25</v>
@@ -12593,16 +12614,16 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C196" s="2">
         <v>643</v>
       </c>
       <c r="D196" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E196" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>25</v>
@@ -12632,16 +12653,16 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C197" s="2">
         <v>643</v>
       </c>
       <c r="D197" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E197" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>25</v>
@@ -12671,7 +12692,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C198" s="2">
         <v>141</v>
@@ -12708,16 +12729,16 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>25</v>
@@ -12747,16 +12768,16 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C200" s="2">
         <v>341</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>25</v>
@@ -12788,7 +12809,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C201" s="2">
         <v>115</v>
@@ -12832,7 +12853,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C202" s="2">
         <v>109</v>
@@ -12870,7 +12891,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C203" s="2">
         <v>106</v>
@@ -12907,7 +12928,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C204" s="2">
         <v>106</v>
@@ -12916,7 +12937,7 @@
         <v>10005363802</v>
       </c>
       <c r="E204" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>25</v>
@@ -12945,7 +12966,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C205" s="2">
         <v>106</v>
@@ -12980,7 +13001,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C206" s="2">
         <v>106</v>
@@ -13015,7 +13036,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C207" s="2">
         <v>484</v>
@@ -13054,7 +13075,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C208" s="2">
         <v>142</v>
@@ -13099,7 +13120,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C209" s="2">
         <v>157</v>
@@ -13139,7 +13160,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C210" s="2">
         <v>100</v>
@@ -13178,7 +13199,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C211" s="2">
         <v>288</v>
@@ -13224,7 +13245,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C212" s="2">
         <v>227</v>
@@ -13265,16 +13286,16 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C213" s="2">
         <v>634</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>25</v>
@@ -13312,16 +13333,16 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C214" s="2">
         <v>634</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>25</v>
@@ -13358,7 +13379,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C215" s="2">
         <v>604</v>
@@ -13404,7 +13425,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C216" s="2">
         <v>604</v>
@@ -13450,16 +13471,16 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>25</v>
@@ -13498,16 +13519,16 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C218" s="2">
         <v>636</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>25</v>
@@ -13547,16 +13568,16 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C219" s="2">
         <v>665</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>25</v>
@@ -13588,16 +13609,16 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C220" s="2">
         <v>665</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>25</v>
@@ -13629,16 +13650,16 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C221" s="2">
         <v>665</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>25</v>
@@ -13670,7 +13691,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C222" s="2">
         <v>523</v>
@@ -13724,16 +13745,16 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C223" s="2">
         <v>247</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>25</v>
@@ -13770,16 +13791,16 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>25</v>
@@ -13812,16 +13833,16 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C225" s="2">
         <v>653</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>25</v>
@@ -13853,16 +13874,16 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C226" s="2">
         <v>682</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>25</v>
@@ -13894,7 +13915,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C227" s="2">
         <v>476</v>
@@ -13948,7 +13969,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C228" s="2">
         <v>479</v>
@@ -14000,7 +14021,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C229" s="2">
         <v>131</v>
@@ -14058,10 +14079,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D230" s="1">
         <v>10004910044</v>
@@ -14110,10 +14131,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D231" s="1">
         <v>10004910106</v>
@@ -14166,10 +14187,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D232" s="1">
         <v>10004909925</v>
@@ -14214,13 +14235,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C233" s="1">
         <v>685</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>25</v>
@@ -14266,16 +14287,16 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C234" s="1">
         <v>688</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>25</v>
@@ -14312,16 +14333,16 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C235" s="1">
         <v>682</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>25</v>
@@ -14353,16 +14374,16 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C236" s="1">
         <v>687</v>
       </c>
       <c r="D236" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E236" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>25</v>
@@ -14407,16 +14428,16 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C237" s="1">
         <v>687</v>
       </c>
       <c r="D237" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E237" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>25</v>
@@ -14453,7 +14474,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C238" s="1">
         <v>687</v>
@@ -14462,7 +14483,7 @@
         <v>72</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>25</v>
@@ -14504,16 +14525,16 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C239" s="1">
         <v>687</v>
       </c>
       <c r="D239" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E239" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>25</v>
@@ -14555,16 +14576,16 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C240" s="1">
         <v>687</v>
       </c>
       <c r="D240" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E240" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>25</v>
@@ -14606,16 +14627,16 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C241" s="1">
         <v>687</v>
       </c>
       <c r="D241" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E241" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>25</v>
@@ -14657,16 +14678,16 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C242" s="1">
         <v>687</v>
       </c>
       <c r="D242" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E242" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>25</v>
@@ -14706,16 +14727,16 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C243" s="1">
         <v>684</v>
       </c>
       <c r="D243" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E243" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>25</v>
@@ -14763,16 +14784,16 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C244" s="1">
         <v>684</v>
       </c>
       <c r="D244" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E244" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>25</v>
@@ -14818,7 +14839,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C245" s="1">
         <v>683</v>
@@ -14877,7 +14898,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C246" s="1">
         <v>683</v>
@@ -14936,7 +14957,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C247" s="1">
         <v>686</v>
@@ -14995,7 +15016,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C248" s="1">
         <v>686</v>
@@ -15052,7 +15073,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C249" s="1">
         <v>686</v>
@@ -15101,7 +15122,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C250" s="1">
         <v>686</v>
@@ -15156,7 +15177,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C251" s="1">
         <v>686</v>
@@ -15211,16 +15232,16 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C252" s="1">
         <v>678</v>
       </c>
       <c r="D252" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E252" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>25</v>
@@ -15264,16 +15285,16 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C253" s="1">
         <v>678</v>
       </c>
       <c r="D253" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E253" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>25</v>
@@ -15317,16 +15338,16 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C254" s="1">
         <v>678</v>
       </c>
       <c r="D254" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E254" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>25</v>
@@ -15370,16 +15391,16 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C255" s="1">
         <v>678</v>
       </c>
       <c r="D255" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E255" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>25</v>
@@ -15423,16 +15444,16 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C256" s="1">
         <v>678</v>
       </c>
       <c r="D256" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E256" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>25</v>
@@ -15480,16 +15501,16 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C257" s="1">
         <v>678</v>
       </c>
       <c r="D257" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E257" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>25</v>
@@ -15533,16 +15554,16 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C258" s="1">
         <v>678</v>
       </c>
       <c r="D258" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E258" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>25</v>
@@ -15590,16 +15611,16 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C259" s="1">
         <v>678</v>
       </c>
       <c r="D259" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E259" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>25</v>
@@ -15645,16 +15666,16 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C260" s="1">
         <v>678</v>
       </c>
       <c r="D260" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E260" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>25</v>
@@ -15702,16 +15723,16 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C261" s="1">
         <v>678</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>25</v>
@@ -15759,16 +15780,16 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C262" s="1">
         <v>678</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>25</v>
@@ -15816,16 +15837,16 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C263" s="1">
         <v>678</v>
       </c>
       <c r="D263" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E263" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>25</v>
@@ -15871,16 +15892,16 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C264" s="1">
         <v>678</v>
       </c>
       <c r="D264" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E264" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>25</v>
@@ -15926,16 +15947,16 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C265" s="1">
         <v>678</v>
       </c>
       <c r="D265" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E265" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>25</v>
@@ -15981,16 +16002,16 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C266" s="1">
         <v>678</v>
       </c>
       <c r="D266" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E266" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>25</v>
@@ -16036,16 +16057,16 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C267" s="1">
         <v>678</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>25</v>
@@ -16091,16 +16112,16 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C268" s="1">
         <v>678</v>
       </c>
       <c r="D268" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E268" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>25</v>
@@ -16144,16 +16165,16 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C269" s="1">
         <v>678</v>
       </c>
       <c r="D269" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E269" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>25</v>
@@ -16197,16 +16218,16 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C270" s="1">
         <v>678</v>
       </c>
       <c r="D270" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E270" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>25</v>
@@ -16252,16 +16273,16 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C271" s="1">
         <v>678</v>
       </c>
       <c r="D271" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E271" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>25</v>
@@ -16307,16 +16328,16 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C272" s="1">
         <v>678</v>
       </c>
       <c r="D272" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E272" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>418</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>25</v>
@@ -16360,16 +16381,16 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C273" s="1">
         <v>678</v>
       </c>
       <c r="D273" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E273" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>25</v>
@@ -16415,16 +16436,16 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C274" s="1">
         <v>678</v>
       </c>
       <c r="D274" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E274" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>25</v>
@@ -16470,16 +16491,16 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C275" s="1">
         <v>678</v>
       </c>
       <c r="D275" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E275" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>424</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>25</v>
@@ -16525,16 +16546,16 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C276" s="1">
         <v>678</v>
       </c>
       <c r="D276" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E276" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>25</v>
@@ -16578,16 +16599,16 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C277" s="1">
         <v>678</v>
       </c>
       <c r="D277" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E277" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="E277" s="1" t="s">
-        <v>428</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>25</v>
@@ -16633,16 +16654,16 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C278" s="1">
         <v>678</v>
       </c>
       <c r="D278" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E278" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>25</v>
@@ -16686,16 +16707,16 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C279" s="1">
         <v>678</v>
       </c>
       <c r="D279" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E279" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>25</v>
@@ -16741,16 +16762,16 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C280" s="1">
         <v>678</v>
       </c>
       <c r="D280" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E280" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>25</v>
@@ -16798,16 +16819,16 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C281" s="1">
         <v>678</v>
       </c>
       <c r="D281" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E281" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>25</v>
@@ -16853,16 +16874,16 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C282" s="1">
         <v>678</v>
       </c>
       <c r="D282" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E282" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>25</v>
@@ -16908,16 +16929,16 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C283" s="1">
         <v>678</v>
       </c>
       <c r="D283" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E283" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>25</v>
@@ -16963,16 +16984,16 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C284" s="1">
         <v>678</v>
       </c>
       <c r="D284" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E284" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>442</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>25</v>
@@ -17018,16 +17039,16 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C285" s="1">
         <v>678</v>
       </c>
       <c r="D285" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E285" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>25</v>
@@ -17075,16 +17096,16 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C286" s="1">
         <v>678</v>
       </c>
       <c r="D286" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E286" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>446</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>25</v>
@@ -17128,16 +17149,16 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C287" s="1">
         <v>678</v>
       </c>
       <c r="D287" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E287" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>25</v>
@@ -17179,16 +17200,16 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C288" s="1">
         <v>669</v>
       </c>
       <c r="D288" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E288" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>25</v>
@@ -17236,16 +17257,16 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C289" s="1">
         <v>669</v>
       </c>
       <c r="D289" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E289" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>25</v>
@@ -17293,16 +17314,16 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C290" s="1">
         <v>669</v>
       </c>
       <c r="D290" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E290" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>454</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>25</v>
@@ -17350,7 +17371,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C291" s="1">
         <v>668</v>
@@ -17405,7 +17426,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C292" s="1">
         <v>667</v>
@@ -17460,7 +17481,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C293" s="1">
         <v>650</v>
@@ -17512,16 +17533,16 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C294" s="1">
         <v>652</v>
       </c>
       <c r="D294" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E294" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="E294" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="F294" s="1" t="s">
         <v>25</v>
@@ -17565,16 +17586,16 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C295" s="1">
         <v>652</v>
       </c>
       <c r="D295" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E295" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="E295" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>25</v>
@@ -17617,16 +17638,16 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C296" s="1">
         <v>652</v>
       </c>
       <c r="D296" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E296" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>25</v>
@@ -17667,16 +17688,16 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C297" s="1">
         <v>652</v>
       </c>
       <c r="D297" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E297" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>25</v>
@@ -17719,7 +17740,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C298" s="1">
         <v>648</v>
@@ -17769,7 +17790,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C299" s="1">
         <v>648</v>
@@ -17819,7 +17840,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C300" s="1">
         <v>648</v>
@@ -17867,7 +17888,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C301" s="1">
         <v>643</v>
@@ -17876,7 +17897,7 @@
         <v>72</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>25</v>
@@ -17919,16 +17940,16 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C302" s="1">
         <v>643</v>
       </c>
       <c r="D302" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E302" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="E302" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>25</v>
@@ -17969,16 +17990,16 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C303" s="1">
         <v>643</v>
       </c>
       <c r="D303" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E303" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="E303" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>25</v>
@@ -18019,16 +18040,16 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C304" s="1">
         <v>663</v>
       </c>
       <c r="D304" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E304" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>25</v>
@@ -18070,16 +18091,16 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C305" s="1">
         <v>663</v>
       </c>
       <c r="D305" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E305" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="E305" s="1" t="s">
-        <v>458</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>25</v>
@@ -18119,16 +18140,16 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C306" s="1">
         <v>664</v>
       </c>
       <c r="D306" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E306" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="E306" s="1" t="s">
-        <v>460</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>25</v>
@@ -18169,16 +18190,16 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C307" s="1">
         <v>664</v>
       </c>
       <c r="D307" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E307" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="E307" s="1" t="s">
-        <v>462</v>
       </c>
       <c r="F307" s="1" t="s">
         <v>25</v>
@@ -18219,16 +18240,16 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C308" s="1">
         <v>664</v>
       </c>
       <c r="D308" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E308" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="E308" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>25</v>
@@ -18269,16 +18290,16 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C309" s="1">
         <v>664</v>
       </c>
       <c r="D309" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E309" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="E309" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="F309" s="1" t="s">
         <v>25</v>
@@ -18321,7 +18342,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C310" s="1">
         <v>662</v>
@@ -18376,7 +18397,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C311" s="1">
         <v>662</v>
@@ -18431,7 +18452,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C312" s="1">
         <v>662</v>
@@ -18484,7 +18505,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C313" s="1">
         <v>654</v>
@@ -18538,16 +18559,16 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C314" s="1">
         <v>691</v>
       </c>
       <c r="D314" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E314" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="E314" s="1" t="s">
-        <v>476</v>
       </c>
       <c r="F314" s="1" t="s">
         <v>25</v>
@@ -18586,16 +18607,16 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C315" s="1">
         <v>691</v>
       </c>
       <c r="D315" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E315" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="E315" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="F315" s="1" t="s">
         <v>25</v>
@@ -18638,16 +18659,16 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C316" s="1">
         <v>691</v>
       </c>
       <c r="D316" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E316" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="E316" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>25</v>
@@ -18688,16 +18709,16 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C317" s="1">
         <v>691</v>
       </c>
       <c r="D317" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E317" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="E317" s="1" t="s">
-        <v>482</v>
       </c>
       <c r="F317" s="1" t="s">
         <v>25</v>
@@ -18736,16 +18757,16 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C318" s="1">
         <v>691</v>
       </c>
       <c r="D318" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E318" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="E318" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>25</v>
@@ -18786,7 +18807,7 @@
         <v>319</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C319" s="1">
         <v>690</v>
@@ -18834,7 +18855,7 @@
         <v>320</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C320" s="1">
         <v>693</v>
@@ -18886,7 +18907,7 @@
         <v>321</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C321" s="1">
         <v>693</v>
@@ -18944,7 +18965,7 @@
         <v>322</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C322" s="1">
         <v>693</v>
@@ -18992,7 +19013,7 @@
         <v>323</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C323" s="1">
         <v>693</v>
@@ -19040,16 +19061,16 @@
         <v>324</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C324" s="1">
         <v>679</v>
       </c>
       <c r="D324" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E324" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="E324" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="F324" s="1" t="s">
         <v>25</v>
@@ -19092,7 +19113,7 @@
         <v>325</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C325" s="1">
         <v>696</v>
@@ -19142,7 +19163,7 @@
         <v>326</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C326" s="1">
         <v>532</v>
@@ -19186,7 +19207,7 @@
         <v>327</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C327" s="1">
         <v>673</v>
@@ -19234,7 +19255,7 @@
         <v>328</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C328" s="1">
         <v>168</v>
@@ -19282,7 +19303,7 @@
         <v>329</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C329" s="1">
         <v>489</v>
@@ -19334,7 +19355,7 @@
         <v>330</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C330" s="1">
         <v>282</v>
@@ -19382,7 +19403,7 @@
         <v>331</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C331" s="1">
         <v>228</v>
@@ -19430,7 +19451,7 @@
         <v>332</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C332" s="1">
         <v>509</v>
@@ -19482,7 +19503,7 @@
         <v>333</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C333" s="1">
         <v>621</v>
@@ -19491,7 +19512,7 @@
         <v>43</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F333" s="1" t="s">
         <v>25</v>
@@ -19532,7 +19553,7 @@
         <v>334</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C334" s="1">
         <v>621</v>
@@ -19541,7 +19562,7 @@
         <v>42</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F334" s="1" t="s">
         <v>25</v>
@@ -19582,7 +19603,7 @@
         <v>335</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C335" s="1">
         <v>44</v>
@@ -19630,7 +19651,7 @@
         <v>336</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C336" s="1">
         <v>250</v>
@@ -19678,7 +19699,7 @@
         <v>337</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C337" s="1">
         <v>98</v>
@@ -19734,7 +19755,7 @@
         <v>338</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C338" s="1">
         <v>696</v>
@@ -19786,16 +19807,16 @@
         <v>339</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C339" s="1">
         <v>399</v>
       </c>
       <c r="D339" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E339" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="E339" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="F339" s="1" t="s">
         <v>25</v>
@@ -19836,13 +19857,13 @@
         <v>340</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C340" s="1">
         <v>514</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E340" s="1">
         <v>11497637</v>
@@ -19886,16 +19907,16 @@
         <v>341</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C341" s="1">
         <v>714</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F341" s="1" t="s">
         <v>25</v>
@@ -19930,7 +19951,7 @@
         <v>342</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C342" s="1">
         <v>707</v>
@@ -19981,7 +20002,7 @@
         <v>343</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C343" s="1">
         <v>707</v>
@@ -20027,7 +20048,7 @@
         <v>344</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C344" s="1">
         <v>534</v>
@@ -20072,29 +20093,49 @@
       <c r="A345" s="1">
         <v>345</v>
       </c>
-      <c r="B345" s="1"/>
-      <c r="C345" s="1"/>
-      <c r="D345" s="1"/>
-      <c r="E345" s="1"/>
-      <c r="F345" s="1"/>
-      <c r="G345" s="1"/>
+      <c r="B345" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G345" s="1">
+        <v>5</v>
+      </c>
       <c r="H345" s="1"/>
       <c r="I345" s="1"/>
       <c r="J345" s="1"/>
-      <c r="K345" s="1"/>
+      <c r="K345" s="1">
+        <v>10</v>
+      </c>
       <c r="L345" s="1"/>
       <c r="M345" s="1"/>
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
-      <c r="P345" s="1"/>
+      <c r="P345" s="1">
+        <v>10</v>
+      </c>
       <c r="Q345" s="1"/>
       <c r="R345" s="1"/>
       <c r="U345" s="1"/>
-      <c r="V345" s="1"/>
-      <c r="Y345" s="1"/>
+      <c r="V345" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y345" s="1">
+        <v>10</v>
+      </c>
       <c r="AA345" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AB345" s="1" t="s">
         <v>22</v>
@@ -20104,14 +20145,26 @@
       <c r="A346" s="1">
         <v>346</v>
       </c>
-      <c r="B346" s="1"/>
-      <c r="C346" s="1"/>
-      <c r="D346" s="1"/>
-      <c r="E346" s="1"/>
-      <c r="F346" s="1"/>
+      <c r="B346" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C346" s="1">
+        <v>109</v>
+      </c>
+      <c r="D346" s="1">
+        <v>10004626094</v>
+      </c>
+      <c r="E346" s="1">
+        <v>13829680</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
-      <c r="I346" s="1"/>
+      <c r="I346" s="1">
+        <v>5</v>
+      </c>
       <c r="J346" s="1"/>
       <c r="K346" s="1"/>
       <c r="L346" s="1"/>
@@ -20119,14 +20172,18 @@
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
       <c r="P346" s="1"/>
-      <c r="Q346" s="1"/>
+      <c r="Q346" s="1">
+        <v>5</v>
+      </c>
       <c r="R346" s="1"/>
       <c r="U346" s="1"/>
-      <c r="V346" s="1"/>
+      <c r="V346" s="1">
+        <v>10</v>
+      </c>
       <c r="Y346" s="1"/>
       <c r="AA346" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB346" s="1" t="s">
         <v>22</v>
@@ -20136,29 +20193,49 @@
       <c r="A347" s="1">
         <v>347</v>
       </c>
-      <c r="B347" s="1"/>
-      <c r="C347" s="1"/>
-      <c r="D347" s="1"/>
-      <c r="E347" s="1"/>
-      <c r="F347" s="1"/>
+      <c r="B347" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C347" s="1">
+        <v>707</v>
+      </c>
+      <c r="D347" s="1">
+        <v>10006440285</v>
+      </c>
+      <c r="E347" s="1">
+        <v>14812365</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
-      <c r="I347" s="1"/>
+      <c r="I347" s="1">
+        <v>5</v>
+      </c>
       <c r="J347" s="1"/>
       <c r="K347" s="1"/>
-      <c r="L347" s="1"/>
+      <c r="L347" s="1">
+        <v>15</v>
+      </c>
       <c r="M347" s="1"/>
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
       <c r="P347" s="1"/>
       <c r="Q347" s="1"/>
       <c r="R347" s="1"/>
-      <c r="U347" s="1"/>
-      <c r="V347" s="1"/>
-      <c r="Y347" s="1"/>
+      <c r="U347" s="1">
+        <v>15</v>
+      </c>
+      <c r="V347" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y347" s="1">
+        <v>5</v>
+      </c>
       <c r="AA347" s="2">
         <f t="shared" ref="AA347:AA410" si="6">SUM(G347:Z347)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AB347" s="1" t="s">
         <v>22</v>
@@ -20168,29 +20245,49 @@
       <c r="A348" s="1">
         <v>348</v>
       </c>
-      <c r="B348" s="1"/>
-      <c r="C348" s="1"/>
-      <c r="D348" s="1"/>
-      <c r="E348" s="1"/>
-      <c r="F348" s="1"/>
-      <c r="G348" s="1"/>
+      <c r="B348" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C348" s="1">
+        <v>534</v>
+      </c>
+      <c r="D348" s="1">
+        <v>10004626228</v>
+      </c>
+      <c r="E348" s="1">
+        <v>13829723</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G348" s="1">
+        <v>5</v>
+      </c>
       <c r="H348" s="1"/>
       <c r="I348" s="1"/>
       <c r="J348" s="1"/>
       <c r="K348" s="1"/>
       <c r="L348" s="1"/>
-      <c r="M348" s="1"/>
-      <c r="N348" s="1"/>
+      <c r="M348" s="1">
+        <v>15</v>
+      </c>
+      <c r="N348" s="1">
+        <v>45</v>
+      </c>
       <c r="O348" s="1"/>
       <c r="P348" s="1"/>
       <c r="Q348" s="1"/>
       <c r="R348" s="1"/>
-      <c r="U348" s="1"/>
-      <c r="V348" s="1"/>
+      <c r="U348" s="1">
+        <v>15</v>
+      </c>
+      <c r="V348" s="1">
+        <v>30</v>
+      </c>
       <c r="Y348" s="1"/>
       <c r="AA348" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB348" s="1" t="s">
         <v>22</v>
@@ -20200,29 +20297,49 @@
       <c r="A349" s="1">
         <v>349</v>
       </c>
-      <c r="B349" s="1"/>
-      <c r="C349" s="1"/>
-      <c r="D349" s="1"/>
-      <c r="E349" s="1"/>
-      <c r="F349" s="1"/>
-      <c r="G349" s="1"/>
+      <c r="B349" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C349" s="1">
+        <v>449</v>
+      </c>
+      <c r="D349" s="1">
+        <v>10004631699</v>
+      </c>
+      <c r="E349" s="1">
+        <v>13833429</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G349" s="1">
+        <v>10</v>
+      </c>
       <c r="H349" s="1"/>
       <c r="I349" s="1"/>
       <c r="J349" s="1"/>
       <c r="K349" s="1"/>
       <c r="L349" s="1"/>
-      <c r="M349" s="1"/>
+      <c r="M349" s="1">
+        <v>60</v>
+      </c>
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
       <c r="P349" s="1"/>
       <c r="Q349" s="1"/>
       <c r="R349" s="1"/>
-      <c r="U349" s="1"/>
-      <c r="V349" s="1"/>
-      <c r="Y349" s="1"/>
+      <c r="U349" s="1">
+        <v>45</v>
+      </c>
+      <c r="V349" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y349" s="1">
+        <v>15</v>
+      </c>
       <c r="AA349" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB349" s="1" t="s">
         <v>22</v>
@@ -20232,29 +20349,45 @@
       <c r="A350" s="1">
         <v>350</v>
       </c>
-      <c r="B350" s="1"/>
-      <c r="C350" s="1"/>
-      <c r="D350" s="1"/>
-      <c r="E350" s="1"/>
-      <c r="F350" s="1"/>
-      <c r="G350" s="1"/>
+      <c r="B350" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C350" s="1">
+        <v>375</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G350" s="1">
+        <v>5</v>
+      </c>
       <c r="H350" s="1"/>
       <c r="I350" s="1"/>
       <c r="J350" s="1"/>
       <c r="K350" s="1"/>
       <c r="L350" s="1"/>
-      <c r="M350" s="1"/>
+      <c r="M350" s="1">
+        <v>10</v>
+      </c>
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
       <c r="P350" s="1"/>
       <c r="Q350" s="1"/>
       <c r="R350" s="1"/>
       <c r="U350" s="1"/>
-      <c r="V350" s="1"/>
+      <c r="V350" s="1">
+        <v>3</v>
+      </c>
       <c r="Y350" s="1"/>
       <c r="AA350" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AB350" s="1" t="s">
         <v>22</v>
@@ -20264,14 +20397,26 @@
       <c r="A351" s="1">
         <v>351</v>
       </c>
-      <c r="B351" s="1"/>
-      <c r="C351" s="1"/>
-      <c r="D351" s="1"/>
-      <c r="E351" s="1"/>
-      <c r="F351" s="1"/>
+      <c r="B351" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C351" s="1">
+        <v>694</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
-      <c r="I351" s="1"/>
+      <c r="I351" s="1">
+        <v>10</v>
+      </c>
       <c r="J351" s="1"/>
       <c r="K351" s="1"/>
       <c r="L351" s="1"/>
@@ -20286,7 +20431,7 @@
       <c r="Y351" s="1"/>
       <c r="AA351" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB351" s="1" t="s">
         <v>22</v>
@@ -20296,29 +20441,47 @@
       <c r="A352" s="1">
         <v>352</v>
       </c>
-      <c r="B352" s="1"/>
-      <c r="C352" s="1"/>
-      <c r="D352" s="1"/>
-      <c r="E352" s="1"/>
-      <c r="F352" s="1"/>
-      <c r="G352" s="1"/>
+      <c r="B352" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C352" s="1">
+        <v>476</v>
+      </c>
+      <c r="D352" s="1">
+        <v>10004112775</v>
+      </c>
+      <c r="E352" s="1">
+        <v>13545784</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G352" s="1">
+        <v>5</v>
+      </c>
       <c r="H352" s="1"/>
       <c r="I352" s="1"/>
       <c r="J352" s="1"/>
       <c r="K352" s="1"/>
       <c r="L352" s="1"/>
-      <c r="M352" s="1"/>
+      <c r="M352" s="1">
+        <v>15</v>
+      </c>
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
       <c r="P352" s="1"/>
       <c r="Q352" s="1"/>
       <c r="R352" s="1"/>
-      <c r="U352" s="1"/>
-      <c r="V352" s="1"/>
+      <c r="U352" s="1">
+        <v>15</v>
+      </c>
+      <c r="V352" s="1">
+        <v>10</v>
+      </c>
       <c r="Y352" s="1"/>
       <c r="AA352" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AB352" s="1" t="s">
         <v>22</v>
@@ -20328,29 +20491,51 @@
       <c r="A353" s="1">
         <v>353</v>
       </c>
-      <c r="B353" s="1"/>
-      <c r="C353" s="1"/>
-      <c r="D353" s="1"/>
-      <c r="E353" s="1"/>
-      <c r="F353" s="1"/>
-      <c r="G353" s="1"/>
+      <c r="B353" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C353" s="1">
+        <v>340</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G353" s="1">
+        <v>5</v>
+      </c>
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
       <c r="J353" s="1"/>
       <c r="K353" s="1"/>
       <c r="L353" s="1"/>
       <c r="M353" s="1"/>
-      <c r="N353" s="1"/>
+      <c r="N353" s="1">
+        <v>5</v>
+      </c>
       <c r="O353" s="1"/>
       <c r="P353" s="1"/>
       <c r="Q353" s="1"/>
-      <c r="R353" s="1"/>
-      <c r="U353" s="1"/>
-      <c r="V353" s="1"/>
-      <c r="Y353" s="1"/>
+      <c r="R353" s="1">
+        <v>5</v>
+      </c>
+      <c r="U353" s="1">
+        <v>15</v>
+      </c>
+      <c r="V353" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y353" s="1">
+        <v>15</v>
+      </c>
       <c r="AA353" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB353" s="1" t="s">
         <v>22</v>
@@ -20360,29 +20545,49 @@
       <c r="A354" s="1">
         <v>354</v>
       </c>
-      <c r="B354" s="1"/>
-      <c r="C354" s="1"/>
-      <c r="D354" s="1"/>
-      <c r="E354" s="1"/>
-      <c r="F354" s="1"/>
-      <c r="G354" s="1"/>
+      <c r="B354" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C354" s="1">
+        <v>661</v>
+      </c>
+      <c r="D354" s="1">
+        <v>10006188231</v>
+      </c>
+      <c r="E354" s="1">
+        <v>14674441</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G354" s="1">
+        <v>10</v>
+      </c>
       <c r="H354" s="1"/>
       <c r="I354" s="1"/>
       <c r="J354" s="1"/>
       <c r="K354" s="1"/>
       <c r="L354" s="1"/>
-      <c r="M354" s="1"/>
+      <c r="M354" s="1">
+        <v>20</v>
+      </c>
       <c r="N354" s="1"/>
       <c r="O354" s="1"/>
       <c r="P354" s="1"/>
       <c r="Q354" s="1"/>
       <c r="R354" s="1"/>
-      <c r="U354" s="1"/>
-      <c r="V354" s="1"/>
-      <c r="Y354" s="1"/>
+      <c r="U354" s="1">
+        <v>15</v>
+      </c>
+      <c r="V354" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y354" s="1">
+        <v>15</v>
+      </c>
       <c r="AA354" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB354" s="1" t="s">
         <v>22</v>
@@ -20392,29 +20597,49 @@
       <c r="A355" s="1">
         <v>355</v>
       </c>
-      <c r="B355" s="1"/>
-      <c r="C355" s="1"/>
-      <c r="D355" s="1"/>
-      <c r="E355" s="1"/>
-      <c r="F355" s="1"/>
-      <c r="G355" s="1"/>
+      <c r="B355" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C355" s="1">
+        <v>661</v>
+      </c>
+      <c r="D355" s="1">
+        <v>10006188202</v>
+      </c>
+      <c r="E355" s="1">
+        <v>14674440</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G355" s="1">
+        <v>10</v>
+      </c>
       <c r="H355" s="1"/>
       <c r="I355" s="1"/>
       <c r="J355" s="1"/>
       <c r="K355" s="1"/>
       <c r="L355" s="1"/>
-      <c r="M355" s="1"/>
+      <c r="M355" s="1">
+        <v>20</v>
+      </c>
       <c r="N355" s="1"/>
       <c r="O355" s="1"/>
       <c r="P355" s="1"/>
       <c r="Q355" s="1"/>
       <c r="R355" s="1"/>
-      <c r="U355" s="1"/>
-      <c r="V355" s="1"/>
-      <c r="Y355" s="1"/>
+      <c r="U355" s="1">
+        <v>15</v>
+      </c>
+      <c r="V355" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y355" s="1">
+        <v>15</v>
+      </c>
       <c r="AA355" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB355" s="1" t="s">
         <v>22</v>
@@ -20424,29 +20649,45 @@
       <c r="A356" s="1">
         <v>356</v>
       </c>
-      <c r="B356" s="1"/>
-      <c r="C356" s="1"/>
-      <c r="D356" s="1"/>
-      <c r="E356" s="1"/>
-      <c r="F356" s="1"/>
-      <c r="G356" s="1"/>
+      <c r="B356" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C356" s="1">
+        <v>697</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G356" s="1">
+        <v>5</v>
+      </c>
       <c r="H356" s="1"/>
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
       <c r="K356" s="1"/>
       <c r="L356" s="1"/>
-      <c r="M356" s="1"/>
+      <c r="M356" s="1">
+        <v>20</v>
+      </c>
       <c r="N356" s="1"/>
       <c r="O356" s="1"/>
       <c r="P356" s="1"/>
       <c r="Q356" s="1"/>
       <c r="R356" s="1"/>
       <c r="U356" s="1"/>
-      <c r="V356" s="1"/>
+      <c r="V356" s="1">
+        <v>5</v>
+      </c>
       <c r="Y356" s="1"/>
       <c r="AA356" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB356" s="1" t="s">
         <v>22</v>
@@ -25630,7 +25871,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25817,7 +26058,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B17" s="8">
         <v>10006836942</v>
@@ -25828,7 +26069,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="8">
         <v>10006836881</v>
@@ -25839,7 +26080,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" s="8">
         <v>10006836848</v>
@@ -25850,7 +26091,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B20" s="8">
         <v>10004254702</v>
@@ -25861,7 +26102,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B21" s="8">
         <v>10006000456</v>
@@ -25872,7 +26113,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" s="8">
         <v>10006001743</v>
@@ -25883,7 +26124,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B23" s="8">
         <v>10004963667</v>
@@ -25894,7 +26135,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="B24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C24" s="2">
         <v>3092</v>
@@ -25909,7 +26150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9D6A0A-58D8-491B-8520-AA2E6E8E4A66}">
   <dimension ref="A1:B278"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A193" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -25929,7 +26170,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="B2" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -25939,37 +26180,37 @@
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -25979,17 +26220,17 @@
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -25999,12 +26240,12 @@
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="2:2">
@@ -26014,7 +26255,7 @@
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -26034,7 +26275,7 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="2:2">
@@ -26074,7 +26315,7 @@
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="2:2">
@@ -26084,17 +26325,17 @@
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -26114,7 +26355,7 @@
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="2:2">
@@ -26124,7 +26365,7 @@
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="2:2">
@@ -26239,7 +26480,7 @@
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="65" spans="2:2">
@@ -26384,47 +26625,47 @@
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="102" spans="2:2">
@@ -26434,22 +26675,22 @@
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="107" spans="2:2">
@@ -26464,22 +26705,22 @@
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="113" spans="2:2">
@@ -26504,7 +26745,7 @@
     </row>
     <row r="117" spans="2:2">
       <c r="B117" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="118" spans="2:2">
@@ -26544,7 +26785,7 @@
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="126" spans="2:2">
@@ -26594,112 +26835,112 @@
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="157" spans="2:2">
@@ -26744,22 +26985,22 @@
     </row>
     <row r="165" spans="2:2">
       <c r="B165" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="169" spans="2:2">
@@ -26884,27 +27125,27 @@
     </row>
     <row r="193" spans="2:2">
       <c r="B193" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="198" spans="2:2">
@@ -27044,7 +27285,7 @@
     </row>
     <row r="225" spans="2:2">
       <c r="B225" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="226" spans="2:2">
@@ -27054,12 +27295,12 @@
     </row>
     <row r="227" spans="2:2">
       <c r="B227" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="228" spans="2:2">
       <c r="B228" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="229" spans="2:2">
@@ -27089,42 +27330,42 @@
     </row>
     <row r="234" spans="2:2">
       <c r="B234" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="235" spans="2:2">
       <c r="B235" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="236" spans="2:2">
       <c r="B236" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="237" spans="2:2">
       <c r="B237" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="238" spans="2:2">
       <c r="B238" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="240" spans="2:2">
       <c r="B240" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="241" spans="2:2">
       <c r="B241" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="242" spans="2:2">
@@ -27164,42 +27405,42 @@
     </row>
     <row r="249" spans="2:2">
       <c r="B249" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="250" spans="2:2">
       <c r="B250" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="251" spans="2:2">
       <c r="B251" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="252" spans="2:2">
       <c r="B252" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="253" spans="2:2">
       <c r="B253" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="254" spans="2:2">
       <c r="B254" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="255" spans="2:2">
       <c r="B255" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="256" spans="2:2">
       <c r="B256" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="257" spans="2:2">
@@ -27209,7 +27450,7 @@
     </row>
     <row r="258" spans="2:2">
       <c r="B258" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="259" spans="2:2">
@@ -27224,92 +27465,92 @@
     </row>
     <row r="261" spans="2:2">
       <c r="B261" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="262" spans="2:2">
       <c r="B262" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="263" spans="2:2">
       <c r="B263" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="264" spans="2:2">
       <c r="B264" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="265" spans="2:2">
       <c r="B265" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="266" spans="2:2">
       <c r="B266" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="267" spans="2:2">
       <c r="B267" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="268" spans="2:2">
       <c r="B268" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="269" spans="2:2">
       <c r="B269" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="270" spans="2:2">
       <c r="B270" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="271" spans="2:2">
       <c r="B271" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="272" spans="2:2">
       <c r="B272" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="273" spans="2:2">
       <c r="B273" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="274" spans="2:2">
       <c r="B274" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="275" spans="2:2">
       <c r="B275" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="276" spans="2:2">
       <c r="B276" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="277" spans="2:2">
       <c r="B277" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="278" spans="2:2">
       <c r="B278" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -27362,17 +27603,17 @@
     </row>
     <row r="2" spans="1:2">
       <c r="B2" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -27382,12 +27623,12 @@
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -27397,27 +27638,27 @@
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -27432,22 +27673,22 @@
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -27472,12 +27713,12 @@
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="2:2">
@@ -27502,7 +27743,7 @@
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="2:2">
@@ -27527,7 +27768,7 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -27557,7 +27798,7 @@
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="2:2">
@@ -27602,22 +27843,22 @@
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="2:2">
@@ -27747,7 +27988,7 @@
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="2:2">
@@ -27757,12 +27998,12 @@
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="83" spans="2:2">
@@ -27807,12 +28048,12 @@
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="93" spans="2:2">
@@ -27842,12 +28083,12 @@
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="100" spans="2:2">
@@ -27862,17 +28103,17 @@
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="105" spans="2:2">
@@ -27882,7 +28123,7 @@
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="107" spans="2:2">
@@ -27912,27 +28153,27 @@
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="121" spans="2:2" ht="14.25" customHeight="1"/>
@@ -27964,8 +28205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF03CF93-A241-4DB9-ACD8-61B0F18F4B55}">
   <dimension ref="A1:V221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F220" sqref="F220"/>
+    <sheetView topLeftCell="A211" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E219" sqref="E219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27985,7 +28226,7 @@
       </c>
       <c r="C1" s="1"/>
       <c r="V1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -27994,7 +28235,7 @@
         <v>10008521996</v>
       </c>
       <c r="V2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -28003,7 +28244,7 @@
         <v>10008521996</v>
       </c>
       <c r="V3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -28012,7 +28253,7 @@
         <v>10008521996</v>
       </c>
       <c r="V4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -28021,7 +28262,7 @@
         <v>HV307164-XX</v>
       </c>
       <c r="V5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -28030,7 +28271,7 @@
       </c>
       <c r="F6" s="2"/>
       <c r="V6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -28039,7 +28280,7 @@
         <v>HV306453-01</v>
       </c>
       <c r="V7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -28048,7 +28289,7 @@
         <v>HV400318-XX</v>
       </c>
       <c r="V8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -28057,7 +28298,7 @@
         <v>HV307164-XX</v>
       </c>
       <c r="V9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -28066,7 +28307,7 @@
         <v>HV303895-01</v>
       </c>
       <c r="V10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -28075,7 +28316,7 @@
         <v>HV307986-XX</v>
       </c>
       <c r="V11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -28084,7 +28325,7 @@
         <v>10011984549</v>
       </c>
       <c r="V12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -28093,7 +28334,7 @@
         <v>HV311169-XX</v>
       </c>
       <c r="V13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -28102,7 +28343,7 @@
         <v>4365870010-004</v>
       </c>
       <c r="V14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -28111,7 +28352,7 @@
         <v>HV307986-XX</v>
       </c>
       <c r="V15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -28120,7 +28361,7 @@
         <v>4544520010-006</v>
       </c>
       <c r="V16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="2:22">
@@ -28129,7 +28370,7 @@
         <v>28800202</v>
       </c>
       <c r="V17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="2:22">
@@ -28138,7 +28379,7 @@
         <v>10007618049</v>
       </c>
       <c r="V18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="2:22">
@@ -28147,7 +28388,7 @@
         <v>10008511425</v>
       </c>
       <c r="V19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="2:22">
@@ -28156,7 +28397,7 @@
         <v>10008511425</v>
       </c>
       <c r="V20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="2:22">
@@ -28165,7 +28406,7 @@
         <v>10005591672</v>
       </c>
       <c r="V21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="2:22">
@@ -28174,7 +28415,7 @@
         <v>10008507813</v>
       </c>
       <c r="V22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="2:22">
@@ -28183,7 +28424,7 @@
         <v>10008507813</v>
       </c>
       <c r="V23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="2:22">
@@ -28192,7 +28433,7 @@
         <v>10008507813</v>
       </c>
       <c r="V24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="2:22">
@@ -28201,7 +28442,7 @@
         <v>HVHV307987-XX</v>
       </c>
       <c r="V25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="2:22">
@@ -28210,7 +28451,7 @@
         <v>HV307986-XX</v>
       </c>
       <c r="V26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="2:22">
@@ -28219,7 +28460,7 @@
         <v>HV307986-XX</v>
       </c>
       <c r="V27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="2:22">
@@ -28228,7 +28469,7 @@
         <v>HV307986-XX</v>
       </c>
       <c r="V28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="2:22">
@@ -28237,7 +28478,7 @@
         <v>HV307986-XX</v>
       </c>
       <c r="V29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="2:22">
@@ -28246,7 +28487,7 @@
         <v>HV307986-XX</v>
       </c>
       <c r="V30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="2:22">
@@ -28255,7 +28496,7 @@
         <v>RML-W-064709</v>
       </c>
       <c r="V31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="2:22">
@@ -28264,7 +28505,7 @@
         <v>HV311126-02</v>
       </c>
       <c r="V32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="2:22">
@@ -28273,7 +28514,7 @@
         <v>HV307986-XX</v>
       </c>
       <c r="V33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="2:22">
@@ -28282,7 +28523,7 @@
         <v>HV307164-XX</v>
       </c>
       <c r="V34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="2:22">
@@ -28291,7 +28532,7 @@
         <v>10005864826</v>
       </c>
       <c r="V35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="2:22">
@@ -28300,7 +28541,7 @@
         <v>10004229966</v>
       </c>
       <c r="V36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="2:22">
@@ -28309,7 +28550,7 @@
         <v>10008755474</v>
       </c>
       <c r="V37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="2:22">
@@ -28318,7 +28559,7 @@
         <v>10010360769</v>
       </c>
       <c r="V38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="2:22">
@@ -28327,7 +28568,7 @@
         <v>10009890643</v>
       </c>
       <c r="V39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="2:22">
@@ -28336,7 +28577,7 @@
         <v>10009855888</v>
       </c>
       <c r="V40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="2:22">
@@ -28345,7 +28586,7 @@
         <v>10004980103</v>
       </c>
       <c r="V41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="2:22">
@@ -28354,7 +28595,7 @@
         <v>10004976811</v>
       </c>
       <c r="V42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="2:22">
@@ -28363,7 +28604,7 @@
         <v>10004963667</v>
       </c>
       <c r="V43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="2:22">
@@ -28372,7 +28613,7 @@
         <v>10008507821</v>
       </c>
       <c r="V44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="2:22">
@@ -28381,7 +28622,7 @@
         <v>10008507821</v>
       </c>
       <c r="V45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="2:22">
@@ -28390,7 +28631,7 @@
         <v>10008514727</v>
       </c>
       <c r="V46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="2:22">
@@ -28399,7 +28640,7 @@
         <v>10006001743</v>
       </c>
       <c r="V47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="2:22">
@@ -28408,7 +28649,7 @@
         <v>10006000456</v>
       </c>
       <c r="V48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="2:22">
@@ -28417,7 +28658,7 @@
         <v>10004254702</v>
       </c>
       <c r="V49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="2:22">
@@ -28426,7 +28667,7 @@
         <v>10003058629</v>
       </c>
       <c r="V50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="2:22">
@@ -28435,7 +28676,7 @@
         <v>10005184725</v>
       </c>
       <c r="V51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="2:22">
@@ -28444,7 +28685,7 @@
         <v>10005675337</v>
       </c>
       <c r="V52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="2:22">
@@ -28453,7 +28694,7 @@
         <v>10005159680</v>
       </c>
       <c r="V53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="2:22">
@@ -28462,7 +28703,7 @@
         <v>10006836848</v>
       </c>
       <c r="V54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="2:22">
@@ -28471,7 +28712,7 @@
         <v>10006836881</v>
       </c>
       <c r="V55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="2:22">
@@ -28480,7 +28721,7 @@
         <v>10006504723</v>
       </c>
       <c r="V56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="2:22">
@@ -28521,7 +28762,7 @@
     </row>
     <row r="64" spans="2:22">
       <c r="B64" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="2:2">
@@ -28646,12 +28887,12 @@
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="91" spans="2:2">
@@ -28731,17 +28972,17 @@
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="109" spans="2:2">
@@ -28956,7 +29197,7 @@
     </row>
     <row r="151" spans="2:2">
       <c r="B151" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="152" spans="2:2">
@@ -28966,7 +29207,7 @@
     </row>
     <row r="153" spans="2:2">
       <c r="B153" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="154" spans="2:2">
@@ -29081,12 +29322,12 @@
     </row>
     <row r="176" spans="2:2">
       <c r="B176" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" s="15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="178" spans="2:2">
@@ -29211,7 +29452,7 @@
     </row>
     <row r="202" spans="2:2">
       <c r="B202" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="203" spans="2:2">
@@ -29226,7 +29467,7 @@
     </row>
     <row r="205" spans="2:2">
       <c r="B205" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="206" spans="2:2">
@@ -29301,12 +29542,12 @@
     </row>
     <row r="220" spans="2:2">
       <c r="B220" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="221" spans="2:2">
       <c r="B221" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -29336,10 +29577,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA1C6DF-1C6F-4A7E-AA08-F9BD66EE655C}">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29358,13 +29599,13 @@
     </row>
     <row r="2" spans="1:10">
       <c r="B2" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J3" s="12"/>
     </row>
@@ -29376,7 +29617,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J5" s="12"/>
     </row>
@@ -29388,19 +29629,19 @@
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J9" s="12"/>
     </row>
@@ -29418,7 +29659,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J12" s="12"/>
     </row>
@@ -29435,12 +29676,12 @@
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -29460,27 +29701,27 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="2:2">
@@ -29505,17 +29746,17 @@
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="2:2">
@@ -29555,12 +29796,12 @@
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="2:2">
@@ -29585,12 +29826,12 @@
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="2:2">
@@ -29605,37 +29846,37 @@
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="2:2">
@@ -29645,22 +29886,22 @@
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="2:2">
@@ -29670,7 +29911,7 @@
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="63" spans="2:2">
@@ -29680,22 +29921,22 @@
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="68" spans="2:2">
@@ -29705,7 +29946,7 @@
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="2:2">
@@ -29720,17 +29961,77 @@
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="15" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="15" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="15" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="15" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="15" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="15" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="15" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="15" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -29781,7 +30082,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="B2" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -29796,27 +30097,27 @@
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8179994B-E224-47BF-BACD-01C6EEF0332E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1B6D9C-8315-4131-AC3D-F9E40D934519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="1" activeTab="5" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCESSOS DE FABRICAÇÃO" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="513">
   <si>
     <t>ORCAMENTO</t>
   </si>
@@ -1554,6 +1554,27 @@
   </si>
   <si>
     <t>HV309125-03</t>
+  </si>
+  <si>
+    <t>HVHV311657-01</t>
+  </si>
+  <si>
+    <t>HVHV305342-08</t>
+  </si>
+  <si>
+    <t>HVHV311668-01</t>
+  </si>
+  <si>
+    <t>HVHV309125-03</t>
+  </si>
+  <si>
+    <t>4309440010-003</t>
+  </si>
+  <si>
+    <t>4309440010-004</t>
+  </si>
+  <si>
+    <t>HVHV311642-02</t>
   </si>
 </sst>
 </file>
@@ -2607,8 +2628,8 @@
   <dimension ref="A1:AV540"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A332" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D359" sqref="D359"/>
+      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E365" sqref="E365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2790,14 +2811,14 @@
       </c>
       <c r="AL2" s="1">
         <f>SUM(G2:G500)</f>
-        <v>6018</v>
+        <v>6098</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN2" s="21">
         <f>AL2/AL23</f>
-        <v>0.12205831945692362</v>
+        <v>0.12088580870385751</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -2866,21 +2887,21 @@
       </c>
       <c r="AN3" s="21">
         <f>AL3/AL23</f>
-        <v>8.482018809718421E-2</v>
+        <v>8.2903321088804868E-2</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>470</v>
       </c>
       <c r="AQ3" s="1">
         <f>SUM(AL2:AL5)</f>
-        <v>10502.3</v>
+        <v>10582.3</v>
       </c>
       <c r="AR3" t="s">
         <v>22</v>
       </c>
       <c r="AS3" s="21">
         <f>AQ3/AL23</f>
-        <v>0.21300981861622614</v>
+        <v>0.20978187823004776</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -2951,7 +2972,7 @@
       </c>
       <c r="AN4" s="21">
         <f>AL4/AL23</f>
-        <v>5.9893356157576516E-3</v>
+        <v>5.8539815202114012E-3</v>
       </c>
       <c r="AP4" s="1"/>
       <c r="AS4" s="1"/>
@@ -3024,21 +3045,21 @@
       </c>
       <c r="AN5" s="21">
         <f>AL5/AL23</f>
-        <v>1.4197544636066224E-4</v>
+        <v>1.3876691717399191E-4</v>
       </c>
       <c r="AP5" s="1" t="s">
         <v>471</v>
       </c>
       <c r="AQ5" s="1">
         <f>SUM(AL6:AL7)</f>
-        <v>3107</v>
+        <v>3122</v>
       </c>
       <c r="AR5" t="s">
         <v>22</v>
       </c>
       <c r="AS5" s="21">
         <f>AQ5/AL23</f>
-        <v>6.301681597751109E-2</v>
+        <v>6.1890045059600385E-2</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -3109,7 +3130,7 @@
       </c>
       <c r="AN6" s="21">
         <f>AL6/AL23</f>
-        <v>5.7865135495281342E-2</v>
+        <v>5.6557430671056987E-2</v>
       </c>
       <c r="AS6" s="1"/>
     </row>
@@ -3174,28 +3195,28 @@
       </c>
       <c r="AL7" s="1">
         <f>SUM(L2:L501)</f>
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="AM7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN7" s="21">
         <f>AL7/AL23</f>
-        <v>5.1516804822297445E-3</v>
+        <v>5.3326143885434026E-3</v>
       </c>
       <c r="AP7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AQ7" s="1">
         <f>AL8</f>
-        <v>6473</v>
+        <v>6673</v>
       </c>
       <c r="AR7" t="s">
         <v>22</v>
       </c>
       <c r="AS7" s="22">
         <f>AN8</f>
-        <v>0.13128672347036668</v>
+        <v>0.13228451975743541</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -3259,14 +3280,14 @@
       </c>
       <c r="AL8" s="1">
         <f>SUM(M2:M499)</f>
-        <v>6473</v>
+        <v>6673</v>
       </c>
       <c r="AM8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN8" s="21">
         <f>AL8/AL23</f>
-        <v>0.13128672347036668</v>
+        <v>0.13228451975743541</v>
       </c>
       <c r="AS8" s="1"/>
     </row>
@@ -3331,28 +3352,28 @@
       </c>
       <c r="AL9" s="1">
         <f>SUM(N2:N501)</f>
-        <v>2446</v>
+        <v>2586</v>
       </c>
       <c r="AM9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN9" s="21">
         <f>AL9/AL23</f>
-        <v>4.9610277399739978E-2</v>
+        <v>5.1264463973134722E-2</v>
       </c>
       <c r="AP9" s="1" t="s">
         <v>469</v>
       </c>
       <c r="AQ9" s="1">
         <f>AL9</f>
-        <v>2446</v>
+        <v>2586</v>
       </c>
       <c r="AR9" t="s">
         <v>22</v>
       </c>
       <c r="AS9" s="22">
         <f>AN9</f>
-        <v>4.9610277399739978E-2</v>
+        <v>5.1264463973134722E-2</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -3416,14 +3437,14 @@
       </c>
       <c r="AL10" s="1">
         <f>SUM(O2:O500)</f>
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="AM10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN10" s="21">
         <f>AL10/AL23</f>
-        <v>3.0017665801968588E-3</v>
+        <v>3.3304060121758057E-3</v>
       </c>
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
@@ -3490,28 +3511,28 @@
       </c>
       <c r="AL11" s="1">
         <f>SUM(P2:P500)</f>
-        <v>699</v>
+        <v>734</v>
       </c>
       <c r="AM11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN11" s="21">
         <f>AL11/AL23</f>
-        <v>1.4177262429443272E-2</v>
+        <v>1.4550702457958579E-2</v>
       </c>
       <c r="AP11" s="1" t="s">
         <v>472</v>
       </c>
       <c r="AQ11" s="1">
         <f>SUM(AL10:AL12)</f>
-        <v>1333</v>
+        <v>1388</v>
       </c>
       <c r="AR11" t="s">
         <v>22</v>
       </c>
       <c r="AS11" s="22">
         <f>AQ11/AL23</f>
-        <v>2.7036181428394684E-2</v>
+        <v>2.7515497291071538E-2</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -3580,7 +3601,7 @@
       </c>
       <c r="AN12" s="21">
         <f>AL12/AL23</f>
-        <v>9.8571524187545511E-3</v>
+        <v>9.6343888209371523E-3</v>
       </c>
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
@@ -3650,7 +3671,7 @@
       </c>
       <c r="AN13" s="21">
         <f>AL13/AL23</f>
-        <v>1.8253985960656575E-3</v>
+        <v>1.7841460779513243E-3</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>13</v>
@@ -3664,7 +3685,7 @@
       </c>
       <c r="AS13" s="22">
         <f>AQ13/AL23</f>
-        <v>1.8253985960656575E-3</v>
+        <v>1.7841460779513243E-3</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -3727,7 +3748,7 @@
       </c>
       <c r="AN14" s="21">
         <f>AL14/AL23</f>
-        <v>2.4338647947542099E-3</v>
+        <v>2.3788614372684327E-3</v>
       </c>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
@@ -3813,7 +3834,7 @@
       </c>
       <c r="AS15" s="22">
         <f>AN14</f>
-        <v>2.4338647947542099E-3</v>
+        <v>2.3788614372684327E-3</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -3877,14 +3898,14 @@
       </c>
       <c r="AL16" s="1">
         <f>SUM(U4:U499)</f>
-        <v>13919</v>
+        <v>14199</v>
       </c>
       <c r="AM16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN16" s="21">
         <f>AL16/AL23</f>
-        <v>0.28230803398486543</v>
+        <v>0.28147877956478728</v>
       </c>
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1"/>
@@ -3945,14 +3966,14 @@
       </c>
       <c r="AL17" s="1">
         <f>SUM(V11:V499)</f>
-        <v>4870</v>
+        <v>5065</v>
       </c>
       <c r="AM17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN17" s="21">
         <f>AL17/AL23</f>
-        <v>9.8774346253775014E-2</v>
+        <v>0.10040777649803842</v>
       </c>
       <c r="AP17" s="1" t="s">
         <v>14</v>
@@ -4033,7 +4054,7 @@
       </c>
       <c r="AN18" s="21">
         <f>AL18/AL23</f>
-        <v>1.3548514024131769E-2</v>
+        <v>1.3242328667460942E-2</v>
       </c>
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
@@ -4094,28 +4115,28 @@
       </c>
       <c r="AL19" s="1">
         <f>SUM(X10:X500)</f>
-        <v>3143</v>
+        <v>3158</v>
       </c>
       <c r="AM19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN19" s="21">
         <f>AL19/AL23</f>
-        <v>6.3746975415937351E-2</v>
+        <v>6.2603703490780913E-2</v>
       </c>
       <c r="AP19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AQ19" s="1">
         <f>AL16</f>
-        <v>13919</v>
+        <v>14199</v>
       </c>
       <c r="AR19" t="s">
         <v>22</v>
       </c>
       <c r="AS19" s="22">
         <f>AN16</f>
-        <v>0.28230803398486543</v>
+        <v>0.28147877956478728</v>
       </c>
     </row>
     <row r="20" spans="1:46">
@@ -4179,14 +4200,14 @@
       </c>
       <c r="AL20" s="1">
         <f>SUM(Y5:Y499)</f>
-        <v>2573</v>
+        <v>2733</v>
       </c>
       <c r="AM20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN20" s="21">
         <f>AL20/AL23</f>
-        <v>5.2186117640854852E-2</v>
+        <v>5.4178569233788554E-2</v>
       </c>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
@@ -4262,21 +4283,21 @@
       </c>
       <c r="AN21" s="21">
         <f>AL21/AL23</f>
-        <v>1.216932397377105E-3</v>
+        <v>1.1894307186342164E-3</v>
       </c>
       <c r="AP21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AQ21" s="1">
         <f>AL17</f>
-        <v>4870</v>
+        <v>5065</v>
       </c>
       <c r="AR21" t="s">
         <v>22</v>
       </c>
       <c r="AS21" s="22">
         <f>AN17</f>
-        <v>9.8774346253775014E-2</v>
+        <v>0.10040777649803842</v>
       </c>
     </row>
     <row r="22" spans="1:46">
@@ -4404,7 +4425,7 @@
       </c>
       <c r="AL23" s="1">
         <f>SUM(AL2:AL21)</f>
-        <v>49304.3</v>
+        <v>50444.3</v>
       </c>
       <c r="AM23" s="1" t="s">
         <v>22</v>
@@ -4421,7 +4442,7 @@
       </c>
       <c r="AS23" s="22">
         <f>AN18</f>
-        <v>1.3548514024131769E-2</v>
+        <v>1.3242328667460942E-2</v>
       </c>
     </row>
     <row r="24" spans="1:46">
@@ -4545,14 +4566,14 @@
       </c>
       <c r="AQ25" s="1">
         <f>AL19</f>
-        <v>3143</v>
+        <v>3158</v>
       </c>
       <c r="AR25" t="s">
         <v>22</v>
       </c>
       <c r="AS25" s="22">
         <f>AN19</f>
-        <v>6.3746975415937351E-2</v>
+        <v>6.2603703490780913E-2</v>
       </c>
     </row>
     <row r="26" spans="1:46">
@@ -4672,14 +4693,14 @@
       </c>
       <c r="AQ27" s="1">
         <f>AL20</f>
-        <v>2573</v>
+        <v>2733</v>
       </c>
       <c r="AR27" t="s">
         <v>22</v>
       </c>
       <c r="AS27" s="22">
         <f>AN20</f>
-        <v>5.2186117640854852E-2</v>
+        <v>5.4178569233788554E-2</v>
       </c>
     </row>
     <row r="28" spans="1:46">
@@ -4806,7 +4827,7 @@
       </c>
       <c r="AS29" s="22">
         <f>AN21</f>
-        <v>1.216932397377105E-3</v>
+        <v>1.1894307186342164E-3</v>
       </c>
     </row>
     <row r="30" spans="1:46">
@@ -4926,14 +4947,14 @@
       </c>
       <c r="AQ31" s="1">
         <f>SUM(AQ3:AQ29)</f>
-        <v>49304.3</v>
+        <v>50444.3</v>
       </c>
       <c r="AR31" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AS31" s="23">
         <f>SUM(AS3:AS29)</f>
-        <v>1.0000000000000002</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="AT31" s="20"/>
     </row>
@@ -20697,29 +20718,53 @@
       <c r="A357" s="1">
         <v>357</v>
       </c>
-      <c r="B357" s="1"/>
-      <c r="C357" s="1"/>
-      <c r="D357" s="1"/>
-      <c r="E357" s="1"/>
-      <c r="F357" s="1"/>
-      <c r="G357" s="1"/>
+      <c r="B357" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C357" s="1">
+        <v>697</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G357" s="1">
+        <v>15</v>
+      </c>
       <c r="H357" s="1"/>
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
       <c r="K357" s="1"/>
       <c r="L357" s="1"/>
-      <c r="M357" s="1"/>
-      <c r="N357" s="1"/>
+      <c r="M357" s="1">
+        <v>15</v>
+      </c>
+      <c r="N357" s="1">
+        <v>10</v>
+      </c>
       <c r="O357" s="1"/>
-      <c r="P357" s="1"/>
+      <c r="P357" s="1">
+        <v>10</v>
+      </c>
       <c r="Q357" s="1"/>
       <c r="R357" s="1"/>
-      <c r="U357" s="1"/>
-      <c r="V357" s="1"/>
-      <c r="Y357" s="1"/>
+      <c r="U357" s="1">
+        <v>45</v>
+      </c>
+      <c r="V357" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y357" s="1">
+        <v>15</v>
+      </c>
       <c r="AA357" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="AB357" s="1" t="s">
         <v>22</v>
@@ -20729,29 +20774,47 @@
       <c r="A358" s="1">
         <v>358</v>
       </c>
-      <c r="B358" s="1"/>
-      <c r="C358" s="1"/>
-      <c r="D358" s="1"/>
-      <c r="E358" s="1"/>
-      <c r="F358" s="1"/>
-      <c r="G358" s="1"/>
+      <c r="B358" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C358" s="1">
+        <v>570</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G358" s="1">
+        <v>5</v>
+      </c>
       <c r="H358" s="1"/>
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
       <c r="K358" s="1"/>
       <c r="L358" s="1"/>
-      <c r="M358" s="1"/>
+      <c r="M358" s="1">
+        <v>10</v>
+      </c>
       <c r="N358" s="1"/>
       <c r="O358" s="1"/>
       <c r="P358" s="1"/>
       <c r="Q358" s="1"/>
       <c r="R358" s="1"/>
-      <c r="U358" s="1"/>
-      <c r="V358" s="1"/>
+      <c r="U358" s="1">
+        <v>10</v>
+      </c>
+      <c r="V358" s="1">
+        <v>5</v>
+      </c>
       <c r="Y358" s="1"/>
       <c r="AA358" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB358" s="1" t="s">
         <v>22</v>
@@ -20761,29 +20824,53 @@
       <c r="A359" s="1">
         <v>359</v>
       </c>
-      <c r="B359" s="1"/>
-      <c r="C359" s="1"/>
-      <c r="D359" s="1"/>
-      <c r="E359" s="1"/>
-      <c r="F359" s="1"/>
-      <c r="G359" s="1"/>
+      <c r="B359" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C359" s="1">
+        <v>704</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G359" s="1">
+        <v>15</v>
+      </c>
       <c r="H359" s="1"/>
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
       <c r="K359" s="1"/>
       <c r="L359" s="1"/>
-      <c r="M359" s="1"/>
-      <c r="N359" s="1"/>
+      <c r="M359" s="1">
+        <v>15</v>
+      </c>
+      <c r="N359" s="1">
+        <v>10</v>
+      </c>
       <c r="O359" s="1"/>
-      <c r="P359" s="1"/>
+      <c r="P359" s="1">
+        <v>10</v>
+      </c>
       <c r="Q359" s="1"/>
       <c r="R359" s="1"/>
-      <c r="U359" s="1"/>
-      <c r="V359" s="1"/>
-      <c r="Y359" s="1"/>
+      <c r="U359" s="1">
+        <v>45</v>
+      </c>
+      <c r="V359" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y359" s="1">
+        <v>15</v>
+      </c>
       <c r="AA359" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="AB359" s="1" t="s">
         <v>22</v>
@@ -20793,29 +20880,49 @@
       <c r="A360" s="1">
         <v>360</v>
       </c>
-      <c r="B360" s="1"/>
-      <c r="C360" s="1"/>
-      <c r="D360" s="1"/>
-      <c r="E360" s="1"/>
-      <c r="F360" s="1"/>
-      <c r="G360" s="1"/>
+      <c r="B360" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G360" s="1">
+        <v>5</v>
+      </c>
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
       <c r="K360" s="1"/>
-      <c r="L360" s="1"/>
+      <c r="L360" s="1">
+        <v>15</v>
+      </c>
       <c r="M360" s="1"/>
       <c r="N360" s="1"/>
       <c r="O360" s="1"/>
-      <c r="P360" s="1"/>
+      <c r="P360" s="1">
+        <v>15</v>
+      </c>
       <c r="Q360" s="1"/>
       <c r="R360" s="1"/>
       <c r="U360" s="1"/>
-      <c r="V360" s="1"/>
-      <c r="Y360" s="1"/>
+      <c r="V360" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y360" s="1">
+        <v>10</v>
+      </c>
       <c r="AA360" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB360" s="1" t="s">
         <v>22</v>
@@ -20825,29 +20932,51 @@
       <c r="A361" s="1">
         <v>361</v>
       </c>
-      <c r="B361" s="1"/>
-      <c r="C361" s="1"/>
-      <c r="D361" s="1"/>
-      <c r="E361" s="1"/>
-      <c r="F361" s="1"/>
-      <c r="G361" s="1"/>
+      <c r="B361" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C361" s="1">
+        <v>697</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G361" s="1">
+        <v>30</v>
+      </c>
       <c r="H361" s="1"/>
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
       <c r="K361" s="1"/>
       <c r="L361" s="1"/>
-      <c r="M361" s="1"/>
-      <c r="N361" s="1"/>
+      <c r="M361" s="1">
+        <v>120</v>
+      </c>
+      <c r="N361" s="1">
+        <v>90</v>
+      </c>
       <c r="O361" s="1"/>
       <c r="P361" s="1"/>
       <c r="Q361" s="1"/>
       <c r="R361" s="1"/>
-      <c r="U361" s="1"/>
-      <c r="V361" s="1"/>
-      <c r="Y361" s="1"/>
+      <c r="U361" s="1">
+        <v>180</v>
+      </c>
+      <c r="V361" s="1">
+        <v>120</v>
+      </c>
+      <c r="Y361" s="1">
+        <v>120</v>
+      </c>
       <c r="AA361" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="AB361" s="1" t="s">
         <v>22</v>
@@ -20857,29 +20986,45 @@
       <c r="A362" s="1">
         <v>362</v>
       </c>
-      <c r="B362" s="1"/>
-      <c r="C362" s="1"/>
-      <c r="D362" s="1"/>
-      <c r="E362" s="1"/>
-      <c r="F362" s="1"/>
-      <c r="G362" s="1"/>
+      <c r="B362" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C362" s="1">
+        <v>691</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G362" s="1">
+        <v>5</v>
+      </c>
       <c r="H362" s="1"/>
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
       <c r="K362" s="1"/>
       <c r="L362" s="1"/>
-      <c r="M362" s="1"/>
+      <c r="M362" s="1">
+        <v>40</v>
+      </c>
       <c r="N362" s="1"/>
       <c r="O362" s="1"/>
       <c r="P362" s="1"/>
       <c r="Q362" s="1"/>
       <c r="R362" s="1"/>
       <c r="U362" s="1"/>
-      <c r="V362" s="1"/>
+      <c r="V362" s="1">
+        <v>15</v>
+      </c>
       <c r="Y362" s="1"/>
       <c r="AA362" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB362" s="1" t="s">
         <v>22</v>
@@ -20889,29 +21034,50 @@
       <c r="A363" s="1">
         <v>363</v>
       </c>
-      <c r="B363" s="1"/>
-      <c r="C363" s="1"/>
-      <c r="D363" s="1"/>
-      <c r="E363" s="1"/>
-      <c r="F363" s="1"/>
-      <c r="G363" s="1"/>
+      <c r="B363" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C363" s="1">
+        <v>661</v>
+      </c>
+      <c r="D363" s="1">
+        <v>10010879187</v>
+      </c>
+      <c r="E363" s="1">
+        <v>17234524</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G363" s="1">
+        <v>5</v>
+      </c>
       <c r="H363" s="1"/>
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
       <c r="K363" s="1"/>
       <c r="L363" s="1"/>
       <c r="M363" s="1"/>
-      <c r="N363" s="1"/>
-      <c r="O363" s="1"/>
+      <c r="N363" s="1">
+        <v>30</v>
+      </c>
+      <c r="O363" s="1">
+        <v>20</v>
+      </c>
       <c r="P363" s="1"/>
       <c r="Q363" s="1"/>
       <c r="R363" s="1"/>
       <c r="U363" s="1"/>
-      <c r="V363" s="1"/>
+      <c r="V363" s="1">
+        <v>10</v>
+      </c>
+      <c r="X363" s="1">
+        <v>15</v>
+      </c>
       <c r="Y363" s="1"/>
       <c r="AA363" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB363" s="1" t="s">
         <v>22</v>
@@ -26150,7 +26316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9D6A0A-58D8-491B-8520-AA2E6E8E4A66}">
   <dimension ref="A1:B278"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -27582,7 +27748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFED1B6-6669-418D-935F-274B00B50F32}">
   <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -28205,8 +28371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF03CF93-A241-4DB9-ACD8-61B0F18F4B55}">
   <dimension ref="A1:V221"/>
   <sheetViews>
-    <sheetView topLeftCell="A211" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E219" sqref="E219"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B200" sqref="B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29577,10 +29743,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA1C6DF-1C6F-4A7E-AA08-F9BD66EE655C}">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30032,6 +30198,36 @@
     <row r="86" spans="2:2">
       <c r="B86" s="15" t="s">
         <v>496</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="15" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="15" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="15" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="15">
+        <v>10010879187</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="15" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="15" t="s">
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -30063,7 +30259,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30096,27 +30292,27 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="15" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="15" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="15" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="15" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="15" t="s">
         <v>187</v>
       </c>
     </row>

--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1B6D9C-8315-4131-AC3D-F9E40D934519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB77B85-D1E8-42D5-A1BB-6B26DD19F093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="5" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCESSOS DE FABRICAÇÃO" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="494">
   <si>
     <t>ORCAMENTO</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>DOBRADEIRA</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
   </si>
   <si>
     <t>WEG</t>
@@ -1515,66 +1518,6 @@
   </si>
   <si>
     <t>N4-0200344</t>
-  </si>
-  <si>
-    <t>HV400308-02</t>
-  </si>
-  <si>
-    <t>PM-PRT3690.1</t>
-  </si>
-  <si>
-    <t>HVHV307987-XX ITEM 01</t>
-  </si>
-  <si>
-    <t>HV310705-08</t>
-  </si>
-  <si>
-    <t>HV309125-02</t>
-  </si>
-  <si>
-    <t>HVHV309125-02</t>
-  </si>
-  <si>
-    <t>HVHV400308-02</t>
-  </si>
-  <si>
-    <t>HVEX</t>
-  </si>
-  <si>
-    <t>HVHV310705-08</t>
-  </si>
-  <si>
-    <t>4574520010-002</t>
-  </si>
-  <si>
-    <t>HV305342-08</t>
-  </si>
-  <si>
-    <t>HV311668-01</t>
-  </si>
-  <si>
-    <t>HV309125-03</t>
-  </si>
-  <si>
-    <t>HVHV311657-01</t>
-  </si>
-  <si>
-    <t>HVHV305342-08</t>
-  </si>
-  <si>
-    <t>HVHV311668-01</t>
-  </si>
-  <si>
-    <t>HVHV309125-03</t>
-  </si>
-  <si>
-    <t>4309440010-003</t>
-  </si>
-  <si>
-    <t>4309440010-004</t>
-  </si>
-  <si>
-    <t>HVHV311642-02</t>
   </si>
 </sst>
 </file>
@@ -2628,8 +2571,8 @@
   <dimension ref="A1:AV540"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E365" sqref="E365"/>
+      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E208" sqref="E208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2638,7 +2581,7 @@
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -2670,8 +2613,8 @@
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>127</v>
+      <c r="B1" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -2707,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>11</v>
@@ -2722,7 +2665,7 @@
         <v>13</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>14</v>
@@ -2757,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2">
         <v>514</v>
@@ -2811,14 +2754,14 @@
       </c>
       <c r="AL2" s="1">
         <f>SUM(G2:G500)</f>
-        <v>6098</v>
+        <v>5948</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN2" s="21">
         <f>AL2/AL23</f>
-        <v>0.12088580870385751</v>
+        <v>0.12263664666707903</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -2826,7 +2769,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2">
         <v>514</v>
@@ -2876,32 +2819,32 @@
         <v>22</v>
       </c>
       <c r="AK3" s="8" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AL3" s="1">
         <f>SUM(H2:H500)</f>
-        <v>4182</v>
+        <v>4137</v>
       </c>
       <c r="AM3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN3" s="21">
         <f>AL3/AL23</f>
-        <v>8.2903321088804868E-2</v>
+        <v>8.5297210366796564E-2</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AQ3" s="1">
         <f>SUM(AL2:AL5)</f>
-        <v>10582.3</v>
+        <v>10359</v>
       </c>
       <c r="AR3" t="s">
         <v>22</v>
       </c>
       <c r="AS3" s="21">
         <f>AQ3/AL23</f>
-        <v>0.20978187823004776</v>
+        <v>0.21358322508814251</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -2909,7 +2852,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2">
         <v>514</v>
@@ -2961,18 +2904,18 @@
         <v>22</v>
       </c>
       <c r="AK4" s="8" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AL4" s="1">
         <f>SUM(I2:I499)</f>
-        <v>295.3</v>
+        <v>267</v>
       </c>
       <c r="AM4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN4" s="21">
         <f>AL4/AL23</f>
-        <v>5.8539815202114012E-3</v>
+        <v>5.5050411331725117E-3</v>
       </c>
       <c r="AP4" s="1"/>
       <c r="AS4" s="1"/>
@@ -2982,7 +2925,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2">
         <v>514</v>
@@ -3034,7 +2977,7 @@
         <v>22</v>
       </c>
       <c r="AK5" s="8" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AL5" s="1">
         <f>SUM(J2:J500)</f>
@@ -3045,21 +2988,21 @@
       </c>
       <c r="AN5" s="21">
         <f>AL5/AL23</f>
-        <v>1.3876691717399191E-4</v>
+        <v>1.4432692109441042E-4</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AQ5" s="1">
         <f>SUM(AL6:AL7)</f>
-        <v>3122</v>
+        <v>3082</v>
       </c>
       <c r="AR5" t="s">
         <v>22</v>
       </c>
       <c r="AS5" s="21">
         <f>AQ5/AL23</f>
-        <v>6.1890045059600385E-2</v>
+        <v>6.3545081544710419E-2</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -3067,7 +3010,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2">
         <v>514</v>
@@ -3123,14 +3066,14 @@
       </c>
       <c r="AL6" s="1">
         <f>SUM(K2:K501)</f>
-        <v>2853</v>
+        <v>2843</v>
       </c>
       <c r="AM6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN6" s="21">
         <f>AL6/AL23</f>
-        <v>5.6557430671056987E-2</v>
+        <v>5.8617348095915546E-2</v>
       </c>
       <c r="AS6" s="1"/>
     </row>
@@ -3139,7 +3082,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2">
         <v>514</v>
@@ -3195,28 +3138,28 @@
       </c>
       <c r="AL7" s="1">
         <f>SUM(L2:L501)</f>
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="AM7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN7" s="21">
         <f>AL7/AL23</f>
-        <v>5.3326143885434026E-3</v>
+        <v>4.9277334487948703E-3</v>
       </c>
       <c r="AP7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AQ7" s="1">
         <f>AL8</f>
-        <v>6673</v>
+        <v>6313</v>
       </c>
       <c r="AR7" t="s">
         <v>22</v>
       </c>
       <c r="AS7" s="22">
         <f>AN8</f>
-        <v>0.13228451975743541</v>
+        <v>0.13016226469557329</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -3224,7 +3167,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2">
         <v>514</v>
@@ -3280,14 +3223,14 @@
       </c>
       <c r="AL8" s="1">
         <f>SUM(M2:M499)</f>
-        <v>6673</v>
+        <v>6313</v>
       </c>
       <c r="AM8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN8" s="21">
         <f>AL8/AL23</f>
-        <v>0.13228451975743541</v>
+        <v>0.13016226469557329</v>
       </c>
       <c r="AS8" s="1"/>
     </row>
@@ -3296,7 +3239,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2">
         <v>514</v>
@@ -3348,32 +3291,32 @@
         <v>22</v>
       </c>
       <c r="AK9" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AL9" s="1">
         <f>SUM(N2:N501)</f>
-        <v>2586</v>
+        <v>2396</v>
       </c>
       <c r="AM9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN9" s="21">
         <f>AL9/AL23</f>
-        <v>5.1264463973134722E-2</v>
+        <v>4.9401043277458194E-2</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AQ9" s="1">
         <f>AL9</f>
-        <v>2586</v>
+        <v>2396</v>
       </c>
       <c r="AR9" t="s">
         <v>22</v>
       </c>
       <c r="AS9" s="22">
         <f>AN9</f>
-        <v>5.1264463973134722E-2</v>
+        <v>4.9401043277458194E-2</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -3381,7 +3324,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2">
         <v>650</v>
@@ -3437,14 +3380,14 @@
       </c>
       <c r="AL10" s="1">
         <f>SUM(O2:O500)</f>
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="AM10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN10" s="21">
         <f>AL10/AL23</f>
-        <v>3.3304060121758057E-3</v>
+        <v>3.0514834745675348E-3</v>
       </c>
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
@@ -3455,7 +3398,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2">
         <v>648</v>
@@ -3511,28 +3454,28 @@
       </c>
       <c r="AL11" s="1">
         <f>SUM(P2:P500)</f>
-        <v>734</v>
+        <v>689</v>
       </c>
       <c r="AM11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN11" s="21">
         <f>AL11/AL23</f>
-        <v>1.4550702457958579E-2</v>
+        <v>1.420589266200697E-2</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AQ11" s="1">
         <f>SUM(AL10:AL12)</f>
-        <v>1388</v>
+        <v>1318</v>
       </c>
       <c r="AR11" t="s">
         <v>22</v>
       </c>
       <c r="AS11" s="22">
         <f>AQ11/AL23</f>
-        <v>2.7515497291071538E-2</v>
+        <v>2.7174697428918992E-2</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -3540,7 +3483,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2">
         <v>648</v>
@@ -3594,14 +3537,14 @@
       </c>
       <c r="AL12" s="1">
         <f>SUM(Q2:Q500)</f>
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="AM12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN12" s="21">
         <f>AL12/AL23</f>
-        <v>9.6343888209371523E-3</v>
+        <v>9.9173212923444869E-3</v>
       </c>
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
@@ -3612,7 +3555,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C13" s="2">
         <v>648</v>
@@ -3664,28 +3607,28 @@
       </c>
       <c r="AL13" s="1">
         <f>SUM(R2:R500)</f>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN13" s="21">
         <f>AL13/AL23</f>
-        <v>1.7841460779513243E-3</v>
+        <v>1.7525411847178409E-3</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AQ13" s="1">
         <f>AL13</f>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AR13" t="s">
         <v>22</v>
       </c>
       <c r="AS13" s="22">
         <f>AQ13/AL23</f>
-        <v>1.7841460779513243E-3</v>
+        <v>1.7525411847178409E-3</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -3693,7 +3636,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C14" s="2">
         <v>635</v>
@@ -3737,7 +3680,7 @@
         <v>22</v>
       </c>
       <c r="AK14" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL14" s="1">
         <f>SUM(S5:S501)</f>
@@ -3748,7 +3691,7 @@
       </c>
       <c r="AN14" s="21">
         <f>AL14/AL23</f>
-        <v>2.3788614372684327E-3</v>
+        <v>2.474175790189893E-3</v>
       </c>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
@@ -3759,7 +3702,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2">
         <v>507</v>
@@ -3823,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AQ15" s="1">
         <f>AL14</f>
@@ -3834,7 +3777,7 @@
       </c>
       <c r="AS15" s="22">
         <f>AN14</f>
-        <v>2.3788614372684327E-3</v>
+        <v>2.474175790189893E-3</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -3842,7 +3785,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2">
         <v>606</v>
@@ -3898,14 +3841,14 @@
       </c>
       <c r="AL16" s="1">
         <f>SUM(U4:U499)</f>
-        <v>14199</v>
+        <v>13784</v>
       </c>
       <c r="AM16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN16" s="21">
         <f>AL16/AL23</f>
-        <v>0.28147877956478728</v>
+        <v>0.28420032576647902</v>
       </c>
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1"/>
@@ -3916,7 +3859,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C17" s="2">
         <v>436</v>
@@ -3966,14 +3909,14 @@
       </c>
       <c r="AL17" s="1">
         <f>SUM(V11:V499)</f>
-        <v>5065</v>
+        <v>4695</v>
       </c>
       <c r="AM17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN17" s="21">
         <f>AL17/AL23</f>
-        <v>0.10040777649803842</v>
+        <v>9.6802127791179568E-2</v>
       </c>
       <c r="AP17" s="1" t="s">
         <v>14</v>
@@ -3993,7 +3936,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C18" s="2">
         <v>436</v>
@@ -4047,14 +3990,14 @@
       </c>
       <c r="AL18" s="1">
         <f>SUM(W6:W498)</f>
-        <v>668</v>
+        <v>648</v>
       </c>
       <c r="AM18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN18" s="21">
         <f>AL18/AL23</f>
-        <v>1.3242328667460942E-2</v>
+        <v>1.3360549267025422E-2</v>
       </c>
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
@@ -4065,7 +4008,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2">
         <v>438</v>
@@ -4115,28 +4058,28 @@
       </c>
       <c r="AL19" s="1">
         <f>SUM(X10:X500)</f>
-        <v>3158</v>
+        <v>3143</v>
       </c>
       <c r="AM19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN19" s="21">
         <f>AL19/AL23</f>
-        <v>6.2603703490780913E-2</v>
+        <v>6.4802787571390283E-2</v>
       </c>
       <c r="AP19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AQ19" s="1">
         <f>AL16</f>
-        <v>14199</v>
+        <v>13784</v>
       </c>
       <c r="AR19" t="s">
         <v>22</v>
       </c>
       <c r="AS19" s="22">
         <f>AN16</f>
-        <v>0.28147877956478728</v>
+        <v>0.28420032576647902</v>
       </c>
     </row>
     <row r="20" spans="1:46">
@@ -4144,7 +4087,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C20" s="2">
         <v>437</v>
@@ -4200,14 +4143,14 @@
       </c>
       <c r="AL20" s="1">
         <f>SUM(Y5:Y499)</f>
-        <v>2733</v>
+        <v>2498</v>
       </c>
       <c r="AM20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN20" s="21">
         <f>AL20/AL23</f>
-        <v>5.4178569233788554E-2</v>
+        <v>5.1504092699119604E-2</v>
       </c>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
@@ -4218,7 +4161,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C21" s="2">
         <v>495</v>
@@ -4283,21 +4226,21 @@
       </c>
       <c r="AN21" s="21">
         <f>AL21/AL23</f>
-        <v>1.1894307186342164E-3</v>
+        <v>1.2370878950949465E-3</v>
       </c>
       <c r="AP21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AQ21" s="1">
         <f>AL17</f>
-        <v>5065</v>
+        <v>4695</v>
       </c>
       <c r="AR21" t="s">
         <v>22</v>
       </c>
       <c r="AS21" s="22">
         <f>AN17</f>
-        <v>0.10040777649803842</v>
+        <v>9.6802127791179568E-2</v>
       </c>
     </row>
     <row r="22" spans="1:46">
@@ -4305,7 +4248,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C22" s="2">
         <v>495</v>
@@ -4369,7 +4312,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" s="6">
         <v>452</v>
@@ -4425,7 +4368,7 @@
       </c>
       <c r="AL23" s="1">
         <f>SUM(AL2:AL21)</f>
-        <v>50444.3</v>
+        <v>48501</v>
       </c>
       <c r="AM23" s="1" t="s">
         <v>22</v>
@@ -4435,14 +4378,14 @@
       </c>
       <c r="AQ23" s="1">
         <f>AL18</f>
-        <v>668</v>
+        <v>648</v>
       </c>
       <c r="AR23" t="s">
         <v>22</v>
       </c>
       <c r="AS23" s="22">
         <f>AN18</f>
-        <v>1.3242328667460942E-2</v>
+        <v>1.3360549267025422E-2</v>
       </c>
     </row>
     <row r="24" spans="1:46">
@@ -4450,7 +4393,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" s="6">
         <v>452</v>
@@ -4510,7 +4453,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C25" s="6">
         <v>452</v>
@@ -4566,14 +4509,14 @@
       </c>
       <c r="AQ25" s="1">
         <f>AL19</f>
-        <v>3158</v>
+        <v>3143</v>
       </c>
       <c r="AR25" t="s">
         <v>22</v>
       </c>
       <c r="AS25" s="22">
         <f>AN19</f>
-        <v>6.2603703490780913E-2</v>
+        <v>6.4802787571390283E-2</v>
       </c>
     </row>
     <row r="26" spans="1:46">
@@ -4581,7 +4524,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" s="2">
         <v>488</v>
@@ -4639,7 +4582,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C27" s="2">
         <v>444</v>
@@ -4648,7 +4591,7 @@
         <v>68</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>25</v>
@@ -4693,14 +4636,14 @@
       </c>
       <c r="AQ27" s="1">
         <f>AL20</f>
-        <v>2733</v>
+        <v>2498</v>
       </c>
       <c r="AR27" t="s">
         <v>22</v>
       </c>
       <c r="AS27" s="22">
         <f>AN20</f>
-        <v>5.4178569233788554E-2</v>
+        <v>5.1504092699119604E-2</v>
       </c>
     </row>
     <row r="28" spans="1:46">
@@ -4708,7 +4651,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" s="2">
         <v>444</v>
@@ -4717,7 +4660,7 @@
         <v>69</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>25</v>
@@ -4766,7 +4709,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C29" s="2">
         <v>536</v>
@@ -4827,7 +4770,7 @@
       </c>
       <c r="AS29" s="22">
         <f>AN21</f>
-        <v>1.1894307186342164E-3</v>
+        <v>1.2370878950949465E-3</v>
       </c>
     </row>
     <row r="30" spans="1:46">
@@ -4835,7 +4778,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C30" s="2">
         <v>536</v>
@@ -4891,7 +4834,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C31" s="2">
         <v>536</v>
@@ -4947,14 +4890,14 @@
       </c>
       <c r="AQ31" s="1">
         <f>SUM(AQ3:AQ29)</f>
-        <v>50444.3</v>
+        <v>48501</v>
       </c>
       <c r="AR31" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AS31" s="23">
         <f>SUM(AS3:AS29)</f>
-        <v>0.99999999999999978</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AT31" s="20"/>
     </row>
@@ -4963,7 +4906,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C32" s="2">
         <v>517</v>
@@ -5018,7 +4961,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33" s="2">
         <v>340</v>
@@ -5027,7 +4970,7 @@
         <v>39</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>25</v>
@@ -5078,7 +5021,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2">
         <v>340</v>
@@ -5087,7 +5030,7 @@
         <v>39</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>25</v>
@@ -5135,7 +5078,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" s="2">
         <v>340</v>
@@ -5144,7 +5087,7 @@
         <v>39</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>25</v>
@@ -5192,7 +5135,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2">
         <v>340</v>
@@ -5201,7 +5144,7 @@
         <v>39</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>25</v>
@@ -5252,7 +5195,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" s="2">
         <v>340</v>
@@ -5261,7 +5204,7 @@
         <v>39</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>25</v>
@@ -5312,7 +5255,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2">
         <v>340</v>
@@ -5321,7 +5264,7 @@
         <v>39</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>25</v>
@@ -5369,7 +5312,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2">
         <v>340</v>
@@ -5378,7 +5321,7 @@
         <v>39</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>25</v>
@@ -5426,7 +5369,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2">
         <v>340</v>
@@ -5435,7 +5378,7 @@
         <v>39</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>25</v>
@@ -5483,16 +5426,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C41" s="2">
         <v>340</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>25</v>
@@ -5538,16 +5481,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C42" s="2">
         <v>340</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>25</v>
@@ -5593,16 +5536,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C43" s="2">
         <v>340</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>25</v>
@@ -5648,16 +5591,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C44" s="2">
         <v>340</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>25</v>
@@ -5703,16 +5646,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C45" s="2">
         <v>340</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>25</v>
@@ -5758,16 +5701,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C46" s="2">
         <v>340</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>25</v>
@@ -5813,16 +5756,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C47" s="2">
         <v>340</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>25</v>
@@ -5868,16 +5811,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C48" s="2">
         <v>340</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>25</v>
@@ -5923,16 +5866,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C49" s="2">
         <v>340</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>25</v>
@@ -5980,16 +5923,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C50" s="2">
         <v>340</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>25</v>
@@ -6035,16 +5978,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C51" s="2">
         <v>340</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>25</v>
@@ -6094,16 +6037,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C52" s="2">
         <v>422</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>25</v>
@@ -6149,16 +6092,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C53" s="2">
         <v>445</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>25</v>
@@ -6202,7 +6145,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C54" s="2">
         <v>446</v>
@@ -6211,7 +6154,7 @@
         <v>48125655</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>25</v>
@@ -6257,7 +6200,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C55" s="2">
         <v>651</v>
@@ -6310,7 +6253,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C56" s="2">
         <v>651</v>
@@ -6363,7 +6306,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C57" s="2">
         <v>651</v>
@@ -6420,7 +6363,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C58" s="2">
         <v>651</v>
@@ -6475,16 +6418,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C59" s="2">
         <v>653</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>25</v>
@@ -6524,16 +6467,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C60" s="2">
         <v>653</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>25</v>
@@ -6573,16 +6516,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C61" s="2">
         <v>653</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>25</v>
@@ -6622,7 +6565,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2">
         <v>654</v>
@@ -6681,7 +6624,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2">
         <v>655</v>
@@ -6740,7 +6683,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2">
         <v>655</v>
@@ -6799,7 +6742,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2">
         <v>655</v>
@@ -6858,16 +6801,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C66" s="2">
         <v>656</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>25</v>
@@ -6909,16 +6852,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C67" s="2">
         <v>656</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>25</v>
@@ -6958,16 +6901,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C68" s="2">
         <v>656</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>25</v>
@@ -7009,16 +6952,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C69" s="2">
         <v>447</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>25</v>
@@ -7064,16 +7007,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="E70" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>25</v>
@@ -7125,16 +7068,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>25</v>
@@ -7180,7 +7123,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C72" s="2">
         <v>511</v>
@@ -7189,7 +7132,7 @@
         <v>44</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>25</v>
@@ -7235,16 +7178,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C73" s="2">
         <v>636</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>25</v>
@@ -7290,16 +7233,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>25</v>
@@ -7345,16 +7288,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C75" s="2">
         <v>340</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>25</v>
@@ -7400,16 +7343,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>25</v>
@@ -7453,7 +7396,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C77" s="2">
         <v>189</v>
@@ -7506,16 +7449,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>25</v>
@@ -7563,16 +7506,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>25</v>
@@ -7603,7 +7546,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C80" s="2">
         <v>189</v>
@@ -7649,16 +7592,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>25</v>
@@ -7690,13 +7633,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C82" s="2">
         <v>588</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E82" s="2">
         <v>17837468</v>
@@ -7734,13 +7677,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C83" s="2">
         <v>609</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E83" s="2">
         <v>15474134</v>
@@ -7777,13 +7720,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C84" s="2">
         <v>192</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E84" s="2">
         <v>15970137</v>
@@ -7821,7 +7764,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C85" s="2">
         <v>554</v>
@@ -7865,7 +7808,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C86" s="2">
         <v>647</v>
@@ -7905,7 +7848,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C87" s="2">
         <v>647</v>
@@ -7945,7 +7888,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
@@ -7992,13 +7935,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C89" s="2">
         <v>185</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E89" s="2">
         <v>13588930</v>
@@ -8039,13 +7982,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C90" s="2">
         <v>149</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E90" s="2">
         <v>16110881</v>
@@ -8077,13 +8020,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C91" s="2">
         <v>72</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E91" s="2">
         <v>16745816</v>
@@ -8117,13 +8060,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C92" s="2">
         <v>72</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E92" s="2">
         <v>16746703</v>
@@ -8157,7 +8100,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C93" s="2">
         <v>209</v>
@@ -8202,13 +8145,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C94" s="2">
         <v>203</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E94" s="2">
         <v>14036861</v>
@@ -8244,7 +8187,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C95" s="2">
         <v>205</v>
@@ -8289,13 +8232,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C96" s="2">
         <v>203</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E96" s="2">
         <v>14023910</v>
@@ -8334,13 +8277,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C97" s="2">
         <v>159</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E97" s="2">
         <v>15967965</v>
@@ -8381,13 +8324,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C98" s="2">
         <v>216</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E98" s="2">
         <v>15971997</v>
@@ -8428,13 +8371,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C99" s="2">
         <v>479</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E99" s="2">
         <v>11521021</v>
@@ -8471,13 +8414,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E100" s="2">
         <v>11469602</v>
@@ -8510,10 +8453,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D101" s="2">
         <v>10005184725</v>
@@ -8555,13 +8498,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E102" s="2">
         <v>14391192</v>
@@ -8594,13 +8537,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E103" s="2">
         <v>14154480</v>
@@ -8638,13 +8581,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C104" s="2">
         <v>133</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E104" s="2">
         <v>11468826</v>
@@ -8680,7 +8623,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C105" s="2">
         <v>133</v>
@@ -8722,13 +8665,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E106" s="2">
         <v>11468114</v>
@@ -8766,13 +8709,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C107" s="2">
         <v>94</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E107" s="2">
         <v>11467111</v>
@@ -8810,7 +8753,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C108" s="2">
         <v>193</v>
@@ -8849,16 +8792,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C109" s="2">
         <v>660</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>25</v>
@@ -8894,16 +8837,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D110" s="2">
         <v>28760407</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>25</v>
@@ -8934,7 +8877,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C111" s="2">
         <v>217</v>
@@ -8980,7 +8923,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C112" s="2">
         <v>217</v>
@@ -9029,7 +8972,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C113" s="2">
         <v>217</v>
@@ -9075,7 +9018,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C114" s="2">
         <v>225</v>
@@ -9118,7 +9061,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C115" s="2">
         <v>216</v>
@@ -9158,7 +9101,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C116" s="2">
         <v>167</v>
@@ -9196,7 +9139,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C117" s="2">
         <v>225</v>
@@ -9237,7 +9180,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C118" s="2">
         <v>225</v>
@@ -9278,7 +9221,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C119" s="2">
         <v>217</v>
@@ -9324,7 +9267,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C120" s="2">
         <v>217</v>
@@ -9370,7 +9313,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C121" s="2">
         <v>217</v>
@@ -9407,7 +9350,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C122" s="2">
         <v>215</v>
@@ -9447,7 +9390,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C123" s="2">
         <v>217</v>
@@ -9490,7 +9433,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C124" s="2">
         <v>215</v>
@@ -9530,7 +9473,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C125" s="2">
         <v>215</v>
@@ -9570,7 +9513,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C126" s="2">
         <v>208</v>
@@ -9579,7 +9522,7 @@
         <v>10004976011</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>25</v>
@@ -9610,7 +9553,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C127" s="2">
         <v>91</v>
@@ -9657,7 +9600,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C128" s="2">
         <v>210</v>
@@ -9701,7 +9644,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C129" s="2">
         <v>210</v>
@@ -9747,7 +9690,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C130" s="2">
         <v>208</v>
@@ -9793,7 +9736,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C131" s="2">
         <v>133</v>
@@ -9840,16 +9783,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>25</v>
@@ -9886,16 +9829,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C133" s="2">
         <v>660</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>25</v>
@@ -9923,7 +9866,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C134" s="2">
         <v>177</v>
@@ -9981,7 +9924,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C135" s="2">
         <v>454</v>
@@ -10027,7 +9970,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C136" s="2">
         <v>454</v>
@@ -10073,7 +10016,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C137" s="2">
         <v>494</v>
@@ -10119,7 +10062,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C138" s="2">
         <v>494</v>
@@ -10165,7 +10108,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C139" s="2">
         <v>151</v>
@@ -10214,7 +10157,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C140" s="2">
         <v>22</v>
@@ -10223,7 +10166,7 @@
         <v>10002871503</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>25</v>
@@ -10251,7 +10194,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C141" s="2">
         <v>118</v>
@@ -10291,7 +10234,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C142" s="2">
         <v>199</v>
@@ -10300,7 +10243,7 @@
         <v>10005984475</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>25</v>
@@ -10337,16 +10280,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C143" s="2">
         <v>595</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>25</v>
@@ -10383,7 +10326,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C144" s="2">
         <v>536</v>
@@ -10435,16 +10378,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C145" s="2">
         <v>689</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>25</v>
@@ -10475,16 +10418,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C146" s="2">
         <v>511</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>25</v>
@@ -10521,16 +10464,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C147" s="2">
         <v>660</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>25</v>
@@ -10558,16 +10501,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>25</v>
@@ -10599,7 +10542,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C149" s="2">
         <v>514</v>
@@ -10642,16 +10585,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C150" s="2">
         <v>340</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>25</v>
@@ -10698,7 +10641,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C151" s="2">
         <v>484</v>
@@ -10741,7 +10684,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C152" s="2">
         <v>489</v>
@@ -10787,7 +10730,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C153" s="2">
         <v>489</v>
@@ -10833,16 +10776,16 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C154" s="2">
         <v>535</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>25</v>
@@ -10888,7 +10831,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C155" s="2">
         <v>249</v>
@@ -10925,16 +10868,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C156" s="2">
         <v>502</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>25</v>
@@ -10968,7 +10911,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C157" s="2">
         <v>373</v>
@@ -11011,16 +10954,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C158" s="2">
         <v>453</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>25</v>
@@ -11048,7 +10991,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C159" s="2">
         <v>479</v>
@@ -11091,7 +11034,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C160" s="2">
         <v>249</v>
@@ -11128,7 +11071,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C161" s="2">
         <v>249</v>
@@ -11168,16 +11111,16 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C162" s="2">
         <v>549</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>25</v>
@@ -11214,16 +11157,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>25</v>
@@ -11256,16 +11199,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C164" s="2">
         <v>511</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>25</v>
@@ -11305,7 +11248,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C165" s="2">
         <v>58</v>
@@ -11345,7 +11288,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C166" s="2">
         <v>58</v>
@@ -11385,7 +11328,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C167" s="2">
         <v>249</v>
@@ -11428,7 +11371,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C168" s="2">
         <v>227</v>
@@ -11468,7 +11411,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C169" s="2">
         <v>227</v>
@@ -11477,7 +11420,7 @@
         <v>10002751604</v>
       </c>
       <c r="E169" s="14" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>25</v>
@@ -11517,7 +11460,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C170" s="2">
         <v>227</v>
@@ -11560,7 +11503,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C171" s="2">
         <v>227</v>
@@ -11609,7 +11552,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C172" s="2">
         <v>227</v>
@@ -11650,7 +11593,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C173" s="2">
         <v>60</v>
@@ -11693,7 +11636,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C174" s="2">
         <v>494</v>
@@ -11739,7 +11682,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C175" s="2">
         <v>494</v>
@@ -11785,7 +11728,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C176" s="2">
         <v>244</v>
@@ -11822,7 +11765,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C177" s="2">
         <v>259</v>
@@ -11856,7 +11799,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C178" s="2">
         <v>255</v>
@@ -11902,7 +11845,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C179" s="2">
         <v>337</v>
@@ -11939,7 +11882,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C180" s="2">
         <v>99</v>
@@ -11985,7 +11928,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C181" s="2">
         <v>227</v>
@@ -12022,7 +11965,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C182" s="2">
         <v>243</v>
@@ -12060,7 +12003,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C183" s="2">
         <v>228</v>
@@ -12100,7 +12043,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C184" s="2">
         <v>70</v>
@@ -12137,7 +12080,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C185" s="2">
         <v>103</v>
@@ -12174,16 +12117,16 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C186" s="2">
         <v>601</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>25</v>
@@ -12220,16 +12163,16 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C187" s="2">
         <v>652</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>25</v>
@@ -12275,16 +12218,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C188" s="2">
         <v>652</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>25</v>
@@ -12328,16 +12271,16 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C189" s="2">
         <v>652</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>25</v>
@@ -12381,16 +12324,16 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C190" s="2">
         <v>652</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>25</v>
@@ -12436,7 +12379,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C191" s="2">
         <v>650</v>
@@ -12478,7 +12421,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C192" s="2">
         <v>648</v>
@@ -12517,7 +12460,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C193" s="2">
         <v>648</v>
@@ -12556,7 +12499,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C194" s="2">
         <v>648</v>
@@ -12593,7 +12536,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C195" s="2">
         <v>643</v>
@@ -12602,7 +12545,7 @@
         <v>72</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>25</v>
@@ -12635,16 +12578,16 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C196" s="2">
         <v>643</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>25</v>
@@ -12674,16 +12617,16 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C197" s="2">
         <v>643</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>25</v>
@@ -12713,7 +12656,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C198" s="2">
         <v>141</v>
@@ -12750,16 +12693,16 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>25</v>
@@ -12789,16 +12732,16 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C200" s="2">
         <v>341</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>25</v>
@@ -12830,7 +12773,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C201" s="2">
         <v>115</v>
@@ -12874,7 +12817,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C202" s="2">
         <v>109</v>
@@ -12912,7 +12855,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C203" s="2">
         <v>106</v>
@@ -12949,7 +12892,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C204" s="2">
         <v>106</v>
@@ -12958,7 +12901,7 @@
         <v>10005363802</v>
       </c>
       <c r="E204" s="14" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>25</v>
@@ -12987,7 +12930,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C205" s="2">
         <v>106</v>
@@ -13022,7 +12965,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C206" s="2">
         <v>106</v>
@@ -13057,7 +13000,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C207" s="2">
         <v>484</v>
@@ -13096,7 +13039,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C208" s="2">
         <v>142</v>
@@ -13141,7 +13084,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C209" s="2">
         <v>157</v>
@@ -13181,7 +13124,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C210" s="2">
         <v>100</v>
@@ -13220,7 +13163,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C211" s="2">
         <v>288</v>
@@ -13266,7 +13209,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C212" s="2">
         <v>227</v>
@@ -13307,16 +13250,16 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C213" s="2">
         <v>634</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>25</v>
@@ -13354,16 +13297,16 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C214" s="2">
         <v>634</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>25</v>
@@ -13400,7 +13343,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C215" s="2">
         <v>604</v>
@@ -13446,7 +13389,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C216" s="2">
         <v>604</v>
@@ -13492,16 +13435,16 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>25</v>
@@ -13540,16 +13483,16 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C218" s="2">
         <v>636</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>25</v>
@@ -13589,16 +13532,16 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C219" s="2">
         <v>665</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>25</v>
@@ -13630,16 +13573,16 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C220" s="2">
         <v>665</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>25</v>
@@ -13671,16 +13614,16 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C221" s="2">
         <v>665</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>25</v>
@@ -13712,7 +13655,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C222" s="2">
         <v>523</v>
@@ -13766,16 +13709,16 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C223" s="2">
         <v>247</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>25</v>
@@ -13812,16 +13755,16 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>25</v>
@@ -13854,16 +13797,16 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C225" s="2">
         <v>653</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>25</v>
@@ -13895,16 +13838,16 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C226" s="2">
         <v>682</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>25</v>
@@ -13936,7 +13879,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C227" s="2">
         <v>476</v>
@@ -13990,7 +13933,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C228" s="2">
         <v>479</v>
@@ -14042,7 +13985,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C229" s="2">
         <v>131</v>
@@ -14100,10 +14043,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D230" s="1">
         <v>10004910044</v>
@@ -14152,10 +14095,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D231" s="1">
         <v>10004910106</v>
@@ -14208,10 +14151,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D232" s="1">
         <v>10004909925</v>
@@ -14256,13 +14199,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C233" s="1">
         <v>685</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>25</v>
@@ -14308,16 +14251,16 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C234" s="1">
         <v>688</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>25</v>
@@ -14354,16 +14297,16 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C235" s="1">
         <v>682</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>25</v>
@@ -14395,16 +14338,16 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C236" s="1">
         <v>687</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>25</v>
@@ -14449,16 +14392,16 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C237" s="1">
         <v>687</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>25</v>
@@ -14495,7 +14438,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C238" s="1">
         <v>687</v>
@@ -14504,7 +14447,7 @@
         <v>72</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>25</v>
@@ -14546,16 +14489,16 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C239" s="1">
         <v>687</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>25</v>
@@ -14597,16 +14540,16 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C240" s="1">
         <v>687</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>25</v>
@@ -14648,16 +14591,16 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C241" s="1">
         <v>687</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>25</v>
@@ -14699,16 +14642,16 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C242" s="1">
         <v>687</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>25</v>
@@ -14748,16 +14691,16 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C243" s="1">
         <v>684</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>25</v>
@@ -14805,16 +14748,16 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C244" s="1">
         <v>684</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>25</v>
@@ -14860,7 +14803,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C245" s="1">
         <v>683</v>
@@ -14919,7 +14862,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C246" s="1">
         <v>683</v>
@@ -14978,7 +14921,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C247" s="1">
         <v>686</v>
@@ -15037,7 +14980,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C248" s="1">
         <v>686</v>
@@ -15094,7 +15037,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C249" s="1">
         <v>686</v>
@@ -15143,7 +15086,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C250" s="1">
         <v>686</v>
@@ -15198,7 +15141,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C251" s="1">
         <v>686</v>
@@ -15253,16 +15196,16 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C252" s="1">
         <v>678</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>25</v>
@@ -15306,16 +15249,16 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C253" s="1">
         <v>678</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>25</v>
@@ -15359,16 +15302,16 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C254" s="1">
         <v>678</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>25</v>
@@ -15412,16 +15355,16 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C255" s="1">
         <v>678</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>25</v>
@@ -15465,16 +15408,16 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C256" s="1">
         <v>678</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>25</v>
@@ -15522,16 +15465,16 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C257" s="1">
         <v>678</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>25</v>
@@ -15575,16 +15518,16 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C258" s="1">
         <v>678</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>25</v>
@@ -15632,16 +15575,16 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C259" s="1">
         <v>678</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>25</v>
@@ -15687,16 +15630,16 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C260" s="1">
         <v>678</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>25</v>
@@ -15744,16 +15687,16 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C261" s="1">
         <v>678</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>25</v>
@@ -15801,16 +15744,16 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C262" s="1">
         <v>678</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>25</v>
@@ -15858,16 +15801,16 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C263" s="1">
         <v>678</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>25</v>
@@ -15913,16 +15856,16 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C264" s="1">
         <v>678</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>25</v>
@@ -15968,16 +15911,16 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C265" s="1">
         <v>678</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>25</v>
@@ -16023,16 +15966,16 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C266" s="1">
         <v>678</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>25</v>
@@ -16078,16 +16021,16 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C267" s="1">
         <v>678</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>25</v>
@@ -16133,16 +16076,16 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C268" s="1">
         <v>678</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>25</v>
@@ -16186,16 +16129,16 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C269" s="1">
         <v>678</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>25</v>
@@ -16239,16 +16182,16 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C270" s="1">
         <v>678</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>25</v>
@@ -16294,16 +16237,16 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C271" s="1">
         <v>678</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>25</v>
@@ -16349,16 +16292,16 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C272" s="1">
         <v>678</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>25</v>
@@ -16402,16 +16345,16 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C273" s="1">
         <v>678</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>25</v>
@@ -16457,16 +16400,16 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C274" s="1">
         <v>678</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>25</v>
@@ -16512,16 +16455,16 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C275" s="1">
         <v>678</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>25</v>
@@ -16567,16 +16510,16 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C276" s="1">
         <v>678</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>25</v>
@@ -16620,16 +16563,16 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C277" s="1">
         <v>678</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>25</v>
@@ -16675,16 +16618,16 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C278" s="1">
         <v>678</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>25</v>
@@ -16728,16 +16671,16 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C279" s="1">
         <v>678</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>25</v>
@@ -16783,16 +16726,16 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C280" s="1">
         <v>678</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>25</v>
@@ -16840,16 +16783,16 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C281" s="1">
         <v>678</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>25</v>
@@ -16895,16 +16838,16 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C282" s="1">
         <v>678</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>25</v>
@@ -16950,16 +16893,16 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C283" s="1">
         <v>678</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>25</v>
@@ -17005,16 +16948,16 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C284" s="1">
         <v>678</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>25</v>
@@ -17060,16 +17003,16 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C285" s="1">
         <v>678</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>25</v>
@@ -17117,16 +17060,16 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C286" s="1">
         <v>678</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>25</v>
@@ -17170,16 +17113,16 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C287" s="1">
         <v>678</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>25</v>
@@ -17221,16 +17164,16 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C288" s="1">
         <v>669</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>25</v>
@@ -17278,16 +17221,16 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C289" s="1">
         <v>669</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>25</v>
@@ -17335,16 +17278,16 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C290" s="1">
         <v>669</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>25</v>
@@ -17392,7 +17335,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C291" s="1">
         <v>668</v>
@@ -17447,7 +17390,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C292" s="1">
         <v>667</v>
@@ -17502,7 +17445,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C293" s="1">
         <v>650</v>
@@ -17554,16 +17497,16 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C294" s="1">
         <v>652</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F294" s="1" t="s">
         <v>25</v>
@@ -17607,16 +17550,16 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C295" s="1">
         <v>652</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>25</v>
@@ -17659,16 +17602,16 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C296" s="1">
         <v>652</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>25</v>
@@ -17709,16 +17652,16 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C297" s="1">
         <v>652</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>25</v>
@@ -17761,7 +17704,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C298" s="1">
         <v>648</v>
@@ -17811,7 +17754,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C299" s="1">
         <v>648</v>
@@ -17861,7 +17804,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C300" s="1">
         <v>648</v>
@@ -17909,7 +17852,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C301" s="1">
         <v>643</v>
@@ -17918,7 +17861,7 @@
         <v>72</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>25</v>
@@ -17961,16 +17904,16 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C302" s="1">
         <v>643</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>25</v>
@@ -18011,16 +17954,16 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C303" s="1">
         <v>643</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>25</v>
@@ -18061,16 +18004,16 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C304" s="1">
         <v>663</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>25</v>
@@ -18112,16 +18055,16 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C305" s="1">
         <v>663</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>25</v>
@@ -18161,16 +18104,16 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C306" s="1">
         <v>664</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>25</v>
@@ -18211,16 +18154,16 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C307" s="1">
         <v>664</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F307" s="1" t="s">
         <v>25</v>
@@ -18261,16 +18204,16 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C308" s="1">
         <v>664</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>25</v>
@@ -18311,16 +18254,16 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C309" s="1">
         <v>664</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F309" s="1" t="s">
         <v>25</v>
@@ -18363,7 +18306,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C310" s="1">
         <v>662</v>
@@ -18418,7 +18361,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C311" s="1">
         <v>662</v>
@@ -18473,7 +18416,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C312" s="1">
         <v>662</v>
@@ -18526,7 +18469,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C313" s="1">
         <v>654</v>
@@ -18580,16 +18523,16 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C314" s="1">
         <v>691</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F314" s="1" t="s">
         <v>25</v>
@@ -18628,16 +18571,16 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C315" s="1">
         <v>691</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F315" s="1" t="s">
         <v>25</v>
@@ -18680,16 +18623,16 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C316" s="1">
         <v>691</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>25</v>
@@ -18730,16 +18673,16 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C317" s="1">
         <v>691</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F317" s="1" t="s">
         <v>25</v>
@@ -18778,16 +18721,16 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C318" s="1">
         <v>691</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>25</v>
@@ -18828,7 +18771,7 @@
         <v>319</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C319" s="1">
         <v>690</v>
@@ -18876,7 +18819,7 @@
         <v>320</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C320" s="1">
         <v>693</v>
@@ -18928,7 +18871,7 @@
         <v>321</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C321" s="1">
         <v>693</v>
@@ -18986,7 +18929,7 @@
         <v>322</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C322" s="1">
         <v>693</v>
@@ -19034,7 +18977,7 @@
         <v>323</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C323" s="1">
         <v>693</v>
@@ -19082,16 +19025,16 @@
         <v>324</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C324" s="1">
         <v>679</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F324" s="1" t="s">
         <v>25</v>
@@ -19134,7 +19077,7 @@
         <v>325</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C325" s="1">
         <v>696</v>
@@ -19184,7 +19127,7 @@
         <v>326</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C326" s="1">
         <v>532</v>
@@ -19228,7 +19171,7 @@
         <v>327</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C327" s="1">
         <v>673</v>
@@ -19276,7 +19219,7 @@
         <v>328</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C328" s="1">
         <v>168</v>
@@ -19324,7 +19267,7 @@
         <v>329</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C329" s="1">
         <v>489</v>
@@ -19376,7 +19319,7 @@
         <v>330</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C330" s="1">
         <v>282</v>
@@ -19424,7 +19367,7 @@
         <v>331</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C331" s="1">
         <v>228</v>
@@ -19472,7 +19415,7 @@
         <v>332</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C332" s="1">
         <v>509</v>
@@ -19524,7 +19467,7 @@
         <v>333</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C333" s="1">
         <v>621</v>
@@ -19533,7 +19476,7 @@
         <v>43</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F333" s="1" t="s">
         <v>25</v>
@@ -19574,7 +19517,7 @@
         <v>334</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C334" s="1">
         <v>621</v>
@@ -19583,7 +19526,7 @@
         <v>42</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F334" s="1" t="s">
         <v>25</v>
@@ -19624,7 +19567,7 @@
         <v>335</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C335" s="1">
         <v>44</v>
@@ -19672,7 +19615,7 @@
         <v>336</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C336" s="1">
         <v>250</v>
@@ -19720,7 +19663,7 @@
         <v>337</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C337" s="1">
         <v>98</v>
@@ -19776,7 +19719,7 @@
         <v>338</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C338" s="1">
         <v>696</v>
@@ -19828,16 +19771,16 @@
         <v>339</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C339" s="1">
         <v>399</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F339" s="1" t="s">
         <v>25</v>
@@ -19878,13 +19821,13 @@
         <v>340</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C340" s="1">
         <v>514</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E340" s="1">
         <v>11497637</v>
@@ -19927,26 +19870,14 @@
       <c r="A341" s="1">
         <v>341</v>
       </c>
-      <c r="B341" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C341" s="1">
-        <v>714</v>
-      </c>
-      <c r="D341" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="E341" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="F341" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="B341" s="1"/>
+      <c r="C341" s="1"/>
+      <c r="D341" s="1"/>
+      <c r="E341" s="1"/>
+      <c r="F341" s="1"/>
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
-      <c r="I341" s="1">
-        <v>0.3</v>
-      </c>
+      <c r="I341" s="1"/>
       <c r="J341" s="1"/>
       <c r="K341" s="1"/>
       <c r="L341" s="1"/>
@@ -19961,7 +19892,7 @@
       <c r="Y341" s="1"/>
       <c r="AA341" s="2">
         <f t="shared" si="5"/>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AB341" s="1" t="s">
         <v>22</v>
@@ -19971,27 +19902,13 @@
       <c r="A342" s="1">
         <v>342</v>
       </c>
-      <c r="B342" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C342" s="1">
-        <v>707</v>
-      </c>
-      <c r="D342" s="1">
-        <v>10007783274</v>
-      </c>
-      <c r="E342" s="1">
-        <v>15562748</v>
-      </c>
-      <c r="F342" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G342" s="1">
-        <v>10</v>
-      </c>
-      <c r="H342" s="1">
-        <v>45</v>
-      </c>
+      <c r="B342" s="1"/>
+      <c r="C342" s="1"/>
+      <c r="D342" s="1"/>
+      <c r="E342" s="1"/>
+      <c r="F342" s="1"/>
+      <c r="G342" s="1"/>
+      <c r="H342" s="1"/>
       <c r="I342" s="1"/>
       <c r="J342" s="1"/>
       <c r="K342" s="1"/>
@@ -20003,16 +19920,11 @@
       <c r="Q342" s="1"/>
       <c r="R342" s="1"/>
       <c r="U342" s="1"/>
-      <c r="V342" s="1">
-        <v>30</v>
-      </c>
-      <c r="W342" s="1">
-        <v>20</v>
-      </c>
+      <c r="V342" s="1"/>
       <c r="Y342" s="1"/>
       <c r="AA342" s="2">
         <f t="shared" si="5"/>
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AB342" s="1" t="s">
         <v>22</v>
@@ -20022,26 +19934,14 @@
       <c r="A343" s="1">
         <v>343</v>
       </c>
-      <c r="B343" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C343" s="1">
-        <v>707</v>
-      </c>
-      <c r="D343" s="1">
-        <v>10006440601</v>
-      </c>
-      <c r="E343" s="1">
-        <v>14812525</v>
-      </c>
-      <c r="F343" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="B343" s="1"/>
+      <c r="C343" s="1"/>
+      <c r="D343" s="1"/>
+      <c r="E343" s="1"/>
+      <c r="F343" s="1"/>
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
-      <c r="I343" s="1">
-        <v>3</v>
-      </c>
+      <c r="I343" s="1"/>
       <c r="J343" s="1"/>
       <c r="K343" s="1"/>
       <c r="L343" s="1"/>
@@ -20052,13 +19952,11 @@
       <c r="Q343" s="1"/>
       <c r="R343" s="1"/>
       <c r="U343" s="1"/>
-      <c r="V343" s="1">
-        <v>2</v>
-      </c>
+      <c r="V343" s="1"/>
       <c r="Y343" s="1"/>
       <c r="AA343" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB343" s="1" t="s">
         <v>22</v>
@@ -20068,26 +19966,14 @@
       <c r="A344" s="1">
         <v>344</v>
       </c>
-      <c r="B344" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C344" s="1">
-        <v>534</v>
-      </c>
-      <c r="D344" s="1">
-        <v>10004222941</v>
-      </c>
-      <c r="E344" s="1">
-        <v>13592346</v>
-      </c>
-      <c r="F344" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="B344" s="1"/>
+      <c r="C344" s="1"/>
+      <c r="D344" s="1"/>
+      <c r="E344" s="1"/>
+      <c r="F344" s="1"/>
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
-      <c r="I344" s="1">
-        <v>5</v>
-      </c>
+      <c r="I344" s="1"/>
       <c r="J344" s="1"/>
       <c r="K344" s="1"/>
       <c r="L344" s="1"/>
@@ -20098,13 +19984,11 @@
       <c r="Q344" s="1"/>
       <c r="R344" s="1"/>
       <c r="U344" s="1"/>
-      <c r="V344" s="1">
-        <v>5</v>
-      </c>
+      <c r="V344" s="1"/>
       <c r="Y344" s="1"/>
       <c r="AA344" s="2">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB344" s="1" t="s">
         <v>22</v>
@@ -20114,49 +19998,29 @@
       <c r="A345" s="1">
         <v>345</v>
       </c>
-      <c r="B345" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C345" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D345" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="E345" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="F345" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G345" s="1">
-        <v>5</v>
-      </c>
+      <c r="B345" s="1"/>
+      <c r="C345" s="1"/>
+      <c r="D345" s="1"/>
+      <c r="E345" s="1"/>
+      <c r="F345" s="1"/>
+      <c r="G345" s="1"/>
       <c r="H345" s="1"/>
       <c r="I345" s="1"/>
       <c r="J345" s="1"/>
-      <c r="K345" s="1">
-        <v>10</v>
-      </c>
+      <c r="K345" s="1"/>
       <c r="L345" s="1"/>
       <c r="M345" s="1"/>
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
-      <c r="P345" s="1">
-        <v>10</v>
-      </c>
+      <c r="P345" s="1"/>
       <c r="Q345" s="1"/>
       <c r="R345" s="1"/>
       <c r="U345" s="1"/>
-      <c r="V345" s="1">
-        <v>10</v>
-      </c>
-      <c r="Y345" s="1">
-        <v>10</v>
-      </c>
+      <c r="V345" s="1"/>
+      <c r="Y345" s="1"/>
       <c r="AA345" s="2">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AB345" s="1" t="s">
         <v>22</v>
@@ -20166,26 +20030,14 @@
       <c r="A346" s="1">
         <v>346</v>
       </c>
-      <c r="B346" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C346" s="1">
-        <v>109</v>
-      </c>
-      <c r="D346" s="1">
-        <v>10004626094</v>
-      </c>
-      <c r="E346" s="1">
-        <v>13829680</v>
-      </c>
-      <c r="F346" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="B346" s="1"/>
+      <c r="C346" s="1"/>
+      <c r="D346" s="1"/>
+      <c r="E346" s="1"/>
+      <c r="F346" s="1"/>
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
-      <c r="I346" s="1">
-        <v>5</v>
-      </c>
+      <c r="I346" s="1"/>
       <c r="J346" s="1"/>
       <c r="K346" s="1"/>
       <c r="L346" s="1"/>
@@ -20193,18 +20045,14 @@
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
       <c r="P346" s="1"/>
-      <c r="Q346" s="1">
-        <v>5</v>
-      </c>
+      <c r="Q346" s="1"/>
       <c r="R346" s="1"/>
       <c r="U346" s="1"/>
-      <c r="V346" s="1">
-        <v>10</v>
-      </c>
+      <c r="V346" s="1"/>
       <c r="Y346" s="1"/>
       <c r="AA346" s="2">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AB346" s="1" t="s">
         <v>22</v>
@@ -20214,49 +20062,29 @@
       <c r="A347" s="1">
         <v>347</v>
       </c>
-      <c r="B347" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C347" s="1">
-        <v>707</v>
-      </c>
-      <c r="D347" s="1">
-        <v>10006440285</v>
-      </c>
-      <c r="E347" s="1">
-        <v>14812365</v>
-      </c>
-      <c r="F347" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="B347" s="1"/>
+      <c r="C347" s="1"/>
+      <c r="D347" s="1"/>
+      <c r="E347" s="1"/>
+      <c r="F347" s="1"/>
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
-      <c r="I347" s="1">
-        <v>5</v>
-      </c>
+      <c r="I347" s="1"/>
       <c r="J347" s="1"/>
       <c r="K347" s="1"/>
-      <c r="L347" s="1">
-        <v>15</v>
-      </c>
+      <c r="L347" s="1"/>
       <c r="M347" s="1"/>
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
       <c r="P347" s="1"/>
       <c r="Q347" s="1"/>
       <c r="R347" s="1"/>
-      <c r="U347" s="1">
-        <v>15</v>
-      </c>
-      <c r="V347" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y347" s="1">
-        <v>5</v>
-      </c>
+      <c r="U347" s="1"/>
+      <c r="V347" s="1"/>
+      <c r="Y347" s="1"/>
       <c r="AA347" s="2">
         <f t="shared" ref="AA347:AA410" si="6">SUM(G347:Z347)</f>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AB347" s="1" t="s">
         <v>22</v>
@@ -20266,49 +20094,29 @@
       <c r="A348" s="1">
         <v>348</v>
       </c>
-      <c r="B348" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C348" s="1">
-        <v>534</v>
-      </c>
-      <c r="D348" s="1">
-        <v>10004626228</v>
-      </c>
-      <c r="E348" s="1">
-        <v>13829723</v>
-      </c>
-      <c r="F348" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G348" s="1">
-        <v>5</v>
-      </c>
+      <c r="B348" s="1"/>
+      <c r="C348" s="1"/>
+      <c r="D348" s="1"/>
+      <c r="E348" s="1"/>
+      <c r="F348" s="1"/>
+      <c r="G348" s="1"/>
       <c r="H348" s="1"/>
       <c r="I348" s="1"/>
       <c r="J348" s="1"/>
       <c r="K348" s="1"/>
       <c r="L348" s="1"/>
-      <c r="M348" s="1">
-        <v>15</v>
-      </c>
-      <c r="N348" s="1">
-        <v>45</v>
-      </c>
+      <c r="M348" s="1"/>
+      <c r="N348" s="1"/>
       <c r="O348" s="1"/>
       <c r="P348" s="1"/>
       <c r="Q348" s="1"/>
       <c r="R348" s="1"/>
-      <c r="U348" s="1">
-        <v>15</v>
-      </c>
-      <c r="V348" s="1">
-        <v>30</v>
-      </c>
+      <c r="U348" s="1"/>
+      <c r="V348" s="1"/>
       <c r="Y348" s="1"/>
       <c r="AA348" s="2">
         <f t="shared" si="6"/>
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AB348" s="1" t="s">
         <v>22</v>
@@ -20318,49 +20126,29 @@
       <c r="A349" s="1">
         <v>349</v>
       </c>
-      <c r="B349" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C349" s="1">
-        <v>449</v>
-      </c>
-      <c r="D349" s="1">
-        <v>10004631699</v>
-      </c>
-      <c r="E349" s="1">
-        <v>13833429</v>
-      </c>
-      <c r="F349" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G349" s="1">
-        <v>10</v>
-      </c>
+      <c r="B349" s="1"/>
+      <c r="C349" s="1"/>
+      <c r="D349" s="1"/>
+      <c r="E349" s="1"/>
+      <c r="F349" s="1"/>
+      <c r="G349" s="1"/>
       <c r="H349" s="1"/>
       <c r="I349" s="1"/>
       <c r="J349" s="1"/>
       <c r="K349" s="1"/>
       <c r="L349" s="1"/>
-      <c r="M349" s="1">
-        <v>60</v>
-      </c>
+      <c r="M349" s="1"/>
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
       <c r="P349" s="1"/>
       <c r="Q349" s="1"/>
       <c r="R349" s="1"/>
-      <c r="U349" s="1">
-        <v>45</v>
-      </c>
-      <c r="V349" s="1">
-        <v>20</v>
-      </c>
-      <c r="Y349" s="1">
-        <v>15</v>
-      </c>
+      <c r="U349" s="1"/>
+      <c r="V349" s="1"/>
+      <c r="Y349" s="1"/>
       <c r="AA349" s="2">
         <f t="shared" si="6"/>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AB349" s="1" t="s">
         <v>22</v>
@@ -20370,45 +20158,29 @@
       <c r="A350" s="1">
         <v>350</v>
       </c>
-      <c r="B350" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C350" s="1">
-        <v>375</v>
-      </c>
-      <c r="D350" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="E350" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="F350" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G350" s="1">
-        <v>5</v>
-      </c>
+      <c r="B350" s="1"/>
+      <c r="C350" s="1"/>
+      <c r="D350" s="1"/>
+      <c r="E350" s="1"/>
+      <c r="F350" s="1"/>
+      <c r="G350" s="1"/>
       <c r="H350" s="1"/>
       <c r="I350" s="1"/>
       <c r="J350" s="1"/>
       <c r="K350" s="1"/>
       <c r="L350" s="1"/>
-      <c r="M350" s="1">
-        <v>10</v>
-      </c>
+      <c r="M350" s="1"/>
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
       <c r="P350" s="1"/>
       <c r="Q350" s="1"/>
       <c r="R350" s="1"/>
       <c r="U350" s="1"/>
-      <c r="V350" s="1">
-        <v>3</v>
-      </c>
+      <c r="V350" s="1"/>
       <c r="Y350" s="1"/>
       <c r="AA350" s="2">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AB350" s="1" t="s">
         <v>22</v>
@@ -20418,26 +20190,14 @@
       <c r="A351" s="1">
         <v>351</v>
       </c>
-      <c r="B351" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C351" s="1">
-        <v>694</v>
-      </c>
-      <c r="D351" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="E351" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="F351" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="B351" s="1"/>
+      <c r="C351" s="1"/>
+      <c r="D351" s="1"/>
+      <c r="E351" s="1"/>
+      <c r="F351" s="1"/>
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
-      <c r="I351" s="1">
-        <v>10</v>
-      </c>
+      <c r="I351" s="1"/>
       <c r="J351" s="1"/>
       <c r="K351" s="1"/>
       <c r="L351" s="1"/>
@@ -20452,7 +20212,7 @@
       <c r="Y351" s="1"/>
       <c r="AA351" s="2">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB351" s="1" t="s">
         <v>22</v>
@@ -20462,47 +20222,29 @@
       <c r="A352" s="1">
         <v>352</v>
       </c>
-      <c r="B352" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C352" s="1">
-        <v>476</v>
-      </c>
-      <c r="D352" s="1">
-        <v>10004112775</v>
-      </c>
-      <c r="E352" s="1">
-        <v>13545784</v>
-      </c>
-      <c r="F352" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G352" s="1">
-        <v>5</v>
-      </c>
+      <c r="B352" s="1"/>
+      <c r="C352" s="1"/>
+      <c r="D352" s="1"/>
+      <c r="E352" s="1"/>
+      <c r="F352" s="1"/>
+      <c r="G352" s="1"/>
       <c r="H352" s="1"/>
       <c r="I352" s="1"/>
       <c r="J352" s="1"/>
       <c r="K352" s="1"/>
       <c r="L352" s="1"/>
-      <c r="M352" s="1">
-        <v>15</v>
-      </c>
+      <c r="M352" s="1"/>
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
       <c r="P352" s="1"/>
       <c r="Q352" s="1"/>
       <c r="R352" s="1"/>
-      <c r="U352" s="1">
-        <v>15</v>
-      </c>
-      <c r="V352" s="1">
-        <v>10</v>
-      </c>
+      <c r="U352" s="1"/>
+      <c r="V352" s="1"/>
       <c r="Y352" s="1"/>
       <c r="AA352" s="2">
         <f t="shared" si="6"/>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AB352" s="1" t="s">
         <v>22</v>
@@ -20512,51 +20254,29 @@
       <c r="A353" s="1">
         <v>353</v>
       </c>
-      <c r="B353" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C353" s="1">
-        <v>340</v>
-      </c>
-      <c r="D353" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="E353" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F353" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G353" s="1">
-        <v>5</v>
-      </c>
+      <c r="B353" s="1"/>
+      <c r="C353" s="1"/>
+      <c r="D353" s="1"/>
+      <c r="E353" s="1"/>
+      <c r="F353" s="1"/>
+      <c r="G353" s="1"/>
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
       <c r="J353" s="1"/>
       <c r="K353" s="1"/>
       <c r="L353" s="1"/>
       <c r="M353" s="1"/>
-      <c r="N353" s="1">
-        <v>5</v>
-      </c>
+      <c r="N353" s="1"/>
       <c r="O353" s="1"/>
       <c r="P353" s="1"/>
       <c r="Q353" s="1"/>
-      <c r="R353" s="1">
-        <v>5</v>
-      </c>
-      <c r="U353" s="1">
-        <v>15</v>
-      </c>
-      <c r="V353" s="1">
-        <v>15</v>
-      </c>
-      <c r="Y353" s="1">
-        <v>15</v>
-      </c>
+      <c r="R353" s="1"/>
+      <c r="U353" s="1"/>
+      <c r="V353" s="1"/>
+      <c r="Y353" s="1"/>
       <c r="AA353" s="2">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AB353" s="1" t="s">
         <v>22</v>
@@ -20566,49 +20286,29 @@
       <c r="A354" s="1">
         <v>354</v>
       </c>
-      <c r="B354" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C354" s="1">
-        <v>661</v>
-      </c>
-      <c r="D354" s="1">
-        <v>10006188231</v>
-      </c>
-      <c r="E354" s="1">
-        <v>14674441</v>
-      </c>
-      <c r="F354" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G354" s="1">
-        <v>10</v>
-      </c>
+      <c r="B354" s="1"/>
+      <c r="C354" s="1"/>
+      <c r="D354" s="1"/>
+      <c r="E354" s="1"/>
+      <c r="F354" s="1"/>
+      <c r="G354" s="1"/>
       <c r="H354" s="1"/>
       <c r="I354" s="1"/>
       <c r="J354" s="1"/>
       <c r="K354" s="1"/>
       <c r="L354" s="1"/>
-      <c r="M354" s="1">
-        <v>20</v>
-      </c>
+      <c r="M354" s="1"/>
       <c r="N354" s="1"/>
       <c r="O354" s="1"/>
       <c r="P354" s="1"/>
       <c r="Q354" s="1"/>
       <c r="R354" s="1"/>
-      <c r="U354" s="1">
-        <v>15</v>
-      </c>
-      <c r="V354" s="1">
-        <v>15</v>
-      </c>
-      <c r="Y354" s="1">
-        <v>15</v>
-      </c>
+      <c r="U354" s="1"/>
+      <c r="V354" s="1"/>
+      <c r="Y354" s="1"/>
       <c r="AA354" s="2">
         <f t="shared" si="6"/>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AB354" s="1" t="s">
         <v>22</v>
@@ -20618,49 +20318,29 @@
       <c r="A355" s="1">
         <v>355</v>
       </c>
-      <c r="B355" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C355" s="1">
-        <v>661</v>
-      </c>
-      <c r="D355" s="1">
-        <v>10006188202</v>
-      </c>
-      <c r="E355" s="1">
-        <v>14674440</v>
-      </c>
-      <c r="F355" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G355" s="1">
-        <v>10</v>
-      </c>
+      <c r="B355" s="1"/>
+      <c r="C355" s="1"/>
+      <c r="D355" s="1"/>
+      <c r="E355" s="1"/>
+      <c r="F355" s="1"/>
+      <c r="G355" s="1"/>
       <c r="H355" s="1"/>
       <c r="I355" s="1"/>
       <c r="J355" s="1"/>
       <c r="K355" s="1"/>
       <c r="L355" s="1"/>
-      <c r="M355" s="1">
-        <v>20</v>
-      </c>
+      <c r="M355" s="1"/>
       <c r="N355" s="1"/>
       <c r="O355" s="1"/>
       <c r="P355" s="1"/>
       <c r="Q355" s="1"/>
       <c r="R355" s="1"/>
-      <c r="U355" s="1">
-        <v>15</v>
-      </c>
-      <c r="V355" s="1">
-        <v>15</v>
-      </c>
-      <c r="Y355" s="1">
-        <v>15</v>
-      </c>
+      <c r="U355" s="1"/>
+      <c r="V355" s="1"/>
+      <c r="Y355" s="1"/>
       <c r="AA355" s="2">
         <f t="shared" si="6"/>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AB355" s="1" t="s">
         <v>22</v>
@@ -20670,45 +20350,29 @@
       <c r="A356" s="1">
         <v>356</v>
       </c>
-      <c r="B356" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C356" s="1">
-        <v>697</v>
-      </c>
-      <c r="D356" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E356" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="F356" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G356" s="1">
-        <v>5</v>
-      </c>
+      <c r="B356" s="1"/>
+      <c r="C356" s="1"/>
+      <c r="D356" s="1"/>
+      <c r="E356" s="1"/>
+      <c r="F356" s="1"/>
+      <c r="G356" s="1"/>
       <c r="H356" s="1"/>
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
       <c r="K356" s="1"/>
       <c r="L356" s="1"/>
-      <c r="M356" s="1">
-        <v>20</v>
-      </c>
+      <c r="M356" s="1"/>
       <c r="N356" s="1"/>
       <c r="O356" s="1"/>
       <c r="P356" s="1"/>
       <c r="Q356" s="1"/>
       <c r="R356" s="1"/>
       <c r="U356" s="1"/>
-      <c r="V356" s="1">
-        <v>5</v>
-      </c>
+      <c r="V356" s="1"/>
       <c r="Y356" s="1"/>
       <c r="AA356" s="2">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB356" s="1" t="s">
         <v>22</v>
@@ -20718,53 +20382,29 @@
       <c r="A357" s="1">
         <v>357</v>
       </c>
-      <c r="B357" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C357" s="1">
-        <v>697</v>
-      </c>
-      <c r="D357" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="E357" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="F357" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G357" s="1">
-        <v>15</v>
-      </c>
+      <c r="B357" s="1"/>
+      <c r="C357" s="1"/>
+      <c r="D357" s="1"/>
+      <c r="E357" s="1"/>
+      <c r="F357" s="1"/>
+      <c r="G357" s="1"/>
       <c r="H357" s="1"/>
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
       <c r="K357" s="1"/>
       <c r="L357" s="1"/>
-      <c r="M357" s="1">
-        <v>15</v>
-      </c>
-      <c r="N357" s="1">
-        <v>10</v>
-      </c>
+      <c r="M357" s="1"/>
+      <c r="N357" s="1"/>
       <c r="O357" s="1"/>
-      <c r="P357" s="1">
-        <v>10</v>
-      </c>
+      <c r="P357" s="1"/>
       <c r="Q357" s="1"/>
       <c r="R357" s="1"/>
-      <c r="U357" s="1">
-        <v>45</v>
-      </c>
-      <c r="V357" s="1">
-        <v>15</v>
-      </c>
-      <c r="Y357" s="1">
-        <v>15</v>
-      </c>
+      <c r="U357" s="1"/>
+      <c r="V357" s="1"/>
+      <c r="Y357" s="1"/>
       <c r="AA357" s="2">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="AB357" s="1" t="s">
         <v>22</v>
@@ -20774,47 +20414,29 @@
       <c r="A358" s="1">
         <v>358</v>
       </c>
-      <c r="B358" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C358" s="1">
-        <v>570</v>
-      </c>
-      <c r="D358" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="E358" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="F358" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G358" s="1">
-        <v>5</v>
-      </c>
+      <c r="B358" s="1"/>
+      <c r="C358" s="1"/>
+      <c r="D358" s="1"/>
+      <c r="E358" s="1"/>
+      <c r="F358" s="1"/>
+      <c r="G358" s="1"/>
       <c r="H358" s="1"/>
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
       <c r="K358" s="1"/>
       <c r="L358" s="1"/>
-      <c r="M358" s="1">
-        <v>10</v>
-      </c>
+      <c r="M358" s="1"/>
       <c r="N358" s="1"/>
       <c r="O358" s="1"/>
       <c r="P358" s="1"/>
       <c r="Q358" s="1"/>
       <c r="R358" s="1"/>
-      <c r="U358" s="1">
-        <v>10</v>
-      </c>
-      <c r="V358" s="1">
-        <v>5</v>
-      </c>
+      <c r="U358" s="1"/>
+      <c r="V358" s="1"/>
       <c r="Y358" s="1"/>
       <c r="AA358" s="2">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB358" s="1" t="s">
         <v>22</v>
@@ -20824,53 +20446,29 @@
       <c r="A359" s="1">
         <v>359</v>
       </c>
-      <c r="B359" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C359" s="1">
-        <v>704</v>
-      </c>
-      <c r="D359" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="E359" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="F359" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G359" s="1">
-        <v>15</v>
-      </c>
+      <c r="B359" s="1"/>
+      <c r="C359" s="1"/>
+      <c r="D359" s="1"/>
+      <c r="E359" s="1"/>
+      <c r="F359" s="1"/>
+      <c r="G359" s="1"/>
       <c r="H359" s="1"/>
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
       <c r="K359" s="1"/>
       <c r="L359" s="1"/>
-      <c r="M359" s="1">
-        <v>15</v>
-      </c>
-      <c r="N359" s="1">
-        <v>10</v>
-      </c>
+      <c r="M359" s="1"/>
+      <c r="N359" s="1"/>
       <c r="O359" s="1"/>
-      <c r="P359" s="1">
-        <v>10</v>
-      </c>
+      <c r="P359" s="1"/>
       <c r="Q359" s="1"/>
       <c r="R359" s="1"/>
-      <c r="U359" s="1">
-        <v>45</v>
-      </c>
-      <c r="V359" s="1">
-        <v>15</v>
-      </c>
-      <c r="Y359" s="1">
-        <v>15</v>
-      </c>
+      <c r="U359" s="1"/>
+      <c r="V359" s="1"/>
+      <c r="Y359" s="1"/>
       <c r="AA359" s="2">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="AB359" s="1" t="s">
         <v>22</v>
@@ -20880,49 +20478,29 @@
       <c r="A360" s="1">
         <v>360</v>
       </c>
-      <c r="B360" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C360" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D360" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="E360" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="F360" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G360" s="1">
-        <v>5</v>
-      </c>
+      <c r="B360" s="1"/>
+      <c r="C360" s="1"/>
+      <c r="D360" s="1"/>
+      <c r="E360" s="1"/>
+      <c r="F360" s="1"/>
+      <c r="G360" s="1"/>
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
       <c r="K360" s="1"/>
-      <c r="L360" s="1">
-        <v>15</v>
-      </c>
+      <c r="L360" s="1"/>
       <c r="M360" s="1"/>
       <c r="N360" s="1"/>
       <c r="O360" s="1"/>
-      <c r="P360" s="1">
-        <v>15</v>
-      </c>
+      <c r="P360" s="1"/>
       <c r="Q360" s="1"/>
       <c r="R360" s="1"/>
       <c r="U360" s="1"/>
-      <c r="V360" s="1">
-        <v>15</v>
-      </c>
-      <c r="Y360" s="1">
-        <v>10</v>
-      </c>
+      <c r="V360" s="1"/>
+      <c r="Y360" s="1"/>
       <c r="AA360" s="2">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AB360" s="1" t="s">
         <v>22</v>
@@ -20932,51 +20510,29 @@
       <c r="A361" s="1">
         <v>361</v>
       </c>
-      <c r="B361" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C361" s="1">
-        <v>697</v>
-      </c>
-      <c r="D361" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E361" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="F361" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G361" s="1">
-        <v>30</v>
-      </c>
+      <c r="B361" s="1"/>
+      <c r="C361" s="1"/>
+      <c r="D361" s="1"/>
+      <c r="E361" s="1"/>
+      <c r="F361" s="1"/>
+      <c r="G361" s="1"/>
       <c r="H361" s="1"/>
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
       <c r="K361" s="1"/>
       <c r="L361" s="1"/>
-      <c r="M361" s="1">
-        <v>120</v>
-      </c>
-      <c r="N361" s="1">
-        <v>90</v>
-      </c>
+      <c r="M361" s="1"/>
+      <c r="N361" s="1"/>
       <c r="O361" s="1"/>
       <c r="P361" s="1"/>
       <c r="Q361" s="1"/>
       <c r="R361" s="1"/>
-      <c r="U361" s="1">
-        <v>180</v>
-      </c>
-      <c r="V361" s="1">
-        <v>120</v>
-      </c>
-      <c r="Y361" s="1">
-        <v>120</v>
-      </c>
+      <c r="U361" s="1"/>
+      <c r="V361" s="1"/>
+      <c r="Y361" s="1"/>
       <c r="AA361" s="2">
         <f t="shared" si="6"/>
-        <v>660</v>
+        <v>0</v>
       </c>
       <c r="AB361" s="1" t="s">
         <v>22</v>
@@ -20986,45 +20542,29 @@
       <c r="A362" s="1">
         <v>362</v>
       </c>
-      <c r="B362" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C362" s="1">
-        <v>691</v>
-      </c>
-      <c r="D362" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E362" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F362" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G362" s="1">
-        <v>5</v>
-      </c>
+      <c r="B362" s="1"/>
+      <c r="C362" s="1"/>
+      <c r="D362" s="1"/>
+      <c r="E362" s="1"/>
+      <c r="F362" s="1"/>
+      <c r="G362" s="1"/>
       <c r="H362" s="1"/>
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
       <c r="K362" s="1"/>
       <c r="L362" s="1"/>
-      <c r="M362" s="1">
-        <v>40</v>
-      </c>
+      <c r="M362" s="1"/>
       <c r="N362" s="1"/>
       <c r="O362" s="1"/>
       <c r="P362" s="1"/>
       <c r="Q362" s="1"/>
       <c r="R362" s="1"/>
       <c r="U362" s="1"/>
-      <c r="V362" s="1">
-        <v>15</v>
-      </c>
+      <c r="V362" s="1"/>
       <c r="Y362" s="1"/>
       <c r="AA362" s="2">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AB362" s="1" t="s">
         <v>22</v>
@@ -21034,50 +20574,29 @@
       <c r="A363" s="1">
         <v>363</v>
       </c>
-      <c r="B363" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C363" s="1">
-        <v>661</v>
-      </c>
-      <c r="D363" s="1">
-        <v>10010879187</v>
-      </c>
-      <c r="E363" s="1">
-        <v>17234524</v>
-      </c>
-      <c r="F363" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G363" s="1">
-        <v>5</v>
-      </c>
+      <c r="B363" s="1"/>
+      <c r="C363" s="1"/>
+      <c r="D363" s="1"/>
+      <c r="E363" s="1"/>
+      <c r="F363" s="1"/>
+      <c r="G363" s="1"/>
       <c r="H363" s="1"/>
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
       <c r="K363" s="1"/>
       <c r="L363" s="1"/>
       <c r="M363" s="1"/>
-      <c r="N363" s="1">
-        <v>30</v>
-      </c>
-      <c r="O363" s="1">
-        <v>20</v>
-      </c>
+      <c r="N363" s="1"/>
+      <c r="O363" s="1"/>
       <c r="P363" s="1"/>
       <c r="Q363" s="1"/>
       <c r="R363" s="1"/>
       <c r="U363" s="1"/>
-      <c r="V363" s="1">
-        <v>10</v>
-      </c>
-      <c r="X363" s="1">
-        <v>15</v>
-      </c>
+      <c r="V363" s="1"/>
       <c r="Y363" s="1"/>
       <c r="AA363" s="2">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AB363" s="1" t="s">
         <v>22</v>
@@ -26037,7 +25556,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26224,7 +25743,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B17" s="8">
         <v>10006836942</v>
@@ -26235,7 +25754,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B18" s="8">
         <v>10006836881</v>
@@ -26246,7 +25765,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B19" s="8">
         <v>10006836848</v>
@@ -26257,7 +25776,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B20" s="8">
         <v>10004254702</v>
@@ -26268,7 +25787,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B21" s="8">
         <v>10006000456</v>
@@ -26279,7 +25798,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B22" s="8">
         <v>10006001743</v>
@@ -26290,7 +25809,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B23" s="8">
         <v>10004963667</v>
@@ -26301,7 +25820,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="B24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C24" s="2">
         <v>3092</v>
@@ -26316,7 +25835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9D6A0A-58D8-491B-8520-AA2E6E8E4A66}">
   <dimension ref="A1:B278"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A268" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -26336,7 +25855,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="B2" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -26346,37 +25865,37 @@
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="15" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -26386,17 +25905,17 @@
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -26406,12 +25925,12 @@
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="2:2">
@@ -26421,7 +25940,7 @@
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -26441,7 +25960,7 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="2:2">
@@ -26481,7 +26000,7 @@
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="2:2">
@@ -26491,17 +26010,17 @@
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -26521,7 +26040,7 @@
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="15" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" spans="2:2">
@@ -26531,7 +26050,7 @@
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="2:2">
@@ -26646,7 +26165,7 @@
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="2:2">
@@ -26791,47 +26310,47 @@
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="15" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="15" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="15" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="102" spans="2:2">
@@ -26841,22 +26360,22 @@
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="15" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" s="15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="15" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="107" spans="2:2">
@@ -26871,22 +26390,22 @@
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="113" spans="2:2">
@@ -26911,7 +26430,7 @@
     </row>
     <row r="117" spans="2:2">
       <c r="B117" s="15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="118" spans="2:2">
@@ -26951,7 +26470,7 @@
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="15" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="126" spans="2:2">
@@ -27001,112 +26520,112 @@
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="15" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="15" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="15" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="15" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" s="15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" s="15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="15" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" s="15" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" s="15" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" s="15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="157" spans="2:2">
@@ -27151,22 +26670,22 @@
     </row>
     <row r="165" spans="2:2">
       <c r="B165" s="15" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="169" spans="2:2">
@@ -27291,27 +26810,27 @@
     </row>
     <row r="193" spans="2:2">
       <c r="B193" s="15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" s="15" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" s="15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" s="15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="198" spans="2:2">
@@ -27451,7 +26970,7 @@
     </row>
     <row r="225" spans="2:2">
       <c r="B225" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="226" spans="2:2">
@@ -27461,12 +26980,12 @@
     </row>
     <row r="227" spans="2:2">
       <c r="B227" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="228" spans="2:2">
       <c r="B228" s="15" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="229" spans="2:2">
@@ -27496,42 +27015,42 @@
     </row>
     <row r="234" spans="2:2">
       <c r="B234" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="235" spans="2:2">
       <c r="B235" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="236" spans="2:2">
       <c r="B236" s="15" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="237" spans="2:2">
       <c r="B237" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="238" spans="2:2">
       <c r="B238" s="15" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" s="15" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="240" spans="2:2">
       <c r="B240" s="15" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="241" spans="2:2">
       <c r="B241" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="242" spans="2:2">
@@ -27571,42 +27090,42 @@
     </row>
     <row r="249" spans="2:2">
       <c r="B249" s="15" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="250" spans="2:2">
       <c r="B250" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="251" spans="2:2">
       <c r="B251" s="15" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="252" spans="2:2">
       <c r="B252" s="15" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="253" spans="2:2">
       <c r="B253" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="254" spans="2:2">
       <c r="B254" s="15" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="255" spans="2:2">
       <c r="B255" s="15" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="256" spans="2:2">
       <c r="B256" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="257" spans="2:2">
@@ -27616,7 +27135,7 @@
     </row>
     <row r="258" spans="2:2">
       <c r="B258" s="15" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="259" spans="2:2">
@@ -27631,92 +27150,92 @@
     </row>
     <row r="261" spans="2:2">
       <c r="B261" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="262" spans="2:2">
       <c r="B262" s="15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="263" spans="2:2">
       <c r="B263" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="264" spans="2:2">
       <c r="B264" s="15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="265" spans="2:2">
       <c r="B265" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="266" spans="2:2">
       <c r="B266" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="267" spans="2:2">
       <c r="B267" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="268" spans="2:2">
       <c r="B268" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="269" spans="2:2">
       <c r="B269" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="270" spans="2:2">
       <c r="B270" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="271" spans="2:2">
       <c r="B271" s="15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="272" spans="2:2">
       <c r="B272" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="273" spans="2:2">
       <c r="B273" s="15" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="274" spans="2:2">
       <c r="B274" s="15" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="275" spans="2:2">
       <c r="B275" s="15" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="276" spans="2:2">
       <c r="B276" s="15" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="277" spans="2:2">
       <c r="B277" s="15" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="278" spans="2:2">
       <c r="B278" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -27748,7 +27267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFED1B6-6669-418D-935F-274B00B50F32}">
   <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -27769,17 +27288,17 @@
     </row>
     <row r="2" spans="1:2">
       <c r="B2" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -27789,12 +27308,12 @@
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -27804,27 +27323,27 @@
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -27839,22 +27358,22 @@
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -27879,12 +27398,12 @@
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="2:2">
@@ -27909,7 +27428,7 @@
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="2:2">
@@ -27934,7 +27453,7 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -27964,7 +27483,7 @@
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="2:2">
@@ -28009,22 +27528,22 @@
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="2:2">
@@ -28154,7 +27673,7 @@
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="2:2">
@@ -28164,12 +27683,12 @@
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="2:2">
@@ -28214,12 +27733,12 @@
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93" spans="2:2">
@@ -28249,12 +27768,12 @@
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="100" spans="2:2">
@@ -28269,17 +27788,17 @@
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="105" spans="2:2">
@@ -28289,7 +27808,7 @@
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="107" spans="2:2">
@@ -28319,27 +27838,27 @@
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="121" spans="2:2" ht="14.25" customHeight="1"/>
@@ -28369,16 +27888,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF03CF93-A241-4DB9-ACD8-61B0F18F4B55}">
-  <dimension ref="A1:V221"/>
+  <dimension ref="A1:V220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B200" sqref="B200"/>
+    <sheetView topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I220" sqref="I220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -28387,12 +27906,12 @@
       <c r="A1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="V1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -28401,7 +27920,7 @@
         <v>10008521996</v>
       </c>
       <c r="V2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -28410,7 +27929,7 @@
         <v>10008521996</v>
       </c>
       <c r="V3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -28419,7 +27938,7 @@
         <v>10008521996</v>
       </c>
       <c r="V4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -28428,7 +27947,7 @@
         <v>HV307164-XX</v>
       </c>
       <c r="V5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -28437,7 +27956,7 @@
       </c>
       <c r="F6" s="2"/>
       <c r="V6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -28446,7 +27965,7 @@
         <v>HV306453-01</v>
       </c>
       <c r="V7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -28455,7 +27974,7 @@
         <v>HV400318-XX</v>
       </c>
       <c r="V8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -28464,7 +27983,7 @@
         <v>HV307164-XX</v>
       </c>
       <c r="V9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -28473,7 +27992,7 @@
         <v>HV303895-01</v>
       </c>
       <c r="V10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -28482,7 +28001,7 @@
         <v>HV307986-XX</v>
       </c>
       <c r="V11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -28491,7 +28010,7 @@
         <v>10011984549</v>
       </c>
       <c r="V12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -28500,7 +28019,7 @@
         <v>HV311169-XX</v>
       </c>
       <c r="V13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -28509,7 +28028,7 @@
         <v>4365870010-004</v>
       </c>
       <c r="V14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -28518,7 +28037,7 @@
         <v>HV307986-XX</v>
       </c>
       <c r="V15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -28527,7 +28046,7 @@
         <v>4544520010-006</v>
       </c>
       <c r="V16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="2:22">
@@ -28536,7 +28055,7 @@
         <v>28800202</v>
       </c>
       <c r="V17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="2:22">
@@ -28545,7 +28064,7 @@
         <v>10007618049</v>
       </c>
       <c r="V18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="2:22">
@@ -28554,7 +28073,7 @@
         <v>10008511425</v>
       </c>
       <c r="V19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="2:22">
@@ -28563,7 +28082,7 @@
         <v>10008511425</v>
       </c>
       <c r="V20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="2:22">
@@ -28572,7 +28091,7 @@
         <v>10005591672</v>
       </c>
       <c r="V21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="2:22">
@@ -28581,7 +28100,7 @@
         <v>10008507813</v>
       </c>
       <c r="V22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="2:22">
@@ -28590,7 +28109,7 @@
         <v>10008507813</v>
       </c>
       <c r="V23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="2:22">
@@ -28599,7 +28118,7 @@
         <v>10008507813</v>
       </c>
       <c r="V24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="2:22">
@@ -28608,7 +28127,7 @@
         <v>HVHV307987-XX</v>
       </c>
       <c r="V25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="2:22">
@@ -28617,7 +28136,7 @@
         <v>HV307986-XX</v>
       </c>
       <c r="V26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="2:22">
@@ -28626,7 +28145,7 @@
         <v>HV307986-XX</v>
       </c>
       <c r="V27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="2:22">
@@ -28635,7 +28154,7 @@
         <v>HV307986-XX</v>
       </c>
       <c r="V28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="2:22">
@@ -28644,7 +28163,7 @@
         <v>HV307986-XX</v>
       </c>
       <c r="V29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="2:22">
@@ -28653,7 +28172,7 @@
         <v>HV307986-XX</v>
       </c>
       <c r="V30" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="2:22">
@@ -28662,7 +28181,7 @@
         <v>RML-W-064709</v>
       </c>
       <c r="V31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="2:22">
@@ -28671,7 +28190,7 @@
         <v>HV311126-02</v>
       </c>
       <c r="V32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="2:22">
@@ -28680,7 +28199,7 @@
         <v>HV307986-XX</v>
       </c>
       <c r="V33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="2:22">
@@ -28689,7 +28208,7 @@
         <v>HV307164-XX</v>
       </c>
       <c r="V34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="2:22">
@@ -28698,7 +28217,7 @@
         <v>10005864826</v>
       </c>
       <c r="V35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="2:22">
@@ -28707,7 +28226,7 @@
         <v>10004229966</v>
       </c>
       <c r="V36" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="2:22">
@@ -28716,7 +28235,7 @@
         <v>10008755474</v>
       </c>
       <c r="V37" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="2:22">
@@ -28725,7 +28244,7 @@
         <v>10010360769</v>
       </c>
       <c r="V38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="2:22">
@@ -28734,7 +28253,7 @@
         <v>10009890643</v>
       </c>
       <c r="V39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="2:22">
@@ -28743,7 +28262,7 @@
         <v>10009855888</v>
       </c>
       <c r="V40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="2:22">
@@ -28752,7 +28271,7 @@
         <v>10004980103</v>
       </c>
       <c r="V41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="2:22">
@@ -28761,7 +28280,7 @@
         <v>10004976811</v>
       </c>
       <c r="V42" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="2:22">
@@ -28770,7 +28289,7 @@
         <v>10004963667</v>
       </c>
       <c r="V43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="2:22">
@@ -28779,7 +28298,7 @@
         <v>10008507821</v>
       </c>
       <c r="V44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="2:22">
@@ -28788,7 +28307,7 @@
         <v>10008507821</v>
       </c>
       <c r="V45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="2:22">
@@ -28797,7 +28316,7 @@
         <v>10008514727</v>
       </c>
       <c r="V46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="2:22">
@@ -28806,7 +28325,7 @@
         <v>10006001743</v>
       </c>
       <c r="V47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="2:22">
@@ -28815,7 +28334,7 @@
         <v>10006000456</v>
       </c>
       <c r="V48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="2:22">
@@ -28824,7 +28343,7 @@
         <v>10004254702</v>
       </c>
       <c r="V49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="2:22">
@@ -28833,7 +28352,7 @@
         <v>10003058629</v>
       </c>
       <c r="V50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="2:22">
@@ -28842,7 +28361,7 @@
         <v>10005184725</v>
       </c>
       <c r="V51" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="2:22">
@@ -28851,7 +28370,7 @@
         <v>10005675337</v>
       </c>
       <c r="V52" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="2:22">
@@ -28860,7 +28379,7 @@
         <v>10005159680</v>
       </c>
       <c r="V53" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="2:22">
@@ -28869,7 +28388,7 @@
         <v>10006836848</v>
       </c>
       <c r="V54" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="2:22">
@@ -28878,7 +28397,7 @@
         <v>10006836881</v>
       </c>
       <c r="V55" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="2:22">
@@ -28887,7 +28406,7 @@
         <v>10006504723</v>
       </c>
       <c r="V56" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="2:22">
@@ -28928,7 +28447,7 @@
     </row>
     <row r="64" spans="2:22">
       <c r="B64" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="2:2">
@@ -29053,12 +28572,12 @@
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="91" spans="2:2">
@@ -29138,17 +28657,17 @@
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="109" spans="2:2">
@@ -29363,7 +28882,7 @@
     </row>
     <row r="151" spans="2:2">
       <c r="B151" s="15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="152" spans="2:2">
@@ -29373,7 +28892,7 @@
     </row>
     <row r="153" spans="2:2">
       <c r="B153" s="15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="154" spans="2:2">
@@ -29488,12 +29007,12 @@
     </row>
     <row r="176" spans="2:2">
       <c r="B176" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" s="15" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="178" spans="2:2">
@@ -29618,7 +29137,7 @@
     </row>
     <row r="202" spans="2:2">
       <c r="B202" s="15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="203" spans="2:2">
@@ -29633,7 +29152,7 @@
     </row>
     <row r="205" spans="2:2">
       <c r="B205" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="206" spans="2:2">
@@ -29707,13 +29226,8 @@
       </c>
     </row>
     <row r="220" spans="2:2">
-      <c r="B220" s="15" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="221" spans="2:2">
-      <c r="B221" s="15" t="s">
-        <v>497</v>
+      <c r="B220" s="10" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -29743,16 +29257,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA1C6DF-1C6F-4A7E-AA08-F9BD66EE655C}">
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -29765,13 +29279,13 @@
     </row>
     <row r="2" spans="1:10">
       <c r="B2" s="15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J3" s="12"/>
     </row>
@@ -29783,7 +29297,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J5" s="12"/>
     </row>
@@ -29795,19 +29309,19 @@
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J9" s="12"/>
     </row>
@@ -29825,7 +29339,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J12" s="12"/>
     </row>
@@ -29842,12 +29356,12 @@
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="15" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="15" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -29867,27 +29381,27 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="2:2">
@@ -29912,17 +29426,17 @@
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="2:2">
@@ -29962,12 +29476,12 @@
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="2:2">
@@ -29992,12 +29506,12 @@
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="2:2">
@@ -30012,222 +29526,7 @@
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="15" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="15" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="15">
-        <v>28760407</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="15" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="15" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="15">
-        <v>10004112775</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="15" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="15">
-        <v>10007234956</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="15">
-        <v>10006188231</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="15">
-        <v>10006188202</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="15" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="15" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="15" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="15" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="15" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="15" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="15" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86" s="15" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="15" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="15" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="15" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="15">
-        <v>10010879187</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="15" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" s="15" t="s">
-        <v>510</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -30256,16 +29555,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC684379-4DA6-4542-878A-CB7C3F3346DA}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -30278,7 +29576,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="B2" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -30292,28 +29590,8 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" s="15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="15" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" s="15" t="s">
-        <v>187</v>
+      <c r="B5" s="9" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -30345,7 +29623,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB77B85-D1E8-42D5-A1BB-6B26DD19F093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617C85FD-F412-40AB-9C78-ABCA9F3D1C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="5" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCESSOS DE FABRICAÇÃO" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="518">
   <si>
     <t>ORCAMENTO</t>
   </si>
@@ -268,9 +268,6 @@
   </si>
   <si>
     <t>DOBRADEIRA</t>
-  </si>
-  <si>
-    <t>CLIENTE</t>
   </si>
   <si>
     <t>WEG</t>
@@ -1518,6 +1515,81 @@
   </si>
   <si>
     <t>N4-0200344</t>
+  </si>
+  <si>
+    <t>HV400308-02</t>
+  </si>
+  <si>
+    <t>PM-PRT3690.1</t>
+  </si>
+  <si>
+    <t>HVHV307987-XX ITEM 01</t>
+  </si>
+  <si>
+    <t>HV310705-08</t>
+  </si>
+  <si>
+    <t>HV309125-02</t>
+  </si>
+  <si>
+    <t>HVHV309125-02</t>
+  </si>
+  <si>
+    <t>HVHV400308-02</t>
+  </si>
+  <si>
+    <t>HVEX</t>
+  </si>
+  <si>
+    <t>HVHV310705-08</t>
+  </si>
+  <si>
+    <t>4574520010-002</t>
+  </si>
+  <si>
+    <t>HV305342-08</t>
+  </si>
+  <si>
+    <t>HV311668-01</t>
+  </si>
+  <si>
+    <t>HV309125-03</t>
+  </si>
+  <si>
+    <t>HVHV311657-01</t>
+  </si>
+  <si>
+    <t>HVHV305342-08</t>
+  </si>
+  <si>
+    <t>HVHV311668-01</t>
+  </si>
+  <si>
+    <t>HVHV309125-03</t>
+  </si>
+  <si>
+    <t>4309440010-003</t>
+  </si>
+  <si>
+    <t>4309440010-004</t>
+  </si>
+  <si>
+    <t>HVHV311642-02</t>
+  </si>
+  <si>
+    <t>HV311008-07</t>
+  </si>
+  <si>
+    <t>4525950010-005</t>
+  </si>
+  <si>
+    <t>4525950010-006</t>
+  </si>
+  <si>
+    <t>HV309108-01</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -2570,9 +2642,9 @@
   </sheetPr>
   <dimension ref="A1:AV540"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E208" sqref="E208"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C364" sqref="C364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2581,7 +2653,7 @@
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -2613,8 +2685,8 @@
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>79</v>
+      <c r="B1" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -2650,7 +2722,7 @@
         <v>10</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>11</v>
@@ -2665,7 +2737,7 @@
         <v>13</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>14</v>
@@ -2700,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2">
         <v>514</v>
@@ -2754,14 +2826,14 @@
       </c>
       <c r="AL2" s="1">
         <f>SUM(G2:G500)</f>
-        <v>5948</v>
+        <v>6098</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN2" s="21">
         <f>AL2/AL23</f>
-        <v>0.12263664666707903</v>
+        <v>0.12088580870385751</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -2769,7 +2841,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2">
         <v>514</v>
@@ -2819,32 +2891,32 @@
         <v>22</v>
       </c>
       <c r="AK3" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AL3" s="1">
         <f>SUM(H2:H500)</f>
-        <v>4137</v>
+        <v>4182</v>
       </c>
       <c r="AM3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN3" s="21">
         <f>AL3/AL23</f>
-        <v>8.5297210366796564E-2</v>
+        <v>8.2903321088804868E-2</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AQ3" s="1">
         <f>SUM(AL2:AL5)</f>
-        <v>10359</v>
+        <v>10582.3</v>
       </c>
       <c r="AR3" t="s">
         <v>22</v>
       </c>
       <c r="AS3" s="21">
         <f>AQ3/AL23</f>
-        <v>0.21358322508814251</v>
+        <v>0.20978187823004776</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -2852,7 +2924,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2">
         <v>514</v>
@@ -2904,18 +2976,18 @@
         <v>22</v>
       </c>
       <c r="AK4" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AL4" s="1">
         <f>SUM(I2:I499)</f>
-        <v>267</v>
+        <v>295.3</v>
       </c>
       <c r="AM4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN4" s="21">
         <f>AL4/AL23</f>
-        <v>5.5050411331725117E-3</v>
+        <v>5.8539815202114012E-3</v>
       </c>
       <c r="AP4" s="1"/>
       <c r="AS4" s="1"/>
@@ -2925,7 +2997,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2">
         <v>514</v>
@@ -2977,7 +3049,7 @@
         <v>22</v>
       </c>
       <c r="AK5" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AL5" s="1">
         <f>SUM(J2:J500)</f>
@@ -2988,21 +3060,21 @@
       </c>
       <c r="AN5" s="21">
         <f>AL5/AL23</f>
-        <v>1.4432692109441042E-4</v>
+        <v>1.3876691717399191E-4</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AQ5" s="1">
         <f>SUM(AL6:AL7)</f>
-        <v>3082</v>
+        <v>3122</v>
       </c>
       <c r="AR5" t="s">
         <v>22</v>
       </c>
       <c r="AS5" s="21">
         <f>AQ5/AL23</f>
-        <v>6.3545081544710419E-2</v>
+        <v>6.1890045059600385E-2</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -3010,7 +3082,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2">
         <v>514</v>
@@ -3066,14 +3138,14 @@
       </c>
       <c r="AL6" s="1">
         <f>SUM(K2:K501)</f>
-        <v>2843</v>
+        <v>2853</v>
       </c>
       <c r="AM6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN6" s="21">
         <f>AL6/AL23</f>
-        <v>5.8617348095915546E-2</v>
+        <v>5.6557430671056987E-2</v>
       </c>
       <c r="AS6" s="1"/>
     </row>
@@ -3082,7 +3154,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2">
         <v>514</v>
@@ -3138,28 +3210,28 @@
       </c>
       <c r="AL7" s="1">
         <f>SUM(L2:L501)</f>
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="AM7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN7" s="21">
         <f>AL7/AL23</f>
-        <v>4.9277334487948703E-3</v>
+        <v>5.3326143885434026E-3</v>
       </c>
       <c r="AP7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AQ7" s="1">
         <f>AL8</f>
-        <v>6313</v>
+        <v>6673</v>
       </c>
       <c r="AR7" t="s">
         <v>22</v>
       </c>
       <c r="AS7" s="22">
         <f>AN8</f>
-        <v>0.13016226469557329</v>
+        <v>0.13228451975743541</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -3167,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2">
         <v>514</v>
@@ -3223,14 +3295,14 @@
       </c>
       <c r="AL8" s="1">
         <f>SUM(M2:M499)</f>
-        <v>6313</v>
+        <v>6673</v>
       </c>
       <c r="AM8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN8" s="21">
         <f>AL8/AL23</f>
-        <v>0.13016226469557329</v>
+        <v>0.13228451975743541</v>
       </c>
       <c r="AS8" s="1"/>
     </row>
@@ -3239,7 +3311,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2">
         <v>514</v>
@@ -3291,32 +3363,32 @@
         <v>22</v>
       </c>
       <c r="AK9" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AL9" s="1">
         <f>SUM(N2:N501)</f>
-        <v>2396</v>
+        <v>2586</v>
       </c>
       <c r="AM9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN9" s="21">
         <f>AL9/AL23</f>
-        <v>4.9401043277458194E-2</v>
+        <v>5.1264463973134722E-2</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AQ9" s="1">
         <f>AL9</f>
-        <v>2396</v>
+        <v>2586</v>
       </c>
       <c r="AR9" t="s">
         <v>22</v>
       </c>
       <c r="AS9" s="22">
         <f>AN9</f>
-        <v>4.9401043277458194E-2</v>
+        <v>5.1264463973134722E-2</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -3324,7 +3396,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2">
         <v>650</v>
@@ -3380,14 +3452,14 @@
       </c>
       <c r="AL10" s="1">
         <f>SUM(O2:O500)</f>
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="AM10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN10" s="21">
         <f>AL10/AL23</f>
-        <v>3.0514834745675348E-3</v>
+        <v>3.3304060121758057E-3</v>
       </c>
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
@@ -3398,7 +3470,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2">
         <v>648</v>
@@ -3454,28 +3526,28 @@
       </c>
       <c r="AL11" s="1">
         <f>SUM(P2:P500)</f>
-        <v>689</v>
+        <v>734</v>
       </c>
       <c r="AM11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN11" s="21">
         <f>AL11/AL23</f>
-        <v>1.420589266200697E-2</v>
+        <v>1.4550702457958579E-2</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AQ11" s="1">
         <f>SUM(AL10:AL12)</f>
-        <v>1318</v>
+        <v>1388</v>
       </c>
       <c r="AR11" t="s">
         <v>22</v>
       </c>
       <c r="AS11" s="22">
         <f>AQ11/AL23</f>
-        <v>2.7174697428918992E-2</v>
+        <v>2.7515497291071538E-2</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -3483,7 +3555,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2">
         <v>648</v>
@@ -3537,14 +3609,14 @@
       </c>
       <c r="AL12" s="1">
         <f>SUM(Q2:Q500)</f>
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="AM12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN12" s="21">
         <f>AL12/AL23</f>
-        <v>9.9173212923444869E-3</v>
+        <v>9.6343888209371523E-3</v>
       </c>
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
@@ -3555,7 +3627,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2">
         <v>648</v>
@@ -3607,28 +3679,28 @@
       </c>
       <c r="AL13" s="1">
         <f>SUM(R2:R500)</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN13" s="21">
         <f>AL13/AL23</f>
-        <v>1.7525411847178409E-3</v>
+        <v>1.7841460779513243E-3</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AQ13" s="1">
         <f>AL13</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AR13" t="s">
         <v>22</v>
       </c>
       <c r="AS13" s="22">
         <f>AQ13/AL23</f>
-        <v>1.7525411847178409E-3</v>
+        <v>1.7841460779513243E-3</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -3636,7 +3708,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2">
         <v>635</v>
@@ -3680,7 +3752,7 @@
         <v>22</v>
       </c>
       <c r="AK14" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AL14" s="1">
         <f>SUM(S5:S501)</f>
@@ -3691,7 +3763,7 @@
       </c>
       <c r="AN14" s="21">
         <f>AL14/AL23</f>
-        <v>2.474175790189893E-3</v>
+        <v>2.3788614372684327E-3</v>
       </c>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
@@ -3702,7 +3774,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2">
         <v>507</v>
@@ -3766,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AQ15" s="1">
         <f>AL14</f>
@@ -3777,7 +3849,7 @@
       </c>
       <c r="AS15" s="22">
         <f>AN14</f>
-        <v>2.474175790189893E-3</v>
+        <v>2.3788614372684327E-3</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -3785,7 +3857,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="2">
         <v>606</v>
@@ -3841,14 +3913,14 @@
       </c>
       <c r="AL16" s="1">
         <f>SUM(U4:U499)</f>
-        <v>13784</v>
+        <v>14199</v>
       </c>
       <c r="AM16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN16" s="21">
         <f>AL16/AL23</f>
-        <v>0.28420032576647902</v>
+        <v>0.28147877956478728</v>
       </c>
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1"/>
@@ -3859,7 +3931,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="2">
         <v>436</v>
@@ -3909,14 +3981,14 @@
       </c>
       <c r="AL17" s="1">
         <f>SUM(V11:V499)</f>
-        <v>4695</v>
+        <v>5065</v>
       </c>
       <c r="AM17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN17" s="21">
         <f>AL17/AL23</f>
-        <v>9.6802127791179568E-2</v>
+        <v>0.10040777649803842</v>
       </c>
       <c r="AP17" s="1" t="s">
         <v>14</v>
@@ -3936,7 +4008,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="2">
         <v>436</v>
@@ -3990,14 +4062,14 @@
       </c>
       <c r="AL18" s="1">
         <f>SUM(W6:W498)</f>
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="AM18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN18" s="21">
         <f>AL18/AL23</f>
-        <v>1.3360549267025422E-2</v>
+        <v>1.3242328667460942E-2</v>
       </c>
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
@@ -4008,7 +4080,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2">
         <v>438</v>
@@ -4058,28 +4130,28 @@
       </c>
       <c r="AL19" s="1">
         <f>SUM(X10:X500)</f>
-        <v>3143</v>
+        <v>3158</v>
       </c>
       <c r="AM19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN19" s="21">
         <f>AL19/AL23</f>
-        <v>6.4802787571390283E-2</v>
+        <v>6.2603703490780913E-2</v>
       </c>
       <c r="AP19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AQ19" s="1">
         <f>AL16</f>
-        <v>13784</v>
+        <v>14199</v>
       </c>
       <c r="AR19" t="s">
         <v>22</v>
       </c>
       <c r="AS19" s="22">
         <f>AN16</f>
-        <v>0.28420032576647902</v>
+        <v>0.28147877956478728</v>
       </c>
     </row>
     <row r="20" spans="1:46">
@@ -4087,7 +4159,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="2">
         <v>437</v>
@@ -4143,14 +4215,14 @@
       </c>
       <c r="AL20" s="1">
         <f>SUM(Y5:Y499)</f>
-        <v>2498</v>
+        <v>2733</v>
       </c>
       <c r="AM20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN20" s="21">
         <f>AL20/AL23</f>
-        <v>5.1504092699119604E-2</v>
+        <v>5.4178569233788554E-2</v>
       </c>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
@@ -4161,7 +4233,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="2">
         <v>495</v>
@@ -4226,21 +4298,21 @@
       </c>
       <c r="AN21" s="21">
         <f>AL21/AL23</f>
-        <v>1.2370878950949465E-3</v>
+        <v>1.1894307186342164E-3</v>
       </c>
       <c r="AP21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AQ21" s="1">
         <f>AL17</f>
-        <v>4695</v>
+        <v>5065</v>
       </c>
       <c r="AR21" t="s">
         <v>22</v>
       </c>
       <c r="AS21" s="22">
         <f>AN17</f>
-        <v>9.6802127791179568E-2</v>
+        <v>0.10040777649803842</v>
       </c>
     </row>
     <row r="22" spans="1:46">
@@ -4248,7 +4320,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="2">
         <v>495</v>
@@ -4312,7 +4384,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="6">
         <v>452</v>
@@ -4368,7 +4440,7 @@
       </c>
       <c r="AL23" s="1">
         <f>SUM(AL2:AL21)</f>
-        <v>48501</v>
+        <v>50444.3</v>
       </c>
       <c r="AM23" s="1" t="s">
         <v>22</v>
@@ -4378,14 +4450,14 @@
       </c>
       <c r="AQ23" s="1">
         <f>AL18</f>
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="AR23" t="s">
         <v>22</v>
       </c>
       <c r="AS23" s="22">
         <f>AN18</f>
-        <v>1.3360549267025422E-2</v>
+        <v>1.3242328667460942E-2</v>
       </c>
     </row>
     <row r="24" spans="1:46">
@@ -4393,7 +4465,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="6">
         <v>452</v>
@@ -4453,7 +4525,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="6">
         <v>452</v>
@@ -4509,14 +4581,14 @@
       </c>
       <c r="AQ25" s="1">
         <f>AL19</f>
-        <v>3143</v>
+        <v>3158</v>
       </c>
       <c r="AR25" t="s">
         <v>22</v>
       </c>
       <c r="AS25" s="22">
         <f>AN19</f>
-        <v>6.4802787571390283E-2</v>
+        <v>6.2603703490780913E-2</v>
       </c>
     </row>
     <row r="26" spans="1:46">
@@ -4524,7 +4596,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="2">
         <v>488</v>
@@ -4582,7 +4654,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="2">
         <v>444</v>
@@ -4591,7 +4663,7 @@
         <v>68</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>25</v>
@@ -4636,14 +4708,14 @@
       </c>
       <c r="AQ27" s="1">
         <f>AL20</f>
-        <v>2498</v>
+        <v>2733</v>
       </c>
       <c r="AR27" t="s">
         <v>22</v>
       </c>
       <c r="AS27" s="22">
         <f>AN20</f>
-        <v>5.1504092699119604E-2</v>
+        <v>5.4178569233788554E-2</v>
       </c>
     </row>
     <row r="28" spans="1:46">
@@ -4651,7 +4723,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="2">
         <v>444</v>
@@ -4660,7 +4732,7 @@
         <v>69</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>25</v>
@@ -4709,7 +4781,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="2">
         <v>536</v>
@@ -4770,7 +4842,7 @@
       </c>
       <c r="AS29" s="22">
         <f>AN21</f>
-        <v>1.2370878950949465E-3</v>
+        <v>1.1894307186342164E-3</v>
       </c>
     </row>
     <row r="30" spans="1:46">
@@ -4778,7 +4850,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" s="2">
         <v>536</v>
@@ -4834,7 +4906,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" s="2">
         <v>536</v>
@@ -4890,14 +4962,14 @@
       </c>
       <c r="AQ31" s="1">
         <f>SUM(AQ3:AQ29)</f>
-        <v>48501</v>
+        <v>50444.3</v>
       </c>
       <c r="AR31" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AS31" s="23">
         <f>SUM(AS3:AS29)</f>
-        <v>0.99999999999999989</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="AT31" s="20"/>
     </row>
@@ -4906,7 +4978,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="2">
         <v>517</v>
@@ -4961,7 +5033,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="2">
         <v>340</v>
@@ -4970,7 +5042,7 @@
         <v>39</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>25</v>
@@ -5021,7 +5093,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2">
         <v>340</v>
@@ -5030,7 +5102,7 @@
         <v>39</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>25</v>
@@ -5078,7 +5150,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2">
         <v>340</v>
@@ -5087,7 +5159,7 @@
         <v>39</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>25</v>
@@ -5135,7 +5207,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" s="2">
         <v>340</v>
@@ -5144,7 +5216,7 @@
         <v>39</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>25</v>
@@ -5195,7 +5267,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2">
         <v>340</v>
@@ -5204,7 +5276,7 @@
         <v>39</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>25</v>
@@ -5255,7 +5327,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2">
         <v>340</v>
@@ -5264,7 +5336,7 @@
         <v>39</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>25</v>
@@ -5312,7 +5384,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2">
         <v>340</v>
@@ -5321,7 +5393,7 @@
         <v>39</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>25</v>
@@ -5369,7 +5441,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2">
         <v>340</v>
@@ -5378,7 +5450,7 @@
         <v>39</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>25</v>
@@ -5426,16 +5498,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" s="2">
         <v>340</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>25</v>
@@ -5481,16 +5553,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" s="2">
         <v>340</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>25</v>
@@ -5536,16 +5608,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" s="2">
         <v>340</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>25</v>
@@ -5591,16 +5663,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" s="2">
         <v>340</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>25</v>
@@ -5646,16 +5718,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="2">
         <v>340</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>25</v>
@@ -5701,16 +5773,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" s="2">
         <v>340</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>25</v>
@@ -5756,16 +5828,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" s="2">
         <v>340</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>25</v>
@@ -5811,16 +5883,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C48" s="2">
         <v>340</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>25</v>
@@ -5866,16 +5938,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49" s="2">
         <v>340</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>25</v>
@@ -5923,16 +5995,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50" s="2">
         <v>340</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>25</v>
@@ -5978,16 +6050,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C51" s="2">
         <v>340</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>25</v>
@@ -6037,16 +6109,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52" s="2">
         <v>422</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>25</v>
@@ -6092,16 +6164,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C53" s="2">
         <v>445</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>25</v>
@@ -6145,7 +6217,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C54" s="2">
         <v>446</v>
@@ -6154,7 +6226,7 @@
         <v>48125655</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>25</v>
@@ -6200,7 +6272,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C55" s="2">
         <v>651</v>
@@ -6253,7 +6325,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56" s="2">
         <v>651</v>
@@ -6306,7 +6378,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C57" s="2">
         <v>651</v>
@@ -6363,7 +6435,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C58" s="2">
         <v>651</v>
@@ -6418,16 +6490,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C59" s="2">
         <v>653</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>25</v>
@@ -6467,16 +6539,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C60" s="2">
         <v>653</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>25</v>
@@ -6516,16 +6588,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C61" s="2">
         <v>653</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>25</v>
@@ -6565,7 +6637,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2">
         <v>654</v>
@@ -6624,7 +6696,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2">
         <v>655</v>
@@ -6683,7 +6755,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2">
         <v>655</v>
@@ -6742,7 +6814,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2">
         <v>655</v>
@@ -6801,16 +6873,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C66" s="2">
         <v>656</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>25</v>
@@ -6852,16 +6924,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C67" s="2">
         <v>656</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>25</v>
@@ -6901,16 +6973,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C68" s="2">
         <v>656</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>25</v>
@@ -6952,16 +7024,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C69" s="2">
         <v>447</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>25</v>
@@ -7007,16 +7079,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>25</v>
@@ -7068,16 +7140,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C71" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>25</v>
@@ -7123,7 +7195,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="2">
         <v>511</v>
@@ -7132,7 +7204,7 @@
         <v>44</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>25</v>
@@ -7178,16 +7250,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C73" s="2">
         <v>636</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>25</v>
@@ -7233,16 +7305,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>25</v>
@@ -7288,16 +7360,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C75" s="2">
         <v>340</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>25</v>
@@ -7343,16 +7415,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>25</v>
@@ -7396,7 +7468,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C77" s="2">
         <v>189</v>
@@ -7449,16 +7521,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>25</v>
@@ -7506,16 +7578,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>25</v>
@@ -7546,7 +7618,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C80" s="2">
         <v>189</v>
@@ -7592,16 +7664,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>25</v>
@@ -7633,13 +7705,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C82" s="2">
         <v>588</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E82" s="2">
         <v>17837468</v>
@@ -7677,13 +7749,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C83" s="2">
         <v>609</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E83" s="2">
         <v>15474134</v>
@@ -7720,13 +7792,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C84" s="2">
         <v>192</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E84" s="2">
         <v>15970137</v>
@@ -7764,7 +7836,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C85" s="2">
         <v>554</v>
@@ -7808,7 +7880,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C86" s="2">
         <v>647</v>
@@ -7848,7 +7920,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C87" s="2">
         <v>647</v>
@@ -7888,7 +7960,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
@@ -7935,13 +8007,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C89" s="2">
         <v>185</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E89" s="2">
         <v>13588930</v>
@@ -7982,13 +8054,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C90" s="2">
         <v>149</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E90" s="2">
         <v>16110881</v>
@@ -8020,13 +8092,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C91" s="2">
         <v>72</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E91" s="2">
         <v>16745816</v>
@@ -8060,13 +8132,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C92" s="2">
         <v>72</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E92" s="2">
         <v>16746703</v>
@@ -8100,7 +8172,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C93" s="2">
         <v>209</v>
@@ -8145,13 +8217,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C94" s="2">
         <v>203</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E94" s="2">
         <v>14036861</v>
@@ -8187,7 +8259,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C95" s="2">
         <v>205</v>
@@ -8232,13 +8304,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C96" s="2">
         <v>203</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E96" s="2">
         <v>14023910</v>
@@ -8277,13 +8349,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C97" s="2">
         <v>159</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E97" s="2">
         <v>15967965</v>
@@ -8324,13 +8396,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C98" s="2">
         <v>216</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E98" s="2">
         <v>15971997</v>
@@ -8371,13 +8443,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C99" s="2">
         <v>479</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E99" s="2">
         <v>11521021</v>
@@ -8414,13 +8486,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E100" s="2">
         <v>11469602</v>
@@ -8453,10 +8525,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D101" s="2">
         <v>10005184725</v>
@@ -8498,13 +8570,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E102" s="2">
         <v>14391192</v>
@@ -8537,13 +8609,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E103" s="2">
         <v>14154480</v>
@@ -8581,13 +8653,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C104" s="2">
         <v>133</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E104" s="2">
         <v>11468826</v>
@@ -8623,7 +8695,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C105" s="2">
         <v>133</v>
@@ -8665,13 +8737,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E106" s="2">
         <v>11468114</v>
@@ -8709,13 +8781,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C107" s="2">
         <v>94</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E107" s="2">
         <v>11467111</v>
@@ -8753,7 +8825,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C108" s="2">
         <v>193</v>
@@ -8792,16 +8864,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C109" s="2">
         <v>660</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>25</v>
@@ -8837,16 +8909,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D110" s="2">
         <v>28760407</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>25</v>
@@ -8877,7 +8949,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C111" s="2">
         <v>217</v>
@@ -8923,7 +8995,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C112" s="2">
         <v>217</v>
@@ -8972,7 +9044,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C113" s="2">
         <v>217</v>
@@ -9018,7 +9090,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C114" s="2">
         <v>225</v>
@@ -9061,7 +9133,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C115" s="2">
         <v>216</v>
@@ -9101,7 +9173,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C116" s="2">
         <v>167</v>
@@ -9139,7 +9211,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C117" s="2">
         <v>225</v>
@@ -9180,7 +9252,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C118" s="2">
         <v>225</v>
@@ -9221,7 +9293,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C119" s="2">
         <v>217</v>
@@ -9267,7 +9339,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C120" s="2">
         <v>217</v>
@@ -9313,7 +9385,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C121" s="2">
         <v>217</v>
@@ -9350,7 +9422,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C122" s="2">
         <v>215</v>
@@ -9390,7 +9462,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C123" s="2">
         <v>217</v>
@@ -9433,7 +9505,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C124" s="2">
         <v>215</v>
@@ -9473,7 +9545,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C125" s="2">
         <v>215</v>
@@ -9513,7 +9585,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C126" s="2">
         <v>208</v>
@@ -9522,7 +9594,7 @@
         <v>10004976011</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>25</v>
@@ -9553,7 +9625,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C127" s="2">
         <v>91</v>
@@ -9600,7 +9672,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C128" s="2">
         <v>210</v>
@@ -9644,7 +9716,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C129" s="2">
         <v>210</v>
@@ -9690,7 +9762,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C130" s="2">
         <v>208</v>
@@ -9736,7 +9808,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C131" s="2">
         <v>133</v>
@@ -9783,16 +9855,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>25</v>
@@ -9829,16 +9901,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C133" s="2">
         <v>660</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>25</v>
@@ -9866,7 +9938,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C134" s="2">
         <v>177</v>
@@ -9924,7 +9996,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C135" s="2">
         <v>454</v>
@@ -9970,7 +10042,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C136" s="2">
         <v>454</v>
@@ -10016,7 +10088,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C137" s="2">
         <v>494</v>
@@ -10062,7 +10134,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C138" s="2">
         <v>494</v>
@@ -10108,7 +10180,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C139" s="2">
         <v>151</v>
@@ -10157,7 +10229,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C140" s="2">
         <v>22</v>
@@ -10166,7 +10238,7 @@
         <v>10002871503</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>25</v>
@@ -10194,7 +10266,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C141" s="2">
         <v>118</v>
@@ -10234,7 +10306,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C142" s="2">
         <v>199</v>
@@ -10243,7 +10315,7 @@
         <v>10005984475</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>25</v>
@@ -10280,16 +10352,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C143" s="2">
         <v>595</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>25</v>
@@ -10326,7 +10398,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C144" s="2">
         <v>536</v>
@@ -10378,16 +10450,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C145" s="2">
         <v>689</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>25</v>
@@ -10418,16 +10490,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C146" s="2">
         <v>511</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>25</v>
@@ -10464,16 +10536,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C147" s="2">
         <v>660</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>25</v>
@@ -10501,16 +10573,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>25</v>
@@ -10542,7 +10614,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C149" s="2">
         <v>514</v>
@@ -10585,16 +10657,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C150" s="2">
         <v>340</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>25</v>
@@ -10641,7 +10713,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C151" s="2">
         <v>484</v>
@@ -10684,7 +10756,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C152" s="2">
         <v>489</v>
@@ -10730,7 +10802,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C153" s="2">
         <v>489</v>
@@ -10776,16 +10848,16 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C154" s="2">
         <v>535</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>25</v>
@@ -10831,7 +10903,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C155" s="2">
         <v>249</v>
@@ -10868,16 +10940,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C156" s="2">
         <v>502</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>25</v>
@@ -10911,7 +10983,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C157" s="2">
         <v>373</v>
@@ -10954,16 +11026,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C158" s="2">
         <v>453</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>25</v>
@@ -10991,7 +11063,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C159" s="2">
         <v>479</v>
@@ -11034,7 +11106,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C160" s="2">
         <v>249</v>
@@ -11071,7 +11143,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C161" s="2">
         <v>249</v>
@@ -11111,16 +11183,16 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C162" s="2">
         <v>549</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>25</v>
@@ -11157,16 +11229,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>25</v>
@@ -11199,16 +11271,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C164" s="2">
         <v>511</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>25</v>
@@ -11248,7 +11320,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C165" s="2">
         <v>58</v>
@@ -11288,7 +11360,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C166" s="2">
         <v>58</v>
@@ -11328,7 +11400,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C167" s="2">
         <v>249</v>
@@ -11371,7 +11443,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C168" s="2">
         <v>227</v>
@@ -11411,7 +11483,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C169" s="2">
         <v>227</v>
@@ -11420,7 +11492,7 @@
         <v>10002751604</v>
       </c>
       <c r="E169" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>25</v>
@@ -11460,7 +11532,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C170" s="2">
         <v>227</v>
@@ -11503,7 +11575,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C171" s="2">
         <v>227</v>
@@ -11552,7 +11624,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C172" s="2">
         <v>227</v>
@@ -11593,7 +11665,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C173" s="2">
         <v>60</v>
@@ -11636,7 +11708,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C174" s="2">
         <v>494</v>
@@ -11682,7 +11754,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C175" s="2">
         <v>494</v>
@@ -11728,7 +11800,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C176" s="2">
         <v>244</v>
@@ -11765,7 +11837,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C177" s="2">
         <v>259</v>
@@ -11799,7 +11871,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C178" s="2">
         <v>255</v>
@@ -11845,7 +11917,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C179" s="2">
         <v>337</v>
@@ -11882,7 +11954,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C180" s="2">
         <v>99</v>
@@ -11928,7 +12000,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C181" s="2">
         <v>227</v>
@@ -11965,7 +12037,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C182" s="2">
         <v>243</v>
@@ -12003,7 +12075,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C183" s="2">
         <v>228</v>
@@ -12043,7 +12115,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C184" s="2">
         <v>70</v>
@@ -12080,7 +12152,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C185" s="2">
         <v>103</v>
@@ -12117,16 +12189,16 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C186" s="2">
         <v>601</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>25</v>
@@ -12163,16 +12235,16 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C187" s="2">
         <v>652</v>
       </c>
       <c r="D187" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E187" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>25</v>
@@ -12218,16 +12290,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C188" s="2">
         <v>652</v>
       </c>
       <c r="D188" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>25</v>
@@ -12271,16 +12343,16 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C189" s="2">
         <v>652</v>
       </c>
       <c r="D189" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E189" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>25</v>
@@ -12324,16 +12396,16 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C190" s="2">
         <v>652</v>
       </c>
       <c r="D190" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E190" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>25</v>
@@ -12379,7 +12451,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C191" s="2">
         <v>650</v>
@@ -12421,7 +12493,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C192" s="2">
         <v>648</v>
@@ -12460,7 +12532,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C193" s="2">
         <v>648</v>
@@ -12499,7 +12571,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C194" s="2">
         <v>648</v>
@@ -12536,7 +12608,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C195" s="2">
         <v>643</v>
@@ -12545,7 +12617,7 @@
         <v>72</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>25</v>
@@ -12578,16 +12650,16 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C196" s="2">
         <v>643</v>
       </c>
       <c r="D196" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E196" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>25</v>
@@ -12617,16 +12689,16 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C197" s="2">
         <v>643</v>
       </c>
       <c r="D197" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E197" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>25</v>
@@ -12656,7 +12728,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C198" s="2">
         <v>141</v>
@@ -12693,16 +12765,16 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>25</v>
@@ -12732,16 +12804,16 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C200" s="2">
         <v>341</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>25</v>
@@ -12773,7 +12845,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C201" s="2">
         <v>115</v>
@@ -12817,7 +12889,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C202" s="2">
         <v>109</v>
@@ -12855,7 +12927,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C203" s="2">
         <v>106</v>
@@ -12892,7 +12964,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C204" s="2">
         <v>106</v>
@@ -12901,7 +12973,7 @@
         <v>10005363802</v>
       </c>
       <c r="E204" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>25</v>
@@ -12930,7 +13002,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C205" s="2">
         <v>106</v>
@@ -12965,7 +13037,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C206" s="2">
         <v>106</v>
@@ -13000,7 +13072,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C207" s="2">
         <v>484</v>
@@ -13039,7 +13111,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C208" s="2">
         <v>142</v>
@@ -13084,7 +13156,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C209" s="2">
         <v>157</v>
@@ -13124,7 +13196,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C210" s="2">
         <v>100</v>
@@ -13163,7 +13235,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C211" s="2">
         <v>288</v>
@@ -13209,7 +13281,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C212" s="2">
         <v>227</v>
@@ -13250,16 +13322,16 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C213" s="2">
         <v>634</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>25</v>
@@ -13297,16 +13369,16 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C214" s="2">
         <v>634</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>25</v>
@@ -13343,7 +13415,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C215" s="2">
         <v>604</v>
@@ -13389,7 +13461,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C216" s="2">
         <v>604</v>
@@ -13435,16 +13507,16 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>25</v>
@@ -13483,16 +13555,16 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C218" s="2">
         <v>636</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>25</v>
@@ -13532,16 +13604,16 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C219" s="2">
         <v>665</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>25</v>
@@ -13573,16 +13645,16 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C220" s="2">
         <v>665</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>25</v>
@@ -13614,16 +13686,16 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C221" s="2">
         <v>665</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>25</v>
@@ -13655,7 +13727,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C222" s="2">
         <v>523</v>
@@ -13709,16 +13781,16 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C223" s="2">
         <v>247</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>25</v>
@@ -13755,16 +13827,16 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>25</v>
@@ -13797,16 +13869,16 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C225" s="2">
         <v>653</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>25</v>
@@ -13838,16 +13910,16 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C226" s="2">
         <v>682</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>25</v>
@@ -13879,7 +13951,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C227" s="2">
         <v>476</v>
@@ -13933,7 +14005,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C228" s="2">
         <v>479</v>
@@ -13985,7 +14057,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C229" s="2">
         <v>131</v>
@@ -14043,10 +14115,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D230" s="1">
         <v>10004910044</v>
@@ -14095,10 +14167,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D231" s="1">
         <v>10004910106</v>
@@ -14151,10 +14223,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D232" s="1">
         <v>10004909925</v>
@@ -14199,13 +14271,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C233" s="1">
         <v>685</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>25</v>
@@ -14251,16 +14323,16 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C234" s="1">
         <v>688</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>25</v>
@@ -14297,16 +14369,16 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C235" s="1">
         <v>682</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>25</v>
@@ -14338,16 +14410,16 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C236" s="1">
         <v>687</v>
       </c>
       <c r="D236" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E236" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>25</v>
@@ -14392,16 +14464,16 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C237" s="1">
         <v>687</v>
       </c>
       <c r="D237" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E237" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>25</v>
@@ -14438,7 +14510,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C238" s="1">
         <v>687</v>
@@ -14447,7 +14519,7 @@
         <v>72</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>25</v>
@@ -14489,16 +14561,16 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C239" s="1">
         <v>687</v>
       </c>
       <c r="D239" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E239" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>25</v>
@@ -14540,16 +14612,16 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C240" s="1">
         <v>687</v>
       </c>
       <c r="D240" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E240" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>25</v>
@@ -14591,16 +14663,16 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C241" s="1">
         <v>687</v>
       </c>
       <c r="D241" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E241" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>25</v>
@@ -14642,16 +14714,16 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C242" s="1">
         <v>687</v>
       </c>
       <c r="D242" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E242" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>25</v>
@@ -14691,16 +14763,16 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C243" s="1">
         <v>684</v>
       </c>
       <c r="D243" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E243" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>25</v>
@@ -14748,16 +14820,16 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C244" s="1">
         <v>684</v>
       </c>
       <c r="D244" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E244" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>25</v>
@@ -14803,7 +14875,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C245" s="1">
         <v>683</v>
@@ -14862,7 +14934,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C246" s="1">
         <v>683</v>
@@ -14921,7 +14993,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C247" s="1">
         <v>686</v>
@@ -14980,7 +15052,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C248" s="1">
         <v>686</v>
@@ -15037,7 +15109,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C249" s="1">
         <v>686</v>
@@ -15086,7 +15158,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C250" s="1">
         <v>686</v>
@@ -15141,7 +15213,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C251" s="1">
         <v>686</v>
@@ -15196,16 +15268,16 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C252" s="1">
         <v>678</v>
       </c>
       <c r="D252" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E252" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>25</v>
@@ -15249,16 +15321,16 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C253" s="1">
         <v>678</v>
       </c>
       <c r="D253" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E253" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>25</v>
@@ -15302,16 +15374,16 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C254" s="1">
         <v>678</v>
       </c>
       <c r="D254" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E254" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>25</v>
@@ -15355,16 +15427,16 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C255" s="1">
         <v>678</v>
       </c>
       <c r="D255" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E255" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>25</v>
@@ -15408,16 +15480,16 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C256" s="1">
         <v>678</v>
       </c>
       <c r="D256" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E256" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>25</v>
@@ -15465,16 +15537,16 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C257" s="1">
         <v>678</v>
       </c>
       <c r="D257" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E257" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>25</v>
@@ -15518,16 +15590,16 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C258" s="1">
         <v>678</v>
       </c>
       <c r="D258" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E258" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>25</v>
@@ -15575,16 +15647,16 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C259" s="1">
         <v>678</v>
       </c>
       <c r="D259" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E259" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>25</v>
@@ -15630,16 +15702,16 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C260" s="1">
         <v>678</v>
       </c>
       <c r="D260" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E260" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>25</v>
@@ -15687,16 +15759,16 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C261" s="1">
         <v>678</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>25</v>
@@ -15744,16 +15816,16 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C262" s="1">
         <v>678</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>25</v>
@@ -15801,16 +15873,16 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C263" s="1">
         <v>678</v>
       </c>
       <c r="D263" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E263" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>25</v>
@@ -15856,16 +15928,16 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C264" s="1">
         <v>678</v>
       </c>
       <c r="D264" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E264" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>25</v>
@@ -15911,16 +15983,16 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C265" s="1">
         <v>678</v>
       </c>
       <c r="D265" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E265" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>25</v>
@@ -15966,16 +16038,16 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C266" s="1">
         <v>678</v>
       </c>
       <c r="D266" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E266" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>25</v>
@@ -16021,16 +16093,16 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C267" s="1">
         <v>678</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>25</v>
@@ -16076,16 +16148,16 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C268" s="1">
         <v>678</v>
       </c>
       <c r="D268" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E268" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>25</v>
@@ -16129,16 +16201,16 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C269" s="1">
         <v>678</v>
       </c>
       <c r="D269" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E269" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>25</v>
@@ -16182,16 +16254,16 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C270" s="1">
         <v>678</v>
       </c>
       <c r="D270" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E270" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>25</v>
@@ -16237,16 +16309,16 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C271" s="1">
         <v>678</v>
       </c>
       <c r="D271" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E271" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>25</v>
@@ -16292,16 +16364,16 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C272" s="1">
         <v>678</v>
       </c>
       <c r="D272" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E272" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>418</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>25</v>
@@ -16345,16 +16417,16 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C273" s="1">
         <v>678</v>
       </c>
       <c r="D273" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E273" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>25</v>
@@ -16400,16 +16472,16 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C274" s="1">
         <v>678</v>
       </c>
       <c r="D274" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E274" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>25</v>
@@ -16455,16 +16527,16 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C275" s="1">
         <v>678</v>
       </c>
       <c r="D275" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E275" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>424</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>25</v>
@@ -16510,16 +16582,16 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C276" s="1">
         <v>678</v>
       </c>
       <c r="D276" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E276" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>25</v>
@@ -16563,16 +16635,16 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C277" s="1">
         <v>678</v>
       </c>
       <c r="D277" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E277" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="E277" s="1" t="s">
-        <v>428</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>25</v>
@@ -16618,16 +16690,16 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C278" s="1">
         <v>678</v>
       </c>
       <c r="D278" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E278" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>25</v>
@@ -16671,16 +16743,16 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C279" s="1">
         <v>678</v>
       </c>
       <c r="D279" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E279" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>25</v>
@@ -16726,16 +16798,16 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C280" s="1">
         <v>678</v>
       </c>
       <c r="D280" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E280" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>25</v>
@@ -16783,16 +16855,16 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C281" s="1">
         <v>678</v>
       </c>
       <c r="D281" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E281" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>25</v>
@@ -16838,16 +16910,16 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C282" s="1">
         <v>678</v>
       </c>
       <c r="D282" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E282" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>25</v>
@@ -16893,16 +16965,16 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C283" s="1">
         <v>678</v>
       </c>
       <c r="D283" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E283" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>25</v>
@@ -16948,16 +17020,16 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C284" s="1">
         <v>678</v>
       </c>
       <c r="D284" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E284" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>442</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>25</v>
@@ -17003,16 +17075,16 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C285" s="1">
         <v>678</v>
       </c>
       <c r="D285" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E285" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>25</v>
@@ -17060,16 +17132,16 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C286" s="1">
         <v>678</v>
       </c>
       <c r="D286" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E286" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>446</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>25</v>
@@ -17113,16 +17185,16 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C287" s="1">
         <v>678</v>
       </c>
       <c r="D287" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E287" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>25</v>
@@ -17164,16 +17236,16 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C288" s="1">
         <v>669</v>
       </c>
       <c r="D288" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E288" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>25</v>
@@ -17221,16 +17293,16 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C289" s="1">
         <v>669</v>
       </c>
       <c r="D289" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E289" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>25</v>
@@ -17278,16 +17350,16 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C290" s="1">
         <v>669</v>
       </c>
       <c r="D290" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E290" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>454</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>25</v>
@@ -17335,7 +17407,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C291" s="1">
         <v>668</v>
@@ -17390,7 +17462,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C292" s="1">
         <v>667</v>
@@ -17445,7 +17517,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C293" s="1">
         <v>650</v>
@@ -17497,16 +17569,16 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C294" s="1">
         <v>652</v>
       </c>
       <c r="D294" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E294" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="E294" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="F294" s="1" t="s">
         <v>25</v>
@@ -17550,16 +17622,16 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C295" s="1">
         <v>652</v>
       </c>
       <c r="D295" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E295" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="E295" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>25</v>
@@ -17602,16 +17674,16 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C296" s="1">
         <v>652</v>
       </c>
       <c r="D296" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E296" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>25</v>
@@ -17652,16 +17724,16 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C297" s="1">
         <v>652</v>
       </c>
       <c r="D297" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E297" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>25</v>
@@ -17704,7 +17776,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C298" s="1">
         <v>648</v>
@@ -17754,7 +17826,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C299" s="1">
         <v>648</v>
@@ -17804,7 +17876,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C300" s="1">
         <v>648</v>
@@ -17852,7 +17924,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C301" s="1">
         <v>643</v>
@@ -17861,7 +17933,7 @@
         <v>72</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>25</v>
@@ -17904,16 +17976,16 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C302" s="1">
         <v>643</v>
       </c>
       <c r="D302" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E302" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="E302" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>25</v>
@@ -17954,16 +18026,16 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C303" s="1">
         <v>643</v>
       </c>
       <c r="D303" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E303" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="E303" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>25</v>
@@ -18004,16 +18076,16 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C304" s="1">
         <v>663</v>
       </c>
       <c r="D304" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E304" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>25</v>
@@ -18055,16 +18127,16 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C305" s="1">
         <v>663</v>
       </c>
       <c r="D305" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E305" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="E305" s="1" t="s">
-        <v>458</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>25</v>
@@ -18104,16 +18176,16 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C306" s="1">
         <v>664</v>
       </c>
       <c r="D306" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E306" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="E306" s="1" t="s">
-        <v>460</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>25</v>
@@ -18154,16 +18226,16 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C307" s="1">
         <v>664</v>
       </c>
       <c r="D307" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E307" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="E307" s="1" t="s">
-        <v>462</v>
       </c>
       <c r="F307" s="1" t="s">
         <v>25</v>
@@ -18204,16 +18276,16 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C308" s="1">
         <v>664</v>
       </c>
       <c r="D308" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E308" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="E308" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>25</v>
@@ -18254,16 +18326,16 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C309" s="1">
         <v>664</v>
       </c>
       <c r="D309" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E309" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="E309" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="F309" s="1" t="s">
         <v>25</v>
@@ -18306,7 +18378,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C310" s="1">
         <v>662</v>
@@ -18361,7 +18433,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C311" s="1">
         <v>662</v>
@@ -18416,7 +18488,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C312" s="1">
         <v>662</v>
@@ -18469,7 +18541,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C313" s="1">
         <v>654</v>
@@ -18523,16 +18595,16 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C314" s="1">
         <v>691</v>
       </c>
       <c r="D314" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E314" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="E314" s="1" t="s">
-        <v>476</v>
       </c>
       <c r="F314" s="1" t="s">
         <v>25</v>
@@ -18571,16 +18643,16 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C315" s="1">
         <v>691</v>
       </c>
       <c r="D315" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E315" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="E315" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="F315" s="1" t="s">
         <v>25</v>
@@ -18623,16 +18695,16 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C316" s="1">
         <v>691</v>
       </c>
       <c r="D316" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E316" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="E316" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>25</v>
@@ -18673,16 +18745,16 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C317" s="1">
         <v>691</v>
       </c>
       <c r="D317" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E317" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="E317" s="1" t="s">
-        <v>482</v>
       </c>
       <c r="F317" s="1" t="s">
         <v>25</v>
@@ -18721,16 +18793,16 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C318" s="1">
         <v>691</v>
       </c>
       <c r="D318" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E318" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="E318" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>25</v>
@@ -18771,7 +18843,7 @@
         <v>319</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C319" s="1">
         <v>690</v>
@@ -18819,7 +18891,7 @@
         <v>320</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C320" s="1">
         <v>693</v>
@@ -18871,7 +18943,7 @@
         <v>321</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C321" s="1">
         <v>693</v>
@@ -18929,7 +19001,7 @@
         <v>322</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C322" s="1">
         <v>693</v>
@@ -18977,7 +19049,7 @@
         <v>323</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C323" s="1">
         <v>693</v>
@@ -19025,16 +19097,16 @@
         <v>324</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C324" s="1">
         <v>679</v>
       </c>
       <c r="D324" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E324" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="E324" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="F324" s="1" t="s">
         <v>25</v>
@@ -19077,7 +19149,7 @@
         <v>325</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C325" s="1">
         <v>696</v>
@@ -19127,7 +19199,7 @@
         <v>326</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C326" s="1">
         <v>532</v>
@@ -19171,7 +19243,7 @@
         <v>327</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C327" s="1">
         <v>673</v>
@@ -19219,7 +19291,7 @@
         <v>328</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C328" s="1">
         <v>168</v>
@@ -19267,7 +19339,7 @@
         <v>329</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C329" s="1">
         <v>489</v>
@@ -19319,7 +19391,7 @@
         <v>330</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C330" s="1">
         <v>282</v>
@@ -19367,7 +19439,7 @@
         <v>331</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C331" s="1">
         <v>228</v>
@@ -19415,7 +19487,7 @@
         <v>332</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C332" s="1">
         <v>509</v>
@@ -19467,7 +19539,7 @@
         <v>333</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C333" s="1">
         <v>621</v>
@@ -19476,7 +19548,7 @@
         <v>43</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F333" s="1" t="s">
         <v>25</v>
@@ -19517,7 +19589,7 @@
         <v>334</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C334" s="1">
         <v>621</v>
@@ -19526,7 +19598,7 @@
         <v>42</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F334" s="1" t="s">
         <v>25</v>
@@ -19567,7 +19639,7 @@
         <v>335</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C335" s="1">
         <v>44</v>
@@ -19615,7 +19687,7 @@
         <v>336</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C336" s="1">
         <v>250</v>
@@ -19663,7 +19735,7 @@
         <v>337</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C337" s="1">
         <v>98</v>
@@ -19719,7 +19791,7 @@
         <v>338</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C338" s="1">
         <v>696</v>
@@ -19771,16 +19843,16 @@
         <v>339</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C339" s="1">
         <v>399</v>
       </c>
       <c r="D339" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E339" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="E339" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="F339" s="1" t="s">
         <v>25</v>
@@ -19821,13 +19893,13 @@
         <v>340</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C340" s="1">
         <v>514</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E340" s="1">
         <v>11497637</v>
@@ -19870,14 +19942,26 @@
       <c r="A341" s="1">
         <v>341</v>
       </c>
-      <c r="B341" s="1"/>
-      <c r="C341" s="1"/>
-      <c r="D341" s="1"/>
-      <c r="E341" s="1"/>
-      <c r="F341" s="1"/>
+      <c r="B341" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C341" s="1">
+        <v>714</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
-      <c r="I341" s="1"/>
+      <c r="I341" s="1">
+        <v>0.3</v>
+      </c>
       <c r="J341" s="1"/>
       <c r="K341" s="1"/>
       <c r="L341" s="1"/>
@@ -19892,7 +19976,7 @@
       <c r="Y341" s="1"/>
       <c r="AA341" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AB341" s="1" t="s">
         <v>22</v>
@@ -19902,13 +19986,27 @@
       <c r="A342" s="1">
         <v>342</v>
       </c>
-      <c r="B342" s="1"/>
-      <c r="C342" s="1"/>
-      <c r="D342" s="1"/>
-      <c r="E342" s="1"/>
-      <c r="F342" s="1"/>
-      <c r="G342" s="1"/>
-      <c r="H342" s="1"/>
+      <c r="B342" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C342" s="1">
+        <v>707</v>
+      </c>
+      <c r="D342" s="1">
+        <v>10007783274</v>
+      </c>
+      <c r="E342" s="1">
+        <v>15562748</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G342" s="1">
+        <v>10</v>
+      </c>
+      <c r="H342" s="1">
+        <v>45</v>
+      </c>
       <c r="I342" s="1"/>
       <c r="J342" s="1"/>
       <c r="K342" s="1"/>
@@ -19920,11 +20018,16 @@
       <c r="Q342" s="1"/>
       <c r="R342" s="1"/>
       <c r="U342" s="1"/>
-      <c r="V342" s="1"/>
+      <c r="V342" s="1">
+        <v>30</v>
+      </c>
+      <c r="W342" s="1">
+        <v>20</v>
+      </c>
       <c r="Y342" s="1"/>
       <c r="AA342" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AB342" s="1" t="s">
         <v>22</v>
@@ -19934,14 +20037,26 @@
       <c r="A343" s="1">
         <v>343</v>
       </c>
-      <c r="B343" s="1"/>
-      <c r="C343" s="1"/>
-      <c r="D343" s="1"/>
-      <c r="E343" s="1"/>
-      <c r="F343" s="1"/>
+      <c r="B343" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C343" s="1">
+        <v>707</v>
+      </c>
+      <c r="D343" s="1">
+        <v>10006440601</v>
+      </c>
+      <c r="E343" s="1">
+        <v>14812525</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
-      <c r="I343" s="1"/>
+      <c r="I343" s="1">
+        <v>3</v>
+      </c>
       <c r="J343" s="1"/>
       <c r="K343" s="1"/>
       <c r="L343" s="1"/>
@@ -19952,11 +20067,13 @@
       <c r="Q343" s="1"/>
       <c r="R343" s="1"/>
       <c r="U343" s="1"/>
-      <c r="V343" s="1"/>
+      <c r="V343" s="1">
+        <v>2</v>
+      </c>
       <c r="Y343" s="1"/>
       <c r="AA343" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB343" s="1" t="s">
         <v>22</v>
@@ -19966,14 +20083,26 @@
       <c r="A344" s="1">
         <v>344</v>
       </c>
-      <c r="B344" s="1"/>
-      <c r="C344" s="1"/>
-      <c r="D344" s="1"/>
-      <c r="E344" s="1"/>
-      <c r="F344" s="1"/>
+      <c r="B344" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C344" s="1">
+        <v>534</v>
+      </c>
+      <c r="D344" s="1">
+        <v>10004222941</v>
+      </c>
+      <c r="E344" s="1">
+        <v>13592346</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
-      <c r="I344" s="1"/>
+      <c r="I344" s="1">
+        <v>5</v>
+      </c>
       <c r="J344" s="1"/>
       <c r="K344" s="1"/>
       <c r="L344" s="1"/>
@@ -19984,11 +20113,13 @@
       <c r="Q344" s="1"/>
       <c r="R344" s="1"/>
       <c r="U344" s="1"/>
-      <c r="V344" s="1"/>
+      <c r="V344" s="1">
+        <v>5</v>
+      </c>
       <c r="Y344" s="1"/>
       <c r="AA344" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB344" s="1" t="s">
         <v>22</v>
@@ -19998,29 +20129,49 @@
       <c r="A345" s="1">
         <v>345</v>
       </c>
-      <c r="B345" s="1"/>
-      <c r="C345" s="1"/>
-      <c r="D345" s="1"/>
-      <c r="E345" s="1"/>
-      <c r="F345" s="1"/>
-      <c r="G345" s="1"/>
+      <c r="B345" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G345" s="1">
+        <v>5</v>
+      </c>
       <c r="H345" s="1"/>
       <c r="I345" s="1"/>
       <c r="J345" s="1"/>
-      <c r="K345" s="1"/>
+      <c r="K345" s="1">
+        <v>10</v>
+      </c>
       <c r="L345" s="1"/>
       <c r="M345" s="1"/>
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
-      <c r="P345" s="1"/>
+      <c r="P345" s="1">
+        <v>10</v>
+      </c>
       <c r="Q345" s="1"/>
       <c r="R345" s="1"/>
       <c r="U345" s="1"/>
-      <c r="V345" s="1"/>
-      <c r="Y345" s="1"/>
+      <c r="V345" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y345" s="1">
+        <v>10</v>
+      </c>
       <c r="AA345" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AB345" s="1" t="s">
         <v>22</v>
@@ -20030,14 +20181,26 @@
       <c r="A346" s="1">
         <v>346</v>
       </c>
-      <c r="B346" s="1"/>
-      <c r="C346" s="1"/>
-      <c r="D346" s="1"/>
-      <c r="E346" s="1"/>
-      <c r="F346" s="1"/>
+      <c r="B346" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C346" s="1">
+        <v>109</v>
+      </c>
+      <c r="D346" s="1">
+        <v>10004626094</v>
+      </c>
+      <c r="E346" s="1">
+        <v>13829680</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
-      <c r="I346" s="1"/>
+      <c r="I346" s="1">
+        <v>5</v>
+      </c>
       <c r="J346" s="1"/>
       <c r="K346" s="1"/>
       <c r="L346" s="1"/>
@@ -20045,14 +20208,18 @@
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
       <c r="P346" s="1"/>
-      <c r="Q346" s="1"/>
+      <c r="Q346" s="1">
+        <v>5</v>
+      </c>
       <c r="R346" s="1"/>
       <c r="U346" s="1"/>
-      <c r="V346" s="1"/>
+      <c r="V346" s="1">
+        <v>10</v>
+      </c>
       <c r="Y346" s="1"/>
       <c r="AA346" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB346" s="1" t="s">
         <v>22</v>
@@ -20062,29 +20229,49 @@
       <c r="A347" s="1">
         <v>347</v>
       </c>
-      <c r="B347" s="1"/>
-      <c r="C347" s="1"/>
-      <c r="D347" s="1"/>
-      <c r="E347" s="1"/>
-      <c r="F347" s="1"/>
+      <c r="B347" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C347" s="1">
+        <v>707</v>
+      </c>
+      <c r="D347" s="1">
+        <v>10006440285</v>
+      </c>
+      <c r="E347" s="1">
+        <v>14812365</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
-      <c r="I347" s="1"/>
+      <c r="I347" s="1">
+        <v>5</v>
+      </c>
       <c r="J347" s="1"/>
       <c r="K347" s="1"/>
-      <c r="L347" s="1"/>
+      <c r="L347" s="1">
+        <v>15</v>
+      </c>
       <c r="M347" s="1"/>
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
       <c r="P347" s="1"/>
       <c r="Q347" s="1"/>
       <c r="R347" s="1"/>
-      <c r="U347" s="1"/>
-      <c r="V347" s="1"/>
-      <c r="Y347" s="1"/>
+      <c r="U347" s="1">
+        <v>15</v>
+      </c>
+      <c r="V347" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y347" s="1">
+        <v>5</v>
+      </c>
       <c r="AA347" s="2">
         <f t="shared" ref="AA347:AA410" si="6">SUM(G347:Z347)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AB347" s="1" t="s">
         <v>22</v>
@@ -20094,29 +20281,49 @@
       <c r="A348" s="1">
         <v>348</v>
       </c>
-      <c r="B348" s="1"/>
-      <c r="C348" s="1"/>
-      <c r="D348" s="1"/>
-      <c r="E348" s="1"/>
-      <c r="F348" s="1"/>
-      <c r="G348" s="1"/>
+      <c r="B348" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C348" s="1">
+        <v>534</v>
+      </c>
+      <c r="D348" s="1">
+        <v>10004626228</v>
+      </c>
+      <c r="E348" s="1">
+        <v>13829723</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G348" s="1">
+        <v>5</v>
+      </c>
       <c r="H348" s="1"/>
       <c r="I348" s="1"/>
       <c r="J348" s="1"/>
       <c r="K348" s="1"/>
       <c r="L348" s="1"/>
-      <c r="M348" s="1"/>
-      <c r="N348" s="1"/>
+      <c r="M348" s="1">
+        <v>15</v>
+      </c>
+      <c r="N348" s="1">
+        <v>45</v>
+      </c>
       <c r="O348" s="1"/>
       <c r="P348" s="1"/>
       <c r="Q348" s="1"/>
       <c r="R348" s="1"/>
-      <c r="U348" s="1"/>
-      <c r="V348" s="1"/>
+      <c r="U348" s="1">
+        <v>15</v>
+      </c>
+      <c r="V348" s="1">
+        <v>30</v>
+      </c>
       <c r="Y348" s="1"/>
       <c r="AA348" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB348" s="1" t="s">
         <v>22</v>
@@ -20126,29 +20333,49 @@
       <c r="A349" s="1">
         <v>349</v>
       </c>
-      <c r="B349" s="1"/>
-      <c r="C349" s="1"/>
-      <c r="D349" s="1"/>
-      <c r="E349" s="1"/>
-      <c r="F349" s="1"/>
-      <c r="G349" s="1"/>
+      <c r="B349" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C349" s="1">
+        <v>449</v>
+      </c>
+      <c r="D349" s="1">
+        <v>10004631699</v>
+      </c>
+      <c r="E349" s="1">
+        <v>13833429</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G349" s="1">
+        <v>10</v>
+      </c>
       <c r="H349" s="1"/>
       <c r="I349" s="1"/>
       <c r="J349" s="1"/>
       <c r="K349" s="1"/>
       <c r="L349" s="1"/>
-      <c r="M349" s="1"/>
+      <c r="M349" s="1">
+        <v>60</v>
+      </c>
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
       <c r="P349" s="1"/>
       <c r="Q349" s="1"/>
       <c r="R349" s="1"/>
-      <c r="U349" s="1"/>
-      <c r="V349" s="1"/>
-      <c r="Y349" s="1"/>
+      <c r="U349" s="1">
+        <v>45</v>
+      </c>
+      <c r="V349" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y349" s="1">
+        <v>15</v>
+      </c>
       <c r="AA349" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB349" s="1" t="s">
         <v>22</v>
@@ -20158,29 +20385,45 @@
       <c r="A350" s="1">
         <v>350</v>
       </c>
-      <c r="B350" s="1"/>
-      <c r="C350" s="1"/>
-      <c r="D350" s="1"/>
-      <c r="E350" s="1"/>
-      <c r="F350" s="1"/>
-      <c r="G350" s="1"/>
+      <c r="B350" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C350" s="1">
+        <v>375</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G350" s="1">
+        <v>5</v>
+      </c>
       <c r="H350" s="1"/>
       <c r="I350" s="1"/>
       <c r="J350" s="1"/>
       <c r="K350" s="1"/>
       <c r="L350" s="1"/>
-      <c r="M350" s="1"/>
+      <c r="M350" s="1">
+        <v>10</v>
+      </c>
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
       <c r="P350" s="1"/>
       <c r="Q350" s="1"/>
       <c r="R350" s="1"/>
       <c r="U350" s="1"/>
-      <c r="V350" s="1"/>
+      <c r="V350" s="1">
+        <v>3</v>
+      </c>
       <c r="Y350" s="1"/>
       <c r="AA350" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AB350" s="1" t="s">
         <v>22</v>
@@ -20190,14 +20433,26 @@
       <c r="A351" s="1">
         <v>351</v>
       </c>
-      <c r="B351" s="1"/>
-      <c r="C351" s="1"/>
-      <c r="D351" s="1"/>
-      <c r="E351" s="1"/>
-      <c r="F351" s="1"/>
+      <c r="B351" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C351" s="1">
+        <v>694</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
-      <c r="I351" s="1"/>
+      <c r="I351" s="1">
+        <v>10</v>
+      </c>
       <c r="J351" s="1"/>
       <c r="K351" s="1"/>
       <c r="L351" s="1"/>
@@ -20212,7 +20467,7 @@
       <c r="Y351" s="1"/>
       <c r="AA351" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB351" s="1" t="s">
         <v>22</v>
@@ -20222,29 +20477,47 @@
       <c r="A352" s="1">
         <v>352</v>
       </c>
-      <c r="B352" s="1"/>
-      <c r="C352" s="1"/>
-      <c r="D352" s="1"/>
-      <c r="E352" s="1"/>
-      <c r="F352" s="1"/>
-      <c r="G352" s="1"/>
+      <c r="B352" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C352" s="1">
+        <v>476</v>
+      </c>
+      <c r="D352" s="1">
+        <v>10004112775</v>
+      </c>
+      <c r="E352" s="1">
+        <v>13545784</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G352" s="1">
+        <v>5</v>
+      </c>
       <c r="H352" s="1"/>
       <c r="I352" s="1"/>
       <c r="J352" s="1"/>
       <c r="K352" s="1"/>
       <c r="L352" s="1"/>
-      <c r="M352" s="1"/>
+      <c r="M352" s="1">
+        <v>15</v>
+      </c>
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
       <c r="P352" s="1"/>
       <c r="Q352" s="1"/>
       <c r="R352" s="1"/>
-      <c r="U352" s="1"/>
-      <c r="V352" s="1"/>
+      <c r="U352" s="1">
+        <v>15</v>
+      </c>
+      <c r="V352" s="1">
+        <v>10</v>
+      </c>
       <c r="Y352" s="1"/>
       <c r="AA352" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AB352" s="1" t="s">
         <v>22</v>
@@ -20254,29 +20527,51 @@
       <c r="A353" s="1">
         <v>353</v>
       </c>
-      <c r="B353" s="1"/>
-      <c r="C353" s="1"/>
-      <c r="D353" s="1"/>
-      <c r="E353" s="1"/>
-      <c r="F353" s="1"/>
-      <c r="G353" s="1"/>
+      <c r="B353" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C353" s="1">
+        <v>340</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G353" s="1">
+        <v>5</v>
+      </c>
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
       <c r="J353" s="1"/>
       <c r="K353" s="1"/>
       <c r="L353" s="1"/>
       <c r="M353" s="1"/>
-      <c r="N353" s="1"/>
+      <c r="N353" s="1">
+        <v>5</v>
+      </c>
       <c r="O353" s="1"/>
       <c r="P353" s="1"/>
       <c r="Q353" s="1"/>
-      <c r="R353" s="1"/>
-      <c r="U353" s="1"/>
-      <c r="V353" s="1"/>
-      <c r="Y353" s="1"/>
+      <c r="R353" s="1">
+        <v>5</v>
+      </c>
+      <c r="U353" s="1">
+        <v>15</v>
+      </c>
+      <c r="V353" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y353" s="1">
+        <v>15</v>
+      </c>
       <c r="AA353" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB353" s="1" t="s">
         <v>22</v>
@@ -20286,29 +20581,49 @@
       <c r="A354" s="1">
         <v>354</v>
       </c>
-      <c r="B354" s="1"/>
-      <c r="C354" s="1"/>
-      <c r="D354" s="1"/>
-      <c r="E354" s="1"/>
-      <c r="F354" s="1"/>
-      <c r="G354" s="1"/>
+      <c r="B354" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C354" s="1">
+        <v>661</v>
+      </c>
+      <c r="D354" s="1">
+        <v>10006188231</v>
+      </c>
+      <c r="E354" s="1">
+        <v>14674441</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G354" s="1">
+        <v>10</v>
+      </c>
       <c r="H354" s="1"/>
       <c r="I354" s="1"/>
       <c r="J354" s="1"/>
       <c r="K354" s="1"/>
       <c r="L354" s="1"/>
-      <c r="M354" s="1"/>
+      <c r="M354" s="1">
+        <v>20</v>
+      </c>
       <c r="N354" s="1"/>
       <c r="O354" s="1"/>
       <c r="P354" s="1"/>
       <c r="Q354" s="1"/>
       <c r="R354" s="1"/>
-      <c r="U354" s="1"/>
-      <c r="V354" s="1"/>
-      <c r="Y354" s="1"/>
+      <c r="U354" s="1">
+        <v>15</v>
+      </c>
+      <c r="V354" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y354" s="1">
+        <v>15</v>
+      </c>
       <c r="AA354" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB354" s="1" t="s">
         <v>22</v>
@@ -20318,29 +20633,49 @@
       <c r="A355" s="1">
         <v>355</v>
       </c>
-      <c r="B355" s="1"/>
-      <c r="C355" s="1"/>
-      <c r="D355" s="1"/>
-      <c r="E355" s="1"/>
-      <c r="F355" s="1"/>
-      <c r="G355" s="1"/>
+      <c r="B355" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C355" s="1">
+        <v>661</v>
+      </c>
+      <c r="D355" s="1">
+        <v>10006188202</v>
+      </c>
+      <c r="E355" s="1">
+        <v>14674440</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G355" s="1">
+        <v>10</v>
+      </c>
       <c r="H355" s="1"/>
       <c r="I355" s="1"/>
       <c r="J355" s="1"/>
       <c r="K355" s="1"/>
       <c r="L355" s="1"/>
-      <c r="M355" s="1"/>
+      <c r="M355" s="1">
+        <v>20</v>
+      </c>
       <c r="N355" s="1"/>
       <c r="O355" s="1"/>
       <c r="P355" s="1"/>
       <c r="Q355" s="1"/>
       <c r="R355" s="1"/>
-      <c r="U355" s="1"/>
-      <c r="V355" s="1"/>
-      <c r="Y355" s="1"/>
+      <c r="U355" s="1">
+        <v>15</v>
+      </c>
+      <c r="V355" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y355" s="1">
+        <v>15</v>
+      </c>
       <c r="AA355" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB355" s="1" t="s">
         <v>22</v>
@@ -20350,29 +20685,45 @@
       <c r="A356" s="1">
         <v>356</v>
       </c>
-      <c r="B356" s="1"/>
-      <c r="C356" s="1"/>
-      <c r="D356" s="1"/>
-      <c r="E356" s="1"/>
-      <c r="F356" s="1"/>
-      <c r="G356" s="1"/>
+      <c r="B356" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C356" s="1">
+        <v>697</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G356" s="1">
+        <v>5</v>
+      </c>
       <c r="H356" s="1"/>
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
       <c r="K356" s="1"/>
       <c r="L356" s="1"/>
-      <c r="M356" s="1"/>
+      <c r="M356" s="1">
+        <v>20</v>
+      </c>
       <c r="N356" s="1"/>
       <c r="O356" s="1"/>
       <c r="P356" s="1"/>
       <c r="Q356" s="1"/>
       <c r="R356" s="1"/>
       <c r="U356" s="1"/>
-      <c r="V356" s="1"/>
+      <c r="V356" s="1">
+        <v>5</v>
+      </c>
       <c r="Y356" s="1"/>
       <c r="AA356" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB356" s="1" t="s">
         <v>22</v>
@@ -20382,29 +20733,53 @@
       <c r="A357" s="1">
         <v>357</v>
       </c>
-      <c r="B357" s="1"/>
-      <c r="C357" s="1"/>
-      <c r="D357" s="1"/>
-      <c r="E357" s="1"/>
-      <c r="F357" s="1"/>
-      <c r="G357" s="1"/>
+      <c r="B357" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C357" s="1">
+        <v>697</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G357" s="1">
+        <v>15</v>
+      </c>
       <c r="H357" s="1"/>
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
       <c r="K357" s="1"/>
       <c r="L357" s="1"/>
-      <c r="M357" s="1"/>
-      <c r="N357" s="1"/>
+      <c r="M357" s="1">
+        <v>15</v>
+      </c>
+      <c r="N357" s="1">
+        <v>10</v>
+      </c>
       <c r="O357" s="1"/>
-      <c r="P357" s="1"/>
+      <c r="P357" s="1">
+        <v>10</v>
+      </c>
       <c r="Q357" s="1"/>
       <c r="R357" s="1"/>
-      <c r="U357" s="1"/>
-      <c r="V357" s="1"/>
-      <c r="Y357" s="1"/>
+      <c r="U357" s="1">
+        <v>45</v>
+      </c>
+      <c r="V357" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y357" s="1">
+        <v>15</v>
+      </c>
       <c r="AA357" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="AB357" s="1" t="s">
         <v>22</v>
@@ -20414,29 +20789,47 @@
       <c r="A358" s="1">
         <v>358</v>
       </c>
-      <c r="B358" s="1"/>
-      <c r="C358" s="1"/>
-      <c r="D358" s="1"/>
-      <c r="E358" s="1"/>
-      <c r="F358" s="1"/>
-      <c r="G358" s="1"/>
+      <c r="B358" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C358" s="1">
+        <v>570</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G358" s="1">
+        <v>5</v>
+      </c>
       <c r="H358" s="1"/>
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
       <c r="K358" s="1"/>
       <c r="L358" s="1"/>
-      <c r="M358" s="1"/>
+      <c r="M358" s="1">
+        <v>10</v>
+      </c>
       <c r="N358" s="1"/>
       <c r="O358" s="1"/>
       <c r="P358" s="1"/>
       <c r="Q358" s="1"/>
       <c r="R358" s="1"/>
-      <c r="U358" s="1"/>
-      <c r="V358" s="1"/>
+      <c r="U358" s="1">
+        <v>10</v>
+      </c>
+      <c r="V358" s="1">
+        <v>5</v>
+      </c>
       <c r="Y358" s="1"/>
       <c r="AA358" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB358" s="1" t="s">
         <v>22</v>
@@ -20446,29 +20839,53 @@
       <c r="A359" s="1">
         <v>359</v>
       </c>
-      <c r="B359" s="1"/>
-      <c r="C359" s="1"/>
-      <c r="D359" s="1"/>
-      <c r="E359" s="1"/>
-      <c r="F359" s="1"/>
-      <c r="G359" s="1"/>
+      <c r="B359" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C359" s="1">
+        <v>704</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G359" s="1">
+        <v>15</v>
+      </c>
       <c r="H359" s="1"/>
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
       <c r="K359" s="1"/>
       <c r="L359" s="1"/>
-      <c r="M359" s="1"/>
-      <c r="N359" s="1"/>
+      <c r="M359" s="1">
+        <v>15</v>
+      </c>
+      <c r="N359" s="1">
+        <v>10</v>
+      </c>
       <c r="O359" s="1"/>
-      <c r="P359" s="1"/>
+      <c r="P359" s="1">
+        <v>10</v>
+      </c>
       <c r="Q359" s="1"/>
       <c r="R359" s="1"/>
-      <c r="U359" s="1"/>
-      <c r="V359" s="1"/>
-      <c r="Y359" s="1"/>
+      <c r="U359" s="1">
+        <v>45</v>
+      </c>
+      <c r="V359" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y359" s="1">
+        <v>15</v>
+      </c>
       <c r="AA359" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="AB359" s="1" t="s">
         <v>22</v>
@@ -20478,29 +20895,49 @@
       <c r="A360" s="1">
         <v>360</v>
       </c>
-      <c r="B360" s="1"/>
-      <c r="C360" s="1"/>
-      <c r="D360" s="1"/>
-      <c r="E360" s="1"/>
-      <c r="F360" s="1"/>
-      <c r="G360" s="1"/>
+      <c r="B360" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G360" s="1">
+        <v>5</v>
+      </c>
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
       <c r="K360" s="1"/>
-      <c r="L360" s="1"/>
+      <c r="L360" s="1">
+        <v>15</v>
+      </c>
       <c r="M360" s="1"/>
       <c r="N360" s="1"/>
       <c r="O360" s="1"/>
-      <c r="P360" s="1"/>
+      <c r="P360" s="1">
+        <v>15</v>
+      </c>
       <c r="Q360" s="1"/>
       <c r="R360" s="1"/>
       <c r="U360" s="1"/>
-      <c r="V360" s="1"/>
-      <c r="Y360" s="1"/>
+      <c r="V360" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y360" s="1">
+        <v>10</v>
+      </c>
       <c r="AA360" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB360" s="1" t="s">
         <v>22</v>
@@ -20510,29 +20947,51 @@
       <c r="A361" s="1">
         <v>361</v>
       </c>
-      <c r="B361" s="1"/>
-      <c r="C361" s="1"/>
-      <c r="D361" s="1"/>
-      <c r="E361" s="1"/>
-      <c r="F361" s="1"/>
-      <c r="G361" s="1"/>
+      <c r="B361" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C361" s="1">
+        <v>697</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G361" s="1">
+        <v>30</v>
+      </c>
       <c r="H361" s="1"/>
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
       <c r="K361" s="1"/>
       <c r="L361" s="1"/>
-      <c r="M361" s="1"/>
-      <c r="N361" s="1"/>
+      <c r="M361" s="1">
+        <v>120</v>
+      </c>
+      <c r="N361" s="1">
+        <v>90</v>
+      </c>
       <c r="O361" s="1"/>
       <c r="P361" s="1"/>
       <c r="Q361" s="1"/>
       <c r="R361" s="1"/>
-      <c r="U361" s="1"/>
-      <c r="V361" s="1"/>
-      <c r="Y361" s="1"/>
+      <c r="U361" s="1">
+        <v>180</v>
+      </c>
+      <c r="V361" s="1">
+        <v>120</v>
+      </c>
+      <c r="Y361" s="1">
+        <v>120</v>
+      </c>
       <c r="AA361" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="AB361" s="1" t="s">
         <v>22</v>
@@ -20542,29 +21001,45 @@
       <c r="A362" s="1">
         <v>362</v>
       </c>
-      <c r="B362" s="1"/>
-      <c r="C362" s="1"/>
-      <c r="D362" s="1"/>
-      <c r="E362" s="1"/>
-      <c r="F362" s="1"/>
-      <c r="G362" s="1"/>
+      <c r="B362" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C362" s="1">
+        <v>691</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G362" s="1">
+        <v>5</v>
+      </c>
       <c r="H362" s="1"/>
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
       <c r="K362" s="1"/>
       <c r="L362" s="1"/>
-      <c r="M362" s="1"/>
+      <c r="M362" s="1">
+        <v>40</v>
+      </c>
       <c r="N362" s="1"/>
       <c r="O362" s="1"/>
       <c r="P362" s="1"/>
       <c r="Q362" s="1"/>
       <c r="R362" s="1"/>
       <c r="U362" s="1"/>
-      <c r="V362" s="1"/>
+      <c r="V362" s="1">
+        <v>15</v>
+      </c>
       <c r="Y362" s="1"/>
       <c r="AA362" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB362" s="1" t="s">
         <v>22</v>
@@ -20574,29 +21049,50 @@
       <c r="A363" s="1">
         <v>363</v>
       </c>
-      <c r="B363" s="1"/>
-      <c r="C363" s="1"/>
-      <c r="D363" s="1"/>
-      <c r="E363" s="1"/>
-      <c r="F363" s="1"/>
-      <c r="G363" s="1"/>
+      <c r="B363" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C363" s="1">
+        <v>661</v>
+      </c>
+      <c r="D363" s="1">
+        <v>10010879187</v>
+      </c>
+      <c r="E363" s="1">
+        <v>17234524</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G363" s="1">
+        <v>5</v>
+      </c>
       <c r="H363" s="1"/>
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
       <c r="K363" s="1"/>
       <c r="L363" s="1"/>
       <c r="M363" s="1"/>
-      <c r="N363" s="1"/>
-      <c r="O363" s="1"/>
+      <c r="N363" s="1">
+        <v>30</v>
+      </c>
+      <c r="O363" s="1">
+        <v>20</v>
+      </c>
       <c r="P363" s="1"/>
       <c r="Q363" s="1"/>
       <c r="R363" s="1"/>
       <c r="U363" s="1"/>
-      <c r="V363" s="1"/>
+      <c r="V363" s="1">
+        <v>10</v>
+      </c>
+      <c r="X363" s="1">
+        <v>15</v>
+      </c>
       <c r="Y363" s="1"/>
       <c r="AA363" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB363" s="1" t="s">
         <v>22</v>
@@ -20606,7 +21102,9 @@
       <c r="A364" s="1">
         <v>364</v>
       </c>
-      <c r="B364" s="1"/>
+      <c r="B364" s="1" t="s">
+        <v>517</v>
+      </c>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
@@ -25556,7 +26054,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25743,7 +26241,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B17" s="8">
         <v>10006836942</v>
@@ -25754,7 +26252,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="8">
         <v>10006836881</v>
@@ -25765,7 +26263,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" s="8">
         <v>10006836848</v>
@@ -25776,7 +26274,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B20" s="8">
         <v>10004254702</v>
@@ -25787,7 +26285,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B21" s="8">
         <v>10006000456</v>
@@ -25798,7 +26296,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" s="8">
         <v>10006001743</v>
@@ -25809,7 +26307,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B23" s="8">
         <v>10004963667</v>
@@ -25820,7 +26318,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="B24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C24" s="2">
         <v>3092</v>
@@ -25835,7 +26333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9D6A0A-58D8-491B-8520-AA2E6E8E4A66}">
   <dimension ref="A1:B278"/>
   <sheetViews>
-    <sheetView topLeftCell="A268" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -25855,7 +26353,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="B2" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -25865,37 +26363,37 @@
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -25905,17 +26403,17 @@
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -25925,12 +26423,12 @@
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="2:2">
@@ -25940,7 +26438,7 @@
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -25960,7 +26458,7 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="2:2">
@@ -26000,7 +26498,7 @@
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="2:2">
@@ -26010,17 +26508,17 @@
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -26040,7 +26538,7 @@
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="2:2">
@@ -26050,7 +26548,7 @@
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="2:2">
@@ -26165,7 +26663,7 @@
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="65" spans="2:2">
@@ -26310,47 +26808,47 @@
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="102" spans="2:2">
@@ -26360,22 +26858,22 @@
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="107" spans="2:2">
@@ -26390,22 +26888,22 @@
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="113" spans="2:2">
@@ -26430,7 +26928,7 @@
     </row>
     <row r="117" spans="2:2">
       <c r="B117" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="118" spans="2:2">
@@ -26470,7 +26968,7 @@
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="126" spans="2:2">
@@ -26520,112 +27018,112 @@
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="157" spans="2:2">
@@ -26670,22 +27168,22 @@
     </row>
     <row r="165" spans="2:2">
       <c r="B165" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="169" spans="2:2">
@@ -26810,27 +27308,27 @@
     </row>
     <row r="193" spans="2:2">
       <c r="B193" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="198" spans="2:2">
@@ -26970,7 +27468,7 @@
     </row>
     <row r="225" spans="2:2">
       <c r="B225" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="226" spans="2:2">
@@ -26980,12 +27478,12 @@
     </row>
     <row r="227" spans="2:2">
       <c r="B227" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="228" spans="2:2">
       <c r="B228" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="229" spans="2:2">
@@ -27015,42 +27513,42 @@
     </row>
     <row r="234" spans="2:2">
       <c r="B234" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="235" spans="2:2">
       <c r="B235" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="236" spans="2:2">
       <c r="B236" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="237" spans="2:2">
       <c r="B237" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="238" spans="2:2">
       <c r="B238" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="240" spans="2:2">
       <c r="B240" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="241" spans="2:2">
       <c r="B241" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="242" spans="2:2">
@@ -27090,42 +27588,42 @@
     </row>
     <row r="249" spans="2:2">
       <c r="B249" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="250" spans="2:2">
       <c r="B250" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="251" spans="2:2">
       <c r="B251" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="252" spans="2:2">
       <c r="B252" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="253" spans="2:2">
       <c r="B253" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="254" spans="2:2">
       <c r="B254" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="255" spans="2:2">
       <c r="B255" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="256" spans="2:2">
       <c r="B256" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="257" spans="2:2">
@@ -27135,7 +27633,7 @@
     </row>
     <row r="258" spans="2:2">
       <c r="B258" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="259" spans="2:2">
@@ -27150,92 +27648,92 @@
     </row>
     <row r="261" spans="2:2">
       <c r="B261" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="262" spans="2:2">
       <c r="B262" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="263" spans="2:2">
       <c r="B263" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="264" spans="2:2">
       <c r="B264" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="265" spans="2:2">
       <c r="B265" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="266" spans="2:2">
       <c r="B266" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="267" spans="2:2">
       <c r="B267" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="268" spans="2:2">
       <c r="B268" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="269" spans="2:2">
       <c r="B269" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="270" spans="2:2">
       <c r="B270" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="271" spans="2:2">
       <c r="B271" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="272" spans="2:2">
       <c r="B272" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="273" spans="2:2">
       <c r="B273" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="274" spans="2:2">
       <c r="B274" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="275" spans="2:2">
       <c r="B275" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="276" spans="2:2">
       <c r="B276" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="277" spans="2:2">
       <c r="B277" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="278" spans="2:2">
       <c r="B278" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -27267,7 +27765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFED1B6-6669-418D-935F-274B00B50F32}">
   <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -27288,17 +27786,17 @@
     </row>
     <row r="2" spans="1:2">
       <c r="B2" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -27308,12 +27806,12 @@
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -27323,27 +27821,27 @@
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -27358,22 +27856,22 @@
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -27398,12 +27896,12 @@
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="2:2">
@@ -27428,7 +27926,7 @@
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="2:2">
@@ -27453,7 +27951,7 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -27483,7 +27981,7 @@
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="2:2">
@@ -27528,22 +28026,22 @@
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="2:2">
@@ -27673,7 +28171,7 @@
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="2:2">
@@ -27683,12 +28181,12 @@
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="83" spans="2:2">
@@ -27733,12 +28231,12 @@
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="93" spans="2:2">
@@ -27768,12 +28266,12 @@
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="100" spans="2:2">
@@ -27788,17 +28286,17 @@
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="105" spans="2:2">
@@ -27808,7 +28306,7 @@
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="107" spans="2:2">
@@ -27838,27 +28336,27 @@
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="121" spans="2:2" ht="14.25" customHeight="1"/>
@@ -27888,16 +28386,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF03CF93-A241-4DB9-ACD8-61B0F18F4B55}">
-  <dimension ref="A1:V220"/>
+  <dimension ref="A1:V221"/>
   <sheetViews>
-    <sheetView topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I220" sqref="I220"/>
+    <sheetView topLeftCell="A200" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B200" sqref="B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="15" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -27906,12 +28404,12 @@
       <c r="A1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="V1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -27920,7 +28418,7 @@
         <v>10008521996</v>
       </c>
       <c r="V2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -27929,7 +28427,7 @@
         <v>10008521996</v>
       </c>
       <c r="V3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -27938,7 +28436,7 @@
         <v>10008521996</v>
       </c>
       <c r="V4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -27947,7 +28445,7 @@
         <v>HV307164-XX</v>
       </c>
       <c r="V5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -27956,7 +28454,7 @@
       </c>
       <c r="F6" s="2"/>
       <c r="V6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -27965,7 +28463,7 @@
         <v>HV306453-01</v>
       </c>
       <c r="V7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -27974,7 +28472,7 @@
         <v>HV400318-XX</v>
       </c>
       <c r="V8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -27983,7 +28481,7 @@
         <v>HV307164-XX</v>
       </c>
       <c r="V9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -27992,7 +28490,7 @@
         <v>HV303895-01</v>
       </c>
       <c r="V10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -28001,7 +28499,7 @@
         <v>HV307986-XX</v>
       </c>
       <c r="V11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -28010,7 +28508,7 @@
         <v>10011984549</v>
       </c>
       <c r="V12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -28019,7 +28517,7 @@
         <v>HV311169-XX</v>
       </c>
       <c r="V13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -28028,7 +28526,7 @@
         <v>4365870010-004</v>
       </c>
       <c r="V14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -28037,7 +28535,7 @@
         <v>HV307986-XX</v>
       </c>
       <c r="V15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -28046,7 +28544,7 @@
         <v>4544520010-006</v>
       </c>
       <c r="V16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="2:22">
@@ -28055,7 +28553,7 @@
         <v>28800202</v>
       </c>
       <c r="V17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="2:22">
@@ -28064,7 +28562,7 @@
         <v>10007618049</v>
       </c>
       <c r="V18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="2:22">
@@ -28073,7 +28571,7 @@
         <v>10008511425</v>
       </c>
       <c r="V19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="2:22">
@@ -28082,7 +28580,7 @@
         <v>10008511425</v>
       </c>
       <c r="V20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="2:22">
@@ -28091,7 +28589,7 @@
         <v>10005591672</v>
       </c>
       <c r="V21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="2:22">
@@ -28100,7 +28598,7 @@
         <v>10008507813</v>
       </c>
       <c r="V22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="2:22">
@@ -28109,7 +28607,7 @@
         <v>10008507813</v>
       </c>
       <c r="V23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="2:22">
@@ -28118,7 +28616,7 @@
         <v>10008507813</v>
       </c>
       <c r="V24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="2:22">
@@ -28127,7 +28625,7 @@
         <v>HVHV307987-XX</v>
       </c>
       <c r="V25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="2:22">
@@ -28136,7 +28634,7 @@
         <v>HV307986-XX</v>
       </c>
       <c r="V26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="2:22">
@@ -28145,7 +28643,7 @@
         <v>HV307986-XX</v>
       </c>
       <c r="V27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="2:22">
@@ -28154,7 +28652,7 @@
         <v>HV307986-XX</v>
       </c>
       <c r="V28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="2:22">
@@ -28163,7 +28661,7 @@
         <v>HV307986-XX</v>
       </c>
       <c r="V29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="2:22">
@@ -28172,7 +28670,7 @@
         <v>HV307986-XX</v>
       </c>
       <c r="V30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="2:22">
@@ -28181,7 +28679,7 @@
         <v>RML-W-064709</v>
       </c>
       <c r="V31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="2:22">
@@ -28190,7 +28688,7 @@
         <v>HV311126-02</v>
       </c>
       <c r="V32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="2:22">
@@ -28199,7 +28697,7 @@
         <v>HV307986-XX</v>
       </c>
       <c r="V33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="2:22">
@@ -28208,7 +28706,7 @@
         <v>HV307164-XX</v>
       </c>
       <c r="V34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="2:22">
@@ -28217,7 +28715,7 @@
         <v>10005864826</v>
       </c>
       <c r="V35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="2:22">
@@ -28226,7 +28724,7 @@
         <v>10004229966</v>
       </c>
       <c r="V36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="2:22">
@@ -28235,7 +28733,7 @@
         <v>10008755474</v>
       </c>
       <c r="V37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="2:22">
@@ -28244,7 +28742,7 @@
         <v>10010360769</v>
       </c>
       <c r="V38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="2:22">
@@ -28253,7 +28751,7 @@
         <v>10009890643</v>
       </c>
       <c r="V39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="2:22">
@@ -28262,7 +28760,7 @@
         <v>10009855888</v>
       </c>
       <c r="V40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="2:22">
@@ -28271,7 +28769,7 @@
         <v>10004980103</v>
       </c>
       <c r="V41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="2:22">
@@ -28280,7 +28778,7 @@
         <v>10004976811</v>
       </c>
       <c r="V42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="2:22">
@@ -28289,7 +28787,7 @@
         <v>10004963667</v>
       </c>
       <c r="V43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="2:22">
@@ -28298,7 +28796,7 @@
         <v>10008507821</v>
       </c>
       <c r="V44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="2:22">
@@ -28307,7 +28805,7 @@
         <v>10008507821</v>
       </c>
       <c r="V45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="2:22">
@@ -28316,7 +28814,7 @@
         <v>10008514727</v>
       </c>
       <c r="V46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="2:22">
@@ -28325,7 +28823,7 @@
         <v>10006001743</v>
       </c>
       <c r="V47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="2:22">
@@ -28334,7 +28832,7 @@
         <v>10006000456</v>
       </c>
       <c r="V48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="2:22">
@@ -28343,7 +28841,7 @@
         <v>10004254702</v>
       </c>
       <c r="V49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="2:22">
@@ -28352,7 +28850,7 @@
         <v>10003058629</v>
       </c>
       <c r="V50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="2:22">
@@ -28361,7 +28859,7 @@
         <v>10005184725</v>
       </c>
       <c r="V51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="2:22">
@@ -28370,7 +28868,7 @@
         <v>10005675337</v>
       </c>
       <c r="V52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="2:22">
@@ -28379,7 +28877,7 @@
         <v>10005159680</v>
       </c>
       <c r="V53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="2:22">
@@ -28388,7 +28886,7 @@
         <v>10006836848</v>
       </c>
       <c r="V54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="2:22">
@@ -28397,7 +28895,7 @@
         <v>10006836881</v>
       </c>
       <c r="V55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="2:22">
@@ -28406,7 +28904,7 @@
         <v>10006504723</v>
       </c>
       <c r="V56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="2:22">
@@ -28447,7 +28945,7 @@
     </row>
     <row r="64" spans="2:22">
       <c r="B64" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="2:2">
@@ -28572,12 +29070,12 @@
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="91" spans="2:2">
@@ -28657,17 +29155,17 @@
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="109" spans="2:2">
@@ -28882,7 +29380,7 @@
     </row>
     <row r="151" spans="2:2">
       <c r="B151" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="152" spans="2:2">
@@ -28892,7 +29390,7 @@
     </row>
     <row r="153" spans="2:2">
       <c r="B153" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="154" spans="2:2">
@@ -29007,12 +29505,12 @@
     </row>
     <row r="176" spans="2:2">
       <c r="B176" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" s="15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="178" spans="2:2">
@@ -29137,7 +29635,7 @@
     </row>
     <row r="202" spans="2:2">
       <c r="B202" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="203" spans="2:2">
@@ -29152,7 +29650,7 @@
     </row>
     <row r="205" spans="2:2">
       <c r="B205" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="206" spans="2:2">
@@ -29226,8 +29724,13 @@
       </c>
     </row>
     <row r="220" spans="2:2">
-      <c r="B220" s="10" t="s">
-        <v>493</v>
+      <c r="B220" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" s="15" t="s">
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -29257,16 +29760,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA1C6DF-1C6F-4A7E-AA08-F9BD66EE655C}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -29279,13 +29782,13 @@
     </row>
     <row r="2" spans="1:10">
       <c r="B2" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J3" s="12"/>
     </row>
@@ -29297,7 +29800,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J5" s="12"/>
     </row>
@@ -29309,19 +29812,19 @@
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J9" s="12"/>
     </row>
@@ -29339,7 +29842,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J12" s="12"/>
     </row>
@@ -29356,12 +29859,12 @@
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -29381,27 +29884,27 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="2:2">
@@ -29426,17 +29929,17 @@
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="2:2">
@@ -29476,12 +29979,12 @@
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="2:2">
@@ -29506,12 +30009,12 @@
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="2:2">
@@ -29526,7 +30029,247 @@
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="15">
+        <v>28760407</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="15" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="15" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="15">
+        <v>10004112775</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="15" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="15">
+        <v>10007234956</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="15">
+        <v>10006188231</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="15">
+        <v>10006188202</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="15" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="15" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="15" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="15" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="15" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="15" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="15" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="15" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="15" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="15" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="15" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="15">
+        <v>10010879187</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="15" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="15" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="15" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="15" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="15" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="15" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="15" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -29555,15 +30298,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC684379-4DA6-4542-878A-CB7C3F3346DA}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -29576,7 +30320,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="B2" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -29590,8 +30334,28 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" s="9" t="s">
-        <v>213</v>
+      <c r="B5" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="15" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -29623,7 +30387,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617C85FD-F412-40AB-9C78-ABCA9F3D1C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FE95ED-2B34-454C-AEAB-A016A4012209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="4" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCESSOS DE FABRICAÇÃO" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="517">
   <si>
     <t>ORCAMENTO</t>
   </si>
@@ -1587,9 +1587,6 @@
   </si>
   <si>
     <t>HV309108-01</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
 </sst>
 </file>
@@ -2642,9 +2639,9 @@
   </sheetPr>
   <dimension ref="A1:AV540"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C364" sqref="C364"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E373" sqref="E373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21102,9 +21099,7 @@
       <c r="A364" s="1">
         <v>364</v>
       </c>
-      <c r="B364" s="1" t="s">
-        <v>517</v>
-      </c>
+      <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
@@ -28386,10 +28381,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF03CF93-A241-4DB9-ACD8-61B0F18F4B55}">
-  <dimension ref="A1:V221"/>
+  <dimension ref="A1:V222"/>
   <sheetViews>
-    <sheetView topLeftCell="A200" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B200" sqref="B200"/>
+    <sheetView tabSelected="1" topLeftCell="A200" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F217" sqref="F217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29731,6 +29726,11 @@
     <row r="221" spans="2:2">
       <c r="B221" s="15" t="s">
         <v>497</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" s="15" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FE95ED-2B34-454C-AEAB-A016A4012209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5A93FC-B660-41E6-8B51-1071957E079F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="4" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCESSOS DE FABRICAÇÃO" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="523">
   <si>
     <t>ORCAMENTO</t>
   </si>
@@ -1587,6 +1587,24 @@
   </si>
   <si>
     <t>HV309108-01</t>
+  </si>
+  <si>
+    <t>HVHV311008-07</t>
+  </si>
+  <si>
+    <t>HVHV311643-05</t>
+  </si>
+  <si>
+    <t>HVHV311643-06</t>
+  </si>
+  <si>
+    <t>HVHV309108-01</t>
+  </si>
+  <si>
+    <t>4439420010-004</t>
+  </si>
+  <si>
+    <t>HVHV311567-02</t>
   </si>
 </sst>
 </file>
@@ -2639,9 +2657,9 @@
   </sheetPr>
   <dimension ref="A1:AV540"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E373" sqref="E373"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M364" sqref="M364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2823,14 +2841,14 @@
       </c>
       <c r="AL2" s="1">
         <f>SUM(G2:G500)</f>
-        <v>6098</v>
+        <v>6362</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN2" s="21">
         <f>AL2/AL23</f>
-        <v>0.12088580870385751</v>
+        <v>0.11985614248600704</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -2892,28 +2910,28 @@
       </c>
       <c r="AL3" s="1">
         <f>SUM(H2:H500)</f>
-        <v>4182</v>
+        <v>4822</v>
       </c>
       <c r="AM3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN3" s="21">
         <f>AL3/AL23</f>
-        <v>8.2903321088804868E-2</v>
+        <v>9.0843495609482239E-2</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>470</v>
       </c>
       <c r="AQ3" s="1">
         <f>SUM(AL2:AL5)</f>
-        <v>10582.3</v>
+        <v>11486.3</v>
       </c>
       <c r="AR3" t="s">
         <v>22</v>
       </c>
       <c r="AS3" s="21">
         <f>AQ3/AL23</f>
-        <v>0.20978187823004776</v>
+        <v>0.21639478299858891</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -2984,7 +3002,7 @@
       </c>
       <c r="AN4" s="21">
         <f>AL4/AL23</f>
-        <v>5.8539815202114012E-3</v>
+        <v>5.5632692354790764E-3</v>
       </c>
       <c r="AP4" s="1"/>
       <c r="AS4" s="1"/>
@@ -3057,7 +3075,7 @@
       </c>
       <c r="AN5" s="21">
         <f>AL5/AL23</f>
-        <v>1.3876691717399191E-4</v>
+        <v>1.3187566762056733E-4</v>
       </c>
       <c r="AP5" s="1" t="s">
         <v>471</v>
@@ -3071,7 +3089,7 @@
       </c>
       <c r="AS5" s="21">
         <f>AQ5/AL23</f>
-        <v>6.1890045059600385E-2</v>
+        <v>5.8816547758773027E-2</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -3142,7 +3160,7 @@
       </c>
       <c r="AN6" s="21">
         <f>AL6/AL23</f>
-        <v>5.6557430671056987E-2</v>
+        <v>5.3748754245925512E-2</v>
       </c>
       <c r="AS6" s="1"/>
     </row>
@@ -3214,21 +3232,21 @@
       </c>
       <c r="AN7" s="21">
         <f>AL7/AL23</f>
-        <v>5.3326143885434026E-3</v>
+        <v>5.0677935128475154E-3</v>
       </c>
       <c r="AP7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AQ7" s="1">
         <f>AL8</f>
-        <v>6673</v>
+        <v>6733</v>
       </c>
       <c r="AR7" t="s">
         <v>22</v>
       </c>
       <c r="AS7" s="22">
         <f>AN8</f>
-        <v>0.13228451975743541</v>
+        <v>0.1268455528698971</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -3292,14 +3310,14 @@
       </c>
       <c r="AL8" s="1">
         <f>SUM(M2:M499)</f>
-        <v>6673</v>
+        <v>6733</v>
       </c>
       <c r="AM8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN8" s="21">
         <f>AL8/AL23</f>
-        <v>0.13228451975743541</v>
+        <v>0.1268455528698971</v>
       </c>
       <c r="AS8" s="1"/>
     </row>
@@ -3364,28 +3382,28 @@
       </c>
       <c r="AL9" s="1">
         <f>SUM(N2:N501)</f>
-        <v>2586</v>
+        <v>2601</v>
       </c>
       <c r="AM9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN9" s="21">
         <f>AL9/AL23</f>
-        <v>5.1264463973134722E-2</v>
+        <v>4.900123021158509E-2</v>
       </c>
       <c r="AP9" s="1" t="s">
         <v>469</v>
       </c>
       <c r="AQ9" s="1">
         <f>AL9</f>
-        <v>2586</v>
+        <v>2601</v>
       </c>
       <c r="AR9" t="s">
         <v>22</v>
       </c>
       <c r="AS9" s="22">
         <f>AN9</f>
-        <v>5.1264463973134722E-2</v>
+        <v>4.900123021158509E-2</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -3456,7 +3474,7 @@
       </c>
       <c r="AN10" s="21">
         <f>AL10/AL23</f>
-        <v>3.3304060121758057E-3</v>
+        <v>3.1650160228936159E-3</v>
       </c>
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
@@ -3530,7 +3548,7 @@
       </c>
       <c r="AN11" s="21">
         <f>AL11/AL23</f>
-        <v>1.4550702457958579E-2</v>
+        <v>1.3828105719070916E-2</v>
       </c>
       <c r="AP11" s="1" t="s">
         <v>472</v>
@@ -3544,7 +3562,7 @@
       </c>
       <c r="AS11" s="22">
         <f>AQ11/AL23</f>
-        <v>2.7515497291071538E-2</v>
+        <v>2.6149060951049633E-2</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -3613,7 +3631,7 @@
       </c>
       <c r="AN12" s="21">
         <f>AL12/AL23</f>
-        <v>9.6343888209371523E-3</v>
+        <v>9.1559392090851035E-3</v>
       </c>
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
@@ -3683,7 +3701,7 @@
       </c>
       <c r="AN13" s="21">
         <f>AL13/AL23</f>
-        <v>1.7841460779513243E-3</v>
+        <v>1.6955442979787226E-3</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>13</v>
@@ -3697,7 +3715,7 @@
       </c>
       <c r="AS13" s="22">
         <f>AQ13/AL23</f>
-        <v>1.7841460779513243E-3</v>
+        <v>1.6955442979787226E-3</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -3760,7 +3778,7 @@
       </c>
       <c r="AN14" s="21">
         <f>AL14/AL23</f>
-        <v>2.3788614372684327E-3</v>
+        <v>2.2607257306382971E-3</v>
       </c>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
@@ -3846,7 +3864,7 @@
       </c>
       <c r="AS15" s="22">
         <f>AN14</f>
-        <v>2.3788614372684327E-3</v>
+        <v>2.2607257306382971E-3</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -3910,14 +3928,14 @@
       </c>
       <c r="AL16" s="1">
         <f>SUM(U4:U499)</f>
-        <v>14199</v>
+        <v>15064</v>
       </c>
       <c r="AM16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN16" s="21">
         <f>AL16/AL23</f>
-        <v>0.28147877956478728</v>
+        <v>0.28379643671946087</v>
       </c>
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1"/>
@@ -3978,14 +3996,14 @@
       </c>
       <c r="AL17" s="1">
         <f>SUM(V11:V499)</f>
-        <v>5065</v>
+        <v>5462</v>
       </c>
       <c r="AM17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN17" s="21">
         <f>AL17/AL23</f>
-        <v>0.10040777649803842</v>
+        <v>0.10290069950621981</v>
       </c>
       <c r="AP17" s="1" t="s">
         <v>14</v>
@@ -4066,7 +4084,7 @@
       </c>
       <c r="AN18" s="21">
         <f>AL18/AL23</f>
-        <v>1.3242328667460942E-2</v>
+        <v>1.2584706567219854E-2</v>
       </c>
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
@@ -4134,21 +4152,21 @@
       </c>
       <c r="AN19" s="21">
         <f>AL19/AL23</f>
-        <v>6.2603703490780913E-2</v>
+        <v>5.9494765477964513E-2</v>
       </c>
       <c r="AP19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AQ19" s="1">
         <f>AL16</f>
-        <v>14199</v>
+        <v>15064</v>
       </c>
       <c r="AR19" t="s">
         <v>22</v>
       </c>
       <c r="AS19" s="22">
         <f>AN16</f>
-        <v>0.28147877956478728</v>
+        <v>0.28379643671946087</v>
       </c>
     </row>
     <row r="20" spans="1:46">
@@ -4212,14 +4230,14 @@
       </c>
       <c r="AL20" s="1">
         <f>SUM(Y5:Y499)</f>
-        <v>2733</v>
+        <v>3128</v>
       </c>
       <c r="AM20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN20" s="21">
         <f>AL20/AL23</f>
-        <v>5.4178569233788554E-2</v>
+        <v>5.892958404530494E-2</v>
       </c>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
@@ -4295,21 +4313,21 @@
       </c>
       <c r="AN21" s="21">
         <f>AL21/AL23</f>
-        <v>1.1894307186342164E-3</v>
+        <v>1.1303628653191486E-3</v>
       </c>
       <c r="AP21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AQ21" s="1">
         <f>AL17</f>
-        <v>5065</v>
+        <v>5462</v>
       </c>
       <c r="AR21" t="s">
         <v>22</v>
       </c>
       <c r="AS21" s="22">
         <f>AN17</f>
-        <v>0.10040777649803842</v>
+        <v>0.10290069950621981</v>
       </c>
     </row>
     <row r="22" spans="1:46">
@@ -4437,7 +4455,7 @@
       </c>
       <c r="AL23" s="1">
         <f>SUM(AL2:AL21)</f>
-        <v>50444.3</v>
+        <v>53080.3</v>
       </c>
       <c r="AM23" s="1" t="s">
         <v>22</v>
@@ -4454,7 +4472,7 @@
       </c>
       <c r="AS23" s="22">
         <f>AN18</f>
-        <v>1.3242328667460942E-2</v>
+        <v>1.2584706567219854E-2</v>
       </c>
     </row>
     <row r="24" spans="1:46">
@@ -4585,7 +4603,7 @@
       </c>
       <c r="AS25" s="22">
         <f>AN19</f>
-        <v>6.2603703490780913E-2</v>
+        <v>5.9494765477964513E-2</v>
       </c>
     </row>
     <row r="26" spans="1:46">
@@ -4705,14 +4723,14 @@
       </c>
       <c r="AQ27" s="1">
         <f>AL20</f>
-        <v>2733</v>
+        <v>3128</v>
       </c>
       <c r="AR27" t="s">
         <v>22</v>
       </c>
       <c r="AS27" s="22">
         <f>AN20</f>
-        <v>5.4178569233788554E-2</v>
+        <v>5.892958404530494E-2</v>
       </c>
     </row>
     <row r="28" spans="1:46">
@@ -4839,7 +4857,7 @@
       </c>
       <c r="AS29" s="22">
         <f>AN21</f>
-        <v>1.1894307186342164E-3</v>
+        <v>1.1303628653191486E-3</v>
       </c>
     </row>
     <row r="30" spans="1:46">
@@ -4959,14 +4977,14 @@
       </c>
       <c r="AQ31" s="1">
         <f>SUM(AQ3:AQ29)</f>
-        <v>50444.3</v>
+        <v>53080.3</v>
       </c>
       <c r="AR31" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AS31" s="23">
         <f>SUM(AS3:AS29)</f>
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="AT31" s="20"/>
     </row>
@@ -21099,29 +21117,51 @@
       <c r="A364" s="1">
         <v>364</v>
       </c>
-      <c r="B364" s="1"/>
-      <c r="C364" s="1"/>
-      <c r="D364" s="1"/>
-      <c r="E364" s="1"/>
-      <c r="F364" s="1"/>
-      <c r="G364" s="1"/>
+      <c r="B364" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C364" s="1">
+        <v>399</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G364" s="1">
+        <v>15</v>
+      </c>
       <c r="H364" s="1"/>
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
       <c r="K364" s="1"/>
       <c r="L364" s="1"/>
-      <c r="M364" s="1"/>
-      <c r="N364" s="1"/>
+      <c r="M364" s="1">
+        <v>30</v>
+      </c>
+      <c r="N364" s="1">
+        <v>15</v>
+      </c>
       <c r="O364" s="1"/>
       <c r="P364" s="1"/>
       <c r="Q364" s="1"/>
       <c r="R364" s="1"/>
-      <c r="U364" s="1"/>
-      <c r="V364" s="1"/>
-      <c r="Y364" s="1"/>
+      <c r="U364" s="1">
+        <v>60</v>
+      </c>
+      <c r="V364" s="1">
+        <v>30</v>
+      </c>
+      <c r="Y364" s="1">
+        <v>30</v>
+      </c>
       <c r="AA364" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AB364" s="1" t="s">
         <v>22</v>
@@ -21131,29 +21171,45 @@
       <c r="A365" s="1">
         <v>365</v>
       </c>
-      <c r="B365" s="1"/>
-      <c r="C365" s="1"/>
-      <c r="D365" s="1"/>
-      <c r="E365" s="1"/>
-      <c r="F365" s="1"/>
-      <c r="G365" s="1"/>
+      <c r="B365" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C365" s="1">
+        <v>697</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G365" s="1">
+        <v>2</v>
+      </c>
       <c r="H365" s="1"/>
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
       <c r="K365" s="1"/>
       <c r="L365" s="1"/>
-      <c r="M365" s="1"/>
+      <c r="M365" s="1">
+        <v>10</v>
+      </c>
       <c r="N365" s="1"/>
       <c r="O365" s="1"/>
       <c r="P365" s="1"/>
       <c r="Q365" s="1"/>
       <c r="R365" s="1"/>
       <c r="U365" s="1"/>
-      <c r="V365" s="1"/>
+      <c r="V365" s="1">
+        <v>1</v>
+      </c>
       <c r="Y365" s="1"/>
       <c r="AA365" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AB365" s="1" t="s">
         <v>22</v>
@@ -21163,29 +21219,45 @@
       <c r="A366" s="1">
         <v>366</v>
       </c>
-      <c r="B366" s="1"/>
-      <c r="C366" s="1"/>
-      <c r="D366" s="1"/>
-      <c r="E366" s="1"/>
-      <c r="F366" s="1"/>
-      <c r="G366" s="1"/>
+      <c r="B366" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C366" s="1">
+        <v>697</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G366" s="1">
+        <v>2</v>
+      </c>
       <c r="H366" s="1"/>
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
       <c r="K366" s="1"/>
       <c r="L366" s="1"/>
-      <c r="M366" s="1"/>
+      <c r="M366" s="1">
+        <v>10</v>
+      </c>
       <c r="N366" s="1"/>
       <c r="O366" s="1"/>
       <c r="P366" s="1"/>
       <c r="Q366" s="1"/>
       <c r="R366" s="1"/>
       <c r="U366" s="1"/>
-      <c r="V366" s="1"/>
+      <c r="V366" s="1">
+        <v>1</v>
+      </c>
       <c r="Y366" s="1"/>
       <c r="AA366" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AB366" s="1" t="s">
         <v>22</v>
@@ -21195,29 +21267,49 @@
       <c r="A367" s="1">
         <v>367</v>
       </c>
-      <c r="B367" s="1"/>
-      <c r="C367" s="1"/>
-      <c r="D367" s="1"/>
-      <c r="E367" s="1"/>
-      <c r="F367" s="1"/>
-      <c r="G367" s="1"/>
+      <c r="B367" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C367" s="1">
+        <v>399</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G367" s="1">
+        <v>5</v>
+      </c>
       <c r="H367" s="1"/>
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
       <c r="K367" s="1"/>
       <c r="L367" s="1"/>
-      <c r="M367" s="1"/>
+      <c r="M367" s="1">
+        <v>10</v>
+      </c>
       <c r="N367" s="1"/>
       <c r="O367" s="1"/>
       <c r="P367" s="1"/>
       <c r="Q367" s="1"/>
       <c r="R367" s="1"/>
-      <c r="U367" s="1"/>
-      <c r="V367" s="1"/>
-      <c r="Y367" s="1"/>
+      <c r="U367" s="1">
+        <v>5</v>
+      </c>
+      <c r="V367" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y367" s="1">
+        <v>5</v>
+      </c>
       <c r="AA367" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB367" s="1" t="s">
         <v>22</v>
@@ -21227,13 +21319,27 @@
       <c r="A368" s="1">
         <v>368</v>
       </c>
-      <c r="B368" s="1"/>
-      <c r="C368" s="1"/>
-      <c r="D368" s="1"/>
-      <c r="E368" s="1"/>
-      <c r="F368" s="1"/>
-      <c r="G368" s="1"/>
-      <c r="H368" s="1"/>
+      <c r="B368" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C368" s="1">
+        <v>708</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G368" s="1">
+        <v>240</v>
+      </c>
+      <c r="H368" s="1">
+        <v>640</v>
+      </c>
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
       <c r="K368" s="1"/>
@@ -21244,12 +21350,18 @@
       <c r="P368" s="1"/>
       <c r="Q368" s="1"/>
       <c r="R368" s="1"/>
-      <c r="U368" s="1"/>
-      <c r="V368" s="1"/>
-      <c r="Y368" s="1"/>
+      <c r="U368" s="1">
+        <v>800</v>
+      </c>
+      <c r="V368" s="1">
+        <v>360</v>
+      </c>
+      <c r="Y368" s="1">
+        <v>360</v>
+      </c>
       <c r="AA368" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="AB368" s="1" t="s">
         <v>22</v>
@@ -27760,7 +27872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFED1B6-6669-418D-935F-274B00B50F32}">
   <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A98" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -28383,7 +28495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF03CF93-A241-4DB9-ACD8-61B0F18F4B55}">
   <dimension ref="A1:V222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A200" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F217" sqref="F217"/>
     </sheetView>
   </sheetViews>
@@ -29762,8 +29874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA1C6DF-1C6F-4A7E-AA08-F9BD66EE655C}">
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30301,7 +30413,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5A93FC-B660-41E6-8B51-1071957E079F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FE95ED-2B34-454C-AEAB-A016A4012209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="4" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCESSOS DE FABRICAÇÃO" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="517">
   <si>
     <t>ORCAMENTO</t>
   </si>
@@ -1587,24 +1587,6 @@
   </si>
   <si>
     <t>HV309108-01</t>
-  </si>
-  <si>
-    <t>HVHV311008-07</t>
-  </si>
-  <si>
-    <t>HVHV311643-05</t>
-  </si>
-  <si>
-    <t>HVHV311643-06</t>
-  </si>
-  <si>
-    <t>HVHV309108-01</t>
-  </si>
-  <si>
-    <t>4439420010-004</t>
-  </si>
-  <si>
-    <t>HVHV311567-02</t>
   </si>
 </sst>
 </file>
@@ -2657,9 +2639,9 @@
   </sheetPr>
   <dimension ref="A1:AV540"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M364" sqref="M364"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E373" sqref="E373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2841,14 +2823,14 @@
       </c>
       <c r="AL2" s="1">
         <f>SUM(G2:G500)</f>
-        <v>6362</v>
+        <v>6098</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN2" s="21">
         <f>AL2/AL23</f>
-        <v>0.11985614248600704</v>
+        <v>0.12088580870385751</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -2910,28 +2892,28 @@
       </c>
       <c r="AL3" s="1">
         <f>SUM(H2:H500)</f>
-        <v>4822</v>
+        <v>4182</v>
       </c>
       <c r="AM3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN3" s="21">
         <f>AL3/AL23</f>
-        <v>9.0843495609482239E-2</v>
+        <v>8.2903321088804868E-2</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>470</v>
       </c>
       <c r="AQ3" s="1">
         <f>SUM(AL2:AL5)</f>
-        <v>11486.3</v>
+        <v>10582.3</v>
       </c>
       <c r="AR3" t="s">
         <v>22</v>
       </c>
       <c r="AS3" s="21">
         <f>AQ3/AL23</f>
-        <v>0.21639478299858891</v>
+        <v>0.20978187823004776</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -3002,7 +2984,7 @@
       </c>
       <c r="AN4" s="21">
         <f>AL4/AL23</f>
-        <v>5.5632692354790764E-3</v>
+        <v>5.8539815202114012E-3</v>
       </c>
       <c r="AP4" s="1"/>
       <c r="AS4" s="1"/>
@@ -3075,7 +3057,7 @@
       </c>
       <c r="AN5" s="21">
         <f>AL5/AL23</f>
-        <v>1.3187566762056733E-4</v>
+        <v>1.3876691717399191E-4</v>
       </c>
       <c r="AP5" s="1" t="s">
         <v>471</v>
@@ -3089,7 +3071,7 @@
       </c>
       <c r="AS5" s="21">
         <f>AQ5/AL23</f>
-        <v>5.8816547758773027E-2</v>
+        <v>6.1890045059600385E-2</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -3160,7 +3142,7 @@
       </c>
       <c r="AN6" s="21">
         <f>AL6/AL23</f>
-        <v>5.3748754245925512E-2</v>
+        <v>5.6557430671056987E-2</v>
       </c>
       <c r="AS6" s="1"/>
     </row>
@@ -3232,21 +3214,21 @@
       </c>
       <c r="AN7" s="21">
         <f>AL7/AL23</f>
-        <v>5.0677935128475154E-3</v>
+        <v>5.3326143885434026E-3</v>
       </c>
       <c r="AP7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AQ7" s="1">
         <f>AL8</f>
-        <v>6733</v>
+        <v>6673</v>
       </c>
       <c r="AR7" t="s">
         <v>22</v>
       </c>
       <c r="AS7" s="22">
         <f>AN8</f>
-        <v>0.1268455528698971</v>
+        <v>0.13228451975743541</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -3310,14 +3292,14 @@
       </c>
       <c r="AL8" s="1">
         <f>SUM(M2:M499)</f>
-        <v>6733</v>
+        <v>6673</v>
       </c>
       <c r="AM8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN8" s="21">
         <f>AL8/AL23</f>
-        <v>0.1268455528698971</v>
+        <v>0.13228451975743541</v>
       </c>
       <c r="AS8" s="1"/>
     </row>
@@ -3382,28 +3364,28 @@
       </c>
       <c r="AL9" s="1">
         <f>SUM(N2:N501)</f>
-        <v>2601</v>
+        <v>2586</v>
       </c>
       <c r="AM9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN9" s="21">
         <f>AL9/AL23</f>
-        <v>4.900123021158509E-2</v>
+        <v>5.1264463973134722E-2</v>
       </c>
       <c r="AP9" s="1" t="s">
         <v>469</v>
       </c>
       <c r="AQ9" s="1">
         <f>AL9</f>
-        <v>2601</v>
+        <v>2586</v>
       </c>
       <c r="AR9" t="s">
         <v>22</v>
       </c>
       <c r="AS9" s="22">
         <f>AN9</f>
-        <v>4.900123021158509E-2</v>
+        <v>5.1264463973134722E-2</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -3474,7 +3456,7 @@
       </c>
       <c r="AN10" s="21">
         <f>AL10/AL23</f>
-        <v>3.1650160228936159E-3</v>
+        <v>3.3304060121758057E-3</v>
       </c>
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
@@ -3548,7 +3530,7 @@
       </c>
       <c r="AN11" s="21">
         <f>AL11/AL23</f>
-        <v>1.3828105719070916E-2</v>
+        <v>1.4550702457958579E-2</v>
       </c>
       <c r="AP11" s="1" t="s">
         <v>472</v>
@@ -3562,7 +3544,7 @@
       </c>
       <c r="AS11" s="22">
         <f>AQ11/AL23</f>
-        <v>2.6149060951049633E-2</v>
+        <v>2.7515497291071538E-2</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -3631,7 +3613,7 @@
       </c>
       <c r="AN12" s="21">
         <f>AL12/AL23</f>
-        <v>9.1559392090851035E-3</v>
+        <v>9.6343888209371523E-3</v>
       </c>
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
@@ -3701,7 +3683,7 @@
       </c>
       <c r="AN13" s="21">
         <f>AL13/AL23</f>
-        <v>1.6955442979787226E-3</v>
+        <v>1.7841460779513243E-3</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>13</v>
@@ -3715,7 +3697,7 @@
       </c>
       <c r="AS13" s="22">
         <f>AQ13/AL23</f>
-        <v>1.6955442979787226E-3</v>
+        <v>1.7841460779513243E-3</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -3778,7 +3760,7 @@
       </c>
       <c r="AN14" s="21">
         <f>AL14/AL23</f>
-        <v>2.2607257306382971E-3</v>
+        <v>2.3788614372684327E-3</v>
       </c>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
@@ -3864,7 +3846,7 @@
       </c>
       <c r="AS15" s="22">
         <f>AN14</f>
-        <v>2.2607257306382971E-3</v>
+        <v>2.3788614372684327E-3</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -3928,14 +3910,14 @@
       </c>
       <c r="AL16" s="1">
         <f>SUM(U4:U499)</f>
-        <v>15064</v>
+        <v>14199</v>
       </c>
       <c r="AM16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN16" s="21">
         <f>AL16/AL23</f>
-        <v>0.28379643671946087</v>
+        <v>0.28147877956478728</v>
       </c>
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1"/>
@@ -3996,14 +3978,14 @@
       </c>
       <c r="AL17" s="1">
         <f>SUM(V11:V499)</f>
-        <v>5462</v>
+        <v>5065</v>
       </c>
       <c r="AM17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN17" s="21">
         <f>AL17/AL23</f>
-        <v>0.10290069950621981</v>
+        <v>0.10040777649803842</v>
       </c>
       <c r="AP17" s="1" t="s">
         <v>14</v>
@@ -4084,7 +4066,7 @@
       </c>
       <c r="AN18" s="21">
         <f>AL18/AL23</f>
-        <v>1.2584706567219854E-2</v>
+        <v>1.3242328667460942E-2</v>
       </c>
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
@@ -4152,21 +4134,21 @@
       </c>
       <c r="AN19" s="21">
         <f>AL19/AL23</f>
-        <v>5.9494765477964513E-2</v>
+        <v>6.2603703490780913E-2</v>
       </c>
       <c r="AP19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AQ19" s="1">
         <f>AL16</f>
-        <v>15064</v>
+        <v>14199</v>
       </c>
       <c r="AR19" t="s">
         <v>22</v>
       </c>
       <c r="AS19" s="22">
         <f>AN16</f>
-        <v>0.28379643671946087</v>
+        <v>0.28147877956478728</v>
       </c>
     </row>
     <row r="20" spans="1:46">
@@ -4230,14 +4212,14 @@
       </c>
       <c r="AL20" s="1">
         <f>SUM(Y5:Y499)</f>
-        <v>3128</v>
+        <v>2733</v>
       </c>
       <c r="AM20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN20" s="21">
         <f>AL20/AL23</f>
-        <v>5.892958404530494E-2</v>
+        <v>5.4178569233788554E-2</v>
       </c>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
@@ -4313,21 +4295,21 @@
       </c>
       <c r="AN21" s="21">
         <f>AL21/AL23</f>
-        <v>1.1303628653191486E-3</v>
+        <v>1.1894307186342164E-3</v>
       </c>
       <c r="AP21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AQ21" s="1">
         <f>AL17</f>
-        <v>5462</v>
+        <v>5065</v>
       </c>
       <c r="AR21" t="s">
         <v>22</v>
       </c>
       <c r="AS21" s="22">
         <f>AN17</f>
-        <v>0.10290069950621981</v>
+        <v>0.10040777649803842</v>
       </c>
     </row>
     <row r="22" spans="1:46">
@@ -4455,7 +4437,7 @@
       </c>
       <c r="AL23" s="1">
         <f>SUM(AL2:AL21)</f>
-        <v>53080.3</v>
+        <v>50444.3</v>
       </c>
       <c r="AM23" s="1" t="s">
         <v>22</v>
@@ -4472,7 +4454,7 @@
       </c>
       <c r="AS23" s="22">
         <f>AN18</f>
-        <v>1.2584706567219854E-2</v>
+        <v>1.3242328667460942E-2</v>
       </c>
     </row>
     <row r="24" spans="1:46">
@@ -4603,7 +4585,7 @@
       </c>
       <c r="AS25" s="22">
         <f>AN19</f>
-        <v>5.9494765477964513E-2</v>
+        <v>6.2603703490780913E-2</v>
       </c>
     </row>
     <row r="26" spans="1:46">
@@ -4723,14 +4705,14 @@
       </c>
       <c r="AQ27" s="1">
         <f>AL20</f>
-        <v>3128</v>
+        <v>2733</v>
       </c>
       <c r="AR27" t="s">
         <v>22</v>
       </c>
       <c r="AS27" s="22">
         <f>AN20</f>
-        <v>5.892958404530494E-2</v>
+        <v>5.4178569233788554E-2</v>
       </c>
     </row>
     <row r="28" spans="1:46">
@@ -4857,7 +4839,7 @@
       </c>
       <c r="AS29" s="22">
         <f>AN21</f>
-        <v>1.1303628653191486E-3</v>
+        <v>1.1894307186342164E-3</v>
       </c>
     </row>
     <row r="30" spans="1:46">
@@ -4977,14 +4959,14 @@
       </c>
       <c r="AQ31" s="1">
         <f>SUM(AQ3:AQ29)</f>
-        <v>53080.3</v>
+        <v>50444.3</v>
       </c>
       <c r="AR31" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AS31" s="23">
         <f>SUM(AS3:AS29)</f>
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="AT31" s="20"/>
     </row>
@@ -21117,51 +21099,29 @@
       <c r="A364" s="1">
         <v>364</v>
       </c>
-      <c r="B364" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C364" s="1">
-        <v>399</v>
-      </c>
-      <c r="D364" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E364" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="F364" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G364" s="1">
-        <v>15</v>
-      </c>
+      <c r="B364" s="1"/>
+      <c r="C364" s="1"/>
+      <c r="D364" s="1"/>
+      <c r="E364" s="1"/>
+      <c r="F364" s="1"/>
+      <c r="G364" s="1"/>
       <c r="H364" s="1"/>
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
       <c r="K364" s="1"/>
       <c r="L364" s="1"/>
-      <c r="M364" s="1">
-        <v>30</v>
-      </c>
-      <c r="N364" s="1">
-        <v>15</v>
-      </c>
+      <c r="M364" s="1"/>
+      <c r="N364" s="1"/>
       <c r="O364" s="1"/>
       <c r="P364" s="1"/>
       <c r="Q364" s="1"/>
       <c r="R364" s="1"/>
-      <c r="U364" s="1">
-        <v>60</v>
-      </c>
-      <c r="V364" s="1">
-        <v>30</v>
-      </c>
-      <c r="Y364" s="1">
-        <v>30</v>
-      </c>
+      <c r="U364" s="1"/>
+      <c r="V364" s="1"/>
+      <c r="Y364" s="1"/>
       <c r="AA364" s="2">
         <f t="shared" si="6"/>
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AB364" s="1" t="s">
         <v>22</v>
@@ -21171,45 +21131,29 @@
       <c r="A365" s="1">
         <v>365</v>
       </c>
-      <c r="B365" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C365" s="1">
-        <v>697</v>
-      </c>
-      <c r="D365" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E365" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="F365" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G365" s="1">
-        <v>2</v>
-      </c>
+      <c r="B365" s="1"/>
+      <c r="C365" s="1"/>
+      <c r="D365" s="1"/>
+      <c r="E365" s="1"/>
+      <c r="F365" s="1"/>
+      <c r="G365" s="1"/>
       <c r="H365" s="1"/>
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
       <c r="K365" s="1"/>
       <c r="L365" s="1"/>
-      <c r="M365" s="1">
-        <v>10</v>
-      </c>
+      <c r="M365" s="1"/>
       <c r="N365" s="1"/>
       <c r="O365" s="1"/>
       <c r="P365" s="1"/>
       <c r="Q365" s="1"/>
       <c r="R365" s="1"/>
       <c r="U365" s="1"/>
-      <c r="V365" s="1">
-        <v>1</v>
-      </c>
+      <c r="V365" s="1"/>
       <c r="Y365" s="1"/>
       <c r="AA365" s="2">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AB365" s="1" t="s">
         <v>22</v>
@@ -21219,45 +21163,29 @@
       <c r="A366" s="1">
         <v>366</v>
       </c>
-      <c r="B366" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C366" s="1">
-        <v>697</v>
-      </c>
-      <c r="D366" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="E366" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="F366" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G366" s="1">
-        <v>2</v>
-      </c>
+      <c r="B366" s="1"/>
+      <c r="C366" s="1"/>
+      <c r="D366" s="1"/>
+      <c r="E366" s="1"/>
+      <c r="F366" s="1"/>
+      <c r="G366" s="1"/>
       <c r="H366" s="1"/>
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
       <c r="K366" s="1"/>
       <c r="L366" s="1"/>
-      <c r="M366" s="1">
-        <v>10</v>
-      </c>
+      <c r="M366" s="1"/>
       <c r="N366" s="1"/>
       <c r="O366" s="1"/>
       <c r="P366" s="1"/>
       <c r="Q366" s="1"/>
       <c r="R366" s="1"/>
       <c r="U366" s="1"/>
-      <c r="V366" s="1">
-        <v>1</v>
-      </c>
+      <c r="V366" s="1"/>
       <c r="Y366" s="1"/>
       <c r="AA366" s="2">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AB366" s="1" t="s">
         <v>22</v>
@@ -21267,49 +21195,29 @@
       <c r="A367" s="1">
         <v>367</v>
       </c>
-      <c r="B367" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C367" s="1">
-        <v>399</v>
-      </c>
-      <c r="D367" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="E367" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="F367" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G367" s="1">
-        <v>5</v>
-      </c>
+      <c r="B367" s="1"/>
+      <c r="C367" s="1"/>
+      <c r="D367" s="1"/>
+      <c r="E367" s="1"/>
+      <c r="F367" s="1"/>
+      <c r="G367" s="1"/>
       <c r="H367" s="1"/>
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
       <c r="K367" s="1"/>
       <c r="L367" s="1"/>
-      <c r="M367" s="1">
-        <v>10</v>
-      </c>
+      <c r="M367" s="1"/>
       <c r="N367" s="1"/>
       <c r="O367" s="1"/>
       <c r="P367" s="1"/>
       <c r="Q367" s="1"/>
       <c r="R367" s="1"/>
-      <c r="U367" s="1">
-        <v>5</v>
-      </c>
-      <c r="V367" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y367" s="1">
-        <v>5</v>
-      </c>
+      <c r="U367" s="1"/>
+      <c r="V367" s="1"/>
+      <c r="Y367" s="1"/>
       <c r="AA367" s="2">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB367" s="1" t="s">
         <v>22</v>
@@ -21319,27 +21227,13 @@
       <c r="A368" s="1">
         <v>368</v>
       </c>
-      <c r="B368" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C368" s="1">
-        <v>708</v>
-      </c>
-      <c r="D368" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="E368" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="F368" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G368" s="1">
-        <v>240</v>
-      </c>
-      <c r="H368" s="1">
-        <v>640</v>
-      </c>
+      <c r="B368" s="1"/>
+      <c r="C368" s="1"/>
+      <c r="D368" s="1"/>
+      <c r="E368" s="1"/>
+      <c r="F368" s="1"/>
+      <c r="G368" s="1"/>
+      <c r="H368" s="1"/>
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
       <c r="K368" s="1"/>
@@ -21350,18 +21244,12 @@
       <c r="P368" s="1"/>
       <c r="Q368" s="1"/>
       <c r="R368" s="1"/>
-      <c r="U368" s="1">
-        <v>800</v>
-      </c>
-      <c r="V368" s="1">
-        <v>360</v>
-      </c>
-      <c r="Y368" s="1">
-        <v>360</v>
-      </c>
+      <c r="U368" s="1"/>
+      <c r="V368" s="1"/>
+      <c r="Y368" s="1"/>
       <c r="AA368" s="2">
         <f t="shared" si="6"/>
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="AB368" s="1" t="s">
         <v>22</v>
@@ -27872,7 +27760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFED1B6-6669-418D-935F-274B00B50F32}">
   <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -28495,7 +28383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF03CF93-A241-4DB9-ACD8-61B0F18F4B55}">
   <dimension ref="A1:V222"/>
   <sheetViews>
-    <sheetView topLeftCell="A200" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A200" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F217" sqref="F217"/>
     </sheetView>
   </sheetViews>
@@ -29874,8 +29762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA1C6DF-1C6F-4A7E-AA08-F9BD66EE655C}">
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30413,7 +30301,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5A93FC-B660-41E6-8B51-1071957E079F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E583D896-20BD-46F0-B261-1B8478CB12B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="1" activeTab="7" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCESSOS DE FABRICAÇÃO" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="524">
   <si>
     <t>ORCAMENTO</t>
   </si>
@@ -1605,6 +1605,9 @@
   </si>
   <si>
     <t>HVHV311567-02</t>
+  </si>
+  <si>
+    <t>N4-0200328</t>
   </si>
 </sst>
 </file>
@@ -2657,7 +2660,7 @@
   </sheetPr>
   <dimension ref="A1:AV540"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M364" sqref="M364"/>
     </sheetView>
@@ -29872,10 +29875,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA1C6DF-1C6F-4A7E-AA08-F9BD66EE655C}">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30382,6 +30385,126 @@
     <row r="97" spans="2:2">
       <c r="B97" s="15" t="s">
         <v>516</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="15">
+        <v>10003493942</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="15">
+        <v>10003495772</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="15">
+        <v>10004122409</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="15" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="15">
+        <v>10004910044</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="15">
+        <v>10004489762</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="15">
+        <v>10003929259</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="15">
+        <v>10003332656</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="15">
+        <v>13108605</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="15">
+        <v>10009855888</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="15">
+        <v>10005159680</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="15">
+        <v>10007692181</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="15">
+        <v>10005396135</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="15">
+        <v>10005395196</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="15" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="15" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="15">
+        <v>10006847127</v>
       </c>
     </row>
   </sheetData>
@@ -30410,10 +30533,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC684379-4DA6-4542-878A-CB7C3F3346DA}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30468,6 +30591,11 @@
     <row r="9" spans="1:2">
       <c r="B9" s="15" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -30496,10 +30624,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2C057B-75E7-43E4-AAB1-9BAF96F7F0C9}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30519,6 +30647,11 @@
     <row r="2" spans="1:2">
       <c r="B2" s="15" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="9">
+        <v>10008511251</v>
       </c>
     </row>
   </sheetData>

--- a/Processos_de_Fabricacao.xlsx
+++ b/Processos_de_Fabricacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E583D896-20BD-46F0-B261-1B8478CB12B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A0E91A-6D7D-4EB3-9E75-0112ECF44FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="1" activeTab="7" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="1" activeTab="5" xr2:uid="{58A984F1-E207-46C1-8C53-326D48770ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCESSOS DE FABRICAÇÃO" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="530">
   <si>
     <t>ORCAMENTO</t>
   </si>
@@ -1608,6 +1608,24 @@
   </si>
   <si>
     <t>N4-0200328</t>
+  </si>
+  <si>
+    <t>N4-0200351</t>
+  </si>
+  <si>
+    <t>N4-0200333</t>
+  </si>
+  <si>
+    <t>N4-0200346</t>
+  </si>
+  <si>
+    <t>N2-0200019</t>
+  </si>
+  <si>
+    <t>4514060010-004</t>
+  </si>
+  <si>
+    <t>4529930030-004</t>
   </si>
 </sst>
 </file>
@@ -2661,8 +2679,8 @@
   <dimension ref="A1:AV540"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M364" sqref="M364"/>
+      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G378" sqref="G378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2844,14 +2862,14 @@
       </c>
       <c r="AL2" s="1">
         <f>SUM(G2:G500)</f>
-        <v>6362</v>
+        <v>6407</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN2" s="21">
         <f>AL2/AL23</f>
-        <v>0.11985614248600704</v>
+        <v>0.11994690659792231</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -2920,21 +2938,21 @@
       </c>
       <c r="AN3" s="21">
         <f>AL3/AL23</f>
-        <v>9.0843495609482239E-2</v>
+        <v>9.0273760514309562E-2</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>470</v>
       </c>
       <c r="AQ3" s="1">
         <f>SUM(AL2:AL5)</f>
-        <v>11486.3</v>
+        <v>11531.3</v>
       </c>
       <c r="AR3" t="s">
         <v>22</v>
       </c>
       <c r="AS3" s="21">
         <f>AQ3/AL23</f>
-        <v>0.21639478299858891</v>
+        <v>0.21588009428010324</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -3005,7 +3023,7 @@
       </c>
       <c r="AN4" s="21">
         <f>AL4/AL23</f>
-        <v>5.5632692354790764E-3</v>
+        <v>5.5283785731803431E-3</v>
       </c>
       <c r="AP4" s="1"/>
       <c r="AS4" s="1"/>
@@ -3078,21 +3096,21 @@
       </c>
       <c r="AN5" s="21">
         <f>AL5/AL23</f>
-        <v>1.3187566762056733E-4</v>
+        <v>1.3104859469103422E-4</v>
       </c>
       <c r="AP5" s="1" t="s">
         <v>471</v>
       </c>
       <c r="AQ5" s="1">
         <f>SUM(AL6:AL7)</f>
-        <v>3122</v>
+        <v>3202</v>
       </c>
       <c r="AR5" t="s">
         <v>22</v>
       </c>
       <c r="AS5" s="21">
         <f>AQ5/AL23</f>
-        <v>5.8816547758773027E-2</v>
+        <v>5.9945371457241652E-2</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -3156,14 +3174,14 @@
       </c>
       <c r="AL6" s="1">
         <f>SUM(K2:K501)</f>
-        <v>2853</v>
+        <v>2933</v>
       </c>
       <c r="AM6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN6" s="21">
         <f>AL6/AL23</f>
-        <v>5.3748754245925512E-2</v>
+        <v>5.4909361175543334E-2</v>
       </c>
       <c r="AS6" s="1"/>
     </row>
@@ -3235,21 +3253,21 @@
       </c>
       <c r="AN7" s="21">
         <f>AL7/AL23</f>
-        <v>5.0677935128475154E-3</v>
+        <v>5.0360102816983145E-3</v>
       </c>
       <c r="AP7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AQ7" s="1">
         <f>AL8</f>
-        <v>6733</v>
+        <v>6823</v>
       </c>
       <c r="AR7" t="s">
         <v>22</v>
       </c>
       <c r="AS7" s="22">
         <f>AN8</f>
-        <v>0.1268455528698971</v>
+        <v>0.12773493736813235</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -3313,14 +3331,14 @@
       </c>
       <c r="AL8" s="1">
         <f>SUM(M2:M499)</f>
-        <v>6733</v>
+        <v>6823</v>
       </c>
       <c r="AM8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN8" s="21">
         <f>AL8/AL23</f>
-        <v>0.1268455528698971</v>
+        <v>0.12773493736813235</v>
       </c>
       <c r="AS8" s="1"/>
     </row>
@@ -3392,7 +3410,7 @@
       </c>
       <c r="AN9" s="21">
         <f>AL9/AL23</f>
-        <v>4.900123021158509E-2</v>
+        <v>4.8693913541625708E-2</v>
       </c>
       <c r="AP9" s="1" t="s">
         <v>469</v>
@@ -3406,7 +3424,7 @@
       </c>
       <c r="AS9" s="22">
         <f>AN9</f>
-        <v>4.900123021158509E-2</v>
+        <v>4.8693913541625708E-2</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -3477,7 +3495,7 @@
       </c>
       <c r="AN10" s="21">
         <f>AL10/AL23</f>
-        <v>3.1650160228936159E-3</v>
+        <v>3.1451662725848211E-3</v>
       </c>
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
@@ -3551,7 +3569,7 @@
       </c>
       <c r="AN11" s="21">
         <f>AL11/AL23</f>
-        <v>1.3828105719070916E-2</v>
+        <v>1.3741381214745586E-2</v>
       </c>
       <c r="AP11" s="1" t="s">
         <v>472</v>
@@ -3565,7 +3583,7 @@
       </c>
       <c r="AS11" s="22">
         <f>AQ11/AL23</f>
-        <v>2.6149060951049633E-2</v>
+        <v>2.5985064204450785E-2</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -3634,7 +3652,7 @@
       </c>
       <c r="AN12" s="21">
         <f>AL12/AL23</f>
-        <v>9.1559392090851035E-3</v>
+        <v>9.0985167171203744E-3</v>
       </c>
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
@@ -3704,7 +3722,7 @@
       </c>
       <c r="AN13" s="21">
         <f>AL13/AL23</f>
-        <v>1.6955442979787226E-3</v>
+        <v>1.6849105031704397E-3</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>13</v>
@@ -3718,7 +3736,7 @@
       </c>
       <c r="AS13" s="22">
         <f>AQ13/AL23</f>
-        <v>1.6955442979787226E-3</v>
+        <v>1.6849105031704397E-3</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -3781,7 +3799,7 @@
       </c>
       <c r="AN14" s="21">
         <f>AL14/AL23</f>
-        <v>2.2607257306382971E-3</v>
+        <v>2.2465473375605865E-3</v>
       </c>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
@@ -3867,7 +3885,7 @@
       </c>
       <c r="AS15" s="22">
         <f>AN14</f>
-        <v>2.2607257306382971E-3</v>
+        <v>2.2465473375605865E-3</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -3931,14 +3949,14 @@
       </c>
       <c r="AL16" s="1">
         <f>SUM(U4:U499)</f>
-        <v>15064</v>
+        <v>15124</v>
       </c>
       <c r="AM16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN16" s="21">
         <f>AL16/AL23</f>
-        <v>0.28379643671946087</v>
+        <v>0.28313984944388593</v>
       </c>
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1"/>
@@ -3999,14 +4017,14 @@
       </c>
       <c r="AL17" s="1">
         <f>SUM(V11:V499)</f>
-        <v>5462</v>
+        <v>5492</v>
       </c>
       <c r="AM17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN17" s="21">
         <f>AL17/AL23</f>
-        <v>0.10290069950621981</v>
+        <v>0.10281698314902284</v>
       </c>
       <c r="AP17" s="1" t="s">
         <v>14</v>
@@ -4087,7 +4105,7 @@
       </c>
       <c r="AN18" s="21">
         <f>AL18/AL23</f>
-        <v>1.2584706567219854E-2</v>
+        <v>1.2505780179087265E-2</v>
       </c>
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
@@ -4155,21 +4173,21 @@
       </c>
       <c r="AN19" s="21">
         <f>AL19/AL23</f>
-        <v>5.9494765477964513E-2</v>
+        <v>5.9121637433469432E-2</v>
       </c>
       <c r="AP19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AQ19" s="1">
         <f>AL16</f>
-        <v>15064</v>
+        <v>15124</v>
       </c>
       <c r="AR19" t="s">
         <v>22</v>
       </c>
       <c r="AS19" s="22">
         <f>AN16</f>
-        <v>0.28379643671946087</v>
+        <v>0.28313984944388593</v>
       </c>
     </row>
     <row r="20" spans="1:46">
@@ -4233,14 +4251,14 @@
       </c>
       <c r="AL20" s="1">
         <f>SUM(Y5:Y499)</f>
-        <v>3128</v>
+        <v>3158</v>
       </c>
       <c r="AM20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AN20" s="21">
         <f>AL20/AL23</f>
-        <v>5.892958404530494E-2</v>
+        <v>5.9121637433469432E-2</v>
       </c>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
@@ -4316,21 +4334,21 @@
       </c>
       <c r="AN21" s="21">
         <f>AL21/AL23</f>
-        <v>1.1303628653191486E-3</v>
+        <v>1.1232736687802932E-3</v>
       </c>
       <c r="AP21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AQ21" s="1">
         <f>AL17</f>
-        <v>5462</v>
+        <v>5492</v>
       </c>
       <c r="AR21" t="s">
         <v>22</v>
       </c>
       <c r="AS21" s="22">
         <f>AN17</f>
-        <v>0.10290069950621981</v>
+        <v>0.10281698314902284</v>
       </c>
     </row>
     <row r="22" spans="1:46">
@@ -4458,7 +4476,7 @@
       </c>
       <c r="AL23" s="1">
         <f>SUM(AL2:AL21)</f>
-        <v>53080.3</v>
+        <v>53415.3</v>
       </c>
       <c r="AM23" s="1" t="s">
         <v>22</v>
@@ -4475,7 +4493,7 @@
       </c>
       <c r="AS23" s="22">
         <f>AN18</f>
-        <v>1.2584706567219854E-2</v>
+        <v>1.2505780179087265E-2</v>
       </c>
     </row>
     <row r="24" spans="1:46">
@@ -4606,7 +4624,7 @@
       </c>
       <c r="AS25" s="22">
         <f>AN19</f>
-        <v>5.9494765477964513E-2</v>
+        <v>5.9121637433469432E-2</v>
       </c>
     </row>
     <row r="26" spans="1:46">
@@ -4726,14 +4744,14 @@
       </c>
       <c r="AQ27" s="1">
         <f>AL20</f>
-        <v>3128</v>
+        <v>3158</v>
       </c>
       <c r="AR27" t="s">
         <v>22</v>
       </c>
       <c r="AS27" s="22">
         <f>AN20</f>
-        <v>5.892958404530494E-2</v>
+        <v>5.9121637433469432E-2</v>
       </c>
     </row>
     <row r="28" spans="1:46">
@@ -4860,7 +4878,7 @@
       </c>
       <c r="AS29" s="22">
         <f>AN21</f>
-        <v>1.1303628653191486E-3</v>
+        <v>1.1232736687802932E-3</v>
       </c>
     </row>
     <row r="30" spans="1:46">
@@ -4980,14 +4998,14 @@
       </c>
       <c r="AQ31" s="1">
         <f>SUM(AQ3:AQ29)</f>
-        <v>53080.3</v>
+        <v>53415.3</v>
       </c>
       <c r="AR31" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AS31" s="23">
         <f>SUM(AS3:AS29)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AT31" s="20"/>
     </row>
@@ -21374,29 +21392,51 @@
       <c r="A369" s="1">
         <v>369</v>
       </c>
-      <c r="B369" s="1"/>
-      <c r="C369" s="1"/>
-      <c r="D369" s="1"/>
-      <c r="E369" s="1"/>
-      <c r="F369" s="1"/>
-      <c r="G369" s="1"/>
+      <c r="B369" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C369" s="1">
+        <v>481</v>
+      </c>
+      <c r="D369" s="1">
+        <v>10003495772</v>
+      </c>
+      <c r="E369" s="1">
+        <v>13201385</v>
+      </c>
+      <c r="F369" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G369" s="1">
+        <v>45</v>
+      </c>
       <c r="H369" s="1"/>
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
-      <c r="K369" s="1"/>
+      <c r="K369" s="1">
+        <v>80</v>
+      </c>
       <c r="L369" s="1"/>
-      <c r="M369" s="1"/>
+      <c r="M369" s="1">
+        <v>90</v>
+      </c>
       <c r="N369" s="1"/>
       <c r="O369" s="1"/>
       <c r="P369" s="1"/>
       <c r="Q369" s="1"/>
       <c r="R369" s="1"/>
-      <c r="U369" s="1"/>
-      <c r="V369" s="1"/>
-      <c r="Y369" s="1"/>
+      <c r="U369" s="1">
+        <v>60</v>
+      </c>
+      <c r="V369" s="1">
+        <v>30</v>
+      </c>
+      <c r="Y369" s="1">
+        <v>30</v>
+      </c>
       <c r="AA369" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="AB369" s="1" t="s">
         <v>22</v>
@@ -28496,10 +28536,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF03CF93-A241-4DB9-ACD8-61B0F18F4B55}">
-  <dimension ref="A1:V222"/>
+  <dimension ref="A1:V227"/>
   <sheetViews>
-    <sheetView topLeftCell="A200" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F217" sqref="F217"/>
+    <sheetView topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B228" sqref="B228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29846,6 +29886,31 @@
     <row r="222" spans="2:2">
       <c r="B222" s="15" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" s="15" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" s="15" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" s="15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" s="15" t="s">
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -29875,10 +29940,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA1C6DF-1C6F-4A7E-AA08-F9BD66EE655C}">
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G116" sqref="G116"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="J107" sqref="J107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30505,6 +30570,21 @@
     <row r="121" spans="2:2">
       <c r="B121" s="15">
         <v>10006847127</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="15" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="15" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="15" t="s">
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -30533,10 +30613,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC684379-4DA6-4542-878A-CB7C3F3346DA}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30596,6 +30676,16 @@
     <row r="10" spans="1:2">
       <c r="B10" s="9" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="9" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="9" t="s">
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -30626,7 +30716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microso